--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.220467</v>
+        <v>0.232921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22422</v>
+        <v>0.246134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.229959</v>
+        <v>0.248114</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.222388</v>
+        <v>0.238298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240301</v>
+        <v>0.246675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235341</v>
+        <v>0.253287</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239579</v>
+        <v>0.242945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239606</v>
+        <v>0.251392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239502</v>
+        <v>0.257807</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23786</v>
+        <v>0.24813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.255709</v>
+        <v>0.257347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262195</v>
+        <v>0.262061</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222927</v>
+        <v>0.252894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251209</v>
+        <v>0.260646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267184</v>
+        <v>0.268782</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.252188</v>
+        <v>0.252987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205847</v>
+        <v>0.208071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21703</v>
+        <v>0.217828</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253277</v>
+        <v>0.260201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196089</v>
+        <v>0.21378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226541</v>
+        <v>0.223734</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263259</v>
+        <v>0.261693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215073</v>
+        <v>0.218258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.209268</v>
+        <v>0.230742</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253424</v>
+        <v>0.265117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222122</v>
+        <v>0.225292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.210808</v>
+        <v>0.235618</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.237784</v>
+        <v>0.268795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232508</v>
+        <v>0.231425</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231563</v>
+        <v>0.242663</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.269968</v>
+        <v>0.271211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218766</v>
+        <v>0.241478</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220672</v>
+        <v>0.249357</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.211551</v>
+        <v>0.226416</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235382</v>
+        <v>0.245108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254963</v>
+        <v>0.255343</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.231302</v>
+        <v>0.231636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.250575</v>
+        <v>0.250665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250803</v>
+        <v>0.263066</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.218539</v>
+        <v>0.236452</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247519</v>
+        <v>0.25625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252155</v>
+        <v>0.269846</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240907</v>
+        <v>0.244113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260375</v>
+        <v>0.26063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276494</v>
+        <v>0.274854</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247077</v>
+        <v>0.249012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.264756</v>
+        <v>0.264634</v>
       </c>
       <c r="D17" t="n">
-        <v>0.269815</v>
+        <v>0.280344</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254645</v>
+        <v>0.254648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271596</v>
+        <v>0.269375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.286734</v>
+        <v>0.285117</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263443</v>
+        <v>0.260103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.272064</v>
+        <v>0.27427</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29067</v>
+        <v>0.29132</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266994</v>
+        <v>0.267901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260835</v>
+        <v>0.279812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.285467</v>
+        <v>0.299329</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253286</v>
+        <v>0.274481</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205677</v>
+        <v>0.214558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204825</v>
+        <v>0.230774</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249279</v>
+        <v>0.280716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211285</v>
+        <v>0.222495</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222002</v>
+        <v>0.238704</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267644</v>
+        <v>0.288131</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219097</v>
+        <v>0.230474</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225007</v>
+        <v>0.247794</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.265216</v>
+        <v>0.292401</v>
       </c>
       <c r="C24" t="n">
-        <v>0.233551</v>
+        <v>0.236105</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251259</v>
+        <v>0.255467</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.267614</v>
+        <v>0.302966</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227445</v>
+        <v>0.247271</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259931</v>
+        <v>0.26639</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301079</v>
+        <v>0.304733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245654</v>
+        <v>0.257216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.275119</v>
+        <v>0.275069</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.257284</v>
+        <v>0.258724</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259976</v>
+        <v>0.264294</v>
       </c>
       <c r="D27" t="n">
-        <v>0.278449</v>
+        <v>0.283724</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.247112</v>
+        <v>0.265535</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258596</v>
+        <v>0.271292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275794</v>
+        <v>0.294028</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26462</v>
+        <v>0.274723</v>
       </c>
       <c r="C29" t="n">
-        <v>0.257541</v>
+        <v>0.277148</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291361</v>
+        <v>0.30516</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.25923</v>
+        <v>0.279814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.285181</v>
+        <v>0.285379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.309296</v>
+        <v>0.311397</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268672</v>
+        <v>0.284992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29463</v>
+        <v>0.295844</v>
       </c>
       <c r="D31" t="n">
-        <v>0.299925</v>
+        <v>0.32279</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285595</v>
+        <v>0.292825</v>
       </c>
       <c r="C32" t="n">
-        <v>0.270905</v>
+        <v>0.299844</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321587</v>
+        <v>0.329159</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.297836</v>
+        <v>0.299434</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308323</v>
+        <v>0.308586</v>
       </c>
       <c r="D33" t="n">
-        <v>0.338381</v>
+        <v>0.340773</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2963</v>
+        <v>0.305428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.313553</v>
+        <v>0.314866</v>
       </c>
       <c r="D34" t="n">
-        <v>0.342092</v>
+        <v>0.351293</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.300273</v>
+        <v>0.31411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228879</v>
+        <v>0.246866</v>
       </c>
       <c r="D35" t="n">
-        <v>0.260052</v>
+        <v>0.277552</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.305229</v>
+        <v>0.317394</v>
       </c>
       <c r="C36" t="n">
-        <v>0.253322</v>
+        <v>0.254956</v>
       </c>
       <c r="D36" t="n">
-        <v>0.288314</v>
+        <v>0.28708</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322161</v>
+        <v>0.32331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257355</v>
+        <v>0.260764</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283099</v>
+        <v>0.293643</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327181</v>
+        <v>0.328329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.269413</v>
+        <v>0.270581</v>
       </c>
       <c r="D38" t="n">
-        <v>0.302524</v>
+        <v>0.303964</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.325433</v>
+        <v>0.33448</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280357</v>
+        <v>0.278576</v>
       </c>
       <c r="D39" t="n">
-        <v>0.317905</v>
+        <v>0.313354</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335581</v>
+        <v>0.338979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285222</v>
+        <v>0.286364</v>
       </c>
       <c r="D40" t="n">
-        <v>0.301485</v>
+        <v>0.332327</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.265721</v>
+        <v>0.280267</v>
       </c>
       <c r="C41" t="n">
-        <v>0.284607</v>
+        <v>0.29497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293875</v>
+        <v>0.328735</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254537</v>
+        <v>0.28476</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269693</v>
+        <v>0.302994</v>
       </c>
       <c r="D42" t="n">
-        <v>0.316156</v>
+        <v>0.340723</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.279272</v>
+        <v>0.292649</v>
       </c>
       <c r="C43" t="n">
-        <v>0.288546</v>
+        <v>0.310439</v>
       </c>
       <c r="D43" t="n">
-        <v>0.333363</v>
+        <v>0.347965</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.285801</v>
+        <v>0.297142</v>
       </c>
       <c r="C44" t="n">
-        <v>0.309439</v>
+        <v>0.317241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.344459</v>
+        <v>0.358426</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.29046</v>
+        <v>0.304705</v>
       </c>
       <c r="C45" t="n">
-        <v>0.325786</v>
+        <v>0.326057</v>
       </c>
       <c r="D45" t="n">
-        <v>0.345653</v>
+        <v>0.369205</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303687</v>
+        <v>0.309513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.319256</v>
+        <v>0.331741</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375888</v>
+        <v>0.372936</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313285</v>
+        <v>0.317707</v>
       </c>
       <c r="C47" t="n">
-        <v>0.339679</v>
+        <v>0.339311</v>
       </c>
       <c r="D47" t="n">
-        <v>0.378779</v>
+        <v>0.384201</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.324278</v>
+        <v>0.324587</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325172</v>
+        <v>0.348378</v>
       </c>
       <c r="D48" t="n">
-        <v>0.353807</v>
+        <v>0.393143</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.298595</v>
+        <v>0.330625</v>
       </c>
       <c r="C49" t="n">
-        <v>0.318604</v>
+        <v>0.355792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.387025</v>
+        <v>0.401542</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.340562</v>
+        <v>0.336543</v>
       </c>
       <c r="C50" t="n">
-        <v>0.277073</v>
+        <v>0.276276</v>
       </c>
       <c r="D50" t="n">
-        <v>0.312484</v>
+        <v>0.310034</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.341742</v>
+        <v>0.344177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283795</v>
+        <v>0.283462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.320768</v>
+        <v>0.319678</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.35136</v>
+        <v>0.353865</v>
       </c>
       <c r="C52" t="n">
-        <v>0.290056</v>
+        <v>0.293276</v>
       </c>
       <c r="D52" t="n">
-        <v>0.316956</v>
+        <v>0.331822</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323097</v>
+        <v>0.360983</v>
       </c>
       <c r="C53" t="n">
-        <v>0.277588</v>
+        <v>0.300672</v>
       </c>
       <c r="D53" t="n">
-        <v>0.32017</v>
+        <v>0.342846</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.365704</v>
+        <v>0.367988</v>
       </c>
       <c r="C54" t="n">
-        <v>0.311425</v>
+        <v>0.310479</v>
       </c>
       <c r="D54" t="n">
-        <v>0.342138</v>
+        <v>0.353673</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.369733</v>
+        <v>0.375355</v>
       </c>
       <c r="C55" t="n">
-        <v>0.317177</v>
+        <v>0.32198</v>
       </c>
       <c r="D55" t="n">
-        <v>0.360593</v>
+        <v>0.362622</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.312926</v>
+        <v>0.333092</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301187</v>
+        <v>0.331687</v>
       </c>
       <c r="D56" t="n">
-        <v>0.355784</v>
+        <v>0.376265</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.316924</v>
+        <v>0.34305</v>
       </c>
       <c r="C57" t="n">
-        <v>0.326608</v>
+        <v>0.3408</v>
       </c>
       <c r="D57" t="n">
-        <v>0.362577</v>
+        <v>0.387251</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.366901</v>
+        <v>0.343487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347038</v>
+        <v>0.347168</v>
       </c>
       <c r="D58" t="n">
-        <v>0.370353</v>
+        <v>0.394745</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.318804</v>
+        <v>0.355547</v>
       </c>
       <c r="C59" t="n">
-        <v>0.359422</v>
+        <v>0.359416</v>
       </c>
       <c r="D59" t="n">
-        <v>0.402944</v>
+        <v>0.410276</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.364522</v>
+        <v>0.360943</v>
       </c>
       <c r="C60" t="n">
-        <v>0.349046</v>
+        <v>0.367142</v>
       </c>
       <c r="D60" t="n">
-        <v>0.431095</v>
+        <v>0.425317</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.385401</v>
+        <v>0.37574</v>
       </c>
       <c r="C61" t="n">
-        <v>0.353349</v>
+        <v>0.378382</v>
       </c>
       <c r="D61" t="n">
-        <v>0.41812</v>
+        <v>0.436153</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.372012</v>
+        <v>0.375978</v>
       </c>
       <c r="C62" t="n">
-        <v>0.379511</v>
+        <v>0.385983</v>
       </c>
       <c r="D62" t="n">
-        <v>0.438494</v>
+        <v>0.44772</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.362719</v>
+        <v>0.394614</v>
       </c>
       <c r="C63" t="n">
-        <v>0.381852</v>
+        <v>0.402397</v>
       </c>
       <c r="D63" t="n">
-        <v>0.41538</v>
+        <v>0.462704</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.374404</v>
+        <v>0.40769</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295792</v>
+        <v>0.322856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.352197</v>
+        <v>0.380158</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.360122</v>
+        <v>0.427855</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303932</v>
+        <v>0.338547</v>
       </c>
       <c r="D65" t="n">
-        <v>0.355063</v>
+        <v>0.40015</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.402835</v>
+        <v>0.455043</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322295</v>
+        <v>0.352036</v>
       </c>
       <c r="D66" t="n">
-        <v>0.378446</v>
+        <v>0.438515</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.495189</v>
+        <v>0.473166</v>
       </c>
       <c r="C67" t="n">
-        <v>0.388848</v>
+        <v>0.373673</v>
       </c>
       <c r="D67" t="n">
-        <v>0.467748</v>
+        <v>0.422506</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.509013</v>
+        <v>0.456128</v>
       </c>
       <c r="C68" t="n">
-        <v>0.372951</v>
+        <v>0.368575</v>
       </c>
       <c r="D68" t="n">
-        <v>0.428394</v>
+        <v>0.448432</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5071</v>
+        <v>0.491945</v>
       </c>
       <c r="C69" t="n">
-        <v>0.354709</v>
+        <v>0.393332</v>
       </c>
       <c r="D69" t="n">
-        <v>0.446777</v>
+        <v>0.472361</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.465371</v>
+        <v>0.435001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.439583</v>
+        <v>0.403196</v>
       </c>
       <c r="D70" t="n">
-        <v>0.44815</v>
+        <v>0.480262</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.39579</v>
+        <v>0.48012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.362092</v>
+        <v>0.434648</v>
       </c>
       <c r="D71" t="n">
-        <v>0.434851</v>
+        <v>0.53511</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.380492</v>
+        <v>0.467092</v>
       </c>
       <c r="C72" t="n">
-        <v>0.380815</v>
+        <v>0.468725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.453259</v>
+        <v>0.604802</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.423845</v>
+        <v>0.522458</v>
       </c>
       <c r="C73" t="n">
-        <v>0.413699</v>
+        <v>0.507423</v>
       </c>
       <c r="D73" t="n">
-        <v>0.485881</v>
+        <v>0.580969</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.422228</v>
+        <v>0.615005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.440198</v>
+        <v>0.489451</v>
       </c>
       <c r="D74" t="n">
-        <v>0.504023</v>
+        <v>0.56214</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453106</v>
+        <v>0.537924</v>
       </c>
       <c r="C75" t="n">
-        <v>0.448642</v>
+        <v>0.493154</v>
       </c>
       <c r="D75" t="n">
-        <v>0.52024</v>
+        <v>0.5913</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5719959999999999</v>
+        <v>0.568275</v>
       </c>
       <c r="C76" t="n">
-        <v>0.71899</v>
+        <v>0.567516</v>
       </c>
       <c r="D76" t="n">
-        <v>0.724422</v>
+        <v>0.606565</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.767899</v>
+        <v>0.572265</v>
       </c>
       <c r="C77" t="n">
-        <v>0.578203</v>
+        <v>0.53742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.617855</v>
+        <v>0.619595</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6641089999999999</v>
+        <v>0.674386</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5295029999999999</v>
+        <v>0.442363</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55343</v>
+        <v>0.557458</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.698963</v>
+        <v>0.601348</v>
       </c>
       <c r="C79" t="n">
-        <v>0.51041</v>
+        <v>0.439773</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638741</v>
+        <v>0.541284</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.657525</v>
+        <v>0.669338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.446872</v>
+        <v>0.516123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.519657</v>
+        <v>0.589338</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.562134</v>
+        <v>0.578175</v>
       </c>
       <c r="C81" t="n">
-        <v>0.451332</v>
+        <v>0.506134</v>
       </c>
       <c r="D81" t="n">
-        <v>0.533416</v>
+        <v>0.637204</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.591656</v>
+        <v>0.7758890000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.457371</v>
+        <v>0.570596</v>
       </c>
       <c r="D82" t="n">
-        <v>0.527006</v>
+        <v>0.654336</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.61626</v>
+        <v>0.812131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441034</v>
+        <v>0.64696</v>
       </c>
       <c r="D83" t="n">
-        <v>0.560413</v>
+        <v>0.696441</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.565075</v>
+        <v>0.641033</v>
       </c>
       <c r="C84" t="n">
-        <v>0.622838</v>
+        <v>0.5462669999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.593957</v>
+        <v>0.666851</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.787587</v>
+        <v>0.674063</v>
       </c>
       <c r="C85" t="n">
-        <v>0.777482</v>
+        <v>0.597152</v>
       </c>
       <c r="D85" t="n">
-        <v>0.859588</v>
+        <v>0.874992</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8327</v>
+        <v>0.706026</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7423650000000001</v>
+        <v>0.650796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.878969</v>
+        <v>0.821628</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.84237</v>
+        <v>0.764221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7541</v>
+        <v>0.665749</v>
       </c>
       <c r="D87" t="n">
-        <v>0.96336</v>
+        <v>0.815984</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.872402</v>
+        <v>0.791263</v>
       </c>
       <c r="C88" t="n">
-        <v>0.809024</v>
+        <v>0.708522</v>
       </c>
       <c r="D88" t="n">
-        <v>0.859161</v>
+        <v>0.87072</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.747133</v>
+        <v>0.787124</v>
       </c>
       <c r="C89" t="n">
-        <v>0.642645</v>
+        <v>0.7572719999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.739702</v>
+        <v>0.9623</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7793949999999999</v>
+        <v>0.811383</v>
       </c>
       <c r="C90" t="n">
-        <v>0.655547</v>
+        <v>0.814051</v>
       </c>
       <c r="D90" t="n">
-        <v>0.797868</v>
+        <v>0.929586</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.786572</v>
+        <v>0.840516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.667584</v>
+        <v>0.817737</v>
       </c>
       <c r="D91" t="n">
-        <v>0.868638</v>
+        <v>0.988098</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.812975</v>
+        <v>0.85865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5597220000000001</v>
+        <v>0.640953</v>
       </c>
       <c r="D92" t="n">
-        <v>0.748309</v>
+        <v>0.80597</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.03338</v>
+        <v>0.855423</v>
       </c>
       <c r="C93" t="n">
-        <v>0.834429</v>
+        <v>0.639068</v>
       </c>
       <c r="D93" t="n">
-        <v>0.993753</v>
+        <v>0.78753</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.02665</v>
+        <v>0.933306</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8408949999999999</v>
+        <v>0.74087</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0095</v>
+        <v>0.88956</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08086</v>
+        <v>0.969071</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8581029999999999</v>
+        <v>0.773288</v>
       </c>
       <c r="D95" t="n">
-        <v>0.980283</v>
+        <v>0.952911</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.985815</v>
+        <v>1.0075</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7153890000000001</v>
+        <v>0.741499</v>
       </c>
       <c r="D96" t="n">
-        <v>0.865555</v>
+        <v>0.89793</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9963959999999999</v>
+        <v>0.958809</v>
       </c>
       <c r="C97" t="n">
-        <v>0.746614</v>
+        <v>0.7905</v>
       </c>
       <c r="D97" t="n">
-        <v>0.918784</v>
+        <v>0.9805199999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.831947</v>
+        <v>0.801268</v>
       </c>
       <c r="C98" t="n">
-        <v>0.724932</v>
+        <v>0.805543</v>
       </c>
       <c r="D98" t="n">
-        <v>0.91317</v>
+        <v>1.02179</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.844367</v>
+        <v>0.836361</v>
       </c>
       <c r="C99" t="n">
-        <v>0.774222</v>
+        <v>0.833923</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10774</v>
+        <v>1.09506</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.992696</v>
+        <v>0.875177</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04171</v>
+        <v>0.878047</v>
       </c>
       <c r="D100" t="n">
-        <v>1.22117</v>
+        <v>1.1084</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00435</v>
+        <v>0.872238</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991933</v>
+        <v>0.898326</v>
       </c>
       <c r="D101" t="n">
-        <v>1.27412</v>
+        <v>1.12195</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.03424</v>
+        <v>0.887088</v>
       </c>
       <c r="C102" t="n">
-        <v>0.935496</v>
+        <v>0.917044</v>
       </c>
       <c r="D102" t="n">
-        <v>1.06122</v>
+        <v>1.18685</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.973712</v>
+        <v>0.918724</v>
       </c>
       <c r="C103" t="n">
-        <v>0.93588</v>
+        <v>0.93616</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08604</v>
+        <v>1.19071</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.989057</v>
+        <v>0.940901</v>
       </c>
       <c r="C104" t="n">
-        <v>0.996016</v>
+        <v>0.968597</v>
       </c>
       <c r="D104" t="n">
-        <v>1.16431</v>
+        <v>1.20627</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.998354</v>
+        <v>0.934204</v>
       </c>
       <c r="C105" t="n">
-        <v>0.980714</v>
+        <v>0.986862</v>
       </c>
       <c r="D105" t="n">
-        <v>1.382</v>
+        <v>1.26277</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.13949</v>
+        <v>0.986636</v>
       </c>
       <c r="C106" t="n">
-        <v>1.16532</v>
+        <v>1.01557</v>
       </c>
       <c r="D106" t="n">
-        <v>1.42328</v>
+        <v>1.29842</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.11701</v>
+        <v>0.993223</v>
       </c>
       <c r="C107" t="n">
-        <v>0.928449</v>
+        <v>0.816787</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1277</v>
+        <v>1.04345</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.10004</v>
+        <v>1.03454</v>
       </c>
       <c r="C108" t="n">
-        <v>0.868655</v>
+        <v>0.832244</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06733</v>
+        <v>1.05495</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.10316</v>
+        <v>1.06511</v>
       </c>
       <c r="C109" t="n">
-        <v>0.877427</v>
+        <v>0.852209</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17239</v>
+        <v>1.08198</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.14077</v>
+        <v>1.07872</v>
       </c>
       <c r="C110" t="n">
-        <v>0.893568</v>
+        <v>0.876212</v>
       </c>
       <c r="D110" t="n">
-        <v>1.30391</v>
+        <v>1.13301</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3013</v>
+        <v>1.10125</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03269</v>
+        <v>0.899918</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3183</v>
+        <v>1.1594</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01443</v>
+        <v>0.934557</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07169</v>
+        <v>0.9194099999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>1.30104</v>
+        <v>1.18689</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9975039999999999</v>
+        <v>0.953431</v>
       </c>
       <c r="C113" t="n">
-        <v>0.977024</v>
+        <v>0.947379</v>
       </c>
       <c r="D113" t="n">
-        <v>1.21451</v>
+        <v>1.23656</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.995817</v>
+        <v>0.99017</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00524</v>
+        <v>0.991718</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25499</v>
+        <v>1.27958</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03046</v>
+        <v>1.02968</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04117</v>
+        <v>1.00774</v>
       </c>
       <c r="D115" t="n">
-        <v>1.32563</v>
+        <v>1.30004</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10817</v>
+        <v>1.02755</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17767</v>
+        <v>1.03008</v>
       </c>
       <c r="D116" t="n">
-        <v>1.48663</v>
+        <v>1.36624</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12549</v>
+        <v>1.0588</v>
       </c>
       <c r="C117" t="n">
-        <v>1.189</v>
+        <v>1.06631</v>
       </c>
       <c r="D117" t="n">
-        <v>1.46748</v>
+        <v>1.38649</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1029</v>
+        <v>1.07404</v>
       </c>
       <c r="C118" t="n">
-        <v>1.1393</v>
+        <v>1.10459</v>
       </c>
       <c r="D118" t="n">
-        <v>1.39789</v>
+        <v>1.45031</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11758</v>
+        <v>1.10696</v>
       </c>
       <c r="C119" t="n">
-        <v>1.15321</v>
+        <v>1.11216</v>
       </c>
       <c r="D119" t="n">
-        <v>1.51187</v>
+        <v>1.45763</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172389</v>
+        <v>0.173408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179239</v>
+        <v>0.179724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142502</v>
+        <v>0.143223</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175104</v>
+        <v>0.176778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.182286</v>
+        <v>0.183489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.143241</v>
+        <v>0.145129</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18127</v>
+        <v>0.181654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189598</v>
+        <v>0.188761</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147025</v>
+        <v>0.147921</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187271</v>
+        <v>0.188464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195525</v>
+        <v>0.197254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150556</v>
+        <v>0.150872</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18944</v>
+        <v>0.190586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200207</v>
+        <v>0.201203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153285</v>
+        <v>0.153228</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.195254</v>
+        <v>0.196708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.151498</v>
+        <v>0.152066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.135468</v>
+        <v>0.136502</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1986</v>
+        <v>0.201235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.15335</v>
+        <v>0.154193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137424</v>
+        <v>0.137994</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.204487</v>
+        <v>0.205477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.157814</v>
+        <v>0.160468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13815</v>
+        <v>0.13991</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.212245</v>
+        <v>0.212367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.162968</v>
+        <v>0.163834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.141604</v>
+        <v>0.141552</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.217253</v>
+        <v>0.21625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16474</v>
+        <v>0.166591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.14362</v>
+        <v>0.143601</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223812</v>
+        <v>0.222525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.172191</v>
+        <v>0.171347</v>
       </c>
       <c r="D12" t="n">
-        <v>0.145854</v>
+        <v>0.146194</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.174928</v>
+        <v>0.175067</v>
       </c>
       <c r="C13" t="n">
-        <v>0.176432</v>
+        <v>0.177508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145866</v>
+        <v>0.14853</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177956</v>
+        <v>0.17871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181226</v>
+        <v>0.180962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.14922</v>
+        <v>0.149385</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183917</v>
+        <v>0.186157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.185072</v>
+        <v>0.186236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.151568</v>
+        <v>0.153033</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.190636</v>
+        <v>0.191869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192383</v>
+        <v>0.193794</v>
       </c>
       <c r="D16" t="n">
-        <v>0.155426</v>
+        <v>0.156137</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200202</v>
+        <v>0.196844</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198479</v>
+        <v>0.198676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.158974</v>
+        <v>0.158641</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.204537</v>
+        <v>0.205653</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203445</v>
+        <v>0.202328</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161095</v>
+        <v>0.162299</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.210917</v>
+        <v>0.211097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214518</v>
+        <v>0.208777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164727</v>
+        <v>0.165258</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.221583</v>
+        <v>0.223413</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219332</v>
+        <v>0.2177</v>
       </c>
       <c r="D20" t="n">
-        <v>0.167654</v>
+        <v>0.168915</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229573</v>
+        <v>0.228248</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165758</v>
+        <v>0.164745</v>
       </c>
       <c r="D21" t="n">
-        <v>0.144336</v>
+        <v>0.143228</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243014</v>
+        <v>0.24007</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1743</v>
+        <v>0.173099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145113</v>
+        <v>0.146761</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251155</v>
+        <v>0.251636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.181594</v>
+        <v>0.180443</v>
       </c>
       <c r="D23" t="n">
-        <v>0.146938</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.260393</v>
+        <v>0.260395</v>
       </c>
       <c r="C24" t="n">
-        <v>0.188608</v>
+        <v>0.186612</v>
       </c>
       <c r="D24" t="n">
-        <v>0.150969</v>
+        <v>0.149773</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272622</v>
+        <v>0.270678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196215</v>
+        <v>0.195702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.152619</v>
+        <v>0.153324</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279912</v>
+        <v>0.280635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205224</v>
+        <v>0.205993</v>
       </c>
       <c r="D26" t="n">
-        <v>0.156889</v>
+        <v>0.156512</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236074</v>
+        <v>0.235525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213832</v>
+        <v>0.211095</v>
       </c>
       <c r="D27" t="n">
-        <v>0.161233</v>
+        <v>0.160056</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.244097</v>
+        <v>0.246738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22282</v>
+        <v>0.223354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.165768</v>
+        <v>0.163368</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.249751</v>
+        <v>0.249728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233557</v>
+        <v>0.233547</v>
       </c>
       <c r="D29" t="n">
-        <v>0.172904</v>
+        <v>0.169869</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.256651</v>
+        <v>0.257196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244331</v>
+        <v>0.246091</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177382</v>
+        <v>0.17885</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.264803</v>
+        <v>0.280366</v>
       </c>
       <c r="C31" t="n">
-        <v>0.254256</v>
+        <v>0.254155</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181028</v>
+        <v>0.180518</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.271417</v>
+        <v>0.278445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.265963</v>
+        <v>0.272574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.186675</v>
+        <v>0.189171</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278284</v>
+        <v>0.278571</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277959</v>
+        <v>0.280093</v>
       </c>
       <c r="D33" t="n">
-        <v>0.19358</v>
+        <v>0.192383</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.286635</v>
+        <v>0.286286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.292962</v>
+        <v>0.293619</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203055</v>
+        <v>0.201504</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291383</v>
+        <v>0.290587</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226026</v>
+        <v>0.225847</v>
       </c>
       <c r="D35" t="n">
-        <v>0.180866</v>
+        <v>0.181542</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.301438</v>
+        <v>0.299052</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234916</v>
+        <v>0.238161</v>
       </c>
       <c r="D36" t="n">
-        <v>0.186151</v>
+        <v>0.186119</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.310621</v>
+        <v>0.310434</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244315</v>
+        <v>0.240824</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190304</v>
+        <v>0.193772</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.324879</v>
+        <v>0.327724</v>
       </c>
       <c r="C38" t="n">
-        <v>0.250811</v>
+        <v>0.251906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197073</v>
+        <v>0.195166</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.328252</v>
+        <v>0.325544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.260607</v>
+        <v>0.255528</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2011</v>
+        <v>0.199544</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.355247</v>
+        <v>0.339493</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267306</v>
+        <v>0.263731</v>
       </c>
       <c r="D40" t="n">
-        <v>0.207704</v>
+        <v>0.206762</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.266665</v>
+        <v>0.267828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.278152</v>
+        <v>0.274961</v>
       </c>
       <c r="D41" t="n">
-        <v>0.210392</v>
+        <v>0.211084</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.278842</v>
+        <v>0.266422</v>
       </c>
       <c r="C42" t="n">
-        <v>0.283306</v>
+        <v>0.279806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215825</v>
+        <v>0.213369</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28265</v>
+        <v>0.282498</v>
       </c>
       <c r="C43" t="n">
-        <v>0.300493</v>
+        <v>0.291283</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221064</v>
+        <v>0.220127</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.296961</v>
+        <v>0.284805</v>
       </c>
       <c r="C44" t="n">
-        <v>0.309619</v>
+        <v>0.299248</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227637</v>
+        <v>0.228036</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.294876</v>
+        <v>0.296861</v>
       </c>
       <c r="C45" t="n">
-        <v>0.312135</v>
+        <v>0.312651</v>
       </c>
       <c r="D45" t="n">
-        <v>0.233029</v>
+        <v>0.235086</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.307381</v>
+        <v>0.304826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324577</v>
+        <v>0.320733</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240141</v>
+        <v>0.237122</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.310681</v>
+        <v>0.309451</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343332</v>
+        <v>0.329087</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245818</v>
+        <v>0.244173</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.338576</v>
+        <v>0.316303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.344466</v>
+        <v>0.343127</v>
       </c>
       <c r="D48" t="n">
-        <v>0.253592</v>
+        <v>0.249678</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.329567</v>
+        <v>0.329379</v>
       </c>
       <c r="C49" t="n">
-        <v>0.357303</v>
+        <v>0.355308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.257055</v>
+        <v>0.257079</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.339819</v>
+        <v>0.335601</v>
       </c>
       <c r="C50" t="n">
-        <v>0.281458</v>
+        <v>0.266328</v>
       </c>
       <c r="D50" t="n">
-        <v>0.217305</v>
+        <v>0.221183</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.369616</v>
+        <v>0.342009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292519</v>
+        <v>0.274462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221823</v>
+        <v>0.223664</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.369423</v>
+        <v>0.357347</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294185</v>
+        <v>0.280441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228687</v>
+        <v>0.227224</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.391794</v>
+        <v>0.365719</v>
       </c>
       <c r="C53" t="n">
-        <v>0.320701</v>
+        <v>0.290818</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23336</v>
+        <v>0.235645</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.402861</v>
+        <v>0.378792</v>
       </c>
       <c r="C54" t="n">
-        <v>0.332174</v>
+        <v>0.299702</v>
       </c>
       <c r="D54" t="n">
-        <v>0.237625</v>
+        <v>0.238877</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.414416</v>
+        <v>0.399558</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33479</v>
+        <v>0.310152</v>
       </c>
       <c r="D55" t="n">
-        <v>0.245923</v>
+        <v>0.243258</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.354895</v>
+        <v>0.324458</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343477</v>
+        <v>0.320651</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251557</v>
+        <v>0.251711</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.384618</v>
+        <v>0.338123</v>
       </c>
       <c r="C57" t="n">
-        <v>0.372296</v>
+        <v>0.333633</v>
       </c>
       <c r="D57" t="n">
-        <v>0.265879</v>
+        <v>0.256127</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.38681</v>
+        <v>0.340683</v>
       </c>
       <c r="C58" t="n">
-        <v>0.37402</v>
+        <v>0.34151</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279314</v>
+        <v>0.262865</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.419745</v>
+        <v>0.355351</v>
       </c>
       <c r="C59" t="n">
-        <v>0.394003</v>
+        <v>0.352596</v>
       </c>
       <c r="D59" t="n">
-        <v>0.273147</v>
+        <v>0.26571</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.438003</v>
+        <v>0.364295</v>
       </c>
       <c r="C60" t="n">
-        <v>0.440433</v>
+        <v>0.368842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.292311</v>
+        <v>0.274993</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.437054</v>
+        <v>0.377463</v>
       </c>
       <c r="C61" t="n">
-        <v>0.470587</v>
+        <v>0.378767</v>
       </c>
       <c r="D61" t="n">
-        <v>0.305479</v>
+        <v>0.282816</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.539214</v>
+        <v>0.388901</v>
       </c>
       <c r="C62" t="n">
-        <v>0.514371</v>
+        <v>0.400298</v>
       </c>
       <c r="D62" t="n">
-        <v>0.328057</v>
+        <v>0.289321</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.578298</v>
+        <v>0.40233</v>
       </c>
       <c r="C63" t="n">
-        <v>0.594958</v>
+        <v>0.415593</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35417</v>
+        <v>0.30155</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.573416</v>
+        <v>0.406877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.459582</v>
+        <v>0.322717</v>
       </c>
       <c r="D64" t="n">
-        <v>0.307592</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.729019</v>
+        <v>0.428182</v>
       </c>
       <c r="C65" t="n">
-        <v>0.587031</v>
+        <v>0.334539</v>
       </c>
       <c r="D65" t="n">
-        <v>0.336951</v>
+        <v>0.266041</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.616452</v>
+        <v>0.443461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.490363</v>
+        <v>0.343071</v>
       </c>
       <c r="D66" t="n">
-        <v>0.357399</v>
+        <v>0.273731</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.847593</v>
+        <v>0.460193</v>
       </c>
       <c r="C67" t="n">
-        <v>0.704339</v>
+        <v>0.357093</v>
       </c>
       <c r="D67" t="n">
-        <v>0.399308</v>
+        <v>0.285013</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.829944</v>
+        <v>0.482182</v>
       </c>
       <c r="C68" t="n">
-        <v>0.663151</v>
+        <v>0.368751</v>
       </c>
       <c r="D68" t="n">
-        <v>0.407336</v>
+        <v>0.288703</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.856082</v>
+        <v>0.5481819999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.717547</v>
+        <v>0.40321</v>
       </c>
       <c r="D69" t="n">
-        <v>0.477577</v>
+        <v>0.295317</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.813315</v>
+        <v>0.387025</v>
       </c>
       <c r="C70" t="n">
-        <v>0.771379</v>
+        <v>0.393919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.485241</v>
+        <v>0.309297</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.779485</v>
+        <v>0.401567</v>
       </c>
       <c r="C71" t="n">
-        <v>0.777191</v>
+        <v>0.409686</v>
       </c>
       <c r="D71" t="n">
-        <v>0.502292</v>
+        <v>0.310226</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.815739</v>
+        <v>0.415699</v>
       </c>
       <c r="C72" t="n">
-        <v>0.792503</v>
+        <v>0.422649</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482384</v>
+        <v>0.318711</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8367250000000001</v>
+        <v>0.423112</v>
       </c>
       <c r="C73" t="n">
-        <v>0.831521</v>
+        <v>0.440313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.550369</v>
+        <v>0.328668</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.836627</v>
+        <v>0.44119</v>
       </c>
       <c r="C74" t="n">
-        <v>0.791285</v>
+        <v>0.461454</v>
       </c>
       <c r="D74" t="n">
-        <v>0.562787</v>
+        <v>0.340119</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.890339</v>
+        <v>0.460813</v>
       </c>
       <c r="C75" t="n">
-        <v>0.841139</v>
+        <v>0.473775</v>
       </c>
       <c r="D75" t="n">
-        <v>0.47404</v>
+        <v>0.352997</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8167489999999999</v>
+        <v>0.486715</v>
       </c>
       <c r="C76" t="n">
-        <v>0.804984</v>
+        <v>0.502816</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5232520000000001</v>
+        <v>0.361278</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.849783</v>
+        <v>0.52281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.889528</v>
+        <v>0.519304</v>
       </c>
       <c r="D77" t="n">
-        <v>0.566353</v>
+        <v>0.378912</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.962186</v>
+        <v>0.52889</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7372840000000001</v>
+        <v>0.404491</v>
       </c>
       <c r="D78" t="n">
-        <v>0.498708</v>
+        <v>0.316305</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.995201</v>
+        <v>0.548976</v>
       </c>
       <c r="C79" t="n">
-        <v>0.725882</v>
+        <v>0.413033</v>
       </c>
       <c r="D79" t="n">
-        <v>0.56247</v>
+        <v>0.323185</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.01703</v>
+        <v>0.600012</v>
       </c>
       <c r="C80" t="n">
-        <v>0.755119</v>
+        <v>0.433013</v>
       </c>
       <c r="D80" t="n">
-        <v>0.526402</v>
+        <v>0.329698</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06694</v>
+        <v>0.640333</v>
       </c>
       <c r="C81" t="n">
-        <v>0.826982</v>
+        <v>0.461395</v>
       </c>
       <c r="D81" t="n">
-        <v>0.619618</v>
+        <v>0.342786</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.14196</v>
+        <v>0.670053</v>
       </c>
       <c r="C82" t="n">
-        <v>0.84275</v>
+        <v>0.499453</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6411289999999999</v>
+        <v>0.354861</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.15176</v>
+        <v>0.712136</v>
       </c>
       <c r="C83" t="n">
-        <v>0.908674</v>
+        <v>0.489164</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5950569999999999</v>
+        <v>0.364089</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.904521</v>
+        <v>0.572263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.942928</v>
+        <v>0.524281</v>
       </c>
       <c r="D84" t="n">
-        <v>0.679599</v>
+        <v>0.390569</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.957618</v>
+        <v>0.594342</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01246</v>
+        <v>0.626478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.752625</v>
+        <v>0.408738</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.983071</v>
+        <v>0.748652</v>
       </c>
       <c r="C86" t="n">
-        <v>1.02601</v>
+        <v>0.62422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.716881</v>
+        <v>0.444019</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00438</v>
+        <v>0.730105</v>
       </c>
       <c r="C87" t="n">
-        <v>1.07801</v>
+        <v>0.706589</v>
       </c>
       <c r="D87" t="n">
-        <v>0.755382</v>
+        <v>0.444351</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.03078</v>
+        <v>0.803647</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09229</v>
+        <v>0.745175</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765776</v>
+        <v>0.536141</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04497</v>
+        <v>0.919618</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1064</v>
+        <v>0.838437</v>
       </c>
       <c r="D89" t="n">
-        <v>0.763544</v>
+        <v>0.542113</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.1052</v>
+        <v>0.91042</v>
       </c>
       <c r="C90" t="n">
-        <v>1.15129</v>
+        <v>0.900373</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8538790000000001</v>
+        <v>0.61822</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.11976</v>
+        <v>0.925713</v>
       </c>
       <c r="C91" t="n">
-        <v>1.22706</v>
+        <v>1.01076</v>
       </c>
       <c r="D91" t="n">
-        <v>0.852044</v>
+        <v>0.622323</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.15285</v>
+        <v>0.986355</v>
       </c>
       <c r="C92" t="n">
-        <v>0.926939</v>
+        <v>0.750982</v>
       </c>
       <c r="D92" t="n">
-        <v>0.728068</v>
+        <v>0.568453</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.215</v>
+        <v>1.05733</v>
       </c>
       <c r="C93" t="n">
-        <v>0.967234</v>
+        <v>0.818755</v>
       </c>
       <c r="D93" t="n">
-        <v>0.76968</v>
+        <v>0.620901</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.24099</v>
+        <v>1.11932</v>
       </c>
       <c r="C94" t="n">
-        <v>0.98444</v>
+        <v>0.859301</v>
       </c>
       <c r="D94" t="n">
-        <v>0.780222</v>
+        <v>0.611152</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22783</v>
+        <v>1.14764</v>
       </c>
       <c r="C95" t="n">
-        <v>0.978333</v>
+        <v>0.926432</v>
       </c>
       <c r="D95" t="n">
-        <v>0.748225</v>
+        <v>0.604499</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26143</v>
+        <v>1.07563</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02815</v>
+        <v>0.848289</v>
       </c>
       <c r="D96" t="n">
-        <v>0.800445</v>
+        <v>0.677409</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33742</v>
+        <v>1.18189</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04069</v>
+        <v>0.894594</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8049809999999999</v>
+        <v>0.633724</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00082</v>
+        <v>0.899157</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09593</v>
+        <v>0.907803</v>
       </c>
       <c r="D98" t="n">
-        <v>0.845423</v>
+        <v>0.638164</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01847</v>
+        <v>0.914969</v>
       </c>
       <c r="C99" t="n">
-        <v>1.10557</v>
+        <v>0.889837</v>
       </c>
       <c r="D99" t="n">
-        <v>0.869169</v>
+        <v>0.650387</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.057</v>
+        <v>0.933687</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16463</v>
+        <v>0.9775700000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.858111</v>
+        <v>0.6636879999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07437</v>
+        <v>0.981615</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1456</v>
+        <v>1.02011</v>
       </c>
       <c r="D101" t="n">
-        <v>0.850061</v>
+        <v>0.721811</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08619</v>
+        <v>1.00474</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18533</v>
+        <v>1.06982</v>
       </c>
       <c r="D102" t="n">
-        <v>0.867625</v>
+        <v>0.727391</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12017</v>
+        <v>1.06091</v>
       </c>
       <c r="C103" t="n">
-        <v>1.24266</v>
+        <v>1.12812</v>
       </c>
       <c r="D103" t="n">
-        <v>0.912944</v>
+        <v>0.745131</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.17797</v>
+        <v>1.06461</v>
       </c>
       <c r="C104" t="n">
-        <v>1.29154</v>
+        <v>1.12822</v>
       </c>
       <c r="D104" t="n">
-        <v>0.972417</v>
+        <v>0.769312</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.20086</v>
+        <v>1.09185</v>
       </c>
       <c r="C105" t="n">
-        <v>1.35335</v>
+        <v>1.17117</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03025</v>
+        <v>0.892279</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.24238</v>
+        <v>1.19881</v>
       </c>
       <c r="C106" t="n">
-        <v>1.3733</v>
+        <v>1.23859</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9987549999999999</v>
+        <v>0.934276</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.25301</v>
+        <v>1.19985</v>
       </c>
       <c r="C107" t="n">
-        <v>0.992404</v>
+        <v>0.9684469999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.802774</v>
+        <v>0.745354</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32179</v>
+        <v>1.21146</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04002</v>
+        <v>0.9155</v>
       </c>
       <c r="D108" t="n">
-        <v>0.857245</v>
+        <v>0.7153890000000001</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.39218</v>
+        <v>1.22368</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10085</v>
+        <v>0.93488</v>
       </c>
       <c r="D109" t="n">
-        <v>0.883962</v>
+        <v>0.75102</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38903</v>
+        <v>1.2836</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11132</v>
+        <v>0.96355</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9022289999999999</v>
+        <v>0.768155</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42978</v>
+        <v>1.30153</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16189</v>
+        <v>1.01551</v>
       </c>
       <c r="D111" t="n">
-        <v>0.947444</v>
+        <v>0.785143</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07165</v>
+        <v>1.00054</v>
       </c>
       <c r="C112" t="n">
-        <v>1.16536</v>
+        <v>1.03792</v>
       </c>
       <c r="D112" t="n">
-        <v>0.941692</v>
+        <v>0.803351</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11348</v>
+        <v>1.06333</v>
       </c>
       <c r="C113" t="n">
-        <v>1.24914</v>
+        <v>1.09442</v>
       </c>
       <c r="D113" t="n">
-        <v>1.00346</v>
+        <v>0.816362</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14451</v>
+        <v>1.04284</v>
       </c>
       <c r="C114" t="n">
-        <v>1.301</v>
+        <v>1.11823</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02716</v>
+        <v>0.8338989999999999</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18531</v>
+        <v>1.10725</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32001</v>
+        <v>1.18653</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01897</v>
+        <v>0.909017</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1759</v>
+        <v>1.14725</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31777</v>
+        <v>1.21224</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03904</v>
+        <v>0.915594</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.21857</v>
+        <v>1.15604</v>
       </c>
       <c r="C117" t="n">
-        <v>1.35387</v>
+        <v>1.24905</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09802</v>
+        <v>0.958113</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24596</v>
+        <v>1.20381</v>
       </c>
       <c r="C118" t="n">
-        <v>1.38076</v>
+        <v>1.26906</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07313</v>
+        <v>0.938377</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25209</v>
+        <v>1.21509</v>
       </c>
       <c r="C119" t="n">
-        <v>1.4339</v>
+        <v>1.32699</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08513</v>
+        <v>0.967522</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.570231</v>
+        <v>0.571757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.444379</v>
+        <v>0.445686</v>
       </c>
       <c r="D2" t="n">
-        <v>0.267882</v>
+        <v>0.267785</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.36025</v>
+        <v>0.361843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.464019</v>
+        <v>0.462627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276821</v>
+        <v>0.275802</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.378758</v>
+        <v>0.379944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.48596</v>
+        <v>0.484001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.284456</v>
+        <v>0.283873</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.39231</v>
+        <v>0.393613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.500023</v>
+        <v>0.501462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293146</v>
+        <v>0.293329</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.413076</v>
+        <v>0.411471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.514691</v>
+        <v>0.517478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.30528</v>
+        <v>0.304982</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.428988</v>
+        <v>0.430336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5386919999999999</v>
+        <v>0.541145</v>
       </c>
       <c r="D7" t="n">
-        <v>0.308368</v>
+        <v>0.309761</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.444711</v>
+        <v>0.444883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.558157</v>
+        <v>0.557037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316484</v>
+        <v>0.316851</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.470981</v>
+        <v>0.46553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.656524</v>
+        <v>0.57737</v>
       </c>
       <c r="D9" t="n">
-        <v>0.359031</v>
+        <v>0.326423</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5003880000000001</v>
+        <v>0.487691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.632953</v>
+        <v>0.604837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.347671</v>
+        <v>0.339265</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.521322</v>
+        <v>0.50965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.388618</v>
+        <v>0.390265</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246819</v>
+        <v>0.246357</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.531035</v>
+        <v>0.532283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.402689</v>
+        <v>0.402494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254124</v>
+        <v>0.253997</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5516799999999999</v>
+        <v>0.554244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.413605</v>
+        <v>0.416302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259621</v>
+        <v>0.261141</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.571047</v>
+        <v>0.578533</v>
       </c>
       <c r="C14" t="n">
-        <v>0.434627</v>
+        <v>0.436866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269883</v>
+        <v>0.270131</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.601698</v>
+        <v>0.605671</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45485</v>
+        <v>0.459181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277213</v>
+        <v>0.278327</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.623884</v>
+        <v>0.622258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.470617</v>
+        <v>0.474622</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28635</v>
+        <v>0.286867</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395117</v>
+        <v>0.398272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.496217</v>
+        <v>0.499761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.296046</v>
+        <v>0.297396</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.410028</v>
+        <v>0.413693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.515276</v>
+        <v>0.515088</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305841</v>
+        <v>0.306252</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.427824</v>
+        <v>0.429155</v>
       </c>
       <c r="C19" t="n">
-        <v>0.531965</v>
+        <v>0.537609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.313425</v>
+        <v>0.316777</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.445901</v>
+        <v>0.451153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.555417</v>
+        <v>0.558767</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32346</v>
+        <v>0.325825</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.469525</v>
+        <v>0.480045</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5834549999999999</v>
+        <v>0.592785</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331301</v>
+        <v>0.333264</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.48577</v>
+        <v>0.497267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.605412</v>
+        <v>0.613245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343489</v>
+        <v>0.346434</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.511036</v>
+        <v>0.520183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.625964</v>
+        <v>0.643717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.349913</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.543163</v>
+        <v>0.545262</v>
       </c>
       <c r="C24" t="n">
-        <v>0.665905</v>
+        <v>0.68729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.362188</v>
+        <v>0.363973</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.582878</v>
+        <v>0.589333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.692723</v>
+        <v>0.701718</v>
       </c>
       <c r="D25" t="n">
-        <v>0.371916</v>
+        <v>0.376786</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.607735</v>
+        <v>0.610188</v>
       </c>
       <c r="C26" t="n">
-        <v>0.448626</v>
+        <v>0.456615</v>
       </c>
       <c r="D26" t="n">
-        <v>0.264907</v>
+        <v>0.262766</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.650018</v>
+        <v>0.655277</v>
       </c>
       <c r="C27" t="n">
-        <v>0.475203</v>
+        <v>0.478338</v>
       </c>
       <c r="D27" t="n">
-        <v>0.275185</v>
+        <v>0.276766</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.692871</v>
+        <v>0.692464</v>
       </c>
       <c r="C28" t="n">
-        <v>0.51345</v>
+        <v>0.5090519999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.28418</v>
+        <v>0.284337</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.741425</v>
+        <v>0.741888</v>
       </c>
       <c r="C29" t="n">
-        <v>0.539798</v>
+        <v>0.541222</v>
       </c>
       <c r="D29" t="n">
-        <v>0.293719</v>
+        <v>0.294572</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.79365</v>
+        <v>0.790342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.574774</v>
+        <v>0.579671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.305552</v>
+        <v>0.30942</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.850155</v>
+        <v>0.849853</v>
       </c>
       <c r="C31" t="n">
-        <v>0.613473</v>
+        <v>0.616048</v>
       </c>
       <c r="D31" t="n">
-        <v>0.320942</v>
+        <v>0.318921</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.554208</v>
+        <v>0.549339</v>
       </c>
       <c r="C32" t="n">
-        <v>0.65851</v>
+        <v>0.658713</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331227</v>
+        <v>0.334192</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.586875</v>
+        <v>0.580894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.691878</v>
+        <v>0.694137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.348047</v>
+        <v>0.347388</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6082419999999999</v>
+        <v>0.615307</v>
       </c>
       <c r="C34" t="n">
-        <v>0.738703</v>
+        <v>0.739527</v>
       </c>
       <c r="D34" t="n">
-        <v>0.36162</v>
+        <v>0.359141</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.641145</v>
+        <v>0.63762</v>
       </c>
       <c r="C35" t="n">
-        <v>0.775123</v>
+        <v>0.768656</v>
       </c>
       <c r="D35" t="n">
-        <v>0.374539</v>
+        <v>0.373308</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.681187</v>
+        <v>0.684539</v>
       </c>
       <c r="C36" t="n">
-        <v>0.815784</v>
+        <v>0.820172</v>
       </c>
       <c r="D36" t="n">
-        <v>0.396157</v>
+        <v>0.397065</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.716529</v>
+        <v>0.708586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8656430000000001</v>
+        <v>0.86654</v>
       </c>
       <c r="D37" t="n">
-        <v>0.415779</v>
+        <v>0.411089</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.755633</v>
+        <v>0.752852</v>
       </c>
       <c r="C38" t="n">
-        <v>0.913758</v>
+        <v>0.908755</v>
       </c>
       <c r="D38" t="n">
-        <v>0.431602</v>
+        <v>0.431488</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.794423</v>
+        <v>0.790542</v>
       </c>
       <c r="C39" t="n">
-        <v>0.955879</v>
+        <v>0.962239</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454458</v>
+        <v>0.453866</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.83252</v>
+        <v>0.836993</v>
       </c>
       <c r="C40" t="n">
-        <v>0.596696</v>
+        <v>0.599946</v>
       </c>
       <c r="D40" t="n">
-        <v>0.339767</v>
+        <v>0.338591</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.876793</v>
+        <v>0.872121</v>
       </c>
       <c r="C41" t="n">
-        <v>0.62026</v>
+        <v>0.61651</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35511</v>
+        <v>0.351212</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.922015</v>
+        <v>0.911402</v>
       </c>
       <c r="C42" t="n">
-        <v>0.659541</v>
+        <v>0.650505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369317</v>
+        <v>0.362553</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.973736</v>
+        <v>0.962615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7009840000000001</v>
+        <v>0.694806</v>
       </c>
       <c r="D43" t="n">
-        <v>0.384992</v>
+        <v>0.383749</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.01724</v>
+        <v>0.998526</v>
       </c>
       <c r="C44" t="n">
-        <v>0.74619</v>
+        <v>0.725902</v>
       </c>
       <c r="D44" t="n">
-        <v>0.401573</v>
+        <v>0.394854</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.07561</v>
+        <v>1.07223</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.761224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.420167</v>
+        <v>0.416147</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6715</v>
+        <v>0.659475</v>
       </c>
       <c r="C46" t="n">
-        <v>0.823966</v>
+        <v>0.795011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.434996</v>
+        <v>0.430781</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.695513</v>
+        <v>0.686345</v>
       </c>
       <c r="C47" t="n">
-        <v>0.850011</v>
+        <v>0.836291</v>
       </c>
       <c r="D47" t="n">
-        <v>0.44964</v>
+        <v>0.452158</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7272380000000001</v>
+        <v>0.7232690000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.881627</v>
+        <v>0.871804</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466233</v>
+        <v>0.469642</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.767584</v>
+        <v>0.751694</v>
       </c>
       <c r="C49" t="n">
-        <v>0.934797</v>
+        <v>0.910324</v>
       </c>
       <c r="D49" t="n">
-        <v>0.486128</v>
+        <v>0.474618</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.791644</v>
+        <v>0.784758</v>
       </c>
       <c r="C50" t="n">
-        <v>0.983738</v>
+        <v>0.957744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.507314</v>
+        <v>0.501486</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.839497</v>
+        <v>0.832176</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03422</v>
+        <v>1.10413</v>
       </c>
       <c r="D51" t="n">
-        <v>0.527799</v>
+        <v>0.568302</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.871455</v>
+        <v>0.946698</v>
       </c>
       <c r="C52" t="n">
-        <v>1.07579</v>
+        <v>1.06195</v>
       </c>
       <c r="D52" t="n">
-        <v>0.549015</v>
+        <v>0.577994</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.957866</v>
+        <v>0.890553</v>
       </c>
       <c r="C53" t="n">
-        <v>1.1558</v>
+        <v>1.10459</v>
       </c>
       <c r="D53" t="n">
-        <v>0.576546</v>
+        <v>0.563682</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.991047</v>
+        <v>0.93177</v>
       </c>
       <c r="C54" t="n">
-        <v>0.744779</v>
+        <v>0.677188</v>
       </c>
       <c r="D54" t="n">
-        <v>0.425438</v>
+        <v>0.405808</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.04086</v>
+        <v>0.992219</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7485039999999999</v>
+        <v>0.71105</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43926</v>
+        <v>0.421557</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.09766</v>
+        <v>1.02494</v>
       </c>
       <c r="C56" t="n">
-        <v>0.813225</v>
+        <v>0.745872</v>
       </c>
       <c r="D56" t="n">
-        <v>0.453716</v>
+        <v>0.441645</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.14373</v>
+        <v>1.11254</v>
       </c>
       <c r="C57" t="n">
-        <v>0.857128</v>
+        <v>0.772058</v>
       </c>
       <c r="D57" t="n">
-        <v>0.48033</v>
+        <v>0.460806</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.21137</v>
+        <v>1.13842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.906369</v>
+        <v>0.823823</v>
       </c>
       <c r="D58" t="n">
-        <v>0.495309</v>
+        <v>0.469823</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.28581</v>
+        <v>1.18545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9552580000000001</v>
+        <v>0.846691</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5217850000000001</v>
+        <v>0.499935</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.90925</v>
+        <v>0.7437589999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.0942</v>
+        <v>0.903103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5737910000000001</v>
+        <v>0.513489</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.922268</v>
+        <v>0.790562</v>
       </c>
       <c r="C61" t="n">
-        <v>1.09581</v>
+        <v>0.957269</v>
       </c>
       <c r="D61" t="n">
-        <v>0.591964</v>
+        <v>0.5328349999999999</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.964076</v>
+        <v>0.825168</v>
       </c>
       <c r="C62" t="n">
-        <v>1.16971</v>
+        <v>1.00978</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6046280000000001</v>
+        <v>0.553517</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.09341</v>
+        <v>0.889673</v>
       </c>
       <c r="C63" t="n">
-        <v>1.4358</v>
+        <v>1.05655</v>
       </c>
       <c r="D63" t="n">
-        <v>0.665135</v>
+        <v>0.588299</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06235</v>
+        <v>0.926574</v>
       </c>
       <c r="C64" t="n">
-        <v>1.63008</v>
+        <v>1.11449</v>
       </c>
       <c r="D64" t="n">
-        <v>0.752325</v>
+        <v>0.609416</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.44653</v>
+        <v>0.96988</v>
       </c>
       <c r="C65" t="n">
-        <v>1.8253</v>
+        <v>1.17519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7665110000000001</v>
+        <v>0.653215</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.36392</v>
+        <v>1.01841</v>
       </c>
       <c r="C66" t="n">
-        <v>1.96126</v>
+        <v>1.26625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.791266</v>
+        <v>0.678804</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34938</v>
+        <v>1.1025</v>
       </c>
       <c r="C67" t="n">
-        <v>1.89986</v>
+        <v>1.35413</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7937650000000001</v>
+        <v>0.715681</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.43969</v>
+        <v>1.16788</v>
       </c>
       <c r="C68" t="n">
-        <v>1.24549</v>
+        <v>0.8039269999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.62549</v>
+        <v>0.516931</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.6018</v>
+        <v>1.24172</v>
       </c>
       <c r="C69" t="n">
-        <v>1.07227</v>
+        <v>0.892614</v>
       </c>
       <c r="D69" t="n">
-        <v>0.59145</v>
+        <v>0.537592</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.55005</v>
+        <v>1.3429</v>
       </c>
       <c r="C70" t="n">
-        <v>1.15573</v>
+        <v>0.917286</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6413759999999999</v>
+        <v>0.559308</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.75364</v>
+        <v>1.48583</v>
       </c>
       <c r="C71" t="n">
-        <v>1.1307</v>
+        <v>0.988799</v>
       </c>
       <c r="D71" t="n">
-        <v>0.697223</v>
+        <v>0.596081</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.33666</v>
+        <v>1.74253</v>
       </c>
       <c r="C72" t="n">
-        <v>1.4653</v>
+        <v>1.10988</v>
       </c>
       <c r="D72" t="n">
-        <v>0.715502</v>
+        <v>0.630756</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.13091</v>
+        <v>1.62002</v>
       </c>
       <c r="C73" t="n">
-        <v>1.7715</v>
+        <v>1.10688</v>
       </c>
       <c r="D73" t="n">
-        <v>0.841307</v>
+        <v>0.637458</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.54382</v>
+        <v>0.932344</v>
       </c>
       <c r="C74" t="n">
-        <v>1.98757</v>
+        <v>1.13696</v>
       </c>
       <c r="D74" t="n">
-        <v>0.86698</v>
+        <v>0.6491749999999999</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.71226</v>
+        <v>1.01434</v>
       </c>
       <c r="C75" t="n">
-        <v>2.11588</v>
+        <v>1.202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.919636</v>
+        <v>0.691039</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.88522</v>
+        <v>1.05751</v>
       </c>
       <c r="C76" t="n">
-        <v>1.88325</v>
+        <v>1.26539</v>
       </c>
       <c r="D76" t="n">
-        <v>0.839154</v>
+        <v>0.706873</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.83641</v>
+        <v>1.12679</v>
       </c>
       <c r="C77" t="n">
-        <v>2.18948</v>
+        <v>1.34454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.982751</v>
+        <v>0.750231</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.57564</v>
+        <v>1.18476</v>
       </c>
       <c r="C78" t="n">
-        <v>1.93216</v>
+        <v>1.45264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9769370000000001</v>
+        <v>0.785426</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.79694</v>
+        <v>1.23324</v>
       </c>
       <c r="C79" t="n">
-        <v>2.4455</v>
+        <v>1.51564</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22359</v>
+        <v>0.821497</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.06034</v>
+        <v>1.3485</v>
       </c>
       <c r="C80" t="n">
-        <v>2.78459</v>
+        <v>1.62671</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11903</v>
+        <v>0.869435</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22554</v>
+        <v>1.39941</v>
       </c>
       <c r="C81" t="n">
-        <v>2.85124</v>
+        <v>1.72324</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13269</v>
+        <v>0.905683</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24613</v>
+        <v>1.45535</v>
       </c>
       <c r="C82" t="n">
-        <v>2.75069</v>
+        <v>1.8104</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22085</v>
+        <v>0.952151</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.35589</v>
+        <v>1.55184</v>
       </c>
       <c r="C83" t="n">
-        <v>1.72404</v>
+        <v>1.10028</v>
       </c>
       <c r="D83" t="n">
-        <v>0.875615</v>
+        <v>0.64904</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.52373</v>
+        <v>1.67086</v>
       </c>
       <c r="C84" t="n">
-        <v>1.86207</v>
+        <v>1.16595</v>
       </c>
       <c r="D84" t="n">
-        <v>0.981088</v>
+        <v>0.675063</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.95071</v>
+        <v>1.86409</v>
       </c>
       <c r="C85" t="n">
-        <v>2.05801</v>
+        <v>1.22887</v>
       </c>
       <c r="D85" t="n">
-        <v>1.10761</v>
+        <v>0.712323</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.55789</v>
+        <v>1.90733</v>
       </c>
       <c r="C86" t="n">
-        <v>2.25766</v>
+        <v>1.40321</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03674</v>
+        <v>0.751677</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.69706</v>
+        <v>2.0006</v>
       </c>
       <c r="C87" t="n">
-        <v>2.5115</v>
+        <v>1.38825</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18572</v>
+        <v>0.787205</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.6189</v>
+        <v>2.14868</v>
       </c>
       <c r="C88" t="n">
-        <v>2.5681</v>
+        <v>1.51532</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23156</v>
+        <v>0.827766</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.16882</v>
+        <v>1.52678</v>
       </c>
       <c r="C89" t="n">
-        <v>2.6257</v>
+        <v>1.70088</v>
       </c>
       <c r="D89" t="n">
-        <v>1.33888</v>
+        <v>0.858923</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.33946</v>
+        <v>1.45214</v>
       </c>
       <c r="C90" t="n">
-        <v>2.91153</v>
+        <v>1.71153</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24498</v>
+        <v>0.907381</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.19017</v>
+        <v>1.5434</v>
       </c>
       <c r="C91" t="n">
-        <v>2.74644</v>
+        <v>1.86666</v>
       </c>
       <c r="D91" t="n">
-        <v>1.40539</v>
+        <v>0.949963</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.49288</v>
+        <v>1.71949</v>
       </c>
       <c r="C92" t="n">
-        <v>3.03906</v>
+        <v>2.01157</v>
       </c>
       <c r="D92" t="n">
-        <v>1.32253</v>
+        <v>0.994442</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.59064</v>
+        <v>1.82285</v>
       </c>
       <c r="C93" t="n">
-        <v>3.21928</v>
+        <v>2.22572</v>
       </c>
       <c r="D93" t="n">
-        <v>1.46577</v>
+        <v>1.06849</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.78302</v>
+        <v>1.85732</v>
       </c>
       <c r="C94" t="n">
-        <v>3.5479</v>
+        <v>2.39046</v>
       </c>
       <c r="D94" t="n">
-        <v>1.6406</v>
+        <v>1.11421</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.0558</v>
+        <v>2.01775</v>
       </c>
       <c r="C95" t="n">
-        <v>3.98103</v>
+        <v>2.53375</v>
       </c>
       <c r="D95" t="n">
-        <v>1.96054</v>
+        <v>1.17526</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2347</v>
+        <v>2.19497</v>
       </c>
       <c r="C96" t="n">
-        <v>4.16779</v>
+        <v>2.77647</v>
       </c>
       <c r="D96" t="n">
-        <v>1.9503</v>
+        <v>1.22183</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.36003</v>
+        <v>2.54842</v>
       </c>
       <c r="C97" t="n">
-        <v>2.34253</v>
+        <v>1.65963</v>
       </c>
       <c r="D97" t="n">
-        <v>1.3862</v>
+        <v>0.886119</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.45737</v>
+        <v>2.61585</v>
       </c>
       <c r="C98" t="n">
-        <v>2.60009</v>
+        <v>1.82991</v>
       </c>
       <c r="D98" t="n">
-        <v>1.49112</v>
+        <v>0.995044</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.88696</v>
+        <v>2.76504</v>
       </c>
       <c r="C99" t="n">
-        <v>2.582</v>
+        <v>1.94059</v>
       </c>
       <c r="D99" t="n">
-        <v>1.56796</v>
+        <v>0.978598</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.93937</v>
+        <v>2.96057</v>
       </c>
       <c r="C100" t="n">
-        <v>2.75651</v>
+        <v>1.99755</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47619</v>
+        <v>1.04618</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.9513</v>
+        <v>3.26763</v>
       </c>
       <c r="C101" t="n">
-        <v>2.80664</v>
+        <v>2.38601</v>
       </c>
       <c r="D101" t="n">
-        <v>1.61768</v>
+        <v>1.29173</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.56161</v>
+        <v>3.64478</v>
       </c>
       <c r="C102" t="n">
-        <v>3.11973</v>
+        <v>2.5441</v>
       </c>
       <c r="D102" t="n">
-        <v>1.76439</v>
+        <v>1.26413</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64743</v>
+        <v>2.25543</v>
       </c>
       <c r="C103" t="n">
-        <v>3.265</v>
+        <v>2.71204</v>
       </c>
       <c r="D103" t="n">
-        <v>1.79873</v>
+        <v>1.3493</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.71311</v>
+        <v>2.36097</v>
       </c>
       <c r="C104" t="n">
-        <v>3.44277</v>
+        <v>3.17639</v>
       </c>
       <c r="D104" t="n">
-        <v>1.94293</v>
+        <v>1.60774</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.87229</v>
+        <v>2.67979</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55477</v>
+        <v>3.18411</v>
       </c>
       <c r="D105" t="n">
-        <v>2.03682</v>
+        <v>1.57289</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99309</v>
+        <v>2.69111</v>
       </c>
       <c r="C106" t="n">
-        <v>3.65352</v>
+        <v>3.27805</v>
       </c>
       <c r="D106" t="n">
-        <v>1.98605</v>
+        <v>1.6731</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.13197</v>
+        <v>2.71611</v>
       </c>
       <c r="C107" t="n">
-        <v>3.90985</v>
+        <v>3.35592</v>
       </c>
       <c r="D107" t="n">
-        <v>2.13367</v>
+        <v>1.6113</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.23095</v>
+        <v>2.89063</v>
       </c>
       <c r="C108" t="n">
-        <v>4.13177</v>
+        <v>3.64951</v>
       </c>
       <c r="D108" t="n">
-        <v>2.14429</v>
+        <v>1.75071</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.38512</v>
+        <v>2.88367</v>
       </c>
       <c r="C109" t="n">
-        <v>4.33353</v>
+        <v>3.59267</v>
       </c>
       <c r="D109" t="n">
-        <v>2.28288</v>
+        <v>1.75682</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.54822</v>
+        <v>3.04729</v>
       </c>
       <c r="C110" t="n">
-        <v>4.41955</v>
+        <v>3.75244</v>
       </c>
       <c r="D110" t="n">
-        <v>2.24546</v>
+        <v>1.79282</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.64381</v>
+        <v>3.12609</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55628</v>
+        <v>2.18578</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6409</v>
+        <v>1.24793</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.84187</v>
+        <v>3.35479</v>
       </c>
       <c r="C112" t="n">
-        <v>2.66135</v>
+        <v>2.32809</v>
       </c>
       <c r="D112" t="n">
-        <v>1.70424</v>
+        <v>1.3022</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.02459</v>
+        <v>3.62836</v>
       </c>
       <c r="C113" t="n">
-        <v>2.7447</v>
+        <v>2.4787</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72878</v>
+        <v>1.38779</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.17785</v>
+        <v>3.749</v>
       </c>
       <c r="C114" t="n">
-        <v>2.86894</v>
+        <v>2.52802</v>
       </c>
       <c r="D114" t="n">
-        <v>1.82115</v>
+        <v>1.44202</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.50322</v>
+        <v>3.94163</v>
       </c>
       <c r="C115" t="n">
-        <v>3.10027</v>
+        <v>2.69219</v>
       </c>
       <c r="D115" t="n">
-        <v>1.92477</v>
+        <v>1.48605</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70666</v>
+        <v>4.18347</v>
       </c>
       <c r="C116" t="n">
-        <v>3.23097</v>
+        <v>2.85928</v>
       </c>
       <c r="D116" t="n">
-        <v>1.93138</v>
+        <v>1.57927</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.74292</v>
+        <v>2.58046</v>
       </c>
       <c r="C117" t="n">
-        <v>3.34011</v>
+        <v>3.27766</v>
       </c>
       <c r="D117" t="n">
-        <v>2.01305</v>
+        <v>1.92915</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.83556</v>
+        <v>2.81395</v>
       </c>
       <c r="C118" t="n">
-        <v>3.44138</v>
+        <v>3.45985</v>
       </c>
       <c r="D118" t="n">
-        <v>2.0698</v>
+        <v>1.82458</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.9909</v>
+        <v>2.85907</v>
       </c>
       <c r="C119" t="n">
-        <v>3.62602</v>
+        <v>3.58005</v>
       </c>
       <c r="D119" t="n">
-        <v>2.16426</v>
+        <v>2.01069</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232921</v>
+        <v>0.222832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.246134</v>
+        <v>0.205377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248114</v>
+        <v>0.238882</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238298</v>
+        <v>0.226164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246675</v>
+        <v>0.227665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253287</v>
+        <v>0.236488</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242945</v>
+        <v>0.230732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251392</v>
+        <v>0.214271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257807</v>
+        <v>0.239713</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24813</v>
+        <v>0.236765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.257347</v>
+        <v>0.217196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262061</v>
+        <v>0.245911</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.252894</v>
+        <v>0.241383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260646</v>
+        <v>0.229364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268782</v>
+        <v>0.253077</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.252987</v>
+        <v>0.240951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.208071</v>
+        <v>0.182382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217828</v>
+        <v>0.210809</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.260201</v>
+        <v>0.245676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21378</v>
+        <v>0.185397</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223734</v>
+        <v>0.213822</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261693</v>
+        <v>0.257452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218258</v>
+        <v>0.191283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230742</v>
+        <v>0.221769</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.265117</v>
+        <v>0.253852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225292</v>
+        <v>0.202132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.235618</v>
+        <v>0.229485</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.268795</v>
+        <v>0.255926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.231425</v>
+        <v>0.200949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242663</v>
+        <v>0.235007</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.271211</v>
+        <v>0.261943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241478</v>
+        <v>0.20773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249357</v>
+        <v>0.241774</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226416</v>
+        <v>0.219775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245108</v>
+        <v>0.21529</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255343</v>
+        <v>0.249445</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.231636</v>
+        <v>0.224375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.250665</v>
+        <v>0.219335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263066</v>
+        <v>0.253264</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.236452</v>
+        <v>0.22638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.25625</v>
+        <v>0.225473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269846</v>
+        <v>0.259655</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.244113</v>
+        <v>0.230397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.26063</v>
+        <v>0.233446</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274854</v>
+        <v>0.267625</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.249012</v>
+        <v>0.236793</v>
       </c>
       <c r="C17" t="n">
-        <v>0.264634</v>
+        <v>0.235287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280344</v>
+        <v>0.275745</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254648</v>
+        <v>0.23968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.269375</v>
+        <v>0.23383</v>
       </c>
       <c r="D18" t="n">
-        <v>0.285117</v>
+        <v>0.276326</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260103</v>
+        <v>0.277518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.27427</v>
+        <v>0.287465</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29132</v>
+        <v>0.285483</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.267901</v>
+        <v>0.249602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.279812</v>
+        <v>0.245982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.299329</v>
+        <v>0.292185</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.274481</v>
+        <v>0.256559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214558</v>
+        <v>0.193027</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230774</v>
+        <v>0.228943</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280716</v>
+        <v>0.260204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222495</v>
+        <v>0.197705</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238704</v>
+        <v>0.236748</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.288131</v>
+        <v>0.289492</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230474</v>
+        <v>0.210824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.247794</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.292401</v>
+        <v>0.267791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.236105</v>
+        <v>0.211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255467</v>
+        <v>0.249116</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302966</v>
+        <v>0.268655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247271</v>
+        <v>0.216396</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26639</v>
+        <v>0.251778</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.304733</v>
+        <v>0.278072</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257216</v>
+        <v>0.224094</v>
       </c>
       <c r="D26" t="n">
-        <v>0.275069</v>
+        <v>0.262346</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.258724</v>
+        <v>0.231926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.264294</v>
+        <v>0.228853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283724</v>
+        <v>0.268357</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.265535</v>
+        <v>0.239062</v>
       </c>
       <c r="C28" t="n">
-        <v>0.271292</v>
+        <v>0.233976</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294028</v>
+        <v>0.278079</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.274723</v>
+        <v>0.273477</v>
       </c>
       <c r="C29" t="n">
-        <v>0.277148</v>
+        <v>0.242475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.30516</v>
+        <v>0.287733</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279814</v>
+        <v>0.251409</v>
       </c>
       <c r="C30" t="n">
-        <v>0.285379</v>
+        <v>0.249237</v>
       </c>
       <c r="D30" t="n">
-        <v>0.311397</v>
+        <v>0.31307</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.284992</v>
+        <v>0.258798</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295844</v>
+        <v>0.256382</v>
       </c>
       <c r="D31" t="n">
-        <v>0.32279</v>
+        <v>0.306625</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.292825</v>
+        <v>0.273531</v>
       </c>
       <c r="C32" t="n">
-        <v>0.299844</v>
+        <v>0.261691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.329159</v>
+        <v>0.317312</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.299434</v>
+        <v>0.272141</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308586</v>
+        <v>0.267908</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340773</v>
+        <v>0.325875</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.305428</v>
+        <v>0.282164</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314866</v>
+        <v>0.273483</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351293</v>
+        <v>0.335241</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.31411</v>
+        <v>0.291364</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246866</v>
+        <v>0.212997</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277552</v>
+        <v>0.25506</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.317394</v>
+        <v>0.299727</v>
       </c>
       <c r="C36" t="n">
-        <v>0.254956</v>
+        <v>0.220454</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28708</v>
+        <v>0.267125</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.32331</v>
+        <v>0.313058</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260764</v>
+        <v>0.230423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.293643</v>
+        <v>0.276584</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328329</v>
+        <v>0.321782</v>
       </c>
       <c r="C38" t="n">
-        <v>0.270581</v>
+        <v>0.239885</v>
       </c>
       <c r="D38" t="n">
-        <v>0.303964</v>
+        <v>0.290058</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.33448</v>
+        <v>0.329539</v>
       </c>
       <c r="C39" t="n">
-        <v>0.278576</v>
+        <v>0.248403</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313354</v>
+        <v>0.298308</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338979</v>
+        <v>0.345575</v>
       </c>
       <c r="C40" t="n">
-        <v>0.286364</v>
+        <v>0.256322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.332327</v>
+        <v>0.310255</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280267</v>
+        <v>0.308329</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29497</v>
+        <v>0.264204</v>
       </c>
       <c r="D41" t="n">
-        <v>0.328735</v>
+        <v>0.316781</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28476</v>
+        <v>0.312559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.302994</v>
+        <v>0.274302</v>
       </c>
       <c r="D42" t="n">
-        <v>0.340723</v>
+        <v>0.328689</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.292649</v>
+        <v>0.318941</v>
       </c>
       <c r="C43" t="n">
-        <v>0.310439</v>
+        <v>0.284696</v>
       </c>
       <c r="D43" t="n">
-        <v>0.347965</v>
+        <v>0.348146</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.297142</v>
+        <v>0.339543</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317241</v>
+        <v>0.296215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358426</v>
+        <v>0.357187</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.304705</v>
+        <v>0.350744</v>
       </c>
       <c r="C45" t="n">
-        <v>0.326057</v>
+        <v>0.305612</v>
       </c>
       <c r="D45" t="n">
-        <v>0.369205</v>
+        <v>0.371512</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.309513</v>
+        <v>0.364539</v>
       </c>
       <c r="C46" t="n">
-        <v>0.331741</v>
+        <v>0.320242</v>
       </c>
       <c r="D46" t="n">
-        <v>0.372936</v>
+        <v>0.38419</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.317707</v>
+        <v>0.379912</v>
       </c>
       <c r="C47" t="n">
-        <v>0.339311</v>
+        <v>0.331352</v>
       </c>
       <c r="D47" t="n">
-        <v>0.384201</v>
+        <v>0.418661</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.324587</v>
+        <v>0.406747</v>
       </c>
       <c r="C48" t="n">
-        <v>0.348378</v>
+        <v>0.349567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.393143</v>
+        <v>0.428115</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.330625</v>
+        <v>0.414459</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355792</v>
+        <v>0.358213</v>
       </c>
       <c r="D49" t="n">
-        <v>0.401542</v>
+        <v>0.446839</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.336543</v>
+        <v>0.431117</v>
       </c>
       <c r="C50" t="n">
-        <v>0.276276</v>
+        <v>0.295772</v>
       </c>
       <c r="D50" t="n">
-        <v>0.310034</v>
+        <v>0.353705</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.344177</v>
+        <v>0.448281</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283462</v>
+        <v>0.304374</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319678</v>
+        <v>0.370357</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.353865</v>
+        <v>0.465704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.293276</v>
+        <v>0.329725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.331822</v>
+        <v>0.414164</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.360983</v>
+        <v>0.548864</v>
       </c>
       <c r="C53" t="n">
-        <v>0.300672</v>
+        <v>0.396971</v>
       </c>
       <c r="D53" t="n">
-        <v>0.342846</v>
+        <v>0.398186</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.367988</v>
+        <v>0.520927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.310479</v>
+        <v>0.359842</v>
       </c>
       <c r="D54" t="n">
-        <v>0.353673</v>
+        <v>0.435445</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.375355</v>
+        <v>0.548441</v>
       </c>
       <c r="C55" t="n">
-        <v>0.32198</v>
+        <v>0.380913</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362622</v>
+        <v>0.461035</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333092</v>
+        <v>0.489629</v>
       </c>
       <c r="C56" t="n">
-        <v>0.331687</v>
+        <v>0.396603</v>
       </c>
       <c r="D56" t="n">
-        <v>0.376265</v>
+        <v>0.489627</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.34305</v>
+        <v>0.537918</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3408</v>
+        <v>0.426245</v>
       </c>
       <c r="D57" t="n">
-        <v>0.387251</v>
+        <v>0.5170670000000001</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.343487</v>
+        <v>0.553449</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347168</v>
+        <v>0.441182</v>
       </c>
       <c r="D58" t="n">
-        <v>0.394745</v>
+        <v>0.51913</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.355547</v>
+        <v>0.58671</v>
       </c>
       <c r="C59" t="n">
-        <v>0.359416</v>
+        <v>0.466276</v>
       </c>
       <c r="D59" t="n">
-        <v>0.410276</v>
+        <v>0.605183</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.360943</v>
+        <v>0.571514</v>
       </c>
       <c r="C60" t="n">
-        <v>0.367142</v>
+        <v>0.478118</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425317</v>
+        <v>0.55744</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.37574</v>
+        <v>0.588156</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378382</v>
+        <v>0.503188</v>
       </c>
       <c r="D61" t="n">
-        <v>0.436153</v>
+        <v>0.655969</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.375978</v>
+        <v>0.70245</v>
       </c>
       <c r="C62" t="n">
-        <v>0.385983</v>
+        <v>0.556569</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44772</v>
+        <v>0.659027</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.394614</v>
+        <v>0.645122</v>
       </c>
       <c r="C63" t="n">
-        <v>0.402397</v>
+        <v>0.591614</v>
       </c>
       <c r="D63" t="n">
-        <v>0.462704</v>
+        <v>0.701566</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.40769</v>
+        <v>0.701191</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322856</v>
+        <v>0.484607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380158</v>
+        <v>0.586464</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.427855</v>
+        <v>0.74104</v>
       </c>
       <c r="C65" t="n">
-        <v>0.338547</v>
+        <v>0.50552</v>
       </c>
       <c r="D65" t="n">
-        <v>0.40015</v>
+        <v>0.623486</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.455043</v>
+        <v>0.788623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.352036</v>
+        <v>0.548578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.438515</v>
+        <v>0.660301</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.473166</v>
+        <v>0.814538</v>
       </c>
       <c r="C67" t="n">
-        <v>0.373673</v>
+        <v>0.558815</v>
       </c>
       <c r="D67" t="n">
-        <v>0.422506</v>
+        <v>0.669817</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.456128</v>
+        <v>0.835411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.368575</v>
+        <v>0.585522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.448432</v>
+        <v>0.693605</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.491945</v>
+        <v>0.833492</v>
       </c>
       <c r="C69" t="n">
-        <v>0.393332</v>
+        <v>0.594307</v>
       </c>
       <c r="D69" t="n">
-        <v>0.472361</v>
+        <v>0.715881</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.435001</v>
+        <v>0.699483</v>
       </c>
       <c r="C70" t="n">
-        <v>0.403196</v>
+        <v>0.6220830000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.480262</v>
+        <v>0.75726</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.48012</v>
+        <v>0.794046</v>
       </c>
       <c r="C71" t="n">
-        <v>0.434648</v>
+        <v>0.757667</v>
       </c>
       <c r="D71" t="n">
-        <v>0.53511</v>
+        <v>0.933043</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467092</v>
+        <v>0.783936</v>
       </c>
       <c r="C72" t="n">
-        <v>0.468725</v>
+        <v>0.757119</v>
       </c>
       <c r="D72" t="n">
-        <v>0.604802</v>
+        <v>0.878933</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.522458</v>
+        <v>0.849457</v>
       </c>
       <c r="C73" t="n">
-        <v>0.507423</v>
+        <v>0.739069</v>
       </c>
       <c r="D73" t="n">
-        <v>0.580969</v>
+        <v>0.882333</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615005</v>
+        <v>0.825288</v>
       </c>
       <c r="C74" t="n">
-        <v>0.489451</v>
+        <v>0.777308</v>
       </c>
       <c r="D74" t="n">
-        <v>0.56214</v>
+        <v>0.91804</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.537924</v>
+        <v>0.857222</v>
       </c>
       <c r="C75" t="n">
-        <v>0.493154</v>
+        <v>0.823609</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5913</v>
+        <v>0.9835159999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.568275</v>
+        <v>0.914462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.567516</v>
+        <v>0.86129</v>
       </c>
       <c r="D76" t="n">
-        <v>0.606565</v>
+        <v>0.965619</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.572265</v>
+        <v>0.874785</v>
       </c>
       <c r="C77" t="n">
-        <v>0.53742</v>
+        <v>0.894662</v>
       </c>
       <c r="D77" t="n">
-        <v>0.619595</v>
+        <v>1.00915</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.674386</v>
+        <v>0.916507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.442363</v>
+        <v>0.678011</v>
       </c>
       <c r="D78" t="n">
-        <v>0.557458</v>
+        <v>0.8430879999999999</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.601348</v>
+        <v>0.97404</v>
       </c>
       <c r="C79" t="n">
-        <v>0.439773</v>
+        <v>0.711514</v>
       </c>
       <c r="D79" t="n">
-        <v>0.541284</v>
+        <v>0.9104680000000001</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.669338</v>
+        <v>1.0325</v>
       </c>
       <c r="C80" t="n">
-        <v>0.516123</v>
+        <v>0.787879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.589338</v>
+        <v>0.9415750000000001</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.578175</v>
+        <v>1.02589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.506134</v>
+        <v>0.755109</v>
       </c>
       <c r="D81" t="n">
-        <v>0.637204</v>
+        <v>0.9757169999999999</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7758890000000001</v>
+        <v>1.05966</v>
       </c>
       <c r="C82" t="n">
-        <v>0.570596</v>
+        <v>0.824399</v>
       </c>
       <c r="D82" t="n">
-        <v>0.654336</v>
+        <v>1.0225</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.812131</v>
+        <v>1.0897</v>
       </c>
       <c r="C83" t="n">
-        <v>0.64696</v>
+        <v>0.845307</v>
       </c>
       <c r="D83" t="n">
-        <v>0.696441</v>
+        <v>1.06065</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.641033</v>
+        <v>0.896701</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5462669999999999</v>
+        <v>0.879775</v>
       </c>
       <c r="D84" t="n">
-        <v>0.666851</v>
+        <v>1.09838</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.674063</v>
+        <v>0.900745</v>
       </c>
       <c r="C85" t="n">
-        <v>0.597152</v>
+        <v>0.903386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.874992</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.706026</v>
+        <v>0.91198</v>
       </c>
       <c r="C86" t="n">
-        <v>0.650796</v>
+        <v>0.91574</v>
       </c>
       <c r="D86" t="n">
-        <v>0.821628</v>
+        <v>1.11731</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.764221</v>
+        <v>0.920902</v>
       </c>
       <c r="C87" t="n">
-        <v>0.665749</v>
+        <v>0.92333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.815984</v>
+        <v>1.15098</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.791263</v>
+        <v>0.943978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.708522</v>
+        <v>0.977023</v>
       </c>
       <c r="D88" t="n">
-        <v>0.87072</v>
+        <v>1.27176</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.787124</v>
+        <v>0.998364</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7572719999999999</v>
+        <v>1.03284</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9623</v>
+        <v>1.26271</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.811383</v>
+        <v>1.01617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.814051</v>
+        <v>1.06304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.929586</v>
+        <v>1.33043</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.840516</v>
+        <v>1.04528</v>
       </c>
       <c r="C91" t="n">
-        <v>0.817737</v>
+        <v>1.09174</v>
       </c>
       <c r="D91" t="n">
-        <v>0.988098</v>
+        <v>1.36328</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.85865</v>
+        <v>1.06741</v>
       </c>
       <c r="C92" t="n">
-        <v>0.640953</v>
+        <v>0.859309</v>
       </c>
       <c r="D92" t="n">
-        <v>0.80597</v>
+        <v>1.1107</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.855423</v>
+        <v>1.09599</v>
       </c>
       <c r="C93" t="n">
-        <v>0.639068</v>
+        <v>0.877152</v>
       </c>
       <c r="D93" t="n">
-        <v>0.78753</v>
+        <v>1.1028</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.933306</v>
+        <v>1.10522</v>
       </c>
       <c r="C94" t="n">
-        <v>0.74087</v>
+        <v>0.963384</v>
       </c>
       <c r="D94" t="n">
-        <v>0.88956</v>
+        <v>1.14903</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.969071</v>
+        <v>1.15758</v>
       </c>
       <c r="C95" t="n">
-        <v>0.773288</v>
+        <v>0.922351</v>
       </c>
       <c r="D95" t="n">
-        <v>0.952911</v>
+        <v>1.1833</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0075</v>
+        <v>1.17268</v>
       </c>
       <c r="C96" t="n">
-        <v>0.741499</v>
+        <v>0.933671</v>
       </c>
       <c r="D96" t="n">
-        <v>0.89793</v>
+        <v>1.23372</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.958809</v>
+        <v>1.20453</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7905</v>
+        <v>0.956013</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9805199999999999</v>
+        <v>1.21494</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.801268</v>
+        <v>0.945516</v>
       </c>
       <c r="C98" t="n">
-        <v>0.805543</v>
+        <v>0.984067</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02179</v>
+        <v>1.27959</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.836361</v>
+        <v>0.96415</v>
       </c>
       <c r="C99" t="n">
-        <v>0.833923</v>
+        <v>1.01065</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09506</v>
+        <v>1.3157</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.875177</v>
+        <v>0.991716</v>
       </c>
       <c r="C100" t="n">
-        <v>0.878047</v>
+        <v>1.03841</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1084</v>
+        <v>1.35837</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.872238</v>
+        <v>1.01555</v>
       </c>
       <c r="C101" t="n">
-        <v>0.898326</v>
+        <v>1.06033</v>
       </c>
       <c r="D101" t="n">
-        <v>1.12195</v>
+        <v>1.36681</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.887088</v>
+        <v>1.04</v>
       </c>
       <c r="C102" t="n">
-        <v>0.917044</v>
+        <v>1.08108</v>
       </c>
       <c r="D102" t="n">
-        <v>1.18685</v>
+        <v>1.4079</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.918724</v>
+        <v>1.05969</v>
       </c>
       <c r="C103" t="n">
-        <v>0.93616</v>
+        <v>1.11202</v>
       </c>
       <c r="D103" t="n">
-        <v>1.19071</v>
+        <v>1.44628</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.940901</v>
+        <v>1.09347</v>
       </c>
       <c r="C104" t="n">
-        <v>0.968597</v>
+        <v>1.14366</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20627</v>
+        <v>1.4821</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.934204</v>
+        <v>1.11419</v>
       </c>
       <c r="C105" t="n">
-        <v>0.986862</v>
+        <v>1.19162</v>
       </c>
       <c r="D105" t="n">
-        <v>1.26277</v>
+        <v>1.54217</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.986636</v>
+        <v>1.15552</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01557</v>
+        <v>1.23344</v>
       </c>
       <c r="D106" t="n">
-        <v>1.29842</v>
+        <v>1.63911</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.993223</v>
+        <v>1.22848</v>
       </c>
       <c r="C107" t="n">
-        <v>0.816787</v>
+        <v>0.971469</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04345</v>
+        <v>1.23209</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.03454</v>
+        <v>1.22538</v>
       </c>
       <c r="C108" t="n">
-        <v>0.832244</v>
+        <v>0.955221</v>
       </c>
       <c r="D108" t="n">
-        <v>1.05495</v>
+        <v>1.25486</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06511</v>
+        <v>1.24757</v>
       </c>
       <c r="C109" t="n">
-        <v>0.852209</v>
+        <v>0.983036</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08198</v>
+        <v>1.30783</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.07872</v>
+        <v>1.27284</v>
       </c>
       <c r="C110" t="n">
-        <v>0.876212</v>
+        <v>1.00653</v>
       </c>
       <c r="D110" t="n">
-        <v>1.13301</v>
+        <v>1.32684</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.10125</v>
+        <v>1.32097</v>
       </c>
       <c r="C111" t="n">
-        <v>0.899918</v>
+        <v>1.0948</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1594</v>
+        <v>1.7517</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.934557</v>
+        <v>1.0326</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9194099999999999</v>
+        <v>1.12824</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18689</v>
+        <v>1.45242</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.953431</v>
+        <v>1.06305</v>
       </c>
       <c r="C113" t="n">
-        <v>0.947379</v>
+        <v>1.09822</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23656</v>
+        <v>1.47322</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.99017</v>
+        <v>1.32199</v>
       </c>
       <c r="C114" t="n">
-        <v>0.991718</v>
+        <v>1.13245</v>
       </c>
       <c r="D114" t="n">
-        <v>1.27958</v>
+        <v>1.50309</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.02968</v>
+        <v>1.16585</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00774</v>
+        <v>1.17689</v>
       </c>
       <c r="D115" t="n">
-        <v>1.30004</v>
+        <v>1.57927</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02755</v>
+        <v>1.12933</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03008</v>
+        <v>1.20371</v>
       </c>
       <c r="D116" t="n">
-        <v>1.36624</v>
+        <v>1.59271</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0588</v>
+        <v>1.15131</v>
       </c>
       <c r="C117" t="n">
-        <v>1.06631</v>
+        <v>1.244</v>
       </c>
       <c r="D117" t="n">
-        <v>1.38649</v>
+        <v>1.66646</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.07404</v>
+        <v>1.14902</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10459</v>
+        <v>1.25684</v>
       </c>
       <c r="D118" t="n">
-        <v>1.45031</v>
+        <v>1.68556</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10696</v>
+        <v>1.25696</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11216</v>
+        <v>1.37237</v>
       </c>
       <c r="D119" t="n">
-        <v>1.45763</v>
+        <v>1.72246</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.173408</v>
+        <v>0.201291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179724</v>
+        <v>0.184652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143223</v>
+        <v>0.139115</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176778</v>
+        <v>0.187026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.183489</v>
+        <v>0.200179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145129</v>
+        <v>0.145146</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181654</v>
+        <v>0.190818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188761</v>
+        <v>0.18809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147921</v>
+        <v>0.145487</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188464</v>
+        <v>0.204078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197254</v>
+        <v>0.205951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150872</v>
+        <v>0.156447</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.190586</v>
+        <v>0.225626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201203</v>
+        <v>0.205661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153228</v>
+        <v>0.149699</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.196708</v>
+        <v>0.205814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.152066</v>
+        <v>0.157319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136502</v>
+        <v>0.147003</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201235</v>
+        <v>0.212204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.154193</v>
+        <v>0.160873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137994</v>
+        <v>0.150909</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.205477</v>
+        <v>0.218821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160468</v>
+        <v>0.166582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13991</v>
+        <v>0.14296</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.212367</v>
+        <v>0.222714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.163834</v>
+        <v>0.168848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.141552</v>
+        <v>0.153888</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.21625</v>
+        <v>0.247907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166591</v>
+        <v>0.182893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.143601</v>
+        <v>0.148731</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222525</v>
+        <v>0.242115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171347</v>
+        <v>0.180172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.146194</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.175067</v>
+        <v>0.188184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177508</v>
+        <v>0.184881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14853</v>
+        <v>0.159659</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.17871</v>
+        <v>0.2098</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180962</v>
+        <v>0.193698</v>
       </c>
       <c r="D14" t="n">
-        <v>0.149385</v>
+        <v>0.155613</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186157</v>
+        <v>0.205296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.186236</v>
+        <v>0.194696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.153033</v>
+        <v>0.160008</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.191869</v>
+        <v>0.203789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193794</v>
+        <v>0.201628</v>
       </c>
       <c r="D16" t="n">
-        <v>0.156137</v>
+        <v>0.161298</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.196844</v>
+        <v>0.206316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198676</v>
+        <v>0.209896</v>
       </c>
       <c r="D17" t="n">
-        <v>0.158641</v>
+        <v>0.168663</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205653</v>
+        <v>0.206305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202328</v>
+        <v>0.221762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162299</v>
+        <v>0.184855</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.211097</v>
+        <v>0.208635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208777</v>
+        <v>0.227843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165258</v>
+        <v>0.179898</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.223413</v>
+        <v>0.218341</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2177</v>
+        <v>0.227968</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168915</v>
+        <v>0.175353</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228248</v>
+        <v>0.220866</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164745</v>
+        <v>0.187502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.143228</v>
+        <v>0.157027</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24007</v>
+        <v>0.234529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.173099</v>
+        <v>0.183294</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146761</v>
+        <v>0.159043</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251636</v>
+        <v>0.244032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.180443</v>
+        <v>0.188463</v>
       </c>
       <c r="D23" t="n">
-        <v>0.148278</v>
+        <v>0.166285</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.260395</v>
+        <v>0.248439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.186612</v>
+        <v>0.191788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.149773</v>
+        <v>0.174375</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270678</v>
+        <v>0.25571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195702</v>
+        <v>0.201213</v>
       </c>
       <c r="D25" t="n">
-        <v>0.153324</v>
+        <v>0.166709</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.280635</v>
+        <v>0.256646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205993</v>
+        <v>0.209252</v>
       </c>
       <c r="D26" t="n">
-        <v>0.156512</v>
+        <v>0.179065</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235525</v>
+        <v>0.210121</v>
       </c>
       <c r="C27" t="n">
-        <v>0.211095</v>
+        <v>0.207006</v>
       </c>
       <c r="D27" t="n">
-        <v>0.160056</v>
+        <v>0.171669</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.246738</v>
+        <v>0.225136</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223354</v>
+        <v>0.217587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.163368</v>
+        <v>0.18007</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.249728</v>
+        <v>0.230622</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233547</v>
+        <v>0.22071</v>
       </c>
       <c r="D29" t="n">
-        <v>0.169869</v>
+        <v>0.181919</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.257196</v>
+        <v>0.232049</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246091</v>
+        <v>0.233068</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17885</v>
+        <v>0.187343</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.280366</v>
+        <v>0.238123</v>
       </c>
       <c r="C31" t="n">
-        <v>0.254155</v>
+        <v>0.240886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.180518</v>
+        <v>0.204228</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278445</v>
+        <v>0.251529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272574</v>
+        <v>0.244196</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189171</v>
+        <v>0.198889</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278571</v>
+        <v>0.256973</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280093</v>
+        <v>0.267702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.192383</v>
+        <v>0.199384</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.286286</v>
+        <v>0.260664</v>
       </c>
       <c r="C34" t="n">
-        <v>0.293619</v>
+        <v>0.278999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.201504</v>
+        <v>0.204026</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.290587</v>
+        <v>0.277312</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225847</v>
+        <v>0.208681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181542</v>
+        <v>0.181516</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299052</v>
+        <v>0.279216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.238161</v>
+        <v>0.216505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.186119</v>
+        <v>0.183273</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.310434</v>
+        <v>0.282498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240824</v>
+        <v>0.219189</v>
       </c>
       <c r="D37" t="n">
-        <v>0.193772</v>
+        <v>0.181545</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327724</v>
+        <v>0.301421</v>
       </c>
       <c r="C38" t="n">
-        <v>0.251906</v>
+        <v>0.229608</v>
       </c>
       <c r="D38" t="n">
-        <v>0.195166</v>
+        <v>0.187736</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.325544</v>
+        <v>0.302599</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255528</v>
+        <v>0.239208</v>
       </c>
       <c r="D39" t="n">
-        <v>0.199544</v>
+        <v>0.197318</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339493</v>
+        <v>0.328956</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263731</v>
+        <v>0.249512</v>
       </c>
       <c r="D40" t="n">
-        <v>0.206762</v>
+        <v>0.205094</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.267828</v>
+        <v>0.284106</v>
       </c>
       <c r="C41" t="n">
-        <v>0.274961</v>
+        <v>0.273778</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211084</v>
+        <v>0.21324</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.266422</v>
+        <v>0.288623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279806</v>
+        <v>0.27211</v>
       </c>
       <c r="D42" t="n">
-        <v>0.213369</v>
+        <v>0.208669</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.282498</v>
+        <v>0.321261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.291283</v>
+        <v>0.278382</v>
       </c>
       <c r="D43" t="n">
-        <v>0.220127</v>
+        <v>0.214281</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.284805</v>
+        <v>0.335659</v>
       </c>
       <c r="C44" t="n">
-        <v>0.299248</v>
+        <v>0.307149</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228036</v>
+        <v>0.226206</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.296861</v>
+        <v>0.324564</v>
       </c>
       <c r="C45" t="n">
-        <v>0.312651</v>
+        <v>0.3112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235086</v>
+        <v>0.229269</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304826</v>
+        <v>0.342113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320733</v>
+        <v>0.32265</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237122</v>
+        <v>0.23966</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.309451</v>
+        <v>0.345924</v>
       </c>
       <c r="C47" t="n">
-        <v>0.329087</v>
+        <v>0.343577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244173</v>
+        <v>0.25057</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.316303</v>
+        <v>0.372439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.343127</v>
+        <v>0.345756</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249678</v>
+        <v>0.250395</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.329379</v>
+        <v>0.374323</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355308</v>
+        <v>0.370708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.257079</v>
+        <v>0.263103</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335601</v>
+        <v>0.393545</v>
       </c>
       <c r="C50" t="n">
-        <v>0.266328</v>
+        <v>0.2876</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221183</v>
+        <v>0.221608</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.342009</v>
+        <v>0.440307</v>
       </c>
       <c r="C51" t="n">
-        <v>0.274462</v>
+        <v>0.292449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223664</v>
+        <v>0.243507</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.357347</v>
+        <v>0.437023</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280441</v>
+        <v>0.305093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227224</v>
+        <v>0.240174</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.365719</v>
+        <v>0.437855</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290818</v>
+        <v>0.322148</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235645</v>
+        <v>0.238001</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.378792</v>
+        <v>0.489588</v>
       </c>
       <c r="C54" t="n">
-        <v>0.299702</v>
+        <v>0.336706</v>
       </c>
       <c r="D54" t="n">
-        <v>0.238877</v>
+        <v>0.24933</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.399558</v>
+        <v>0.521616</v>
       </c>
       <c r="C55" t="n">
-        <v>0.310152</v>
+        <v>0.360294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.243258</v>
+        <v>0.253794</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324458</v>
+        <v>0.436843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320651</v>
+        <v>0.387913</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251711</v>
+        <v>0.278283</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338123</v>
+        <v>0.512665</v>
       </c>
       <c r="C57" t="n">
-        <v>0.333633</v>
+        <v>0.395604</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256127</v>
+        <v>0.274365</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.340683</v>
+        <v>0.503586</v>
       </c>
       <c r="C58" t="n">
-        <v>0.34151</v>
+        <v>0.424093</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262865</v>
+        <v>0.284283</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.355351</v>
+        <v>0.520535</v>
       </c>
       <c r="C59" t="n">
-        <v>0.352596</v>
+        <v>0.473964</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26571</v>
+        <v>0.307979</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.364295</v>
+        <v>0.5615329999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.368842</v>
+        <v>0.531571</v>
       </c>
       <c r="D60" t="n">
-        <v>0.274993</v>
+        <v>0.331079</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.377463</v>
+        <v>0.56828</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378767</v>
+        <v>0.501206</v>
       </c>
       <c r="D61" t="n">
-        <v>0.282816</v>
+        <v>0.337122</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.388901</v>
+        <v>0.652706</v>
       </c>
       <c r="C62" t="n">
-        <v>0.400298</v>
+        <v>0.575797</v>
       </c>
       <c r="D62" t="n">
-        <v>0.289321</v>
+        <v>0.378598</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.40233</v>
+        <v>0.670606</v>
       </c>
       <c r="C63" t="n">
-        <v>0.415593</v>
+        <v>0.572919</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30155</v>
+        <v>0.371012</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.406877</v>
+        <v>0.664498</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322717</v>
+        <v>0.493989</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2598</v>
+        <v>0.377207</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.428182</v>
+        <v>0.757343</v>
       </c>
       <c r="C65" t="n">
-        <v>0.334539</v>
+        <v>0.502978</v>
       </c>
       <c r="D65" t="n">
-        <v>0.266041</v>
+        <v>0.351822</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.443461</v>
+        <v>0.77432</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343071</v>
+        <v>0.533881</v>
       </c>
       <c r="D66" t="n">
-        <v>0.273731</v>
+        <v>0.366374</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.460193</v>
+        <v>0.8064519999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.357093</v>
+        <v>0.576114</v>
       </c>
       <c r="D67" t="n">
-        <v>0.285013</v>
+        <v>0.387399</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.482182</v>
+        <v>0.792505</v>
       </c>
       <c r="C68" t="n">
-        <v>0.368751</v>
+        <v>0.549936</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288703</v>
+        <v>0.374173</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5481819999999999</v>
+        <v>0.898365</v>
       </c>
       <c r="C69" t="n">
-        <v>0.40321</v>
+        <v>0.602183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295317</v>
+        <v>0.42519</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.387025</v>
+        <v>0.761399</v>
       </c>
       <c r="C70" t="n">
-        <v>0.393919</v>
+        <v>0.644993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.309297</v>
+        <v>0.407246</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.401567</v>
+        <v>0.753428</v>
       </c>
       <c r="C71" t="n">
-        <v>0.409686</v>
+        <v>0.6645219999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.310226</v>
+        <v>0.429082</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.415699</v>
+        <v>0.746115</v>
       </c>
       <c r="C72" t="n">
-        <v>0.422649</v>
+        <v>0.699055</v>
       </c>
       <c r="D72" t="n">
-        <v>0.318711</v>
+        <v>0.456475</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.423112</v>
+        <v>0.797884</v>
       </c>
       <c r="C73" t="n">
-        <v>0.440313</v>
+        <v>0.75322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.328668</v>
+        <v>0.495253</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.44119</v>
+        <v>0.823943</v>
       </c>
       <c r="C74" t="n">
-        <v>0.461454</v>
+        <v>0.802053</v>
       </c>
       <c r="D74" t="n">
-        <v>0.340119</v>
+        <v>0.499714</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.460813</v>
+        <v>0.844452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.473775</v>
+        <v>0.804354</v>
       </c>
       <c r="D75" t="n">
-        <v>0.352997</v>
+        <v>0.511042</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.486715</v>
+        <v>0.891305</v>
       </c>
       <c r="C76" t="n">
-        <v>0.502816</v>
+        <v>0.929982</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361278</v>
+        <v>0.583545</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.52281</v>
+        <v>0.969122</v>
       </c>
       <c r="C77" t="n">
-        <v>0.519304</v>
+        <v>0.922084</v>
       </c>
       <c r="D77" t="n">
-        <v>0.378912</v>
+        <v>0.580891</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.52889</v>
+        <v>0.977667</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404491</v>
+        <v>0.75673</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316305</v>
+        <v>0.55338</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.548976</v>
+        <v>1.02808</v>
       </c>
       <c r="C79" t="n">
-        <v>0.413033</v>
+        <v>0.721267</v>
       </c>
       <c r="D79" t="n">
-        <v>0.323185</v>
+        <v>0.552809</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.600012</v>
+        <v>1.03923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.433013</v>
+        <v>0.785852</v>
       </c>
       <c r="D80" t="n">
-        <v>0.329698</v>
+        <v>0.585678</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.640333</v>
+        <v>1.08246</v>
       </c>
       <c r="C81" t="n">
-        <v>0.461395</v>
+        <v>0.795195</v>
       </c>
       <c r="D81" t="n">
-        <v>0.342786</v>
+        <v>0.592261</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.670053</v>
+        <v>1.11964</v>
       </c>
       <c r="C82" t="n">
-        <v>0.499453</v>
+        <v>0.878088</v>
       </c>
       <c r="D82" t="n">
-        <v>0.354861</v>
+        <v>0.63408</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.712136</v>
+        <v>1.17506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.489164</v>
+        <v>0.870207</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364089</v>
+        <v>0.64083</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.572263</v>
+        <v>0.922261</v>
       </c>
       <c r="C84" t="n">
-        <v>0.524281</v>
+        <v>0.905906</v>
       </c>
       <c r="D84" t="n">
-        <v>0.390569</v>
+        <v>0.698846</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.594342</v>
+        <v>0.922199</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626478</v>
+        <v>0.937737</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408738</v>
+        <v>0.696345</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.748652</v>
+        <v>0.939649</v>
       </c>
       <c r="C86" t="n">
-        <v>0.62422</v>
+        <v>0.976923</v>
       </c>
       <c r="D86" t="n">
-        <v>0.444019</v>
+        <v>0.711355</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.730105</v>
+        <v>1.01513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.706589</v>
+        <v>1.0482</v>
       </c>
       <c r="D87" t="n">
-        <v>0.444351</v>
+        <v>0.744854</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.803647</v>
+        <v>1.0041</v>
       </c>
       <c r="C88" t="n">
-        <v>0.745175</v>
+        <v>1.09761</v>
       </c>
       <c r="D88" t="n">
-        <v>0.536141</v>
+        <v>0.7783330000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.919618</v>
+        <v>1.04053</v>
       </c>
       <c r="C89" t="n">
-        <v>0.838437</v>
+        <v>1.153</v>
       </c>
       <c r="D89" t="n">
-        <v>0.542113</v>
+        <v>0.814397</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.91042</v>
+        <v>1.05864</v>
       </c>
       <c r="C90" t="n">
-        <v>0.900373</v>
+        <v>1.13039</v>
       </c>
       <c r="D90" t="n">
-        <v>0.61822</v>
+        <v>0.7988960000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.925713</v>
+        <v>1.09081</v>
       </c>
       <c r="C91" t="n">
-        <v>1.01076</v>
+        <v>1.1693</v>
       </c>
       <c r="D91" t="n">
-        <v>0.622323</v>
+        <v>0.844513</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.986355</v>
+        <v>1.13376</v>
       </c>
       <c r="C92" t="n">
-        <v>0.750982</v>
+        <v>0.916815</v>
       </c>
       <c r="D92" t="n">
-        <v>0.568453</v>
+        <v>0.72155</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05733</v>
+        <v>1.15268</v>
       </c>
       <c r="C93" t="n">
-        <v>0.818755</v>
+        <v>0.885419</v>
       </c>
       <c r="D93" t="n">
-        <v>0.620901</v>
+        <v>0.762004</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.11932</v>
+        <v>1.18941</v>
       </c>
       <c r="C94" t="n">
-        <v>0.859301</v>
+        <v>0.9401080000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611152</v>
+        <v>0.76444</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.14764</v>
+        <v>1.23908</v>
       </c>
       <c r="C95" t="n">
-        <v>0.926432</v>
+        <v>1.0119</v>
       </c>
       <c r="D95" t="n">
-        <v>0.604499</v>
+        <v>0.780384</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07563</v>
+        <v>1.2724</v>
       </c>
       <c r="C96" t="n">
-        <v>0.848289</v>
+        <v>1.0137</v>
       </c>
       <c r="D96" t="n">
-        <v>0.677409</v>
+        <v>0.8067299999999999</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18189</v>
+        <v>1.31565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.894594</v>
+        <v>1.03037</v>
       </c>
       <c r="D97" t="n">
-        <v>0.633724</v>
+        <v>0.814267</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.899157</v>
+        <v>0.968085</v>
       </c>
       <c r="C98" t="n">
-        <v>0.907803</v>
+        <v>1.09008</v>
       </c>
       <c r="D98" t="n">
-        <v>0.638164</v>
+        <v>0.836873</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.914969</v>
+        <v>1.00445</v>
       </c>
       <c r="C99" t="n">
-        <v>0.889837</v>
+        <v>1.09438</v>
       </c>
       <c r="D99" t="n">
-        <v>0.650387</v>
+        <v>0.876285</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.933687</v>
+        <v>1.07229</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9775700000000001</v>
+        <v>1.13766</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6636879999999999</v>
+        <v>0.901504</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.981615</v>
+        <v>1.05312</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02011</v>
+        <v>1.1779</v>
       </c>
       <c r="D101" t="n">
-        <v>0.721811</v>
+        <v>0.942499</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00474</v>
+        <v>1.07943</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06982</v>
+        <v>1.20217</v>
       </c>
       <c r="D102" t="n">
-        <v>0.727391</v>
+        <v>0.950775</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.06091</v>
+        <v>1.12291</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12812</v>
+        <v>1.25345</v>
       </c>
       <c r="D103" t="n">
-        <v>0.745131</v>
+        <v>0.958603</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06461</v>
+        <v>1.15759</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12822</v>
+        <v>1.28387</v>
       </c>
       <c r="D104" t="n">
-        <v>0.769312</v>
+        <v>0.994042</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.09185</v>
+        <v>1.18609</v>
       </c>
       <c r="C105" t="n">
-        <v>1.17117</v>
+        <v>1.31879</v>
       </c>
       <c r="D105" t="n">
-        <v>0.892279</v>
+        <v>1.00669</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.19881</v>
+        <v>1.21036</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23859</v>
+        <v>1.39794</v>
       </c>
       <c r="D106" t="n">
-        <v>0.934276</v>
+        <v>1.06163</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.19985</v>
+        <v>1.24561</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9684469999999999</v>
+        <v>0.997814</v>
       </c>
       <c r="D107" t="n">
-        <v>0.745354</v>
+        <v>0.8557709999999999</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.21146</v>
+        <v>1.27885</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9155</v>
+        <v>1.02754</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7153890000000001</v>
+        <v>0.847917</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.22368</v>
+        <v>1.30159</v>
       </c>
       <c r="C109" t="n">
-        <v>0.93488</v>
+        <v>1.07351</v>
       </c>
       <c r="D109" t="n">
-        <v>0.75102</v>
+        <v>0.865129</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2836</v>
+        <v>1.3411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.96355</v>
+        <v>1.05373</v>
       </c>
       <c r="D110" t="n">
-        <v>0.768155</v>
+        <v>0.896658</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.30153</v>
+        <v>1.40281</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01551</v>
+        <v>1.09809</v>
       </c>
       <c r="D111" t="n">
-        <v>0.785143</v>
+        <v>0.933692</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00054</v>
+        <v>1.05027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03792</v>
+        <v>1.1466</v>
       </c>
       <c r="D112" t="n">
-        <v>0.803351</v>
+        <v>0.98067</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06333</v>
+        <v>1.04449</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09442</v>
+        <v>1.15329</v>
       </c>
       <c r="D113" t="n">
-        <v>0.816362</v>
+        <v>0.970261</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04284</v>
+        <v>1.07215</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11823</v>
+        <v>1.21306</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8338989999999999</v>
+        <v>0.98202</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.10725</v>
+        <v>1.11103</v>
       </c>
       <c r="C115" t="n">
-        <v>1.18653</v>
+        <v>1.259</v>
       </c>
       <c r="D115" t="n">
-        <v>0.909017</v>
+        <v>1.02382</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14725</v>
+        <v>1.14307</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21224</v>
+        <v>1.3061</v>
       </c>
       <c r="D116" t="n">
-        <v>0.915594</v>
+        <v>1.05668</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15604</v>
+        <v>1.17618</v>
       </c>
       <c r="C117" t="n">
-        <v>1.24905</v>
+        <v>1.37682</v>
       </c>
       <c r="D117" t="n">
-        <v>0.958113</v>
+        <v>1.07814</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.20381</v>
+        <v>1.21099</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26906</v>
+        <v>1.43033</v>
       </c>
       <c r="D118" t="n">
-        <v>0.938377</v>
+        <v>1.09975</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21509</v>
+        <v>1.25813</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32699</v>
+        <v>1.42094</v>
       </c>
       <c r="D119" t="n">
-        <v>0.967522</v>
+        <v>1.17861</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.571757</v>
+        <v>0.585109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445686</v>
+        <v>0.417952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.267785</v>
+        <v>0.236828</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.361843</v>
+        <v>0.358824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.462627</v>
+        <v>0.437949</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275802</v>
+        <v>0.248877</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.379944</v>
+        <v>0.375673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.484001</v>
+        <v>0.468355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.283873</v>
+        <v>0.250561</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393613</v>
+        <v>0.392205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501462</v>
+        <v>0.485982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293329</v>
+        <v>0.262321</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.411471</v>
+        <v>0.414505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517478</v>
+        <v>0.517972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.304982</v>
+        <v>0.271283</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.430336</v>
+        <v>0.445361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.541145</v>
+        <v>0.534141</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309761</v>
+        <v>0.275748</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.444883</v>
+        <v>0.450179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.557037</v>
+        <v>0.595271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316851</v>
+        <v>0.283799</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.46553</v>
+        <v>0.474031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.57737</v>
+        <v>0.599396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.326423</v>
+        <v>0.302422</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.487691</v>
+        <v>0.518297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604837</v>
+        <v>0.603345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339265</v>
+        <v>0.308425</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.50965</v>
+        <v>0.528811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.390265</v>
+        <v>0.394783</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246357</v>
+        <v>0.231413</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532283</v>
+        <v>0.568513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.402494</v>
+        <v>0.417771</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253997</v>
+        <v>0.250406</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.554244</v>
+        <v>0.591203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.416302</v>
+        <v>0.421725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261141</v>
+        <v>0.249543</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.578533</v>
+        <v>0.613888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.436866</v>
+        <v>0.458554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270131</v>
+        <v>0.263546</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.605671</v>
+        <v>0.650261</v>
       </c>
       <c r="C15" t="n">
-        <v>0.459181</v>
+        <v>0.490056</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278327</v>
+        <v>0.266494</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.622258</v>
+        <v>0.67471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.474622</v>
+        <v>0.491968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.286867</v>
+        <v>0.276567</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398272</v>
+        <v>0.428854</v>
       </c>
       <c r="C17" t="n">
-        <v>0.499761</v>
+        <v>0.539068</v>
       </c>
       <c r="D17" t="n">
-        <v>0.297396</v>
+        <v>0.285395</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.413693</v>
+        <v>0.450655</v>
       </c>
       <c r="C18" t="n">
-        <v>0.515088</v>
+        <v>0.556756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.306252</v>
+        <v>0.29511</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.429155</v>
+        <v>0.452463</v>
       </c>
       <c r="C19" t="n">
-        <v>0.537609</v>
+        <v>0.567706</v>
       </c>
       <c r="D19" t="n">
-        <v>0.316777</v>
+        <v>0.308355</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.451153</v>
+        <v>0.485494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.558767</v>
+        <v>0.588522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.325825</v>
+        <v>0.31648</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480045</v>
+        <v>0.499136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.592785</v>
+        <v>0.618025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.333264</v>
+        <v>0.330688</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.497267</v>
+        <v>0.532742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.613245</v>
+        <v>0.6571939999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.346434</v>
+        <v>0.353737</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.520183</v>
+        <v>0.560374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.643717</v>
+        <v>0.674547</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3548</v>
+        <v>0.356169</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.545262</v>
+        <v>0.590409</v>
       </c>
       <c r="C24" t="n">
-        <v>0.68729</v>
+        <v>0.711667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.363973</v>
+        <v>0.364533</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.589333</v>
+        <v>0.598185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701718</v>
+        <v>0.729362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.376786</v>
+        <v>0.379342</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.610188</v>
+        <v>0.618077</v>
       </c>
       <c r="C26" t="n">
-        <v>0.456615</v>
+        <v>0.460517</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262766</v>
+        <v>0.279375</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655277</v>
+        <v>0.678897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.478338</v>
+        <v>0.486552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276766</v>
+        <v>0.288024</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.692464</v>
+        <v>0.6999030000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5090519999999999</v>
+        <v>0.520911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284337</v>
+        <v>0.312452</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.741888</v>
+        <v>0.7347129999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.541222</v>
+        <v>0.547197</v>
       </c>
       <c r="D29" t="n">
-        <v>0.294572</v>
+        <v>0.318777</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.790342</v>
+        <v>0.757125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.579671</v>
+        <v>0.562867</v>
       </c>
       <c r="D30" t="n">
-        <v>0.30942</v>
+        <v>0.317817</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.849853</v>
+        <v>0.824464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.616048</v>
+        <v>0.585286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318921</v>
+        <v>0.347849</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.549339</v>
+        <v>0.482847</v>
       </c>
       <c r="C32" t="n">
-        <v>0.658713</v>
+        <v>0.606827</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334192</v>
+        <v>0.340922</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.580894</v>
+        <v>0.519492</v>
       </c>
       <c r="C33" t="n">
-        <v>0.694137</v>
+        <v>0.6378200000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.347388</v>
+        <v>0.354497</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.615307</v>
+        <v>0.535859</v>
       </c>
       <c r="C34" t="n">
-        <v>0.739527</v>
+        <v>0.669286</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359141</v>
+        <v>0.370979</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.63762</v>
+        <v>0.56515</v>
       </c>
       <c r="C35" t="n">
-        <v>0.768656</v>
+        <v>0.680559</v>
       </c>
       <c r="D35" t="n">
-        <v>0.373308</v>
+        <v>0.375878</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.684539</v>
+        <v>0.616514</v>
       </c>
       <c r="C36" t="n">
-        <v>0.820172</v>
+        <v>0.737328</v>
       </c>
       <c r="D36" t="n">
-        <v>0.397065</v>
+        <v>0.393987</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.708586</v>
+        <v>0.634987</v>
       </c>
       <c r="C37" t="n">
-        <v>0.86654</v>
+        <v>0.775052</v>
       </c>
       <c r="D37" t="n">
-        <v>0.411089</v>
+        <v>0.402222</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.752852</v>
+        <v>0.667988</v>
       </c>
       <c r="C38" t="n">
-        <v>0.908755</v>
+        <v>0.834015</v>
       </c>
       <c r="D38" t="n">
-        <v>0.431488</v>
+        <v>0.421243</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.790542</v>
+        <v>0.7112540000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.962239</v>
+        <v>0.875016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.453866</v>
+        <v>0.450219</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.836993</v>
+        <v>0.759186</v>
       </c>
       <c r="C40" t="n">
-        <v>0.599946</v>
+        <v>0.535562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.338591</v>
+        <v>0.323776</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.872121</v>
+        <v>0.769776</v>
       </c>
       <c r="C41" t="n">
-        <v>0.61651</v>
+        <v>0.562916</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351212</v>
+        <v>0.348969</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.911402</v>
+        <v>0.832212</v>
       </c>
       <c r="C42" t="n">
-        <v>0.650505</v>
+        <v>0.62398</v>
       </c>
       <c r="D42" t="n">
-        <v>0.362553</v>
+        <v>0.364714</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.962615</v>
+        <v>0.9060009999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.694806</v>
+        <v>0.636503</v>
       </c>
       <c r="D43" t="n">
-        <v>0.383749</v>
+        <v>0.394129</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.998526</v>
+        <v>0.994217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.725902</v>
+        <v>0.675505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.394854</v>
+        <v>0.399422</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.07223</v>
+        <v>1.02056</v>
       </c>
       <c r="C45" t="n">
-        <v>0.761224</v>
+        <v>0.726999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.416147</v>
+        <v>0.409609</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.659475</v>
+        <v>0.639335</v>
       </c>
       <c r="C46" t="n">
-        <v>0.795011</v>
+        <v>0.76463</v>
       </c>
       <c r="D46" t="n">
-        <v>0.430781</v>
+        <v>0.433438</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.686345</v>
+        <v>0.668102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.836291</v>
+        <v>0.806752</v>
       </c>
       <c r="D47" t="n">
-        <v>0.452158</v>
+        <v>0.465498</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7232690000000001</v>
+        <v>0.71397</v>
       </c>
       <c r="C48" t="n">
-        <v>0.871804</v>
+        <v>0.857698</v>
       </c>
       <c r="D48" t="n">
-        <v>0.469642</v>
+        <v>0.488614</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.751694</v>
+        <v>0.766282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.910324</v>
+        <v>0.920722</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474618</v>
+        <v>0.506841</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.784758</v>
+        <v>0.803287</v>
       </c>
       <c r="C50" t="n">
-        <v>0.957744</v>
+        <v>0.982746</v>
       </c>
       <c r="D50" t="n">
-        <v>0.501486</v>
+        <v>0.539618</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.832176</v>
+        <v>0.847398</v>
       </c>
       <c r="C51" t="n">
-        <v>1.10413</v>
+        <v>1.03211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.568302</v>
+        <v>0.556355</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.946698</v>
+        <v>0.9162439999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06195</v>
+        <v>1.09887</v>
       </c>
       <c r="D52" t="n">
-        <v>0.577994</v>
+        <v>0.590772</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.890553</v>
+        <v>0.958844</v>
       </c>
       <c r="C53" t="n">
-        <v>1.10459</v>
+        <v>1.22543</v>
       </c>
       <c r="D53" t="n">
-        <v>0.563682</v>
+        <v>0.618976</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.93177</v>
+        <v>1.02333</v>
       </c>
       <c r="C54" t="n">
-        <v>0.677188</v>
+        <v>0.744407</v>
       </c>
       <c r="D54" t="n">
-        <v>0.405808</v>
+        <v>0.439913</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.992219</v>
+        <v>1.086</v>
       </c>
       <c r="C55" t="n">
-        <v>0.71105</v>
+        <v>0.777078</v>
       </c>
       <c r="D55" t="n">
-        <v>0.421557</v>
+        <v>0.461072</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02494</v>
+        <v>1.22239</v>
       </c>
       <c r="C56" t="n">
-        <v>0.745872</v>
+        <v>0.842816</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441645</v>
+        <v>0.494326</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.11254</v>
+        <v>1.27599</v>
       </c>
       <c r="C57" t="n">
-        <v>0.772058</v>
+        <v>0.888884</v>
       </c>
       <c r="D57" t="n">
-        <v>0.460806</v>
+        <v>0.5046580000000001</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.13842</v>
+        <v>1.3337</v>
       </c>
       <c r="C58" t="n">
-        <v>0.823823</v>
+        <v>0.980557</v>
       </c>
       <c r="D58" t="n">
-        <v>0.469823</v>
+        <v>0.535542</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.18545</v>
+        <v>1.47904</v>
       </c>
       <c r="C59" t="n">
-        <v>0.846691</v>
+        <v>1.0292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.499935</v>
+        <v>0.565805</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7437589999999999</v>
+        <v>0.941573</v>
       </c>
       <c r="C60" t="n">
-        <v>0.903103</v>
+        <v>1.13685</v>
       </c>
       <c r="D60" t="n">
-        <v>0.513489</v>
+        <v>0.601402</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.790562</v>
+        <v>1.01414</v>
       </c>
       <c r="C61" t="n">
-        <v>0.957269</v>
+        <v>1.21079</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5328349999999999</v>
+        <v>0.649062</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.825168</v>
+        <v>1.08955</v>
       </c>
       <c r="C62" t="n">
-        <v>1.00978</v>
+        <v>1.31723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.553517</v>
+        <v>0.711046</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.889673</v>
+        <v>1.15536</v>
       </c>
       <c r="C63" t="n">
-        <v>1.05655</v>
+        <v>1.46288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.588299</v>
+        <v>0.746982</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.926574</v>
+        <v>1.22552</v>
       </c>
       <c r="C64" t="n">
-        <v>1.11449</v>
+        <v>1.49668</v>
       </c>
       <c r="D64" t="n">
-        <v>0.609416</v>
+        <v>0.782556</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.96988</v>
+        <v>1.42989</v>
       </c>
       <c r="C65" t="n">
-        <v>1.17519</v>
+        <v>1.6959</v>
       </c>
       <c r="D65" t="n">
-        <v>0.653215</v>
+        <v>0.793169</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.01841</v>
+        <v>1.51764</v>
       </c>
       <c r="C66" t="n">
-        <v>1.26625</v>
+        <v>1.94816</v>
       </c>
       <c r="D66" t="n">
-        <v>0.678804</v>
+        <v>0.857343</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.1025</v>
+        <v>1.602</v>
       </c>
       <c r="C67" t="n">
-        <v>1.35413</v>
+        <v>2.03625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.715681</v>
+        <v>0.931084</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.16788</v>
+        <v>1.76608</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8039269999999999</v>
+        <v>1.18174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.516931</v>
+        <v>0.618086</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.24172</v>
+        <v>1.91232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.892614</v>
+        <v>1.30625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.537592</v>
+        <v>0.676113</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.3429</v>
+        <v>2.17039</v>
       </c>
       <c r="C70" t="n">
-        <v>0.917286</v>
+        <v>1.47522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.559308</v>
+        <v>0.734087</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.48583</v>
+        <v>2.34159</v>
       </c>
       <c r="C71" t="n">
-        <v>0.988799</v>
+        <v>1.63552</v>
       </c>
       <c r="D71" t="n">
-        <v>0.596081</v>
+        <v>0.745204</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.74253</v>
+        <v>2.52827</v>
       </c>
       <c r="C72" t="n">
-        <v>1.10988</v>
+        <v>1.69381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.630756</v>
+        <v>0.823887</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.62002</v>
+        <v>2.68883</v>
       </c>
       <c r="C73" t="n">
-        <v>1.10688</v>
+        <v>1.86677</v>
       </c>
       <c r="D73" t="n">
-        <v>0.637458</v>
+        <v>0.854367</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.932344</v>
+        <v>1.69573</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13696</v>
+        <v>1.98836</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6491749999999999</v>
+        <v>0.930492</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.01434</v>
+        <v>1.78823</v>
       </c>
       <c r="C75" t="n">
-        <v>1.202</v>
+        <v>2.20096</v>
       </c>
       <c r="D75" t="n">
-        <v>0.691039</v>
+        <v>0.996291</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.05751</v>
+        <v>1.90402</v>
       </c>
       <c r="C76" t="n">
-        <v>1.26539</v>
+        <v>2.31558</v>
       </c>
       <c r="D76" t="n">
-        <v>0.706873</v>
+        <v>1.05917</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.12679</v>
+        <v>2.04891</v>
       </c>
       <c r="C77" t="n">
-        <v>1.34454</v>
+        <v>2.61927</v>
       </c>
       <c r="D77" t="n">
-        <v>0.750231</v>
+        <v>1.11339</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.18476</v>
+        <v>2.19299</v>
       </c>
       <c r="C78" t="n">
-        <v>1.45264</v>
+        <v>2.78433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.785426</v>
+        <v>1.28549</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.23324</v>
+        <v>2.39722</v>
       </c>
       <c r="C79" t="n">
-        <v>1.51564</v>
+        <v>3.08845</v>
       </c>
       <c r="D79" t="n">
-        <v>0.821497</v>
+        <v>1.27553</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.3485</v>
+        <v>2.49002</v>
       </c>
       <c r="C80" t="n">
-        <v>1.62671</v>
+        <v>3.17774</v>
       </c>
       <c r="D80" t="n">
-        <v>0.869435</v>
+        <v>1.35216</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.39941</v>
+        <v>2.67882</v>
       </c>
       <c r="C81" t="n">
-        <v>1.72324</v>
+        <v>3.37498</v>
       </c>
       <c r="D81" t="n">
-        <v>0.905683</v>
+        <v>1.46055</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.45535</v>
+        <v>2.81273</v>
       </c>
       <c r="C82" t="n">
-        <v>1.8104</v>
+        <v>3.60678</v>
       </c>
       <c r="D82" t="n">
-        <v>0.952151</v>
+        <v>1.54925</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.55184</v>
+        <v>3.04182</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10028</v>
+        <v>2.03976</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64904</v>
+        <v>1.0276</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.67086</v>
+        <v>3.23461</v>
       </c>
       <c r="C84" t="n">
-        <v>1.16595</v>
+        <v>2.22939</v>
       </c>
       <c r="D84" t="n">
-        <v>0.675063</v>
+        <v>1.10534</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.86409</v>
+        <v>3.44102</v>
       </c>
       <c r="C85" t="n">
-        <v>1.22887</v>
+        <v>2.34109</v>
       </c>
       <c r="D85" t="n">
-        <v>0.712323</v>
+        <v>1.15154</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.90733</v>
+        <v>3.57035</v>
       </c>
       <c r="C86" t="n">
-        <v>1.40321</v>
+        <v>2.55915</v>
       </c>
       <c r="D86" t="n">
-        <v>0.751677</v>
+        <v>1.28292</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0006</v>
+        <v>3.96258</v>
       </c>
       <c r="C87" t="n">
-        <v>1.38825</v>
+        <v>2.79515</v>
       </c>
       <c r="D87" t="n">
-        <v>0.787205</v>
+        <v>1.32247</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14868</v>
+        <v>4.17141</v>
       </c>
       <c r="C88" t="n">
-        <v>1.51532</v>
+        <v>2.90208</v>
       </c>
       <c r="D88" t="n">
-        <v>0.827766</v>
+        <v>1.4163</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.52678</v>
+        <v>2.39853</v>
       </c>
       <c r="C89" t="n">
-        <v>1.70088</v>
+        <v>2.97176</v>
       </c>
       <c r="D89" t="n">
-        <v>0.858923</v>
+        <v>1.52763</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.45214</v>
+        <v>2.55852</v>
       </c>
       <c r="C90" t="n">
-        <v>1.71153</v>
+        <v>3.1702</v>
       </c>
       <c r="D90" t="n">
-        <v>0.907381</v>
+        <v>1.52608</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.5434</v>
+        <v>2.68853</v>
       </c>
       <c r="C91" t="n">
-        <v>1.86666</v>
+        <v>3.43402</v>
       </c>
       <c r="D91" t="n">
-        <v>0.949963</v>
+        <v>1.65506</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.71949</v>
+        <v>2.88845</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01157</v>
+        <v>3.56091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.994442</v>
+        <v>1.70852</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.82285</v>
+        <v>2.96011</v>
       </c>
       <c r="C93" t="n">
-        <v>2.22572</v>
+        <v>3.74431</v>
       </c>
       <c r="D93" t="n">
-        <v>1.06849</v>
+        <v>1.79318</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.85732</v>
+        <v>3.04028</v>
       </c>
       <c r="C94" t="n">
-        <v>2.39046</v>
+        <v>3.93317</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11421</v>
+        <v>1.89046</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.01775</v>
+        <v>3.29353</v>
       </c>
       <c r="C95" t="n">
-        <v>2.53375</v>
+        <v>4.1394</v>
       </c>
       <c r="D95" t="n">
-        <v>1.17526</v>
+        <v>2.08546</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.19497</v>
+        <v>3.43376</v>
       </c>
       <c r="C96" t="n">
-        <v>2.77647</v>
+        <v>4.47995</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22183</v>
+        <v>2.07583</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.54842</v>
+        <v>3.71194</v>
       </c>
       <c r="C97" t="n">
-        <v>1.65963</v>
+        <v>2.6622</v>
       </c>
       <c r="D97" t="n">
-        <v>0.886119</v>
+        <v>1.39332</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.61585</v>
+        <v>3.84538</v>
       </c>
       <c r="C98" t="n">
-        <v>1.82991</v>
+        <v>2.68429</v>
       </c>
       <c r="D98" t="n">
-        <v>0.995044</v>
+        <v>1.47171</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.76504</v>
+        <v>4.07515</v>
       </c>
       <c r="C99" t="n">
-        <v>1.94059</v>
+        <v>2.82369</v>
       </c>
       <c r="D99" t="n">
-        <v>0.978598</v>
+        <v>1.53207</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.96057</v>
+        <v>4.19371</v>
       </c>
       <c r="C100" t="n">
-        <v>1.99755</v>
+        <v>3.08247</v>
       </c>
       <c r="D100" t="n">
-        <v>1.04618</v>
+        <v>1.59933</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.26763</v>
+        <v>4.4361</v>
       </c>
       <c r="C101" t="n">
-        <v>2.38601</v>
+        <v>3.12517</v>
       </c>
       <c r="D101" t="n">
-        <v>1.29173</v>
+        <v>1.72207</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.64478</v>
+        <v>4.58946</v>
       </c>
       <c r="C102" t="n">
-        <v>2.5441</v>
+        <v>3.34529</v>
       </c>
       <c r="D102" t="n">
-        <v>1.26413</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.25543</v>
+        <v>2.6954</v>
       </c>
       <c r="C103" t="n">
-        <v>2.71204</v>
+        <v>3.49827</v>
       </c>
       <c r="D103" t="n">
-        <v>1.3493</v>
+        <v>1.87112</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.36097</v>
+        <v>2.78388</v>
       </c>
       <c r="C104" t="n">
-        <v>3.17639</v>
+        <v>3.69803</v>
       </c>
       <c r="D104" t="n">
-        <v>1.60774</v>
+        <v>1.87312</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.67979</v>
+        <v>2.97561</v>
       </c>
       <c r="C105" t="n">
-        <v>3.18411</v>
+        <v>3.91054</v>
       </c>
       <c r="D105" t="n">
-        <v>1.57289</v>
+        <v>1.97085</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.69111</v>
+        <v>3.11476</v>
       </c>
       <c r="C106" t="n">
-        <v>3.27805</v>
+        <v>4.14174</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6731</v>
+        <v>2.07464</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.71611</v>
+        <v>3.21488</v>
       </c>
       <c r="C107" t="n">
-        <v>3.35592</v>
+        <v>4.28737</v>
       </c>
       <c r="D107" t="n">
-        <v>1.6113</v>
+        <v>2.18026</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.89063</v>
+        <v>3.39084</v>
       </c>
       <c r="C108" t="n">
-        <v>3.64951</v>
+        <v>4.4881</v>
       </c>
       <c r="D108" t="n">
-        <v>1.75071</v>
+        <v>2.31164</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.88367</v>
+        <v>3.55835</v>
       </c>
       <c r="C109" t="n">
-        <v>3.59267</v>
+        <v>4.7414</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75682</v>
+        <v>2.36753</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.04729</v>
+        <v>3.74474</v>
       </c>
       <c r="C110" t="n">
-        <v>3.75244</v>
+        <v>5.00491</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79282</v>
+        <v>2.53856</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.12609</v>
+        <v>3.92201</v>
       </c>
       <c r="C111" t="n">
-        <v>2.18578</v>
+        <v>2.76308</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24793</v>
+        <v>1.70228</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.35479</v>
+        <v>4.18216</v>
       </c>
       <c r="C112" t="n">
-        <v>2.32809</v>
+        <v>2.9375</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3022</v>
+        <v>1.74034</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.62836</v>
+        <v>4.3247</v>
       </c>
       <c r="C113" t="n">
-        <v>2.4787</v>
+        <v>3.09485</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38779</v>
+        <v>1.87585</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.749</v>
+        <v>4.58923</v>
       </c>
       <c r="C114" t="n">
-        <v>2.52802</v>
+        <v>3.22041</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44202</v>
+        <v>1.87309</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.94163</v>
+        <v>4.73827</v>
       </c>
       <c r="C115" t="n">
-        <v>2.69219</v>
+        <v>3.39126</v>
       </c>
       <c r="D115" t="n">
-        <v>1.48605</v>
+        <v>1.96058</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.18347</v>
+        <v>4.97852</v>
       </c>
       <c r="C116" t="n">
-        <v>2.85928</v>
+        <v>3.53817</v>
       </c>
       <c r="D116" t="n">
-        <v>1.57927</v>
+        <v>2.12333</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.58046</v>
+        <v>2.88457</v>
       </c>
       <c r="C117" t="n">
-        <v>3.27766</v>
+        <v>3.75135</v>
       </c>
       <c r="D117" t="n">
-        <v>1.92915</v>
+        <v>2.09144</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.81395</v>
+        <v>3.01571</v>
       </c>
       <c r="C118" t="n">
-        <v>3.45985</v>
+        <v>3.99949</v>
       </c>
       <c r="D118" t="n">
-        <v>1.82458</v>
+        <v>2.26063</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.85907</v>
+        <v>3.13576</v>
       </c>
       <c r="C119" t="n">
-        <v>3.58005</v>
+        <v>4.11765</v>
       </c>
       <c r="D119" t="n">
-        <v>2.01069</v>
+        <v>2.28993</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222832</v>
+        <v>0.236076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205377</v>
+        <v>0.20778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238882</v>
+        <v>0.244894</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.226164</v>
+        <v>0.227617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227665</v>
+        <v>0.212892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236488</v>
+        <v>0.238539</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230732</v>
+        <v>0.231332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214271</v>
+        <v>0.220278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239713</v>
+        <v>0.244214</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236765</v>
+        <v>0.239922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217196</v>
+        <v>0.229418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245911</v>
+        <v>0.248676</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241383</v>
+        <v>0.241692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229364</v>
+        <v>0.228253</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253077</v>
+        <v>0.255857</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240951</v>
+        <v>0.249195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182382</v>
+        <v>0.186899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210809</v>
+        <v>0.222454</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245676</v>
+        <v>0.255325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185397</v>
+        <v>0.18915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213822</v>
+        <v>0.225256</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257452</v>
+        <v>0.253977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191283</v>
+        <v>0.202729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221769</v>
+        <v>0.227703</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253852</v>
+        <v>0.260016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202132</v>
+        <v>0.199264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229485</v>
+        <v>0.234406</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255926</v>
+        <v>0.26313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200949</v>
+        <v>0.20654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235007</v>
+        <v>0.255352</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261943</v>
+        <v>0.263871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20773</v>
+        <v>0.21766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241774</v>
+        <v>0.251525</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219775</v>
+        <v>0.222119</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21529</v>
+        <v>0.221771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249445</v>
+        <v>0.264105</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.224375</v>
+        <v>0.230822</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219335</v>
+        <v>0.222726</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253264</v>
+        <v>0.260827</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22638</v>
+        <v>0.231323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225473</v>
+        <v>0.23309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259655</v>
+        <v>0.270363</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230397</v>
+        <v>0.238348</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233446</v>
+        <v>0.238969</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267625</v>
+        <v>0.27454</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.236793</v>
+        <v>0.242191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235287</v>
+        <v>0.24367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.275745</v>
+        <v>0.283144</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23968</v>
+        <v>0.244462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23383</v>
+        <v>0.239397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.276326</v>
+        <v>0.295034</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277518</v>
+        <v>0.253526</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287465</v>
+        <v>0.249372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285483</v>
+        <v>0.299057</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249602</v>
+        <v>0.260387</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245982</v>
+        <v>0.255199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292185</v>
+        <v>0.303265</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256559</v>
+        <v>0.263573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193027</v>
+        <v>0.194221</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228943</v>
+        <v>0.231766</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260204</v>
+        <v>0.260175</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197705</v>
+        <v>0.206143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236748</v>
+        <v>0.244871</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289492</v>
+        <v>0.266844</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210824</v>
+        <v>0.207434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2444</v>
+        <v>0.250955</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.267791</v>
+        <v>0.280977</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211</v>
+        <v>0.216173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249116</v>
+        <v>0.261426</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268655</v>
+        <v>0.276383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216396</v>
+        <v>0.218456</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251778</v>
+        <v>0.268371</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.278072</v>
+        <v>0.293913</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224094</v>
+        <v>0.231461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262346</v>
+        <v>0.275112</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231926</v>
+        <v>0.244304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228853</v>
+        <v>0.239582</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268357</v>
+        <v>0.270551</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.239062</v>
+        <v>0.245088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233976</v>
+        <v>0.244726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278079</v>
+        <v>0.286222</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273477</v>
+        <v>0.257645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242475</v>
+        <v>0.25721</v>
       </c>
       <c r="D29" t="n">
-        <v>0.287733</v>
+        <v>0.307272</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251409</v>
+        <v>0.273824</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249237</v>
+        <v>0.265844</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31307</v>
+        <v>0.301766</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258798</v>
+        <v>0.272436</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256382</v>
+        <v>0.263674</v>
       </c>
       <c r="D31" t="n">
-        <v>0.306625</v>
+        <v>0.315652</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273531</v>
+        <v>0.275421</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261691</v>
+        <v>0.272726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317312</v>
+        <v>0.327166</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272141</v>
+        <v>0.290799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267908</v>
+        <v>0.278084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325875</v>
+        <v>0.332582</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.282164</v>
+        <v>0.302171</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273483</v>
+        <v>0.286692</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335241</v>
+        <v>0.356429</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291364</v>
+        <v>0.320799</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212997</v>
+        <v>0.224773</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25506</v>
+        <v>0.267224</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299727</v>
+        <v>0.310813</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220454</v>
+        <v>0.2363</v>
       </c>
       <c r="D36" t="n">
-        <v>0.267125</v>
+        <v>0.278774</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313058</v>
+        <v>0.329559</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230423</v>
+        <v>0.233473</v>
       </c>
       <c r="D37" t="n">
-        <v>0.276584</v>
+        <v>0.287011</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321782</v>
+        <v>0.342632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239885</v>
+        <v>0.251168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290058</v>
+        <v>0.306773</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329539</v>
+        <v>0.337404</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248403</v>
+        <v>0.248659</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298308</v>
+        <v>0.300768</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345575</v>
+        <v>0.358133</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256322</v>
+        <v>0.263387</v>
       </c>
       <c r="D40" t="n">
-        <v>0.310255</v>
+        <v>0.326615</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308329</v>
+        <v>0.316533</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264204</v>
+        <v>0.270985</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316781</v>
+        <v>0.342332</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.312559</v>
+        <v>0.331398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274302</v>
+        <v>0.280437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328689</v>
+        <v>0.347597</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318941</v>
+        <v>0.342021</v>
       </c>
       <c r="C43" t="n">
-        <v>0.284696</v>
+        <v>0.306812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.348146</v>
+        <v>0.384161</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339543</v>
+        <v>0.361799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296215</v>
+        <v>0.318692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357187</v>
+        <v>0.386599</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350744</v>
+        <v>0.371588</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305612</v>
+        <v>0.33058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.371512</v>
+        <v>0.388608</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.364539</v>
+        <v>0.37726</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320242</v>
+        <v>0.328892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.38419</v>
+        <v>0.398754</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.379912</v>
+        <v>0.399592</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331352</v>
+        <v>0.345939</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418661</v>
+        <v>0.439199</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.406747</v>
+        <v>0.424726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349567</v>
+        <v>0.374706</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428115</v>
+        <v>0.44552</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.414459</v>
+        <v>0.439357</v>
       </c>
       <c r="C49" t="n">
-        <v>0.358213</v>
+        <v>0.38275</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446839</v>
+        <v>0.459514</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.431117</v>
+        <v>0.482204</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295772</v>
+        <v>0.316852</v>
       </c>
       <c r="D50" t="n">
-        <v>0.353705</v>
+        <v>0.378651</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.448281</v>
+        <v>0.493578</v>
       </c>
       <c r="C51" t="n">
-        <v>0.304374</v>
+        <v>0.324758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370357</v>
+        <v>0.386311</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465704</v>
+        <v>0.512503</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329725</v>
+        <v>0.34366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414164</v>
+        <v>0.408197</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.548864</v>
+        <v>0.511772</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396971</v>
+        <v>0.360114</v>
       </c>
       <c r="D53" t="n">
-        <v>0.398186</v>
+        <v>0.417724</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.520927</v>
+        <v>0.536758</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359842</v>
+        <v>0.378287</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435445</v>
+        <v>0.446754</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548441</v>
+        <v>0.565833</v>
       </c>
       <c r="C55" t="n">
-        <v>0.380913</v>
+        <v>0.397451</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461035</v>
+        <v>0.473892</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489629</v>
+        <v>0.512448</v>
       </c>
       <c r="C56" t="n">
-        <v>0.396603</v>
+        <v>0.40577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.489627</v>
+        <v>0.472709</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.537918</v>
+        <v>0.525302</v>
       </c>
       <c r="C57" t="n">
-        <v>0.426245</v>
+        <v>0.435283</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5170670000000001</v>
+        <v>0.5210399999999999</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.553449</v>
+        <v>0.552049</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441182</v>
+        <v>0.489482</v>
       </c>
       <c r="D58" t="n">
-        <v>0.51913</v>
+        <v>0.54506</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.58671</v>
+        <v>0.582122</v>
       </c>
       <c r="C59" t="n">
-        <v>0.466276</v>
+        <v>0.495991</v>
       </c>
       <c r="D59" t="n">
-        <v>0.605183</v>
+        <v>0.582889</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.571514</v>
+        <v>0.59018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.478118</v>
+        <v>0.5116889999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55744</v>
+        <v>0.60661</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.588156</v>
+        <v>0.638534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.503188</v>
+        <v>0.526979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655969</v>
+        <v>0.64236</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.70245</v>
+        <v>0.650709</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556569</v>
+        <v>0.571872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.659027</v>
+        <v>0.686146</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645122</v>
+        <v>0.7278559999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.591614</v>
+        <v>0.598118</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701566</v>
+        <v>0.712496</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.701191</v>
+        <v>0.724539</v>
       </c>
       <c r="C64" t="n">
-        <v>0.484607</v>
+        <v>0.505895</v>
       </c>
       <c r="D64" t="n">
-        <v>0.586464</v>
+        <v>0.595677</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.74104</v>
+        <v>0.742038</v>
       </c>
       <c r="C65" t="n">
-        <v>0.50552</v>
+        <v>0.523529</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623486</v>
+        <v>0.635965</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.788623</v>
+        <v>0.777878</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548578</v>
+        <v>0.5266690000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660301</v>
+        <v>0.650315</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814538</v>
+        <v>0.79637</v>
       </c>
       <c r="C67" t="n">
-        <v>0.558815</v>
+        <v>0.582296</v>
       </c>
       <c r="D67" t="n">
-        <v>0.669817</v>
+        <v>0.710346</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.835411</v>
+        <v>0.862918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.585522</v>
+        <v>0.603598</v>
       </c>
       <c r="D68" t="n">
-        <v>0.693605</v>
+        <v>0.711545</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.833492</v>
+        <v>0.888293</v>
       </c>
       <c r="C69" t="n">
-        <v>0.594307</v>
+        <v>0.605862</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715881</v>
+        <v>0.740505</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.699483</v>
+        <v>0.7222150000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6220830000000001</v>
+        <v>0.63559</v>
       </c>
       <c r="D70" t="n">
-        <v>0.75726</v>
+        <v>0.794582</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.794046</v>
+        <v>0.7598200000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.757667</v>
+        <v>0.689781</v>
       </c>
       <c r="D71" t="n">
-        <v>0.933043</v>
+        <v>0.803794</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.783936</v>
+        <v>0.782056</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757119</v>
+        <v>0.723169</v>
       </c>
       <c r="D72" t="n">
-        <v>0.878933</v>
+        <v>0.855989</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.849457</v>
+        <v>0.822739</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739069</v>
+        <v>0.755753</v>
       </c>
       <c r="D73" t="n">
-        <v>0.882333</v>
+        <v>0.906675</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.825288</v>
+        <v>0.832446</v>
       </c>
       <c r="C74" t="n">
-        <v>0.777308</v>
+        <v>0.786503</v>
       </c>
       <c r="D74" t="n">
-        <v>0.91804</v>
+        <v>0.930301</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.857222</v>
+        <v>0.876306</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823609</v>
+        <v>0.812493</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9835159999999999</v>
+        <v>0.981082</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.914462</v>
+        <v>0.913872</v>
       </c>
       <c r="C76" t="n">
-        <v>0.86129</v>
+        <v>0.8233009999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.965619</v>
+        <v>1.02332</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874785</v>
+        <v>0.925032</v>
       </c>
       <c r="C77" t="n">
-        <v>0.894662</v>
+        <v>0.889181</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00915</v>
+        <v>1.06603</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.916507</v>
+        <v>0.955495</v>
       </c>
       <c r="C78" t="n">
-        <v>0.678011</v>
+        <v>0.719257</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8430879999999999</v>
+        <v>0.867455</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.97404</v>
+        <v>0.988299</v>
       </c>
       <c r="C79" t="n">
-        <v>0.711514</v>
+        <v>0.731833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9104680000000001</v>
+        <v>0.908786</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0325</v>
+        <v>1.0485</v>
       </c>
       <c r="C80" t="n">
-        <v>0.787879</v>
+        <v>0.7609050000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9415750000000001</v>
+        <v>0.971255</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02589</v>
+        <v>1.04824</v>
       </c>
       <c r="C81" t="n">
-        <v>0.755109</v>
+        <v>0.7730939999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9757169999999999</v>
+        <v>0.965058</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05966</v>
+        <v>1.05531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.824399</v>
+        <v>0.823255</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0225</v>
+        <v>1.05086</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0897</v>
+        <v>1.12427</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845307</v>
+        <v>0.850235</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06065</v>
+        <v>1.06926</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.896701</v>
+        <v>0.893365</v>
       </c>
       <c r="C84" t="n">
-        <v>0.879775</v>
+        <v>0.8537709999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09838</v>
+        <v>1.08089</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.900745</v>
+        <v>0.902134</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903386</v>
+        <v>0.9094</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0899</v>
+        <v>1.10346</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.91198</v>
+        <v>0.950901</v>
       </c>
       <c r="C86" t="n">
-        <v>0.91574</v>
+        <v>0.934785</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11731</v>
+        <v>1.16126</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920902</v>
+        <v>0.955547</v>
       </c>
       <c r="C87" t="n">
-        <v>0.92333</v>
+        <v>0.958955</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15098</v>
+        <v>1.20281</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.943978</v>
+        <v>0.978619</v>
       </c>
       <c r="C88" t="n">
-        <v>0.977023</v>
+        <v>1.00553</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27176</v>
+        <v>1.24657</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.998364</v>
+        <v>1.0514</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03284</v>
+        <v>1.02858</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26271</v>
+        <v>1.27365</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01617</v>
+        <v>1.05448</v>
       </c>
       <c r="C90" t="n">
-        <v>1.06304</v>
+        <v>1.07182</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33043</v>
+        <v>1.34976</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04528</v>
+        <v>1.06439</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09174</v>
+        <v>1.108</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36328</v>
+        <v>1.38341</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06741</v>
+        <v>1.11405</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859309</v>
+        <v>0.860695</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1107</v>
+        <v>1.16149</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.09599</v>
+        <v>1.13621</v>
       </c>
       <c r="C93" t="n">
-        <v>0.877152</v>
+        <v>0.8780210000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1028</v>
+        <v>1.1358</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.10522</v>
+        <v>1.15333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.963384</v>
+        <v>0.907483</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14903</v>
+        <v>1.17798</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.15758</v>
+        <v>1.20628</v>
       </c>
       <c r="C95" t="n">
-        <v>0.922351</v>
+        <v>0.93714</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1833</v>
+        <v>1.18548</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17268</v>
+        <v>1.23234</v>
       </c>
       <c r="C96" t="n">
-        <v>0.933671</v>
+        <v>0.951557</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23372</v>
+        <v>1.25118</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20453</v>
+        <v>1.24249</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956013</v>
+        <v>0.9916740000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21494</v>
+        <v>1.26407</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.945516</v>
+        <v>0.975591</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984067</v>
+        <v>1.00716</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27959</v>
+        <v>1.30565</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96415</v>
+        <v>0.995833</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01065</v>
+        <v>1.02716</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3157</v>
+        <v>1.35418</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.991716</v>
+        <v>1.03331</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03841</v>
+        <v>1.07017</v>
       </c>
       <c r="D100" t="n">
-        <v>1.35837</v>
+        <v>1.39409</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01555</v>
+        <v>1.02973</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06033</v>
+        <v>1.103</v>
       </c>
       <c r="D101" t="n">
-        <v>1.36681</v>
+        <v>1.46857</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04</v>
+        <v>1.06133</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08108</v>
+        <v>1.13946</v>
       </c>
       <c r="D102" t="n">
-        <v>1.4079</v>
+        <v>1.46328</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05969</v>
+        <v>1.09943</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11202</v>
+        <v>1.17098</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44628</v>
+        <v>1.50859</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09347</v>
+        <v>1.12178</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14366</v>
+        <v>1.21227</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4821</v>
+        <v>1.59422</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11419</v>
+        <v>1.14777</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19162</v>
+        <v>1.25462</v>
       </c>
       <c r="D105" t="n">
-        <v>1.54217</v>
+        <v>1.58886</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15552</v>
+        <v>1.15764</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23344</v>
+        <v>1.28863</v>
       </c>
       <c r="D106" t="n">
-        <v>1.63911</v>
+        <v>1.65629</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22848</v>
+        <v>1.25494</v>
       </c>
       <c r="C107" t="n">
-        <v>0.971469</v>
+        <v>0.98185</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23209</v>
+        <v>1.26512</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22538</v>
+        <v>1.23719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.955221</v>
+        <v>1.01842</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25486</v>
+        <v>1.33127</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.24757</v>
+        <v>1.27078</v>
       </c>
       <c r="C109" t="n">
-        <v>0.983036</v>
+        <v>1.02612</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30783</v>
+        <v>1.3545</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.27284</v>
+        <v>1.31521</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00653</v>
+        <v>1.07062</v>
       </c>
       <c r="D110" t="n">
-        <v>1.32684</v>
+        <v>1.39295</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32097</v>
+        <v>1.33727</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0948</v>
+        <v>1.09047</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7517</v>
+        <v>1.41591</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0326</v>
+        <v>1.08337</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12824</v>
+        <v>1.10668</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45242</v>
+        <v>1.52243</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06305</v>
+        <v>1.09169</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09822</v>
+        <v>1.15454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47322</v>
+        <v>1.51316</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32199</v>
+        <v>1.14695</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13245</v>
+        <v>1.18155</v>
       </c>
       <c r="D114" t="n">
-        <v>1.50309</v>
+        <v>1.55712</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16585</v>
+        <v>1.13985</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17689</v>
+        <v>1.20672</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57927</v>
+        <v>1.60302</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12933</v>
+        <v>1.15844</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20371</v>
+        <v>1.2284</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59271</v>
+        <v>1.6424</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15131</v>
+        <v>1.19354</v>
       </c>
       <c r="C117" t="n">
-        <v>1.244</v>
+        <v>1.26905</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66646</v>
+        <v>1.67354</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14902</v>
+        <v>1.26709</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25684</v>
+        <v>1.35198</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68556</v>
+        <v>1.7266</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25696</v>
+        <v>1.28545</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37237</v>
+        <v>1.36302</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72246</v>
+        <v>1.8073</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201291</v>
+        <v>0.193602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184652</v>
+        <v>0.184261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139115</v>
+        <v>0.142085</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187026</v>
+        <v>0.190484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200179</v>
+        <v>0.189745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145146</v>
+        <v>0.144009</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190818</v>
+        <v>0.202366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18809</v>
+        <v>0.19781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145487</v>
+        <v>0.149073</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204078</v>
+        <v>0.203323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205951</v>
+        <v>0.200002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156447</v>
+        <v>0.154176</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225626</v>
+        <v>0.203554</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205661</v>
+        <v>0.206781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149699</v>
+        <v>0.153876</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205814</v>
+        <v>0.213188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.157319</v>
+        <v>0.173133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147003</v>
+        <v>0.14448</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212204</v>
+        <v>0.213103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160873</v>
+        <v>0.166941</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150909</v>
+        <v>0.143087</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218821</v>
+        <v>0.220613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166582</v>
+        <v>0.167682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14296</v>
+        <v>0.146406</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222714</v>
+        <v>0.229707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168848</v>
+        <v>0.180998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153888</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247907</v>
+        <v>0.240144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182893</v>
+        <v>0.182459</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148731</v>
+        <v>0.15513</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242115</v>
+        <v>0.244604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180172</v>
+        <v>0.185686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>0.155768</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188184</v>
+        <v>0.194846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184881</v>
+        <v>0.19048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159659</v>
+        <v>0.154896</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2098</v>
+        <v>0.198134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.193698</v>
+        <v>0.19144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.155613</v>
+        <v>0.158068</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205296</v>
+        <v>0.203669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194696</v>
+        <v>0.201024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.160008</v>
+        <v>0.163625</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203789</v>
+        <v>0.2176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201628</v>
+        <v>0.21691</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161298</v>
+        <v>0.165038</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206316</v>
+        <v>0.215927</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209896</v>
+        <v>0.21227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168663</v>
+        <v>0.173635</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.206305</v>
+        <v>0.213819</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221762</v>
+        <v>0.225896</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184855</v>
+        <v>0.172534</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208635</v>
+        <v>0.225913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227843</v>
+        <v>0.226641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179898</v>
+        <v>0.175622</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218341</v>
+        <v>0.228308</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227968</v>
+        <v>0.236573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.175353</v>
+        <v>0.181444</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220866</v>
+        <v>0.237782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187502</v>
+        <v>0.185583</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157027</v>
+        <v>0.160525</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234529</v>
+        <v>0.230463</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183294</v>
+        <v>0.184818</v>
       </c>
       <c r="D22" t="n">
-        <v>0.159043</v>
+        <v>0.160583</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244032</v>
+        <v>0.242766</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188463</v>
+        <v>0.192707</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166285</v>
+        <v>0.164618</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248439</v>
+        <v>0.250727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.191788</v>
+        <v>0.199991</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174375</v>
+        <v>0.164491</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25571</v>
+        <v>0.259197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.201213</v>
+        <v>0.205378</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166709</v>
+        <v>0.172922</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.256646</v>
+        <v>0.273998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.209252</v>
+        <v>0.21646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179065</v>
+        <v>0.178439</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.210121</v>
+        <v>0.218969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207006</v>
+        <v>0.231234</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171669</v>
+        <v>0.193197</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225136</v>
+        <v>0.230688</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217587</v>
+        <v>0.226592</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18007</v>
+        <v>0.189229</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230622</v>
+        <v>0.256196</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22071</v>
+        <v>0.233849</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181919</v>
+        <v>0.194541</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.232049</v>
+        <v>0.247377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233068</v>
+        <v>0.246031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187343</v>
+        <v>0.193643</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.238123</v>
+        <v>0.256954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240886</v>
+        <v>0.244068</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204228</v>
+        <v>0.203152</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251529</v>
+        <v>0.263519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244196</v>
+        <v>0.259957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.198889</v>
+        <v>0.206514</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256973</v>
+        <v>0.272878</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267702</v>
+        <v>0.272014</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199384</v>
+        <v>0.211818</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260664</v>
+        <v>0.281691</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278999</v>
+        <v>0.276538</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204026</v>
+        <v>0.217842</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277312</v>
+        <v>0.299605</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208681</v>
+        <v>0.221611</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181516</v>
+        <v>0.190609</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.279216</v>
+        <v>0.299533</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216505</v>
+        <v>0.247288</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183273</v>
+        <v>0.191687</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282498</v>
+        <v>0.311443</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219189</v>
+        <v>0.231935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181545</v>
+        <v>0.200139</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301421</v>
+        <v>0.330836</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229608</v>
+        <v>0.244163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187736</v>
+        <v>0.199283</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302599</v>
+        <v>0.331668</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239208</v>
+        <v>0.265039</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197318</v>
+        <v>0.213416</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.328956</v>
+        <v>0.357784</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249512</v>
+        <v>0.265565</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205094</v>
+        <v>0.214568</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284106</v>
+        <v>0.317935</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273778</v>
+        <v>0.269168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21324</v>
+        <v>0.221414</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288623</v>
+        <v>0.319128</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27211</v>
+        <v>0.283868</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208669</v>
+        <v>0.226544</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321261</v>
+        <v>0.34213</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278382</v>
+        <v>0.297658</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214281</v>
+        <v>0.22854</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.335659</v>
+        <v>0.354595</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307149</v>
+        <v>0.324396</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226206</v>
+        <v>0.248604</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324564</v>
+        <v>0.360305</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3112</v>
+        <v>0.326529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229269</v>
+        <v>0.249715</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.342113</v>
+        <v>0.375043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32265</v>
+        <v>0.340243</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23966</v>
+        <v>0.253427</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.345924</v>
+        <v>0.409334</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343577</v>
+        <v>0.355489</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25057</v>
+        <v>0.260151</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.372439</v>
+        <v>0.414999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345756</v>
+        <v>0.36973</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250395</v>
+        <v>0.278214</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.374323</v>
+        <v>0.441138</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370708</v>
+        <v>0.399096</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263103</v>
+        <v>0.28318</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393545</v>
+        <v>0.455701</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2876</v>
+        <v>0.326728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221608</v>
+        <v>0.246218</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440307</v>
+        <v>0.472387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292449</v>
+        <v>0.340499</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243507</v>
+        <v>0.250809</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437023</v>
+        <v>0.5004690000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.305093</v>
+        <v>0.358348</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240174</v>
+        <v>0.260758</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.437855</v>
+        <v>0.523355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.322148</v>
+        <v>0.376903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238001</v>
+        <v>0.283169</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.489588</v>
+        <v>0.558836</v>
       </c>
       <c r="C54" t="n">
-        <v>0.336706</v>
+        <v>0.400573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24933</v>
+        <v>0.281206</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521616</v>
+        <v>0.57894</v>
       </c>
       <c r="C55" t="n">
-        <v>0.360294</v>
+        <v>0.438908</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253794</v>
+        <v>0.289758</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.436843</v>
+        <v>0.531603</v>
       </c>
       <c r="C56" t="n">
-        <v>0.387913</v>
+        <v>0.433649</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278283</v>
+        <v>0.299155</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512665</v>
+        <v>0.545946</v>
       </c>
       <c r="C57" t="n">
-        <v>0.395604</v>
+        <v>0.447299</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274365</v>
+        <v>0.317639</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.503586</v>
+        <v>0.567292</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424093</v>
+        <v>0.493295</v>
       </c>
       <c r="D58" t="n">
-        <v>0.284283</v>
+        <v>0.328127</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520535</v>
+        <v>0.586827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473964</v>
+        <v>0.516338</v>
       </c>
       <c r="D59" t="n">
-        <v>0.307979</v>
+        <v>0.359778</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5615329999999999</v>
+        <v>0.625797</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531571</v>
+        <v>0.555218</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331079</v>
+        <v>0.349124</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.56828</v>
+        <v>0.6569739999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.501206</v>
+        <v>0.56658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337122</v>
+        <v>0.375239</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.652706</v>
+        <v>0.698004</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575797</v>
+        <v>0.604544</v>
       </c>
       <c r="D62" t="n">
-        <v>0.378598</v>
+        <v>0.394951</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.670606</v>
+        <v>0.728694</v>
       </c>
       <c r="C63" t="n">
-        <v>0.572919</v>
+        <v>0.661308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.371012</v>
+        <v>0.417087</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.664498</v>
+        <v>0.74792</v>
       </c>
       <c r="C64" t="n">
-        <v>0.493989</v>
+        <v>0.539224</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377207</v>
+        <v>0.390061</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.757343</v>
+        <v>0.781993</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502978</v>
+        <v>0.565092</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351822</v>
+        <v>0.410228</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77432</v>
+        <v>0.816559</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533881</v>
+        <v>0.596951</v>
       </c>
       <c r="D66" t="n">
-        <v>0.366374</v>
+        <v>0.411871</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8064519999999999</v>
+        <v>0.892804</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576114</v>
+        <v>0.613206</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387399</v>
+        <v>0.435628</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792505</v>
+        <v>0.925007</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549936</v>
+        <v>0.63886</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374173</v>
+        <v>0.456295</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.898365</v>
+        <v>0.990081</v>
       </c>
       <c r="C69" t="n">
-        <v>0.602183</v>
+        <v>0.7123429999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.42519</v>
+        <v>0.460869</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761399</v>
+        <v>0.790106</v>
       </c>
       <c r="C70" t="n">
-        <v>0.644993</v>
+        <v>0.722759</v>
       </c>
       <c r="D70" t="n">
-        <v>0.407246</v>
+        <v>0.494385</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753428</v>
+        <v>0.822707</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6645219999999999</v>
+        <v>0.798284</v>
       </c>
       <c r="D71" t="n">
-        <v>0.429082</v>
+        <v>0.5165689999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.746115</v>
+        <v>0.885265</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699055</v>
+        <v>0.821781</v>
       </c>
       <c r="D72" t="n">
-        <v>0.456475</v>
+        <v>0.547908</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.797884</v>
+        <v>0.902294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75322</v>
+        <v>0.86061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.495253</v>
+        <v>0.571871</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.823943</v>
+        <v>0.940203</v>
       </c>
       <c r="C74" t="n">
-        <v>0.802053</v>
+        <v>0.870988</v>
       </c>
       <c r="D74" t="n">
-        <v>0.499714</v>
+        <v>0.5879450000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.844452</v>
+        <v>0.957029</v>
       </c>
       <c r="C75" t="n">
-        <v>0.804354</v>
+        <v>0.92689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.511042</v>
+        <v>0.589108</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.891305</v>
+        <v>0.975558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.929982</v>
+        <v>0.986435</v>
       </c>
       <c r="D76" t="n">
-        <v>0.583545</v>
+        <v>0.646056</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.969122</v>
+        <v>1.03386</v>
       </c>
       <c r="C77" t="n">
-        <v>0.922084</v>
+        <v>1.06031</v>
       </c>
       <c r="D77" t="n">
-        <v>0.580891</v>
+        <v>0.658667</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.977667</v>
+        <v>1.05397</v>
       </c>
       <c r="C78" t="n">
-        <v>0.75673</v>
+        <v>0.8066449999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55338</v>
+        <v>0.5982420000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02808</v>
+        <v>1.10517</v>
       </c>
       <c r="C79" t="n">
-        <v>0.721267</v>
+        <v>0.823391</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552809</v>
+        <v>0.670723</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03923</v>
+        <v>1.16973</v>
       </c>
       <c r="C80" t="n">
-        <v>0.785852</v>
+        <v>0.857757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.585678</v>
+        <v>0.680602</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08246</v>
+        <v>1.17809</v>
       </c>
       <c r="C81" t="n">
-        <v>0.795195</v>
+        <v>0.897875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592261</v>
+        <v>0.69828</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11964</v>
+        <v>1.2418</v>
       </c>
       <c r="C82" t="n">
-        <v>0.878088</v>
+        <v>0.912034</v>
       </c>
       <c r="D82" t="n">
-        <v>0.63408</v>
+        <v>0.693689</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17506</v>
+        <v>1.26117</v>
       </c>
       <c r="C83" t="n">
-        <v>0.870207</v>
+        <v>0.9520380000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64083</v>
+        <v>0.725806</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.922261</v>
+        <v>0.9552349999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.905906</v>
+        <v>1.00254</v>
       </c>
       <c r="D84" t="n">
-        <v>0.698846</v>
+        <v>0.750395</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.922199</v>
+        <v>0.989702</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937737</v>
+        <v>1.03739</v>
       </c>
       <c r="D85" t="n">
-        <v>0.696345</v>
+        <v>0.763983</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939649</v>
+        <v>1.01767</v>
       </c>
       <c r="C86" t="n">
-        <v>0.976923</v>
+        <v>1.07522</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711355</v>
+        <v>0.7834100000000001</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01513</v>
+        <v>1.02949</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0482</v>
+        <v>1.10588</v>
       </c>
       <c r="D87" t="n">
-        <v>0.744854</v>
+        <v>0.830462</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0041</v>
+        <v>1.11098</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09761</v>
+        <v>1.17309</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7783330000000001</v>
+        <v>0.839831</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04053</v>
+        <v>1.12555</v>
       </c>
       <c r="C89" t="n">
-        <v>1.153</v>
+        <v>1.22111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.814397</v>
+        <v>0.880506</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05864</v>
+        <v>1.17656</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13039</v>
+        <v>1.25665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.90204</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09081</v>
+        <v>1.18338</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1693</v>
+        <v>1.29198</v>
       </c>
       <c r="D91" t="n">
-        <v>0.844513</v>
+        <v>0.944171</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.13376</v>
+        <v>1.25543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.916815</v>
+        <v>0.985365</v>
       </c>
       <c r="D92" t="n">
-        <v>0.72155</v>
+        <v>0.8069229999999999</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15268</v>
+        <v>1.28851</v>
       </c>
       <c r="C93" t="n">
-        <v>0.885419</v>
+        <v>0.994106</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762004</v>
+        <v>0.834944</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18941</v>
+        <v>1.31637</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9401080000000001</v>
+        <v>1.01246</v>
       </c>
       <c r="D94" t="n">
-        <v>0.76444</v>
+        <v>0.835717</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23908</v>
+        <v>1.32736</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0119</v>
+        <v>1.06165</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780384</v>
+        <v>0.869106</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2724</v>
+        <v>1.36796</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0137</v>
+        <v>1.08729</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8067299999999999</v>
+        <v>0.886783</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31565</v>
+        <v>1.42178</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03037</v>
+        <v>1.1309</v>
       </c>
       <c r="D97" t="n">
-        <v>0.814267</v>
+        <v>0.912487</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.968085</v>
+        <v>1.05687</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09008</v>
+        <v>1.16506</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836873</v>
+        <v>0.934225</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00445</v>
+        <v>1.08695</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09438</v>
+        <v>1.17791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.876285</v>
+        <v>0.974624</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.07229</v>
+        <v>1.11797</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13766</v>
+        <v>1.25128</v>
       </c>
       <c r="D100" t="n">
-        <v>0.901504</v>
+        <v>1.00185</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05312</v>
+        <v>1.16224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1779</v>
+        <v>1.27364</v>
       </c>
       <c r="D101" t="n">
-        <v>0.942499</v>
+        <v>1.01356</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07943</v>
+        <v>1.20072</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20217</v>
+        <v>1.30672</v>
       </c>
       <c r="D102" t="n">
-        <v>0.950775</v>
+        <v>1.0346</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12291</v>
+        <v>1.22256</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25345</v>
+        <v>1.35781</v>
       </c>
       <c r="D103" t="n">
-        <v>0.958603</v>
+        <v>1.07885</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15759</v>
+        <v>1.24506</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28387</v>
+        <v>1.41197</v>
       </c>
       <c r="D104" t="n">
-        <v>0.994042</v>
+        <v>1.1143</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18609</v>
+        <v>1.31968</v>
       </c>
       <c r="C105" t="n">
-        <v>1.31879</v>
+        <v>1.43703</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00669</v>
+        <v>1.13542</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21036</v>
+        <v>1.29915</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39794</v>
+        <v>1.4954</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06163</v>
+        <v>1.14463</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24561</v>
+        <v>1.36758</v>
       </c>
       <c r="C107" t="n">
-        <v>0.997814</v>
+        <v>1.07239</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8557709999999999</v>
+        <v>0.915561</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.27885</v>
+        <v>1.41368</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02754</v>
+        <v>1.1219</v>
       </c>
       <c r="D108" t="n">
-        <v>0.847917</v>
+        <v>0.976235</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30159</v>
+        <v>1.4372</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07351</v>
+        <v>1.15347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.865129</v>
+        <v>0.955421</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3411</v>
+        <v>1.46912</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05373</v>
+        <v>1.14249</v>
       </c>
       <c r="D110" t="n">
-        <v>0.896658</v>
+        <v>1.01223</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40281</v>
+        <v>1.55565</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09809</v>
+        <v>1.19907</v>
       </c>
       <c r="D111" t="n">
-        <v>0.933692</v>
+        <v>1.02689</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05027</v>
+        <v>1.13027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1466</v>
+        <v>1.27125</v>
       </c>
       <c r="D112" t="n">
-        <v>0.98067</v>
+        <v>1.04757</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04449</v>
+        <v>1.16848</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15329</v>
+        <v>1.2968</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970261</v>
+        <v>1.06192</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.07215</v>
+        <v>1.19722</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21306</v>
+        <v>1.3102</v>
       </c>
       <c r="D114" t="n">
-        <v>0.98202</v>
+        <v>1.09314</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11103</v>
+        <v>1.2136</v>
       </c>
       <c r="C115" t="n">
-        <v>1.259</v>
+        <v>1.37166</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02382</v>
+        <v>1.12044</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14307</v>
+        <v>1.25201</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3061</v>
+        <v>1.38598</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05668</v>
+        <v>1.15563</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17618</v>
+        <v>1.32955</v>
       </c>
       <c r="C117" t="n">
-        <v>1.37682</v>
+        <v>1.44872</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07814</v>
+        <v>1.21368</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21099</v>
+        <v>1.3484</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43033</v>
+        <v>1.49854</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09975</v>
+        <v>1.22064</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25813</v>
+        <v>1.36409</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42094</v>
+        <v>1.52351</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17861</v>
+        <v>1.26428</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.585109</v>
+        <v>0.5677720000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417952</v>
+        <v>0.430677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236828</v>
+        <v>0.238549</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.358824</v>
+        <v>0.366142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437949</v>
+        <v>0.45194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248877</v>
+        <v>0.24773</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375673</v>
+        <v>0.381989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.468355</v>
+        <v>0.496234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250561</v>
+        <v>0.263208</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392205</v>
+        <v>0.397523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.485982</v>
+        <v>0.485914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262321</v>
+        <v>0.273965</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414505</v>
+        <v>0.425945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517972</v>
+        <v>0.53891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271283</v>
+        <v>0.287585</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.445361</v>
+        <v>0.446792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.534141</v>
+        <v>0.567431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275748</v>
+        <v>0.289651</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450179</v>
+        <v>0.463322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595271</v>
+        <v>0.565331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283799</v>
+        <v>0.297561</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474031</v>
+        <v>0.496129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.599396</v>
+        <v>0.6013269999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302422</v>
+        <v>0.302924</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.518297</v>
+        <v>0.519837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603345</v>
+        <v>0.635072</v>
       </c>
       <c r="D10" t="n">
-        <v>0.308425</v>
+        <v>0.324149</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.528811</v>
+        <v>0.55925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394783</v>
+        <v>0.402026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231413</v>
+        <v>0.240328</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.568513</v>
+        <v>0.586301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417771</v>
+        <v>0.407157</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250406</v>
+        <v>0.24239</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.591203</v>
+        <v>0.6047630000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.421725</v>
+        <v>0.448366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249543</v>
+        <v>0.262079</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.613888</v>
+        <v>0.618048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.458554</v>
+        <v>0.459755</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263546</v>
+        <v>0.266626</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.650261</v>
+        <v>0.666608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.490056</v>
+        <v>0.483547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266494</v>
+        <v>0.280067</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.67471</v>
+        <v>0.678209</v>
       </c>
       <c r="C16" t="n">
-        <v>0.491968</v>
+        <v>0.5042450000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276567</v>
+        <v>0.292991</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428854</v>
+        <v>0.435289</v>
       </c>
       <c r="C17" t="n">
-        <v>0.539068</v>
+        <v>0.524692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285395</v>
+        <v>0.298925</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.450655</v>
+        <v>0.441291</v>
       </c>
       <c r="C18" t="n">
-        <v>0.556756</v>
+        <v>0.555999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29511</v>
+        <v>0.305106</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452463</v>
+        <v>0.476415</v>
       </c>
       <c r="C19" t="n">
-        <v>0.567706</v>
+        <v>0.591191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308355</v>
+        <v>0.315991</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.485494</v>
+        <v>0.522899</v>
       </c>
       <c r="C20" t="n">
-        <v>0.588522</v>
+        <v>0.62096</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31648</v>
+        <v>0.332369</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.499136</v>
+        <v>0.5148200000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618025</v>
+        <v>0.630912</v>
       </c>
       <c r="D21" t="n">
-        <v>0.330688</v>
+        <v>0.340203</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.532742</v>
+        <v>0.56102</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6571939999999999</v>
+        <v>0.656637</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353737</v>
+        <v>0.359013</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560374</v>
+        <v>0.559843</v>
       </c>
       <c r="C23" t="n">
-        <v>0.674547</v>
+        <v>0.710815</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356169</v>
+        <v>0.377823</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.590409</v>
+        <v>0.592871</v>
       </c>
       <c r="C24" t="n">
-        <v>0.711667</v>
+        <v>0.723253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364533</v>
+        <v>0.389896</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.598185</v>
+        <v>0.623542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.729362</v>
+        <v>0.783867</v>
       </c>
       <c r="D25" t="n">
-        <v>0.379342</v>
+        <v>0.40828</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.618077</v>
+        <v>0.6581050000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460517</v>
+        <v>0.475677</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279375</v>
+        <v>0.283637</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.678897</v>
+        <v>0.686123</v>
       </c>
       <c r="C27" t="n">
-        <v>0.486552</v>
+        <v>0.500139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288024</v>
+        <v>0.292606</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6999030000000001</v>
+        <v>0.719784</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520911</v>
+        <v>0.519872</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312452</v>
+        <v>0.301636</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7347129999999999</v>
+        <v>0.762633</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547197</v>
+        <v>0.563515</v>
       </c>
       <c r="D29" t="n">
-        <v>0.318777</v>
+        <v>0.320719</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.757125</v>
+        <v>0.781934</v>
       </c>
       <c r="C30" t="n">
-        <v>0.562867</v>
+        <v>0.584578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317817</v>
+        <v>0.324857</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824464</v>
+        <v>0.8102510000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585286</v>
+        <v>0.601183</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347849</v>
+        <v>0.337139</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482847</v>
+        <v>0.545145</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606827</v>
+        <v>0.646945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340922</v>
+        <v>0.351813</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519492</v>
+        <v>0.5755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6378200000000001</v>
+        <v>0.6732089999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354497</v>
+        <v>0.368683</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535859</v>
+        <v>0.588973</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669286</v>
+        <v>0.702739</v>
       </c>
       <c r="D34" t="n">
-        <v>0.370979</v>
+        <v>0.381693</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56515</v>
+        <v>0.61632</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680559</v>
+        <v>0.718437</v>
       </c>
       <c r="D35" t="n">
-        <v>0.375878</v>
+        <v>0.391293</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.616514</v>
+        <v>0.650152</v>
       </c>
       <c r="C36" t="n">
-        <v>0.737328</v>
+        <v>0.7783409999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393987</v>
+        <v>0.429585</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.634987</v>
+        <v>0.718251</v>
       </c>
       <c r="C37" t="n">
-        <v>0.775052</v>
+        <v>0.866676</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402222</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.667988</v>
+        <v>0.746936</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834015</v>
+        <v>0.8978699999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.421243</v>
+        <v>0.463909</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.780856</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875016</v>
+        <v>0.941635</v>
       </c>
       <c r="D39" t="n">
-        <v>0.450219</v>
+        <v>0.486968</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.759186</v>
+        <v>0.868507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.535562</v>
+        <v>0.5802929999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323776</v>
+        <v>0.361442</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.769776</v>
+        <v>0.88381</v>
       </c>
       <c r="C41" t="n">
-        <v>0.562916</v>
+        <v>0.604796</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348969</v>
+        <v>0.37376</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.832212</v>
+        <v>0.967605</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62398</v>
+        <v>0.6591669999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364714</v>
+        <v>0.406432</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9060009999999999</v>
+        <v>1.0431</v>
       </c>
       <c r="C43" t="n">
-        <v>0.636503</v>
+        <v>0.7202460000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.394129</v>
+        <v>0.426538</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.994217</v>
+        <v>1.03836</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675505</v>
+        <v>0.766763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399422</v>
+        <v>0.455804</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02056</v>
+        <v>1.15629</v>
       </c>
       <c r="C45" t="n">
-        <v>0.726999</v>
+        <v>0.803461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409609</v>
+        <v>0.46838</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639335</v>
+        <v>0.756059</v>
       </c>
       <c r="C46" t="n">
-        <v>0.76463</v>
+        <v>0.881708</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433438</v>
+        <v>0.487572</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.668102</v>
+        <v>0.773769</v>
       </c>
       <c r="C47" t="n">
-        <v>0.806752</v>
+        <v>0.897445</v>
       </c>
       <c r="D47" t="n">
-        <v>0.465498</v>
+        <v>0.516861</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.71397</v>
+        <v>0.836125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.857698</v>
+        <v>0.968527</v>
       </c>
       <c r="D48" t="n">
-        <v>0.488614</v>
+        <v>0.528935</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.766282</v>
+        <v>0.882829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.920722</v>
+        <v>1.04089</v>
       </c>
       <c r="D49" t="n">
-        <v>0.506841</v>
+        <v>0.589211</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.803287</v>
+        <v>0.921451</v>
       </c>
       <c r="C50" t="n">
-        <v>0.982746</v>
+        <v>1.13025</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539618</v>
+        <v>0.611255</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.847398</v>
+        <v>0.986066</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03211</v>
+        <v>1.21401</v>
       </c>
       <c r="D51" t="n">
-        <v>0.556355</v>
+        <v>0.634548</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9162439999999999</v>
+        <v>1.04952</v>
       </c>
       <c r="C52" t="n">
-        <v>1.09887</v>
+        <v>1.26668</v>
       </c>
       <c r="D52" t="n">
-        <v>0.590772</v>
+        <v>0.66943</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.958844</v>
+        <v>1.12125</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22543</v>
+        <v>1.42606</v>
       </c>
       <c r="D53" t="n">
-        <v>0.618976</v>
+        <v>0.737127</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02333</v>
+        <v>1.24719</v>
       </c>
       <c r="C54" t="n">
-        <v>0.744407</v>
+        <v>0.85509</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439913</v>
+        <v>0.491787</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.086</v>
+        <v>1.26399</v>
       </c>
       <c r="C55" t="n">
-        <v>0.777078</v>
+        <v>0.92544</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461072</v>
+        <v>0.5132640000000001</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.22239</v>
+        <v>1.4115</v>
       </c>
       <c r="C56" t="n">
-        <v>0.842816</v>
+        <v>0.98187</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494326</v>
+        <v>0.563131</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27599</v>
+        <v>1.50375</v>
       </c>
       <c r="C57" t="n">
-        <v>0.888884</v>
+        <v>1.05105</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5046580000000001</v>
+        <v>0.587917</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.3337</v>
+        <v>1.66456</v>
       </c>
       <c r="C58" t="n">
-        <v>0.980557</v>
+        <v>1.10039</v>
       </c>
       <c r="D58" t="n">
-        <v>0.535542</v>
+        <v>0.6176739999999999</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.47904</v>
+        <v>1.76491</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0292</v>
+        <v>1.24228</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565805</v>
+        <v>0.648428</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.941573</v>
+        <v>1.11514</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13685</v>
+        <v>1.34203</v>
       </c>
       <c r="D60" t="n">
-        <v>0.601402</v>
+        <v>0.677893</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01414</v>
+        <v>1.18896</v>
       </c>
       <c r="C61" t="n">
-        <v>1.21079</v>
+        <v>1.4475</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649062</v>
+        <v>0.751047</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08955</v>
+        <v>1.2901</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31723</v>
+        <v>1.59256</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711046</v>
+        <v>0.780625</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15536</v>
+        <v>1.42913</v>
       </c>
       <c r="C63" t="n">
-        <v>1.46288</v>
+        <v>1.66483</v>
       </c>
       <c r="D63" t="n">
-        <v>0.746982</v>
+        <v>0.8281809999999999</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.22552</v>
+        <v>1.54355</v>
       </c>
       <c r="C64" t="n">
-        <v>1.49668</v>
+        <v>1.83377</v>
       </c>
       <c r="D64" t="n">
-        <v>0.782556</v>
+        <v>0.872508</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42989</v>
+        <v>1.65946</v>
       </c>
       <c r="C65" t="n">
-        <v>1.6959</v>
+        <v>2.0089</v>
       </c>
       <c r="D65" t="n">
-        <v>0.793169</v>
+        <v>0.946469</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.51764</v>
+        <v>1.82424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.94816</v>
+        <v>2.20873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.857343</v>
+        <v>0.998927</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.602</v>
+        <v>1.97376</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03625</v>
+        <v>2.34764</v>
       </c>
       <c r="D67" t="n">
-        <v>0.931084</v>
+        <v>1.0995</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.76608</v>
+        <v>2.09372</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18174</v>
+        <v>1.44449</v>
       </c>
       <c r="D68" t="n">
-        <v>0.618086</v>
+        <v>0.736069</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.91232</v>
+        <v>2.24821</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30625</v>
+        <v>1.57784</v>
       </c>
       <c r="D69" t="n">
-        <v>0.676113</v>
+        <v>0.783691</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.17039</v>
+        <v>2.424</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47522</v>
+        <v>1.69715</v>
       </c>
       <c r="D70" t="n">
-        <v>0.734087</v>
+        <v>0.84109</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.34159</v>
+        <v>2.60838</v>
       </c>
       <c r="C71" t="n">
-        <v>1.63552</v>
+        <v>1.8132</v>
       </c>
       <c r="D71" t="n">
-        <v>0.745204</v>
+        <v>0.914341</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.52827</v>
+        <v>2.91251</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69381</v>
+        <v>2.04638</v>
       </c>
       <c r="D72" t="n">
-        <v>0.823887</v>
+        <v>0.961935</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.68883</v>
+        <v>3.08441</v>
       </c>
       <c r="C73" t="n">
-        <v>1.86677</v>
+        <v>2.17755</v>
       </c>
       <c r="D73" t="n">
-        <v>0.854367</v>
+        <v>1.02144</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69573</v>
+        <v>1.95629</v>
       </c>
       <c r="C74" t="n">
-        <v>1.98836</v>
+        <v>2.32976</v>
       </c>
       <c r="D74" t="n">
-        <v>0.930492</v>
+        <v>1.12235</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.78823</v>
+        <v>2.09396</v>
       </c>
       <c r="C75" t="n">
-        <v>2.20096</v>
+        <v>2.55584</v>
       </c>
       <c r="D75" t="n">
-        <v>0.996291</v>
+        <v>1.19332</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.90402</v>
+        <v>2.14353</v>
       </c>
       <c r="C76" t="n">
-        <v>2.31558</v>
+        <v>2.69013</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05917</v>
+        <v>1.24603</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.04891</v>
+        <v>2.44067</v>
       </c>
       <c r="C77" t="n">
-        <v>2.61927</v>
+        <v>3.07534</v>
       </c>
       <c r="D77" t="n">
-        <v>1.11339</v>
+        <v>1.37383</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19299</v>
+        <v>2.58234</v>
       </c>
       <c r="C78" t="n">
-        <v>2.78433</v>
+        <v>3.18776</v>
       </c>
       <c r="D78" t="n">
-        <v>1.28549</v>
+        <v>1.43987</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.39722</v>
+        <v>2.78244</v>
       </c>
       <c r="C79" t="n">
-        <v>3.08845</v>
+        <v>3.4166</v>
       </c>
       <c r="D79" t="n">
-        <v>1.27553</v>
+        <v>1.48756</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49002</v>
+        <v>2.85327</v>
       </c>
       <c r="C80" t="n">
-        <v>3.17774</v>
+        <v>3.74538</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35216</v>
+        <v>1.59519</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.67882</v>
+        <v>3.0809</v>
       </c>
       <c r="C81" t="n">
-        <v>3.37498</v>
+        <v>3.9294</v>
       </c>
       <c r="D81" t="n">
-        <v>1.46055</v>
+        <v>1.73854</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.81273</v>
+        <v>3.24834</v>
       </c>
       <c r="C82" t="n">
-        <v>3.60678</v>
+        <v>4.25643</v>
       </c>
       <c r="D82" t="n">
-        <v>1.54925</v>
+        <v>1.80323</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.04182</v>
+        <v>3.2921</v>
       </c>
       <c r="C83" t="n">
-        <v>2.03976</v>
+        <v>2.34273</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0276</v>
+        <v>1.21478</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.23461</v>
+        <v>3.51922</v>
       </c>
       <c r="C84" t="n">
-        <v>2.22939</v>
+        <v>2.4505</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10534</v>
+        <v>1.31962</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.44102</v>
+        <v>3.71094</v>
       </c>
       <c r="C85" t="n">
-        <v>2.34109</v>
+        <v>2.64619</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15154</v>
+        <v>1.40658</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.57035</v>
+        <v>3.92278</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55915</v>
+        <v>2.74831</v>
       </c>
       <c r="D86" t="n">
-        <v>1.28292</v>
+        <v>1.45699</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.96258</v>
+        <v>4.22127</v>
       </c>
       <c r="C87" t="n">
-        <v>2.79515</v>
+        <v>2.90379</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32247</v>
+        <v>1.51343</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.17141</v>
+        <v>4.33316</v>
       </c>
       <c r="C88" t="n">
-        <v>2.90208</v>
+        <v>3.13168</v>
       </c>
       <c r="D88" t="n">
-        <v>1.4163</v>
+        <v>1.6289</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39853</v>
+        <v>2.56058</v>
       </c>
       <c r="C89" t="n">
-        <v>2.97176</v>
+        <v>3.2602</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52763</v>
+        <v>1.68513</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.55852</v>
+        <v>2.74133</v>
       </c>
       <c r="C90" t="n">
-        <v>3.1702</v>
+        <v>3.47936</v>
       </c>
       <c r="D90" t="n">
-        <v>1.52608</v>
+        <v>1.74735</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.68853</v>
+        <v>2.82994</v>
       </c>
       <c r="C91" t="n">
-        <v>3.43402</v>
+        <v>3.69866</v>
       </c>
       <c r="D91" t="n">
-        <v>1.65506</v>
+        <v>1.84351</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88845</v>
+        <v>2.96191</v>
       </c>
       <c r="C92" t="n">
-        <v>3.56091</v>
+        <v>3.84108</v>
       </c>
       <c r="D92" t="n">
-        <v>1.70852</v>
+        <v>1.95823</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96011</v>
+        <v>3.12287</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74431</v>
+        <v>4.08193</v>
       </c>
       <c r="D93" t="n">
-        <v>1.79318</v>
+        <v>2.04881</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.04028</v>
+        <v>3.28138</v>
       </c>
       <c r="C94" t="n">
-        <v>3.93317</v>
+        <v>4.43972</v>
       </c>
       <c r="D94" t="n">
-        <v>1.89046</v>
+        <v>2.13772</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.29353</v>
+        <v>3.49842</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1394</v>
+        <v>4.64618</v>
       </c>
       <c r="D95" t="n">
-        <v>2.08546</v>
+        <v>2.31617</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.43376</v>
+        <v>3.67748</v>
       </c>
       <c r="C96" t="n">
-        <v>4.47995</v>
+        <v>4.88832</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07583</v>
+        <v>2.37481</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.71194</v>
+        <v>3.80713</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6622</v>
+        <v>2.74979</v>
       </c>
       <c r="D97" t="n">
-        <v>1.39332</v>
+        <v>1.56615</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.84538</v>
+        <v>4.07008</v>
       </c>
       <c r="C98" t="n">
-        <v>2.68429</v>
+        <v>2.94767</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47171</v>
+        <v>1.67373</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.07515</v>
+        <v>4.22936</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82369</v>
+        <v>3.08857</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53207</v>
+        <v>1.71679</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.19371</v>
+        <v>4.46126</v>
       </c>
       <c r="C100" t="n">
-        <v>3.08247</v>
+        <v>3.23251</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59933</v>
+        <v>1.76862</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.4361</v>
+        <v>4.69736</v>
       </c>
       <c r="C101" t="n">
-        <v>3.12517</v>
+        <v>3.34683</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72207</v>
+        <v>1.88398</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.58946</v>
+        <v>4.94182</v>
       </c>
       <c r="C102" t="n">
-        <v>3.34529</v>
+        <v>3.58152</v>
       </c>
       <c r="D102" t="n">
-        <v>1.853</v>
+        <v>1.95068</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6954</v>
+        <v>2.90815</v>
       </c>
       <c r="C103" t="n">
-        <v>3.49827</v>
+        <v>3.87176</v>
       </c>
       <c r="D103" t="n">
-        <v>1.87112</v>
+        <v>2.06299</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.78388</v>
+        <v>3.08102</v>
       </c>
       <c r="C104" t="n">
-        <v>3.69803</v>
+        <v>4.01544</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87312</v>
+        <v>2.14231</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.97561</v>
+        <v>3.19729</v>
       </c>
       <c r="C105" t="n">
-        <v>3.91054</v>
+        <v>4.25018</v>
       </c>
       <c r="D105" t="n">
-        <v>1.97085</v>
+        <v>2.23886</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.11476</v>
+        <v>3.36508</v>
       </c>
       <c r="C106" t="n">
-        <v>4.14174</v>
+        <v>4.40741</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07464</v>
+        <v>2.3184</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.21488</v>
+        <v>3.61036</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28737</v>
+        <v>4.7063</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18026</v>
+        <v>2.38196</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.39084</v>
+        <v>3.74955</v>
       </c>
       <c r="C108" t="n">
-        <v>4.4881</v>
+        <v>4.98164</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31164</v>
+        <v>2.54417</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.55835</v>
+        <v>3.91579</v>
       </c>
       <c r="C109" t="n">
-        <v>4.7414</v>
+        <v>5.21162</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36753</v>
+        <v>2.68917</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74474</v>
+        <v>4.09547</v>
       </c>
       <c r="C110" t="n">
-        <v>5.00491</v>
+        <v>5.5769</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53856</v>
+        <v>2.77066</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.92201</v>
+        <v>4.28016</v>
       </c>
       <c r="C111" t="n">
-        <v>2.76308</v>
+        <v>3.08987</v>
       </c>
       <c r="D111" t="n">
-        <v>1.70228</v>
+        <v>1.89559</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.18216</v>
+        <v>4.42125</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9375</v>
+        <v>3.20451</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74034</v>
+        <v>1.87426</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3247</v>
+        <v>4.64943</v>
       </c>
       <c r="C113" t="n">
-        <v>3.09485</v>
+        <v>3.35379</v>
       </c>
       <c r="D113" t="n">
-        <v>1.87585</v>
+        <v>2.02921</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58923</v>
+        <v>4.9264</v>
       </c>
       <c r="C114" t="n">
-        <v>3.22041</v>
+        <v>3.54136</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87309</v>
+        <v>2.10679</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.73827</v>
+        <v>5.14328</v>
       </c>
       <c r="C115" t="n">
-        <v>3.39126</v>
+        <v>3.69967</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96058</v>
+        <v>2.20606</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97852</v>
+        <v>5.41789</v>
       </c>
       <c r="C116" t="n">
-        <v>3.53817</v>
+        <v>3.87381</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12333</v>
+        <v>2.27424</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.88457</v>
+        <v>3.10141</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75135</v>
+        <v>4.13227</v>
       </c>
       <c r="D117" t="n">
-        <v>2.09144</v>
+        <v>2.3888</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.01571</v>
+        <v>3.27539</v>
       </c>
       <c r="C118" t="n">
-        <v>3.99949</v>
+        <v>4.31966</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26063</v>
+        <v>2.4849</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.13576</v>
+        <v>3.38935</v>
       </c>
       <c r="C119" t="n">
-        <v>4.11765</v>
+        <v>4.56085</v>
       </c>
       <c r="D119" t="n">
-        <v>2.28993</v>
+        <v>2.63564</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236076</v>
+        <v>0.223614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20778</v>
+        <v>0.238227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244894</v>
+        <v>0.236589</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.227617</v>
+        <v>0.237108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.212892</v>
+        <v>0.24035</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238539</v>
+        <v>0.239415</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231332</v>
+        <v>0.236708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220278</v>
+        <v>0.248824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.244214</v>
+        <v>0.246599</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.239922</v>
+        <v>0.237845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229418</v>
+        <v>0.257376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248676</v>
+        <v>0.252146</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241692</v>
+        <v>0.247836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228253</v>
+        <v>0.253866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255857</v>
+        <v>0.266892</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.249195</v>
+        <v>0.248892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.186899</v>
+        <v>0.21119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222454</v>
+        <v>0.222165</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.255325</v>
+        <v>0.25431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18915</v>
+        <v>0.22341</v>
       </c>
       <c r="D8" t="n">
-        <v>0.225256</v>
+        <v>0.221486</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.253977</v>
+        <v>0.25428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.202729</v>
+        <v>0.217143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227703</v>
+        <v>0.227004</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.260016</v>
+        <v>0.259036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.199264</v>
+        <v>0.227525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.234406</v>
+        <v>0.237934</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.26313</v>
+        <v>0.264865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20654</v>
+        <v>0.228433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255352</v>
+        <v>0.242839</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.263871</v>
+        <v>0.273854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21766</v>
+        <v>0.245498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251525</v>
+        <v>0.253497</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222119</v>
+        <v>0.226064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221771</v>
+        <v>0.243375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264105</v>
+        <v>0.257453</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.230822</v>
+        <v>0.228625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.222726</v>
+        <v>0.248806</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260827</v>
+        <v>0.258264</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.231323</v>
+        <v>0.231924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23309</v>
+        <v>0.250674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270363</v>
+        <v>0.266564</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.238348</v>
+        <v>0.241755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238969</v>
+        <v>0.258425</v>
       </c>
       <c r="D16" t="n">
-        <v>0.27454</v>
+        <v>0.279219</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.242191</v>
+        <v>0.258525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24367</v>
+        <v>0.26507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283144</v>
+        <v>0.289852</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244462</v>
+        <v>0.270512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239397</v>
+        <v>0.268798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295034</v>
+        <v>0.281799</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253526</v>
+        <v>0.261457</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249372</v>
+        <v>0.283481</v>
       </c>
       <c r="D19" t="n">
-        <v>0.299057</v>
+        <v>0.307321</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.260387</v>
+        <v>0.261799</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255199</v>
+        <v>0.279153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.303265</v>
+        <v>0.306131</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263573</v>
+        <v>0.27266</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194221</v>
+        <v>0.220672</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231766</v>
+        <v>0.248434</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260175</v>
+        <v>0.270581</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206143</v>
+        <v>0.239891</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244871</v>
+        <v>0.244313</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266844</v>
+        <v>0.27896</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207434</v>
+        <v>0.254088</v>
       </c>
       <c r="D23" t="n">
-        <v>0.250955</v>
+        <v>0.250334</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280977</v>
+        <v>0.282896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216173</v>
+        <v>0.252925</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261426</v>
+        <v>0.260061</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.276383</v>
+        <v>0.305758</v>
       </c>
       <c r="C25" t="n">
-        <v>0.218456</v>
+        <v>0.256291</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268371</v>
+        <v>0.264605</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293913</v>
+        <v>0.292742</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231461</v>
+        <v>0.265516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.275112</v>
+        <v>0.27005</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.244304</v>
+        <v>0.245257</v>
       </c>
       <c r="C27" t="n">
-        <v>0.239582</v>
+        <v>0.261472</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270551</v>
+        <v>0.276514</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.245088</v>
+        <v>0.264688</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244726</v>
+        <v>0.287418</v>
       </c>
       <c r="D28" t="n">
-        <v>0.286222</v>
+        <v>0.292755</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257645</v>
+        <v>0.250956</v>
       </c>
       <c r="C29" t="n">
-        <v>0.25721</v>
+        <v>0.294599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.307272</v>
+        <v>0.296455</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273824</v>
+        <v>0.260731</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265844</v>
+        <v>0.281829</v>
       </c>
       <c r="D30" t="n">
-        <v>0.301766</v>
+        <v>0.309134</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272436</v>
+        <v>0.284838</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263674</v>
+        <v>0.301372</v>
       </c>
       <c r="D31" t="n">
-        <v>0.315652</v>
+        <v>0.325833</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275421</v>
+        <v>0.28673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272726</v>
+        <v>0.291114</v>
       </c>
       <c r="D32" t="n">
-        <v>0.327166</v>
+        <v>0.327084</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.290799</v>
+        <v>0.303959</v>
       </c>
       <c r="C33" t="n">
-        <v>0.278084</v>
+        <v>0.303531</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332582</v>
+        <v>0.336011</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.302171</v>
+        <v>0.294057</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286692</v>
+        <v>0.31341</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356429</v>
+        <v>0.333762</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.320799</v>
+        <v>0.302446</v>
       </c>
       <c r="C35" t="n">
-        <v>0.224773</v>
+        <v>0.255319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.267224</v>
+        <v>0.26506</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310813</v>
+        <v>0.327253</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2363</v>
+        <v>0.254321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278774</v>
+        <v>0.278283</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.329559</v>
+        <v>0.335064</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233473</v>
+        <v>0.27996</v>
       </c>
       <c r="D37" t="n">
-        <v>0.287011</v>
+        <v>0.305683</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.342632</v>
+        <v>0.339666</v>
       </c>
       <c r="C38" t="n">
-        <v>0.251168</v>
+        <v>0.283387</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306773</v>
+        <v>0.297532</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.337404</v>
+        <v>0.349539</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248659</v>
+        <v>0.281723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.300768</v>
+        <v>0.30696</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.358133</v>
+        <v>0.350239</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263387</v>
+        <v>0.293815</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326615</v>
+        <v>0.321425</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.316533</v>
+        <v>0.321814</v>
       </c>
       <c r="C41" t="n">
-        <v>0.270985</v>
+        <v>0.316554</v>
       </c>
       <c r="D41" t="n">
-        <v>0.342332</v>
+        <v>0.341475</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331398</v>
+        <v>0.347675</v>
       </c>
       <c r="C42" t="n">
-        <v>0.280437</v>
+        <v>0.319438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.347597</v>
+        <v>0.350785</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342021</v>
+        <v>0.348159</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306812</v>
+        <v>0.337807</v>
       </c>
       <c r="D43" t="n">
-        <v>0.384161</v>
+        <v>0.384351</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.361799</v>
+        <v>0.360906</v>
       </c>
       <c r="C44" t="n">
-        <v>0.318692</v>
+        <v>0.354521</v>
       </c>
       <c r="D44" t="n">
-        <v>0.386599</v>
+        <v>0.378757</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.371588</v>
+        <v>0.383077</v>
       </c>
       <c r="C45" t="n">
-        <v>0.33058</v>
+        <v>0.360924</v>
       </c>
       <c r="D45" t="n">
-        <v>0.388608</v>
+        <v>0.381414</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.37726</v>
+        <v>0.373802</v>
       </c>
       <c r="C46" t="n">
-        <v>0.328892</v>
+        <v>0.367146</v>
       </c>
       <c r="D46" t="n">
-        <v>0.398754</v>
+        <v>0.406572</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.399592</v>
+        <v>0.402868</v>
       </c>
       <c r="C47" t="n">
-        <v>0.345939</v>
+        <v>0.37806</v>
       </c>
       <c r="D47" t="n">
-        <v>0.439199</v>
+        <v>0.419533</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424726</v>
+        <v>0.417802</v>
       </c>
       <c r="C48" t="n">
-        <v>0.374706</v>
+        <v>0.400052</v>
       </c>
       <c r="D48" t="n">
-        <v>0.44552</v>
+        <v>0.434458</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.439357</v>
+        <v>0.440601</v>
       </c>
       <c r="C49" t="n">
-        <v>0.38275</v>
+        <v>0.417753</v>
       </c>
       <c r="D49" t="n">
-        <v>0.459514</v>
+        <v>0.467748</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.482204</v>
+        <v>0.444814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316852</v>
+        <v>0.330186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.378651</v>
+        <v>0.36661</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.493578</v>
+        <v>0.467858</v>
       </c>
       <c r="C51" t="n">
-        <v>0.324758</v>
+        <v>0.35602</v>
       </c>
       <c r="D51" t="n">
-        <v>0.386311</v>
+        <v>0.389904</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512503</v>
+        <v>0.484684</v>
       </c>
       <c r="C52" t="n">
-        <v>0.34366</v>
+        <v>0.369869</v>
       </c>
       <c r="D52" t="n">
-        <v>0.408197</v>
+        <v>0.400674</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.511772</v>
+        <v>0.503912</v>
       </c>
       <c r="C53" t="n">
-        <v>0.360114</v>
+        <v>0.375476</v>
       </c>
       <c r="D53" t="n">
-        <v>0.417724</v>
+        <v>0.429314</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.536758</v>
+        <v>0.517734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.378287</v>
+        <v>0.387987</v>
       </c>
       <c r="D54" t="n">
-        <v>0.446754</v>
+        <v>0.449307</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.565833</v>
+        <v>0.549388</v>
       </c>
       <c r="C55" t="n">
-        <v>0.397451</v>
+        <v>0.426088</v>
       </c>
       <c r="D55" t="n">
-        <v>0.473892</v>
+        <v>0.45364</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.512448</v>
+        <v>0.521572</v>
       </c>
       <c r="C56" t="n">
-        <v>0.40577</v>
+        <v>0.425036</v>
       </c>
       <c r="D56" t="n">
-        <v>0.472709</v>
+        <v>0.486847</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.525302</v>
+        <v>0.531386</v>
       </c>
       <c r="C57" t="n">
-        <v>0.435283</v>
+        <v>0.452484</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5210399999999999</v>
+        <v>0.5281670000000001</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.552049</v>
+        <v>0.575362</v>
       </c>
       <c r="C58" t="n">
-        <v>0.489482</v>
+        <v>0.467255</v>
       </c>
       <c r="D58" t="n">
-        <v>0.54506</v>
+        <v>0.535428</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.582122</v>
+        <v>0.600065</v>
       </c>
       <c r="C59" t="n">
-        <v>0.495991</v>
+        <v>0.510819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.582889</v>
+        <v>0.591854</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.59018</v>
+        <v>0.636062</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5116889999999999</v>
+        <v>0.527724</v>
       </c>
       <c r="D60" t="n">
-        <v>0.60661</v>
+        <v>0.61588</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.638534</v>
+        <v>0.649636</v>
       </c>
       <c r="C61" t="n">
-        <v>0.526979</v>
+        <v>0.572984</v>
       </c>
       <c r="D61" t="n">
-        <v>0.64236</v>
+        <v>0.636831</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.650709</v>
+        <v>0.664617</v>
       </c>
       <c r="C62" t="n">
-        <v>0.571872</v>
+        <v>0.591964</v>
       </c>
       <c r="D62" t="n">
-        <v>0.686146</v>
+        <v>0.655017</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7278559999999999</v>
+        <v>0.702325</v>
       </c>
       <c r="C63" t="n">
-        <v>0.598118</v>
+        <v>0.666685</v>
       </c>
       <c r="D63" t="n">
-        <v>0.712496</v>
+        <v>0.694452</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.724539</v>
+        <v>0.743182</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505895</v>
+        <v>0.520191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.595677</v>
+        <v>0.587118</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.742038</v>
+        <v>0.748888</v>
       </c>
       <c r="C65" t="n">
-        <v>0.523529</v>
+        <v>0.548324</v>
       </c>
       <c r="D65" t="n">
-        <v>0.635965</v>
+        <v>0.619478</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.777878</v>
+        <v>0.78222</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5266690000000001</v>
+        <v>0.5769879999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.650315</v>
+        <v>0.671526</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.79637</v>
+        <v>0.847151</v>
       </c>
       <c r="C67" t="n">
-        <v>0.582296</v>
+        <v>0.610664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.710346</v>
+        <v>0.704881</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.862918</v>
+        <v>0.851473</v>
       </c>
       <c r="C68" t="n">
-        <v>0.603598</v>
+        <v>0.647554</v>
       </c>
       <c r="D68" t="n">
-        <v>0.711545</v>
+        <v>0.734467</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.888293</v>
+        <v>0.892828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.605862</v>
+        <v>0.682401</v>
       </c>
       <c r="D69" t="n">
-        <v>0.740505</v>
+        <v>0.745401</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7222150000000001</v>
+        <v>0.770133</v>
       </c>
       <c r="C70" t="n">
-        <v>0.63559</v>
+        <v>0.704623</v>
       </c>
       <c r="D70" t="n">
-        <v>0.794582</v>
+        <v>0.786925</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7598200000000001</v>
+        <v>0.802916</v>
       </c>
       <c r="C71" t="n">
-        <v>0.689781</v>
+        <v>0.756147</v>
       </c>
       <c r="D71" t="n">
-        <v>0.803794</v>
+        <v>0.851804</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.782056</v>
+        <v>0.804146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.723169</v>
+        <v>0.791202</v>
       </c>
       <c r="D72" t="n">
-        <v>0.855989</v>
+        <v>0.873665</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.822739</v>
+        <v>0.82782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.755753</v>
+        <v>0.797829</v>
       </c>
       <c r="D73" t="n">
-        <v>0.906675</v>
+        <v>0.942549</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.832446</v>
+        <v>0.855148</v>
       </c>
       <c r="C74" t="n">
-        <v>0.786503</v>
+        <v>0.828442</v>
       </c>
       <c r="D74" t="n">
-        <v>0.930301</v>
+        <v>0.960853</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.876306</v>
+        <v>0.89135</v>
       </c>
       <c r="C75" t="n">
-        <v>0.812493</v>
+        <v>0.875184</v>
       </c>
       <c r="D75" t="n">
-        <v>0.981082</v>
+        <v>0.973749</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.913872</v>
+        <v>0.90373</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8233009999999999</v>
+        <v>0.914017</v>
       </c>
       <c r="D76" t="n">
-        <v>1.02332</v>
+        <v>1.06933</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.925032</v>
+        <v>0.928177</v>
       </c>
       <c r="C77" t="n">
-        <v>0.889181</v>
+        <v>0.938505</v>
       </c>
       <c r="D77" t="n">
-        <v>1.06603</v>
+        <v>1.08365</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.955495</v>
+        <v>0.965217</v>
       </c>
       <c r="C78" t="n">
-        <v>0.719257</v>
+        <v>0.739223</v>
       </c>
       <c r="D78" t="n">
-        <v>0.867455</v>
+        <v>0.865553</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.988299</v>
+        <v>0.961026</v>
       </c>
       <c r="C79" t="n">
-        <v>0.731833</v>
+        <v>0.763566</v>
       </c>
       <c r="D79" t="n">
-        <v>0.908786</v>
+        <v>0.893956</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0485</v>
+        <v>0.995499</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7609050000000001</v>
+        <v>0.773001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.971255</v>
+        <v>0.925674</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.04824</v>
+        <v>1.05697</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7730939999999999</v>
+        <v>0.798165</v>
       </c>
       <c r="D81" t="n">
-        <v>0.965058</v>
+        <v>0.990057</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05531</v>
+        <v>1.09115</v>
       </c>
       <c r="C82" t="n">
-        <v>0.823255</v>
+        <v>0.848115</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05086</v>
+        <v>0.9932609999999999</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12427</v>
+        <v>1.12208</v>
       </c>
       <c r="C83" t="n">
-        <v>0.850235</v>
+        <v>0.882022</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06926</v>
+        <v>1.05209</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.893365</v>
+        <v>0.893617</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8537709999999999</v>
+        <v>0.904656</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08089</v>
+        <v>1.09605</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.902134</v>
+        <v>0.913633</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9094</v>
+        <v>0.944283</v>
       </c>
       <c r="D85" t="n">
-        <v>1.10346</v>
+        <v>1.1271</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950901</v>
+        <v>0.951317</v>
       </c>
       <c r="C86" t="n">
-        <v>0.934785</v>
+        <v>0.979345</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16126</v>
+        <v>1.18109</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.955547</v>
+        <v>0.960768</v>
       </c>
       <c r="C87" t="n">
-        <v>0.958955</v>
+        <v>1.00173</v>
       </c>
       <c r="D87" t="n">
-        <v>1.20281</v>
+        <v>1.2168</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.978619</v>
+        <v>0.985562</v>
       </c>
       <c r="C88" t="n">
-        <v>1.00553</v>
+        <v>1.05614</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24657</v>
+        <v>1.2814</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0514</v>
+        <v>1.00749</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02858</v>
+        <v>1.07046</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27365</v>
+        <v>1.32298</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05448</v>
+        <v>1.04172</v>
       </c>
       <c r="C90" t="n">
-        <v>1.07182</v>
+        <v>1.08243</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34976</v>
+        <v>1.37165</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06439</v>
+        <v>1.07046</v>
       </c>
       <c r="C91" t="n">
-        <v>1.108</v>
+        <v>1.13204</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38341</v>
+        <v>1.34783</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.11405</v>
+        <v>1.10487</v>
       </c>
       <c r="C92" t="n">
-        <v>0.860695</v>
+        <v>0.909729</v>
       </c>
       <c r="D92" t="n">
-        <v>1.16149</v>
+        <v>1.11365</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13621</v>
+        <v>1.13607</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8780210000000001</v>
+        <v>0.914318</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1358</v>
+        <v>1.16197</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15333</v>
+        <v>1.18231</v>
       </c>
       <c r="C94" t="n">
-        <v>0.907483</v>
+        <v>0.949474</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17798</v>
+        <v>1.21152</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20628</v>
+        <v>1.18874</v>
       </c>
       <c r="C95" t="n">
-        <v>0.93714</v>
+        <v>0.973235</v>
       </c>
       <c r="D95" t="n">
-        <v>1.18548</v>
+        <v>1.22628</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.23234</v>
+        <v>1.21795</v>
       </c>
       <c r="C96" t="n">
-        <v>0.951557</v>
+        <v>1.00377</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25118</v>
+        <v>1.24817</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.24249</v>
+        <v>1.24815</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9916740000000001</v>
+        <v>1.01944</v>
       </c>
       <c r="D97" t="n">
-        <v>1.26407</v>
+        <v>1.2696</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.975591</v>
+        <v>0.980164</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00716</v>
+        <v>1.06827</v>
       </c>
       <c r="D98" t="n">
-        <v>1.30565</v>
+        <v>1.33508</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995833</v>
+        <v>1.00434</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02716</v>
+        <v>1.08245</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35418</v>
+        <v>1.3589</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03331</v>
+        <v>1.06439</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07017</v>
+        <v>1.10707</v>
       </c>
       <c r="D100" t="n">
-        <v>1.39409</v>
+        <v>1.42638</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02973</v>
+        <v>1.03523</v>
       </c>
       <c r="C101" t="n">
-        <v>1.103</v>
+        <v>1.17105</v>
       </c>
       <c r="D101" t="n">
-        <v>1.46857</v>
+        <v>1.47237</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.06133</v>
+        <v>1.08157</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13946</v>
+        <v>1.17484</v>
       </c>
       <c r="D102" t="n">
-        <v>1.46328</v>
+        <v>1.47378</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09943</v>
+        <v>1.10099</v>
       </c>
       <c r="C103" t="n">
-        <v>1.17098</v>
+        <v>1.2035</v>
       </c>
       <c r="D103" t="n">
-        <v>1.50859</v>
+        <v>1.53895</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12178</v>
+        <v>1.17022</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21227</v>
+        <v>1.25023</v>
       </c>
       <c r="D104" t="n">
-        <v>1.59422</v>
+        <v>1.57349</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14777</v>
+        <v>1.16175</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25462</v>
+        <v>1.27089</v>
       </c>
       <c r="D105" t="n">
-        <v>1.58886</v>
+        <v>1.62389</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15764</v>
+        <v>1.21616</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28863</v>
+        <v>1.32873</v>
       </c>
       <c r="D106" t="n">
-        <v>1.65629</v>
+        <v>1.6878</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.25494</v>
+        <v>1.24861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.98185</v>
+        <v>1.0258</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26512</v>
+        <v>1.31999</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.23719</v>
+        <v>1.25489</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01842</v>
+        <v>1.03897</v>
       </c>
       <c r="D108" t="n">
-        <v>1.33127</v>
+        <v>1.30945</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.27078</v>
+        <v>1.32327</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02612</v>
+        <v>1.05041</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3545</v>
+        <v>1.40015</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.31521</v>
+        <v>1.33089</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07062</v>
+        <v>1.07798</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39295</v>
+        <v>1.34708</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33727</v>
+        <v>1.33746</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09047</v>
+        <v>1.12279</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41591</v>
+        <v>1.42576</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.08337</v>
+        <v>1.08003</v>
       </c>
       <c r="C112" t="n">
-        <v>1.10668</v>
+        <v>1.13421</v>
       </c>
       <c r="D112" t="n">
-        <v>1.52243</v>
+        <v>1.4649</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.09169</v>
+        <v>1.10721</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15454</v>
+        <v>1.14044</v>
       </c>
       <c r="D113" t="n">
-        <v>1.51316</v>
+        <v>1.50838</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14695</v>
+        <v>1.0978</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18155</v>
+        <v>1.21376</v>
       </c>
       <c r="D114" t="n">
-        <v>1.55712</v>
+        <v>1.5117</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13985</v>
+        <v>1.11758</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20672</v>
+        <v>1.23706</v>
       </c>
       <c r="D115" t="n">
-        <v>1.60302</v>
+        <v>1.56627</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15844</v>
+        <v>1.19135</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2284</v>
+        <v>1.25597</v>
       </c>
       <c r="D116" t="n">
-        <v>1.6424</v>
+        <v>1.62745</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.19354</v>
+        <v>1.16379</v>
       </c>
       <c r="C117" t="n">
-        <v>1.26905</v>
+        <v>1.34319</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67354</v>
+        <v>1.75375</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26709</v>
+        <v>1.22767</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35198</v>
+        <v>1.32063</v>
       </c>
       <c r="D118" t="n">
-        <v>1.7266</v>
+        <v>1.73142</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28545</v>
+        <v>1.24165</v>
       </c>
       <c r="C119" t="n">
-        <v>1.36302</v>
+        <v>1.43023</v>
       </c>
       <c r="D119" t="n">
-        <v>1.8073</v>
+        <v>1.78765</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193602</v>
+        <v>0.186497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184261</v>
+        <v>0.200302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142085</v>
+        <v>0.141724</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190484</v>
+        <v>0.188182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189745</v>
+        <v>0.213054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144009</v>
+        <v>0.146016</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202366</v>
+        <v>0.202595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19781</v>
+        <v>0.211858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149073</v>
+        <v>0.152317</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.203323</v>
+        <v>0.200084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200002</v>
+        <v>0.223321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154176</v>
+        <v>0.148299</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.203554</v>
+        <v>0.217119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206781</v>
+        <v>0.231472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153876</v>
+        <v>0.150129</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213188</v>
+        <v>0.209518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173133</v>
+        <v>0.182177</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14448</v>
+        <v>0.142941</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213103</v>
+        <v>0.215652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166941</v>
+        <v>0.181668</v>
       </c>
       <c r="D8" t="n">
-        <v>0.143087</v>
+        <v>0.143413</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220613</v>
+        <v>0.226489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.167682</v>
+        <v>0.192821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.146406</v>
+        <v>0.148519</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229707</v>
+        <v>0.225789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180998</v>
+        <v>0.197836</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1495</v>
+        <v>0.152936</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240144</v>
+        <v>0.237698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182459</v>
+        <v>0.199027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15513</v>
+        <v>0.149081</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.244604</v>
+        <v>0.239022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185686</v>
+        <v>0.206214</v>
       </c>
       <c r="D12" t="n">
-        <v>0.155768</v>
+        <v>0.158311</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.194846</v>
+        <v>0.199881</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19048</v>
+        <v>0.211076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154896</v>
+        <v>0.156554</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.198134</v>
+        <v>0.1943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19144</v>
+        <v>0.21425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158068</v>
+        <v>0.156662</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.203669</v>
+        <v>0.207506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201024</v>
+        <v>0.219472</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163625</v>
+        <v>0.162226</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2176</v>
+        <v>0.214011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21691</v>
+        <v>0.2319</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165038</v>
+        <v>0.168542</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.215927</v>
+        <v>0.216039</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21227</v>
+        <v>0.233663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173635</v>
+        <v>0.172458</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.213819</v>
+        <v>0.217236</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225896</v>
+        <v>0.240154</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172534</v>
+        <v>0.172791</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.225913</v>
+        <v>0.222182</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226641</v>
+        <v>0.248248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.175622</v>
+        <v>0.182334</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.228308</v>
+        <v>0.227937</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236573</v>
+        <v>0.262373</v>
       </c>
       <c r="D20" t="n">
-        <v>0.181444</v>
+        <v>0.182422</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.237782</v>
+        <v>0.23665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185583</v>
+        <v>0.209851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160525</v>
+        <v>0.160773</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230463</v>
+        <v>0.239751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.184818</v>
+        <v>0.214318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160583</v>
+        <v>0.167568</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.242766</v>
+        <v>0.253219</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192707</v>
+        <v>0.227279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164618</v>
+        <v>0.170933</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.250727</v>
+        <v>0.262629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199991</v>
+        <v>0.220287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164491</v>
+        <v>0.170602</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.259197</v>
+        <v>0.266098</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205378</v>
+        <v>0.228118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172922</v>
+        <v>0.178237</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.273998</v>
+        <v>0.271048</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21646</v>
+        <v>0.23356</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178439</v>
+        <v>0.184152</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.218969</v>
+        <v>0.233695</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231234</v>
+        <v>0.242</v>
       </c>
       <c r="D27" t="n">
-        <v>0.193197</v>
+        <v>0.184473</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.230688</v>
+        <v>0.240906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226592</v>
+        <v>0.244006</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189229</v>
+        <v>0.186156</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.256196</v>
+        <v>0.233684</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233849</v>
+        <v>0.254855</v>
       </c>
       <c r="D29" t="n">
-        <v>0.194541</v>
+        <v>0.190305</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.247377</v>
+        <v>0.252114</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246031</v>
+        <v>0.257502</v>
       </c>
       <c r="D30" t="n">
-        <v>0.193643</v>
+        <v>0.194556</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256954</v>
+        <v>0.268136</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244068</v>
+        <v>0.279065</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203152</v>
+        <v>0.194977</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.263519</v>
+        <v>0.271626</v>
       </c>
       <c r="C32" t="n">
-        <v>0.259957</v>
+        <v>0.272565</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206514</v>
+        <v>0.196818</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272878</v>
+        <v>0.275739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272014</v>
+        <v>0.290091</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211818</v>
+        <v>0.206043</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.281691</v>
+        <v>0.289742</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276538</v>
+        <v>0.30262</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217842</v>
+        <v>0.220174</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.299605</v>
+        <v>0.302848</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221611</v>
+        <v>0.244941</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190609</v>
+        <v>0.183024</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299533</v>
+        <v>0.31174</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247288</v>
+        <v>0.265803</v>
       </c>
       <c r="D36" t="n">
-        <v>0.191687</v>
+        <v>0.195662</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.311443</v>
+        <v>0.316726</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231935</v>
+        <v>0.26342</v>
       </c>
       <c r="D37" t="n">
-        <v>0.200139</v>
+        <v>0.195716</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330836</v>
+        <v>0.324482</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244163</v>
+        <v>0.267332</v>
       </c>
       <c r="D38" t="n">
-        <v>0.199283</v>
+        <v>0.195116</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.331668</v>
+        <v>0.33427</v>
       </c>
       <c r="C39" t="n">
-        <v>0.265039</v>
+        <v>0.289486</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213416</v>
+        <v>0.204765</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.357784</v>
+        <v>0.35513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.265565</v>
+        <v>0.301398</v>
       </c>
       <c r="D40" t="n">
-        <v>0.214568</v>
+        <v>0.205317</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317935</v>
+        <v>0.314473</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269168</v>
+        <v>0.30106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221414</v>
+        <v>0.217629</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.319128</v>
+        <v>0.324923</v>
       </c>
       <c r="C42" t="n">
-        <v>0.283868</v>
+        <v>0.302133</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226544</v>
+        <v>0.224129</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.34213</v>
+        <v>0.357689</v>
       </c>
       <c r="C43" t="n">
-        <v>0.297658</v>
+        <v>0.322316</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22854</v>
+        <v>0.23011</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.354595</v>
+        <v>0.344407</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324396</v>
+        <v>0.332405</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248604</v>
+        <v>0.239746</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.360305</v>
+        <v>0.352266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.326529</v>
+        <v>0.347278</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249715</v>
+        <v>0.246714</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.375043</v>
+        <v>0.369345</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340243</v>
+        <v>0.363354</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253427</v>
+        <v>0.248645</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.409334</v>
+        <v>0.387046</v>
       </c>
       <c r="C47" t="n">
-        <v>0.355489</v>
+        <v>0.371614</v>
       </c>
       <c r="D47" t="n">
-        <v>0.260151</v>
+        <v>0.26197</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414999</v>
+        <v>0.395043</v>
       </c>
       <c r="C48" t="n">
-        <v>0.36973</v>
+        <v>0.395648</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278214</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.441138</v>
+        <v>0.428829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.399096</v>
+        <v>0.427061</v>
       </c>
       <c r="D49" t="n">
-        <v>0.28318</v>
+        <v>0.286248</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.455701</v>
+        <v>0.453468</v>
       </c>
       <c r="C50" t="n">
-        <v>0.326728</v>
+        <v>0.350954</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246218</v>
+        <v>0.241644</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.472387</v>
+        <v>0.475068</v>
       </c>
       <c r="C51" t="n">
-        <v>0.340499</v>
+        <v>0.363377</v>
       </c>
       <c r="D51" t="n">
-        <v>0.250809</v>
+        <v>0.246537</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5004690000000001</v>
+        <v>0.480394</v>
       </c>
       <c r="C52" t="n">
-        <v>0.358348</v>
+        <v>0.368738</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260758</v>
+        <v>0.259955</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.523355</v>
+        <v>0.501683</v>
       </c>
       <c r="C53" t="n">
-        <v>0.376903</v>
+        <v>0.393928</v>
       </c>
       <c r="D53" t="n">
-        <v>0.283169</v>
+        <v>0.271496</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.558836</v>
+        <v>0.5278040000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.400573</v>
+        <v>0.398538</v>
       </c>
       <c r="D54" t="n">
-        <v>0.281206</v>
+        <v>0.276245</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.57894</v>
+        <v>0.5736059999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.438908</v>
+        <v>0.422128</v>
       </c>
       <c r="D55" t="n">
-        <v>0.289758</v>
+        <v>0.278394</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.531603</v>
+        <v>0.518664</v>
       </c>
       <c r="C56" t="n">
-        <v>0.433649</v>
+        <v>0.45203</v>
       </c>
       <c r="D56" t="n">
-        <v>0.299155</v>
+        <v>0.290812</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.545946</v>
+        <v>0.531147</v>
       </c>
       <c r="C57" t="n">
-        <v>0.447299</v>
+        <v>0.465356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317639</v>
+        <v>0.304731</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567292</v>
+        <v>0.553298</v>
       </c>
       <c r="C58" t="n">
-        <v>0.493295</v>
+        <v>0.51279</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328127</v>
+        <v>0.320043</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.586827</v>
+        <v>0.605168</v>
       </c>
       <c r="C59" t="n">
-        <v>0.516338</v>
+        <v>0.525313</v>
       </c>
       <c r="D59" t="n">
-        <v>0.359778</v>
+        <v>0.331783</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.625797</v>
+        <v>0.635337</v>
       </c>
       <c r="C60" t="n">
-        <v>0.555218</v>
+        <v>0.554552</v>
       </c>
       <c r="D60" t="n">
-        <v>0.349124</v>
+        <v>0.353786</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6569739999999999</v>
+        <v>0.647771</v>
       </c>
       <c r="C61" t="n">
-        <v>0.56658</v>
+        <v>0.607623</v>
       </c>
       <c r="D61" t="n">
-        <v>0.375239</v>
+        <v>0.362422</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.698004</v>
+        <v>0.67743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.604544</v>
+        <v>0.65067</v>
       </c>
       <c r="D62" t="n">
-        <v>0.394951</v>
+        <v>0.383213</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.728694</v>
+        <v>0.737361</v>
       </c>
       <c r="C63" t="n">
-        <v>0.661308</v>
+        <v>0.680447</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417087</v>
+        <v>0.396389</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.74792</v>
+        <v>0.780522</v>
       </c>
       <c r="C64" t="n">
-        <v>0.539224</v>
+        <v>0.555266</v>
       </c>
       <c r="D64" t="n">
-        <v>0.390061</v>
+        <v>0.369421</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.781993</v>
+        <v>0.840781</v>
       </c>
       <c r="C65" t="n">
-        <v>0.565092</v>
+        <v>0.585713</v>
       </c>
       <c r="D65" t="n">
-        <v>0.410228</v>
+        <v>0.386498</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.816559</v>
+        <v>0.861868</v>
       </c>
       <c r="C66" t="n">
-        <v>0.596951</v>
+        <v>0.620042</v>
       </c>
       <c r="D66" t="n">
-        <v>0.411871</v>
+        <v>0.414258</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.892804</v>
+        <v>0.893061</v>
       </c>
       <c r="C67" t="n">
-        <v>0.613206</v>
+        <v>0.655392</v>
       </c>
       <c r="D67" t="n">
-        <v>0.435628</v>
+        <v>0.436075</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.925007</v>
+        <v>0.951304</v>
       </c>
       <c r="C68" t="n">
-        <v>0.63886</v>
+        <v>0.6827220000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.456295</v>
+        <v>0.454021</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.990081</v>
+        <v>0.992042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7123429999999999</v>
+        <v>0.728392</v>
       </c>
       <c r="D69" t="n">
-        <v>0.460869</v>
+        <v>0.476599</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.790106</v>
+        <v>0.814909</v>
       </c>
       <c r="C70" t="n">
-        <v>0.722759</v>
+        <v>0.747816</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494385</v>
+        <v>0.498424</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.822707</v>
+        <v>0.859057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798284</v>
+        <v>0.814122</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5165689999999999</v>
+        <v>0.503707</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.885265</v>
+        <v>0.870625</v>
       </c>
       <c r="C72" t="n">
-        <v>0.821781</v>
+        <v>0.842692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.547908</v>
+        <v>0.516886</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.902294</v>
+        <v>0.904855</v>
       </c>
       <c r="C73" t="n">
-        <v>0.86061</v>
+        <v>0.892832</v>
       </c>
       <c r="D73" t="n">
-        <v>0.571871</v>
+        <v>0.553375</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.940203</v>
+        <v>0.9013600000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.870988</v>
+        <v>0.942323</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5879450000000001</v>
+        <v>0.5845089999999999</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.957029</v>
+        <v>0.945391</v>
       </c>
       <c r="C75" t="n">
-        <v>0.92689</v>
+        <v>0.976202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.589108</v>
+        <v>0.604582</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.975558</v>
+        <v>1.02517</v>
       </c>
       <c r="C76" t="n">
-        <v>0.986435</v>
+        <v>1.01526</v>
       </c>
       <c r="D76" t="n">
-        <v>0.646056</v>
+        <v>0.61211</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.03386</v>
+        <v>1.01123</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06031</v>
+        <v>1.08435</v>
       </c>
       <c r="D77" t="n">
-        <v>0.658667</v>
+        <v>0.676801</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.05397</v>
+        <v>1.10491</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8066449999999999</v>
+        <v>0.8256559999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5982420000000001</v>
+        <v>0.620286</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.10517</v>
+        <v>1.12781</v>
       </c>
       <c r="C79" t="n">
-        <v>0.823391</v>
+        <v>0.870513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.670723</v>
+        <v>0.643976</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.16973</v>
+        <v>1.10566</v>
       </c>
       <c r="C80" t="n">
-        <v>0.857757</v>
+        <v>0.928413</v>
       </c>
       <c r="D80" t="n">
-        <v>0.680602</v>
+        <v>0.6653250000000001</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.17809</v>
+        <v>1.1691</v>
       </c>
       <c r="C81" t="n">
-        <v>0.897875</v>
+        <v>0.930517</v>
       </c>
       <c r="D81" t="n">
-        <v>0.69828</v>
+        <v>0.679014</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.2418</v>
+        <v>1.22082</v>
       </c>
       <c r="C82" t="n">
-        <v>0.912034</v>
+        <v>0.942686</v>
       </c>
       <c r="D82" t="n">
-        <v>0.693689</v>
+        <v>0.698026</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.26117</v>
+        <v>1.27291</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9520380000000001</v>
+        <v>0.995161</v>
       </c>
       <c r="D83" t="n">
-        <v>0.725806</v>
+        <v>0.71539</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9552349999999999</v>
+        <v>0.952718</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00254</v>
+        <v>1.0657</v>
       </c>
       <c r="D84" t="n">
-        <v>0.750395</v>
+        <v>0.756565</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.989702</v>
+        <v>1.00946</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03739</v>
+        <v>1.0478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763983</v>
+        <v>0.7652910000000001</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01767</v>
+        <v>1.01913</v>
       </c>
       <c r="C86" t="n">
-        <v>1.07522</v>
+        <v>1.10149</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7834100000000001</v>
+        <v>0.783008</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02949</v>
+        <v>1.05508</v>
       </c>
       <c r="C87" t="n">
-        <v>1.10588</v>
+        <v>1.15088</v>
       </c>
       <c r="D87" t="n">
-        <v>0.830462</v>
+        <v>0.821132</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11098</v>
+        <v>1.07416</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17309</v>
+        <v>1.16318</v>
       </c>
       <c r="D88" t="n">
-        <v>0.839831</v>
+        <v>0.865739</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12555</v>
+        <v>1.10265</v>
       </c>
       <c r="C89" t="n">
-        <v>1.22111</v>
+        <v>1.19121</v>
       </c>
       <c r="D89" t="n">
-        <v>0.880506</v>
+        <v>0.86259</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.17656</v>
+        <v>1.11067</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25665</v>
+        <v>1.26369</v>
       </c>
       <c r="D90" t="n">
-        <v>0.90204</v>
+        <v>0.8914069999999999</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.18338</v>
+        <v>1.16448</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29198</v>
+        <v>1.33349</v>
       </c>
       <c r="D91" t="n">
-        <v>0.944171</v>
+        <v>0.927536</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.25543</v>
+        <v>1.20736</v>
       </c>
       <c r="C92" t="n">
-        <v>0.985365</v>
+        <v>0.978575</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8069229999999999</v>
+        <v>0.790709</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.28851</v>
+        <v>1.23975</v>
       </c>
       <c r="C93" t="n">
-        <v>0.994106</v>
+        <v>0.998505</v>
       </c>
       <c r="D93" t="n">
-        <v>0.834944</v>
+        <v>0.822177</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.31637</v>
+        <v>1.28434</v>
       </c>
       <c r="C94" t="n">
-        <v>1.01246</v>
+        <v>1.06747</v>
       </c>
       <c r="D94" t="n">
-        <v>0.835717</v>
+        <v>0.853094</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.32736</v>
+        <v>1.3093</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06165</v>
+        <v>1.09275</v>
       </c>
       <c r="D95" t="n">
-        <v>0.869106</v>
+        <v>0.86359</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36796</v>
+        <v>1.37904</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08729</v>
+        <v>1.10384</v>
       </c>
       <c r="D96" t="n">
-        <v>0.886783</v>
+        <v>0.881811</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.42178</v>
+        <v>1.43081</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1309</v>
+        <v>1.15152</v>
       </c>
       <c r="D97" t="n">
-        <v>0.912487</v>
+        <v>0.900191</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05687</v>
+        <v>1.05771</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16506</v>
+        <v>1.15366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.934225</v>
+        <v>0.9363939999999999</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.08695</v>
+        <v>1.08655</v>
       </c>
       <c r="C99" t="n">
-        <v>1.17791</v>
+        <v>1.18328</v>
       </c>
       <c r="D99" t="n">
-        <v>0.974624</v>
+        <v>0.957115</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11797</v>
+        <v>1.1279</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25128</v>
+        <v>1.23408</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00185</v>
+        <v>0.99513</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16224</v>
+        <v>1.14042</v>
       </c>
       <c r="C101" t="n">
-        <v>1.27364</v>
+        <v>1.28298</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01356</v>
+        <v>0.985313</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20072</v>
+        <v>1.17793</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30672</v>
+        <v>1.33189</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0346</v>
+        <v>1.03025</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.22256</v>
+        <v>1.19695</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35781</v>
+        <v>1.36982</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07885</v>
+        <v>1.03971</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.24506</v>
+        <v>1.27013</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41197</v>
+        <v>1.46376</v>
       </c>
       <c r="D104" t="n">
-        <v>1.1143</v>
+        <v>1.0877</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.31968</v>
+        <v>1.27757</v>
       </c>
       <c r="C105" t="n">
-        <v>1.43703</v>
+        <v>1.46932</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13542</v>
+        <v>1.13843</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.29915</v>
+        <v>1.34368</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4954</v>
+        <v>1.51231</v>
       </c>
       <c r="D106" t="n">
-        <v>1.14463</v>
+        <v>1.16304</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36758</v>
+        <v>1.3581</v>
       </c>
       <c r="C107" t="n">
-        <v>1.07239</v>
+        <v>1.13726</v>
       </c>
       <c r="D107" t="n">
-        <v>0.915561</v>
+        <v>0.940385</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41368</v>
+        <v>1.43601</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1219</v>
+        <v>1.15839</v>
       </c>
       <c r="D108" t="n">
-        <v>0.976235</v>
+        <v>0.950828</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.4372</v>
+        <v>1.46983</v>
       </c>
       <c r="C109" t="n">
-        <v>1.15347</v>
+        <v>1.19675</v>
       </c>
       <c r="D109" t="n">
-        <v>0.955421</v>
+        <v>0.979202</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.46912</v>
+        <v>1.50535</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14249</v>
+        <v>1.2249</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01223</v>
+        <v>1.03519</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.55565</v>
+        <v>1.57619</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19907</v>
+        <v>1.26508</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02689</v>
+        <v>1.0302</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.13027</v>
+        <v>1.19564</v>
       </c>
       <c r="C112" t="n">
-        <v>1.27125</v>
+        <v>1.2845</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04757</v>
+        <v>1.0621</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16848</v>
+        <v>1.22677</v>
       </c>
       <c r="C113" t="n">
-        <v>1.2968</v>
+        <v>1.31796</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06192</v>
+        <v>1.06938</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.19722</v>
+        <v>1.25701</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3102</v>
+        <v>1.38501</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09314</v>
+        <v>1.11602</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.2136</v>
+        <v>1.27574</v>
       </c>
       <c r="C115" t="n">
-        <v>1.37166</v>
+        <v>1.42811</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12044</v>
+        <v>1.13766</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.25201</v>
+        <v>1.3074</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38598</v>
+        <v>1.4931</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15563</v>
+        <v>1.13586</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32955</v>
+        <v>1.29256</v>
       </c>
       <c r="C117" t="n">
-        <v>1.44872</v>
+        <v>1.47929</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21368</v>
+        <v>1.201</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3484</v>
+        <v>1.3768</v>
       </c>
       <c r="C118" t="n">
-        <v>1.49854</v>
+        <v>1.55443</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22064</v>
+        <v>1.21561</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.36409</v>
+        <v>1.36718</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52351</v>
+        <v>1.57166</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26428</v>
+        <v>1.26562</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5677720000000001</v>
+        <v>0.5753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.430677</v>
+        <v>0.451459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238549</v>
+        <v>0.236822</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.366142</v>
+        <v>0.360755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.45194</v>
+        <v>0.481602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24773</v>
+        <v>0.253401</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.381989</v>
+        <v>0.388028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496234</v>
+        <v>0.491695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.263208</v>
+        <v>0.256976</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397523</v>
+        <v>0.405259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.485914</v>
+        <v>0.518613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273965</v>
+        <v>0.263067</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.425945</v>
+        <v>0.438561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53891</v>
+        <v>0.540967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.287585</v>
+        <v>0.279584</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.446792</v>
+        <v>0.442665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.567431</v>
+        <v>0.567262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.289651</v>
+        <v>0.284567</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463322</v>
+        <v>0.46681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.565331</v>
+        <v>0.6049369999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297561</v>
+        <v>0.298216</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.496129</v>
+        <v>0.496214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6013269999999999</v>
+        <v>0.61305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302924</v>
+        <v>0.29992</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.519837</v>
+        <v>0.5114379999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.635072</v>
+        <v>0.6537269999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.324149</v>
+        <v>0.325135</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55925</v>
+        <v>0.548251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.402026</v>
+        <v>0.420737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240328</v>
+        <v>0.247044</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.586301</v>
+        <v>0.571045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.407157</v>
+        <v>0.458829</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24239</v>
+        <v>0.245645</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6047630000000001</v>
+        <v>0.63989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448366</v>
+        <v>0.454083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.262079</v>
+        <v>0.261349</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.618048</v>
+        <v>0.629728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459755</v>
+        <v>0.478168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266626</v>
+        <v>0.258399</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.666608</v>
+        <v>0.669645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483547</v>
+        <v>0.503475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.280067</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.678209</v>
+        <v>0.700236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5042450000000001</v>
+        <v>0.5275570000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.292991</v>
+        <v>0.294634</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.435289</v>
+        <v>0.441622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.524692</v>
+        <v>0.5671850000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.298925</v>
+        <v>0.296156</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.441291</v>
+        <v>0.467887</v>
       </c>
       <c r="C18" t="n">
-        <v>0.555999</v>
+        <v>0.570339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305106</v>
+        <v>0.303384</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.476415</v>
+        <v>0.468049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.591191</v>
+        <v>0.630211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.315991</v>
+        <v>0.318996</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.522899</v>
+        <v>0.500133</v>
       </c>
       <c r="C20" t="n">
-        <v>0.62096</v>
+        <v>0.6346810000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.332369</v>
+        <v>0.326326</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5148200000000001</v>
+        <v>0.5115730000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.630912</v>
+        <v>0.658482</v>
       </c>
       <c r="D21" t="n">
-        <v>0.340203</v>
+        <v>0.341764</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.56102</v>
+        <v>0.545945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.656637</v>
+        <v>0.685763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.359013</v>
+        <v>0.354683</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.559843</v>
+        <v>0.559647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.710815</v>
+        <v>0.732977</v>
       </c>
       <c r="D23" t="n">
-        <v>0.377823</v>
+        <v>0.369395</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.592871</v>
+        <v>0.604799</v>
       </c>
       <c r="C24" t="n">
-        <v>0.723253</v>
+        <v>0.762757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.389896</v>
+        <v>0.379084</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.623542</v>
+        <v>0.634973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.783867</v>
+        <v>0.769418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.40828</v>
+        <v>0.391511</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6581050000000001</v>
+        <v>0.651886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475677</v>
+        <v>0.506379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283637</v>
+        <v>0.280305</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.686123</v>
+        <v>0.682549</v>
       </c>
       <c r="C27" t="n">
-        <v>0.500139</v>
+        <v>0.514432</v>
       </c>
       <c r="D27" t="n">
-        <v>0.292606</v>
+        <v>0.292707</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.719784</v>
+        <v>0.710599</v>
       </c>
       <c r="C28" t="n">
-        <v>0.519872</v>
+        <v>0.533203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.301636</v>
+        <v>0.303634</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.762633</v>
+        <v>0.742151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.563515</v>
+        <v>0.58487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.320719</v>
+        <v>0.313181</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.781934</v>
+        <v>0.777331</v>
       </c>
       <c r="C30" t="n">
-        <v>0.584578</v>
+        <v>0.601634</v>
       </c>
       <c r="D30" t="n">
-        <v>0.324857</v>
+        <v>0.330213</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8102510000000001</v>
+        <v>0.782335</v>
       </c>
       <c r="C31" t="n">
-        <v>0.601183</v>
+        <v>0.604423</v>
       </c>
       <c r="D31" t="n">
-        <v>0.337139</v>
+        <v>0.327476</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.545145</v>
+        <v>0.494562</v>
       </c>
       <c r="C32" t="n">
-        <v>0.646945</v>
+        <v>0.672162</v>
       </c>
       <c r="D32" t="n">
-        <v>0.351813</v>
+        <v>0.349127</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5755</v>
+        <v>0.506247</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6732089999999999</v>
+        <v>0.682509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.368683</v>
+        <v>0.349588</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.588973</v>
+        <v>0.542168</v>
       </c>
       <c r="C34" t="n">
-        <v>0.702739</v>
+        <v>0.705142</v>
       </c>
       <c r="D34" t="n">
-        <v>0.381693</v>
+        <v>0.362319</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.61632</v>
+        <v>0.5782969999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.718437</v>
+        <v>0.7551909999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.391293</v>
+        <v>0.392629</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.650152</v>
+        <v>0.614433</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7783409999999999</v>
+        <v>0.831731</v>
       </c>
       <c r="D36" t="n">
-        <v>0.429585</v>
+        <v>0.423649</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.718251</v>
+        <v>0.65774</v>
       </c>
       <c r="C37" t="n">
-        <v>0.866676</v>
+        <v>0.8612570000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.434316</v>
+        <v>0.41986</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.746936</v>
+        <v>0.68474</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8978699999999999</v>
+        <v>0.886393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463909</v>
+        <v>0.461637</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.780856</v>
+        <v>0.732522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.941635</v>
+        <v>0.951557</v>
       </c>
       <c r="D39" t="n">
-        <v>0.486968</v>
+        <v>0.481967</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.868507</v>
+        <v>0.818737</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5802929999999999</v>
+        <v>0.645536</v>
       </c>
       <c r="D40" t="n">
-        <v>0.361442</v>
+        <v>0.365859</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.88381</v>
+        <v>0.833305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.604796</v>
+        <v>0.637666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.37376</v>
+        <v>0.383134</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.967605</v>
+        <v>0.8840479999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6591669999999999</v>
+        <v>0.6810580000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406432</v>
+        <v>0.385098</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0431</v>
+        <v>0.959572</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7202460000000001</v>
+        <v>0.7346279999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.426538</v>
+        <v>0.398639</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.03836</v>
+        <v>1.036</v>
       </c>
       <c r="C44" t="n">
-        <v>0.766763</v>
+        <v>0.760325</v>
       </c>
       <c r="D44" t="n">
-        <v>0.455804</v>
+        <v>0.426243</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.15629</v>
+        <v>1.11002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.803461</v>
+        <v>0.824434</v>
       </c>
       <c r="D45" t="n">
-        <v>0.46838</v>
+        <v>0.461477</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.756059</v>
+        <v>0.683104</v>
       </c>
       <c r="C46" t="n">
-        <v>0.881708</v>
+        <v>0.87761</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487572</v>
+        <v>0.478511</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.773769</v>
+        <v>0.747636</v>
       </c>
       <c r="C47" t="n">
-        <v>0.897445</v>
+        <v>0.910493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.516861</v>
+        <v>0.5090710000000001</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.836125</v>
+        <v>0.805454</v>
       </c>
       <c r="C48" t="n">
-        <v>0.968527</v>
+        <v>1.03217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.528935</v>
+        <v>0.531979</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.882829</v>
+        <v>0.82572</v>
       </c>
       <c r="C49" t="n">
-        <v>1.04089</v>
+        <v>1.06402</v>
       </c>
       <c r="D49" t="n">
-        <v>0.589211</v>
+        <v>0.590271</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.921451</v>
+        <v>0.923547</v>
       </c>
       <c r="C50" t="n">
-        <v>1.13025</v>
+        <v>1.10954</v>
       </c>
       <c r="D50" t="n">
-        <v>0.611255</v>
+        <v>0.604203</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.986066</v>
+        <v>0.945246</v>
       </c>
       <c r="C51" t="n">
-        <v>1.21401</v>
+        <v>1.20633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.634548</v>
+        <v>0.65647</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.04952</v>
+        <v>1.0214</v>
       </c>
       <c r="C52" t="n">
-        <v>1.26668</v>
+        <v>1.30024</v>
       </c>
       <c r="D52" t="n">
-        <v>0.66943</v>
+        <v>0.679352</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12125</v>
+        <v>1.09745</v>
       </c>
       <c r="C53" t="n">
-        <v>1.42606</v>
+        <v>1.42457</v>
       </c>
       <c r="D53" t="n">
-        <v>0.737127</v>
+        <v>0.69073</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.24719</v>
+        <v>1.18023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.85509</v>
+        <v>0.8783609999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.491787</v>
+        <v>0.503368</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26399</v>
+        <v>1.26555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.92544</v>
+        <v>0.917897</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5132640000000001</v>
+        <v>0.50791</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.4115</v>
+        <v>1.33401</v>
       </c>
       <c r="C56" t="n">
-        <v>0.98187</v>
+        <v>1.01705</v>
       </c>
       <c r="D56" t="n">
-        <v>0.563131</v>
+        <v>0.549716</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.50375</v>
+        <v>1.42796</v>
       </c>
       <c r="C57" t="n">
-        <v>1.05105</v>
+        <v>1.06499</v>
       </c>
       <c r="D57" t="n">
-        <v>0.587917</v>
+        <v>0.588721</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.66456</v>
+        <v>1.59802</v>
       </c>
       <c r="C58" t="n">
-        <v>1.10039</v>
+        <v>1.14991</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6176739999999999</v>
+        <v>0.6147550000000001</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.76491</v>
+        <v>1.69677</v>
       </c>
       <c r="C59" t="n">
-        <v>1.24228</v>
+        <v>1.21221</v>
       </c>
       <c r="D59" t="n">
-        <v>0.648428</v>
+        <v>0.650845</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11514</v>
+        <v>1.1114</v>
       </c>
       <c r="C60" t="n">
-        <v>1.34203</v>
+        <v>1.34667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.677893</v>
+        <v>0.693609</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.18896</v>
+        <v>1.20804</v>
       </c>
       <c r="C61" t="n">
-        <v>1.4475</v>
+        <v>1.41295</v>
       </c>
       <c r="D61" t="n">
-        <v>0.751047</v>
+        <v>0.71591</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.2901</v>
+        <v>1.28908</v>
       </c>
       <c r="C62" t="n">
-        <v>1.59256</v>
+        <v>1.60623</v>
       </c>
       <c r="D62" t="n">
-        <v>0.780625</v>
+        <v>0.77751</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42913</v>
+        <v>1.40285</v>
       </c>
       <c r="C63" t="n">
-        <v>1.66483</v>
+        <v>1.76679</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8281809999999999</v>
+        <v>0.836826</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54355</v>
+        <v>1.47883</v>
       </c>
       <c r="C64" t="n">
-        <v>1.83377</v>
+        <v>1.85649</v>
       </c>
       <c r="D64" t="n">
-        <v>0.872508</v>
+        <v>0.880564</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.65946</v>
+        <v>1.64357</v>
       </c>
       <c r="C65" t="n">
-        <v>2.0089</v>
+        <v>2.03283</v>
       </c>
       <c r="D65" t="n">
-        <v>0.946469</v>
+        <v>0.928444</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.82424</v>
+        <v>1.80891</v>
       </c>
       <c r="C66" t="n">
-        <v>2.20873</v>
+        <v>2.20482</v>
       </c>
       <c r="D66" t="n">
-        <v>0.998927</v>
+        <v>1.05215</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.97376</v>
+        <v>1.9908</v>
       </c>
       <c r="C67" t="n">
-        <v>2.34764</v>
+        <v>2.39083</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0995</v>
+        <v>1.07598</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.09372</v>
+        <v>2.08702</v>
       </c>
       <c r="C68" t="n">
-        <v>1.44449</v>
+        <v>1.5027</v>
       </c>
       <c r="D68" t="n">
-        <v>0.736069</v>
+        <v>0.757883</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.24821</v>
+        <v>2.2839</v>
       </c>
       <c r="C69" t="n">
-        <v>1.57784</v>
+        <v>1.65036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.783691</v>
+        <v>0.801801</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.424</v>
+        <v>2.4679</v>
       </c>
       <c r="C70" t="n">
-        <v>1.69715</v>
+        <v>1.75713</v>
       </c>
       <c r="D70" t="n">
-        <v>0.84109</v>
+        <v>0.865452</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.60838</v>
+        <v>2.71572</v>
       </c>
       <c r="C71" t="n">
-        <v>1.8132</v>
+        <v>1.91968</v>
       </c>
       <c r="D71" t="n">
-        <v>0.914341</v>
+        <v>0.905178</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.91251</v>
+        <v>2.88282</v>
       </c>
       <c r="C72" t="n">
-        <v>2.04638</v>
+        <v>2.01577</v>
       </c>
       <c r="D72" t="n">
-        <v>0.961935</v>
+        <v>0.972865</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.08441</v>
+        <v>3.14092</v>
       </c>
       <c r="C73" t="n">
-        <v>2.17755</v>
+        <v>2.24284</v>
       </c>
       <c r="D73" t="n">
-        <v>1.02144</v>
+        <v>1.03453</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.95629</v>
+        <v>1.94687</v>
       </c>
       <c r="C74" t="n">
-        <v>2.32976</v>
+        <v>2.38266</v>
       </c>
       <c r="D74" t="n">
-        <v>1.12235</v>
+        <v>1.09745</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.09396</v>
+        <v>2.05741</v>
       </c>
       <c r="C75" t="n">
-        <v>2.55584</v>
+        <v>2.58706</v>
       </c>
       <c r="D75" t="n">
-        <v>1.19332</v>
+        <v>1.16548</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.14353</v>
+        <v>2.23294</v>
       </c>
       <c r="C76" t="n">
-        <v>2.69013</v>
+        <v>2.72893</v>
       </c>
       <c r="D76" t="n">
-        <v>1.24603</v>
+        <v>1.22151</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.44067</v>
+        <v>2.36268</v>
       </c>
       <c r="C77" t="n">
-        <v>3.07534</v>
+        <v>2.89653</v>
       </c>
       <c r="D77" t="n">
-        <v>1.37383</v>
+        <v>1.37748</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.58234</v>
+        <v>2.4943</v>
       </c>
       <c r="C78" t="n">
-        <v>3.18776</v>
+        <v>3.11881</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43987</v>
+        <v>1.39532</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.78244</v>
+        <v>2.62098</v>
       </c>
       <c r="C79" t="n">
-        <v>3.4166</v>
+        <v>3.38992</v>
       </c>
       <c r="D79" t="n">
-        <v>1.48756</v>
+        <v>1.51078</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.85327</v>
+        <v>2.70118</v>
       </c>
       <c r="C80" t="n">
-        <v>3.74538</v>
+        <v>3.55024</v>
       </c>
       <c r="D80" t="n">
-        <v>1.59519</v>
+        <v>1.59821</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.0809</v>
+        <v>2.9526</v>
       </c>
       <c r="C81" t="n">
-        <v>3.9294</v>
+        <v>3.84892</v>
       </c>
       <c r="D81" t="n">
-        <v>1.73854</v>
+        <v>1.68941</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.24834</v>
+        <v>3.14511</v>
       </c>
       <c r="C82" t="n">
-        <v>4.25643</v>
+        <v>4.10231</v>
       </c>
       <c r="D82" t="n">
-        <v>1.80323</v>
+        <v>1.80392</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.2921</v>
+        <v>3.31632</v>
       </c>
       <c r="C83" t="n">
-        <v>2.34273</v>
+        <v>2.35637</v>
       </c>
       <c r="D83" t="n">
-        <v>1.21478</v>
+        <v>1.25145</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.51922</v>
+        <v>3.51965</v>
       </c>
       <c r="C84" t="n">
-        <v>2.4505</v>
+        <v>2.54783</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31962</v>
+        <v>1.29816</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.71094</v>
+        <v>3.62447</v>
       </c>
       <c r="C85" t="n">
-        <v>2.64619</v>
+        <v>2.65718</v>
       </c>
       <c r="D85" t="n">
-        <v>1.40658</v>
+        <v>1.33291</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.92278</v>
+        <v>3.91765</v>
       </c>
       <c r="C86" t="n">
-        <v>2.74831</v>
+        <v>2.86859</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45699</v>
+        <v>1.45692</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.22127</v>
+        <v>4.09528</v>
       </c>
       <c r="C87" t="n">
-        <v>2.90379</v>
+        <v>2.96933</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51343</v>
+        <v>1.50944</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.33316</v>
+        <v>4.33319</v>
       </c>
       <c r="C88" t="n">
-        <v>3.13168</v>
+        <v>3.12973</v>
       </c>
       <c r="D88" t="n">
-        <v>1.6289</v>
+        <v>1.61085</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56058</v>
+        <v>2.55112</v>
       </c>
       <c r="C89" t="n">
-        <v>3.2602</v>
+        <v>3.37172</v>
       </c>
       <c r="D89" t="n">
-        <v>1.68513</v>
+        <v>1.65643</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.74133</v>
+        <v>2.79539</v>
       </c>
       <c r="C90" t="n">
-        <v>3.47936</v>
+        <v>3.51453</v>
       </c>
       <c r="D90" t="n">
-        <v>1.74735</v>
+        <v>1.76545</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.82994</v>
+        <v>2.84118</v>
       </c>
       <c r="C91" t="n">
-        <v>3.69866</v>
+        <v>3.84862</v>
       </c>
       <c r="D91" t="n">
-        <v>1.84351</v>
+        <v>1.86849</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.96191</v>
+        <v>2.99495</v>
       </c>
       <c r="C92" t="n">
-        <v>3.84108</v>
+        <v>3.98417</v>
       </c>
       <c r="D92" t="n">
-        <v>1.95823</v>
+        <v>1.95755</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.12287</v>
+        <v>3.21904</v>
       </c>
       <c r="C93" t="n">
-        <v>4.08193</v>
+        <v>4.26592</v>
       </c>
       <c r="D93" t="n">
-        <v>2.04881</v>
+        <v>2.07697</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.28138</v>
+        <v>3.26621</v>
       </c>
       <c r="C94" t="n">
-        <v>4.43972</v>
+        <v>4.52288</v>
       </c>
       <c r="D94" t="n">
-        <v>2.13772</v>
+        <v>2.22251</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.49842</v>
+        <v>3.48122</v>
       </c>
       <c r="C95" t="n">
-        <v>4.64618</v>
+        <v>4.61597</v>
       </c>
       <c r="D95" t="n">
-        <v>2.31617</v>
+        <v>2.28497</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.67748</v>
+        <v>3.7325</v>
       </c>
       <c r="C96" t="n">
-        <v>4.88832</v>
+        <v>4.93804</v>
       </c>
       <c r="D96" t="n">
-        <v>2.37481</v>
+        <v>2.36845</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.80713</v>
+        <v>3.9047</v>
       </c>
       <c r="C97" t="n">
-        <v>2.74979</v>
+        <v>2.94753</v>
       </c>
       <c r="D97" t="n">
-        <v>1.56615</v>
+        <v>1.57053</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.07008</v>
+        <v>4.16999</v>
       </c>
       <c r="C98" t="n">
-        <v>2.94767</v>
+        <v>2.96171</v>
       </c>
       <c r="D98" t="n">
-        <v>1.67373</v>
+        <v>1.6982</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.22936</v>
+        <v>4.24805</v>
       </c>
       <c r="C99" t="n">
-        <v>3.08857</v>
+        <v>3.0668</v>
       </c>
       <c r="D99" t="n">
-        <v>1.71679</v>
+        <v>1.70988</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.46126</v>
+        <v>4.53502</v>
       </c>
       <c r="C100" t="n">
-        <v>3.23251</v>
+        <v>3.2764</v>
       </c>
       <c r="D100" t="n">
-        <v>1.76862</v>
+        <v>1.81697</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.69736</v>
+        <v>4.72691</v>
       </c>
       <c r="C101" t="n">
-        <v>3.34683</v>
+        <v>3.4324</v>
       </c>
       <c r="D101" t="n">
-        <v>1.88398</v>
+        <v>1.93432</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.94182</v>
+        <v>4.98623</v>
       </c>
       <c r="C102" t="n">
-        <v>3.58152</v>
+        <v>3.63105</v>
       </c>
       <c r="D102" t="n">
-        <v>1.95068</v>
+        <v>1.95916</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.90815</v>
+        <v>2.9561</v>
       </c>
       <c r="C103" t="n">
-        <v>3.87176</v>
+        <v>3.86639</v>
       </c>
       <c r="D103" t="n">
-        <v>2.06299</v>
+        <v>2.08342</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.08102</v>
+        <v>3.10504</v>
       </c>
       <c r="C104" t="n">
-        <v>4.01544</v>
+        <v>4.0518</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14231</v>
+        <v>2.18153</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.19729</v>
+        <v>3.13779</v>
       </c>
       <c r="C105" t="n">
-        <v>4.25018</v>
+        <v>4.32806</v>
       </c>
       <c r="D105" t="n">
-        <v>2.23886</v>
+        <v>2.22616</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.36508</v>
+        <v>3.38766</v>
       </c>
       <c r="C106" t="n">
-        <v>4.40741</v>
+        <v>4.59108</v>
       </c>
       <c r="D106" t="n">
-        <v>2.3184</v>
+        <v>2.32476</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.61036</v>
+        <v>3.51611</v>
       </c>
       <c r="C107" t="n">
-        <v>4.7063</v>
+        <v>4.71715</v>
       </c>
       <c r="D107" t="n">
-        <v>2.38196</v>
+        <v>2.48812</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.74955</v>
+        <v>3.67687</v>
       </c>
       <c r="C108" t="n">
-        <v>4.98164</v>
+        <v>4.9586</v>
       </c>
       <c r="D108" t="n">
-        <v>2.54417</v>
+        <v>2.57322</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91579</v>
+        <v>3.89919</v>
       </c>
       <c r="C109" t="n">
-        <v>5.21162</v>
+        <v>5.25468</v>
       </c>
       <c r="D109" t="n">
-        <v>2.68917</v>
+        <v>2.69591</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.09547</v>
+        <v>4.05348</v>
       </c>
       <c r="C110" t="n">
-        <v>5.5769</v>
+        <v>5.48313</v>
       </c>
       <c r="D110" t="n">
-        <v>2.77066</v>
+        <v>2.84929</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.28016</v>
+        <v>4.26084</v>
       </c>
       <c r="C111" t="n">
-        <v>3.08987</v>
+        <v>3.07786</v>
       </c>
       <c r="D111" t="n">
-        <v>1.89559</v>
+        <v>1.90573</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.42125</v>
+        <v>4.483</v>
       </c>
       <c r="C112" t="n">
-        <v>3.20451</v>
+        <v>3.23253</v>
       </c>
       <c r="D112" t="n">
-        <v>1.87426</v>
+        <v>1.99652</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.64943</v>
+        <v>4.68165</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35379</v>
+        <v>3.38904</v>
       </c>
       <c r="D113" t="n">
-        <v>2.02921</v>
+        <v>2.10539</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.9264</v>
+        <v>4.88725</v>
       </c>
       <c r="C114" t="n">
-        <v>3.54136</v>
+        <v>3.56907</v>
       </c>
       <c r="D114" t="n">
-        <v>2.10679</v>
+        <v>2.1822</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.14328</v>
+        <v>5.20301</v>
       </c>
       <c r="C115" t="n">
-        <v>3.69967</v>
+        <v>3.76309</v>
       </c>
       <c r="D115" t="n">
-        <v>2.20606</v>
+        <v>2.26561</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.41789</v>
+        <v>5.49868</v>
       </c>
       <c r="C116" t="n">
-        <v>3.87381</v>
+        <v>3.95483</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27424</v>
+        <v>2.38158</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.10141</v>
+        <v>3.22154</v>
       </c>
       <c r="C117" t="n">
-        <v>4.13227</v>
+        <v>4.22347</v>
       </c>
       <c r="D117" t="n">
-        <v>2.3888</v>
+        <v>2.49909</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.27539</v>
+        <v>3.38784</v>
       </c>
       <c r="C118" t="n">
-        <v>4.31966</v>
+        <v>4.44367</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4849</v>
+        <v>2.55184</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.38935</v>
+        <v>3.56025</v>
       </c>
       <c r="C119" t="n">
-        <v>4.56085</v>
+        <v>4.69356</v>
       </c>
       <c r="D119" t="n">
-        <v>2.63564</v>
+        <v>2.70076</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222832</v>
+        <v>0.235134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205377</v>
+        <v>0.226322</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238882</v>
+        <v>0.231626</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.226164</v>
+        <v>0.228979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227665</v>
+        <v>0.220706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236488</v>
+        <v>0.242352</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230732</v>
+        <v>0.228696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214271</v>
+        <v>0.229752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239713</v>
+        <v>0.251787</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236765</v>
+        <v>0.241892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217196</v>
+        <v>0.238306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245911</v>
+        <v>0.25981</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241383</v>
+        <v>0.24454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229364</v>
+        <v>0.247392</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253077</v>
+        <v>0.262568</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240951</v>
+        <v>0.252625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182382</v>
+        <v>0.200576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210809</v>
+        <v>0.212469</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245676</v>
+        <v>0.251372</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185397</v>
+        <v>0.19999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213822</v>
+        <v>0.222967</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257452</v>
+        <v>0.257698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191283</v>
+        <v>0.199655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221769</v>
+        <v>0.22901</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253852</v>
+        <v>0.264205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202132</v>
+        <v>0.20729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229485</v>
+        <v>0.238776</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255926</v>
+        <v>0.259936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200949</v>
+        <v>0.216201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235007</v>
+        <v>0.242793</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261943</v>
+        <v>0.270434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20773</v>
+        <v>0.226244</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241774</v>
+        <v>0.24942</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219775</v>
+        <v>0.223914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21529</v>
+        <v>0.230925</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249445</v>
+        <v>0.257165</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.224375</v>
+        <v>0.226937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219335</v>
+        <v>0.231209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253264</v>
+        <v>0.267462</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22638</v>
+        <v>0.236863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225473</v>
+        <v>0.236739</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259655</v>
+        <v>0.267615</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230397</v>
+        <v>0.236457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233446</v>
+        <v>0.248787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267625</v>
+        <v>0.275989</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.236793</v>
+        <v>0.241564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235287</v>
+        <v>0.253321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.275745</v>
+        <v>0.278113</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23968</v>
+        <v>0.244292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23383</v>
+        <v>0.25543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.276326</v>
+        <v>0.305071</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277518</v>
+        <v>0.260837</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287465</v>
+        <v>0.265881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285483</v>
+        <v>0.290119</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249602</v>
+        <v>0.252485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245982</v>
+        <v>0.270794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292185</v>
+        <v>0.293492</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256559</v>
+        <v>0.258479</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193027</v>
+        <v>0.199699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228943</v>
+        <v>0.23603</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260204</v>
+        <v>0.269706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197705</v>
+        <v>0.20765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236748</v>
+        <v>0.240715</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289492</v>
+        <v>0.265515</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210824</v>
+        <v>0.212427</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2444</v>
+        <v>0.245861</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.267791</v>
+        <v>0.275783</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211</v>
+        <v>0.22204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249116</v>
+        <v>0.247617</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268655</v>
+        <v>0.274813</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216396</v>
+        <v>0.242013</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251778</v>
+        <v>0.258802</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.278072</v>
+        <v>0.283384</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224094</v>
+        <v>0.235689</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262346</v>
+        <v>0.267251</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231926</v>
+        <v>0.245102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228853</v>
+        <v>0.243266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268357</v>
+        <v>0.28642</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.239062</v>
+        <v>0.25245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233976</v>
+        <v>0.249588</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278079</v>
+        <v>0.296576</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273477</v>
+        <v>0.275207</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242475</v>
+        <v>0.261734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.287733</v>
+        <v>0.304985</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251409</v>
+        <v>0.267032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249237</v>
+        <v>0.273576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31307</v>
+        <v>0.309258</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258798</v>
+        <v>0.275667</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256382</v>
+        <v>0.270695</v>
       </c>
       <c r="D31" t="n">
-        <v>0.306625</v>
+        <v>0.318616</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273531</v>
+        <v>0.285241</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261691</v>
+        <v>0.279415</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317312</v>
+        <v>0.321486</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272141</v>
+        <v>0.289839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267908</v>
+        <v>0.290127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325875</v>
+        <v>0.330333</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.282164</v>
+        <v>0.295479</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273483</v>
+        <v>0.291052</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335241</v>
+        <v>0.347444</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291364</v>
+        <v>0.319835</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212997</v>
+        <v>0.234701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25506</v>
+        <v>0.271502</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299727</v>
+        <v>0.325616</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220454</v>
+        <v>0.240993</v>
       </c>
       <c r="D36" t="n">
-        <v>0.267125</v>
+        <v>0.283615</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313058</v>
+        <v>0.338724</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230423</v>
+        <v>0.250911</v>
       </c>
       <c r="D37" t="n">
-        <v>0.276584</v>
+        <v>0.296501</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321782</v>
+        <v>0.344374</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239885</v>
+        <v>0.260001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290058</v>
+        <v>0.307885</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329539</v>
+        <v>0.344416</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248403</v>
+        <v>0.269043</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298308</v>
+        <v>0.315941</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345575</v>
+        <v>0.358167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256322</v>
+        <v>0.283686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.310255</v>
+        <v>0.334801</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308329</v>
+        <v>0.324837</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264204</v>
+        <v>0.298492</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316781</v>
+        <v>0.341178</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.312559</v>
+        <v>0.343199</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274302</v>
+        <v>0.311506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328689</v>
+        <v>0.35614</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318941</v>
+        <v>0.357296</v>
       </c>
       <c r="C43" t="n">
-        <v>0.284696</v>
+        <v>0.324453</v>
       </c>
       <c r="D43" t="n">
-        <v>0.348146</v>
+        <v>0.375574</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339543</v>
+        <v>0.357815</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296215</v>
+        <v>0.331767</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357187</v>
+        <v>0.381056</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350744</v>
+        <v>0.382989</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305612</v>
+        <v>0.34243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.371512</v>
+        <v>0.408012</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.364539</v>
+        <v>0.38379</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320242</v>
+        <v>0.349517</v>
       </c>
       <c r="D46" t="n">
-        <v>0.38419</v>
+        <v>0.413795</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.379912</v>
+        <v>0.402916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331352</v>
+        <v>0.370477</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418661</v>
+        <v>0.427266</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.406747</v>
+        <v>0.419348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349567</v>
+        <v>0.38934</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428115</v>
+        <v>0.451175</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.414459</v>
+        <v>0.426928</v>
       </c>
       <c r="C49" t="n">
-        <v>0.358213</v>
+        <v>0.404786</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446839</v>
+        <v>0.47136</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.431117</v>
+        <v>0.461728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295772</v>
+        <v>0.315394</v>
       </c>
       <c r="D50" t="n">
-        <v>0.353705</v>
+        <v>0.366252</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.448281</v>
+        <v>0.46392</v>
       </c>
       <c r="C51" t="n">
-        <v>0.304374</v>
+        <v>0.342599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370357</v>
+        <v>0.384819</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465704</v>
+        <v>0.484033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329725</v>
+        <v>0.370446</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414164</v>
+        <v>0.40544</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.548864</v>
+        <v>0.506464</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396971</v>
+        <v>0.369229</v>
       </c>
       <c r="D53" t="n">
-        <v>0.398186</v>
+        <v>0.431264</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.520927</v>
+        <v>0.514834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359842</v>
+        <v>0.37877</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435445</v>
+        <v>0.441471</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548441</v>
+        <v>0.555832</v>
       </c>
       <c r="C55" t="n">
-        <v>0.380913</v>
+        <v>0.399278</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461035</v>
+        <v>0.468276</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489629</v>
+        <v>0.510707</v>
       </c>
       <c r="C56" t="n">
-        <v>0.396603</v>
+        <v>0.4413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.489627</v>
+        <v>0.494683</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.537918</v>
+        <v>0.528193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.426245</v>
+        <v>0.447691</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5170670000000001</v>
+        <v>0.544735</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.553449</v>
+        <v>0.5603860000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441182</v>
+        <v>0.469223</v>
       </c>
       <c r="D58" t="n">
-        <v>0.51913</v>
+        <v>0.533485</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.58671</v>
+        <v>0.597535</v>
       </c>
       <c r="C59" t="n">
-        <v>0.466276</v>
+        <v>0.496595</v>
       </c>
       <c r="D59" t="n">
-        <v>0.605183</v>
+        <v>0.572532</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.571514</v>
+        <v>0.625272</v>
       </c>
       <c r="C60" t="n">
-        <v>0.478118</v>
+        <v>0.5076619999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55744</v>
+        <v>0.594587</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.588156</v>
+        <v>0.661023</v>
       </c>
       <c r="C61" t="n">
-        <v>0.503188</v>
+        <v>0.545423</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655969</v>
+        <v>0.6282799999999999</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.70245</v>
+        <v>0.687799</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556569</v>
+        <v>0.5737139999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.659027</v>
+        <v>0.695892</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645122</v>
+        <v>0.724271</v>
       </c>
       <c r="C63" t="n">
-        <v>0.591614</v>
+        <v>0.596848</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701566</v>
+        <v>0.719218</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.701191</v>
+        <v>0.751628</v>
       </c>
       <c r="C64" t="n">
-        <v>0.484607</v>
+        <v>0.524231</v>
       </c>
       <c r="D64" t="n">
-        <v>0.586464</v>
+        <v>0.622337</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.74104</v>
+        <v>0.775267</v>
       </c>
       <c r="C65" t="n">
-        <v>0.50552</v>
+        <v>0.550364</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623486</v>
+        <v>0.654542</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.788623</v>
+        <v>0.816354</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548578</v>
+        <v>0.582305</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660301</v>
+        <v>0.6660430000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814538</v>
+        <v>0.8495200000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.558815</v>
+        <v>0.57902</v>
       </c>
       <c r="D67" t="n">
-        <v>0.669817</v>
+        <v>0.701716</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.835411</v>
+        <v>0.852128</v>
       </c>
       <c r="C68" t="n">
-        <v>0.585522</v>
+        <v>0.616831</v>
       </c>
       <c r="D68" t="n">
-        <v>0.693605</v>
+        <v>0.734835</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.833492</v>
+        <v>0.884291</v>
       </c>
       <c r="C69" t="n">
-        <v>0.594307</v>
+        <v>0.673074</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715881</v>
+        <v>0.7281029999999999</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.699483</v>
+        <v>0.732652</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6220830000000001</v>
+        <v>0.677749</v>
       </c>
       <c r="D70" t="n">
-        <v>0.75726</v>
+        <v>0.777209</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.794046</v>
+        <v>0.751642</v>
       </c>
       <c r="C71" t="n">
-        <v>0.757667</v>
+        <v>0.696048</v>
       </c>
       <c r="D71" t="n">
-        <v>0.933043</v>
+        <v>0.7915</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.783936</v>
+        <v>0.780094</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757119</v>
+        <v>0.736232</v>
       </c>
       <c r="D72" t="n">
-        <v>0.878933</v>
+        <v>0.85547</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.849457</v>
+        <v>0.805272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739069</v>
+        <v>0.78056</v>
       </c>
       <c r="D73" t="n">
-        <v>0.882333</v>
+        <v>0.920339</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.825288</v>
+        <v>0.816472</v>
       </c>
       <c r="C74" t="n">
-        <v>0.777308</v>
+        <v>0.787321</v>
       </c>
       <c r="D74" t="n">
-        <v>0.91804</v>
+        <v>0.943688</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.857222</v>
+        <v>0.85102</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823609</v>
+        <v>0.840865</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9835159999999999</v>
+        <v>0.975411</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.914462</v>
+        <v>0.885798</v>
       </c>
       <c r="C76" t="n">
-        <v>0.86129</v>
+        <v>0.897101</v>
       </c>
       <c r="D76" t="n">
-        <v>0.965619</v>
+        <v>1.01995</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874785</v>
+        <v>0.910398</v>
       </c>
       <c r="C77" t="n">
-        <v>0.894662</v>
+        <v>0.906622</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00915</v>
+        <v>1.03242</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.916507</v>
+        <v>0.96394</v>
       </c>
       <c r="C78" t="n">
-        <v>0.678011</v>
+        <v>0.722278</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8430879999999999</v>
+        <v>0.879506</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.97404</v>
+        <v>0.980537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.711514</v>
+        <v>0.758966</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9104680000000001</v>
+        <v>0.906345</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0325</v>
+        <v>0.997202</v>
       </c>
       <c r="C80" t="n">
-        <v>0.787879</v>
+        <v>0.779328</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9415750000000001</v>
+        <v>0.935513</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02589</v>
+        <v>1.04206</v>
       </c>
       <c r="C81" t="n">
-        <v>0.755109</v>
+        <v>0.80187</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9757169999999999</v>
+        <v>0.978966</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05966</v>
+        <v>1.06383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.824399</v>
+        <v>0.846692</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0225</v>
+        <v>0.99721</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0897</v>
+        <v>1.12502</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845307</v>
+        <v>0.861865</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06065</v>
+        <v>1.04882</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.896701</v>
+        <v>0.904154</v>
       </c>
       <c r="C84" t="n">
-        <v>0.879775</v>
+        <v>0.879225</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09838</v>
+        <v>1.09738</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.900745</v>
+        <v>0.902768</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903386</v>
+        <v>0.9422430000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0899</v>
+        <v>1.12243</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.91198</v>
+        <v>0.934532</v>
       </c>
       <c r="C86" t="n">
-        <v>0.91574</v>
+        <v>0.959266</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11731</v>
+        <v>1.14408</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920902</v>
+        <v>0.953206</v>
       </c>
       <c r="C87" t="n">
-        <v>0.92333</v>
+        <v>0.962067</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15098</v>
+        <v>1.18631</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.943978</v>
+        <v>0.969183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.977023</v>
+        <v>1.04775</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27176</v>
+        <v>1.23333</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.998364</v>
+        <v>1.00403</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03284</v>
+        <v>1.08493</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26271</v>
+        <v>1.27171</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01617</v>
+        <v>1.06896</v>
       </c>
       <c r="C90" t="n">
-        <v>1.06304</v>
+        <v>1.1026</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33043</v>
+        <v>1.32521</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04528</v>
+        <v>1.06282</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09174</v>
+        <v>1.12607</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36328</v>
+        <v>1.36413</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06741</v>
+        <v>1.10771</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859309</v>
+        <v>0.861386</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1107</v>
+        <v>1.09564</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.09599</v>
+        <v>1.12645</v>
       </c>
       <c r="C93" t="n">
-        <v>0.877152</v>
+        <v>0.91221</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1028</v>
+        <v>1.17629</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.10522</v>
+        <v>1.17242</v>
       </c>
       <c r="C94" t="n">
-        <v>0.963384</v>
+        <v>0.9416060000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14903</v>
+        <v>1.15628</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.15758</v>
+        <v>1.19394</v>
       </c>
       <c r="C95" t="n">
-        <v>0.922351</v>
+        <v>0.948053</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1833</v>
+        <v>1.21449</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17268</v>
+        <v>1.24147</v>
       </c>
       <c r="C96" t="n">
-        <v>0.933671</v>
+        <v>0.991642</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23372</v>
+        <v>1.24664</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20453</v>
+        <v>1.2825</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956013</v>
+        <v>1.00067</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21494</v>
+        <v>1.28898</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.945516</v>
+        <v>0.990806</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984067</v>
+        <v>1.0384</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27959</v>
+        <v>1.3181</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96415</v>
+        <v>1.01101</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01065</v>
+        <v>1.07072</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3157</v>
+        <v>1.35841</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.991716</v>
+        <v>1.03422</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03841</v>
+        <v>1.09549</v>
       </c>
       <c r="D100" t="n">
-        <v>1.35837</v>
+        <v>1.37431</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01555</v>
+        <v>1.07816</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06033</v>
+        <v>1.14775</v>
       </c>
       <c r="D101" t="n">
-        <v>1.36681</v>
+        <v>1.41964</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04</v>
+        <v>1.08559</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08108</v>
+        <v>1.19763</v>
       </c>
       <c r="D102" t="n">
-        <v>1.4079</v>
+        <v>1.49191</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05969</v>
+        <v>1.13042</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11202</v>
+        <v>1.18657</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44628</v>
+        <v>1.53108</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09347</v>
+        <v>1.14042</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14366</v>
+        <v>1.22462</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4821</v>
+        <v>1.57089</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11419</v>
+        <v>1.15748</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19162</v>
+        <v>1.28125</v>
       </c>
       <c r="D105" t="n">
-        <v>1.54217</v>
+        <v>1.62644</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15552</v>
+        <v>1.20612</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23344</v>
+        <v>1.31729</v>
       </c>
       <c r="D106" t="n">
-        <v>1.63911</v>
+        <v>1.69369</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22848</v>
+        <v>1.22953</v>
       </c>
       <c r="C107" t="n">
-        <v>0.971469</v>
+        <v>0.9952530000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23209</v>
+        <v>1.31198</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22538</v>
+        <v>1.25209</v>
       </c>
       <c r="C108" t="n">
-        <v>0.955221</v>
+        <v>1.01057</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25486</v>
+        <v>1.3252</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.24757</v>
+        <v>1.29611</v>
       </c>
       <c r="C109" t="n">
-        <v>0.983036</v>
+        <v>1.04981</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30783</v>
+        <v>1.3723</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.27284</v>
+        <v>1.31766</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00653</v>
+        <v>1.05972</v>
       </c>
       <c r="D110" t="n">
-        <v>1.32684</v>
+        <v>1.38054</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32097</v>
+        <v>1.33731</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0948</v>
+        <v>1.08765</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7517</v>
+        <v>1.43855</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0326</v>
+        <v>1.04335</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12824</v>
+        <v>1.11901</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45242</v>
+        <v>1.4683</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06305</v>
+        <v>1.09952</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09822</v>
+        <v>1.13945</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47322</v>
+        <v>1.57912</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32199</v>
+        <v>1.12543</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13245</v>
+        <v>1.16477</v>
       </c>
       <c r="D114" t="n">
-        <v>1.50309</v>
+        <v>1.55918</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16585</v>
+        <v>1.11253</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17689</v>
+        <v>1.20866</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57927</v>
+        <v>1.56418</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12933</v>
+        <v>1.18903</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20371</v>
+        <v>1.24594</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59271</v>
+        <v>1.61696</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15131</v>
+        <v>1.21424</v>
       </c>
       <c r="C117" t="n">
-        <v>1.244</v>
+        <v>1.27867</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66646</v>
+        <v>1.66727</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14902</v>
+        <v>1.2405</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25684</v>
+        <v>1.33449</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68556</v>
+        <v>1.75183</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25696</v>
+        <v>1.25653</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37237</v>
+        <v>1.34678</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72246</v>
+        <v>1.76807</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201291</v>
+        <v>0.189678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184652</v>
+        <v>0.189443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139115</v>
+        <v>0.144715</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187026</v>
+        <v>0.190496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200179</v>
+        <v>0.190484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145146</v>
+        <v>0.14762</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190818</v>
+        <v>0.198105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18809</v>
+        <v>0.195188</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145487</v>
+        <v>0.149776</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204078</v>
+        <v>0.199685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205951</v>
+        <v>0.205612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156447</v>
+        <v>0.151459</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225626</v>
+        <v>0.201952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205661</v>
+        <v>0.211594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149699</v>
+        <v>0.155225</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205814</v>
+        <v>0.213128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.157319</v>
+        <v>0.165107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147003</v>
+        <v>0.14353</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212204</v>
+        <v>0.22345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160873</v>
+        <v>0.169004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150909</v>
+        <v>0.142532</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218821</v>
+        <v>0.221297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166582</v>
+        <v>0.175109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14296</v>
+        <v>0.147359</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222714</v>
+        <v>0.233877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168848</v>
+        <v>0.178487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153888</v>
+        <v>0.153242</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247907</v>
+        <v>0.238588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182893</v>
+        <v>0.181898</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148731</v>
+        <v>0.164299</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242115</v>
+        <v>0.2424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180172</v>
+        <v>0.185744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>0.156789</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188184</v>
+        <v>0.198212</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184881</v>
+        <v>0.197546</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159659</v>
+        <v>0.160245</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2098</v>
+        <v>0.19701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.193698</v>
+        <v>0.199031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.155613</v>
+        <v>0.16822</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205296</v>
+        <v>0.202966</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194696</v>
+        <v>0.204139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.160008</v>
+        <v>0.166006</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203789</v>
+        <v>0.208663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201628</v>
+        <v>0.212595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161298</v>
+        <v>0.17373</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206316</v>
+        <v>0.215802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209896</v>
+        <v>0.220703</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168663</v>
+        <v>0.174909</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.206305</v>
+        <v>0.208936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221762</v>
+        <v>0.220765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184855</v>
+        <v>0.17917</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208635</v>
+        <v>0.218809</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227843</v>
+        <v>0.235567</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179898</v>
+        <v>0.186204</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218341</v>
+        <v>0.222517</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227968</v>
+        <v>0.24077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.175353</v>
+        <v>0.186599</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220866</v>
+        <v>0.228772</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187502</v>
+        <v>0.177416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157027</v>
+        <v>0.15807</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234529</v>
+        <v>0.235792</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183294</v>
+        <v>0.18757</v>
       </c>
       <c r="D22" t="n">
-        <v>0.159043</v>
+        <v>0.167243</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244032</v>
+        <v>0.252249</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188463</v>
+        <v>0.194064</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166285</v>
+        <v>0.164614</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248439</v>
+        <v>0.255845</v>
       </c>
       <c r="C24" t="n">
-        <v>0.191788</v>
+        <v>0.197522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174375</v>
+        <v>0.170001</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25571</v>
+        <v>0.261407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.201213</v>
+        <v>0.205943</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166709</v>
+        <v>0.180074</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.256646</v>
+        <v>0.268787</v>
       </c>
       <c r="C26" t="n">
-        <v>0.209252</v>
+        <v>0.211508</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179065</v>
+        <v>0.174688</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.210121</v>
+        <v>0.240536</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207006</v>
+        <v>0.216122</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171669</v>
+        <v>0.176231</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225136</v>
+        <v>0.232786</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217587</v>
+        <v>0.214946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18007</v>
+        <v>0.180049</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230622</v>
+        <v>0.238449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22071</v>
+        <v>0.228743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181919</v>
+        <v>0.187117</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.232049</v>
+        <v>0.252459</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233068</v>
+        <v>0.244214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187343</v>
+        <v>0.206666</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.238123</v>
+        <v>0.251943</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240886</v>
+        <v>0.237972</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204228</v>
+        <v>0.192389</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251529</v>
+        <v>0.264089</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244196</v>
+        <v>0.250118</v>
       </c>
       <c r="D32" t="n">
-        <v>0.198889</v>
+        <v>0.197166</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256973</v>
+        <v>0.278748</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267702</v>
+        <v>0.270965</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199384</v>
+        <v>0.207276</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260664</v>
+        <v>0.275375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278999</v>
+        <v>0.278539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204026</v>
+        <v>0.215555</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277312</v>
+        <v>0.293213</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208681</v>
+        <v>0.223706</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181516</v>
+        <v>0.185363</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.279216</v>
+        <v>0.306629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216505</v>
+        <v>0.228857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183273</v>
+        <v>0.193138</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282498</v>
+        <v>0.314739</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219189</v>
+        <v>0.241984</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181545</v>
+        <v>0.196112</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301421</v>
+        <v>0.348216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229608</v>
+        <v>0.249311</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187736</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302599</v>
+        <v>0.345444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239208</v>
+        <v>0.255986</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197318</v>
+        <v>0.208788</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.328956</v>
+        <v>0.360968</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249512</v>
+        <v>0.269987</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205094</v>
+        <v>0.218791</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284106</v>
+        <v>0.313163</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273778</v>
+        <v>0.272822</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21324</v>
+        <v>0.213065</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288623</v>
+        <v>0.323238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27211</v>
+        <v>0.285813</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208669</v>
+        <v>0.229301</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321261</v>
+        <v>0.337607</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278382</v>
+        <v>0.304204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214281</v>
+        <v>0.234613</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.335659</v>
+        <v>0.357748</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307149</v>
+        <v>0.31851</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226206</v>
+        <v>0.242824</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324564</v>
+        <v>0.361434</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3112</v>
+        <v>0.330424</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229269</v>
+        <v>0.263859</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.342113</v>
+        <v>0.377747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32265</v>
+        <v>0.336536</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23966</v>
+        <v>0.255628</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.345924</v>
+        <v>0.392357</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343577</v>
+        <v>0.351572</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25057</v>
+        <v>0.276129</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.372439</v>
+        <v>0.434959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345756</v>
+        <v>0.373427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250395</v>
+        <v>0.273305</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.374323</v>
+        <v>0.42622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370708</v>
+        <v>0.406141</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263103</v>
+        <v>0.281219</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393545</v>
+        <v>0.436867</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2876</v>
+        <v>0.341475</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221608</v>
+        <v>0.241774</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440307</v>
+        <v>0.467514</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292449</v>
+        <v>0.336619</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243507</v>
+        <v>0.247482</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437023</v>
+        <v>0.48815</v>
       </c>
       <c r="C52" t="n">
-        <v>0.305093</v>
+        <v>0.34415</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240174</v>
+        <v>0.260879</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.437855</v>
+        <v>0.506569</v>
       </c>
       <c r="C53" t="n">
-        <v>0.322148</v>
+        <v>0.358274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238001</v>
+        <v>0.270982</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.489588</v>
+        <v>0.522204</v>
       </c>
       <c r="C54" t="n">
-        <v>0.336706</v>
+        <v>0.384778</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24933</v>
+        <v>0.278375</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521616</v>
+        <v>0.571489</v>
       </c>
       <c r="C55" t="n">
-        <v>0.360294</v>
+        <v>0.403638</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253794</v>
+        <v>0.284998</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.436843</v>
+        <v>0.5159</v>
       </c>
       <c r="C56" t="n">
-        <v>0.387913</v>
+        <v>0.445383</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278283</v>
+        <v>0.300545</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512665</v>
+        <v>0.55174</v>
       </c>
       <c r="C57" t="n">
-        <v>0.395604</v>
+        <v>0.461027</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274365</v>
+        <v>0.307037</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.503586</v>
+        <v>0.561764</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424093</v>
+        <v>0.466656</v>
       </c>
       <c r="D58" t="n">
-        <v>0.284283</v>
+        <v>0.321746</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520535</v>
+        <v>0.626095</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473964</v>
+        <v>0.49988</v>
       </c>
       <c r="D59" t="n">
-        <v>0.307979</v>
+        <v>0.338188</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5615329999999999</v>
+        <v>0.619069</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531571</v>
+        <v>0.547073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331079</v>
+        <v>0.356927</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.56828</v>
+        <v>0.647093</v>
       </c>
       <c r="C61" t="n">
-        <v>0.501206</v>
+        <v>0.57383</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337122</v>
+        <v>0.371489</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.652706</v>
+        <v>0.690716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575797</v>
+        <v>0.61688</v>
       </c>
       <c r="D62" t="n">
-        <v>0.378598</v>
+        <v>0.392477</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.670606</v>
+        <v>0.718288</v>
       </c>
       <c r="C63" t="n">
-        <v>0.572919</v>
+        <v>0.639869</v>
       </c>
       <c r="D63" t="n">
-        <v>0.371012</v>
+        <v>0.420396</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.664498</v>
+        <v>0.76366</v>
       </c>
       <c r="C64" t="n">
-        <v>0.493989</v>
+        <v>0.551413</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377207</v>
+        <v>0.384962</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.757343</v>
+        <v>0.795625</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502978</v>
+        <v>0.5728490000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351822</v>
+        <v>0.399663</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77432</v>
+        <v>0.820015</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533881</v>
+        <v>0.585847</v>
       </c>
       <c r="D66" t="n">
-        <v>0.366374</v>
+        <v>0.417142</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8064519999999999</v>
+        <v>0.887707</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576114</v>
+        <v>0.615196</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387399</v>
+        <v>0.429693</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792505</v>
+        <v>0.905226</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549936</v>
+        <v>0.669771</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374173</v>
+        <v>0.453551</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.898365</v>
+        <v>1.00199</v>
       </c>
       <c r="C69" t="n">
-        <v>0.602183</v>
+        <v>0.6888030000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.42519</v>
+        <v>0.46848</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761399</v>
+        <v>0.801891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.644993</v>
+        <v>0.713614</v>
       </c>
       <c r="D70" t="n">
-        <v>0.407246</v>
+        <v>0.487308</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753428</v>
+        <v>0.837898</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6645219999999999</v>
+        <v>0.758989</v>
       </c>
       <c r="D71" t="n">
-        <v>0.429082</v>
+        <v>0.510229</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.746115</v>
+        <v>0.834212</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699055</v>
+        <v>0.815563</v>
       </c>
       <c r="D72" t="n">
-        <v>0.456475</v>
+        <v>0.549396</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.797884</v>
+        <v>0.878611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75322</v>
+        <v>0.871827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.495253</v>
+        <v>0.566617</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.823943</v>
+        <v>0.938596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.802053</v>
+        <v>0.898442</v>
       </c>
       <c r="D74" t="n">
-        <v>0.499714</v>
+        <v>0.604351</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.844452</v>
+        <v>0.9409419999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.804354</v>
+        <v>0.946429</v>
       </c>
       <c r="D75" t="n">
-        <v>0.511042</v>
+        <v>0.620051</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.891305</v>
+        <v>0.968849</v>
       </c>
       <c r="C76" t="n">
-        <v>0.929982</v>
+        <v>1.00879</v>
       </c>
       <c r="D76" t="n">
-        <v>0.583545</v>
+        <v>0.6441</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.969122</v>
+        <v>1.03732</v>
       </c>
       <c r="C77" t="n">
-        <v>0.922084</v>
+        <v>1.04981</v>
       </c>
       <c r="D77" t="n">
-        <v>0.580891</v>
+        <v>0.662442</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.977667</v>
+        <v>1.03744</v>
       </c>
       <c r="C78" t="n">
-        <v>0.75673</v>
+        <v>0.804824</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55338</v>
+        <v>0.620316</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02808</v>
+        <v>1.11715</v>
       </c>
       <c r="C79" t="n">
-        <v>0.721267</v>
+        <v>0.825234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552809</v>
+        <v>0.639236</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03923</v>
+        <v>1.11637</v>
       </c>
       <c r="C80" t="n">
-        <v>0.785852</v>
+        <v>0.868712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.585678</v>
+        <v>0.661693</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08246</v>
+        <v>1.18708</v>
       </c>
       <c r="C81" t="n">
-        <v>0.795195</v>
+        <v>0.885856</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592261</v>
+        <v>0.679944</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11964</v>
+        <v>1.24281</v>
       </c>
       <c r="C82" t="n">
-        <v>0.878088</v>
+        <v>0.9400579999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.63408</v>
+        <v>0.699665</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17506</v>
+        <v>1.2662</v>
       </c>
       <c r="C83" t="n">
-        <v>0.870207</v>
+        <v>0.962151</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64083</v>
+        <v>0.705505</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.922261</v>
+        <v>0.992097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.905906</v>
+        <v>0.9919</v>
       </c>
       <c r="D84" t="n">
-        <v>0.698846</v>
+        <v>0.763522</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.922199</v>
+        <v>0.984286</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937737</v>
+        <v>1.00034</v>
       </c>
       <c r="D85" t="n">
-        <v>0.696345</v>
+        <v>0.769648</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939649</v>
+        <v>1.01744</v>
       </c>
       <c r="C86" t="n">
-        <v>0.976923</v>
+        <v>1.0513</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711355</v>
+        <v>0.799533</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01513</v>
+        <v>1.04803</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0482</v>
+        <v>1.09048</v>
       </c>
       <c r="D87" t="n">
-        <v>0.744854</v>
+        <v>0.796365</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0041</v>
+        <v>1.08303</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09761</v>
+        <v>1.13244</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7783330000000001</v>
+        <v>0.846455</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04053</v>
+        <v>1.11696</v>
       </c>
       <c r="C89" t="n">
-        <v>1.153</v>
+        <v>1.18525</v>
       </c>
       <c r="D89" t="n">
-        <v>0.814397</v>
+        <v>0.873001</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05864</v>
+        <v>1.15048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13039</v>
+        <v>1.2344</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.915588</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09081</v>
+        <v>1.20565</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1693</v>
+        <v>1.29622</v>
       </c>
       <c r="D91" t="n">
-        <v>0.844513</v>
+        <v>0.915005</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.13376</v>
+        <v>1.25084</v>
       </c>
       <c r="C92" t="n">
-        <v>0.916815</v>
+        <v>0.974846</v>
       </c>
       <c r="D92" t="n">
-        <v>0.72155</v>
+        <v>0.802239</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15268</v>
+        <v>1.26419</v>
       </c>
       <c r="C93" t="n">
-        <v>0.885419</v>
+        <v>0.981273</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762004</v>
+        <v>0.821139</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18941</v>
+        <v>1.29117</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9401080000000001</v>
+        <v>1.01828</v>
       </c>
       <c r="D94" t="n">
-        <v>0.76444</v>
+        <v>0.838388</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23908</v>
+        <v>1.32228</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0119</v>
+        <v>1.06254</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780384</v>
+        <v>0.859049</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2724</v>
+        <v>1.37321</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0137</v>
+        <v>1.09131</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8067299999999999</v>
+        <v>0.882937</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31565</v>
+        <v>1.45072</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03037</v>
+        <v>1.12665</v>
       </c>
       <c r="D97" t="n">
-        <v>0.814267</v>
+        <v>0.898838</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.968085</v>
+        <v>1.04869</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09008</v>
+        <v>1.16043</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836873</v>
+        <v>0.937136</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00445</v>
+        <v>1.11477</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09438</v>
+        <v>1.19034</v>
       </c>
       <c r="D99" t="n">
-        <v>0.876285</v>
+        <v>0.98066</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.07229</v>
+        <v>1.11335</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13766</v>
+        <v>1.21524</v>
       </c>
       <c r="D100" t="n">
-        <v>0.901504</v>
+        <v>1.00334</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05312</v>
+        <v>1.13584</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1779</v>
+        <v>1.26021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.942499</v>
+        <v>1.0141</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07943</v>
+        <v>1.17175</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20217</v>
+        <v>1.30878</v>
       </c>
       <c r="D102" t="n">
-        <v>0.950775</v>
+        <v>1.02048</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12291</v>
+        <v>1.20205</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25345</v>
+        <v>1.37832</v>
       </c>
       <c r="D103" t="n">
-        <v>0.958603</v>
+        <v>1.04726</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15759</v>
+        <v>1.26388</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28387</v>
+        <v>1.38024</v>
       </c>
       <c r="D104" t="n">
-        <v>0.994042</v>
+        <v>1.10057</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18609</v>
+        <v>1.26685</v>
       </c>
       <c r="C105" t="n">
-        <v>1.31879</v>
+        <v>1.42278</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00669</v>
+        <v>1.12798</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21036</v>
+        <v>1.30756</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39794</v>
+        <v>1.46159</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06163</v>
+        <v>1.18345</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24561</v>
+        <v>1.36697</v>
       </c>
       <c r="C107" t="n">
-        <v>0.997814</v>
+        <v>1.09826</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8557709999999999</v>
+        <v>0.965515</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.27885</v>
+        <v>1.45685</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02754</v>
+        <v>1.12751</v>
       </c>
       <c r="D108" t="n">
-        <v>0.847917</v>
+        <v>0.956263</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30159</v>
+        <v>1.42937</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07351</v>
+        <v>1.16199</v>
       </c>
       <c r="D109" t="n">
-        <v>0.865129</v>
+        <v>0.995413</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3411</v>
+        <v>1.45726</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05373</v>
+        <v>1.17406</v>
       </c>
       <c r="D110" t="n">
-        <v>0.896658</v>
+        <v>1.0251</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40281</v>
+        <v>1.54245</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09809</v>
+        <v>1.22358</v>
       </c>
       <c r="D111" t="n">
-        <v>0.933692</v>
+        <v>1.0285</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05027</v>
+        <v>1.14062</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1466</v>
+        <v>1.25056</v>
       </c>
       <c r="D112" t="n">
-        <v>0.98067</v>
+        <v>1.09335</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04449</v>
+        <v>1.18366</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15329</v>
+        <v>1.32156</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970261</v>
+        <v>1.10047</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.07215</v>
+        <v>1.20082</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21306</v>
+        <v>1.31711</v>
       </c>
       <c r="D114" t="n">
-        <v>0.98202</v>
+        <v>1.11315</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11103</v>
+        <v>1.20775</v>
       </c>
       <c r="C115" t="n">
-        <v>1.259</v>
+        <v>1.36466</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02382</v>
+        <v>1.10248</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14307</v>
+        <v>1.2392</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3061</v>
+        <v>1.36282</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05668</v>
+        <v>1.13687</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17618</v>
+        <v>1.30954</v>
       </c>
       <c r="C117" t="n">
-        <v>1.37682</v>
+        <v>1.52336</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07814</v>
+        <v>1.19639</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21099</v>
+        <v>1.31861</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43033</v>
+        <v>1.56686</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09975</v>
+        <v>1.22936</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25813</v>
+        <v>1.4027</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42094</v>
+        <v>1.57779</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17861</v>
+        <v>1.28858</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.585109</v>
+        <v>0.567771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417952</v>
+        <v>0.439071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236828</v>
+        <v>0.244382</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.358824</v>
+        <v>0.368014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437949</v>
+        <v>0.480897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248877</v>
+        <v>0.257239</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375673</v>
+        <v>0.378452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.468355</v>
+        <v>0.487285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250561</v>
+        <v>0.261258</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392205</v>
+        <v>0.409607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.485982</v>
+        <v>0.499269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262321</v>
+        <v>0.282032</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414505</v>
+        <v>0.428593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517972</v>
+        <v>0.523069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271283</v>
+        <v>0.288591</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.445361</v>
+        <v>0.446974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.534141</v>
+        <v>0.554717</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275748</v>
+        <v>0.297092</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450179</v>
+        <v>0.479132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595271</v>
+        <v>0.589893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283799</v>
+        <v>0.311102</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474031</v>
+        <v>0.504847</v>
       </c>
       <c r="C9" t="n">
-        <v>0.599396</v>
+        <v>0.600563</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302422</v>
+        <v>0.310872</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.518297</v>
+        <v>0.515601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603345</v>
+        <v>0.643404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.308425</v>
+        <v>0.330344</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.528811</v>
+        <v>0.570763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394783</v>
+        <v>0.423625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231413</v>
+        <v>0.249458</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.568513</v>
+        <v>0.576938</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417771</v>
+        <v>0.417115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250406</v>
+        <v>0.257142</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.591203</v>
+        <v>0.63942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.421725</v>
+        <v>0.451269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249543</v>
+        <v>0.257522</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.613888</v>
+        <v>0.647074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.458554</v>
+        <v>0.493174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263546</v>
+        <v>0.273148</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.650261</v>
+        <v>0.688789</v>
       </c>
       <c r="C15" t="n">
-        <v>0.490056</v>
+        <v>0.505304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266494</v>
+        <v>0.28645</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.67471</v>
+        <v>0.742067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.491968</v>
+        <v>0.515811</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276567</v>
+        <v>0.282298</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428854</v>
+        <v>0.464993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.539068</v>
+        <v>0.552003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285395</v>
+        <v>0.307546</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.450655</v>
+        <v>0.460189</v>
       </c>
       <c r="C18" t="n">
-        <v>0.556756</v>
+        <v>0.5872270000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29511</v>
+        <v>0.315033</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452463</v>
+        <v>0.502534</v>
       </c>
       <c r="C19" t="n">
-        <v>0.567706</v>
+        <v>0.603064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308355</v>
+        <v>0.331916</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.485494</v>
+        <v>0.509724</v>
       </c>
       <c r="C20" t="n">
-        <v>0.588522</v>
+        <v>0.613901</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31648</v>
+        <v>0.351956</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.499136</v>
+        <v>0.557299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618025</v>
+        <v>0.6659310000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.330688</v>
+        <v>0.364716</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.532742</v>
+        <v>0.56347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6571939999999999</v>
+        <v>0.698557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353737</v>
+        <v>0.371183</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560374</v>
+        <v>0.606152</v>
       </c>
       <c r="C23" t="n">
-        <v>0.674547</v>
+        <v>0.760101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356169</v>
+        <v>0.380555</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.590409</v>
+        <v>0.6093460000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.711667</v>
+        <v>0.7957880000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364533</v>
+        <v>0.397914</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.598185</v>
+        <v>0.6641550000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.729362</v>
+        <v>0.787579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.379342</v>
+        <v>0.402265</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.618077</v>
+        <v>0.67209</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460517</v>
+        <v>0.477274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279375</v>
+        <v>0.291265</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.678897</v>
+        <v>0.733391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.486552</v>
+        <v>0.497036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288024</v>
+        <v>0.300847</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6999030000000001</v>
+        <v>0.738791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520911</v>
+        <v>0.53644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312452</v>
+        <v>0.310414</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7347129999999999</v>
+        <v>0.814908</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547197</v>
+        <v>0.564867</v>
       </c>
       <c r="D29" t="n">
-        <v>0.318777</v>
+        <v>0.326727</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.757125</v>
+        <v>0.791357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.562867</v>
+        <v>0.567531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317817</v>
+        <v>0.334189</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824464</v>
+        <v>0.8560950000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585286</v>
+        <v>0.6162570000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347849</v>
+        <v>0.34235</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482847</v>
+        <v>0.530125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606827</v>
+        <v>0.651783</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340922</v>
+        <v>0.355557</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519492</v>
+        <v>0.546636</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6378200000000001</v>
+        <v>0.681663</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354497</v>
+        <v>0.380077</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535859</v>
+        <v>0.581457</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669286</v>
+        <v>0.70501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.370979</v>
+        <v>0.383883</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56515</v>
+        <v>0.593599</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680559</v>
+        <v>0.737112</v>
       </c>
       <c r="D35" t="n">
-        <v>0.375878</v>
+        <v>0.411993</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.616514</v>
+        <v>0.661249</v>
       </c>
       <c r="C36" t="n">
-        <v>0.737328</v>
+        <v>0.8146910000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393987</v>
+        <v>0.411997</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.634987</v>
+        <v>0.657259</v>
       </c>
       <c r="C37" t="n">
-        <v>0.775052</v>
+        <v>0.885526</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402222</v>
+        <v>0.44447</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.667988</v>
+        <v>0.712541</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834015</v>
+        <v>0.867207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.421243</v>
+        <v>0.460995</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.745234</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875016</v>
+        <v>0.941464</v>
       </c>
       <c r="D39" t="n">
-        <v>0.450219</v>
+        <v>0.489575</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.759186</v>
+        <v>0.78667</v>
       </c>
       <c r="C40" t="n">
-        <v>0.535562</v>
+        <v>0.586379</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323776</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.769776</v>
+        <v>0.840599</v>
       </c>
       <c r="C41" t="n">
-        <v>0.562916</v>
+        <v>0.613522</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348969</v>
+        <v>0.373311</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.832212</v>
+        <v>0.932432</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62398</v>
+        <v>0.625223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364714</v>
+        <v>0.405176</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9060009999999999</v>
+        <v>0.955615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.636503</v>
+        <v>0.701314</v>
       </c>
       <c r="D43" t="n">
-        <v>0.394129</v>
+        <v>0.418591</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.994217</v>
+        <v>1.01575</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675505</v>
+        <v>0.706141</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399422</v>
+        <v>0.426077</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02056</v>
+        <v>1.07669</v>
       </c>
       <c r="C45" t="n">
-        <v>0.726999</v>
+        <v>0.780355</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409609</v>
+        <v>0.469547</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639335</v>
+        <v>0.71684</v>
       </c>
       <c r="C46" t="n">
-        <v>0.76463</v>
+        <v>0.820808</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433438</v>
+        <v>0.482469</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.668102</v>
+        <v>0.74637</v>
       </c>
       <c r="C47" t="n">
-        <v>0.806752</v>
+        <v>0.91186</v>
       </c>
       <c r="D47" t="n">
-        <v>0.465498</v>
+        <v>0.52737</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.71397</v>
+        <v>0.792516</v>
       </c>
       <c r="C48" t="n">
-        <v>0.857698</v>
+        <v>0.965513</v>
       </c>
       <c r="D48" t="n">
-        <v>0.488614</v>
+        <v>0.5261940000000001</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.766282</v>
+        <v>0.8326170000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.920722</v>
+        <v>1.05804</v>
       </c>
       <c r="D49" t="n">
-        <v>0.506841</v>
+        <v>0.578839</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.803287</v>
+        <v>0.901935</v>
       </c>
       <c r="C50" t="n">
-        <v>0.982746</v>
+        <v>1.10493</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539618</v>
+        <v>0.594852</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.847398</v>
+        <v>0.957847</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03211</v>
+        <v>1.18489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.556355</v>
+        <v>0.627719</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9162439999999999</v>
+        <v>1.06439</v>
       </c>
       <c r="C52" t="n">
-        <v>1.09887</v>
+        <v>1.27689</v>
       </c>
       <c r="D52" t="n">
-        <v>0.590772</v>
+        <v>0.655579</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.958844</v>
+        <v>1.11649</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22543</v>
+        <v>1.3797</v>
       </c>
       <c r="D53" t="n">
-        <v>0.618976</v>
+        <v>0.693655</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02333</v>
+        <v>1.16528</v>
       </c>
       <c r="C54" t="n">
-        <v>0.744407</v>
+        <v>0.828064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439913</v>
+        <v>0.502673</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.086</v>
+        <v>1.34108</v>
       </c>
       <c r="C55" t="n">
-        <v>0.777078</v>
+        <v>0.872973</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461072</v>
+        <v>0.525079</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.22239</v>
+        <v>1.3605</v>
       </c>
       <c r="C56" t="n">
-        <v>0.842816</v>
+        <v>0.927363</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494326</v>
+        <v>0.5456029999999999</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27599</v>
+        <v>1.42752</v>
       </c>
       <c r="C57" t="n">
-        <v>0.888884</v>
+        <v>1.03609</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5046580000000001</v>
+        <v>0.59578</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.3337</v>
+        <v>1.62102</v>
       </c>
       <c r="C58" t="n">
-        <v>0.980557</v>
+        <v>1.15486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.535542</v>
+        <v>0.621328</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.47904</v>
+        <v>1.72843</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0292</v>
+        <v>1.19622</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565805</v>
+        <v>0.658234</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.941573</v>
+        <v>1.09603</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13685</v>
+        <v>1.30518</v>
       </c>
       <c r="D60" t="n">
-        <v>0.601402</v>
+        <v>0.687727</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01414</v>
+        <v>1.2021</v>
       </c>
       <c r="C61" t="n">
-        <v>1.21079</v>
+        <v>1.44602</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649062</v>
+        <v>0.714574</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08955</v>
+        <v>1.2679</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31723</v>
+        <v>1.51357</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711046</v>
+        <v>0.750412</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15536</v>
+        <v>1.43426</v>
       </c>
       <c r="C63" t="n">
-        <v>1.46288</v>
+        <v>1.64627</v>
       </c>
       <c r="D63" t="n">
-        <v>0.746982</v>
+        <v>0.814011</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.22552</v>
+        <v>1.51026</v>
       </c>
       <c r="C64" t="n">
-        <v>1.49668</v>
+        <v>1.77851</v>
       </c>
       <c r="D64" t="n">
-        <v>0.782556</v>
+        <v>0.88281</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42989</v>
+        <v>1.6338</v>
       </c>
       <c r="C65" t="n">
-        <v>1.6959</v>
+        <v>1.93419</v>
       </c>
       <c r="D65" t="n">
-        <v>0.793169</v>
+        <v>0.948971</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.51764</v>
+        <v>1.85497</v>
       </c>
       <c r="C66" t="n">
-        <v>1.94816</v>
+        <v>2.19819</v>
       </c>
       <c r="D66" t="n">
-        <v>0.857343</v>
+        <v>1.00197</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.602</v>
+        <v>1.97998</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03625</v>
+        <v>2.38301</v>
       </c>
       <c r="D67" t="n">
-        <v>0.931084</v>
+        <v>1.0598</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.76608</v>
+        <v>2.13471</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18174</v>
+        <v>1.42023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.618086</v>
+        <v>0.755376</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.91232</v>
+        <v>2.37802</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30625</v>
+        <v>1.61597</v>
       </c>
       <c r="D69" t="n">
-        <v>0.676113</v>
+        <v>0.806646</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.17039</v>
+        <v>2.53127</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47522</v>
+        <v>1.67506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.734087</v>
+        <v>0.8336519999999999</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.34159</v>
+        <v>2.73344</v>
       </c>
       <c r="C71" t="n">
-        <v>1.63552</v>
+        <v>1.8647</v>
       </c>
       <c r="D71" t="n">
-        <v>0.745204</v>
+        <v>0.875837</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.52827</v>
+        <v>2.95601</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69381</v>
+        <v>1.96372</v>
       </c>
       <c r="D72" t="n">
-        <v>0.823887</v>
+        <v>0.94394</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.68883</v>
+        <v>3.20336</v>
       </c>
       <c r="C73" t="n">
-        <v>1.86677</v>
+        <v>2.115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.854367</v>
+        <v>1.00849</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69573</v>
+        <v>1.98608</v>
       </c>
       <c r="C74" t="n">
-        <v>1.98836</v>
+        <v>2.21127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.930492</v>
+        <v>1.09632</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.78823</v>
+        <v>2.06733</v>
       </c>
       <c r="C75" t="n">
-        <v>2.20096</v>
+        <v>2.42449</v>
       </c>
       <c r="D75" t="n">
-        <v>0.996291</v>
+        <v>1.13756</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.90402</v>
+        <v>2.25725</v>
       </c>
       <c r="C76" t="n">
-        <v>2.31558</v>
+        <v>2.75877</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05917</v>
+        <v>1.25128</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.04891</v>
+        <v>2.37745</v>
       </c>
       <c r="C77" t="n">
-        <v>2.61927</v>
+        <v>2.83898</v>
       </c>
       <c r="D77" t="n">
-        <v>1.11339</v>
+        <v>1.36648</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19299</v>
+        <v>2.55491</v>
       </c>
       <c r="C78" t="n">
-        <v>2.78433</v>
+        <v>3.01663</v>
       </c>
       <c r="D78" t="n">
-        <v>1.28549</v>
+        <v>1.40881</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.39722</v>
+        <v>2.75196</v>
       </c>
       <c r="C79" t="n">
-        <v>3.08845</v>
+        <v>3.25401</v>
       </c>
       <c r="D79" t="n">
-        <v>1.27553</v>
+        <v>1.48421</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49002</v>
+        <v>2.86624</v>
       </c>
       <c r="C80" t="n">
-        <v>3.17774</v>
+        <v>3.56881</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35216</v>
+        <v>1.60716</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.67882</v>
+        <v>3.0209</v>
       </c>
       <c r="C81" t="n">
-        <v>3.37498</v>
+        <v>3.69179</v>
       </c>
       <c r="D81" t="n">
-        <v>1.46055</v>
+        <v>1.67312</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.81273</v>
+        <v>3.20905</v>
       </c>
       <c r="C82" t="n">
-        <v>3.60678</v>
+        <v>3.93948</v>
       </c>
       <c r="D82" t="n">
-        <v>1.54925</v>
+        <v>1.77812</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.04182</v>
+        <v>3.42588</v>
       </c>
       <c r="C83" t="n">
-        <v>2.03976</v>
+        <v>2.23363</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0276</v>
+        <v>1.19043</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.23461</v>
+        <v>3.65186</v>
       </c>
       <c r="C84" t="n">
-        <v>2.22939</v>
+        <v>2.41407</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10534</v>
+        <v>1.25628</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.44102</v>
+        <v>3.75317</v>
       </c>
       <c r="C85" t="n">
-        <v>2.34109</v>
+        <v>2.49287</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15154</v>
+        <v>1.33993</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.57035</v>
+        <v>3.93675</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55915</v>
+        <v>2.65137</v>
       </c>
       <c r="D86" t="n">
-        <v>1.28292</v>
+        <v>1.45004</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.96258</v>
+        <v>4.27286</v>
       </c>
       <c r="C87" t="n">
-        <v>2.79515</v>
+        <v>2.85211</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32247</v>
+        <v>1.48999</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.17141</v>
+        <v>4.59007</v>
       </c>
       <c r="C88" t="n">
-        <v>2.90208</v>
+        <v>3.20133</v>
       </c>
       <c r="D88" t="n">
-        <v>1.4163</v>
+        <v>1.59188</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39853</v>
+        <v>2.71021</v>
       </c>
       <c r="C89" t="n">
-        <v>2.97176</v>
+        <v>3.18706</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52763</v>
+        <v>1.71267</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.55852</v>
+        <v>2.77506</v>
       </c>
       <c r="C90" t="n">
-        <v>3.1702</v>
+        <v>3.36693</v>
       </c>
       <c r="D90" t="n">
-        <v>1.52608</v>
+        <v>1.75946</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.68853</v>
+        <v>2.93356</v>
       </c>
       <c r="C91" t="n">
-        <v>3.43402</v>
+        <v>3.51741</v>
       </c>
       <c r="D91" t="n">
-        <v>1.65506</v>
+        <v>1.80176</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88845</v>
+        <v>3.07025</v>
       </c>
       <c r="C92" t="n">
-        <v>3.56091</v>
+        <v>3.76829</v>
       </c>
       <c r="D92" t="n">
-        <v>1.70852</v>
+        <v>1.96222</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96011</v>
+        <v>3.17128</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74431</v>
+        <v>4.0454</v>
       </c>
       <c r="D93" t="n">
-        <v>1.79318</v>
+        <v>2.05968</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.04028</v>
+        <v>3.43364</v>
       </c>
       <c r="C94" t="n">
-        <v>3.93317</v>
+        <v>4.19642</v>
       </c>
       <c r="D94" t="n">
-        <v>1.89046</v>
+        <v>2.14723</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.29353</v>
+        <v>3.60464</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1394</v>
+        <v>4.59804</v>
       </c>
       <c r="D95" t="n">
-        <v>2.08546</v>
+        <v>2.20676</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.43376</v>
+        <v>3.80121</v>
       </c>
       <c r="C96" t="n">
-        <v>4.47995</v>
+        <v>4.78984</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07583</v>
+        <v>2.34737</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.71194</v>
+        <v>3.98372</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6622</v>
+        <v>2.68385</v>
       </c>
       <c r="D97" t="n">
-        <v>1.39332</v>
+        <v>1.55217</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.84538</v>
+        <v>4.08835</v>
       </c>
       <c r="C98" t="n">
-        <v>2.68429</v>
+        <v>2.85818</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47171</v>
+        <v>1.66325</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.07515</v>
+        <v>4.41442</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82369</v>
+        <v>2.94524</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53207</v>
+        <v>1.69808</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.19371</v>
+        <v>4.59498</v>
       </c>
       <c r="C100" t="n">
-        <v>3.08247</v>
+        <v>3.16902</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59933</v>
+        <v>1.793</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.4361</v>
+        <v>4.6839</v>
       </c>
       <c r="C101" t="n">
-        <v>3.12517</v>
+        <v>3.33721</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72207</v>
+        <v>1.93627</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.58946</v>
+        <v>4.93817</v>
       </c>
       <c r="C102" t="n">
-        <v>3.34529</v>
+        <v>3.39415</v>
       </c>
       <c r="D102" t="n">
-        <v>1.853</v>
+        <v>1.95988</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6954</v>
+        <v>2.88853</v>
       </c>
       <c r="C103" t="n">
-        <v>3.49827</v>
+        <v>3.52453</v>
       </c>
       <c r="D103" t="n">
-        <v>1.87112</v>
+        <v>2.05783</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.78388</v>
+        <v>3.09477</v>
       </c>
       <c r="C104" t="n">
-        <v>3.69803</v>
+        <v>3.80614</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87312</v>
+        <v>2.12486</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.97561</v>
+        <v>3.20088</v>
       </c>
       <c r="C105" t="n">
-        <v>3.91054</v>
+        <v>4.03813</v>
       </c>
       <c r="D105" t="n">
-        <v>1.97085</v>
+        <v>2.18834</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.11476</v>
+        <v>3.37795</v>
       </c>
       <c r="C106" t="n">
-        <v>4.14174</v>
+        <v>4.30855</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07464</v>
+        <v>2.32416</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.21488</v>
+        <v>3.55932</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28737</v>
+        <v>4.51193</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18026</v>
+        <v>2.41957</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.39084</v>
+        <v>3.71388</v>
       </c>
       <c r="C108" t="n">
-        <v>4.4881</v>
+        <v>4.71284</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31164</v>
+        <v>2.5101</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.55835</v>
+        <v>3.8738</v>
       </c>
       <c r="C109" t="n">
-        <v>4.7414</v>
+        <v>4.96258</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36753</v>
+        <v>2.63071</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74474</v>
+        <v>4.09955</v>
       </c>
       <c r="C110" t="n">
-        <v>5.00491</v>
+        <v>5.16386</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53856</v>
+        <v>2.74373</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.92201</v>
+        <v>4.26107</v>
       </c>
       <c r="C111" t="n">
-        <v>2.76308</v>
+        <v>2.94076</v>
       </c>
       <c r="D111" t="n">
-        <v>1.70228</v>
+        <v>1.86656</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.18216</v>
+        <v>4.50892</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9375</v>
+        <v>3.04179</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74034</v>
+        <v>1.98668</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3247</v>
+        <v>4.73821</v>
       </c>
       <c r="C113" t="n">
-        <v>3.09485</v>
+        <v>3.26323</v>
       </c>
       <c r="D113" t="n">
-        <v>1.87585</v>
+        <v>2.08259</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58923</v>
+        <v>4.90155</v>
       </c>
       <c r="C114" t="n">
-        <v>3.22041</v>
+        <v>3.35339</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87309</v>
+        <v>2.10962</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.73827</v>
+        <v>5.163</v>
       </c>
       <c r="C115" t="n">
-        <v>3.39126</v>
+        <v>3.50983</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96058</v>
+        <v>2.20073</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97852</v>
+        <v>5.43124</v>
       </c>
       <c r="C116" t="n">
-        <v>3.53817</v>
+        <v>3.6598</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12333</v>
+        <v>2.37219</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.88457</v>
+        <v>3.07995</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75135</v>
+        <v>3.86235</v>
       </c>
       <c r="D117" t="n">
-        <v>2.09144</v>
+        <v>2.391</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.01571</v>
+        <v>3.259</v>
       </c>
       <c r="C118" t="n">
-        <v>3.99949</v>
+        <v>4.13783</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26063</v>
+        <v>2.47587</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.13576</v>
+        <v>3.42726</v>
       </c>
       <c r="C119" t="n">
-        <v>4.11765</v>
+        <v>4.31923</v>
       </c>
       <c r="D119" t="n">
-        <v>2.28993</v>
+        <v>2.66577</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235134</v>
+        <v>0.226637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226322</v>
+        <v>0.221592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.231626</v>
+        <v>0.234741</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228979</v>
+        <v>0.228939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.220706</v>
+        <v>0.226196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242352</v>
+        <v>0.24156</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228696</v>
+        <v>0.241454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229752</v>
+        <v>0.236101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251787</v>
+        <v>0.254563</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241892</v>
+        <v>0.242167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238306</v>
+        <v>0.236373</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25981</v>
+        <v>0.250336</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.24454</v>
+        <v>0.244427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247392</v>
+        <v>0.247432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262568</v>
+        <v>0.26083</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.252625</v>
+        <v>0.241764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200576</v>
+        <v>0.199068</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212469</v>
+        <v>0.220185</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251372</v>
+        <v>0.25225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19999</v>
+        <v>0.204468</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222967</v>
+        <v>0.227349</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257698</v>
+        <v>0.253325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199655</v>
+        <v>0.203468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22901</v>
+        <v>0.233966</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.264205</v>
+        <v>0.259649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20729</v>
+        <v>0.206467</v>
       </c>
       <c r="D10" t="n">
-        <v>0.238776</v>
+        <v>0.235812</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.259936</v>
+        <v>0.261803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216201</v>
+        <v>0.215854</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242793</v>
+        <v>0.242407</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.270434</v>
+        <v>0.26734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226244</v>
+        <v>0.226743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24942</v>
+        <v>0.24991</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223914</v>
+        <v>0.229637</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230925</v>
+        <v>0.224908</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257165</v>
+        <v>0.257147</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.226937</v>
+        <v>0.227318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231209</v>
+        <v>0.234611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267462</v>
+        <v>0.264205</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.236863</v>
+        <v>0.228094</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236739</v>
+        <v>0.238025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267615</v>
+        <v>0.275978</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.236457</v>
+        <v>0.238355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.248787</v>
+        <v>0.247737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275989</v>
+        <v>0.268481</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.241564</v>
+        <v>0.253506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253321</v>
+        <v>0.246583</v>
       </c>
       <c r="D17" t="n">
-        <v>0.278113</v>
+        <v>0.279252</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244292</v>
+        <v>0.240151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25543</v>
+        <v>0.252526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305071</v>
+        <v>0.287514</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260837</v>
+        <v>0.254223</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265881</v>
+        <v>0.264115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.290119</v>
+        <v>0.289111</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252485</v>
+        <v>0.262576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.270794</v>
+        <v>0.267919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.293492</v>
+        <v>0.30571</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.258479</v>
+        <v>0.259779</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199699</v>
+        <v>0.20524</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23603</v>
+        <v>0.227058</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.269706</v>
+        <v>0.265776</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20765</v>
+        <v>0.208608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240715</v>
+        <v>0.240772</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265515</v>
+        <v>0.272002</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212427</v>
+        <v>0.216809</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245861</v>
+        <v>0.246359</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275783</v>
+        <v>0.269164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22204</v>
+        <v>0.221157</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247617</v>
+        <v>0.245706</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274813</v>
+        <v>0.277644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.242013</v>
+        <v>0.235416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258802</v>
+        <v>0.25557</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.283384</v>
+        <v>0.28743</v>
       </c>
       <c r="C26" t="n">
-        <v>0.235689</v>
+        <v>0.230659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267251</v>
+        <v>0.27115</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.245102</v>
+        <v>0.246087</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243266</v>
+        <v>0.233141</v>
       </c>
       <c r="D27" t="n">
-        <v>0.28642</v>
+        <v>0.281346</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.25245</v>
+        <v>0.253158</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249588</v>
+        <v>0.260248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.296576</v>
+        <v>0.28695</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275207</v>
+        <v>0.253288</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261734</v>
+        <v>0.252902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.304985</v>
+        <v>0.296954</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.267032</v>
+        <v>0.269052</v>
       </c>
       <c r="C30" t="n">
-        <v>0.273576</v>
+        <v>0.266101</v>
       </c>
       <c r="D30" t="n">
-        <v>0.309258</v>
+        <v>0.296813</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.275667</v>
+        <v>0.282621</v>
       </c>
       <c r="C31" t="n">
-        <v>0.270695</v>
+        <v>0.264371</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318616</v>
+        <v>0.300669</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285241</v>
+        <v>0.289548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279415</v>
+        <v>0.280903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321486</v>
+        <v>0.30811</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.289839</v>
+        <v>0.299352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290127</v>
+        <v>0.29528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.330333</v>
+        <v>0.335426</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.295479</v>
+        <v>0.305076</v>
       </c>
       <c r="C34" t="n">
-        <v>0.291052</v>
+        <v>0.297837</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347444</v>
+        <v>0.3564</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.319835</v>
+        <v>0.316386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234701</v>
+        <v>0.231234</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271502</v>
+        <v>0.269414</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.325616</v>
+        <v>0.33193</v>
       </c>
       <c r="C36" t="n">
-        <v>0.240993</v>
+        <v>0.238303</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283615</v>
+        <v>0.286432</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.338724</v>
+        <v>0.336907</v>
       </c>
       <c r="C37" t="n">
-        <v>0.250911</v>
+        <v>0.247223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296501</v>
+        <v>0.288691</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.344374</v>
+        <v>0.34115</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260001</v>
+        <v>0.252872</v>
       </c>
       <c r="D38" t="n">
-        <v>0.307885</v>
+        <v>0.295719</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344416</v>
+        <v>0.350664</v>
       </c>
       <c r="C39" t="n">
-        <v>0.269043</v>
+        <v>0.284166</v>
       </c>
       <c r="D39" t="n">
-        <v>0.315941</v>
+        <v>0.306982</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.358167</v>
+        <v>0.360112</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283686</v>
+        <v>0.278438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.334801</v>
+        <v>0.318593</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.324837</v>
+        <v>0.330031</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298492</v>
+        <v>0.299947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.341178</v>
+        <v>0.346162</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.343199</v>
+        <v>0.333622</v>
       </c>
       <c r="C42" t="n">
-        <v>0.311506</v>
+        <v>0.307264</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35614</v>
+        <v>0.347474</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.357296</v>
+        <v>0.357941</v>
       </c>
       <c r="C43" t="n">
-        <v>0.324453</v>
+        <v>0.317515</v>
       </c>
       <c r="D43" t="n">
-        <v>0.375574</v>
+        <v>0.362097</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.357815</v>
+        <v>0.364568</v>
       </c>
       <c r="C44" t="n">
-        <v>0.331767</v>
+        <v>0.324744</v>
       </c>
       <c r="D44" t="n">
-        <v>0.381056</v>
+        <v>0.380729</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.382989</v>
+        <v>0.380862</v>
       </c>
       <c r="C45" t="n">
-        <v>0.34243</v>
+        <v>0.349796</v>
       </c>
       <c r="D45" t="n">
-        <v>0.408012</v>
+        <v>0.396307</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.38379</v>
+        <v>0.385988</v>
       </c>
       <c r="C46" t="n">
-        <v>0.349517</v>
+        <v>0.353578</v>
       </c>
       <c r="D46" t="n">
-        <v>0.413795</v>
+        <v>0.39961</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.402916</v>
+        <v>0.401731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.370477</v>
+        <v>0.36259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427266</v>
+        <v>0.434404</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.419348</v>
+        <v>0.421489</v>
       </c>
       <c r="C48" t="n">
-        <v>0.38934</v>
+        <v>0.394127</v>
       </c>
       <c r="D48" t="n">
-        <v>0.451175</v>
+        <v>0.451609</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.426928</v>
+        <v>0.427728</v>
       </c>
       <c r="C49" t="n">
-        <v>0.404786</v>
+        <v>0.410251</v>
       </c>
       <c r="D49" t="n">
-        <v>0.47136</v>
+        <v>0.464927</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461728</v>
+        <v>0.469449</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315394</v>
+        <v>0.323591</v>
       </c>
       <c r="D50" t="n">
-        <v>0.366252</v>
+        <v>0.371144</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.46392</v>
+        <v>0.471934</v>
       </c>
       <c r="C51" t="n">
-        <v>0.342599</v>
+        <v>0.325618</v>
       </c>
       <c r="D51" t="n">
-        <v>0.384819</v>
+        <v>0.392681</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.484033</v>
+        <v>0.503211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.370446</v>
+        <v>0.356868</v>
       </c>
       <c r="D52" t="n">
-        <v>0.40544</v>
+        <v>0.415493</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.506464</v>
+        <v>0.507768</v>
       </c>
       <c r="C53" t="n">
-        <v>0.369229</v>
+        <v>0.361812</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431264</v>
+        <v>0.432651</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.514834</v>
+        <v>0.529201</v>
       </c>
       <c r="C54" t="n">
-        <v>0.37877</v>
+        <v>0.390267</v>
       </c>
       <c r="D54" t="n">
-        <v>0.441471</v>
+        <v>0.452143</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.555832</v>
+        <v>0.563819</v>
       </c>
       <c r="C55" t="n">
-        <v>0.399278</v>
+        <v>0.419316</v>
       </c>
       <c r="D55" t="n">
-        <v>0.468276</v>
+        <v>0.492677</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.510707</v>
+        <v>0.5190439999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4413</v>
+        <v>0.449975</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494683</v>
+        <v>0.493071</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.528193</v>
+        <v>0.556178</v>
       </c>
       <c r="C57" t="n">
-        <v>0.447691</v>
+        <v>0.443506</v>
       </c>
       <c r="D57" t="n">
-        <v>0.544735</v>
+        <v>0.510308</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5603860000000001</v>
+        <v>0.586279</v>
       </c>
       <c r="C58" t="n">
-        <v>0.469223</v>
+        <v>0.478499</v>
       </c>
       <c r="D58" t="n">
-        <v>0.533485</v>
+        <v>0.553285</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.597535</v>
+        <v>0.598414</v>
       </c>
       <c r="C59" t="n">
-        <v>0.496595</v>
+        <v>0.49745</v>
       </c>
       <c r="D59" t="n">
-        <v>0.572532</v>
+        <v>0.5885629999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.625272</v>
+        <v>0.619557</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5076619999999999</v>
+        <v>0.521828</v>
       </c>
       <c r="D60" t="n">
-        <v>0.594587</v>
+        <v>0.615313</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661023</v>
+        <v>0.65323</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545423</v>
+        <v>0.558774</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6282799999999999</v>
+        <v>0.661565</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.687799</v>
+        <v>0.668704</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5737139999999999</v>
+        <v>0.585363</v>
       </c>
       <c r="D62" t="n">
-        <v>0.695892</v>
+        <v>0.654544</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.724271</v>
+        <v>0.6922739999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.596848</v>
+        <v>0.614277</v>
       </c>
       <c r="D63" t="n">
-        <v>0.719218</v>
+        <v>0.715068</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.751628</v>
+        <v>0.726126</v>
       </c>
       <c r="C64" t="n">
-        <v>0.524231</v>
+        <v>0.5165650000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.622337</v>
+        <v>0.612552</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.775267</v>
+        <v>0.774436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.550364</v>
+        <v>0.559365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.654542</v>
+        <v>0.6453719999999999</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.816354</v>
+        <v>0.795444</v>
       </c>
       <c r="C66" t="n">
-        <v>0.582305</v>
+        <v>0.560532</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6660430000000001</v>
+        <v>0.665111</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8495200000000001</v>
+        <v>0.799014</v>
       </c>
       <c r="C67" t="n">
-        <v>0.57902</v>
+        <v>0.576612</v>
       </c>
       <c r="D67" t="n">
-        <v>0.701716</v>
+        <v>0.683299</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.852128</v>
+        <v>0.830547</v>
       </c>
       <c r="C68" t="n">
-        <v>0.616831</v>
+        <v>0.604567</v>
       </c>
       <c r="D68" t="n">
-        <v>0.734835</v>
+        <v>0.717179</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.884291</v>
+        <v>0.856568</v>
       </c>
       <c r="C69" t="n">
-        <v>0.673074</v>
+        <v>0.622861</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7281029999999999</v>
+        <v>0.755018</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.732652</v>
+        <v>0.743104</v>
       </c>
       <c r="C70" t="n">
-        <v>0.677749</v>
+        <v>0.692788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.777209</v>
+        <v>0.797953</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.751642</v>
+        <v>0.778053</v>
       </c>
       <c r="C71" t="n">
-        <v>0.696048</v>
+        <v>0.748569</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7915</v>
+        <v>0.850344</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.780094</v>
+        <v>0.804027</v>
       </c>
       <c r="C72" t="n">
-        <v>0.736232</v>
+        <v>0.761178</v>
       </c>
       <c r="D72" t="n">
-        <v>0.85547</v>
+        <v>0.8809940000000001</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.805272</v>
+        <v>0.802512</v>
       </c>
       <c r="C73" t="n">
-        <v>0.78056</v>
+        <v>0.799805</v>
       </c>
       <c r="D73" t="n">
-        <v>0.920339</v>
+        <v>0.920537</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.816472</v>
+        <v>0.821504</v>
       </c>
       <c r="C74" t="n">
-        <v>0.787321</v>
+        <v>0.794376</v>
       </c>
       <c r="D74" t="n">
-        <v>0.943688</v>
+        <v>0.955958</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.85102</v>
+        <v>0.874241</v>
       </c>
       <c r="C75" t="n">
-        <v>0.840865</v>
+        <v>0.8596510000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.975411</v>
+        <v>0.9950830000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.885798</v>
+        <v>0.898871</v>
       </c>
       <c r="C76" t="n">
-        <v>0.897101</v>
+        <v>0.888543</v>
       </c>
       <c r="D76" t="n">
-        <v>1.01995</v>
+        <v>1.0045</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.910398</v>
+        <v>0.921774</v>
       </c>
       <c r="C77" t="n">
-        <v>0.906622</v>
+        <v>0.949804</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03242</v>
+        <v>1.05669</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.96394</v>
+        <v>0.936509</v>
       </c>
       <c r="C78" t="n">
-        <v>0.722278</v>
+        <v>0.7296010000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.879506</v>
+        <v>0.897054</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.980537</v>
+        <v>0.987076</v>
       </c>
       <c r="C79" t="n">
-        <v>0.758966</v>
+        <v>0.784926</v>
       </c>
       <c r="D79" t="n">
-        <v>0.906345</v>
+        <v>0.9405520000000001</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.997202</v>
+        <v>1.02247</v>
       </c>
       <c r="C80" t="n">
-        <v>0.779328</v>
+        <v>0.788073</v>
       </c>
       <c r="D80" t="n">
-        <v>0.935513</v>
+        <v>0.9572000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.04206</v>
+        <v>1.07413</v>
       </c>
       <c r="C81" t="n">
-        <v>0.80187</v>
+        <v>0.838875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.978966</v>
+        <v>0.992966</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06383</v>
+        <v>1.07284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.846692</v>
+        <v>0.860383</v>
       </c>
       <c r="D82" t="n">
-        <v>0.99721</v>
+        <v>1.03723</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12502</v>
+        <v>1.13383</v>
       </c>
       <c r="C83" t="n">
-        <v>0.861865</v>
+        <v>0.8638710000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04882</v>
+        <v>1.06963</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.904154</v>
+        <v>0.89713</v>
       </c>
       <c r="C84" t="n">
-        <v>0.879225</v>
+        <v>0.902502</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09738</v>
+        <v>1.12859</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.902768</v>
+        <v>0.9135490000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9422430000000001</v>
+        <v>0.938886</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12243</v>
+        <v>1.14305</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.934532</v>
+        <v>0.939692</v>
       </c>
       <c r="C86" t="n">
-        <v>0.959266</v>
+        <v>0.974836</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14408</v>
+        <v>1.20758</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.953206</v>
+        <v>0.972816</v>
       </c>
       <c r="C87" t="n">
-        <v>0.962067</v>
+        <v>1.00129</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18631</v>
+        <v>1.2219</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.969183</v>
+        <v>0.993364</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04775</v>
+        <v>1.05606</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23333</v>
+        <v>1.30414</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00403</v>
+        <v>1.03133</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08493</v>
+        <v>1.06112</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27171</v>
+        <v>1.31092</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06896</v>
+        <v>1.02597</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1026</v>
+        <v>1.1337</v>
       </c>
       <c r="D90" t="n">
-        <v>1.32521</v>
+        <v>1.36331</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06282</v>
+        <v>1.08068</v>
       </c>
       <c r="C91" t="n">
-        <v>1.12607</v>
+        <v>1.12648</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36413</v>
+        <v>1.39106</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.10771</v>
+        <v>1.10784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.861386</v>
+        <v>0.889162</v>
       </c>
       <c r="D92" t="n">
-        <v>1.09564</v>
+        <v>1.12779</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.12645</v>
+        <v>1.15176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.91221</v>
+        <v>0.906528</v>
       </c>
       <c r="D93" t="n">
-        <v>1.17629</v>
+        <v>1.17427</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.17242</v>
+        <v>1.1774</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9416060000000001</v>
+        <v>0.9141</v>
       </c>
       <c r="D94" t="n">
-        <v>1.15628</v>
+        <v>1.17493</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19394</v>
+        <v>1.2166</v>
       </c>
       <c r="C95" t="n">
-        <v>0.948053</v>
+        <v>0.972485</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21449</v>
+        <v>1.21443</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.24147</v>
+        <v>1.21578</v>
       </c>
       <c r="C96" t="n">
-        <v>0.991642</v>
+        <v>0.978701</v>
       </c>
       <c r="D96" t="n">
-        <v>1.24664</v>
+        <v>1.25741</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2825</v>
+        <v>1.25419</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00067</v>
+        <v>1.00128</v>
       </c>
       <c r="D97" t="n">
-        <v>1.28898</v>
+        <v>1.29181</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.990806</v>
+        <v>0.965755</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0384</v>
+        <v>1.03211</v>
       </c>
       <c r="D98" t="n">
-        <v>1.3181</v>
+        <v>1.34341</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01101</v>
+        <v>1.02417</v>
       </c>
       <c r="C99" t="n">
-        <v>1.07072</v>
+        <v>1.07188</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35841</v>
+        <v>1.34886</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03422</v>
+        <v>1.03881</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09549</v>
+        <v>1.09924</v>
       </c>
       <c r="D100" t="n">
-        <v>1.37431</v>
+        <v>1.41763</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07816</v>
+        <v>1.07215</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14775</v>
+        <v>1.12452</v>
       </c>
       <c r="D101" t="n">
-        <v>1.41964</v>
+        <v>1.44247</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08559</v>
+        <v>1.09826</v>
       </c>
       <c r="C102" t="n">
-        <v>1.19763</v>
+        <v>1.1697</v>
       </c>
       <c r="D102" t="n">
-        <v>1.49191</v>
+        <v>1.50553</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.13042</v>
+        <v>1.11733</v>
       </c>
       <c r="C103" t="n">
-        <v>1.18657</v>
+        <v>1.20419</v>
       </c>
       <c r="D103" t="n">
-        <v>1.53108</v>
+        <v>1.5517</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.14042</v>
+        <v>1.1517</v>
       </c>
       <c r="C104" t="n">
-        <v>1.22462</v>
+        <v>1.2337</v>
       </c>
       <c r="D104" t="n">
-        <v>1.57089</v>
+        <v>1.54585</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.15748</v>
+        <v>1.17977</v>
       </c>
       <c r="C105" t="n">
-        <v>1.28125</v>
+        <v>1.26408</v>
       </c>
       <c r="D105" t="n">
-        <v>1.62644</v>
+        <v>1.66126</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.20612</v>
+        <v>1.23006</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31729</v>
+        <v>1.31776</v>
       </c>
       <c r="D106" t="n">
-        <v>1.69369</v>
+        <v>1.66527</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22953</v>
+        <v>1.22318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9952530000000001</v>
+        <v>0.980277</v>
       </c>
       <c r="D107" t="n">
-        <v>1.31198</v>
+        <v>1.3238</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.25209</v>
+        <v>1.28423</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01057</v>
+        <v>1.04027</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3252</v>
+        <v>1.3353</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.29611</v>
+        <v>1.35404</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04981</v>
+        <v>1.07172</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3723</v>
+        <v>1.37465</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.31766</v>
+        <v>1.35033</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05972</v>
+        <v>1.09502</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38054</v>
+        <v>1.44383</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33731</v>
+        <v>1.37152</v>
       </c>
       <c r="C111" t="n">
-        <v>1.08765</v>
+        <v>1.11181</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43855</v>
+        <v>1.48783</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04335</v>
+        <v>1.15254</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11901</v>
+        <v>1.17622</v>
       </c>
       <c r="D112" t="n">
-        <v>1.4683</v>
+        <v>1.50917</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.09952</v>
+        <v>1.20283</v>
       </c>
       <c r="C113" t="n">
-        <v>1.13945</v>
+        <v>1.12977</v>
       </c>
       <c r="D113" t="n">
-        <v>1.57912</v>
+        <v>1.56909</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12543</v>
+        <v>1.17849</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16477</v>
+        <v>1.2204</v>
       </c>
       <c r="D114" t="n">
-        <v>1.55918</v>
+        <v>1.56906</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11253</v>
+        <v>1.30331</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20866</v>
+        <v>1.22709</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56418</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18903</v>
+        <v>1.2233</v>
       </c>
       <c r="C116" t="n">
-        <v>1.24594</v>
+        <v>1.31802</v>
       </c>
       <c r="D116" t="n">
-        <v>1.61696</v>
+        <v>1.71547</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.21424</v>
+        <v>1.28285</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27867</v>
+        <v>1.2806</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66727</v>
+        <v>1.7271</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2405</v>
+        <v>1.30593</v>
       </c>
       <c r="C118" t="n">
-        <v>1.33449</v>
+        <v>1.33855</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75183</v>
+        <v>1.75768</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25653</v>
+        <v>1.33989</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34678</v>
+        <v>1.35746</v>
       </c>
       <c r="D119" t="n">
-        <v>1.76807</v>
+        <v>1.78463</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189678</v>
+        <v>0.190321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189443</v>
+        <v>0.188213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144715</v>
+        <v>0.149404</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190496</v>
+        <v>0.190956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190484</v>
+        <v>0.188749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14762</v>
+        <v>0.150529</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198105</v>
+        <v>0.194408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195188</v>
+        <v>0.201025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149776</v>
+        <v>0.15231</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199685</v>
+        <v>0.20127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205612</v>
+        <v>0.202318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.151459</v>
+        <v>0.16373</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.201952</v>
+        <v>0.210278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211594</v>
+        <v>0.2104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155225</v>
+        <v>0.160608</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213128</v>
+        <v>0.208678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.165107</v>
+        <v>0.170277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14353</v>
+        <v>0.147123</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22345</v>
+        <v>0.21799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.169004</v>
+        <v>0.169532</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142532</v>
+        <v>0.146963</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.221297</v>
+        <v>0.223476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.175109</v>
+        <v>0.177365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.147359</v>
+        <v>0.149263</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233877</v>
+        <v>0.234672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178487</v>
+        <v>0.185328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153242</v>
+        <v>0.151556</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238588</v>
+        <v>0.235809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181898</v>
+        <v>0.181207</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164299</v>
+        <v>0.155356</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2424</v>
+        <v>0.244154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185744</v>
+        <v>0.18712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.156789</v>
+        <v>0.159888</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.198212</v>
+        <v>0.192656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197546</v>
+        <v>0.189927</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160245</v>
+        <v>0.159797</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.19701</v>
+        <v>0.200227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199031</v>
+        <v>0.200257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16822</v>
+        <v>0.162877</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202966</v>
+        <v>0.200223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204139</v>
+        <v>0.203972</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166006</v>
+        <v>0.173038</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208663</v>
+        <v>0.206085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212595</v>
+        <v>0.219318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17373</v>
+        <v>0.175194</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.215802</v>
+        <v>0.212065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220703</v>
+        <v>0.225176</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174909</v>
+        <v>0.179725</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.208936</v>
+        <v>0.221043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220765</v>
+        <v>0.227892</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17917</v>
+        <v>0.181042</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.218809</v>
+        <v>0.230197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235567</v>
+        <v>0.228261</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186204</v>
+        <v>0.188049</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.222517</v>
+        <v>0.233123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.24077</v>
+        <v>0.245049</v>
       </c>
       <c r="D20" t="n">
-        <v>0.186599</v>
+        <v>0.18138</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228772</v>
+        <v>0.228496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.177416</v>
+        <v>0.183297</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15807</v>
+        <v>0.167204</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235792</v>
+        <v>0.235673</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18757</v>
+        <v>0.18323</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167243</v>
+        <v>0.161572</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252249</v>
+        <v>0.245757</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194064</v>
+        <v>0.195111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164614</v>
+        <v>0.167559</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.255845</v>
+        <v>0.247135</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197522</v>
+        <v>0.201082</v>
       </c>
       <c r="D24" t="n">
-        <v>0.170001</v>
+        <v>0.167371</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261407</v>
+        <v>0.261025</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205943</v>
+        <v>0.200684</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180074</v>
+        <v>0.173855</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268787</v>
+        <v>0.274325</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211508</v>
+        <v>0.221274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.174688</v>
+        <v>0.17941</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.240536</v>
+        <v>0.232552</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216122</v>
+        <v>0.213115</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176231</v>
+        <v>0.180804</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.232786</v>
+        <v>0.242501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.214946</v>
+        <v>0.217778</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180049</v>
+        <v>0.182213</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.238449</v>
+        <v>0.241418</v>
       </c>
       <c r="C29" t="n">
-        <v>0.228743</v>
+        <v>0.227737</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187117</v>
+        <v>0.187119</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.252459</v>
+        <v>0.245656</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244214</v>
+        <v>0.239005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206666</v>
+        <v>0.198628</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.251943</v>
+        <v>0.253812</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237972</v>
+        <v>0.246577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.192389</v>
+        <v>0.197671</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.264089</v>
+        <v>0.264195</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250118</v>
+        <v>0.25939</v>
       </c>
       <c r="D32" t="n">
-        <v>0.197166</v>
+        <v>0.202896</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278748</v>
+        <v>0.28009</v>
       </c>
       <c r="C33" t="n">
-        <v>0.270965</v>
+        <v>0.27589</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207276</v>
+        <v>0.202929</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275375</v>
+        <v>0.285397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278539</v>
+        <v>0.295106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.215555</v>
+        <v>0.214401</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293213</v>
+        <v>0.293994</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223706</v>
+        <v>0.235242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.185363</v>
+        <v>0.189032</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.306629</v>
+        <v>0.30538</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228857</v>
+        <v>0.232045</v>
       </c>
       <c r="D36" t="n">
-        <v>0.193138</v>
+        <v>0.198644</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.314739</v>
+        <v>0.313477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241984</v>
+        <v>0.245213</v>
       </c>
       <c r="D37" t="n">
-        <v>0.196112</v>
+        <v>0.203028</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348216</v>
+        <v>0.337984</v>
       </c>
       <c r="C38" t="n">
-        <v>0.249311</v>
+        <v>0.252556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1967</v>
+        <v>0.20847</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345444</v>
+        <v>0.344839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255986</v>
+        <v>0.258409</v>
       </c>
       <c r="D39" t="n">
-        <v>0.208788</v>
+        <v>0.207448</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.360968</v>
+        <v>0.35029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269987</v>
+        <v>0.264587</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218791</v>
+        <v>0.21416</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.313163</v>
+        <v>0.313221</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272822</v>
+        <v>0.290757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.213065</v>
+        <v>0.225651</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323238</v>
+        <v>0.335685</v>
       </c>
       <c r="C42" t="n">
-        <v>0.285813</v>
+        <v>0.285642</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229301</v>
+        <v>0.227681</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337607</v>
+        <v>0.344815</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304204</v>
+        <v>0.304169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.234613</v>
+        <v>0.228659</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.357748</v>
+        <v>0.351791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31851</v>
+        <v>0.308636</v>
       </c>
       <c r="D44" t="n">
-        <v>0.242824</v>
+        <v>0.234047</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.361434</v>
+        <v>0.37679</v>
       </c>
       <c r="C45" t="n">
-        <v>0.330424</v>
+        <v>0.328505</v>
       </c>
       <c r="D45" t="n">
-        <v>0.263859</v>
+        <v>0.254408</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.377747</v>
+        <v>0.398372</v>
       </c>
       <c r="C46" t="n">
-        <v>0.336536</v>
+        <v>0.347368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255628</v>
+        <v>0.249898</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.392357</v>
+        <v>0.397299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.351572</v>
+        <v>0.361171</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276129</v>
+        <v>0.272119</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.434959</v>
+        <v>0.412203</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373427</v>
+        <v>0.377479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.273305</v>
+        <v>0.269049</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.42622</v>
+        <v>0.43129</v>
       </c>
       <c r="C49" t="n">
-        <v>0.406141</v>
+        <v>0.39605</v>
       </c>
       <c r="D49" t="n">
-        <v>0.281219</v>
+        <v>0.292753</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.436867</v>
+        <v>0.442508</v>
       </c>
       <c r="C50" t="n">
-        <v>0.341475</v>
+        <v>0.326031</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241774</v>
+        <v>0.244517</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.467514</v>
+        <v>0.469481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.336619</v>
+        <v>0.341596</v>
       </c>
       <c r="D51" t="n">
-        <v>0.247482</v>
+        <v>0.256569</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48815</v>
+        <v>0.48886</v>
       </c>
       <c r="C52" t="n">
-        <v>0.34415</v>
+        <v>0.342151</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260879</v>
+        <v>0.273719</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.506569</v>
+        <v>0.512734</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358274</v>
+        <v>0.378402</v>
       </c>
       <c r="D53" t="n">
-        <v>0.270982</v>
+        <v>0.264491</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.522204</v>
+        <v>0.551929</v>
       </c>
       <c r="C54" t="n">
-        <v>0.384778</v>
+        <v>0.397389</v>
       </c>
       <c r="D54" t="n">
-        <v>0.278375</v>
+        <v>0.28179</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.571489</v>
+        <v>0.579552</v>
       </c>
       <c r="C55" t="n">
-        <v>0.403638</v>
+        <v>0.403281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.284998</v>
+        <v>0.291777</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5159</v>
+        <v>0.544933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.445383</v>
+        <v>0.418355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.300545</v>
+        <v>0.291547</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.55174</v>
+        <v>0.53011</v>
       </c>
       <c r="C57" t="n">
-        <v>0.461027</v>
+        <v>0.460448</v>
       </c>
       <c r="D57" t="n">
-        <v>0.307037</v>
+        <v>0.322897</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.561764</v>
+        <v>0.567512</v>
       </c>
       <c r="C58" t="n">
-        <v>0.466656</v>
+        <v>0.461418</v>
       </c>
       <c r="D58" t="n">
-        <v>0.321746</v>
+        <v>0.319655</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.626095</v>
+        <v>0.5890919999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.49988</v>
+        <v>0.511279</v>
       </c>
       <c r="D59" t="n">
-        <v>0.338188</v>
+        <v>0.33731</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.619069</v>
+        <v>0.610197</v>
       </c>
       <c r="C60" t="n">
-        <v>0.547073</v>
+        <v>0.538118</v>
       </c>
       <c r="D60" t="n">
-        <v>0.356927</v>
+        <v>0.346931</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.647093</v>
+        <v>0.655856</v>
       </c>
       <c r="C61" t="n">
-        <v>0.57383</v>
+        <v>0.550818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.371489</v>
+        <v>0.368574</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.690716</v>
+        <v>0.6726220000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.61688</v>
+        <v>0.594564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.392477</v>
+        <v>0.375563</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.718288</v>
+        <v>0.704255</v>
       </c>
       <c r="C63" t="n">
-        <v>0.639869</v>
+        <v>0.634969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.420396</v>
+        <v>0.389101</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.76366</v>
+        <v>0.7910199999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.551413</v>
+        <v>0.52962</v>
       </c>
       <c r="D64" t="n">
-        <v>0.384962</v>
+        <v>0.388418</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.795625</v>
+        <v>0.777162</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5728490000000001</v>
+        <v>0.593198</v>
       </c>
       <c r="D65" t="n">
-        <v>0.399663</v>
+        <v>0.395338</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.820015</v>
+        <v>0.836126</v>
       </c>
       <c r="C66" t="n">
-        <v>0.585847</v>
+        <v>0.598736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.417142</v>
+        <v>0.430127</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.887707</v>
+        <v>0.924277</v>
       </c>
       <c r="C67" t="n">
-        <v>0.615196</v>
+        <v>0.620379</v>
       </c>
       <c r="D67" t="n">
-        <v>0.429693</v>
+        <v>0.444184</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.905226</v>
+        <v>0.938435</v>
       </c>
       <c r="C68" t="n">
-        <v>0.669771</v>
+        <v>0.699908</v>
       </c>
       <c r="D68" t="n">
-        <v>0.453551</v>
+        <v>0.436423</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00199</v>
+        <v>1.01627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6888030000000001</v>
+        <v>0.712612</v>
       </c>
       <c r="D69" t="n">
-        <v>0.46848</v>
+        <v>0.481924</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.801891</v>
+        <v>0.805248</v>
       </c>
       <c r="C70" t="n">
-        <v>0.713614</v>
+        <v>0.716919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.487308</v>
+        <v>0.481817</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.837898</v>
+        <v>0.815144</v>
       </c>
       <c r="C71" t="n">
-        <v>0.758989</v>
+        <v>0.7774180000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.510229</v>
+        <v>0.513064</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.834212</v>
+        <v>0.867194</v>
       </c>
       <c r="C72" t="n">
-        <v>0.815563</v>
+        <v>0.806013</v>
       </c>
       <c r="D72" t="n">
-        <v>0.549396</v>
+        <v>0.5393869999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.878611</v>
+        <v>0.874323</v>
       </c>
       <c r="C73" t="n">
-        <v>0.871827</v>
+        <v>0.844983</v>
       </c>
       <c r="D73" t="n">
-        <v>0.566617</v>
+        <v>0.545014</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.938596</v>
+        <v>0.900941</v>
       </c>
       <c r="C74" t="n">
-        <v>0.898442</v>
+        <v>0.904711</v>
       </c>
       <c r="D74" t="n">
-        <v>0.604351</v>
+        <v>0.589894</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9409419999999999</v>
+        <v>0.971567</v>
       </c>
       <c r="C75" t="n">
-        <v>0.946429</v>
+        <v>0.924497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.620051</v>
+        <v>0.62674</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.968849</v>
+        <v>0.972518</v>
       </c>
       <c r="C76" t="n">
-        <v>1.00879</v>
+        <v>0.969463</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6441</v>
+        <v>0.632225</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.03732</v>
+        <v>1.0342</v>
       </c>
       <c r="C77" t="n">
-        <v>1.04981</v>
+        <v>1.01084</v>
       </c>
       <c r="D77" t="n">
-        <v>0.662442</v>
+        <v>0.670741</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.03744</v>
+        <v>1.04836</v>
       </c>
       <c r="C78" t="n">
-        <v>0.804824</v>
+        <v>0.813203</v>
       </c>
       <c r="D78" t="n">
-        <v>0.620316</v>
+        <v>0.6248280000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11715</v>
+        <v>1.12173</v>
       </c>
       <c r="C79" t="n">
-        <v>0.825234</v>
+        <v>0.849722</v>
       </c>
       <c r="D79" t="n">
-        <v>0.639236</v>
+        <v>0.660937</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.11637</v>
+        <v>1.15964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.868712</v>
+        <v>0.874443</v>
       </c>
       <c r="D80" t="n">
-        <v>0.661693</v>
+        <v>0.655386</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18708</v>
+        <v>1.20808</v>
       </c>
       <c r="C81" t="n">
-        <v>0.885856</v>
+        <v>0.903555</v>
       </c>
       <c r="D81" t="n">
-        <v>0.679944</v>
+        <v>0.675013</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24281</v>
+        <v>1.27937</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9400579999999999</v>
+        <v>0.923167</v>
       </c>
       <c r="D82" t="n">
-        <v>0.699665</v>
+        <v>0.701742</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.2662</v>
+        <v>1.30021</v>
       </c>
       <c r="C83" t="n">
-        <v>0.962151</v>
+        <v>0.977324</v>
       </c>
       <c r="D83" t="n">
-        <v>0.705505</v>
+        <v>0.7305779999999999</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.992097</v>
+        <v>0.972869</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9919</v>
+        <v>0.989663</v>
       </c>
       <c r="D84" t="n">
-        <v>0.763522</v>
+        <v>0.739089</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.984286</v>
+        <v>0.993252</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00034</v>
+        <v>1.02009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.769648</v>
+        <v>0.762041</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01744</v>
+        <v>1.01952</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0513</v>
+        <v>1.08101</v>
       </c>
       <c r="D86" t="n">
-        <v>0.799533</v>
+        <v>0.788045</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04803</v>
+        <v>1.08029</v>
       </c>
       <c r="C87" t="n">
-        <v>1.09048</v>
+        <v>1.11804</v>
       </c>
       <c r="D87" t="n">
-        <v>0.796365</v>
+        <v>0.826445</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08303</v>
+        <v>1.10199</v>
       </c>
       <c r="C88" t="n">
-        <v>1.13244</v>
+        <v>1.15501</v>
       </c>
       <c r="D88" t="n">
-        <v>0.846455</v>
+        <v>0.85539</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.11696</v>
+        <v>1.1247</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18525</v>
+        <v>1.20171</v>
       </c>
       <c r="D89" t="n">
-        <v>0.873001</v>
+        <v>0.857382</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15048</v>
+        <v>1.15621</v>
       </c>
       <c r="C90" t="n">
-        <v>1.2344</v>
+        <v>1.21777</v>
       </c>
       <c r="D90" t="n">
-        <v>0.915588</v>
+        <v>0.90882</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.20565</v>
+        <v>1.23052</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29622</v>
+        <v>1.27301</v>
       </c>
       <c r="D91" t="n">
-        <v>0.915005</v>
+        <v>0.92982</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.25084</v>
+        <v>1.24194</v>
       </c>
       <c r="C92" t="n">
-        <v>0.974846</v>
+        <v>0.985152</v>
       </c>
       <c r="D92" t="n">
-        <v>0.802239</v>
+        <v>0.80858</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.26419</v>
+        <v>1.25937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.981273</v>
+        <v>0.999766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.821139</v>
+        <v>0.8517479999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29117</v>
+        <v>1.32256</v>
       </c>
       <c r="C94" t="n">
-        <v>1.01828</v>
+        <v>1.03336</v>
       </c>
       <c r="D94" t="n">
-        <v>0.838388</v>
+        <v>0.852002</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.32228</v>
+        <v>1.36444</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06254</v>
+        <v>1.05227</v>
       </c>
       <c r="D95" t="n">
-        <v>0.859049</v>
+        <v>0.853741</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.37321</v>
+        <v>1.43115</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09131</v>
+        <v>1.09772</v>
       </c>
       <c r="D96" t="n">
-        <v>0.882937</v>
+        <v>0.87637</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.45072</v>
+        <v>1.43244</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12665</v>
+        <v>1.11375</v>
       </c>
       <c r="D97" t="n">
-        <v>0.898838</v>
+        <v>0.891387</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04869</v>
+        <v>1.05673</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16043</v>
+        <v>1.15888</v>
       </c>
       <c r="D98" t="n">
-        <v>0.937136</v>
+        <v>0.958896</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.11477</v>
+        <v>1.09061</v>
       </c>
       <c r="C99" t="n">
-        <v>1.19034</v>
+        <v>1.18075</v>
       </c>
       <c r="D99" t="n">
-        <v>0.98066</v>
+        <v>0.9569</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11335</v>
+        <v>1.11485</v>
       </c>
       <c r="C100" t="n">
-        <v>1.21524</v>
+        <v>1.25942</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00334</v>
+        <v>0.968719</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13584</v>
+        <v>1.14326</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26021</v>
+        <v>1.24972</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0141</v>
+        <v>0.989757</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.17175</v>
+        <v>1.18364</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30878</v>
+        <v>1.33088</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02048</v>
+        <v>1.04268</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.20205</v>
+        <v>1.21161</v>
       </c>
       <c r="C103" t="n">
-        <v>1.37832</v>
+        <v>1.39146</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04726</v>
+        <v>1.09181</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.26388</v>
+        <v>1.25192</v>
       </c>
       <c r="C104" t="n">
-        <v>1.38024</v>
+        <v>1.39309</v>
       </c>
       <c r="D104" t="n">
-        <v>1.10057</v>
+        <v>1.09468</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.26685</v>
+        <v>1.28566</v>
       </c>
       <c r="C105" t="n">
-        <v>1.42278</v>
+        <v>1.44578</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12798</v>
+        <v>1.14409</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.30756</v>
+        <v>1.32051</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46159</v>
+        <v>1.4691</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18345</v>
+        <v>1.16781</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36697</v>
+        <v>1.3411</v>
       </c>
       <c r="C107" t="n">
-        <v>1.09826</v>
+        <v>1.10096</v>
       </c>
       <c r="D107" t="n">
-        <v>0.965515</v>
+        <v>0.91886</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45685</v>
+        <v>1.41023</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12751</v>
+        <v>1.12663</v>
       </c>
       <c r="D108" t="n">
-        <v>0.956263</v>
+        <v>0.942377</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42937</v>
+        <v>1.43116</v>
       </c>
       <c r="C109" t="n">
-        <v>1.16199</v>
+        <v>1.14932</v>
       </c>
       <c r="D109" t="n">
-        <v>0.995413</v>
+        <v>0.974373</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.45726</v>
+        <v>1.47099</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17406</v>
+        <v>1.17754</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0251</v>
+        <v>0.983155</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.54245</v>
+        <v>1.51443</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22358</v>
+        <v>1.20259</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0285</v>
+        <v>1.01562</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14062</v>
+        <v>1.11973</v>
       </c>
       <c r="C112" t="n">
-        <v>1.25056</v>
+        <v>1.24961</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09335</v>
+        <v>1.03758</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18366</v>
+        <v>1.20378</v>
       </c>
       <c r="C113" t="n">
-        <v>1.32156</v>
+        <v>1.29035</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10047</v>
+        <v>1.07832</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20082</v>
+        <v>1.19773</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31711</v>
+        <v>1.31</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11315</v>
+        <v>1.10266</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.20775</v>
+        <v>1.23165</v>
       </c>
       <c r="C115" t="n">
-        <v>1.36466</v>
+        <v>1.3487</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10248</v>
+        <v>1.09916</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2392</v>
+        <v>1.27733</v>
       </c>
       <c r="C116" t="n">
-        <v>1.36282</v>
+        <v>1.47875</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13687</v>
+        <v>1.15146</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30954</v>
+        <v>1.30061</v>
       </c>
       <c r="C117" t="n">
-        <v>1.52336</v>
+        <v>1.45678</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19639</v>
+        <v>1.18222</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.31861</v>
+        <v>1.34041</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56686</v>
+        <v>1.49279</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22936</v>
+        <v>1.20806</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.4027</v>
+        <v>1.37924</v>
       </c>
       <c r="C119" t="n">
-        <v>1.57779</v>
+        <v>1.52753</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28858</v>
+        <v>1.24823</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.567771</v>
+        <v>0.577478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.439071</v>
+        <v>0.440792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244382</v>
+        <v>0.244744</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368014</v>
+        <v>0.379807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.480897</v>
+        <v>0.456903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.257239</v>
+        <v>0.261245</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.378452</v>
+        <v>0.386864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.487285</v>
+        <v>0.475752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261258</v>
+        <v>0.280213</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.409607</v>
+        <v>0.399889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.499269</v>
+        <v>0.518558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282032</v>
+        <v>0.282636</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428593</v>
+        <v>0.434823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523069</v>
+        <v>0.531426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288591</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.446974</v>
+        <v>0.43959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.554717</v>
+        <v>0.553105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.297092</v>
+        <v>0.29456</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.479132</v>
+        <v>0.480738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.589893</v>
+        <v>0.592485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.311102</v>
+        <v>0.293861</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.504847</v>
+        <v>0.488416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.600563</v>
+        <v>0.603288</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310872</v>
+        <v>0.311448</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.515601</v>
+        <v>0.508618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.643404</v>
+        <v>0.628899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.330344</v>
+        <v>0.329175</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.570763</v>
+        <v>0.553686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.423625</v>
+        <v>0.416004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249458</v>
+        <v>0.244168</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.576938</v>
+        <v>0.575462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417115</v>
+        <v>0.427113</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257142</v>
+        <v>0.250576</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.63942</v>
+        <v>0.6271139999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451269</v>
+        <v>0.441124</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257522</v>
+        <v>0.266148</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.647074</v>
+        <v>0.629428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.493174</v>
+        <v>0.456864</v>
       </c>
       <c r="D14" t="n">
-        <v>0.273148</v>
+        <v>0.265561</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.688789</v>
+        <v>0.6602710000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.505304</v>
+        <v>0.481621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.28645</v>
+        <v>0.271913</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.742067</v>
+        <v>0.695643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.515811</v>
+        <v>0.505586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282298</v>
+        <v>0.291206</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464993</v>
+        <v>0.426777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.552003</v>
+        <v>0.537178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307546</v>
+        <v>0.304567</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460189</v>
+        <v>0.439393</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5872270000000001</v>
+        <v>0.565184</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315033</v>
+        <v>0.305696</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.502534</v>
+        <v>0.480791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.603064</v>
+        <v>0.571298</v>
       </c>
       <c r="D19" t="n">
-        <v>0.331916</v>
+        <v>0.32054</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.509724</v>
+        <v>0.503519</v>
       </c>
       <c r="C20" t="n">
-        <v>0.613901</v>
+        <v>0.615358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.351956</v>
+        <v>0.333087</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.557299</v>
+        <v>0.525328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6659310000000001</v>
+        <v>0.632939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.364716</v>
+        <v>0.347366</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.56347</v>
+        <v>0.54582</v>
       </c>
       <c r="C22" t="n">
-        <v>0.698557</v>
+        <v>0.674589</v>
       </c>
       <c r="D22" t="n">
-        <v>0.371183</v>
+        <v>0.361395</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.606152</v>
+        <v>0.561827</v>
       </c>
       <c r="C23" t="n">
-        <v>0.760101</v>
+        <v>0.682038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.380555</v>
+        <v>0.365143</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6093460000000001</v>
+        <v>0.57333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7957880000000001</v>
+        <v>0.734038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.397914</v>
+        <v>0.381775</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6641550000000001</v>
+        <v>0.607947</v>
       </c>
       <c r="C25" t="n">
-        <v>0.787579</v>
+        <v>0.738572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.402265</v>
+        <v>0.396761</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.67209</v>
+        <v>0.632576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477274</v>
+        <v>0.46284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.291265</v>
+        <v>0.282354</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.733391</v>
+        <v>0.651235</v>
       </c>
       <c r="C27" t="n">
-        <v>0.497036</v>
+        <v>0.491358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.300847</v>
+        <v>0.285682</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.738791</v>
+        <v>0.7229950000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.53644</v>
+        <v>0.520085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.310414</v>
+        <v>0.300625</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.814908</v>
+        <v>0.7520250000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.564867</v>
+        <v>0.525934</v>
       </c>
       <c r="D29" t="n">
-        <v>0.326727</v>
+        <v>0.317846</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.791357</v>
+        <v>0.772837</v>
       </c>
       <c r="C30" t="n">
-        <v>0.567531</v>
+        <v>0.563935</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334189</v>
+        <v>0.337589</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8560950000000001</v>
+        <v>0.828045</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6162570000000001</v>
+        <v>0.589211</v>
       </c>
       <c r="D31" t="n">
-        <v>0.34235</v>
+        <v>0.336856</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.530125</v>
+        <v>0.563901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.651783</v>
+        <v>0.65366</v>
       </c>
       <c r="D32" t="n">
-        <v>0.355557</v>
+        <v>0.350899</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.546636</v>
+        <v>0.580149</v>
       </c>
       <c r="C33" t="n">
-        <v>0.681663</v>
+        <v>0.672983</v>
       </c>
       <c r="D33" t="n">
-        <v>0.380077</v>
+        <v>0.382763</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.581457</v>
+        <v>0.659496</v>
       </c>
       <c r="C34" t="n">
-        <v>0.70501</v>
+        <v>0.731645</v>
       </c>
       <c r="D34" t="n">
-        <v>0.383883</v>
+        <v>0.403012</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.593599</v>
+        <v>0.615787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.737112</v>
+        <v>0.766277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.411993</v>
+        <v>0.397057</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.661249</v>
+        <v>0.6882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8146910000000001</v>
+        <v>0.8140039999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.411997</v>
+        <v>0.454359</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.657259</v>
+        <v>0.7486429999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.885526</v>
+        <v>0.829426</v>
       </c>
       <c r="D37" t="n">
-        <v>0.44447</v>
+        <v>0.46786</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.712541</v>
+        <v>0.766802</v>
       </c>
       <c r="C38" t="n">
-        <v>0.867207</v>
+        <v>0.874748</v>
       </c>
       <c r="D38" t="n">
-        <v>0.460995</v>
+        <v>0.465703</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745234</v>
+        <v>0.815527</v>
       </c>
       <c r="C39" t="n">
-        <v>0.941464</v>
+        <v>0.9849329999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.489575</v>
+        <v>0.495676</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.78667</v>
+        <v>0.852485</v>
       </c>
       <c r="C40" t="n">
-        <v>0.586379</v>
+        <v>0.595414</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3639</v>
+        <v>0.376759</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.840599</v>
+        <v>0.904067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.613522</v>
+        <v>0.672028</v>
       </c>
       <c r="D41" t="n">
-        <v>0.373311</v>
+        <v>0.39405</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.932432</v>
+        <v>0.952928</v>
       </c>
       <c r="C42" t="n">
-        <v>0.625223</v>
+        <v>0.661934</v>
       </c>
       <c r="D42" t="n">
-        <v>0.405176</v>
+        <v>0.406287</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.955615</v>
+        <v>1.01057</v>
       </c>
       <c r="C43" t="n">
-        <v>0.701314</v>
+        <v>0.711641</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418591</v>
+        <v>0.416736</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.01575</v>
+        <v>1.0277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.706141</v>
+        <v>0.7498050000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.426077</v>
+        <v>0.430068</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.07669</v>
+        <v>1.10036</v>
       </c>
       <c r="C45" t="n">
-        <v>0.780355</v>
+        <v>0.768069</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469547</v>
+        <v>0.454029</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.71684</v>
+        <v>0.70653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.820808</v>
+        <v>0.847848</v>
       </c>
       <c r="D46" t="n">
-        <v>0.482469</v>
+        <v>0.47189</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.74637</v>
+        <v>0.73672</v>
       </c>
       <c r="C47" t="n">
-        <v>0.91186</v>
+        <v>0.88121</v>
       </c>
       <c r="D47" t="n">
-        <v>0.52737</v>
+        <v>0.502877</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.792516</v>
+        <v>0.786559</v>
       </c>
       <c r="C48" t="n">
-        <v>0.965513</v>
+        <v>0.979321</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.531008</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8326170000000001</v>
+        <v>0.838914</v>
       </c>
       <c r="C49" t="n">
-        <v>1.05804</v>
+        <v>1.03949</v>
       </c>
       <c r="D49" t="n">
-        <v>0.578839</v>
+        <v>0.551266</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.901935</v>
+        <v>0.884181</v>
       </c>
       <c r="C50" t="n">
-        <v>1.10493</v>
+        <v>1.07443</v>
       </c>
       <c r="D50" t="n">
-        <v>0.594852</v>
+        <v>0.59588</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.957847</v>
+        <v>0.954502</v>
       </c>
       <c r="C51" t="n">
-        <v>1.18489</v>
+        <v>1.15102</v>
       </c>
       <c r="D51" t="n">
-        <v>0.627719</v>
+        <v>0.622209</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.06439</v>
+        <v>1.05029</v>
       </c>
       <c r="C52" t="n">
-        <v>1.27689</v>
+        <v>1.2305</v>
       </c>
       <c r="D52" t="n">
-        <v>0.655579</v>
+        <v>0.6907450000000001</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.11649</v>
+        <v>1.14003</v>
       </c>
       <c r="C53" t="n">
-        <v>1.3797</v>
+        <v>1.32509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.693655</v>
+        <v>0.706068</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.16528</v>
+        <v>1.13169</v>
       </c>
       <c r="C54" t="n">
-        <v>0.828064</v>
+        <v>0.826673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.502673</v>
+        <v>0.497336</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.34108</v>
+        <v>1.2213</v>
       </c>
       <c r="C55" t="n">
-        <v>0.872973</v>
+        <v>0.855096</v>
       </c>
       <c r="D55" t="n">
-        <v>0.525079</v>
+        <v>0.523407</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.3605</v>
+        <v>1.29353</v>
       </c>
       <c r="C56" t="n">
-        <v>0.927363</v>
+        <v>0.957222</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5456029999999999</v>
+        <v>0.545006</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.42752</v>
+        <v>1.38897</v>
       </c>
       <c r="C57" t="n">
-        <v>1.03609</v>
+        <v>0.987933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.59578</v>
+        <v>0.573075</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.62102</v>
+        <v>1.51141</v>
       </c>
       <c r="C58" t="n">
-        <v>1.15486</v>
+        <v>1.09788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.621328</v>
+        <v>0.62498</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.72843</v>
+        <v>1.66791</v>
       </c>
       <c r="C59" t="n">
-        <v>1.19622</v>
+        <v>1.16601</v>
       </c>
       <c r="D59" t="n">
-        <v>0.658234</v>
+        <v>0.633802</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.09603</v>
+        <v>1.08473</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30518</v>
+        <v>1.26536</v>
       </c>
       <c r="D60" t="n">
-        <v>0.687727</v>
+        <v>0.705439</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.2021</v>
+        <v>1.23599</v>
       </c>
       <c r="C61" t="n">
-        <v>1.44602</v>
+        <v>1.3679</v>
       </c>
       <c r="D61" t="n">
-        <v>0.714574</v>
+        <v>0.776548</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.2679</v>
+        <v>1.28712</v>
       </c>
       <c r="C62" t="n">
-        <v>1.51357</v>
+        <v>1.50737</v>
       </c>
       <c r="D62" t="n">
-        <v>0.750412</v>
+        <v>0.777581</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.43426</v>
+        <v>1.37041</v>
       </c>
       <c r="C63" t="n">
-        <v>1.64627</v>
+        <v>1.61966</v>
       </c>
       <c r="D63" t="n">
-        <v>0.814011</v>
+        <v>0.808074</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.51026</v>
+        <v>1.46663</v>
       </c>
       <c r="C64" t="n">
-        <v>1.77851</v>
+        <v>1.82725</v>
       </c>
       <c r="D64" t="n">
-        <v>0.88281</v>
+        <v>0.85421</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.6338</v>
+        <v>1.61169</v>
       </c>
       <c r="C65" t="n">
-        <v>1.93419</v>
+        <v>1.96385</v>
       </c>
       <c r="D65" t="n">
-        <v>0.948971</v>
+        <v>0.924549</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.85497</v>
+        <v>1.77503</v>
       </c>
       <c r="C66" t="n">
-        <v>2.19819</v>
+        <v>2.07531</v>
       </c>
       <c r="D66" t="n">
-        <v>1.00197</v>
+        <v>0.981164</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.97998</v>
+        <v>1.98628</v>
       </c>
       <c r="C67" t="n">
-        <v>2.38301</v>
+        <v>2.29449</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0598</v>
+        <v>1.05698</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.13471</v>
+        <v>2.11598</v>
       </c>
       <c r="C68" t="n">
-        <v>1.42023</v>
+        <v>1.37325</v>
       </c>
       <c r="D68" t="n">
-        <v>0.755376</v>
+        <v>0.751908</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.37802</v>
+        <v>2.30657</v>
       </c>
       <c r="C69" t="n">
-        <v>1.61597</v>
+        <v>1.54105</v>
       </c>
       <c r="D69" t="n">
-        <v>0.806646</v>
+        <v>0.805447</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.53127</v>
+        <v>2.51475</v>
       </c>
       <c r="C70" t="n">
-        <v>1.67506</v>
+        <v>1.69503</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8336519999999999</v>
+        <v>0.827844</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.73344</v>
+        <v>2.65123</v>
       </c>
       <c r="C71" t="n">
-        <v>1.8647</v>
+        <v>1.81146</v>
       </c>
       <c r="D71" t="n">
-        <v>0.875837</v>
+        <v>0.873174</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.95601</v>
+        <v>2.89767</v>
       </c>
       <c r="C72" t="n">
-        <v>1.96372</v>
+        <v>1.99702</v>
       </c>
       <c r="D72" t="n">
-        <v>0.94394</v>
+        <v>0.968854</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.20336</v>
+        <v>3.08118</v>
       </c>
       <c r="C73" t="n">
-        <v>2.115</v>
+        <v>2.09784</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00849</v>
+        <v>1.03418</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.98608</v>
+        <v>1.91131</v>
       </c>
       <c r="C74" t="n">
-        <v>2.21127</v>
+        <v>2.19472</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09632</v>
+        <v>1.09551</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.06733</v>
+        <v>2.04613</v>
       </c>
       <c r="C75" t="n">
-        <v>2.42449</v>
+        <v>2.33324</v>
       </c>
       <c r="D75" t="n">
-        <v>1.13756</v>
+        <v>1.17495</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.25725</v>
+        <v>2.15539</v>
       </c>
       <c r="C76" t="n">
-        <v>2.75877</v>
+        <v>2.5778</v>
       </c>
       <c r="D76" t="n">
-        <v>1.25128</v>
+        <v>1.23756</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.37745</v>
+        <v>2.31651</v>
       </c>
       <c r="C77" t="n">
-        <v>2.83898</v>
+        <v>2.86222</v>
       </c>
       <c r="D77" t="n">
-        <v>1.36648</v>
+        <v>1.32027</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.55491</v>
+        <v>2.50002</v>
       </c>
       <c r="C78" t="n">
-        <v>3.01663</v>
+        <v>2.91573</v>
       </c>
       <c r="D78" t="n">
-        <v>1.40881</v>
+        <v>1.39627</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.75196</v>
+        <v>2.5946</v>
       </c>
       <c r="C79" t="n">
-        <v>3.25401</v>
+        <v>3.08467</v>
       </c>
       <c r="D79" t="n">
-        <v>1.48421</v>
+        <v>1.46878</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.86624</v>
+        <v>2.76162</v>
       </c>
       <c r="C80" t="n">
-        <v>3.56881</v>
+        <v>3.43647</v>
       </c>
       <c r="D80" t="n">
-        <v>1.60716</v>
+        <v>1.58106</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.0209</v>
+        <v>2.92895</v>
       </c>
       <c r="C81" t="n">
-        <v>3.69179</v>
+        <v>3.68977</v>
       </c>
       <c r="D81" t="n">
-        <v>1.67312</v>
+        <v>1.73575</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.20905</v>
+        <v>3.06453</v>
       </c>
       <c r="C82" t="n">
-        <v>3.93948</v>
+        <v>3.84923</v>
       </c>
       <c r="D82" t="n">
-        <v>1.77812</v>
+        <v>1.78159</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.42588</v>
+        <v>3.35515</v>
       </c>
       <c r="C83" t="n">
-        <v>2.23363</v>
+        <v>2.20111</v>
       </c>
       <c r="D83" t="n">
-        <v>1.19043</v>
+        <v>1.20172</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.65186</v>
+        <v>3.48526</v>
       </c>
       <c r="C84" t="n">
-        <v>2.41407</v>
+        <v>2.36384</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25628</v>
+        <v>1.30191</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.75317</v>
+        <v>3.68411</v>
       </c>
       <c r="C85" t="n">
-        <v>2.49287</v>
+        <v>2.56461</v>
       </c>
       <c r="D85" t="n">
-        <v>1.33993</v>
+        <v>1.31896</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.93675</v>
+        <v>3.85971</v>
       </c>
       <c r="C86" t="n">
-        <v>2.65137</v>
+        <v>2.60683</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45004</v>
+        <v>1.41747</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.27286</v>
+        <v>4.10813</v>
       </c>
       <c r="C87" t="n">
-        <v>2.85211</v>
+        <v>2.84338</v>
       </c>
       <c r="D87" t="n">
-        <v>1.48999</v>
+        <v>1.4713</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.59007</v>
+        <v>4.45619</v>
       </c>
       <c r="C88" t="n">
-        <v>3.20133</v>
+        <v>3.08276</v>
       </c>
       <c r="D88" t="n">
-        <v>1.59188</v>
+        <v>1.57845</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71021</v>
+        <v>2.63449</v>
       </c>
       <c r="C89" t="n">
-        <v>3.18706</v>
+        <v>3.18068</v>
       </c>
       <c r="D89" t="n">
-        <v>1.71267</v>
+        <v>1.61893</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.77506</v>
+        <v>2.68182</v>
       </c>
       <c r="C90" t="n">
-        <v>3.36693</v>
+        <v>3.36855</v>
       </c>
       <c r="D90" t="n">
-        <v>1.75946</v>
+        <v>1.73811</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.93356</v>
+        <v>2.98223</v>
       </c>
       <c r="C91" t="n">
-        <v>3.51741</v>
+        <v>3.74425</v>
       </c>
       <c r="D91" t="n">
-        <v>1.80176</v>
+        <v>1.84238</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.07025</v>
+        <v>2.96367</v>
       </c>
       <c r="C92" t="n">
-        <v>3.76829</v>
+        <v>3.85736</v>
       </c>
       <c r="D92" t="n">
-        <v>1.96222</v>
+        <v>1.92038</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.17128</v>
+        <v>3.1349</v>
       </c>
       <c r="C93" t="n">
-        <v>4.0454</v>
+        <v>3.97595</v>
       </c>
       <c r="D93" t="n">
-        <v>2.05968</v>
+        <v>2.07815</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.43364</v>
+        <v>3.35647</v>
       </c>
       <c r="C94" t="n">
-        <v>4.19642</v>
+        <v>4.17656</v>
       </c>
       <c r="D94" t="n">
-        <v>2.14723</v>
+        <v>2.14651</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.60464</v>
+        <v>3.50962</v>
       </c>
       <c r="C95" t="n">
-        <v>4.59804</v>
+        <v>4.45328</v>
       </c>
       <c r="D95" t="n">
-        <v>2.20676</v>
+        <v>2.20313</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.80121</v>
+        <v>3.69009</v>
       </c>
       <c r="C96" t="n">
-        <v>4.78984</v>
+        <v>4.73141</v>
       </c>
       <c r="D96" t="n">
-        <v>2.34737</v>
+        <v>2.33354</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.98372</v>
+        <v>3.9466</v>
       </c>
       <c r="C97" t="n">
-        <v>2.68385</v>
+        <v>2.66743</v>
       </c>
       <c r="D97" t="n">
-        <v>1.55217</v>
+        <v>1.61141</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.08835</v>
+        <v>4.03731</v>
       </c>
       <c r="C98" t="n">
-        <v>2.85818</v>
+        <v>2.75817</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66325</v>
+        <v>1.68752</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.41442</v>
+        <v>4.37557</v>
       </c>
       <c r="C99" t="n">
-        <v>2.94524</v>
+        <v>2.97107</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69808</v>
+        <v>1.75676</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.59498</v>
+        <v>4.54027</v>
       </c>
       <c r="C100" t="n">
-        <v>3.16902</v>
+        <v>3.106</v>
       </c>
       <c r="D100" t="n">
-        <v>1.793</v>
+        <v>1.80329</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.6839</v>
+        <v>4.73027</v>
       </c>
       <c r="C101" t="n">
-        <v>3.33721</v>
+        <v>3.32962</v>
       </c>
       <c r="D101" t="n">
-        <v>1.93627</v>
+        <v>1.95971</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.93817</v>
+        <v>4.94467</v>
       </c>
       <c r="C102" t="n">
-        <v>3.39415</v>
+        <v>3.41693</v>
       </c>
       <c r="D102" t="n">
-        <v>1.95988</v>
+        <v>1.94145</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.88853</v>
+        <v>2.94228</v>
       </c>
       <c r="C103" t="n">
-        <v>3.52453</v>
+        <v>3.61987</v>
       </c>
       <c r="D103" t="n">
-        <v>2.05783</v>
+        <v>2.07548</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.09477</v>
+        <v>3.05001</v>
       </c>
       <c r="C104" t="n">
-        <v>3.80614</v>
+        <v>3.80498</v>
       </c>
       <c r="D104" t="n">
-        <v>2.12486</v>
+        <v>2.16673</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.20088</v>
+        <v>3.17748</v>
       </c>
       <c r="C105" t="n">
-        <v>4.03813</v>
+        <v>4.05793</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18834</v>
+        <v>2.22364</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.37795</v>
+        <v>3.27794</v>
       </c>
       <c r="C106" t="n">
-        <v>4.30855</v>
+        <v>4.29632</v>
       </c>
       <c r="D106" t="n">
-        <v>2.32416</v>
+        <v>2.32308</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.55932</v>
+        <v>3.48207</v>
       </c>
       <c r="C107" t="n">
-        <v>4.51193</v>
+        <v>4.54862</v>
       </c>
       <c r="D107" t="n">
-        <v>2.41957</v>
+        <v>2.39755</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.71388</v>
+        <v>3.68375</v>
       </c>
       <c r="C108" t="n">
-        <v>4.71284</v>
+        <v>4.65625</v>
       </c>
       <c r="D108" t="n">
-        <v>2.5101</v>
+        <v>2.59444</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.8738</v>
+        <v>3.91386</v>
       </c>
       <c r="C109" t="n">
-        <v>4.96258</v>
+        <v>5.02814</v>
       </c>
       <c r="D109" t="n">
-        <v>2.63071</v>
+        <v>2.57797</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.09955</v>
+        <v>4.13313</v>
       </c>
       <c r="C110" t="n">
-        <v>5.16386</v>
+        <v>5.21693</v>
       </c>
       <c r="D110" t="n">
-        <v>2.74373</v>
+        <v>2.88902</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.26107</v>
+        <v>4.2715</v>
       </c>
       <c r="C111" t="n">
-        <v>2.94076</v>
+        <v>2.92798</v>
       </c>
       <c r="D111" t="n">
-        <v>1.86656</v>
+        <v>1.87488</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.50892</v>
+        <v>4.46304</v>
       </c>
       <c r="C112" t="n">
-        <v>3.04179</v>
+        <v>3.04205</v>
       </c>
       <c r="D112" t="n">
-        <v>1.98668</v>
+        <v>1.96451</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.73821</v>
+        <v>4.67833</v>
       </c>
       <c r="C113" t="n">
-        <v>3.26323</v>
+        <v>3.21455</v>
       </c>
       <c r="D113" t="n">
-        <v>2.08259</v>
+        <v>2.01403</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.90155</v>
+        <v>4.92366</v>
       </c>
       <c r="C114" t="n">
-        <v>3.35339</v>
+        <v>3.3223</v>
       </c>
       <c r="D114" t="n">
-        <v>2.10962</v>
+        <v>2.09904</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.163</v>
+        <v>5.21099</v>
       </c>
       <c r="C115" t="n">
-        <v>3.50983</v>
+        <v>3.53498</v>
       </c>
       <c r="D115" t="n">
-        <v>2.20073</v>
+        <v>2.204</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.43124</v>
+        <v>5.39022</v>
       </c>
       <c r="C116" t="n">
-        <v>3.6598</v>
+        <v>3.72738</v>
       </c>
       <c r="D116" t="n">
-        <v>2.37219</v>
+        <v>2.25777</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.07995</v>
+        <v>3.08457</v>
       </c>
       <c r="C117" t="n">
-        <v>3.86235</v>
+        <v>3.89974</v>
       </c>
       <c r="D117" t="n">
-        <v>2.391</v>
+        <v>2.34656</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.259</v>
+        <v>3.22423</v>
       </c>
       <c r="C118" t="n">
-        <v>4.13783</v>
+        <v>4.14845</v>
       </c>
       <c r="D118" t="n">
-        <v>2.47587</v>
+        <v>2.44188</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.42726</v>
+        <v>3.38732</v>
       </c>
       <c r="C119" t="n">
-        <v>4.31923</v>
+        <v>4.28157</v>
       </c>
       <c r="D119" t="n">
-        <v>2.66577</v>
+        <v>2.61359</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222832</v>
+        <v>0.219802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205377</v>
+        <v>0.213509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238882</v>
+        <v>0.237743</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.226164</v>
+        <v>0.233658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227665</v>
+        <v>0.214726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236488</v>
+        <v>0.241364</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230732</v>
+        <v>0.232843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214271</v>
+        <v>0.219162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239713</v>
+        <v>0.248446</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236765</v>
+        <v>0.234464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217196</v>
+        <v>0.225139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245911</v>
+        <v>0.261781</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241383</v>
+        <v>0.258752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229364</v>
+        <v>0.227907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253077</v>
+        <v>0.267441</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240951</v>
+        <v>0.251707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182382</v>
+        <v>0.186799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210809</v>
+        <v>0.211351</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245676</v>
+        <v>0.253371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185397</v>
+        <v>0.191696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213822</v>
+        <v>0.223092</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257452</v>
+        <v>0.257561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191283</v>
+        <v>0.193877</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221769</v>
+        <v>0.231505</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253852</v>
+        <v>0.263099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202132</v>
+        <v>0.200386</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229485</v>
+        <v>0.24413</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255926</v>
+        <v>0.26825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200949</v>
+        <v>0.206479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235007</v>
+        <v>0.247367</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261943</v>
+        <v>0.266961</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20773</v>
+        <v>0.211376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241774</v>
+        <v>0.269022</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219775</v>
+        <v>0.220827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21529</v>
+        <v>0.217308</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249445</v>
+        <v>0.259471</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.224375</v>
+        <v>0.225411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219335</v>
+        <v>0.221327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253264</v>
+        <v>0.265225</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22638</v>
+        <v>0.239359</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225473</v>
+        <v>0.225475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259655</v>
+        <v>0.270704</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230397</v>
+        <v>0.236163</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233446</v>
+        <v>0.235367</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267625</v>
+        <v>0.275591</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.236793</v>
+        <v>0.24312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235287</v>
+        <v>0.23357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.275745</v>
+        <v>0.283678</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23968</v>
+        <v>0.243146</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23383</v>
+        <v>0.242669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.276326</v>
+        <v>0.304717</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277518</v>
+        <v>0.255709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287465</v>
+        <v>0.242057</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285483</v>
+        <v>0.302725</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249602</v>
+        <v>0.253656</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245982</v>
+        <v>0.260239</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292185</v>
+        <v>0.297197</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256559</v>
+        <v>0.258749</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193027</v>
+        <v>0.194953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228943</v>
+        <v>0.233656</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260204</v>
+        <v>0.260862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197705</v>
+        <v>0.200774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236748</v>
+        <v>0.241141</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289492</v>
+        <v>0.264461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210824</v>
+        <v>0.213395</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2444</v>
+        <v>0.244187</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.267791</v>
+        <v>0.270337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211</v>
+        <v>0.217216</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249116</v>
+        <v>0.249257</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268655</v>
+        <v>0.271445</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216396</v>
+        <v>0.225274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251778</v>
+        <v>0.260055</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.278072</v>
+        <v>0.274834</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224094</v>
+        <v>0.222694</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262346</v>
+        <v>0.263749</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231926</v>
+        <v>0.244929</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228853</v>
+        <v>0.239941</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268357</v>
+        <v>0.268812</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.239062</v>
+        <v>0.246049</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233976</v>
+        <v>0.237401</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278079</v>
+        <v>0.286625</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273477</v>
+        <v>0.257158</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242475</v>
+        <v>0.244304</v>
       </c>
       <c r="D29" t="n">
-        <v>0.287733</v>
+        <v>0.298884</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251409</v>
+        <v>0.263858</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249237</v>
+        <v>0.261735</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31307</v>
+        <v>0.301949</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258798</v>
+        <v>0.279967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256382</v>
+        <v>0.263415</v>
       </c>
       <c r="D31" t="n">
-        <v>0.306625</v>
+        <v>0.312166</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273531</v>
+        <v>0.280152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261691</v>
+        <v>0.279882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317312</v>
+        <v>0.332722</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272141</v>
+        <v>0.30185</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267908</v>
+        <v>0.27138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325875</v>
+        <v>0.333348</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.282164</v>
+        <v>0.294053</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273483</v>
+        <v>0.285077</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335241</v>
+        <v>0.342751</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291364</v>
+        <v>0.309916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212997</v>
+        <v>0.226394</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25506</v>
+        <v>0.275556</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299727</v>
+        <v>0.326069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220454</v>
+        <v>0.238406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.267125</v>
+        <v>0.277806</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313058</v>
+        <v>0.336153</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230423</v>
+        <v>0.238136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.276584</v>
+        <v>0.300264</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321782</v>
+        <v>0.333764</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239885</v>
+        <v>0.253457</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290058</v>
+        <v>0.300062</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329539</v>
+        <v>0.345152</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248403</v>
+        <v>0.252179</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298308</v>
+        <v>0.327024</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345575</v>
+        <v>0.359344</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256322</v>
+        <v>0.267452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.310255</v>
+        <v>0.326522</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308329</v>
+        <v>0.318168</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264204</v>
+        <v>0.272202</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316781</v>
+        <v>0.340496</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.312559</v>
+        <v>0.32821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274302</v>
+        <v>0.293132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328689</v>
+        <v>0.34607</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318941</v>
+        <v>0.344301</v>
       </c>
       <c r="C43" t="n">
-        <v>0.284696</v>
+        <v>0.308066</v>
       </c>
       <c r="D43" t="n">
-        <v>0.348146</v>
+        <v>0.370653</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339543</v>
+        <v>0.354861</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296215</v>
+        <v>0.315951</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357187</v>
+        <v>0.377243</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350744</v>
+        <v>0.365525</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305612</v>
+        <v>0.32723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.371512</v>
+        <v>0.398532</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.364539</v>
+        <v>0.387251</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320242</v>
+        <v>0.331579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.38419</v>
+        <v>0.414352</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.379912</v>
+        <v>0.391701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331352</v>
+        <v>0.345694</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418661</v>
+        <v>0.428751</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.406747</v>
+        <v>0.421959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349567</v>
+        <v>0.365376</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428115</v>
+        <v>0.456058</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.414459</v>
+        <v>0.430488</v>
       </c>
       <c r="C49" t="n">
-        <v>0.358213</v>
+        <v>0.390037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446839</v>
+        <v>0.465447</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.431117</v>
+        <v>0.454141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295772</v>
+        <v>0.315733</v>
       </c>
       <c r="D50" t="n">
-        <v>0.353705</v>
+        <v>0.371575</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.448281</v>
+        <v>0.462886</v>
       </c>
       <c r="C51" t="n">
-        <v>0.304374</v>
+        <v>0.318342</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370357</v>
+        <v>0.386523</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465704</v>
+        <v>0.490954</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329725</v>
+        <v>0.339085</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414164</v>
+        <v>0.399708</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.548864</v>
+        <v>0.51274</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396971</v>
+        <v>0.349778</v>
       </c>
       <c r="D53" t="n">
-        <v>0.398186</v>
+        <v>0.436472</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.520927</v>
+        <v>0.546332</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359842</v>
+        <v>0.375377</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435445</v>
+        <v>0.448093</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548441</v>
+        <v>0.559129</v>
       </c>
       <c r="C55" t="n">
-        <v>0.380913</v>
+        <v>0.384151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461035</v>
+        <v>0.482478</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489629</v>
+        <v>0.5023919999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.396603</v>
+        <v>0.409684</v>
       </c>
       <c r="D56" t="n">
-        <v>0.489627</v>
+        <v>0.508493</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.537918</v>
+        <v>0.5453440000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.426245</v>
+        <v>0.427965</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5170670000000001</v>
+        <v>0.527088</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.553449</v>
+        <v>0.545868</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441182</v>
+        <v>0.466261</v>
       </c>
       <c r="D58" t="n">
-        <v>0.51913</v>
+        <v>0.547596</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.58671</v>
+        <v>0.577925</v>
       </c>
       <c r="C59" t="n">
-        <v>0.466276</v>
+        <v>0.488476</v>
       </c>
       <c r="D59" t="n">
-        <v>0.605183</v>
+        <v>0.5754899999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.571514</v>
+        <v>0.5976</v>
       </c>
       <c r="C60" t="n">
-        <v>0.478118</v>
+        <v>0.505331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55744</v>
+        <v>0.630979</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.588156</v>
+        <v>0.622519</v>
       </c>
       <c r="C61" t="n">
-        <v>0.503188</v>
+        <v>0.531247</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655969</v>
+        <v>0.663865</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.70245</v>
+        <v>0.652219</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556569</v>
+        <v>0.566881</v>
       </c>
       <c r="D62" t="n">
-        <v>0.659027</v>
+        <v>0.703839</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645122</v>
+        <v>0.7080920000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.591614</v>
+        <v>0.616883</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701566</v>
+        <v>0.748342</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.701191</v>
+        <v>0.72753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.484607</v>
+        <v>0.493788</v>
       </c>
       <c r="D64" t="n">
-        <v>0.586464</v>
+        <v>0.644463</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.74104</v>
+        <v>0.726871</v>
       </c>
       <c r="C65" t="n">
-        <v>0.50552</v>
+        <v>0.514984</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623486</v>
+        <v>0.642755</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.788623</v>
+        <v>0.779253</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548578</v>
+        <v>0.538922</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660301</v>
+        <v>0.655185</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814538</v>
+        <v>0.825168</v>
       </c>
       <c r="C67" t="n">
-        <v>0.558815</v>
+        <v>0.551933</v>
       </c>
       <c r="D67" t="n">
-        <v>0.669817</v>
+        <v>0.704848</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.835411</v>
+        <v>0.826276</v>
       </c>
       <c r="C68" t="n">
-        <v>0.585522</v>
+        <v>0.587757</v>
       </c>
       <c r="D68" t="n">
-        <v>0.693605</v>
+        <v>0.737839</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.833492</v>
+        <v>0.897353</v>
       </c>
       <c r="C69" t="n">
-        <v>0.594307</v>
+        <v>0.629551</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715881</v>
+        <v>0.841258</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.699483</v>
+        <v>0.7262150000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6220830000000001</v>
+        <v>0.636906</v>
       </c>
       <c r="D70" t="n">
-        <v>0.75726</v>
+        <v>0.810315</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.794046</v>
+        <v>0.744957</v>
       </c>
       <c r="C71" t="n">
-        <v>0.757667</v>
+        <v>0.716348</v>
       </c>
       <c r="D71" t="n">
-        <v>0.933043</v>
+        <v>0.877156</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.783936</v>
+        <v>0.783934</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757119</v>
+        <v>0.732499</v>
       </c>
       <c r="D72" t="n">
-        <v>0.878933</v>
+        <v>0.919886</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.849457</v>
+        <v>0.817451</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739069</v>
+        <v>0.772637</v>
       </c>
       <c r="D73" t="n">
-        <v>0.882333</v>
+        <v>0.92108</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.825288</v>
+        <v>0.819331</v>
       </c>
       <c r="C74" t="n">
-        <v>0.777308</v>
+        <v>0.769042</v>
       </c>
       <c r="D74" t="n">
-        <v>0.91804</v>
+        <v>0.974872</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.857222</v>
+        <v>0.850342</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823609</v>
+        <v>0.8168</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9835159999999999</v>
+        <v>1.05603</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.914462</v>
+        <v>0.891464</v>
       </c>
       <c r="C76" t="n">
-        <v>0.86129</v>
+        <v>0.867351</v>
       </c>
       <c r="D76" t="n">
-        <v>0.965619</v>
+        <v>1.05529</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874785</v>
+        <v>0.90628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.894662</v>
+        <v>0.884923</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00915</v>
+        <v>1.09765</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.916507</v>
+        <v>0.943845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.678011</v>
+        <v>0.729322</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8430879999999999</v>
+        <v>0.929175</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.97404</v>
+        <v>0.968814</v>
       </c>
       <c r="C79" t="n">
-        <v>0.711514</v>
+        <v>0.726502</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9104680000000001</v>
+        <v>0.946751</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0325</v>
+        <v>1.00528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.787879</v>
+        <v>0.765347</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9415750000000001</v>
+        <v>1.00527</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02589</v>
+        <v>1.09397</v>
       </c>
       <c r="C81" t="n">
-        <v>0.755109</v>
+        <v>0.806382</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9757169999999999</v>
+        <v>1.05209</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05966</v>
+        <v>1.11816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.824399</v>
+        <v>0.884184</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0225</v>
+        <v>1.07274</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0897</v>
+        <v>1.13514</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845307</v>
+        <v>0.880406</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06065</v>
+        <v>1.12919</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.896701</v>
+        <v>0.914204</v>
       </c>
       <c r="C84" t="n">
-        <v>0.879775</v>
+        <v>0.901331</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09838</v>
+        <v>1.14836</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.900745</v>
+        <v>0.929627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903386</v>
+        <v>0.943045</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0899</v>
+        <v>1.22489</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.91198</v>
+        <v>0.9330889999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.91574</v>
+        <v>0.936399</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11731</v>
+        <v>1.2436</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920902</v>
+        <v>0.971315</v>
       </c>
       <c r="C87" t="n">
-        <v>0.92333</v>
+        <v>0.971417</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15098</v>
+        <v>1.24507</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.943978</v>
+        <v>1.00204</v>
       </c>
       <c r="C88" t="n">
-        <v>0.977023</v>
+        <v>1.01103</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27176</v>
+        <v>1.31336</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.998364</v>
+        <v>1.00418</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03284</v>
+        <v>1.0232</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26271</v>
+        <v>1.3219</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01617</v>
+        <v>1.02972</v>
       </c>
       <c r="C90" t="n">
-        <v>1.06304</v>
+        <v>1.0644</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33043</v>
+        <v>1.4169</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04528</v>
+        <v>1.06706</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09174</v>
+        <v>1.09962</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36328</v>
+        <v>1.43374</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06741</v>
+        <v>1.11338</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859309</v>
+        <v>0.874021</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1107</v>
+        <v>1.18411</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.09599</v>
+        <v>1.12023</v>
       </c>
       <c r="C93" t="n">
-        <v>0.877152</v>
+        <v>0.875318</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1028</v>
+        <v>1.20304</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.10522</v>
+        <v>1.15379</v>
       </c>
       <c r="C94" t="n">
-        <v>0.963384</v>
+        <v>0.9201279999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14903</v>
+        <v>1.21003</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.15758</v>
+        <v>1.19822</v>
       </c>
       <c r="C95" t="n">
-        <v>0.922351</v>
+        <v>0.943855</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1833</v>
+        <v>1.27594</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17268</v>
+        <v>1.2037</v>
       </c>
       <c r="C96" t="n">
-        <v>0.933671</v>
+        <v>0.971434</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23372</v>
+        <v>1.27762</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20453</v>
+        <v>1.25523</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956013</v>
+        <v>0.9950599999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21494</v>
+        <v>1.32641</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.945516</v>
+        <v>0.984946</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984067</v>
+        <v>1.04679</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27959</v>
+        <v>1.37618</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96415</v>
+        <v>0.98869</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01065</v>
+        <v>1.03798</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3157</v>
+        <v>1.42631</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.991716</v>
+        <v>1.021</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03841</v>
+        <v>1.08429</v>
       </c>
       <c r="D100" t="n">
-        <v>1.35837</v>
+        <v>1.47289</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01555</v>
+        <v>1.05723</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06033</v>
+        <v>1.12394</v>
       </c>
       <c r="D101" t="n">
-        <v>1.36681</v>
+        <v>1.5041</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04</v>
+        <v>1.08111</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08108</v>
+        <v>1.14651</v>
       </c>
       <c r="D102" t="n">
-        <v>1.4079</v>
+        <v>1.57199</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05969</v>
+        <v>1.07353</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11202</v>
+        <v>1.18532</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44628</v>
+        <v>1.59329</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09347</v>
+        <v>1.14492</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14366</v>
+        <v>1.21127</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4821</v>
+        <v>1.66563</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11419</v>
+        <v>1.14848</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19162</v>
+        <v>1.23664</v>
       </c>
       <c r="D105" t="n">
-        <v>1.54217</v>
+        <v>1.69381</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15552</v>
+        <v>1.20207</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23344</v>
+        <v>1.27491</v>
       </c>
       <c r="D106" t="n">
-        <v>1.63911</v>
+        <v>1.71845</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22848</v>
+        <v>1.23775</v>
       </c>
       <c r="C107" t="n">
-        <v>0.971469</v>
+        <v>1.00643</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23209</v>
+        <v>1.3354</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22538</v>
+        <v>1.22763</v>
       </c>
       <c r="C108" t="n">
-        <v>0.955221</v>
+        <v>1.01458</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25486</v>
+        <v>1.35901</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.24757</v>
+        <v>1.25206</v>
       </c>
       <c r="C109" t="n">
-        <v>0.983036</v>
+        <v>1.01501</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30783</v>
+        <v>1.39347</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.27284</v>
+        <v>1.28998</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00653</v>
+        <v>1.06884</v>
       </c>
       <c r="D110" t="n">
-        <v>1.32684</v>
+        <v>1.43218</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32097</v>
+        <v>1.29923</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0948</v>
+        <v>1.09501</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7517</v>
+        <v>1.50153</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0326</v>
+        <v>1.03279</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12824</v>
+        <v>1.09917</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45242</v>
+        <v>1.5446</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06305</v>
+        <v>1.08581</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09822</v>
+        <v>1.16315</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47322</v>
+        <v>1.56867</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32199</v>
+        <v>1.10753</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13245</v>
+        <v>1.16524</v>
       </c>
       <c r="D114" t="n">
-        <v>1.50309</v>
+        <v>1.61881</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16585</v>
+        <v>1.16486</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17689</v>
+        <v>1.18911</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57927</v>
+        <v>1.65539</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12933</v>
+        <v>1.14968</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20371</v>
+        <v>1.2735</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59271</v>
+        <v>1.79118</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15131</v>
+        <v>1.19135</v>
       </c>
       <c r="C117" t="n">
-        <v>1.244</v>
+        <v>1.27292</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66646</v>
+        <v>1.75524</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14902</v>
+        <v>1.20564</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25684</v>
+        <v>1.30824</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68556</v>
+        <v>1.7996</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25696</v>
+        <v>1.25988</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37237</v>
+        <v>1.34552</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72246</v>
+        <v>1.85699</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201291</v>
+        <v>0.192175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184652</v>
+        <v>0.187581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139115</v>
+        <v>0.149064</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187026</v>
+        <v>0.192725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200179</v>
+        <v>0.188005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145146</v>
+        <v>0.144736</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190818</v>
+        <v>0.200585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18809</v>
+        <v>0.193259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145487</v>
+        <v>0.148066</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204078</v>
+        <v>0.208267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205951</v>
+        <v>0.199488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156447</v>
+        <v>0.151737</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225626</v>
+        <v>0.20616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205661</v>
+        <v>0.219368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149699</v>
+        <v>0.156447</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205814</v>
+        <v>0.214886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.157319</v>
+        <v>0.172737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147003</v>
+        <v>0.144689</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212204</v>
+        <v>0.220193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160873</v>
+        <v>0.166279</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150909</v>
+        <v>0.147003</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218821</v>
+        <v>0.226336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166582</v>
+        <v>0.171518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14296</v>
+        <v>0.147651</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222714</v>
+        <v>0.225692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168848</v>
+        <v>0.17735</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153888</v>
+        <v>0.153456</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247907</v>
+        <v>0.235736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182893</v>
+        <v>0.185257</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148731</v>
+        <v>0.153099</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242115</v>
+        <v>0.247628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180172</v>
+        <v>0.185161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>0.153851</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188184</v>
+        <v>0.194877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184881</v>
+        <v>0.195426</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159659</v>
+        <v>0.15706</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2098</v>
+        <v>0.197289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.193698</v>
+        <v>0.200111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.155613</v>
+        <v>0.161323</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205296</v>
+        <v>0.205327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194696</v>
+        <v>0.202984</v>
       </c>
       <c r="D15" t="n">
-        <v>0.160008</v>
+        <v>0.165636</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203789</v>
+        <v>0.207033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201628</v>
+        <v>0.219245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161298</v>
+        <v>0.166721</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206316</v>
+        <v>0.216141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209896</v>
+        <v>0.215323</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168663</v>
+        <v>0.168046</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.206305</v>
+        <v>0.209994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221762</v>
+        <v>0.229219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184855</v>
+        <v>0.179639</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208635</v>
+        <v>0.221527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227843</v>
+        <v>0.229848</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179898</v>
+        <v>0.180425</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218341</v>
+        <v>0.241325</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227968</v>
+        <v>0.240961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.175353</v>
+        <v>0.184566</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220866</v>
+        <v>0.234995</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187502</v>
+        <v>0.210937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157027</v>
+        <v>0.161151</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234529</v>
+        <v>0.24546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183294</v>
+        <v>0.212385</v>
       </c>
       <c r="D22" t="n">
-        <v>0.159043</v>
+        <v>0.167948</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244032</v>
+        <v>0.250586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188463</v>
+        <v>0.210911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166285</v>
+        <v>0.168324</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248439</v>
+        <v>0.253757</v>
       </c>
       <c r="C24" t="n">
-        <v>0.191788</v>
+        <v>0.214952</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174375</v>
+        <v>0.174382</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25571</v>
+        <v>0.267745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.201213</v>
+        <v>0.22664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166709</v>
+        <v>0.172497</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.256646</v>
+        <v>0.263967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.209252</v>
+        <v>0.226581</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179065</v>
+        <v>0.174732</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.210121</v>
+        <v>0.23477</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207006</v>
+        <v>0.231987</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171669</v>
+        <v>0.18452</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225136</v>
+        <v>0.236052</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217587</v>
+        <v>0.236254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18007</v>
+        <v>0.186022</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230622</v>
+        <v>0.236934</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22071</v>
+        <v>0.248796</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181919</v>
+        <v>0.187329</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.232049</v>
+        <v>0.250683</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233068</v>
+        <v>0.261535</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187343</v>
+        <v>0.186113</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.238123</v>
+        <v>0.259786</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240886</v>
+        <v>0.261557</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204228</v>
+        <v>0.188794</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251529</v>
+        <v>0.260513</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244196</v>
+        <v>0.268866</v>
       </c>
       <c r="D32" t="n">
-        <v>0.198889</v>
+        <v>0.204645</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256973</v>
+        <v>0.27389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267702</v>
+        <v>0.284164</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199384</v>
+        <v>0.203263</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260664</v>
+        <v>0.284513</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278999</v>
+        <v>0.290342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204026</v>
+        <v>0.20856</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277312</v>
+        <v>0.301725</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208681</v>
+        <v>0.223792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181516</v>
+        <v>0.183148</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.279216</v>
+        <v>0.301813</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216505</v>
+        <v>0.225391</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183273</v>
+        <v>0.195682</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282498</v>
+        <v>0.314207</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219189</v>
+        <v>0.243108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181545</v>
+        <v>0.193837</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301421</v>
+        <v>0.317172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229608</v>
+        <v>0.24444</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187736</v>
+        <v>0.200235</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302599</v>
+        <v>0.341435</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239208</v>
+        <v>0.267701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197318</v>
+        <v>0.203319</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.328956</v>
+        <v>0.36179</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249512</v>
+        <v>0.2779</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205094</v>
+        <v>0.212345</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284106</v>
+        <v>0.323975</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273778</v>
+        <v>0.289874</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21324</v>
+        <v>0.21964</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288623</v>
+        <v>0.329022</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27211</v>
+        <v>0.287928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208669</v>
+        <v>0.222962</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321261</v>
+        <v>0.346221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278382</v>
+        <v>0.299143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214281</v>
+        <v>0.231234</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.335659</v>
+        <v>0.345317</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307149</v>
+        <v>0.316293</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226206</v>
+        <v>0.237923</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324564</v>
+        <v>0.367974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3112</v>
+        <v>0.332375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229269</v>
+        <v>0.254016</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.342113</v>
+        <v>0.384941</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32265</v>
+        <v>0.343497</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23966</v>
+        <v>0.261207</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.345924</v>
+        <v>0.408267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343577</v>
+        <v>0.367951</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25057</v>
+        <v>0.26592</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.372439</v>
+        <v>0.411491</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345756</v>
+        <v>0.39694</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250395</v>
+        <v>0.285475</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.374323</v>
+        <v>0.439409</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370708</v>
+        <v>0.40667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263103</v>
+        <v>0.284602</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393545</v>
+        <v>0.443147</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2876</v>
+        <v>0.319793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221608</v>
+        <v>0.244394</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440307</v>
+        <v>0.476753</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292449</v>
+        <v>0.344272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243507</v>
+        <v>0.254161</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437023</v>
+        <v>0.498985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.305093</v>
+        <v>0.342908</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240174</v>
+        <v>0.271478</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.437855</v>
+        <v>0.516991</v>
       </c>
       <c r="C53" t="n">
-        <v>0.322148</v>
+        <v>0.362273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238001</v>
+        <v>0.27535</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.489588</v>
+        <v>0.522047</v>
       </c>
       <c r="C54" t="n">
-        <v>0.336706</v>
+        <v>0.391108</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24933</v>
+        <v>0.283397</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521616</v>
+        <v>0.572872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.360294</v>
+        <v>0.398686</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253794</v>
+        <v>0.295262</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.436843</v>
+        <v>0.531759</v>
       </c>
       <c r="C56" t="n">
-        <v>0.387913</v>
+        <v>0.422299</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278283</v>
+        <v>0.298412</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512665</v>
+        <v>0.532111</v>
       </c>
       <c r="C57" t="n">
-        <v>0.395604</v>
+        <v>0.446236</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274365</v>
+        <v>0.307257</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.503586</v>
+        <v>0.564514</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424093</v>
+        <v>0.469695</v>
       </c>
       <c r="D58" t="n">
-        <v>0.284283</v>
+        <v>0.322069</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520535</v>
+        <v>0.581465</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473964</v>
+        <v>0.519591</v>
       </c>
       <c r="D59" t="n">
-        <v>0.307979</v>
+        <v>0.326258</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5615329999999999</v>
+        <v>0.6450900000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531571</v>
+        <v>0.520953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331079</v>
+        <v>0.357323</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.56828</v>
+        <v>0.6413140000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.501206</v>
+        <v>0.561686</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337122</v>
+        <v>0.365967</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.652706</v>
+        <v>0.694032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575797</v>
+        <v>0.6004699999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.378598</v>
+        <v>0.385929</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.670606</v>
+        <v>0.704618</v>
       </c>
       <c r="C63" t="n">
-        <v>0.572919</v>
+        <v>0.629188</v>
       </c>
       <c r="D63" t="n">
-        <v>0.371012</v>
+        <v>0.401772</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.664498</v>
+        <v>0.730328</v>
       </c>
       <c r="C64" t="n">
-        <v>0.493989</v>
+        <v>0.521707</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377207</v>
+        <v>0.378496</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.757343</v>
+        <v>0.781374</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502978</v>
+        <v>0.5418500000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351822</v>
+        <v>0.386874</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77432</v>
+        <v>0.821069</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533881</v>
+        <v>0.582182</v>
       </c>
       <c r="D66" t="n">
-        <v>0.366374</v>
+        <v>0.418138</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8064519999999999</v>
+        <v>0.885854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576114</v>
+        <v>0.617926</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387399</v>
+        <v>0.441729</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792505</v>
+        <v>0.896718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549936</v>
+        <v>0.655753</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374173</v>
+        <v>0.464712</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.898365</v>
+        <v>0.949329</v>
       </c>
       <c r="C69" t="n">
-        <v>0.602183</v>
+        <v>0.682798</v>
       </c>
       <c r="D69" t="n">
-        <v>0.42519</v>
+        <v>0.475734</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761399</v>
+        <v>0.79036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.644993</v>
+        <v>0.700229</v>
       </c>
       <c r="D70" t="n">
-        <v>0.407246</v>
+        <v>0.475138</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753428</v>
+        <v>0.81572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6645219999999999</v>
+        <v>0.738249</v>
       </c>
       <c r="D71" t="n">
-        <v>0.429082</v>
+        <v>0.501979</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.746115</v>
+        <v>0.854026</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699055</v>
+        <v>0.794656</v>
       </c>
       <c r="D72" t="n">
-        <v>0.456475</v>
+        <v>0.514415</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.797884</v>
+        <v>0.872347</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75322</v>
+        <v>0.835758</v>
       </c>
       <c r="D73" t="n">
-        <v>0.495253</v>
+        <v>0.5563630000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.823943</v>
+        <v>0.933122</v>
       </c>
       <c r="C74" t="n">
-        <v>0.802053</v>
+        <v>0.866194</v>
       </c>
       <c r="D74" t="n">
-        <v>0.499714</v>
+        <v>0.5674940000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.844452</v>
+        <v>0.976089</v>
       </c>
       <c r="C75" t="n">
-        <v>0.804354</v>
+        <v>0.919717</v>
       </c>
       <c r="D75" t="n">
-        <v>0.511042</v>
+        <v>0.600554</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.891305</v>
+        <v>0.9609259999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.929982</v>
+        <v>0.983883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.583545</v>
+        <v>0.627551</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.969122</v>
+        <v>1.00101</v>
       </c>
       <c r="C77" t="n">
-        <v>0.922084</v>
+        <v>1.01269</v>
       </c>
       <c r="D77" t="n">
-        <v>0.580891</v>
+        <v>0.656834</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.977667</v>
+        <v>1.02458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.75673</v>
+        <v>0.787659</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55338</v>
+        <v>0.6245540000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02808</v>
+        <v>1.09818</v>
       </c>
       <c r="C79" t="n">
-        <v>0.721267</v>
+        <v>0.815341</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552809</v>
+        <v>0.634679</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03923</v>
+        <v>1.12766</v>
       </c>
       <c r="C80" t="n">
-        <v>0.785852</v>
+        <v>0.854524</v>
       </c>
       <c r="D80" t="n">
-        <v>0.585678</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08246</v>
+        <v>1.16816</v>
       </c>
       <c r="C81" t="n">
-        <v>0.795195</v>
+        <v>0.886193</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592261</v>
+        <v>0.6718420000000001</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11964</v>
+        <v>1.20096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.878088</v>
+        <v>0.900854</v>
       </c>
       <c r="D82" t="n">
-        <v>0.63408</v>
+        <v>0.669482</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17506</v>
+        <v>1.30652</v>
       </c>
       <c r="C83" t="n">
-        <v>0.870207</v>
+        <v>0.960039</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64083</v>
+        <v>0.7173079999999999</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.922261</v>
+        <v>0.960021</v>
       </c>
       <c r="C84" t="n">
-        <v>0.905906</v>
+        <v>1.01339</v>
       </c>
       <c r="D84" t="n">
-        <v>0.698846</v>
+        <v>0.72966</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.922199</v>
+        <v>1.00977</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937737</v>
+        <v>1.05038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.696345</v>
+        <v>0.73651</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939649</v>
+        <v>1.01772</v>
       </c>
       <c r="C86" t="n">
-        <v>0.976923</v>
+        <v>1.07238</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711355</v>
+        <v>0.773966</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01513</v>
+        <v>1.0493</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0482</v>
+        <v>1.08936</v>
       </c>
       <c r="D87" t="n">
-        <v>0.744854</v>
+        <v>0.814093</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0041</v>
+        <v>1.09963</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09761</v>
+        <v>1.14388</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7783330000000001</v>
+        <v>0.85412</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04053</v>
+        <v>1.1077</v>
       </c>
       <c r="C89" t="n">
-        <v>1.153</v>
+        <v>1.22956</v>
       </c>
       <c r="D89" t="n">
-        <v>0.814397</v>
+        <v>0.8732529999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05864</v>
+        <v>1.16175</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13039</v>
+        <v>1.25442</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.909164</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09081</v>
+        <v>1.20183</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1693</v>
+        <v>1.29793</v>
       </c>
       <c r="D91" t="n">
-        <v>0.844513</v>
+        <v>0.908464</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.13376</v>
+        <v>1.23963</v>
       </c>
       <c r="C92" t="n">
-        <v>0.916815</v>
+        <v>0.9675820000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.72155</v>
+        <v>0.795598</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15268</v>
+        <v>1.26201</v>
       </c>
       <c r="C93" t="n">
-        <v>0.885419</v>
+        <v>0.984813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762004</v>
+        <v>0.812101</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18941</v>
+        <v>1.26223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9401080000000001</v>
+        <v>1.0185</v>
       </c>
       <c r="D94" t="n">
-        <v>0.76444</v>
+        <v>0.860895</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23908</v>
+        <v>1.33273</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0119</v>
+        <v>1.04756</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780384</v>
+        <v>0.893464</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2724</v>
+        <v>1.41574</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0137</v>
+        <v>1.07748</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8067299999999999</v>
+        <v>0.888112</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31565</v>
+        <v>1.45607</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03037</v>
+        <v>1.12228</v>
       </c>
       <c r="D97" t="n">
-        <v>0.814267</v>
+        <v>0.9148539999999999</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.968085</v>
+        <v>1.05691</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09008</v>
+        <v>1.15563</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836873</v>
+        <v>0.93657</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00445</v>
+        <v>1.08677</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09438</v>
+        <v>1.19312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.876285</v>
+        <v>0.936088</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.07229</v>
+        <v>1.09796</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13766</v>
+        <v>1.23077</v>
       </c>
       <c r="D100" t="n">
-        <v>0.901504</v>
+        <v>0.969777</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05312</v>
+        <v>1.17457</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1779</v>
+        <v>1.30624</v>
       </c>
       <c r="D101" t="n">
-        <v>0.942499</v>
+        <v>1.00385</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07943</v>
+        <v>1.16808</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20217</v>
+        <v>1.28961</v>
       </c>
       <c r="D102" t="n">
-        <v>0.950775</v>
+        <v>1.02002</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12291</v>
+        <v>1.19789</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25345</v>
+        <v>1.38107</v>
       </c>
       <c r="D103" t="n">
-        <v>0.958603</v>
+        <v>1.06814</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15759</v>
+        <v>1.25188</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28387</v>
+        <v>1.39842</v>
       </c>
       <c r="D104" t="n">
-        <v>0.994042</v>
+        <v>1.08238</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18609</v>
+        <v>1.25934</v>
       </c>
       <c r="C105" t="n">
-        <v>1.31879</v>
+        <v>1.4422</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00669</v>
+        <v>1.1231</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21036</v>
+        <v>1.29738</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39794</v>
+        <v>1.51654</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06163</v>
+        <v>1.13479</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24561</v>
+        <v>1.35457</v>
       </c>
       <c r="C107" t="n">
-        <v>0.997814</v>
+        <v>1.06225</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8557709999999999</v>
+        <v>0.911784</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.27885</v>
+        <v>1.38746</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02754</v>
+        <v>1.09636</v>
       </c>
       <c r="D108" t="n">
-        <v>0.847917</v>
+        <v>0.943503</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30159</v>
+        <v>1.42766</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07351</v>
+        <v>1.14859</v>
       </c>
       <c r="D109" t="n">
-        <v>0.865129</v>
+        <v>0.948712</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3411</v>
+        <v>1.46031</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05373</v>
+        <v>1.17337</v>
       </c>
       <c r="D110" t="n">
-        <v>0.896658</v>
+        <v>1.00428</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40281</v>
+        <v>1.52279</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09809</v>
+        <v>1.20375</v>
       </c>
       <c r="D111" t="n">
-        <v>0.933692</v>
+        <v>1.01583</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05027</v>
+        <v>1.13611</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1466</v>
+        <v>1.23257</v>
       </c>
       <c r="D112" t="n">
-        <v>0.98067</v>
+        <v>1.03574</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04449</v>
+        <v>1.21374</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15329</v>
+        <v>1.28948</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970261</v>
+        <v>1.06331</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.07215</v>
+        <v>1.20949</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21306</v>
+        <v>1.31509</v>
       </c>
       <c r="D114" t="n">
-        <v>0.98202</v>
+        <v>1.09431</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11103</v>
+        <v>1.21613</v>
       </c>
       <c r="C115" t="n">
-        <v>1.259</v>
+        <v>1.3382</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02382</v>
+        <v>1.09671</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14307</v>
+        <v>1.27218</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3061</v>
+        <v>1.39681</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05668</v>
+        <v>1.13643</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17618</v>
+        <v>1.28327</v>
       </c>
       <c r="C117" t="n">
-        <v>1.37682</v>
+        <v>1.46107</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07814</v>
+        <v>1.16193</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21099</v>
+        <v>1.34784</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43033</v>
+        <v>1.4966</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09975</v>
+        <v>1.21598</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25813</v>
+        <v>1.3858</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42094</v>
+        <v>1.56453</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17861</v>
+        <v>1.23893</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.585109</v>
+        <v>0.551697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417952</v>
+        <v>0.437698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236828</v>
+        <v>0.236747</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.358824</v>
+        <v>0.373226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437949</v>
+        <v>0.463059</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248877</v>
+        <v>0.250813</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375673</v>
+        <v>0.374609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.468355</v>
+        <v>0.481215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250561</v>
+        <v>0.255092</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392205</v>
+        <v>0.398863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.485982</v>
+        <v>0.508035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262321</v>
+        <v>0.274805</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414505</v>
+        <v>0.423755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517972</v>
+        <v>0.526992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271283</v>
+        <v>0.282904</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.445361</v>
+        <v>0.456355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.534141</v>
+        <v>0.549955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275748</v>
+        <v>0.309964</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450179</v>
+        <v>0.495449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595271</v>
+        <v>0.5674630000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283799</v>
+        <v>0.292769</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474031</v>
+        <v>0.489301</v>
       </c>
       <c r="C9" t="n">
-        <v>0.599396</v>
+        <v>0.617741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302422</v>
+        <v>0.31227</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.518297</v>
+        <v>0.515913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603345</v>
+        <v>0.631443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.308425</v>
+        <v>0.326954</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.528811</v>
+        <v>0.529604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394783</v>
+        <v>0.405984</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231413</v>
+        <v>0.241276</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.568513</v>
+        <v>0.5989679999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417771</v>
+        <v>0.41743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250406</v>
+        <v>0.250186</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.591203</v>
+        <v>0.616027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.421725</v>
+        <v>0.436991</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249543</v>
+        <v>0.254807</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.613888</v>
+        <v>0.646577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.458554</v>
+        <v>0.481184</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263546</v>
+        <v>0.269259</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.650261</v>
+        <v>0.644995</v>
       </c>
       <c r="C15" t="n">
-        <v>0.490056</v>
+        <v>0.488049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266494</v>
+        <v>0.277691</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.67471</v>
+        <v>0.677091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.491968</v>
+        <v>0.50063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276567</v>
+        <v>0.292716</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428854</v>
+        <v>0.427826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.539068</v>
+        <v>0.544922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285395</v>
+        <v>0.297787</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.450655</v>
+        <v>0.456561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.556756</v>
+        <v>0.5684630000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29511</v>
+        <v>0.331954</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452463</v>
+        <v>0.47284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.567706</v>
+        <v>0.5943580000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308355</v>
+        <v>0.313764</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.485494</v>
+        <v>0.501247</v>
       </c>
       <c r="C20" t="n">
-        <v>0.588522</v>
+        <v>0.632673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31648</v>
+        <v>0.32653</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.499136</v>
+        <v>0.512114</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618025</v>
+        <v>0.6357660000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.330688</v>
+        <v>0.353016</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.532742</v>
+        <v>0.5413829999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6571939999999999</v>
+        <v>0.662653</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353737</v>
+        <v>0.374156</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560374</v>
+        <v>0.56186</v>
       </c>
       <c r="C23" t="n">
-        <v>0.674547</v>
+        <v>0.7025709999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356169</v>
+        <v>0.369396</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.590409</v>
+        <v>0.587573</v>
       </c>
       <c r="C24" t="n">
-        <v>0.711667</v>
+        <v>0.716262</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364533</v>
+        <v>0.390629</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.598185</v>
+        <v>0.619119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.729362</v>
+        <v>0.753643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.379342</v>
+        <v>0.403326</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.618077</v>
+        <v>0.639489</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460517</v>
+        <v>0.474916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279375</v>
+        <v>0.293765</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.678897</v>
+        <v>0.668566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.486552</v>
+        <v>0.514391</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288024</v>
+        <v>0.298312</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6999030000000001</v>
+        <v>0.701227</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520911</v>
+        <v>0.51998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312452</v>
+        <v>0.302494</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7347129999999999</v>
+        <v>0.748517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547197</v>
+        <v>0.585246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.318777</v>
+        <v>0.333638</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.757125</v>
+        <v>0.7711750000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.562867</v>
+        <v>0.607784</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317817</v>
+        <v>0.337888</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824464</v>
+        <v>0.849332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585286</v>
+        <v>0.626163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347849</v>
+        <v>0.353268</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482847</v>
+        <v>0.54444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606827</v>
+        <v>0.640279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340922</v>
+        <v>0.356349</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519492</v>
+        <v>0.541548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6378200000000001</v>
+        <v>0.680584</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354497</v>
+        <v>0.382389</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535859</v>
+        <v>0.556991</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669286</v>
+        <v>0.74178</v>
       </c>
       <c r="D34" t="n">
-        <v>0.370979</v>
+        <v>0.396294</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56515</v>
+        <v>0.579847</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680559</v>
+        <v>0.70775</v>
       </c>
       <c r="D35" t="n">
-        <v>0.375878</v>
+        <v>0.39224</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.616514</v>
+        <v>0.630059</v>
       </c>
       <c r="C36" t="n">
-        <v>0.737328</v>
+        <v>0.780744</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393987</v>
+        <v>0.409619</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.634987</v>
+        <v>0.659497</v>
       </c>
       <c r="C37" t="n">
-        <v>0.775052</v>
+        <v>0.78572</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402222</v>
+        <v>0.42286</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.667988</v>
+        <v>0.72173</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834015</v>
+        <v>0.865896</v>
       </c>
       <c r="D38" t="n">
-        <v>0.421243</v>
+        <v>0.4537</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.775124</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875016</v>
+        <v>0.917802</v>
       </c>
       <c r="D39" t="n">
-        <v>0.450219</v>
+        <v>0.476781</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.759186</v>
+        <v>0.802907</v>
       </c>
       <c r="C40" t="n">
-        <v>0.535562</v>
+        <v>0.603514</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323776</v>
+        <v>0.352833</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.769776</v>
+        <v>0.8957079999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.562916</v>
+        <v>0.598199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348969</v>
+        <v>0.36465</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.832212</v>
+        <v>0.924268</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62398</v>
+        <v>0.654933</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364714</v>
+        <v>0.386249</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9060009999999999</v>
+        <v>0.975594</v>
       </c>
       <c r="C43" t="n">
-        <v>0.636503</v>
+        <v>0.68199</v>
       </c>
       <c r="D43" t="n">
-        <v>0.394129</v>
+        <v>0.417983</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.994217</v>
+        <v>1.02174</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675505</v>
+        <v>0.754651</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399422</v>
+        <v>0.440125</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02056</v>
+        <v>1.12202</v>
       </c>
       <c r="C45" t="n">
-        <v>0.726999</v>
+        <v>0.798241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409609</v>
+        <v>0.455421</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639335</v>
+        <v>0.745015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.76463</v>
+        <v>0.887217</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433438</v>
+        <v>0.489654</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.668102</v>
+        <v>0.773977</v>
       </c>
       <c r="C47" t="n">
-        <v>0.806752</v>
+        <v>0.892039</v>
       </c>
       <c r="D47" t="n">
-        <v>0.465498</v>
+        <v>0.505028</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.71397</v>
+        <v>0.816097</v>
       </c>
       <c r="C48" t="n">
-        <v>0.857698</v>
+        <v>0.980556</v>
       </c>
       <c r="D48" t="n">
-        <v>0.488614</v>
+        <v>0.5419119999999999</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.766282</v>
+        <v>0.854345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.920722</v>
+        <v>1.03796</v>
       </c>
       <c r="D49" t="n">
-        <v>0.506841</v>
+        <v>0.579251</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.803287</v>
+        <v>0.898884</v>
       </c>
       <c r="C50" t="n">
-        <v>0.982746</v>
+        <v>1.1246</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539618</v>
+        <v>0.587188</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.847398</v>
+        <v>0.974806</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03211</v>
+        <v>1.16324</v>
       </c>
       <c r="D51" t="n">
-        <v>0.556355</v>
+        <v>0.659147</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9162439999999999</v>
+        <v>1.05959</v>
       </c>
       <c r="C52" t="n">
-        <v>1.09887</v>
+        <v>1.31399</v>
       </c>
       <c r="D52" t="n">
-        <v>0.590772</v>
+        <v>0.6835869999999999</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.958844</v>
+        <v>1.09805</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22543</v>
+        <v>1.40994</v>
       </c>
       <c r="D53" t="n">
-        <v>0.618976</v>
+        <v>0.735058</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02333</v>
+        <v>1.16899</v>
       </c>
       <c r="C54" t="n">
-        <v>0.744407</v>
+        <v>0.896761</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439913</v>
+        <v>0.493233</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.086</v>
+        <v>1.23597</v>
       </c>
       <c r="C55" t="n">
-        <v>0.777078</v>
+        <v>0.9644</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461072</v>
+        <v>0.524988</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.22239</v>
+        <v>1.35323</v>
       </c>
       <c r="C56" t="n">
-        <v>0.842816</v>
+        <v>1.04511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494326</v>
+        <v>0.534554</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27599</v>
+        <v>1.44667</v>
       </c>
       <c r="C57" t="n">
-        <v>0.888884</v>
+        <v>1.13657</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5046580000000001</v>
+        <v>0.581822</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.3337</v>
+        <v>1.56835</v>
       </c>
       <c r="C58" t="n">
-        <v>0.980557</v>
+        <v>1.17265</v>
       </c>
       <c r="D58" t="n">
-        <v>0.535542</v>
+        <v>0.617183</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.47904</v>
+        <v>1.74087</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0292</v>
+        <v>1.30205</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565805</v>
+        <v>0.677779</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.941573</v>
+        <v>1.1158</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13685</v>
+        <v>1.4236</v>
       </c>
       <c r="D60" t="n">
-        <v>0.601402</v>
+        <v>0.693763</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01414</v>
+        <v>1.20825</v>
       </c>
       <c r="C61" t="n">
-        <v>1.21079</v>
+        <v>1.55938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649062</v>
+        <v>0.731365</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08955</v>
+        <v>1.30624</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31723</v>
+        <v>1.66196</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711046</v>
+        <v>0.77423</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15536</v>
+        <v>1.39648</v>
       </c>
       <c r="C63" t="n">
-        <v>1.46288</v>
+        <v>1.8343</v>
       </c>
       <c r="D63" t="n">
-        <v>0.746982</v>
+        <v>0.832361</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.22552</v>
+        <v>1.52223</v>
       </c>
       <c r="C64" t="n">
-        <v>1.49668</v>
+        <v>1.99221</v>
       </c>
       <c r="D64" t="n">
-        <v>0.782556</v>
+        <v>0.8819129999999999</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42989</v>
+        <v>1.69888</v>
       </c>
       <c r="C65" t="n">
-        <v>1.6959</v>
+        <v>2.16978</v>
       </c>
       <c r="D65" t="n">
-        <v>0.793169</v>
+        <v>0.983673</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.51764</v>
+        <v>1.78613</v>
       </c>
       <c r="C66" t="n">
-        <v>1.94816</v>
+        <v>2.39693</v>
       </c>
       <c r="D66" t="n">
-        <v>0.857343</v>
+        <v>1.00745</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.602</v>
+        <v>1.95004</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03625</v>
+        <v>2.58015</v>
       </c>
       <c r="D67" t="n">
-        <v>0.931084</v>
+        <v>1.06741</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.76608</v>
+        <v>2.122</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18174</v>
+        <v>1.49431</v>
       </c>
       <c r="D68" t="n">
-        <v>0.618086</v>
+        <v>0.753793</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.91232</v>
+        <v>2.35108</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30625</v>
+        <v>1.70249</v>
       </c>
       <c r="D69" t="n">
-        <v>0.676113</v>
+        <v>0.777811</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.17039</v>
+        <v>2.46426</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47522</v>
+        <v>1.78418</v>
       </c>
       <c r="D70" t="n">
-        <v>0.734087</v>
+        <v>0.842119</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.34159</v>
+        <v>2.67406</v>
       </c>
       <c r="C71" t="n">
-        <v>1.63552</v>
+        <v>1.94003</v>
       </c>
       <c r="D71" t="n">
-        <v>0.745204</v>
+        <v>0.897583</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.52827</v>
+        <v>2.89524</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69381</v>
+        <v>2.05208</v>
       </c>
       <c r="D72" t="n">
-        <v>0.823887</v>
+        <v>0.960293</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.68883</v>
+        <v>3.1108</v>
       </c>
       <c r="C73" t="n">
-        <v>1.86677</v>
+        <v>2.16831</v>
       </c>
       <c r="D73" t="n">
-        <v>0.854367</v>
+        <v>1.01116</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69573</v>
+        <v>1.92525</v>
       </c>
       <c r="C74" t="n">
-        <v>1.98836</v>
+        <v>2.42055</v>
       </c>
       <c r="D74" t="n">
-        <v>0.930492</v>
+        <v>1.0781</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.78823</v>
+        <v>2.08051</v>
       </c>
       <c r="C75" t="n">
-        <v>2.20096</v>
+        <v>2.56467</v>
       </c>
       <c r="D75" t="n">
-        <v>0.996291</v>
+        <v>1.20668</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.90402</v>
+        <v>2.2372</v>
       </c>
       <c r="C76" t="n">
-        <v>2.31558</v>
+        <v>2.83703</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05917</v>
+        <v>1.23514</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.04891</v>
+        <v>2.36884</v>
       </c>
       <c r="C77" t="n">
-        <v>2.61927</v>
+        <v>2.8957</v>
       </c>
       <c r="D77" t="n">
-        <v>1.11339</v>
+        <v>1.32566</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19299</v>
+        <v>2.527</v>
       </c>
       <c r="C78" t="n">
-        <v>2.78433</v>
+        <v>3.25558</v>
       </c>
       <c r="D78" t="n">
-        <v>1.28549</v>
+        <v>1.40147</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.39722</v>
+        <v>2.6303</v>
       </c>
       <c r="C79" t="n">
-        <v>3.08845</v>
+        <v>3.39794</v>
       </c>
       <c r="D79" t="n">
-        <v>1.27553</v>
+        <v>1.49521</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49002</v>
+        <v>2.80941</v>
       </c>
       <c r="C80" t="n">
-        <v>3.17774</v>
+        <v>3.59098</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35216</v>
+        <v>1.58324</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.67882</v>
+        <v>2.94284</v>
       </c>
       <c r="C81" t="n">
-        <v>3.37498</v>
+        <v>3.86912</v>
       </c>
       <c r="D81" t="n">
-        <v>1.46055</v>
+        <v>1.6433</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.81273</v>
+        <v>3.17906</v>
       </c>
       <c r="C82" t="n">
-        <v>3.60678</v>
+        <v>4.14362</v>
       </c>
       <c r="D82" t="n">
-        <v>1.54925</v>
+        <v>1.79936</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.04182</v>
+        <v>3.35623</v>
       </c>
       <c r="C83" t="n">
-        <v>2.03976</v>
+        <v>2.3939</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0276</v>
+        <v>1.24149</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.23461</v>
+        <v>3.54837</v>
       </c>
       <c r="C84" t="n">
-        <v>2.22939</v>
+        <v>2.51117</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10534</v>
+        <v>1.29621</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.44102</v>
+        <v>3.68454</v>
       </c>
       <c r="C85" t="n">
-        <v>2.34109</v>
+        <v>2.59883</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15154</v>
+        <v>1.35513</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.57035</v>
+        <v>3.96977</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55915</v>
+        <v>2.81727</v>
       </c>
       <c r="D86" t="n">
-        <v>1.28292</v>
+        <v>1.40207</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.96258</v>
+        <v>4.16146</v>
       </c>
       <c r="C87" t="n">
-        <v>2.79515</v>
+        <v>3.00415</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32247</v>
+        <v>1.53621</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.17141</v>
+        <v>4.48758</v>
       </c>
       <c r="C88" t="n">
-        <v>2.90208</v>
+        <v>3.16585</v>
       </c>
       <c r="D88" t="n">
-        <v>1.4163</v>
+        <v>1.59792</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39853</v>
+        <v>2.64543</v>
       </c>
       <c r="C89" t="n">
-        <v>2.97176</v>
+        <v>3.34096</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52763</v>
+        <v>1.64693</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.55852</v>
+        <v>2.82816</v>
       </c>
       <c r="C90" t="n">
-        <v>3.1702</v>
+        <v>3.60444</v>
       </c>
       <c r="D90" t="n">
-        <v>1.52608</v>
+        <v>1.74108</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.68853</v>
+        <v>2.96352</v>
       </c>
       <c r="C91" t="n">
-        <v>3.43402</v>
+        <v>3.78572</v>
       </c>
       <c r="D91" t="n">
-        <v>1.65506</v>
+        <v>1.80076</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88845</v>
+        <v>3.11373</v>
       </c>
       <c r="C92" t="n">
-        <v>3.56091</v>
+        <v>3.95554</v>
       </c>
       <c r="D92" t="n">
-        <v>1.70852</v>
+        <v>1.93004</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96011</v>
+        <v>3.22309</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74431</v>
+        <v>4.17749</v>
       </c>
       <c r="D93" t="n">
-        <v>1.79318</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.04028</v>
+        <v>3.45732</v>
       </c>
       <c r="C94" t="n">
-        <v>3.93317</v>
+        <v>4.54401</v>
       </c>
       <c r="D94" t="n">
-        <v>1.89046</v>
+        <v>2.1798</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.29353</v>
+        <v>3.56335</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1394</v>
+        <v>4.71624</v>
       </c>
       <c r="D95" t="n">
-        <v>2.08546</v>
+        <v>2.24188</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.43376</v>
+        <v>3.81694</v>
       </c>
       <c r="C96" t="n">
-        <v>4.47995</v>
+        <v>5.01198</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07583</v>
+        <v>2.34847</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.71194</v>
+        <v>3.90029</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6622</v>
+        <v>2.8545</v>
       </c>
       <c r="D97" t="n">
-        <v>1.39332</v>
+        <v>1.5915</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.84538</v>
+        <v>4.15906</v>
       </c>
       <c r="C98" t="n">
-        <v>2.68429</v>
+        <v>2.97697</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47171</v>
+        <v>1.64146</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.07515</v>
+        <v>4.40211</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82369</v>
+        <v>3.14663</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53207</v>
+        <v>1.70178</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.19371</v>
+        <v>4.58629</v>
       </c>
       <c r="C100" t="n">
-        <v>3.08247</v>
+        <v>3.36088</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59933</v>
+        <v>1.80816</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.4361</v>
+        <v>4.75754</v>
       </c>
       <c r="C101" t="n">
-        <v>3.12517</v>
+        <v>3.47034</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72207</v>
+        <v>1.87111</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.58946</v>
+        <v>4.98465</v>
       </c>
       <c r="C102" t="n">
-        <v>3.34529</v>
+        <v>3.61583</v>
       </c>
       <c r="D102" t="n">
-        <v>1.853</v>
+        <v>1.95609</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6954</v>
+        <v>2.97573</v>
       </c>
       <c r="C103" t="n">
-        <v>3.49827</v>
+        <v>3.85629</v>
       </c>
       <c r="D103" t="n">
-        <v>1.87112</v>
+        <v>2.08549</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.78388</v>
+        <v>3.04824</v>
       </c>
       <c r="C104" t="n">
-        <v>3.69803</v>
+        <v>3.95547</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87312</v>
+        <v>2.15981</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.97561</v>
+        <v>3.17493</v>
       </c>
       <c r="C105" t="n">
-        <v>3.91054</v>
+        <v>4.25913</v>
       </c>
       <c r="D105" t="n">
-        <v>1.97085</v>
+        <v>2.18235</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.11476</v>
+        <v>3.3862</v>
       </c>
       <c r="C106" t="n">
-        <v>4.14174</v>
+        <v>4.48828</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07464</v>
+        <v>2.29532</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.21488</v>
+        <v>3.56844</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28737</v>
+        <v>4.73812</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18026</v>
+        <v>2.36946</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.39084</v>
+        <v>3.68322</v>
       </c>
       <c r="C108" t="n">
-        <v>4.4881</v>
+        <v>4.98653</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31164</v>
+        <v>2.52521</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.55835</v>
+        <v>3.85048</v>
       </c>
       <c r="C109" t="n">
-        <v>4.7414</v>
+        <v>5.28096</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36753</v>
+        <v>2.58554</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74474</v>
+        <v>4.04549</v>
       </c>
       <c r="C110" t="n">
-        <v>5.00491</v>
+        <v>5.42694</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53856</v>
+        <v>2.70873</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.92201</v>
+        <v>4.24586</v>
       </c>
       <c r="C111" t="n">
-        <v>2.76308</v>
+        <v>3.05996</v>
       </c>
       <c r="D111" t="n">
-        <v>1.70228</v>
+        <v>1.95573</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.18216</v>
+        <v>4.41468</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9375</v>
+        <v>3.18695</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74034</v>
+        <v>1.95172</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3247</v>
+        <v>4.56812</v>
       </c>
       <c r="C113" t="n">
-        <v>3.09485</v>
+        <v>3.39139</v>
       </c>
       <c r="D113" t="n">
-        <v>1.87585</v>
+        <v>2.048</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58923</v>
+        <v>4.79194</v>
       </c>
       <c r="C114" t="n">
-        <v>3.22041</v>
+        <v>3.52701</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87309</v>
+        <v>2.09565</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.73827</v>
+        <v>5.08909</v>
       </c>
       <c r="C115" t="n">
-        <v>3.39126</v>
+        <v>3.72429</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96058</v>
+        <v>2.18948</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97852</v>
+        <v>5.26508</v>
       </c>
       <c r="C116" t="n">
-        <v>3.53817</v>
+        <v>3.85747</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12333</v>
+        <v>2.2531</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.88457</v>
+        <v>3.09427</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75135</v>
+        <v>4.0669</v>
       </c>
       <c r="D117" t="n">
-        <v>2.09144</v>
+        <v>2.36966</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.01571</v>
+        <v>3.2168</v>
       </c>
       <c r="C118" t="n">
-        <v>3.99949</v>
+        <v>4.32462</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26063</v>
+        <v>2.52817</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.13576</v>
+        <v>3.41014</v>
       </c>
       <c r="C119" t="n">
-        <v>4.11765</v>
+        <v>4.52228</v>
       </c>
       <c r="D119" t="n">
-        <v>2.28993</v>
+        <v>2.59232</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.226637</v>
+        <v>0.227551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.221592</v>
+        <v>0.216794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234741</v>
+        <v>0.240821</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228939</v>
+        <v>0.228401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226196</v>
+        <v>0.221756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24156</v>
+        <v>0.237529</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241454</v>
+        <v>0.23609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236101</v>
+        <v>0.230175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254563</v>
+        <v>0.247699</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242167</v>
+        <v>0.249367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236373</v>
+        <v>0.231601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250336</v>
+        <v>0.262553</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244427</v>
+        <v>0.260992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247432</v>
+        <v>0.242089</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26083</v>
+        <v>0.262092</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.241764</v>
+        <v>0.249608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199068</v>
+        <v>0.193029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220185</v>
+        <v>0.211813</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25225</v>
+        <v>0.244955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204468</v>
+        <v>0.196133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227349</v>
+        <v>0.216603</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.253325</v>
+        <v>0.266163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.203468</v>
+        <v>0.20355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233966</v>
+        <v>0.240206</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.259649</v>
+        <v>0.260749</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206467</v>
+        <v>0.209776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.235812</v>
+        <v>0.235944</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.261803</v>
+        <v>0.268309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215854</v>
+        <v>0.216306</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242407</v>
+        <v>0.238604</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26734</v>
+        <v>0.270664</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226743</v>
+        <v>0.222531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24991</v>
+        <v>0.251653</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229637</v>
+        <v>0.22979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.224908</v>
+        <v>0.227472</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257147</v>
+        <v>0.258557</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.227318</v>
+        <v>0.228423</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234611</v>
+        <v>0.234969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.264205</v>
+        <v>0.261274</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.228094</v>
+        <v>0.238023</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238025</v>
+        <v>0.242862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275978</v>
+        <v>0.282292</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.238355</v>
+        <v>0.239122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247737</v>
+        <v>0.245609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.268481</v>
+        <v>0.282976</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253506</v>
+        <v>0.250322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246583</v>
+        <v>0.245328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.279252</v>
+        <v>0.284881</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240151</v>
+        <v>0.246066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252526</v>
+        <v>0.25322</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287514</v>
+        <v>0.285669</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254223</v>
+        <v>0.254122</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264115</v>
+        <v>0.255084</v>
       </c>
       <c r="D19" t="n">
-        <v>0.289111</v>
+        <v>0.285345</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.262576</v>
+        <v>0.265591</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267919</v>
+        <v>0.269437</v>
       </c>
       <c r="D20" t="n">
-        <v>0.30571</v>
+        <v>0.302473</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.259779</v>
+        <v>0.264773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20524</v>
+        <v>0.204368</v>
       </c>
       <c r="D21" t="n">
-        <v>0.227058</v>
+        <v>0.229079</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.265776</v>
+        <v>0.265952</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208608</v>
+        <v>0.212329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240772</v>
+        <v>0.239562</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.272002</v>
+        <v>0.282342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.216809</v>
+        <v>0.225256</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246359</v>
+        <v>0.255686</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269164</v>
+        <v>0.274331</v>
       </c>
       <c r="C24" t="n">
-        <v>0.221157</v>
+        <v>0.238728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.245706</v>
+        <v>0.257466</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.277644</v>
+        <v>0.289551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.235416</v>
+        <v>0.238899</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25557</v>
+        <v>0.262444</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28743</v>
+        <v>0.284358</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230659</v>
+        <v>0.249012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27115</v>
+        <v>0.270198</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.246087</v>
+        <v>0.238651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233141</v>
+        <v>0.241158</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281346</v>
+        <v>0.283691</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.253158</v>
+        <v>0.251892</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260248</v>
+        <v>0.248045</v>
       </c>
       <c r="D28" t="n">
-        <v>0.28695</v>
+        <v>0.290444</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.253288</v>
+        <v>0.252338</v>
       </c>
       <c r="C29" t="n">
-        <v>0.252902</v>
+        <v>0.270539</v>
       </c>
       <c r="D29" t="n">
-        <v>0.296954</v>
+        <v>0.303013</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269052</v>
+        <v>0.260776</v>
       </c>
       <c r="C30" t="n">
-        <v>0.266101</v>
+        <v>0.272235</v>
       </c>
       <c r="D30" t="n">
-        <v>0.296813</v>
+        <v>0.317357</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.282621</v>
+        <v>0.284306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.264371</v>
+        <v>0.268333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.300669</v>
+        <v>0.31817</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289548</v>
+        <v>0.27217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280903</v>
+        <v>0.280109</v>
       </c>
       <c r="D32" t="n">
-        <v>0.30811</v>
+        <v>0.316174</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.299352</v>
+        <v>0.29128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.29528</v>
+        <v>0.285847</v>
       </c>
       <c r="D33" t="n">
-        <v>0.335426</v>
+        <v>0.329846</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.305076</v>
+        <v>0.302466</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297837</v>
+        <v>0.297184</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3564</v>
+        <v>0.352709</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.316386</v>
+        <v>0.310612</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231234</v>
+        <v>0.236792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.269414</v>
+        <v>0.281611</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.33193</v>
+        <v>0.31441</v>
       </c>
       <c r="C36" t="n">
-        <v>0.238303</v>
+        <v>0.240949</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286432</v>
+        <v>0.282863</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.336907</v>
+        <v>0.325201</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247223</v>
+        <v>0.25185</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288691</v>
+        <v>0.292209</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34115</v>
+        <v>0.325695</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252872</v>
+        <v>0.256439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.295719</v>
+        <v>0.295477</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350664</v>
+        <v>0.338669</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284166</v>
+        <v>0.279518</v>
       </c>
       <c r="D39" t="n">
-        <v>0.306982</v>
+        <v>0.313469</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.360112</v>
+        <v>0.357042</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278438</v>
+        <v>0.292037</v>
       </c>
       <c r="D40" t="n">
-        <v>0.318593</v>
+        <v>0.326209</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330031</v>
+        <v>0.327463</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299947</v>
+        <v>0.291282</v>
       </c>
       <c r="D41" t="n">
-        <v>0.346162</v>
+        <v>0.336655</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333622</v>
+        <v>0.32475</v>
       </c>
       <c r="C42" t="n">
-        <v>0.307264</v>
+        <v>0.306938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.347474</v>
+        <v>0.353624</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.357941</v>
+        <v>0.34625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.317515</v>
+        <v>0.316707</v>
       </c>
       <c r="D43" t="n">
-        <v>0.362097</v>
+        <v>0.363397</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.364568</v>
+        <v>0.364206</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324744</v>
+        <v>0.318328</v>
       </c>
       <c r="D44" t="n">
-        <v>0.380729</v>
+        <v>0.378844</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.380862</v>
+        <v>0.379969</v>
       </c>
       <c r="C45" t="n">
-        <v>0.349796</v>
+        <v>0.332823</v>
       </c>
       <c r="D45" t="n">
-        <v>0.396307</v>
+        <v>0.387975</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.385988</v>
+        <v>0.387137</v>
       </c>
       <c r="C46" t="n">
-        <v>0.353578</v>
+        <v>0.348222</v>
       </c>
       <c r="D46" t="n">
-        <v>0.39961</v>
+        <v>0.405647</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.401731</v>
+        <v>0.404654</v>
       </c>
       <c r="C47" t="n">
-        <v>0.36259</v>
+        <v>0.372461</v>
       </c>
       <c r="D47" t="n">
-        <v>0.434404</v>
+        <v>0.416328</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.421489</v>
+        <v>0.421611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.394127</v>
+        <v>0.385601</v>
       </c>
       <c r="D48" t="n">
-        <v>0.451609</v>
+        <v>0.443915</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.427728</v>
+        <v>0.418584</v>
       </c>
       <c r="C49" t="n">
-        <v>0.410251</v>
+        <v>0.384353</v>
       </c>
       <c r="D49" t="n">
-        <v>0.464927</v>
+        <v>0.453056</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469449</v>
+        <v>0.450582</v>
       </c>
       <c r="C50" t="n">
-        <v>0.323591</v>
+        <v>0.31475</v>
       </c>
       <c r="D50" t="n">
-        <v>0.371144</v>
+        <v>0.362472</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.471934</v>
+        <v>0.465889</v>
       </c>
       <c r="C51" t="n">
-        <v>0.325618</v>
+        <v>0.336563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.392681</v>
+        <v>0.376886</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503211</v>
+        <v>0.482008</v>
       </c>
       <c r="C52" t="n">
-        <v>0.356868</v>
+        <v>0.352959</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415493</v>
+        <v>0.422628</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.507768</v>
+        <v>0.514375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.361812</v>
+        <v>0.369244</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432651</v>
+        <v>0.422937</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.529201</v>
+        <v>0.524339</v>
       </c>
       <c r="C54" t="n">
-        <v>0.390267</v>
+        <v>0.381298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.452143</v>
+        <v>0.435062</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.563819</v>
+        <v>0.534057</v>
       </c>
       <c r="C55" t="n">
-        <v>0.419316</v>
+        <v>0.39637</v>
       </c>
       <c r="D55" t="n">
-        <v>0.492677</v>
+        <v>0.458481</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5190439999999999</v>
+        <v>0.508628</v>
       </c>
       <c r="C56" t="n">
-        <v>0.449975</v>
+        <v>0.412662</v>
       </c>
       <c r="D56" t="n">
-        <v>0.493071</v>
+        <v>0.484405</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.556178</v>
+        <v>0.524658</v>
       </c>
       <c r="C57" t="n">
-        <v>0.443506</v>
+        <v>0.42658</v>
       </c>
       <c r="D57" t="n">
-        <v>0.510308</v>
+        <v>0.497078</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.586279</v>
+        <v>0.547509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.478499</v>
+        <v>0.455332</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553285</v>
+        <v>0.529463</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.598414</v>
+        <v>0.564325</v>
       </c>
       <c r="C59" t="n">
-        <v>0.49745</v>
+        <v>0.485621</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5885629999999999</v>
+        <v>0.5843699999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.619557</v>
+        <v>0.610861</v>
       </c>
       <c r="C60" t="n">
-        <v>0.521828</v>
+        <v>0.523651</v>
       </c>
       <c r="D60" t="n">
-        <v>0.615313</v>
+        <v>0.593345</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.65323</v>
+        <v>0.62523</v>
       </c>
       <c r="C61" t="n">
-        <v>0.558774</v>
+        <v>0.541482</v>
       </c>
       <c r="D61" t="n">
-        <v>0.661565</v>
+        <v>0.628242</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.668704</v>
+        <v>0.677598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.585363</v>
+        <v>0.57787</v>
       </c>
       <c r="D62" t="n">
-        <v>0.654544</v>
+        <v>0.667644</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6922739999999999</v>
+        <v>0.649485</v>
       </c>
       <c r="C63" t="n">
-        <v>0.614277</v>
+        <v>0.606096</v>
       </c>
       <c r="D63" t="n">
-        <v>0.715068</v>
+        <v>0.71439</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.726126</v>
+        <v>0.707327</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5165650000000001</v>
+        <v>0.5116000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.612552</v>
+        <v>0.591835</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.774436</v>
+        <v>0.765308</v>
       </c>
       <c r="C65" t="n">
-        <v>0.559365</v>
+        <v>0.560198</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6453719999999999</v>
+        <v>0.609645</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.795444</v>
+        <v>0.801349</v>
       </c>
       <c r="C66" t="n">
-        <v>0.560532</v>
+        <v>0.573534</v>
       </c>
       <c r="D66" t="n">
-        <v>0.665111</v>
+        <v>0.67117</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.799014</v>
+        <v>0.815852</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576612</v>
+        <v>0.596222</v>
       </c>
       <c r="D67" t="n">
-        <v>0.683299</v>
+        <v>0.708744</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.830547</v>
+        <v>0.865561</v>
       </c>
       <c r="C68" t="n">
-        <v>0.604567</v>
+        <v>0.6444</v>
       </c>
       <c r="D68" t="n">
-        <v>0.717179</v>
+        <v>0.716256</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.856568</v>
+        <v>0.8926809999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.622861</v>
+        <v>0.665963</v>
       </c>
       <c r="D69" t="n">
-        <v>0.755018</v>
+        <v>0.74929</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.743104</v>
+        <v>0.759167</v>
       </c>
       <c r="C70" t="n">
-        <v>0.692788</v>
+        <v>0.700684</v>
       </c>
       <c r="D70" t="n">
-        <v>0.797953</v>
+        <v>0.782534</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.778053</v>
+        <v>0.791414</v>
       </c>
       <c r="C71" t="n">
-        <v>0.748569</v>
+        <v>0.746312</v>
       </c>
       <c r="D71" t="n">
-        <v>0.850344</v>
+        <v>0.845228</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.804027</v>
+        <v>0.824259</v>
       </c>
       <c r="C72" t="n">
-        <v>0.761178</v>
+        <v>0.751217</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8809940000000001</v>
+        <v>0.865321</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.802512</v>
+        <v>0.858368</v>
       </c>
       <c r="C73" t="n">
-        <v>0.799805</v>
+        <v>0.785266</v>
       </c>
       <c r="D73" t="n">
-        <v>0.920537</v>
+        <v>0.8925729999999999</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.821504</v>
+        <v>0.846634</v>
       </c>
       <c r="C74" t="n">
-        <v>0.794376</v>
+        <v>0.806705</v>
       </c>
       <c r="D74" t="n">
-        <v>0.955958</v>
+        <v>0.950512</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.874241</v>
+        <v>0.906235</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8596510000000001</v>
+        <v>0.855606</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9950830000000001</v>
+        <v>0.994731</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.898871</v>
+        <v>0.906237</v>
       </c>
       <c r="C76" t="n">
-        <v>0.888543</v>
+        <v>0.881846</v>
       </c>
       <c r="D76" t="n">
-        <v>1.0045</v>
+        <v>1.00982</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.921774</v>
+        <v>0.9575669999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.949804</v>
+        <v>0.917247</v>
       </c>
       <c r="D77" t="n">
-        <v>1.05669</v>
+        <v>1.10239</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.936509</v>
+        <v>0.990062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7296010000000001</v>
+        <v>0.785192</v>
       </c>
       <c r="D78" t="n">
-        <v>0.897054</v>
+        <v>0.872649</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.987076</v>
+        <v>1.01159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.784926</v>
+        <v>0.764172</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9405520000000001</v>
+        <v>0.921884</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02247</v>
+        <v>1.03492</v>
       </c>
       <c r="C80" t="n">
-        <v>0.788073</v>
+        <v>0.802712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9572000000000001</v>
+        <v>0.937367</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07413</v>
+        <v>1.071</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838875</v>
+        <v>0.803984</v>
       </c>
       <c r="D81" t="n">
-        <v>0.992966</v>
+        <v>0.9915040000000001</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07284</v>
+        <v>1.08648</v>
       </c>
       <c r="C82" t="n">
-        <v>0.860383</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03723</v>
+        <v>1.01494</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.13383</v>
+        <v>1.12961</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8638710000000001</v>
+        <v>0.868259</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06963</v>
+        <v>1.04904</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.89713</v>
+        <v>0.916651</v>
       </c>
       <c r="C84" t="n">
-        <v>0.902502</v>
+        <v>0.897038</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12859</v>
+        <v>1.12174</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9135490000000001</v>
+        <v>0.9403280000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.938886</v>
+        <v>0.9187380000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.14305</v>
+        <v>1.14175</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939692</v>
+        <v>0.9245719999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.974836</v>
+        <v>0.948294</v>
       </c>
       <c r="D86" t="n">
-        <v>1.20758</v>
+        <v>1.22758</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.972816</v>
+        <v>0.967076</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00129</v>
+        <v>0.985588</v>
       </c>
       <c r="D87" t="n">
-        <v>1.2219</v>
+        <v>1.21748</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.993364</v>
+        <v>0.996866</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05606</v>
+        <v>1.04164</v>
       </c>
       <c r="D88" t="n">
-        <v>1.30414</v>
+        <v>1.25284</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03133</v>
+        <v>1.00751</v>
       </c>
       <c r="C89" t="n">
-        <v>1.06112</v>
+        <v>1.04826</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31092</v>
+        <v>1.275</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.02597</v>
+        <v>1.07426</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1337</v>
+        <v>1.10646</v>
       </c>
       <c r="D90" t="n">
-        <v>1.36331</v>
+        <v>1.3545</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.08068</v>
+        <v>1.09532</v>
       </c>
       <c r="C91" t="n">
-        <v>1.12648</v>
+        <v>1.15479</v>
       </c>
       <c r="D91" t="n">
-        <v>1.39106</v>
+        <v>1.37179</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.10784</v>
+        <v>1.10395</v>
       </c>
       <c r="C92" t="n">
-        <v>0.889162</v>
+        <v>0.883209</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12779</v>
+        <v>1.09689</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15176</v>
+        <v>1.13836</v>
       </c>
       <c r="C93" t="n">
-        <v>0.906528</v>
+        <v>0.90689</v>
       </c>
       <c r="D93" t="n">
-        <v>1.17427</v>
+        <v>1.16551</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1774</v>
+        <v>1.16678</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9141</v>
+        <v>0.927245</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17493</v>
+        <v>1.18179</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2166</v>
+        <v>1.1925</v>
       </c>
       <c r="C95" t="n">
-        <v>0.972485</v>
+        <v>0.961036</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21443</v>
+        <v>1.2034</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21578</v>
+        <v>1.21032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.978701</v>
+        <v>1.00037</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25741</v>
+        <v>1.24954</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25419</v>
+        <v>1.264</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00128</v>
+        <v>1.02327</v>
       </c>
       <c r="D97" t="n">
-        <v>1.29181</v>
+        <v>1.27062</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.965755</v>
+        <v>1.02734</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03211</v>
+        <v>1.04967</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34341</v>
+        <v>1.33645</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02417</v>
+        <v>1.01049</v>
       </c>
       <c r="C99" t="n">
-        <v>1.07188</v>
+        <v>1.07648</v>
       </c>
       <c r="D99" t="n">
-        <v>1.34886</v>
+        <v>1.35605</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03881</v>
+        <v>1.05515</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09924</v>
+        <v>1.11211</v>
       </c>
       <c r="D100" t="n">
-        <v>1.41763</v>
+        <v>1.39125</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07215</v>
+        <v>1.07659</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12452</v>
+        <v>1.09858</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44247</v>
+        <v>1.44658</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09826</v>
+        <v>1.14034</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1697</v>
+        <v>1.1442</v>
       </c>
       <c r="D102" t="n">
-        <v>1.50553</v>
+        <v>1.46226</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11733</v>
+        <v>1.12855</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20419</v>
+        <v>1.20268</v>
       </c>
       <c r="D103" t="n">
-        <v>1.5517</v>
+        <v>1.49686</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.1517</v>
+        <v>1.17868</v>
       </c>
       <c r="C104" t="n">
-        <v>1.2337</v>
+        <v>1.24184</v>
       </c>
       <c r="D104" t="n">
-        <v>1.54585</v>
+        <v>1.62746</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.17977</v>
+        <v>1.17206</v>
       </c>
       <c r="C105" t="n">
-        <v>1.26408</v>
+        <v>1.24373</v>
       </c>
       <c r="D105" t="n">
-        <v>1.66126</v>
+        <v>1.63808</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.23006</v>
+        <v>1.23514</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31776</v>
+        <v>1.32281</v>
       </c>
       <c r="D106" t="n">
-        <v>1.66527</v>
+        <v>1.67438</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22318</v>
+        <v>1.26626</v>
       </c>
       <c r="C107" t="n">
-        <v>0.980277</v>
+        <v>1.01653</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3238</v>
+        <v>1.2668</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.28423</v>
+        <v>1.31204</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04027</v>
+        <v>1.01865</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3353</v>
+        <v>1.36267</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.35404</v>
+        <v>1.34022</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07172</v>
+        <v>1.06052</v>
       </c>
       <c r="D109" t="n">
-        <v>1.37465</v>
+        <v>1.4202</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35033</v>
+        <v>1.39581</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09502</v>
+        <v>1.07758</v>
       </c>
       <c r="D110" t="n">
-        <v>1.44383</v>
+        <v>1.40014</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37152</v>
+        <v>1.38798</v>
       </c>
       <c r="C111" t="n">
-        <v>1.11181</v>
+        <v>1.07017</v>
       </c>
       <c r="D111" t="n">
-        <v>1.48783</v>
+        <v>1.46467</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15254</v>
+        <v>1.07467</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17622</v>
+        <v>1.17279</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50917</v>
+        <v>1.47658</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20283</v>
+        <v>1.13199</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12977</v>
+        <v>1.22039</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56909</v>
+        <v>1.47723</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17849</v>
+        <v>1.11879</v>
       </c>
       <c r="C114" t="n">
-        <v>1.2204</v>
+        <v>1.18814</v>
       </c>
       <c r="D114" t="n">
-        <v>1.56906</v>
+        <v>1.60052</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30331</v>
+        <v>1.15281</v>
       </c>
       <c r="C115" t="n">
-        <v>1.22709</v>
+        <v>1.21254</v>
       </c>
       <c r="D115" t="n">
-        <v>1.586</v>
+        <v>1.5923</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2233</v>
+        <v>1.16305</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31802</v>
+        <v>1.23671</v>
       </c>
       <c r="D116" t="n">
-        <v>1.71547</v>
+        <v>1.63592</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28285</v>
+        <v>1.20208</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2806</v>
+        <v>1.30921</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7271</v>
+        <v>1.72597</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30593</v>
+        <v>1.25012</v>
       </c>
       <c r="C118" t="n">
-        <v>1.33855</v>
+        <v>1.29556</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75768</v>
+        <v>1.72545</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.33989</v>
+        <v>1.28302</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35746</v>
+        <v>1.35045</v>
       </c>
       <c r="D119" t="n">
-        <v>1.78463</v>
+        <v>1.81258</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190321</v>
+        <v>0.191895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188213</v>
+        <v>0.185623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.149404</v>
+        <v>0.147338</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190956</v>
+        <v>0.187363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188749</v>
+        <v>0.194423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.150529</v>
+        <v>0.150144</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194408</v>
+        <v>0.200921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201025</v>
+        <v>0.197166</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15231</v>
+        <v>0.15247</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20127</v>
+        <v>0.199914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202318</v>
+        <v>0.204881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16373</v>
+        <v>0.157597</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.210278</v>
+        <v>0.206699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2104</v>
+        <v>0.213288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160608</v>
+        <v>0.15551</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.208678</v>
+        <v>0.218686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.170277</v>
+        <v>0.17057</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147123</v>
+        <v>0.151797</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21799</v>
+        <v>0.21793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.169532</v>
+        <v>0.17206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146963</v>
+        <v>0.148471</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223476</v>
+        <v>0.225827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177365</v>
+        <v>0.184369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149263</v>
+        <v>0.152188</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234672</v>
+        <v>0.233917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185328</v>
+        <v>0.183696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151556</v>
+        <v>0.156874</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235809</v>
+        <v>0.235369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181207</v>
+        <v>0.185802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.155356</v>
+        <v>0.154559</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.244154</v>
+        <v>0.247242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18712</v>
+        <v>0.188873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.159888</v>
+        <v>0.16398</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.192656</v>
+        <v>0.191827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189927</v>
+        <v>0.201616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159797</v>
+        <v>0.160426</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.200227</v>
+        <v>0.201666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200257</v>
+        <v>0.202301</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162877</v>
+        <v>0.16578</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.200223</v>
+        <v>0.203132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203972</v>
+        <v>0.211116</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173038</v>
+        <v>0.170069</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206085</v>
+        <v>0.210736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219318</v>
+        <v>0.213312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.175194</v>
+        <v>0.17234</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.212065</v>
+        <v>0.210795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225176</v>
+        <v>0.218835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179725</v>
+        <v>0.171841</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.221043</v>
+        <v>0.219523</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227892</v>
+        <v>0.232502</v>
       </c>
       <c r="D18" t="n">
-        <v>0.181042</v>
+        <v>0.174859</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.230197</v>
+        <v>0.218497</v>
       </c>
       <c r="C19" t="n">
-        <v>0.228261</v>
+        <v>0.225178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.188049</v>
+        <v>0.176892</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233123</v>
+        <v>0.225304</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245049</v>
+        <v>0.238299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18138</v>
+        <v>0.18801</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228496</v>
+        <v>0.229801</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183297</v>
+        <v>0.184473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167204</v>
+        <v>0.169522</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235673</v>
+        <v>0.239862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18323</v>
+        <v>0.186819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.161572</v>
+        <v>0.170676</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245757</v>
+        <v>0.247812</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195111</v>
+        <v>0.194002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167559</v>
+        <v>0.17143</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.247135</v>
+        <v>0.258857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.201082</v>
+        <v>0.201468</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167371</v>
+        <v>0.17529</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261025</v>
+        <v>0.264657</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200684</v>
+        <v>0.209919</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173855</v>
+        <v>0.173556</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274325</v>
+        <v>0.2816</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221274</v>
+        <v>0.216934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.17941</v>
+        <v>0.183834</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232552</v>
+        <v>0.230411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213115</v>
+        <v>0.217607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180804</v>
+        <v>0.189125</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.242501</v>
+        <v>0.237544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217778</v>
+        <v>0.222833</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182213</v>
+        <v>0.185637</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241418</v>
+        <v>0.235963</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227737</v>
+        <v>0.245855</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187119</v>
+        <v>0.192381</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.245656</v>
+        <v>0.250369</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239005</v>
+        <v>0.238306</v>
       </c>
       <c r="D30" t="n">
-        <v>0.198628</v>
+        <v>0.192682</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253812</v>
+        <v>0.256757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.246577</v>
+        <v>0.255483</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197671</v>
+        <v>0.196939</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.264195</v>
+        <v>0.273918</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25939</v>
+        <v>0.270978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202896</v>
+        <v>0.202324</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28009</v>
+        <v>0.277966</v>
       </c>
       <c r="C33" t="n">
-        <v>0.27589</v>
+        <v>0.275214</v>
       </c>
       <c r="D33" t="n">
-        <v>0.202929</v>
+        <v>0.209863</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.285397</v>
+        <v>0.286085</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295106</v>
+        <v>0.279839</v>
       </c>
       <c r="D34" t="n">
-        <v>0.214401</v>
+        <v>0.212257</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293994</v>
+        <v>0.293428</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235242</v>
+        <v>0.224548</v>
       </c>
       <c r="D35" t="n">
-        <v>0.189032</v>
+        <v>0.193265</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.30538</v>
+        <v>0.309257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232045</v>
+        <v>0.233297</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198644</v>
+        <v>0.191956</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313477</v>
+        <v>0.317108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245213</v>
+        <v>0.243721</v>
       </c>
       <c r="D37" t="n">
-        <v>0.203028</v>
+        <v>0.199161</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.337984</v>
+        <v>0.32186</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252556</v>
+        <v>0.252137</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20847</v>
+        <v>0.20517</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344839</v>
+        <v>0.346257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258409</v>
+        <v>0.26398</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207448</v>
+        <v>0.211817</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.35029</v>
+        <v>0.360637</v>
       </c>
       <c r="C40" t="n">
-        <v>0.264587</v>
+        <v>0.271746</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21416</v>
+        <v>0.221005</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.313221</v>
+        <v>0.319326</v>
       </c>
       <c r="C41" t="n">
-        <v>0.290757</v>
+        <v>0.286322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.225651</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.335685</v>
+        <v>0.324318</v>
       </c>
       <c r="C42" t="n">
-        <v>0.285642</v>
+        <v>0.298347</v>
       </c>
       <c r="D42" t="n">
-        <v>0.227681</v>
+        <v>0.224988</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.344815</v>
+        <v>0.348774</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304169</v>
+        <v>0.296492</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228659</v>
+        <v>0.233305</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.351791</v>
+        <v>0.352605</v>
       </c>
       <c r="C44" t="n">
-        <v>0.308636</v>
+        <v>0.317526</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234047</v>
+        <v>0.240773</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.37679</v>
+        <v>0.364521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.328505</v>
+        <v>0.337243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254408</v>
+        <v>0.250252</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.398372</v>
+        <v>0.385209</v>
       </c>
       <c r="C46" t="n">
-        <v>0.347368</v>
+        <v>0.355873</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249898</v>
+        <v>0.261378</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.397299</v>
+        <v>0.396065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.361171</v>
+        <v>0.364867</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272119</v>
+        <v>0.268161</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.412203</v>
+        <v>0.409101</v>
       </c>
       <c r="C48" t="n">
-        <v>0.377479</v>
+        <v>0.375028</v>
       </c>
       <c r="D48" t="n">
-        <v>0.269049</v>
+        <v>0.272834</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.43129</v>
+        <v>0.424998</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39605</v>
+        <v>0.39593</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292753</v>
+        <v>0.282731</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.442508</v>
+        <v>0.448056</v>
       </c>
       <c r="C50" t="n">
-        <v>0.326031</v>
+        <v>0.318214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244517</v>
+        <v>0.247411</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.469481</v>
+        <v>0.476477</v>
       </c>
       <c r="C51" t="n">
-        <v>0.341596</v>
+        <v>0.353139</v>
       </c>
       <c r="D51" t="n">
-        <v>0.256569</v>
+        <v>0.258314</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48886</v>
+        <v>0.508531</v>
       </c>
       <c r="C52" t="n">
-        <v>0.342151</v>
+        <v>0.353975</v>
       </c>
       <c r="D52" t="n">
-        <v>0.273719</v>
+        <v>0.26158</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.512734</v>
+        <v>0.5299430000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.378402</v>
+        <v>0.380054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264491</v>
+        <v>0.273483</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.551929</v>
+        <v>0.553142</v>
       </c>
       <c r="C54" t="n">
-        <v>0.397389</v>
+        <v>0.40003</v>
       </c>
       <c r="D54" t="n">
-        <v>0.28179</v>
+        <v>0.286244</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.579552</v>
+        <v>0.606829</v>
       </c>
       <c r="C55" t="n">
-        <v>0.403281</v>
+        <v>0.400913</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291777</v>
+        <v>0.296427</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.544933</v>
+        <v>0.518669</v>
       </c>
       <c r="C56" t="n">
-        <v>0.418355</v>
+        <v>0.436512</v>
       </c>
       <c r="D56" t="n">
-        <v>0.291547</v>
+        <v>0.292906</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.53011</v>
+        <v>0.560755</v>
       </c>
       <c r="C57" t="n">
-        <v>0.460448</v>
+        <v>0.439507</v>
       </c>
       <c r="D57" t="n">
-        <v>0.322897</v>
+        <v>0.315035</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567512</v>
+        <v>0.607924</v>
       </c>
       <c r="C58" t="n">
-        <v>0.461418</v>
+        <v>0.482333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319655</v>
+        <v>0.320132</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5890919999999999</v>
+        <v>0.626247</v>
       </c>
       <c r="C59" t="n">
-        <v>0.511279</v>
+        <v>0.517078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33731</v>
+        <v>0.33486</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.610197</v>
+        <v>0.649334</v>
       </c>
       <c r="C60" t="n">
-        <v>0.538118</v>
+        <v>0.528047</v>
       </c>
       <c r="D60" t="n">
-        <v>0.346931</v>
+        <v>0.349353</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.655856</v>
+        <v>0.669828</v>
       </c>
       <c r="C61" t="n">
-        <v>0.550818</v>
+        <v>0.587547</v>
       </c>
       <c r="D61" t="n">
-        <v>0.368574</v>
+        <v>0.366425</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6726220000000001</v>
+        <v>0.739409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.594564</v>
+        <v>0.630723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.375563</v>
+        <v>0.399119</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.704255</v>
+        <v>0.765598</v>
       </c>
       <c r="C63" t="n">
-        <v>0.634969</v>
+        <v>0.642313</v>
       </c>
       <c r="D63" t="n">
-        <v>0.389101</v>
+        <v>0.409137</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7910199999999999</v>
+        <v>0.793305</v>
       </c>
       <c r="C64" t="n">
-        <v>0.52962</v>
+        <v>0.546606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.388418</v>
+        <v>0.392634</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.777162</v>
+        <v>0.844375</v>
       </c>
       <c r="C65" t="n">
-        <v>0.593198</v>
+        <v>0.567818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.395338</v>
+        <v>0.403272</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.836126</v>
+        <v>0.8675310000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.598736</v>
+        <v>0.626187</v>
       </c>
       <c r="D66" t="n">
-        <v>0.430127</v>
+        <v>0.408496</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.924277</v>
+        <v>0.954084</v>
       </c>
       <c r="C67" t="n">
-        <v>0.620379</v>
+        <v>0.638678</v>
       </c>
       <c r="D67" t="n">
-        <v>0.444184</v>
+        <v>0.442481</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.938435</v>
+        <v>0.925945</v>
       </c>
       <c r="C68" t="n">
-        <v>0.699908</v>
+        <v>0.640174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.436423</v>
+        <v>0.466516</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01627</v>
+        <v>1.03143</v>
       </c>
       <c r="C69" t="n">
-        <v>0.712612</v>
+        <v>0.696411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.481924</v>
+        <v>0.473978</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.805248</v>
+        <v>0.805396</v>
       </c>
       <c r="C70" t="n">
-        <v>0.716919</v>
+        <v>0.74969</v>
       </c>
       <c r="D70" t="n">
-        <v>0.481817</v>
+        <v>0.486947</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.815144</v>
+        <v>0.813264</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7774180000000001</v>
+        <v>0.769886</v>
       </c>
       <c r="D71" t="n">
-        <v>0.513064</v>
+        <v>0.509381</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.867194</v>
+        <v>0.8509989999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.806013</v>
+        <v>0.820701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5393869999999999</v>
+        <v>0.532214</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.874323</v>
+        <v>0.915803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.844983</v>
+        <v>0.858893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.545014</v>
+        <v>0.568224</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.900941</v>
+        <v>0.9057809999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.904711</v>
+        <v>0.931274</v>
       </c>
       <c r="D74" t="n">
-        <v>0.589894</v>
+        <v>0.582255</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.971567</v>
+        <v>0.967883</v>
       </c>
       <c r="C75" t="n">
-        <v>0.924497</v>
+        <v>0.945497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.62674</v>
+        <v>0.641176</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.972518</v>
+        <v>0.993356</v>
       </c>
       <c r="C76" t="n">
-        <v>0.969463</v>
+        <v>1.01013</v>
       </c>
       <c r="D76" t="n">
-        <v>0.632225</v>
+        <v>0.614013</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0342</v>
+        <v>1.02371</v>
       </c>
       <c r="C77" t="n">
-        <v>1.01084</v>
+        <v>1.05018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.670741</v>
+        <v>0.692202</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04836</v>
+        <v>1.04412</v>
       </c>
       <c r="C78" t="n">
-        <v>0.813203</v>
+        <v>0.8178609999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6248280000000001</v>
+        <v>0.616864</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.12173</v>
+        <v>1.12371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.849722</v>
+        <v>0.856386</v>
       </c>
       <c r="D79" t="n">
-        <v>0.660937</v>
+        <v>0.656887</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15964</v>
+        <v>1.13063</v>
       </c>
       <c r="C80" t="n">
-        <v>0.874443</v>
+        <v>0.878458</v>
       </c>
       <c r="D80" t="n">
-        <v>0.655386</v>
+        <v>0.681007</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20808</v>
+        <v>1.20508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.903555</v>
+        <v>0.904092</v>
       </c>
       <c r="D81" t="n">
-        <v>0.675013</v>
+        <v>0.673705</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.27937</v>
+        <v>1.23223</v>
       </c>
       <c r="C82" t="n">
-        <v>0.923167</v>
+        <v>0.933969</v>
       </c>
       <c r="D82" t="n">
-        <v>0.701742</v>
+        <v>0.703801</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30021</v>
+        <v>1.29035</v>
       </c>
       <c r="C83" t="n">
-        <v>0.977324</v>
+        <v>0.982241</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7305779999999999</v>
+        <v>0.737764</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.972869</v>
+        <v>0.969478</v>
       </c>
       <c r="C84" t="n">
-        <v>0.989663</v>
+        <v>0.994684</v>
       </c>
       <c r="D84" t="n">
-        <v>0.739089</v>
+        <v>0.746536</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.993252</v>
+        <v>1.00017</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02009</v>
+        <v>1.06063</v>
       </c>
       <c r="D85" t="n">
-        <v>0.762041</v>
+        <v>0.769689</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01952</v>
+        <v>1.04784</v>
       </c>
       <c r="C86" t="n">
-        <v>1.08101</v>
+        <v>1.09</v>
       </c>
       <c r="D86" t="n">
-        <v>0.788045</v>
+        <v>0.805619</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08029</v>
+        <v>1.06317</v>
       </c>
       <c r="C87" t="n">
-        <v>1.11804</v>
+        <v>1.13167</v>
       </c>
       <c r="D87" t="n">
-        <v>0.826445</v>
+        <v>0.809248</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10199</v>
+        <v>1.09205</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15501</v>
+        <v>1.15892</v>
       </c>
       <c r="D88" t="n">
-        <v>0.85539</v>
+        <v>0.866788</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1247</v>
+        <v>1.12132</v>
       </c>
       <c r="C89" t="n">
-        <v>1.20171</v>
+        <v>1.19591</v>
       </c>
       <c r="D89" t="n">
-        <v>0.857382</v>
+        <v>0.8958159999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15621</v>
+        <v>1.15429</v>
       </c>
       <c r="C90" t="n">
-        <v>1.21777</v>
+        <v>1.25358</v>
       </c>
       <c r="D90" t="n">
-        <v>0.90882</v>
+        <v>0.928826</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.23052</v>
+        <v>1.17006</v>
       </c>
       <c r="C91" t="n">
-        <v>1.27301</v>
+        <v>1.2772</v>
       </c>
       <c r="D91" t="n">
-        <v>0.92982</v>
+        <v>0.934258</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.24194</v>
+        <v>1.23787</v>
       </c>
       <c r="C92" t="n">
-        <v>0.985152</v>
+        <v>0.972608</v>
       </c>
       <c r="D92" t="n">
-        <v>0.80858</v>
+        <v>0.82221</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.25937</v>
+        <v>1.24898</v>
       </c>
       <c r="C93" t="n">
-        <v>0.999766</v>
+        <v>0.994623</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8517479999999999</v>
+        <v>0.820267</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.32256</v>
+        <v>1.32318</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03336</v>
+        <v>1.02261</v>
       </c>
       <c r="D94" t="n">
-        <v>0.852002</v>
+        <v>0.838714</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36444</v>
+        <v>1.30796</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05227</v>
+        <v>1.03102</v>
       </c>
       <c r="D95" t="n">
-        <v>0.853741</v>
+        <v>0.84968</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43115</v>
+        <v>1.36841</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09772</v>
+        <v>1.0753</v>
       </c>
       <c r="D96" t="n">
-        <v>0.87637</v>
+        <v>0.8819939999999999</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.43244</v>
+        <v>1.45205</v>
       </c>
       <c r="C97" t="n">
-        <v>1.11375</v>
+        <v>1.10846</v>
       </c>
       <c r="D97" t="n">
-        <v>0.891387</v>
+        <v>0.925667</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05673</v>
+        <v>1.07864</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15888</v>
+        <v>1.16455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.958896</v>
+        <v>0.952569</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.09061</v>
+        <v>1.10511</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18075</v>
+        <v>1.19602</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9569</v>
+        <v>0.957037</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11485</v>
+        <v>1.14066</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25942</v>
+        <v>1.20623</v>
       </c>
       <c r="D100" t="n">
-        <v>0.968719</v>
+        <v>1.00237</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.14326</v>
+        <v>1.13802</v>
       </c>
       <c r="C101" t="n">
-        <v>1.24972</v>
+        <v>1.26283</v>
       </c>
       <c r="D101" t="n">
-        <v>0.989757</v>
+        <v>1.02112</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18364</v>
+        <v>1.18212</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33088</v>
+        <v>1.2997</v>
       </c>
       <c r="D102" t="n">
-        <v>1.04268</v>
+        <v>1.02982</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.21161</v>
+        <v>1.21246</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39146</v>
+        <v>1.32876</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09181</v>
+        <v>1.04722</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.25192</v>
+        <v>1.24764</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39309</v>
+        <v>1.40928</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09468</v>
+        <v>1.09865</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.28566</v>
+        <v>1.28992</v>
       </c>
       <c r="C105" t="n">
-        <v>1.44578</v>
+        <v>1.46927</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14409</v>
+        <v>1.14633</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.32051</v>
+        <v>1.36046</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4691</v>
+        <v>1.47194</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16781</v>
+        <v>1.17153</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.3411</v>
+        <v>1.40416</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10096</v>
+        <v>1.10025</v>
       </c>
       <c r="D107" t="n">
-        <v>0.91886</v>
+        <v>0.935908</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41023</v>
+        <v>1.425</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12663</v>
+        <v>1.12753</v>
       </c>
       <c r="D108" t="n">
-        <v>0.942377</v>
+        <v>0.969881</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43116</v>
+        <v>1.48967</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14932</v>
+        <v>1.14612</v>
       </c>
       <c r="D109" t="n">
-        <v>0.974373</v>
+        <v>1.01787</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.47099</v>
+        <v>1.53214</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17754</v>
+        <v>1.22613</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983155</v>
+        <v>1.0174</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.51443</v>
+        <v>1.57579</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20259</v>
+        <v>1.24189</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01562</v>
+        <v>1.03428</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11973</v>
+        <v>1.20271</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24961</v>
+        <v>1.25543</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03758</v>
+        <v>1.05483</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20378</v>
+        <v>1.22561</v>
       </c>
       <c r="C113" t="n">
-        <v>1.29035</v>
+        <v>1.31571</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07832</v>
+        <v>1.0879</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.19773</v>
+        <v>1.25939</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31</v>
+        <v>1.33447</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10266</v>
+        <v>1.10561</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.23165</v>
+        <v>1.27626</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3487</v>
+        <v>1.42925</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09916</v>
+        <v>1.16181</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.27733</v>
+        <v>1.33272</v>
       </c>
       <c r="C116" t="n">
-        <v>1.47875</v>
+        <v>1.40297</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15146</v>
+        <v>1.16375</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30061</v>
+        <v>1.37985</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45678</v>
+        <v>1.49176</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18222</v>
+        <v>1.24257</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.34041</v>
+        <v>1.38601</v>
       </c>
       <c r="C118" t="n">
-        <v>1.49279</v>
+        <v>1.59516</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20806</v>
+        <v>1.27107</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.37924</v>
+        <v>1.44484</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52753</v>
+        <v>1.63438</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24823</v>
+        <v>1.28853</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577478</v>
+        <v>0.567851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.440792</v>
+        <v>0.456973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244744</v>
+        <v>0.247463</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.379807</v>
+        <v>0.368232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.456903</v>
+        <v>0.440695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.261245</v>
+        <v>0.254584</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.386864</v>
+        <v>0.400806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.475752</v>
+        <v>0.472098</v>
       </c>
       <c r="D4" t="n">
-        <v>0.280213</v>
+        <v>0.26285</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.399889</v>
+        <v>0.396437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.518558</v>
+        <v>0.495543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282636</v>
+        <v>0.271535</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.434823</v>
+        <v>0.438006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.531426</v>
+        <v>0.535247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2864</v>
+        <v>0.283812</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43959</v>
+        <v>0.439486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.553105</v>
+        <v>0.581545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.29456</v>
+        <v>0.291502</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.480738</v>
+        <v>0.462668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.592485</v>
+        <v>0.584646</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293861</v>
+        <v>0.313884</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.488416</v>
+        <v>0.488896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.603288</v>
+        <v>0.608542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.311448</v>
+        <v>0.314794</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508618</v>
+        <v>0.540205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.628899</v>
+        <v>0.631644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.329175</v>
+        <v>0.321626</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553686</v>
+        <v>0.555898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.416004</v>
+        <v>0.411276</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244168</v>
+        <v>0.242401</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.575462</v>
+        <v>0.5885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.427113</v>
+        <v>0.418864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250576</v>
+        <v>0.251645</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6271139999999999</v>
+        <v>0.632202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.441124</v>
+        <v>0.442267</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266148</v>
+        <v>0.269025</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.629428</v>
+        <v>0.632375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.456864</v>
+        <v>0.472029</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265561</v>
+        <v>0.266577</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6602710000000001</v>
+        <v>0.654758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.481621</v>
+        <v>0.494855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271913</v>
+        <v>0.276072</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.695643</v>
+        <v>0.67918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.505586</v>
+        <v>0.499155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.291206</v>
+        <v>0.296053</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.426777</v>
+        <v>0.431372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.537178</v>
+        <v>0.526877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.304567</v>
+        <v>0.299977</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.439393</v>
+        <v>0.442553</v>
       </c>
       <c r="C18" t="n">
-        <v>0.565184</v>
+        <v>0.551996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305696</v>
+        <v>0.302551</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480791</v>
+        <v>0.481078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.571298</v>
+        <v>0.573868</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32054</v>
+        <v>0.32409</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.503519</v>
+        <v>0.5014459999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.615358</v>
+        <v>0.622967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.333087</v>
+        <v>0.330235</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.525328</v>
+        <v>0.522483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632939</v>
+        <v>0.645891</v>
       </c>
       <c r="D21" t="n">
-        <v>0.347366</v>
+        <v>0.349372</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54582</v>
+        <v>0.572416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.674589</v>
+        <v>0.660571</v>
       </c>
       <c r="D22" t="n">
-        <v>0.361395</v>
+        <v>0.359559</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.561827</v>
+        <v>0.565614</v>
       </c>
       <c r="C23" t="n">
-        <v>0.682038</v>
+        <v>0.700949</v>
       </c>
       <c r="D23" t="n">
-        <v>0.365143</v>
+        <v>0.368211</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.57333</v>
+        <v>0.6113459999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.734038</v>
+        <v>0.712369</v>
       </c>
       <c r="D24" t="n">
-        <v>0.381775</v>
+        <v>0.382887</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.607947</v>
+        <v>0.6573560000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.738572</v>
+        <v>0.749396</v>
       </c>
       <c r="D25" t="n">
-        <v>0.396761</v>
+        <v>0.396574</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.632576</v>
+        <v>0.66154</v>
       </c>
       <c r="C26" t="n">
-        <v>0.46284</v>
+        <v>0.467645</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282354</v>
+        <v>0.291045</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.651235</v>
+        <v>0.7072040000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.491358</v>
+        <v>0.477708</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285682</v>
+        <v>0.293529</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7229950000000001</v>
+        <v>0.753925</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520085</v>
+        <v>0.528674</v>
       </c>
       <c r="D28" t="n">
-        <v>0.300625</v>
+        <v>0.306925</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7520250000000001</v>
+        <v>0.776634</v>
       </c>
       <c r="C29" t="n">
-        <v>0.525934</v>
+        <v>0.551329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317846</v>
+        <v>0.316788</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.772837</v>
+        <v>0.847431</v>
       </c>
       <c r="C30" t="n">
-        <v>0.563935</v>
+        <v>0.578684</v>
       </c>
       <c r="D30" t="n">
-        <v>0.337589</v>
+        <v>0.345687</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.828045</v>
+        <v>0.881172</v>
       </c>
       <c r="C31" t="n">
-        <v>0.589211</v>
+        <v>0.5996320000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.336856</v>
+        <v>0.343849</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.563901</v>
+        <v>0.526905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.65366</v>
+        <v>0.647128</v>
       </c>
       <c r="D32" t="n">
-        <v>0.350899</v>
+        <v>0.365328</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.580149</v>
+        <v>0.5471279999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.672983</v>
+        <v>0.662787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.382763</v>
+        <v>0.372395</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.659496</v>
+        <v>0.583748</v>
       </c>
       <c r="C34" t="n">
-        <v>0.731645</v>
+        <v>0.686121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.403012</v>
+        <v>0.390194</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.615787</v>
+        <v>0.603822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.766277</v>
+        <v>0.7620209999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.397057</v>
+        <v>0.413803</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6882</v>
+        <v>0.644502</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8140039999999999</v>
+        <v>0.778213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.454359</v>
+        <v>0.421783</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7486429999999999</v>
+        <v>0.70019</v>
       </c>
       <c r="C37" t="n">
-        <v>0.829426</v>
+        <v>0.850957</v>
       </c>
       <c r="D37" t="n">
-        <v>0.46786</v>
+        <v>0.455594</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.766802</v>
+        <v>0.734333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.874748</v>
+        <v>0.879571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.465703</v>
+        <v>0.47308</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.815527</v>
+        <v>0.770774</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9849329999999999</v>
+        <v>0.969841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.495676</v>
+        <v>0.527515</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.852485</v>
+        <v>0.82339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.595414</v>
+        <v>0.610535</v>
       </c>
       <c r="D40" t="n">
-        <v>0.376759</v>
+        <v>0.387398</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.904067</v>
+        <v>0.9249039999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.672028</v>
+        <v>0.635605</v>
       </c>
       <c r="D41" t="n">
-        <v>0.39405</v>
+        <v>0.388725</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.952928</v>
+        <v>0.951657</v>
       </c>
       <c r="C42" t="n">
-        <v>0.661934</v>
+        <v>0.694812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406287</v>
+        <v>0.405677</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.01057</v>
+        <v>1.01381</v>
       </c>
       <c r="C43" t="n">
-        <v>0.711641</v>
+        <v>0.71983</v>
       </c>
       <c r="D43" t="n">
-        <v>0.416736</v>
+        <v>0.41903</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0277</v>
+        <v>1.04813</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7498050000000001</v>
+        <v>0.72753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430068</v>
+        <v>0.452636</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.10036</v>
+        <v>1.08036</v>
       </c>
       <c r="C45" t="n">
-        <v>0.768069</v>
+        <v>0.788718</v>
       </c>
       <c r="D45" t="n">
-        <v>0.454029</v>
+        <v>0.453283</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.70653</v>
+        <v>0.7242459999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.847848</v>
+        <v>0.845934</v>
       </c>
       <c r="D46" t="n">
-        <v>0.47189</v>
+        <v>0.479428</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.73672</v>
+        <v>0.750728</v>
       </c>
       <c r="C47" t="n">
-        <v>0.88121</v>
+        <v>0.885336</v>
       </c>
       <c r="D47" t="n">
-        <v>0.502877</v>
+        <v>0.511491</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.786559</v>
+        <v>0.782127</v>
       </c>
       <c r="C48" t="n">
-        <v>0.979321</v>
+        <v>0.962575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.531008</v>
+        <v>0.540123</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.838914</v>
+        <v>0.87626</v>
       </c>
       <c r="C49" t="n">
-        <v>1.03949</v>
+        <v>1.07229</v>
       </c>
       <c r="D49" t="n">
-        <v>0.551266</v>
+        <v>0.5662740000000001</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.884181</v>
+        <v>0.887481</v>
       </c>
       <c r="C50" t="n">
-        <v>1.07443</v>
+        <v>1.10769</v>
       </c>
       <c r="D50" t="n">
-        <v>0.59588</v>
+        <v>0.600521</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.954502</v>
+        <v>0.961464</v>
       </c>
       <c r="C51" t="n">
-        <v>1.15102</v>
+        <v>1.18869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.622209</v>
+        <v>0.651833</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.05029</v>
+        <v>1.02529</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2305</v>
+        <v>1.2725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6907450000000001</v>
+        <v>0.6857839999999999</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.14003</v>
+        <v>1.087</v>
       </c>
       <c r="C53" t="n">
-        <v>1.32509</v>
+        <v>1.35527</v>
       </c>
       <c r="D53" t="n">
-        <v>0.706068</v>
+        <v>0.711562</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.13169</v>
+        <v>1.17493</v>
       </c>
       <c r="C54" t="n">
-        <v>0.826673</v>
+        <v>0.837153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.497336</v>
+        <v>0.499984</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2213</v>
+        <v>1.24239</v>
       </c>
       <c r="C55" t="n">
-        <v>0.855096</v>
+        <v>0.850816</v>
       </c>
       <c r="D55" t="n">
-        <v>0.523407</v>
+        <v>0.523648</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.29353</v>
+        <v>1.34163</v>
       </c>
       <c r="C56" t="n">
-        <v>0.957222</v>
+        <v>0.934564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.545006</v>
+        <v>0.544299</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.38897</v>
+        <v>1.42674</v>
       </c>
       <c r="C57" t="n">
-        <v>0.987933</v>
+        <v>1.02123</v>
       </c>
       <c r="D57" t="n">
-        <v>0.573075</v>
+        <v>0.577029</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.51141</v>
+        <v>1.5674</v>
       </c>
       <c r="C58" t="n">
-        <v>1.09788</v>
+        <v>1.07727</v>
       </c>
       <c r="D58" t="n">
-        <v>0.62498</v>
+        <v>0.631127</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.66791</v>
+        <v>1.65091</v>
       </c>
       <c r="C59" t="n">
-        <v>1.16601</v>
+        <v>1.147</v>
       </c>
       <c r="D59" t="n">
-        <v>0.633802</v>
+        <v>0.643524</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.08473</v>
+        <v>1.0596</v>
       </c>
       <c r="C60" t="n">
-        <v>1.26536</v>
+        <v>1.24043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.705439</v>
+        <v>0.693986</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.23599</v>
+        <v>1.17332</v>
       </c>
       <c r="C61" t="n">
-        <v>1.3679</v>
+        <v>1.33239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.776548</v>
+        <v>0.776247</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.28712</v>
+        <v>1.25997</v>
       </c>
       <c r="C62" t="n">
-        <v>1.50737</v>
+        <v>1.50107</v>
       </c>
       <c r="D62" t="n">
-        <v>0.777581</v>
+        <v>0.7573299999999999</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.37041</v>
+        <v>1.3994</v>
       </c>
       <c r="C63" t="n">
-        <v>1.61966</v>
+        <v>1.66235</v>
       </c>
       <c r="D63" t="n">
-        <v>0.808074</v>
+        <v>0.81273</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.46663</v>
+        <v>1.53822</v>
       </c>
       <c r="C64" t="n">
-        <v>1.82725</v>
+        <v>1.80781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.85421</v>
+        <v>0.878275</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.61169</v>
+        <v>1.6746</v>
       </c>
       <c r="C65" t="n">
-        <v>1.96385</v>
+        <v>1.93603</v>
       </c>
       <c r="D65" t="n">
-        <v>0.924549</v>
+        <v>0.9191240000000001</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.77503</v>
+        <v>1.79735</v>
       </c>
       <c r="C66" t="n">
-        <v>2.07531</v>
+        <v>2.12977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.981164</v>
+        <v>0.984008</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.98628</v>
+        <v>1.96302</v>
       </c>
       <c r="C67" t="n">
-        <v>2.29449</v>
+        <v>2.29762</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05698</v>
+        <v>1.03913</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.11598</v>
+        <v>2.11384</v>
       </c>
       <c r="C68" t="n">
-        <v>1.37325</v>
+        <v>1.39517</v>
       </c>
       <c r="D68" t="n">
-        <v>0.751908</v>
+        <v>0.743468</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.30657</v>
+        <v>2.38544</v>
       </c>
       <c r="C69" t="n">
-        <v>1.54105</v>
+        <v>1.52524</v>
       </c>
       <c r="D69" t="n">
-        <v>0.805447</v>
+        <v>0.785144</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.51475</v>
+        <v>2.51801</v>
       </c>
       <c r="C70" t="n">
-        <v>1.69503</v>
+        <v>1.65685</v>
       </c>
       <c r="D70" t="n">
-        <v>0.827844</v>
+        <v>0.847135</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.65123</v>
+        <v>2.71787</v>
       </c>
       <c r="C71" t="n">
-        <v>1.81146</v>
+        <v>1.86748</v>
       </c>
       <c r="D71" t="n">
-        <v>0.873174</v>
+        <v>0.8718399999999999</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.89767</v>
+        <v>2.97046</v>
       </c>
       <c r="C72" t="n">
-        <v>1.99702</v>
+        <v>2.01502</v>
       </c>
       <c r="D72" t="n">
-        <v>0.968854</v>
+        <v>0.954716</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.08118</v>
+        <v>3.18994</v>
       </c>
       <c r="C73" t="n">
-        <v>2.09784</v>
+        <v>2.15818</v>
       </c>
       <c r="D73" t="n">
-        <v>1.03418</v>
+        <v>1.03141</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.91131</v>
+        <v>1.9494</v>
       </c>
       <c r="C74" t="n">
-        <v>2.19472</v>
+        <v>2.26749</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09551</v>
+        <v>1.07338</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04613</v>
+        <v>2.03214</v>
       </c>
       <c r="C75" t="n">
-        <v>2.33324</v>
+        <v>2.46993</v>
       </c>
       <c r="D75" t="n">
-        <v>1.17495</v>
+        <v>1.1727</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.15539</v>
+        <v>2.18695</v>
       </c>
       <c r="C76" t="n">
-        <v>2.5778</v>
+        <v>2.58566</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23756</v>
+        <v>1.20405</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.31651</v>
+        <v>2.32079</v>
       </c>
       <c r="C77" t="n">
-        <v>2.86222</v>
+        <v>2.86215</v>
       </c>
       <c r="D77" t="n">
-        <v>1.32027</v>
+        <v>1.34635</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.50002</v>
+        <v>2.53435</v>
       </c>
       <c r="C78" t="n">
-        <v>2.91573</v>
+        <v>3.04967</v>
       </c>
       <c r="D78" t="n">
-        <v>1.39627</v>
+        <v>1.39487</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.5946</v>
+        <v>2.61435</v>
       </c>
       <c r="C79" t="n">
-        <v>3.08467</v>
+        <v>3.20776</v>
       </c>
       <c r="D79" t="n">
-        <v>1.46878</v>
+        <v>1.49791</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.76162</v>
+        <v>2.77999</v>
       </c>
       <c r="C80" t="n">
-        <v>3.43647</v>
+        <v>3.42308</v>
       </c>
       <c r="D80" t="n">
-        <v>1.58106</v>
+        <v>1.57742</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.92895</v>
+        <v>2.94742</v>
       </c>
       <c r="C81" t="n">
-        <v>3.68977</v>
+        <v>3.74771</v>
       </c>
       <c r="D81" t="n">
-        <v>1.73575</v>
+        <v>1.70766</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.06453</v>
+        <v>3.1298</v>
       </c>
       <c r="C82" t="n">
-        <v>3.84923</v>
+        <v>3.93656</v>
       </c>
       <c r="D82" t="n">
-        <v>1.78159</v>
+        <v>1.7786</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.35515</v>
+        <v>3.30221</v>
       </c>
       <c r="C83" t="n">
-        <v>2.20111</v>
+        <v>2.24751</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20172</v>
+        <v>1.24521</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.48526</v>
+        <v>3.62446</v>
       </c>
       <c r="C84" t="n">
-        <v>2.36384</v>
+        <v>2.43285</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30191</v>
+        <v>1.31693</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.68411</v>
+        <v>3.85203</v>
       </c>
       <c r="C85" t="n">
-        <v>2.56461</v>
+        <v>2.56464</v>
       </c>
       <c r="D85" t="n">
-        <v>1.31896</v>
+        <v>1.38418</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.85971</v>
+        <v>4.02439</v>
       </c>
       <c r="C86" t="n">
-        <v>2.60683</v>
+        <v>2.73713</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41747</v>
+        <v>1.42867</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.10813</v>
+        <v>4.21895</v>
       </c>
       <c r="C87" t="n">
-        <v>2.84338</v>
+        <v>2.87664</v>
       </c>
       <c r="D87" t="n">
-        <v>1.4713</v>
+        <v>1.52511</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.45619</v>
+        <v>4.4196</v>
       </c>
       <c r="C88" t="n">
-        <v>3.08276</v>
+        <v>3.03745</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57845</v>
+        <v>1.58656</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.63449</v>
+        <v>2.56841</v>
       </c>
       <c r="C89" t="n">
-        <v>3.18068</v>
+        <v>3.28723</v>
       </c>
       <c r="D89" t="n">
-        <v>1.61893</v>
+        <v>1.67275</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.68182</v>
+        <v>2.80284</v>
       </c>
       <c r="C90" t="n">
-        <v>3.36855</v>
+        <v>3.37084</v>
       </c>
       <c r="D90" t="n">
-        <v>1.73811</v>
+        <v>1.8011</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.98223</v>
+        <v>2.88562</v>
       </c>
       <c r="C91" t="n">
-        <v>3.74425</v>
+        <v>3.59153</v>
       </c>
       <c r="D91" t="n">
-        <v>1.84238</v>
+        <v>1.85764</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.96367</v>
+        <v>2.98029</v>
       </c>
       <c r="C92" t="n">
-        <v>3.85736</v>
+        <v>3.76294</v>
       </c>
       <c r="D92" t="n">
-        <v>1.92038</v>
+        <v>1.93399</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.1349</v>
+        <v>3.17025</v>
       </c>
       <c r="C93" t="n">
-        <v>3.97595</v>
+        <v>4.07086</v>
       </c>
       <c r="D93" t="n">
-        <v>2.07815</v>
+        <v>2.0455</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.35647</v>
+        <v>3.36009</v>
       </c>
       <c r="C94" t="n">
-        <v>4.17656</v>
+        <v>4.30772</v>
       </c>
       <c r="D94" t="n">
-        <v>2.14651</v>
+        <v>2.1402</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.50962</v>
+        <v>3.49929</v>
       </c>
       <c r="C95" t="n">
-        <v>4.45328</v>
+        <v>4.45403</v>
       </c>
       <c r="D95" t="n">
-        <v>2.20313</v>
+        <v>2.25213</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.69009</v>
+        <v>3.68102</v>
       </c>
       <c r="C96" t="n">
-        <v>4.73141</v>
+        <v>4.80018</v>
       </c>
       <c r="D96" t="n">
-        <v>2.33354</v>
+        <v>2.33737</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.9466</v>
+        <v>3.87499</v>
       </c>
       <c r="C97" t="n">
-        <v>2.66743</v>
+        <v>2.74286</v>
       </c>
       <c r="D97" t="n">
-        <v>1.61141</v>
+        <v>1.63341</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.03731</v>
+        <v>4.11674</v>
       </c>
       <c r="C98" t="n">
-        <v>2.75817</v>
+        <v>2.80544</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68752</v>
+        <v>1.67843</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.37557</v>
+        <v>4.29037</v>
       </c>
       <c r="C99" t="n">
-        <v>2.97107</v>
+        <v>2.90497</v>
       </c>
       <c r="D99" t="n">
-        <v>1.75676</v>
+        <v>1.69291</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.54027</v>
+        <v>4.49767</v>
       </c>
       <c r="C100" t="n">
-        <v>3.106</v>
+        <v>3.07122</v>
       </c>
       <c r="D100" t="n">
-        <v>1.80329</v>
+        <v>1.86271</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.73027</v>
+        <v>4.70138</v>
       </c>
       <c r="C101" t="n">
-        <v>3.32962</v>
+        <v>3.28614</v>
       </c>
       <c r="D101" t="n">
-        <v>1.95971</v>
+        <v>1.95324</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.94467</v>
+        <v>5.02177</v>
       </c>
       <c r="C102" t="n">
-        <v>3.41693</v>
+        <v>3.56366</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94145</v>
+        <v>1.95734</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.94228</v>
+        <v>2.92547</v>
       </c>
       <c r="C103" t="n">
-        <v>3.61987</v>
+        <v>3.67916</v>
       </c>
       <c r="D103" t="n">
-        <v>2.07548</v>
+        <v>2.03429</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.05001</v>
+        <v>3.0092</v>
       </c>
       <c r="C104" t="n">
-        <v>3.80498</v>
+        <v>3.83305</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16673</v>
+        <v>2.15729</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.17748</v>
+        <v>3.16702</v>
       </c>
       <c r="C105" t="n">
-        <v>4.05793</v>
+        <v>3.94568</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22364</v>
+        <v>2.24818</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.27794</v>
+        <v>3.34576</v>
       </c>
       <c r="C106" t="n">
-        <v>4.29632</v>
+        <v>4.26405</v>
       </c>
       <c r="D106" t="n">
-        <v>2.32308</v>
+        <v>2.31895</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.48207</v>
+        <v>3.54577</v>
       </c>
       <c r="C107" t="n">
-        <v>4.54862</v>
+        <v>4.4344</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39755</v>
+        <v>2.4135</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.68375</v>
+        <v>3.71378</v>
       </c>
       <c r="C108" t="n">
-        <v>4.65625</v>
+        <v>4.75694</v>
       </c>
       <c r="D108" t="n">
-        <v>2.59444</v>
+        <v>2.47606</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91386</v>
+        <v>3.91827</v>
       </c>
       <c r="C109" t="n">
-        <v>5.02814</v>
+        <v>4.92686</v>
       </c>
       <c r="D109" t="n">
-        <v>2.57797</v>
+        <v>2.68327</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.13313</v>
+        <v>4.07969</v>
       </c>
       <c r="C110" t="n">
-        <v>5.21693</v>
+        <v>5.24786</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88902</v>
+        <v>2.82525</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.2715</v>
+        <v>4.24204</v>
       </c>
       <c r="C111" t="n">
-        <v>2.92798</v>
+        <v>2.89975</v>
       </c>
       <c r="D111" t="n">
-        <v>1.87488</v>
+        <v>1.96097</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.46304</v>
+        <v>4.46388</v>
       </c>
       <c r="C112" t="n">
-        <v>3.04205</v>
+        <v>3.109</v>
       </c>
       <c r="D112" t="n">
-        <v>1.96451</v>
+        <v>1.99208</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.67833</v>
+        <v>4.70475</v>
       </c>
       <c r="C113" t="n">
-        <v>3.21455</v>
+        <v>3.2698</v>
       </c>
       <c r="D113" t="n">
-        <v>2.01403</v>
+        <v>2.17171</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.92366</v>
+        <v>4.99897</v>
       </c>
       <c r="C114" t="n">
-        <v>3.3223</v>
+        <v>3.41558</v>
       </c>
       <c r="D114" t="n">
-        <v>2.09904</v>
+        <v>2.17927</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.21099</v>
+        <v>5.2099</v>
       </c>
       <c r="C115" t="n">
-        <v>3.53498</v>
+        <v>3.546</v>
       </c>
       <c r="D115" t="n">
-        <v>2.204</v>
+        <v>2.25767</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.39022</v>
+        <v>5.41739</v>
       </c>
       <c r="C116" t="n">
-        <v>3.72738</v>
+        <v>3.76566</v>
       </c>
       <c r="D116" t="n">
-        <v>2.25777</v>
+        <v>2.34197</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.08457</v>
+        <v>3.16182</v>
       </c>
       <c r="C117" t="n">
-        <v>3.89974</v>
+        <v>3.97682</v>
       </c>
       <c r="D117" t="n">
-        <v>2.34656</v>
+        <v>2.41882</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.22423</v>
+        <v>3.27916</v>
       </c>
       <c r="C118" t="n">
-        <v>4.14845</v>
+        <v>4.21489</v>
       </c>
       <c r="D118" t="n">
-        <v>2.44188</v>
+        <v>2.48658</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.38732</v>
+        <v>3.45402</v>
       </c>
       <c r="C119" t="n">
-        <v>4.28157</v>
+        <v>4.3635</v>
       </c>
       <c r="D119" t="n">
-        <v>2.61359</v>
+        <v>2.61043</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227551</v>
+        <v>0.227869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216794</v>
+        <v>0.229302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240821</v>
+        <v>0.237836</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228401</v>
+        <v>0.238917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221756</v>
+        <v>0.229804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237529</v>
+        <v>0.240951</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23609</v>
+        <v>0.233845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230175</v>
+        <v>0.237406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247699</v>
+        <v>0.249964</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249367</v>
+        <v>0.247307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231601</v>
+        <v>0.244092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262553</v>
+        <v>0.246274</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.260992</v>
+        <v>0.245868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.242089</v>
+        <v>0.242967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262092</v>
+        <v>0.259402</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.249608</v>
+        <v>0.24499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193029</v>
+        <v>0.191736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211813</v>
+        <v>0.214049</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.244955</v>
+        <v>0.246615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196133</v>
+        <v>0.209486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216603</v>
+        <v>0.229188</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266163</v>
+        <v>0.254938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20355</v>
+        <v>0.222292</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240206</v>
+        <v>0.23675</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.260749</v>
+        <v>0.268746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.209776</v>
+        <v>0.219208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.235944</v>
+        <v>0.238508</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.268309</v>
+        <v>0.269387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216306</v>
+        <v>0.220357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238604</v>
+        <v>0.254813</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.270664</v>
+        <v>0.269328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222531</v>
+        <v>0.22142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251653</v>
+        <v>0.249163</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22979</v>
+        <v>0.22038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.227472</v>
+        <v>0.227141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258557</v>
+        <v>0.256264</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.228423</v>
+        <v>0.227003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234969</v>
+        <v>0.241146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.261274</v>
+        <v>0.268605</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238023</v>
+        <v>0.233074</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242862</v>
+        <v>0.238476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282292</v>
+        <v>0.266747</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239122</v>
+        <v>0.239676</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245609</v>
+        <v>0.247688</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282976</v>
+        <v>0.28042</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250322</v>
+        <v>0.244006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245328</v>
+        <v>0.253332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284881</v>
+        <v>0.279897</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.246066</v>
+        <v>0.242648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25322</v>
+        <v>0.260353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.285669</v>
+        <v>0.287568</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254122</v>
+        <v>0.255421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.255084</v>
+        <v>0.268622</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285345</v>
+        <v>0.298936</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265591</v>
+        <v>0.257288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269437</v>
+        <v>0.269027</v>
       </c>
       <c r="D20" t="n">
-        <v>0.302473</v>
+        <v>0.299169</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.264773</v>
+        <v>0.257144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.204368</v>
+        <v>0.211846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229079</v>
+        <v>0.236575</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.265952</v>
+        <v>0.258529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212329</v>
+        <v>0.214255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239562</v>
+        <v>0.244087</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.282342</v>
+        <v>0.263381</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225256</v>
+        <v>0.221842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255686</v>
+        <v>0.249849</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274331</v>
+        <v>0.27211</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238728</v>
+        <v>0.2264</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257466</v>
+        <v>0.260231</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.289551</v>
+        <v>0.277941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238899</v>
+        <v>0.230949</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262444</v>
+        <v>0.26831</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.284358</v>
+        <v>0.28377</v>
       </c>
       <c r="C26" t="n">
-        <v>0.249012</v>
+        <v>0.244267</v>
       </c>
       <c r="D26" t="n">
-        <v>0.270198</v>
+        <v>0.272827</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.238651</v>
+        <v>0.241683</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241158</v>
+        <v>0.25269</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283691</v>
+        <v>0.275649</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.251892</v>
+        <v>0.259989</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248045</v>
+        <v>0.253195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.290444</v>
+        <v>0.286552</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.252338</v>
+        <v>0.259789</v>
       </c>
       <c r="C29" t="n">
-        <v>0.270539</v>
+        <v>0.260505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.303013</v>
+        <v>0.295499</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260776</v>
+        <v>0.263471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.272235</v>
+        <v>0.270587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317357</v>
+        <v>0.30272</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.284306</v>
+        <v>0.27</v>
       </c>
       <c r="C31" t="n">
-        <v>0.268333</v>
+        <v>0.278979</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31817</v>
+        <v>0.304092</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27217</v>
+        <v>0.2789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280109</v>
+        <v>0.284586</v>
       </c>
       <c r="D32" t="n">
-        <v>0.316174</v>
+        <v>0.339668</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.29128</v>
+        <v>0.291316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.285847</v>
+        <v>0.30723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329846</v>
+        <v>0.332274</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.302466</v>
+        <v>0.306857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297184</v>
+        <v>0.321972</v>
       </c>
       <c r="D34" t="n">
-        <v>0.352709</v>
+        <v>0.339053</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310612</v>
+        <v>0.312553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236792</v>
+        <v>0.235536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.281611</v>
+        <v>0.272366</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.31441</v>
+        <v>0.315251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.240949</v>
+        <v>0.247128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282863</v>
+        <v>0.285407</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.325201</v>
+        <v>0.321571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25185</v>
+        <v>0.252473</v>
       </c>
       <c r="D37" t="n">
-        <v>0.292209</v>
+        <v>0.293496</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325695</v>
+        <v>0.336367</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256439</v>
+        <v>0.266696</v>
       </c>
       <c r="D38" t="n">
-        <v>0.295477</v>
+        <v>0.303278</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.338669</v>
+        <v>0.334373</v>
       </c>
       <c r="C39" t="n">
-        <v>0.279518</v>
+        <v>0.267021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313469</v>
+        <v>0.314452</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.357042</v>
+        <v>0.366808</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292037</v>
+        <v>0.289262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326209</v>
+        <v>0.324375</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327463</v>
+        <v>0.315972</v>
       </c>
       <c r="C41" t="n">
-        <v>0.291282</v>
+        <v>0.299509</v>
       </c>
       <c r="D41" t="n">
-        <v>0.336655</v>
+        <v>0.335794</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32475</v>
+        <v>0.33735</v>
       </c>
       <c r="C42" t="n">
-        <v>0.306938</v>
+        <v>0.310633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353624</v>
+        <v>0.347667</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.34625</v>
+        <v>0.352367</v>
       </c>
       <c r="C43" t="n">
-        <v>0.316707</v>
+        <v>0.330684</v>
       </c>
       <c r="D43" t="n">
-        <v>0.363397</v>
+        <v>0.370132</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.364206</v>
+        <v>0.351853</v>
       </c>
       <c r="C44" t="n">
-        <v>0.318328</v>
+        <v>0.330382</v>
       </c>
       <c r="D44" t="n">
-        <v>0.378844</v>
+        <v>0.38202</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.379969</v>
+        <v>0.368273</v>
       </c>
       <c r="C45" t="n">
-        <v>0.332823</v>
+        <v>0.344399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.387975</v>
+        <v>0.40475</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.387137</v>
+        <v>0.393534</v>
       </c>
       <c r="C46" t="n">
-        <v>0.348222</v>
+        <v>0.364811</v>
       </c>
       <c r="D46" t="n">
-        <v>0.405647</v>
+        <v>0.422029</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.404654</v>
+        <v>0.414402</v>
       </c>
       <c r="C47" t="n">
-        <v>0.372461</v>
+        <v>0.370025</v>
       </c>
       <c r="D47" t="n">
-        <v>0.416328</v>
+        <v>0.431108</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.421611</v>
+        <v>0.423725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.385601</v>
+        <v>0.392297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.443915</v>
+        <v>0.442102</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.418584</v>
+        <v>0.432732</v>
       </c>
       <c r="C49" t="n">
-        <v>0.384353</v>
+        <v>0.403809</v>
       </c>
       <c r="D49" t="n">
-        <v>0.453056</v>
+        <v>0.464583</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.450582</v>
+        <v>0.460811</v>
       </c>
       <c r="C50" t="n">
-        <v>0.31475</v>
+        <v>0.328102</v>
       </c>
       <c r="D50" t="n">
-        <v>0.362472</v>
+        <v>0.376838</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465889</v>
+        <v>0.478155</v>
       </c>
       <c r="C51" t="n">
-        <v>0.336563</v>
+        <v>0.340147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.376886</v>
+        <v>0.380419</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.482008</v>
+        <v>0.501579</v>
       </c>
       <c r="C52" t="n">
-        <v>0.352959</v>
+        <v>0.362312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.422628</v>
+        <v>0.399825</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514375</v>
+        <v>0.520119</v>
       </c>
       <c r="C53" t="n">
-        <v>0.369244</v>
+        <v>0.37677</v>
       </c>
       <c r="D53" t="n">
-        <v>0.422937</v>
+        <v>0.418072</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.524339</v>
+        <v>0.550721</v>
       </c>
       <c r="C54" t="n">
-        <v>0.381298</v>
+        <v>0.388638</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435062</v>
+        <v>0.435544</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.534057</v>
+        <v>0.56814</v>
       </c>
       <c r="C55" t="n">
-        <v>0.39637</v>
+        <v>0.403743</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458481</v>
+        <v>0.467413</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.508628</v>
+        <v>0.506387</v>
       </c>
       <c r="C56" t="n">
-        <v>0.412662</v>
+        <v>0.436235</v>
       </c>
       <c r="D56" t="n">
-        <v>0.484405</v>
+        <v>0.494011</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.524658</v>
+        <v>0.532004</v>
       </c>
       <c r="C57" t="n">
-        <v>0.42658</v>
+        <v>0.447709</v>
       </c>
       <c r="D57" t="n">
-        <v>0.497078</v>
+        <v>0.500668</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.547509</v>
+        <v>0.543158</v>
       </c>
       <c r="C58" t="n">
-        <v>0.455332</v>
+        <v>0.482621</v>
       </c>
       <c r="D58" t="n">
-        <v>0.529463</v>
+        <v>0.553929</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.564325</v>
+        <v>0.577059</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485621</v>
+        <v>0.499587</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5843699999999999</v>
+        <v>0.5797949999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.610861</v>
+        <v>0.598078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.523651</v>
+        <v>0.550461</v>
       </c>
       <c r="D60" t="n">
-        <v>0.593345</v>
+        <v>0.591118</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.62523</v>
+        <v>0.618954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.541482</v>
+        <v>0.554301</v>
       </c>
       <c r="D61" t="n">
-        <v>0.628242</v>
+        <v>0.61643</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.677598</v>
+        <v>0.6581900000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.57787</v>
+        <v>0.611931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.667644</v>
+        <v>0.661924</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.649485</v>
+        <v>0.682154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.606096</v>
+        <v>0.616418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.71439</v>
+        <v>0.705051</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.707327</v>
+        <v>0.7018529999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5116000000000001</v>
+        <v>0.50408</v>
       </c>
       <c r="D64" t="n">
-        <v>0.591835</v>
+        <v>0.591571</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.765308</v>
+        <v>0.723427</v>
       </c>
       <c r="C65" t="n">
-        <v>0.560198</v>
+        <v>0.54316</v>
       </c>
       <c r="D65" t="n">
-        <v>0.609645</v>
+        <v>0.614457</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.801349</v>
+        <v>0.76409</v>
       </c>
       <c r="C66" t="n">
-        <v>0.573534</v>
+        <v>0.560788</v>
       </c>
       <c r="D66" t="n">
-        <v>0.67117</v>
+        <v>0.671065</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.815852</v>
+        <v>0.791539</v>
       </c>
       <c r="C67" t="n">
-        <v>0.596222</v>
+        <v>0.581324</v>
       </c>
       <c r="D67" t="n">
-        <v>0.708744</v>
+        <v>0.6750890000000001</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.865561</v>
+        <v>0.831161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6444</v>
+        <v>0.6113769999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.716256</v>
+        <v>0.719872</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8926809999999999</v>
+        <v>0.898168</v>
       </c>
       <c r="C69" t="n">
-        <v>0.665963</v>
+        <v>0.665114</v>
       </c>
       <c r="D69" t="n">
-        <v>0.74929</v>
+        <v>0.770803</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.759167</v>
+        <v>0.736459</v>
       </c>
       <c r="C70" t="n">
-        <v>0.700684</v>
+        <v>0.678458</v>
       </c>
       <c r="D70" t="n">
-        <v>0.782534</v>
+        <v>0.777004</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.791414</v>
+        <v>0.746904</v>
       </c>
       <c r="C71" t="n">
-        <v>0.746312</v>
+        <v>0.719825</v>
       </c>
       <c r="D71" t="n">
-        <v>0.845228</v>
+        <v>0.8294589999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.824259</v>
+        <v>0.775613</v>
       </c>
       <c r="C72" t="n">
-        <v>0.751217</v>
+        <v>0.750059</v>
       </c>
       <c r="D72" t="n">
-        <v>0.865321</v>
+        <v>0.8432190000000001</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.858368</v>
+        <v>0.838852</v>
       </c>
       <c r="C73" t="n">
-        <v>0.785266</v>
+        <v>0.778544</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8925729999999999</v>
+        <v>0.90825</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.846634</v>
+        <v>0.8343</v>
       </c>
       <c r="C74" t="n">
-        <v>0.806705</v>
+        <v>0.8133320000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.950512</v>
+        <v>0.910077</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.906235</v>
+        <v>0.881727</v>
       </c>
       <c r="C75" t="n">
-        <v>0.855606</v>
+        <v>0.861022</v>
       </c>
       <c r="D75" t="n">
-        <v>0.994731</v>
+        <v>0.966958</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.906237</v>
+        <v>0.895525</v>
       </c>
       <c r="C76" t="n">
-        <v>0.881846</v>
+        <v>0.896329</v>
       </c>
       <c r="D76" t="n">
-        <v>1.00982</v>
+        <v>1.03586</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9575669999999999</v>
+        <v>0.911091</v>
       </c>
       <c r="C77" t="n">
-        <v>0.917247</v>
+        <v>0.935558</v>
       </c>
       <c r="D77" t="n">
-        <v>1.10239</v>
+        <v>1.05371</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.990062</v>
+        <v>0.941645</v>
       </c>
       <c r="C78" t="n">
-        <v>0.785192</v>
+        <v>0.762395</v>
       </c>
       <c r="D78" t="n">
-        <v>0.872649</v>
+        <v>0.900291</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01159</v>
+        <v>0.993061</v>
       </c>
       <c r="C79" t="n">
-        <v>0.764172</v>
+        <v>0.757172</v>
       </c>
       <c r="D79" t="n">
-        <v>0.921884</v>
+        <v>0.906694</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03492</v>
+        <v>1.02111</v>
       </c>
       <c r="C80" t="n">
-        <v>0.802712</v>
+        <v>0.802746</v>
       </c>
       <c r="D80" t="n">
-        <v>0.937367</v>
+        <v>0.958308</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.071</v>
+        <v>1.04412</v>
       </c>
       <c r="C81" t="n">
-        <v>0.803984</v>
+        <v>0.813267</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9915040000000001</v>
+        <v>0.9954539999999999</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08648</v>
+        <v>1.07502</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.838356</v>
       </c>
       <c r="D82" t="n">
-        <v>1.01494</v>
+        <v>1.00904</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12961</v>
+        <v>1.13597</v>
       </c>
       <c r="C83" t="n">
-        <v>0.868259</v>
+        <v>0.86128</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04904</v>
+        <v>1.04379</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.916651</v>
+        <v>0.885038</v>
       </c>
       <c r="C84" t="n">
-        <v>0.897038</v>
+        <v>0.900946</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12174</v>
+        <v>1.07156</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9403280000000001</v>
+        <v>0.91823</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9187380000000001</v>
+        <v>0.935751</v>
       </c>
       <c r="D85" t="n">
-        <v>1.14175</v>
+        <v>1.12373</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9245719999999999</v>
+        <v>0.93194</v>
       </c>
       <c r="C86" t="n">
-        <v>0.948294</v>
+        <v>0.9948669999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22758</v>
+        <v>1.15887</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.967076</v>
+        <v>0.938508</v>
       </c>
       <c r="C87" t="n">
-        <v>0.985588</v>
+        <v>1.01181</v>
       </c>
       <c r="D87" t="n">
-        <v>1.21748</v>
+        <v>1.20243</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.996866</v>
+        <v>0.98209</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04164</v>
+        <v>1.05253</v>
       </c>
       <c r="D88" t="n">
-        <v>1.25284</v>
+        <v>1.21683</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00751</v>
+        <v>1.0122</v>
       </c>
       <c r="C89" t="n">
-        <v>1.04826</v>
+        <v>1.07</v>
       </c>
       <c r="D89" t="n">
-        <v>1.275</v>
+        <v>1.26703</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07426</v>
+        <v>1.04657</v>
       </c>
       <c r="C90" t="n">
-        <v>1.10646</v>
+        <v>1.10921</v>
       </c>
       <c r="D90" t="n">
-        <v>1.3545</v>
+        <v>1.35052</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09532</v>
+        <v>1.05408</v>
       </c>
       <c r="C91" t="n">
-        <v>1.15479</v>
+        <v>1.16479</v>
       </c>
       <c r="D91" t="n">
-        <v>1.37179</v>
+        <v>1.3688</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.10395</v>
+        <v>1.1088</v>
       </c>
       <c r="C92" t="n">
-        <v>0.883209</v>
+        <v>0.925634</v>
       </c>
       <c r="D92" t="n">
-        <v>1.09689</v>
+        <v>1.08418</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13836</v>
+        <v>1.11499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.90689</v>
+        <v>0.911147</v>
       </c>
       <c r="D93" t="n">
-        <v>1.16551</v>
+        <v>1.15186</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16678</v>
+        <v>1.17695</v>
       </c>
       <c r="C94" t="n">
-        <v>0.927245</v>
+        <v>0.93264</v>
       </c>
       <c r="D94" t="n">
-        <v>1.18179</v>
+        <v>1.17483</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1925</v>
+        <v>1.189</v>
       </c>
       <c r="C95" t="n">
-        <v>0.961036</v>
+        <v>0.95235</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2034</v>
+        <v>1.20093</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21032</v>
+        <v>1.19099</v>
       </c>
       <c r="C96" t="n">
-        <v>1.00037</v>
+        <v>0.989499</v>
       </c>
       <c r="D96" t="n">
-        <v>1.24954</v>
+        <v>1.22457</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.264</v>
+        <v>1.23345</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02327</v>
+        <v>1.00741</v>
       </c>
       <c r="D97" t="n">
-        <v>1.27062</v>
+        <v>1.25434</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02734</v>
+        <v>0.998986</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04967</v>
+        <v>1.04024</v>
       </c>
       <c r="D98" t="n">
-        <v>1.33645</v>
+        <v>1.31481</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01049</v>
+        <v>1.0002</v>
       </c>
       <c r="C99" t="n">
-        <v>1.07648</v>
+        <v>1.07444</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35605</v>
+        <v>1.35985</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.05515</v>
+        <v>1.03859</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11211</v>
+        <v>1.11274</v>
       </c>
       <c r="D100" t="n">
-        <v>1.39125</v>
+        <v>1.39617</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07659</v>
+        <v>1.05566</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09858</v>
+        <v>1.15707</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44658</v>
+        <v>1.44665</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14034</v>
+        <v>1.09216</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1442</v>
+        <v>1.17781</v>
       </c>
       <c r="D102" t="n">
-        <v>1.46226</v>
+        <v>1.48062</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12855</v>
+        <v>1.1078</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20268</v>
+        <v>1.20732</v>
       </c>
       <c r="D103" t="n">
-        <v>1.49686</v>
+        <v>1.54515</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.17868</v>
+        <v>1.14959</v>
       </c>
       <c r="C104" t="n">
-        <v>1.24184</v>
+        <v>1.26202</v>
       </c>
       <c r="D104" t="n">
-        <v>1.62746</v>
+        <v>1.58911</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.17206</v>
+        <v>1.17302</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24373</v>
+        <v>1.27317</v>
       </c>
       <c r="D105" t="n">
-        <v>1.63808</v>
+        <v>1.63557</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.23514</v>
+        <v>1.18445</v>
       </c>
       <c r="C106" t="n">
-        <v>1.32281</v>
+        <v>1.33732</v>
       </c>
       <c r="D106" t="n">
-        <v>1.67438</v>
+        <v>1.66216</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.26626</v>
+        <v>1.23991</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01653</v>
+        <v>1.00131</v>
       </c>
       <c r="D107" t="n">
-        <v>1.2668</v>
+        <v>1.25566</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.31204</v>
+        <v>1.25506</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01865</v>
+        <v>1.01505</v>
       </c>
       <c r="D108" t="n">
-        <v>1.36267</v>
+        <v>1.33359</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.34022</v>
+        <v>1.29855</v>
       </c>
       <c r="C109" t="n">
-        <v>1.06052</v>
+        <v>1.09135</v>
       </c>
       <c r="D109" t="n">
-        <v>1.4202</v>
+        <v>1.36729</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39581</v>
+        <v>1.3139</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07758</v>
+        <v>1.09925</v>
       </c>
       <c r="D110" t="n">
-        <v>1.40014</v>
+        <v>1.39191</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38798</v>
+        <v>1.35172</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07017</v>
+        <v>1.10108</v>
       </c>
       <c r="D111" t="n">
-        <v>1.46467</v>
+        <v>1.42626</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07467</v>
+        <v>1.07584</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17279</v>
+        <v>1.12106</v>
       </c>
       <c r="D112" t="n">
-        <v>1.47658</v>
+        <v>1.4659</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13199</v>
+        <v>1.07977</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22039</v>
+        <v>1.16539</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47723</v>
+        <v>1.52452</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.11879</v>
+        <v>1.09798</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18814</v>
+        <v>1.20931</v>
       </c>
       <c r="D114" t="n">
-        <v>1.60052</v>
+        <v>1.53082</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15281</v>
+        <v>1.17567</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21254</v>
+        <v>1.23085</v>
       </c>
       <c r="D115" t="n">
-        <v>1.5923</v>
+        <v>1.59893</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16305</v>
+        <v>1.19072</v>
       </c>
       <c r="C116" t="n">
-        <v>1.23671</v>
+        <v>1.2857</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63592</v>
+        <v>1.64383</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.20208</v>
+        <v>1.16616</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30921</v>
+        <v>1.29589</v>
       </c>
       <c r="D117" t="n">
-        <v>1.72597</v>
+        <v>1.66855</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.25012</v>
+        <v>1.23988</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29556</v>
+        <v>1.34436</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72545</v>
+        <v>1.77314</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28302</v>
+        <v>1.25387</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35045</v>
+        <v>1.38711</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81258</v>
+        <v>1.82475</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191895</v>
+        <v>0.189576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185623</v>
+        <v>0.195728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.147338</v>
+        <v>0.148573</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187363</v>
+        <v>0.186273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194423</v>
+        <v>0.205705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.150144</v>
+        <v>0.148754</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200921</v>
+        <v>0.205036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197166</v>
+        <v>0.209677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15247</v>
+        <v>0.151017</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199914</v>
+        <v>0.20528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204881</v>
+        <v>0.218513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.157597</v>
+        <v>0.158524</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.206699</v>
+        <v>0.208601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213288</v>
+        <v>0.221229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15551</v>
+        <v>0.157203</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218686</v>
+        <v>0.210613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17057</v>
+        <v>0.176785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.151797</v>
+        <v>0.142033</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21793</v>
+        <v>0.216589</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17206</v>
+        <v>0.176036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148471</v>
+        <v>0.145773</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225827</v>
+        <v>0.220441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184369</v>
+        <v>0.185719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.152188</v>
+        <v>0.149035</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233917</v>
+        <v>0.236753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183696</v>
+        <v>0.184601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.156874</v>
+        <v>0.154361</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235369</v>
+        <v>0.235271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.185802</v>
+        <v>0.18793</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154559</v>
+        <v>0.155684</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.247242</v>
+        <v>0.242688</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188873</v>
+        <v>0.194163</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16398</v>
+        <v>0.157366</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191827</v>
+        <v>0.201112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201616</v>
+        <v>0.209114</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160426</v>
+        <v>0.158373</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.201666</v>
+        <v>0.199694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202301</v>
+        <v>0.20654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16578</v>
+        <v>0.162262</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.203132</v>
+        <v>0.206964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211116</v>
+        <v>0.219611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.170069</v>
+        <v>0.168669</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210736</v>
+        <v>0.205265</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213312</v>
+        <v>0.220912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17234</v>
+        <v>0.169428</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210795</v>
+        <v>0.21198</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218835</v>
+        <v>0.225567</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171841</v>
+        <v>0.172026</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.219523</v>
+        <v>0.212549</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232502</v>
+        <v>0.238514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.174859</v>
+        <v>0.175174</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.218497</v>
+        <v>0.216296</v>
       </c>
       <c r="C19" t="n">
-        <v>0.225178</v>
+        <v>0.239078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.176892</v>
+        <v>0.179645</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.225304</v>
+        <v>0.237022</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238299</v>
+        <v>0.2548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18801</v>
+        <v>0.185482</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229801</v>
+        <v>0.22489</v>
       </c>
       <c r="C21" t="n">
-        <v>0.184473</v>
+        <v>0.193611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169522</v>
+        <v>0.162405</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239862</v>
+        <v>0.232294</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186819</v>
+        <v>0.198962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170676</v>
+        <v>0.162614</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.247812</v>
+        <v>0.248836</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194002</v>
+        <v>0.198854</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17143</v>
+        <v>0.168347</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.258857</v>
+        <v>0.2573</v>
       </c>
       <c r="C24" t="n">
-        <v>0.201468</v>
+        <v>0.206777</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17529</v>
+        <v>0.170193</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.264657</v>
+        <v>0.263365</v>
       </c>
       <c r="C25" t="n">
-        <v>0.209919</v>
+        <v>0.216874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173556</v>
+        <v>0.16755</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2816</v>
+        <v>0.275404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216934</v>
+        <v>0.232818</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183834</v>
+        <v>0.173373</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230411</v>
+        <v>0.222707</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217607</v>
+        <v>0.227919</v>
       </c>
       <c r="D27" t="n">
-        <v>0.189125</v>
+        <v>0.179221</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.237544</v>
+        <v>0.234511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222833</v>
+        <v>0.230822</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185637</v>
+        <v>0.18088</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.235963</v>
+        <v>0.250647</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245855</v>
+        <v>0.231977</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192381</v>
+        <v>0.190586</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.250369</v>
+        <v>0.25428</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238306</v>
+        <v>0.251497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192682</v>
+        <v>0.195642</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256757</v>
+        <v>0.264754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255483</v>
+        <v>0.263154</v>
       </c>
       <c r="D31" t="n">
-        <v>0.196939</v>
+        <v>0.197976</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273918</v>
+        <v>0.27459</v>
       </c>
       <c r="C32" t="n">
-        <v>0.270978</v>
+        <v>0.269761</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202324</v>
+        <v>0.205727</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277966</v>
+        <v>0.276699</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275214</v>
+        <v>0.290011</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209863</v>
+        <v>0.213576</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.286085</v>
+        <v>0.287957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.279839</v>
+        <v>0.300372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212257</v>
+        <v>0.220315</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293428</v>
+        <v>0.299346</v>
       </c>
       <c r="C35" t="n">
-        <v>0.224548</v>
+        <v>0.235873</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193265</v>
+        <v>0.196347</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.309257</v>
+        <v>0.317633</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233297</v>
+        <v>0.247459</v>
       </c>
       <c r="D36" t="n">
-        <v>0.191956</v>
+        <v>0.195991</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.317108</v>
+        <v>0.316735</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243721</v>
+        <v>0.249512</v>
       </c>
       <c r="D37" t="n">
-        <v>0.199161</v>
+        <v>0.209857</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32186</v>
+        <v>0.32743</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252137</v>
+        <v>0.268265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20517</v>
+        <v>0.206675</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346257</v>
+        <v>0.348534</v>
       </c>
       <c r="C39" t="n">
-        <v>0.26398</v>
+        <v>0.273295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211817</v>
+        <v>0.223231</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.360637</v>
+        <v>0.350253</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271746</v>
+        <v>0.278978</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221005</v>
+        <v>0.213596</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.319326</v>
+        <v>0.321877</v>
       </c>
       <c r="C41" t="n">
-        <v>0.286322</v>
+        <v>0.30393</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2196</v>
+        <v>0.235839</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324318</v>
+        <v>0.316341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.298347</v>
+        <v>0.31461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224988</v>
+        <v>0.233492</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.348774</v>
+        <v>0.32676</v>
       </c>
       <c r="C43" t="n">
-        <v>0.296492</v>
+        <v>0.323282</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233305</v>
+        <v>0.238208</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.352605</v>
+        <v>0.350024</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317526</v>
+        <v>0.338375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.240773</v>
+        <v>0.241754</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.364521</v>
+        <v>0.36304</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337243</v>
+        <v>0.351794</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250252</v>
+        <v>0.246551</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.385209</v>
+        <v>0.388385</v>
       </c>
       <c r="C46" t="n">
-        <v>0.355873</v>
+        <v>0.381091</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261378</v>
+        <v>0.248353</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.396065</v>
+        <v>0.396211</v>
       </c>
       <c r="C47" t="n">
-        <v>0.364867</v>
+        <v>0.375761</v>
       </c>
       <c r="D47" t="n">
-        <v>0.268161</v>
+        <v>0.271031</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.409101</v>
+        <v>0.397815</v>
       </c>
       <c r="C48" t="n">
-        <v>0.375028</v>
+        <v>0.40248</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272834</v>
+        <v>0.272227</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.424998</v>
+        <v>0.413171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39593</v>
+        <v>0.427783</v>
       </c>
       <c r="D49" t="n">
-        <v>0.282731</v>
+        <v>0.289662</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.448056</v>
+        <v>0.439025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.318214</v>
+        <v>0.35077</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247411</v>
+        <v>0.246582</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476477</v>
+        <v>0.473375</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353139</v>
+        <v>0.349993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.258314</v>
+        <v>0.245615</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.508531</v>
+        <v>0.488311</v>
       </c>
       <c r="C52" t="n">
-        <v>0.353975</v>
+        <v>0.360024</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26158</v>
+        <v>0.266179</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5299430000000001</v>
+        <v>0.526242</v>
       </c>
       <c r="C53" t="n">
-        <v>0.380054</v>
+        <v>0.385949</v>
       </c>
       <c r="D53" t="n">
-        <v>0.273483</v>
+        <v>0.272555</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.553142</v>
+        <v>0.54678</v>
       </c>
       <c r="C54" t="n">
-        <v>0.40003</v>
+        <v>0.400315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.286244</v>
+        <v>0.27488</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.606829</v>
+        <v>0.589512</v>
       </c>
       <c r="C55" t="n">
-        <v>0.400913</v>
+        <v>0.433507</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296427</v>
+        <v>0.293148</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.518669</v>
+        <v>0.538984</v>
       </c>
       <c r="C56" t="n">
-        <v>0.436512</v>
+        <v>0.431578</v>
       </c>
       <c r="D56" t="n">
-        <v>0.292906</v>
+        <v>0.306126</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.560755</v>
+        <v>0.550076</v>
       </c>
       <c r="C57" t="n">
-        <v>0.439507</v>
+        <v>0.479751</v>
       </c>
       <c r="D57" t="n">
-        <v>0.315035</v>
+        <v>0.311447</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.607924</v>
+        <v>0.590845</v>
       </c>
       <c r="C58" t="n">
-        <v>0.482333</v>
+        <v>0.495949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320132</v>
+        <v>0.321244</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.626247</v>
+        <v>0.613626</v>
       </c>
       <c r="C59" t="n">
-        <v>0.517078</v>
+        <v>0.515432</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33486</v>
+        <v>0.333841</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.649334</v>
+        <v>0.639907</v>
       </c>
       <c r="C60" t="n">
-        <v>0.528047</v>
+        <v>0.555507</v>
       </c>
       <c r="D60" t="n">
-        <v>0.349353</v>
+        <v>0.341662</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.669828</v>
+        <v>0.681634</v>
       </c>
       <c r="C61" t="n">
-        <v>0.587547</v>
+        <v>0.599794</v>
       </c>
       <c r="D61" t="n">
-        <v>0.366425</v>
+        <v>0.368723</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.739409</v>
+        <v>0.709266</v>
       </c>
       <c r="C62" t="n">
-        <v>0.630723</v>
+        <v>0.628324</v>
       </c>
       <c r="D62" t="n">
-        <v>0.399119</v>
+        <v>0.377842</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.765598</v>
+        <v>0.742018</v>
       </c>
       <c r="C63" t="n">
-        <v>0.642313</v>
+        <v>0.688103</v>
       </c>
       <c r="D63" t="n">
-        <v>0.409137</v>
+        <v>0.395532</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.793305</v>
+        <v>0.805235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546606</v>
+        <v>0.567325</v>
       </c>
       <c r="D64" t="n">
-        <v>0.392634</v>
+        <v>0.379789</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.844375</v>
+        <v>0.832126</v>
       </c>
       <c r="C65" t="n">
-        <v>0.567818</v>
+        <v>0.586084</v>
       </c>
       <c r="D65" t="n">
-        <v>0.403272</v>
+        <v>0.392857</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8675310000000001</v>
+        <v>0.813462</v>
       </c>
       <c r="C66" t="n">
-        <v>0.626187</v>
+        <v>0.627984</v>
       </c>
       <c r="D66" t="n">
-        <v>0.408496</v>
+        <v>0.404388</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.954084</v>
+        <v>0.872348</v>
       </c>
       <c r="C67" t="n">
-        <v>0.638678</v>
+        <v>0.636566</v>
       </c>
       <c r="D67" t="n">
-        <v>0.442481</v>
+        <v>0.437777</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.925945</v>
+        <v>0.948723</v>
       </c>
       <c r="C68" t="n">
-        <v>0.640174</v>
+        <v>0.688992</v>
       </c>
       <c r="D68" t="n">
-        <v>0.466516</v>
+        <v>0.455014</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.03143</v>
+        <v>0.998185</v>
       </c>
       <c r="C69" t="n">
-        <v>0.696411</v>
+        <v>0.775323</v>
       </c>
       <c r="D69" t="n">
-        <v>0.473978</v>
+        <v>0.471364</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.805396</v>
+        <v>0.811845</v>
       </c>
       <c r="C70" t="n">
-        <v>0.74969</v>
+        <v>0.759504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486947</v>
+        <v>0.480159</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.813264</v>
+        <v>0.8822719999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.769886</v>
+        <v>0.799705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.509381</v>
+        <v>0.510526</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8509989999999999</v>
+        <v>0.907186</v>
       </c>
       <c r="C72" t="n">
-        <v>0.820701</v>
+        <v>0.861449</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532214</v>
+        <v>0.539278</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.915803</v>
+        <v>0.920552</v>
       </c>
       <c r="C73" t="n">
-        <v>0.858893</v>
+        <v>0.915478</v>
       </c>
       <c r="D73" t="n">
-        <v>0.568224</v>
+        <v>0.572531</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9057809999999999</v>
+        <v>0.943176</v>
       </c>
       <c r="C74" t="n">
-        <v>0.931274</v>
+        <v>0.946132</v>
       </c>
       <c r="D74" t="n">
-        <v>0.582255</v>
+        <v>0.613975</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.967883</v>
+        <v>0.968722</v>
       </c>
       <c r="C75" t="n">
-        <v>0.945497</v>
+        <v>0.9993379999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.641176</v>
+        <v>0.605847</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.993356</v>
+        <v>0.989897</v>
       </c>
       <c r="C76" t="n">
-        <v>1.01013</v>
+        <v>1.03708</v>
       </c>
       <c r="D76" t="n">
-        <v>0.614013</v>
+        <v>0.647051</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.02371</v>
+        <v>1.04409</v>
       </c>
       <c r="C77" t="n">
-        <v>1.05018</v>
+        <v>1.09066</v>
       </c>
       <c r="D77" t="n">
-        <v>0.692202</v>
+        <v>0.661095</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04412</v>
+        <v>1.07683</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8178609999999999</v>
+        <v>0.854491</v>
       </c>
       <c r="D78" t="n">
-        <v>0.616864</v>
+        <v>0.622495</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.12371</v>
+        <v>1.12175</v>
       </c>
       <c r="C79" t="n">
-        <v>0.856386</v>
+        <v>0.8584310000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.656887</v>
+        <v>0.648713</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.13063</v>
+        <v>1.1847</v>
       </c>
       <c r="C80" t="n">
-        <v>0.878458</v>
+        <v>0.926289</v>
       </c>
       <c r="D80" t="n">
-        <v>0.681007</v>
+        <v>0.638175</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20508</v>
+        <v>1.18526</v>
       </c>
       <c r="C81" t="n">
-        <v>0.904092</v>
+        <v>0.949485</v>
       </c>
       <c r="D81" t="n">
-        <v>0.673705</v>
+        <v>0.700654</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.23223</v>
+        <v>1.23262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.933969</v>
+        <v>0.990644</v>
       </c>
       <c r="D82" t="n">
-        <v>0.703801</v>
+        <v>0.7042580000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.29035</v>
+        <v>1.27325</v>
       </c>
       <c r="C83" t="n">
-        <v>0.982241</v>
+        <v>1.02</v>
       </c>
       <c r="D83" t="n">
-        <v>0.737764</v>
+        <v>0.7117250000000001</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.969478</v>
+        <v>0.976401</v>
       </c>
       <c r="C84" t="n">
-        <v>0.994684</v>
+        <v>1.04182</v>
       </c>
       <c r="D84" t="n">
-        <v>0.746536</v>
+        <v>0.738802</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00017</v>
+        <v>1.00804</v>
       </c>
       <c r="C85" t="n">
-        <v>1.06063</v>
+        <v>1.08953</v>
       </c>
       <c r="D85" t="n">
-        <v>0.769689</v>
+        <v>0.760879</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.04784</v>
+        <v>1.00378</v>
       </c>
       <c r="C86" t="n">
-        <v>1.09</v>
+        <v>1.13879</v>
       </c>
       <c r="D86" t="n">
-        <v>0.805619</v>
+        <v>0.802772</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.06317</v>
+        <v>1.07754</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13167</v>
+        <v>1.1726</v>
       </c>
       <c r="D87" t="n">
-        <v>0.809248</v>
+        <v>0.829932</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09205</v>
+        <v>1.05865</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15892</v>
+        <v>1.23008</v>
       </c>
       <c r="D88" t="n">
-        <v>0.866788</v>
+        <v>0.837147</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12132</v>
+        <v>1.12525</v>
       </c>
       <c r="C89" t="n">
-        <v>1.19591</v>
+        <v>1.26698</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8958159999999999</v>
+        <v>0.8747239999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15429</v>
+        <v>1.16677</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25358</v>
+        <v>1.32449</v>
       </c>
       <c r="D90" t="n">
-        <v>0.928826</v>
+        <v>0.937998</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.17006</v>
+        <v>1.18701</v>
       </c>
       <c r="C91" t="n">
-        <v>1.2772</v>
+        <v>1.39844</v>
       </c>
       <c r="D91" t="n">
-        <v>0.934258</v>
+        <v>0.917463</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.23787</v>
+        <v>1.23065</v>
       </c>
       <c r="C92" t="n">
-        <v>0.972608</v>
+        <v>0.987722</v>
       </c>
       <c r="D92" t="n">
-        <v>0.82221</v>
+        <v>0.811019</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.24898</v>
+        <v>1.24287</v>
       </c>
       <c r="C93" t="n">
-        <v>0.994623</v>
+        <v>1.04046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.820267</v>
+        <v>0.82075</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.32318</v>
+        <v>1.29102</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02261</v>
+        <v>1.06832</v>
       </c>
       <c r="D94" t="n">
-        <v>0.838714</v>
+        <v>0.845568</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.30796</v>
+        <v>1.32569</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03102</v>
+        <v>1.08434</v>
       </c>
       <c r="D95" t="n">
-        <v>0.84968</v>
+        <v>0.870614</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36841</v>
+        <v>1.37405</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0753</v>
+        <v>1.12097</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8819939999999999</v>
+        <v>0.88932</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.45205</v>
+        <v>1.42201</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10846</v>
+        <v>1.14672</v>
       </c>
       <c r="D97" t="n">
-        <v>0.925667</v>
+        <v>0.9044140000000001</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07864</v>
+        <v>1.06001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16455</v>
+        <v>1.20079</v>
       </c>
       <c r="D98" t="n">
-        <v>0.952569</v>
+        <v>0.927778</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10511</v>
+        <v>1.09522</v>
       </c>
       <c r="C99" t="n">
-        <v>1.19602</v>
+        <v>1.25167</v>
       </c>
       <c r="D99" t="n">
-        <v>0.957037</v>
+        <v>0.933681</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14066</v>
+        <v>1.12326</v>
       </c>
       <c r="C100" t="n">
-        <v>1.20623</v>
+        <v>1.25594</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00237</v>
+        <v>0.970302</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13802</v>
+        <v>1.17435</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26283</v>
+        <v>1.31159</v>
       </c>
       <c r="D101" t="n">
-        <v>1.02112</v>
+        <v>1.00819</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18212</v>
+        <v>1.18069</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2997</v>
+        <v>1.3766</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02982</v>
+        <v>1.04214</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.21246</v>
+        <v>1.23029</v>
       </c>
       <c r="C103" t="n">
-        <v>1.32876</v>
+        <v>1.40702</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04722</v>
+        <v>1.06611</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.24764</v>
+        <v>1.25371</v>
       </c>
       <c r="C104" t="n">
-        <v>1.40928</v>
+        <v>1.43906</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09865</v>
+        <v>1.08911</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.28992</v>
+        <v>1.29822</v>
       </c>
       <c r="C105" t="n">
-        <v>1.46927</v>
+        <v>1.52777</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14633</v>
+        <v>1.12586</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.36046</v>
+        <v>1.31</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47194</v>
+        <v>1.56079</v>
       </c>
       <c r="D106" t="n">
-        <v>1.17153</v>
+        <v>1.18324</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.40416</v>
+        <v>1.35389</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10025</v>
+        <v>1.13141</v>
       </c>
       <c r="D107" t="n">
-        <v>0.935908</v>
+        <v>0.940729</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.425</v>
+        <v>1.40682</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12753</v>
+        <v>1.17715</v>
       </c>
       <c r="D108" t="n">
-        <v>0.969881</v>
+        <v>0.962933</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.48967</v>
+        <v>1.4711</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14612</v>
+        <v>1.20053</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01787</v>
+        <v>0.9915</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.53214</v>
+        <v>1.50826</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22613</v>
+        <v>1.24069</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0174</v>
+        <v>1.01437</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.57579</v>
+        <v>1.56951</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24189</v>
+        <v>1.28488</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03428</v>
+        <v>1.04365</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.20271</v>
+        <v>1.1981</v>
       </c>
       <c r="C112" t="n">
-        <v>1.25543</v>
+        <v>1.3198</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05483</v>
+        <v>1.09283</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.22561</v>
+        <v>1.21638</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31571</v>
+        <v>1.34178</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0879</v>
+        <v>1.09832</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.25939</v>
+        <v>1.21475</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33447</v>
+        <v>1.38568</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10561</v>
+        <v>1.10006</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.27626</v>
+        <v>1.28055</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42925</v>
+        <v>1.49804</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16181</v>
+        <v>1.17273</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.33272</v>
+        <v>1.2609</v>
       </c>
       <c r="C116" t="n">
-        <v>1.40297</v>
+        <v>1.48781</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16375</v>
+        <v>1.18767</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.37985</v>
+        <v>1.27121</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49176</v>
+        <v>1.50503</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24257</v>
+        <v>1.19643</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.38601</v>
+        <v>1.34433</v>
       </c>
       <c r="C118" t="n">
-        <v>1.59516</v>
+        <v>1.56695</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27107</v>
+        <v>1.25577</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44484</v>
+        <v>1.39736</v>
       </c>
       <c r="C119" t="n">
-        <v>1.63438</v>
+        <v>1.59146</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28853</v>
+        <v>1.21598</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.567851</v>
+        <v>0.5830880000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.456973</v>
+        <v>0.475149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247463</v>
+        <v>0.256198</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368232</v>
+        <v>0.368513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.440695</v>
+        <v>0.498562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254584</v>
+        <v>0.248153</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400806</v>
+        <v>0.399861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.472098</v>
+        <v>0.535148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26285</v>
+        <v>0.25781</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.396437</v>
+        <v>0.402853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.495543</v>
+        <v>0.540875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.271535</v>
+        <v>0.269664</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.438006</v>
+        <v>0.429798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.535247</v>
+        <v>0.57061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.283812</v>
+        <v>0.274062</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439486</v>
+        <v>0.449578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.581545</v>
+        <v>0.619455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291502</v>
+        <v>0.291974</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.462668</v>
+        <v>0.4718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.584646</v>
+        <v>0.639655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313884</v>
+        <v>0.29317</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.488896</v>
+        <v>0.490062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.608542</v>
+        <v>0.6876100000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.314794</v>
+        <v>0.301035</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.540205</v>
+        <v>0.519721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.631644</v>
+        <v>0.685735</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321626</v>
+        <v>0.322632</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555898</v>
+        <v>0.543535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.411276</v>
+        <v>0.438941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242401</v>
+        <v>0.238821</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5885</v>
+        <v>0.582879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.418864</v>
+        <v>0.457711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251645</v>
+        <v>0.24599</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.632202</v>
+        <v>0.599907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.442267</v>
+        <v>0.489791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269025</v>
+        <v>0.262196</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.632375</v>
+        <v>0.62471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.472029</v>
+        <v>0.509227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266577</v>
+        <v>0.260729</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.654758</v>
+        <v>0.664498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.494855</v>
+        <v>0.529712</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276072</v>
+        <v>0.274318</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.67918</v>
+        <v>0.696068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.499155</v>
+        <v>0.557331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.296053</v>
+        <v>0.283845</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.431372</v>
+        <v>0.435003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.526877</v>
+        <v>0.575423</v>
       </c>
       <c r="D17" t="n">
-        <v>0.299977</v>
+        <v>0.294066</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442553</v>
+        <v>0.445479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.551996</v>
+        <v>0.604934</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302551</v>
+        <v>0.310099</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.481078</v>
+        <v>0.485584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.573868</v>
+        <v>0.635495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32409</v>
+        <v>0.318189</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5014459999999999</v>
+        <v>0.489124</v>
       </c>
       <c r="C20" t="n">
-        <v>0.622967</v>
+        <v>0.675204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.330235</v>
+        <v>0.328585</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522483</v>
+        <v>0.514996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.645891</v>
+        <v>0.6959920000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.349372</v>
+        <v>0.345856</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.572416</v>
+        <v>0.566674</v>
       </c>
       <c r="C22" t="n">
-        <v>0.660571</v>
+        <v>0.7539130000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.359559</v>
+        <v>0.353305</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.565614</v>
+        <v>0.564354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700949</v>
+        <v>0.749292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.368211</v>
+        <v>0.355363</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6113459999999999</v>
+        <v>0.605033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.712369</v>
+        <v>0.800098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.382887</v>
+        <v>0.371194</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6573560000000001</v>
+        <v>0.634446</v>
       </c>
       <c r="C25" t="n">
-        <v>0.749396</v>
+        <v>0.831906</v>
       </c>
       <c r="D25" t="n">
-        <v>0.396574</v>
+        <v>0.391916</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.66154</v>
+        <v>0.673538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.467645</v>
+        <v>0.51771</v>
       </c>
       <c r="D26" t="n">
-        <v>0.291045</v>
+        <v>0.289546</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7072040000000001</v>
+        <v>0.711991</v>
       </c>
       <c r="C27" t="n">
-        <v>0.477708</v>
+        <v>0.558605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293529</v>
+        <v>0.296875</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753925</v>
+        <v>0.73894</v>
       </c>
       <c r="C28" t="n">
-        <v>0.528674</v>
+        <v>0.571092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.306925</v>
+        <v>0.308599</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.776634</v>
+        <v>0.824435</v>
       </c>
       <c r="C29" t="n">
-        <v>0.551329</v>
+        <v>0.654625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316788</v>
+        <v>0.334907</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.847431</v>
+        <v>0.8283779999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.578684</v>
+        <v>0.630768</v>
       </c>
       <c r="D30" t="n">
-        <v>0.345687</v>
+        <v>0.326547</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.881172</v>
+        <v>0.858195</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5996320000000001</v>
+        <v>0.667312</v>
       </c>
       <c r="D31" t="n">
-        <v>0.343849</v>
+        <v>0.340749</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.526905</v>
+        <v>0.518589</v>
       </c>
       <c r="C32" t="n">
-        <v>0.647128</v>
+        <v>0.684484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.365328</v>
+        <v>0.347677</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.548285</v>
       </c>
       <c r="C33" t="n">
-        <v>0.662787</v>
+        <v>0.702269</v>
       </c>
       <c r="D33" t="n">
-        <v>0.372395</v>
+        <v>0.372737</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.583748</v>
+        <v>0.590125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.686121</v>
+        <v>0.7764259999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.390194</v>
+        <v>0.383344</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.603822</v>
+        <v>0.571987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7620209999999999</v>
+        <v>0.806299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.413803</v>
+        <v>0.395364</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.644502</v>
+        <v>0.654022</v>
       </c>
       <c r="C36" t="n">
-        <v>0.778213</v>
+        <v>0.859777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.421783</v>
+        <v>0.431972</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.70019</v>
+        <v>0.674953</v>
       </c>
       <c r="C37" t="n">
-        <v>0.850957</v>
+        <v>0.910704</v>
       </c>
       <c r="D37" t="n">
-        <v>0.455594</v>
+        <v>0.430425</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734333</v>
+        <v>0.726788</v>
       </c>
       <c r="C38" t="n">
-        <v>0.879571</v>
+        <v>1.00089</v>
       </c>
       <c r="D38" t="n">
-        <v>0.47308</v>
+        <v>0.464801</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.770774</v>
+        <v>0.775235</v>
       </c>
       <c r="C39" t="n">
-        <v>0.969841</v>
+        <v>1.05844</v>
       </c>
       <c r="D39" t="n">
-        <v>0.527515</v>
+        <v>0.490551</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.82339</v>
+        <v>0.814623</v>
       </c>
       <c r="C40" t="n">
-        <v>0.610535</v>
+        <v>0.650143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.387398</v>
+        <v>0.348447</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9249039999999999</v>
+        <v>0.8995300000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.635605</v>
+        <v>0.688059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.388725</v>
+        <v>0.377787</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.951657</v>
+        <v>0.985254</v>
       </c>
       <c r="C42" t="n">
-        <v>0.694812</v>
+        <v>0.705109</v>
       </c>
       <c r="D42" t="n">
-        <v>0.405677</v>
+        <v>0.375368</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.01381</v>
+        <v>1.0093</v>
       </c>
       <c r="C43" t="n">
-        <v>0.71983</v>
+        <v>0.745018</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41903</v>
+        <v>0.404366</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.04813</v>
+        <v>1.04488</v>
       </c>
       <c r="C44" t="n">
-        <v>0.72753</v>
+        <v>0.780045</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452636</v>
+        <v>0.415194</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.08036</v>
+        <v>1.10299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.788718</v>
+        <v>0.863226</v>
       </c>
       <c r="D45" t="n">
-        <v>0.453283</v>
+        <v>0.451788</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7242459999999999</v>
+        <v>0.7130379999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.845934</v>
+        <v>0.91969</v>
       </c>
       <c r="D46" t="n">
-        <v>0.479428</v>
+        <v>0.47927</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.750728</v>
+        <v>0.747343</v>
       </c>
       <c r="C47" t="n">
-        <v>0.885336</v>
+        <v>1.00054</v>
       </c>
       <c r="D47" t="n">
-        <v>0.511491</v>
+        <v>0.490025</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.782127</v>
+        <v>0.783961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.962575</v>
+        <v>1.06478</v>
       </c>
       <c r="D48" t="n">
-        <v>0.540123</v>
+        <v>0.53732</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.87626</v>
+        <v>0.848998</v>
       </c>
       <c r="C49" t="n">
-        <v>1.07229</v>
+        <v>1.13069</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5662740000000001</v>
+        <v>0.533949</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.887481</v>
+        <v>0.880633</v>
       </c>
       <c r="C50" t="n">
-        <v>1.10769</v>
+        <v>1.17507</v>
       </c>
       <c r="D50" t="n">
-        <v>0.600521</v>
+        <v>0.572667</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.961464</v>
+        <v>0.981637</v>
       </c>
       <c r="C51" t="n">
-        <v>1.18869</v>
+        <v>1.29463</v>
       </c>
       <c r="D51" t="n">
-        <v>0.651833</v>
+        <v>0.631302</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.02529</v>
+        <v>1.02391</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2725</v>
+        <v>1.3786</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6857839999999999</v>
+        <v>0.685832</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.087</v>
+        <v>1.10706</v>
       </c>
       <c r="C53" t="n">
-        <v>1.35527</v>
+        <v>1.47306</v>
       </c>
       <c r="D53" t="n">
-        <v>0.711562</v>
+        <v>0.719669</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.17493</v>
+        <v>1.19399</v>
       </c>
       <c r="C54" t="n">
-        <v>0.837153</v>
+        <v>0.9091939999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.499984</v>
+        <v>0.49041</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.24239</v>
+        <v>1.24886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.850816</v>
+        <v>0.938869</v>
       </c>
       <c r="D55" t="n">
-        <v>0.523648</v>
+        <v>0.51738</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.34163</v>
+        <v>1.34724</v>
       </c>
       <c r="C56" t="n">
-        <v>0.934564</v>
+        <v>1.04689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.544299</v>
+        <v>0.541057</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.42674</v>
+        <v>1.47002</v>
       </c>
       <c r="C57" t="n">
-        <v>1.02123</v>
+        <v>1.08378</v>
       </c>
       <c r="D57" t="n">
-        <v>0.577029</v>
+        <v>0.575827</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.5674</v>
+        <v>1.54488</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07727</v>
+        <v>1.17934</v>
       </c>
       <c r="D58" t="n">
-        <v>0.631127</v>
+        <v>0.6106510000000001</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.65091</v>
+        <v>1.68851</v>
       </c>
       <c r="C59" t="n">
-        <v>1.147</v>
+        <v>1.24438</v>
       </c>
       <c r="D59" t="n">
-        <v>0.643524</v>
+        <v>0.645302</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.0596</v>
+        <v>1.11382</v>
       </c>
       <c r="C60" t="n">
-        <v>1.24043</v>
+        <v>1.34608</v>
       </c>
       <c r="D60" t="n">
-        <v>0.693986</v>
+        <v>0.681751</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.17332</v>
+        <v>1.22012</v>
       </c>
       <c r="C61" t="n">
-        <v>1.33239</v>
+        <v>1.50718</v>
       </c>
       <c r="D61" t="n">
-        <v>0.776247</v>
+        <v>0.755893</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.25997</v>
+        <v>1.31615</v>
       </c>
       <c r="C62" t="n">
-        <v>1.50107</v>
+        <v>1.61717</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7573299999999999</v>
+        <v>0.765282</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.3994</v>
+        <v>1.41776</v>
       </c>
       <c r="C63" t="n">
-        <v>1.66235</v>
+        <v>1.78103</v>
       </c>
       <c r="D63" t="n">
-        <v>0.81273</v>
+        <v>0.826166</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.53822</v>
+        <v>1.53661</v>
       </c>
       <c r="C64" t="n">
-        <v>1.80781</v>
+        <v>1.86277</v>
       </c>
       <c r="D64" t="n">
-        <v>0.878275</v>
+        <v>0.855846</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.6746</v>
+        <v>1.66228</v>
       </c>
       <c r="C65" t="n">
-        <v>1.93603</v>
+        <v>2.08454</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9191240000000001</v>
+        <v>0.928583</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.79735</v>
+        <v>1.80443</v>
       </c>
       <c r="C66" t="n">
-        <v>2.12977</v>
+        <v>2.27872</v>
       </c>
       <c r="D66" t="n">
-        <v>0.984008</v>
+        <v>0.98721</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.96302</v>
+        <v>2.00204</v>
       </c>
       <c r="C67" t="n">
-        <v>2.29762</v>
+        <v>2.48445</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03913</v>
+        <v>1.05397</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.11384</v>
+        <v>2.14062</v>
       </c>
       <c r="C68" t="n">
-        <v>1.39517</v>
+        <v>1.56918</v>
       </c>
       <c r="D68" t="n">
-        <v>0.743468</v>
+        <v>0.746051</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.38544</v>
+        <v>2.39371</v>
       </c>
       <c r="C69" t="n">
-        <v>1.52524</v>
+        <v>1.6896</v>
       </c>
       <c r="D69" t="n">
-        <v>0.785144</v>
+        <v>0.777809</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.51801</v>
+        <v>2.55502</v>
       </c>
       <c r="C70" t="n">
-        <v>1.65685</v>
+        <v>1.82212</v>
       </c>
       <c r="D70" t="n">
-        <v>0.847135</v>
+        <v>0.864662</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.71787</v>
+        <v>2.73349</v>
       </c>
       <c r="C71" t="n">
-        <v>1.86748</v>
+        <v>1.96915</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8718399999999999</v>
+        <v>0.970652</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.97046</v>
+        <v>2.93417</v>
       </c>
       <c r="C72" t="n">
-        <v>2.01502</v>
+        <v>2.11978</v>
       </c>
       <c r="D72" t="n">
-        <v>0.954716</v>
+        <v>0.961131</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.18994</v>
+        <v>3.24896</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15818</v>
+        <v>2.3563</v>
       </c>
       <c r="D73" t="n">
-        <v>1.03141</v>
+        <v>1.01798</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.9494</v>
+        <v>1.99261</v>
       </c>
       <c r="C74" t="n">
-        <v>2.26749</v>
+        <v>2.46549</v>
       </c>
       <c r="D74" t="n">
-        <v>1.07338</v>
+        <v>1.10379</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.03214</v>
+        <v>2.13137</v>
       </c>
       <c r="C75" t="n">
-        <v>2.46993</v>
+        <v>2.76104</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1727</v>
+        <v>1.1785</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.18695</v>
+        <v>2.31288</v>
       </c>
       <c r="C76" t="n">
-        <v>2.58566</v>
+        <v>2.86734</v>
       </c>
       <c r="D76" t="n">
-        <v>1.20405</v>
+        <v>1.25176</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.32079</v>
+        <v>2.4327</v>
       </c>
       <c r="C77" t="n">
-        <v>2.86215</v>
+        <v>3.0526</v>
       </c>
       <c r="D77" t="n">
-        <v>1.34635</v>
+        <v>1.3415</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.53435</v>
+        <v>2.46173</v>
       </c>
       <c r="C78" t="n">
-        <v>3.04967</v>
+        <v>3.26615</v>
       </c>
       <c r="D78" t="n">
-        <v>1.39487</v>
+        <v>1.41096</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.61435</v>
+        <v>2.66558</v>
       </c>
       <c r="C79" t="n">
-        <v>3.20776</v>
+        <v>3.47903</v>
       </c>
       <c r="D79" t="n">
-        <v>1.49791</v>
+        <v>1.46553</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.77999</v>
+        <v>2.81345</v>
       </c>
       <c r="C80" t="n">
-        <v>3.42308</v>
+        <v>3.74595</v>
       </c>
       <c r="D80" t="n">
-        <v>1.57742</v>
+        <v>1.54137</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.94742</v>
+        <v>3.02391</v>
       </c>
       <c r="C81" t="n">
-        <v>3.74771</v>
+        <v>3.99239</v>
       </c>
       <c r="D81" t="n">
-        <v>1.70766</v>
+        <v>1.64906</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.1298</v>
+        <v>3.16516</v>
       </c>
       <c r="C82" t="n">
-        <v>3.93656</v>
+        <v>4.22161</v>
       </c>
       <c r="D82" t="n">
-        <v>1.7786</v>
+        <v>1.81119</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.30221</v>
+        <v>3.39249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.24751</v>
+        <v>2.45809</v>
       </c>
       <c r="D83" t="n">
-        <v>1.24521</v>
+        <v>1.2264</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.62446</v>
+        <v>3.50792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.43285</v>
+        <v>2.55738</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31693</v>
+        <v>1.27239</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.85203</v>
+        <v>3.7177</v>
       </c>
       <c r="C85" t="n">
-        <v>2.56464</v>
+        <v>2.7333</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38418</v>
+        <v>1.35108</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.02439</v>
+        <v>3.9773</v>
       </c>
       <c r="C86" t="n">
-        <v>2.73713</v>
+        <v>2.85963</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42867</v>
+        <v>1.46739</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.21895</v>
+        <v>4.17692</v>
       </c>
       <c r="C87" t="n">
-        <v>2.87664</v>
+        <v>3.09634</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52511</v>
+        <v>1.49059</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.4196</v>
+        <v>4.36972</v>
       </c>
       <c r="C88" t="n">
-        <v>3.03745</v>
+        <v>3.25359</v>
       </c>
       <c r="D88" t="n">
-        <v>1.58656</v>
+        <v>1.56384</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56841</v>
+        <v>2.60553</v>
       </c>
       <c r="C89" t="n">
-        <v>3.28723</v>
+        <v>3.44187</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67275</v>
+        <v>1.65839</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.80284</v>
+        <v>2.73802</v>
       </c>
       <c r="C90" t="n">
-        <v>3.37084</v>
+        <v>3.60117</v>
       </c>
       <c r="D90" t="n">
-        <v>1.8011</v>
+        <v>1.75658</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.88562</v>
+        <v>2.85959</v>
       </c>
       <c r="C91" t="n">
-        <v>3.59153</v>
+        <v>3.9324</v>
       </c>
       <c r="D91" t="n">
-        <v>1.85764</v>
+        <v>1.87537</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.98029</v>
+        <v>3.01663</v>
       </c>
       <c r="C92" t="n">
-        <v>3.76294</v>
+        <v>4.03482</v>
       </c>
       <c r="D92" t="n">
-        <v>1.93399</v>
+        <v>1.91627</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.17025</v>
+        <v>3.18763</v>
       </c>
       <c r="C93" t="n">
-        <v>4.07086</v>
+        <v>4.41838</v>
       </c>
       <c r="D93" t="n">
-        <v>2.0455</v>
+        <v>2.00187</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.36009</v>
+        <v>3.38887</v>
       </c>
       <c r="C94" t="n">
-        <v>4.30772</v>
+        <v>4.61115</v>
       </c>
       <c r="D94" t="n">
-        <v>2.1402</v>
+        <v>2.12025</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.49929</v>
+        <v>3.51956</v>
       </c>
       <c r="C95" t="n">
-        <v>4.45403</v>
+        <v>4.82693</v>
       </c>
       <c r="D95" t="n">
-        <v>2.25213</v>
+        <v>2.19486</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.68102</v>
+        <v>3.72933</v>
       </c>
       <c r="C96" t="n">
-        <v>4.80018</v>
+        <v>5.11088</v>
       </c>
       <c r="D96" t="n">
-        <v>2.33737</v>
+        <v>2.32564</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.87499</v>
+        <v>3.92137</v>
       </c>
       <c r="C97" t="n">
-        <v>2.74286</v>
+        <v>2.92579</v>
       </c>
       <c r="D97" t="n">
-        <v>1.63341</v>
+        <v>1.60086</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.11674</v>
+        <v>4.13937</v>
       </c>
       <c r="C98" t="n">
-        <v>2.80544</v>
+        <v>3.11444</v>
       </c>
       <c r="D98" t="n">
-        <v>1.67843</v>
+        <v>1.67546</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.29037</v>
+        <v>4.34889</v>
       </c>
       <c r="C99" t="n">
-        <v>2.90497</v>
+        <v>3.28041</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69291</v>
+        <v>1.74544</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.49767</v>
+        <v>4.59017</v>
       </c>
       <c r="C100" t="n">
-        <v>3.07122</v>
+        <v>3.48028</v>
       </c>
       <c r="D100" t="n">
-        <v>1.86271</v>
+        <v>1.84801</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.70138</v>
+        <v>4.84154</v>
       </c>
       <c r="C101" t="n">
-        <v>3.28614</v>
+        <v>3.57474</v>
       </c>
       <c r="D101" t="n">
-        <v>1.95324</v>
+        <v>1.95294</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.02177</v>
+        <v>5.05974</v>
       </c>
       <c r="C102" t="n">
-        <v>3.56366</v>
+        <v>3.78437</v>
       </c>
       <c r="D102" t="n">
-        <v>1.95734</v>
+        <v>2.03543</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.92547</v>
+        <v>2.89923</v>
       </c>
       <c r="C103" t="n">
-        <v>3.67916</v>
+        <v>4.05505</v>
       </c>
       <c r="D103" t="n">
-        <v>2.03429</v>
+        <v>2.10941</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.0092</v>
+        <v>3.07039</v>
       </c>
       <c r="C104" t="n">
-        <v>3.83305</v>
+        <v>4.24831</v>
       </c>
       <c r="D104" t="n">
-        <v>2.15729</v>
+        <v>2.16626</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.16702</v>
+        <v>3.19693</v>
       </c>
       <c r="C105" t="n">
-        <v>3.94568</v>
+        <v>4.44419</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24818</v>
+        <v>2.21576</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.34576</v>
+        <v>3.35162</v>
       </c>
       <c r="C106" t="n">
-        <v>4.26405</v>
+        <v>4.67825</v>
       </c>
       <c r="D106" t="n">
-        <v>2.31895</v>
+        <v>2.41602</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.54577</v>
+        <v>3.51826</v>
       </c>
       <c r="C107" t="n">
-        <v>4.4344</v>
+        <v>4.91903</v>
       </c>
       <c r="D107" t="n">
-        <v>2.4135</v>
+        <v>2.47314</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.71378</v>
+        <v>3.72421</v>
       </c>
       <c r="C108" t="n">
-        <v>4.75694</v>
+        <v>5.24664</v>
       </c>
       <c r="D108" t="n">
-        <v>2.47606</v>
+        <v>2.49907</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91827</v>
+        <v>3.87898</v>
       </c>
       <c r="C109" t="n">
-        <v>4.92686</v>
+        <v>5.54828</v>
       </c>
       <c r="D109" t="n">
-        <v>2.68327</v>
+        <v>2.67118</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.07969</v>
+        <v>4.15262</v>
       </c>
       <c r="C110" t="n">
-        <v>5.24786</v>
+        <v>5.83417</v>
       </c>
       <c r="D110" t="n">
-        <v>2.82525</v>
+        <v>2.71625</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24204</v>
+        <v>4.30374</v>
       </c>
       <c r="C111" t="n">
-        <v>2.89975</v>
+        <v>3.25209</v>
       </c>
       <c r="D111" t="n">
-        <v>1.96097</v>
+        <v>1.91524</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.46388</v>
+        <v>4.53883</v>
       </c>
       <c r="C112" t="n">
-        <v>3.109</v>
+        <v>3.42037</v>
       </c>
       <c r="D112" t="n">
-        <v>1.99208</v>
+        <v>2.00789</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.70475</v>
+        <v>4.72384</v>
       </c>
       <c r="C113" t="n">
-        <v>3.2698</v>
+        <v>3.66063</v>
       </c>
       <c r="D113" t="n">
-        <v>2.17171</v>
+        <v>2.08213</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.99897</v>
+        <v>4.96005</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41558</v>
+        <v>3.83327</v>
       </c>
       <c r="D114" t="n">
-        <v>2.17927</v>
+        <v>2.13449</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.2099</v>
+        <v>5.25299</v>
       </c>
       <c r="C115" t="n">
-        <v>3.546</v>
+        <v>4.00593</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25767</v>
+        <v>2.25679</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.41739</v>
+        <v>5.45189</v>
       </c>
       <c r="C116" t="n">
-        <v>3.76566</v>
+        <v>4.25751</v>
       </c>
       <c r="D116" t="n">
-        <v>2.34197</v>
+        <v>2.30984</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.16182</v>
+        <v>3.18864</v>
       </c>
       <c r="C117" t="n">
-        <v>3.97682</v>
+        <v>4.51242</v>
       </c>
       <c r="D117" t="n">
-        <v>2.41882</v>
+        <v>2.46252</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.27916</v>
+        <v>3.35195</v>
       </c>
       <c r="C118" t="n">
-        <v>4.21489</v>
+        <v>4.74038</v>
       </c>
       <c r="D118" t="n">
-        <v>2.48658</v>
+        <v>2.57292</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.45402</v>
+        <v>3.53336</v>
       </c>
       <c r="C119" t="n">
-        <v>4.3635</v>
+        <v>5.01114</v>
       </c>
       <c r="D119" t="n">
-        <v>2.61043</v>
+        <v>2.66738</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227869</v>
+        <v>0.230835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229302</v>
+        <v>0.223946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237836</v>
+        <v>0.242245</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238917</v>
+        <v>0.23722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229804</v>
+        <v>0.235048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240951</v>
+        <v>0.238014</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233845</v>
+        <v>0.232271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237406</v>
+        <v>0.232126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249964</v>
+        <v>0.249531</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247307</v>
+        <v>0.235845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244092</v>
+        <v>0.241684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.246274</v>
+        <v>0.25553</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245868</v>
+        <v>0.24237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.242967</v>
+        <v>0.24545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259402</v>
+        <v>0.257482</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24499</v>
+        <v>0.257148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191736</v>
+        <v>0.203447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214049</v>
+        <v>0.222633</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246615</v>
+        <v>0.257803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.209486</v>
+        <v>0.215362</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229188</v>
+        <v>0.229277</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.254938</v>
+        <v>0.25294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222292</v>
+        <v>0.202272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23675</v>
+        <v>0.228561</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.268746</v>
+        <v>0.259873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219208</v>
+        <v>0.216523</v>
       </c>
       <c r="D10" t="n">
-        <v>0.238508</v>
+        <v>0.234771</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.269387</v>
+        <v>0.258299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220357</v>
+        <v>0.220305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254813</v>
+        <v>0.240957</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.269328</v>
+        <v>0.264735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22142</v>
+        <v>0.224722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249163</v>
+        <v>0.25907</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22038</v>
+        <v>0.225937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.227141</v>
+        <v>0.227994</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256264</v>
+        <v>0.256521</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.227003</v>
+        <v>0.227692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241146</v>
+        <v>0.241707</v>
       </c>
       <c r="D14" t="n">
-        <v>0.268605</v>
+        <v>0.275087</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.233074</v>
+        <v>0.241165</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238476</v>
+        <v>0.2539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266747</v>
+        <v>0.27898</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239676</v>
+        <v>0.247176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247688</v>
+        <v>0.248562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28042</v>
+        <v>0.283441</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.244006</v>
+        <v>0.250993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253332</v>
+        <v>0.264736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.279897</v>
+        <v>0.289371</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242648</v>
+        <v>0.249003</v>
       </c>
       <c r="C18" t="n">
-        <v>0.260353</v>
+        <v>0.261406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287568</v>
+        <v>0.299766</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255421</v>
+        <v>0.261688</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268622</v>
+        <v>0.276751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298936</v>
+        <v>0.308653</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.257288</v>
+        <v>0.257073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269027</v>
+        <v>0.287095</v>
       </c>
       <c r="D20" t="n">
-        <v>0.299169</v>
+        <v>0.32765</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257144</v>
+        <v>0.264713</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211846</v>
+        <v>0.213132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.236575</v>
+        <v>0.247244</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258529</v>
+        <v>0.273472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214255</v>
+        <v>0.215109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244087</v>
+        <v>0.242502</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263381</v>
+        <v>0.279665</v>
       </c>
       <c r="C23" t="n">
-        <v>0.221842</v>
+        <v>0.226299</v>
       </c>
       <c r="D23" t="n">
-        <v>0.249849</v>
+        <v>0.258788</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27211</v>
+        <v>0.285373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2264</v>
+        <v>0.230221</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260231</v>
+        <v>0.267349</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.277941</v>
+        <v>0.275046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230949</v>
+        <v>0.242124</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26831</v>
+        <v>0.278565</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28377</v>
+        <v>0.292411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244267</v>
+        <v>0.238685</v>
       </c>
       <c r="D26" t="n">
-        <v>0.272827</v>
+        <v>0.272495</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.241683</v>
+        <v>0.24698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25269</v>
+        <v>0.244732</v>
       </c>
       <c r="D27" t="n">
-        <v>0.275649</v>
+        <v>0.27972</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.259989</v>
+        <v>0.252581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253195</v>
+        <v>0.257483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.286552</v>
+        <v>0.291318</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.259789</v>
+        <v>0.260009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260505</v>
+        <v>0.264236</v>
       </c>
       <c r="D29" t="n">
-        <v>0.295499</v>
+        <v>0.295756</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263471</v>
+        <v>0.26182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270587</v>
+        <v>0.269797</v>
       </c>
       <c r="D30" t="n">
-        <v>0.30272</v>
+        <v>0.306726</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27</v>
+        <v>0.271151</v>
       </c>
       <c r="C31" t="n">
-        <v>0.278979</v>
+        <v>0.281071</v>
       </c>
       <c r="D31" t="n">
-        <v>0.304092</v>
+        <v>0.309444</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2789</v>
+        <v>0.282623</v>
       </c>
       <c r="C32" t="n">
-        <v>0.284586</v>
+        <v>0.284299</v>
       </c>
       <c r="D32" t="n">
-        <v>0.339668</v>
+        <v>0.333266</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.291316</v>
+        <v>0.292257</v>
       </c>
       <c r="C33" t="n">
-        <v>0.30723</v>
+        <v>0.305077</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332274</v>
+        <v>0.32619</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.306857</v>
+        <v>0.307489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.321972</v>
+        <v>0.305848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.339053</v>
+        <v>0.33326</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.312553</v>
+        <v>0.302818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235536</v>
+        <v>0.243914</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272366</v>
+        <v>0.278439</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315251</v>
+        <v>0.314523</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247128</v>
+        <v>0.2483</v>
       </c>
       <c r="D36" t="n">
-        <v>0.285407</v>
+        <v>0.287376</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321571</v>
+        <v>0.326404</v>
       </c>
       <c r="C37" t="n">
-        <v>0.252473</v>
+        <v>0.257513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.293496</v>
+        <v>0.292632</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.336367</v>
+        <v>0.340391</v>
       </c>
       <c r="C38" t="n">
-        <v>0.266696</v>
+        <v>0.27148</v>
       </c>
       <c r="D38" t="n">
-        <v>0.303278</v>
+        <v>0.29804</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.334373</v>
+        <v>0.340428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.267021</v>
+        <v>0.274407</v>
       </c>
       <c r="D39" t="n">
-        <v>0.314452</v>
+        <v>0.308717</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366808</v>
+        <v>0.348552</v>
       </c>
       <c r="C40" t="n">
-        <v>0.289262</v>
+        <v>0.288337</v>
       </c>
       <c r="D40" t="n">
-        <v>0.324375</v>
+        <v>0.329723</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.315972</v>
+        <v>0.320724</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299509</v>
+        <v>0.295147</v>
       </c>
       <c r="D41" t="n">
-        <v>0.335794</v>
+        <v>0.340038</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.33735</v>
+        <v>0.328016</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310633</v>
+        <v>0.307605</v>
       </c>
       <c r="D42" t="n">
-        <v>0.347667</v>
+        <v>0.342977</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.352367</v>
+        <v>0.338615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330684</v>
+        <v>0.321344</v>
       </c>
       <c r="D43" t="n">
-        <v>0.370132</v>
+        <v>0.363036</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.351853</v>
+        <v>0.355954</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330382</v>
+        <v>0.332094</v>
       </c>
       <c r="D44" t="n">
-        <v>0.38202</v>
+        <v>0.390282</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.368273</v>
+        <v>0.361962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.344399</v>
+        <v>0.34642</v>
       </c>
       <c r="D45" t="n">
-        <v>0.40475</v>
+        <v>0.391153</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.393534</v>
+        <v>0.375882</v>
       </c>
       <c r="C46" t="n">
-        <v>0.364811</v>
+        <v>0.359547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.422029</v>
+        <v>0.413284</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414402</v>
+        <v>0.396621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.370025</v>
+        <v>0.381041</v>
       </c>
       <c r="D47" t="n">
-        <v>0.431108</v>
+        <v>0.420649</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.423725</v>
+        <v>0.416086</v>
       </c>
       <c r="C48" t="n">
-        <v>0.392297</v>
+        <v>0.399601</v>
       </c>
       <c r="D48" t="n">
-        <v>0.442102</v>
+        <v>0.43693</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.432732</v>
+        <v>0.425134</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403809</v>
+        <v>0.418022</v>
       </c>
       <c r="D49" t="n">
-        <v>0.464583</v>
+        <v>0.448661</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460811</v>
+        <v>0.46833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.328102</v>
+        <v>0.321971</v>
       </c>
       <c r="D50" t="n">
-        <v>0.376838</v>
+        <v>0.370914</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.478155</v>
+        <v>0.466633</v>
       </c>
       <c r="C51" t="n">
-        <v>0.340147</v>
+        <v>0.343599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.380419</v>
+        <v>0.383854</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.501579</v>
+        <v>0.498132</v>
       </c>
       <c r="C52" t="n">
-        <v>0.362312</v>
+        <v>0.363569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.399825</v>
+        <v>0.399091</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.520119</v>
+        <v>0.519209</v>
       </c>
       <c r="C53" t="n">
-        <v>0.37677</v>
+        <v>0.374741</v>
       </c>
       <c r="D53" t="n">
-        <v>0.418072</v>
+        <v>0.427081</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.550721</v>
+        <v>0.5336070000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.388638</v>
+        <v>0.396472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435544</v>
+        <v>0.443994</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.56814</v>
+        <v>0.540875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.403743</v>
+        <v>0.404185</v>
       </c>
       <c r="D55" t="n">
-        <v>0.467413</v>
+        <v>0.465532</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506387</v>
+        <v>0.508342</v>
       </c>
       <c r="C56" t="n">
-        <v>0.436235</v>
+        <v>0.437698</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494011</v>
+        <v>0.50854</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532004</v>
+        <v>0.534009</v>
       </c>
       <c r="C57" t="n">
-        <v>0.447709</v>
+        <v>0.443416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.500668</v>
+        <v>0.51337</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.543158</v>
+        <v>0.544367</v>
       </c>
       <c r="C58" t="n">
-        <v>0.482621</v>
+        <v>0.472027</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553929</v>
+        <v>0.556082</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.577059</v>
+        <v>0.569159</v>
       </c>
       <c r="C59" t="n">
-        <v>0.499587</v>
+        <v>0.49947</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5797949999999999</v>
+        <v>0.574918</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.598078</v>
+        <v>0.589479</v>
       </c>
       <c r="C60" t="n">
-        <v>0.550461</v>
+        <v>0.5163180000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.591118</v>
+        <v>0.598695</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.618954</v>
+        <v>0.631485</v>
       </c>
       <c r="C61" t="n">
-        <v>0.554301</v>
+        <v>0.562712</v>
       </c>
       <c r="D61" t="n">
-        <v>0.61643</v>
+        <v>0.627344</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6581900000000001</v>
+        <v>0.6448</v>
       </c>
       <c r="C62" t="n">
-        <v>0.611931</v>
+        <v>0.578937</v>
       </c>
       <c r="D62" t="n">
-        <v>0.661924</v>
+        <v>0.656653</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.682154</v>
+        <v>0.660419</v>
       </c>
       <c r="C63" t="n">
-        <v>0.616418</v>
+        <v>0.639721</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705051</v>
+        <v>0.699301</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7018529999999999</v>
+        <v>0.704052</v>
       </c>
       <c r="C64" t="n">
-        <v>0.50408</v>
+        <v>0.523654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.591571</v>
+        <v>0.58824</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723427</v>
+        <v>0.734986</v>
       </c>
       <c r="C65" t="n">
-        <v>0.54316</v>
+        <v>0.530595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.614457</v>
+        <v>0.610382</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.76409</v>
+        <v>0.786818</v>
       </c>
       <c r="C66" t="n">
-        <v>0.560788</v>
+        <v>0.553352</v>
       </c>
       <c r="D66" t="n">
-        <v>0.671065</v>
+        <v>0.64925</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.791539</v>
+        <v>0.804376</v>
       </c>
       <c r="C67" t="n">
-        <v>0.581324</v>
+        <v>0.591737</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6750890000000001</v>
+        <v>0.687287</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.831161</v>
+        <v>0.817702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6113769999999999</v>
+        <v>0.630335</v>
       </c>
       <c r="D68" t="n">
-        <v>0.719872</v>
+        <v>0.705677</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.898168</v>
+        <v>0.86474</v>
       </c>
       <c r="C69" t="n">
-        <v>0.665114</v>
+        <v>0.648603</v>
       </c>
       <c r="D69" t="n">
-        <v>0.770803</v>
+        <v>0.729277</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.736459</v>
+        <v>0.721882</v>
       </c>
       <c r="C70" t="n">
-        <v>0.678458</v>
+        <v>0.69068</v>
       </c>
       <c r="D70" t="n">
-        <v>0.777004</v>
+        <v>0.780358</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.746904</v>
+        <v>0.765783</v>
       </c>
       <c r="C71" t="n">
-        <v>0.719825</v>
+        <v>0.723147</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8294589999999999</v>
+        <v>0.836947</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.775613</v>
+        <v>0.784149</v>
       </c>
       <c r="C72" t="n">
-        <v>0.750059</v>
+        <v>0.764354</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8432190000000001</v>
+        <v>0.862285</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.838852</v>
+        <v>0.803635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.778544</v>
+        <v>0.757364</v>
       </c>
       <c r="D73" t="n">
-        <v>0.90825</v>
+        <v>0.885767</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8343</v>
+        <v>0.829284</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8133320000000001</v>
+        <v>0.834426</v>
       </c>
       <c r="D74" t="n">
-        <v>0.910077</v>
+        <v>0.951882</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.881727</v>
+        <v>0.862473</v>
       </c>
       <c r="C75" t="n">
-        <v>0.861022</v>
+        <v>0.848411</v>
       </c>
       <c r="D75" t="n">
-        <v>0.966958</v>
+        <v>0.986225</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.895525</v>
+        <v>0.926701</v>
       </c>
       <c r="C76" t="n">
-        <v>0.896329</v>
+        <v>0.883428</v>
       </c>
       <c r="D76" t="n">
-        <v>1.03586</v>
+        <v>1.00742</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.911091</v>
+        <v>0.904728</v>
       </c>
       <c r="C77" t="n">
-        <v>0.935558</v>
+        <v>0.938155</v>
       </c>
       <c r="D77" t="n">
-        <v>1.05371</v>
+        <v>1.03005</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.941645</v>
+        <v>0.931561</v>
       </c>
       <c r="C78" t="n">
-        <v>0.762395</v>
+        <v>0.7511949999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.900291</v>
+        <v>0.876736</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.993061</v>
+        <v>0.99427</v>
       </c>
       <c r="C79" t="n">
-        <v>0.757172</v>
+        <v>0.795103</v>
       </c>
       <c r="D79" t="n">
-        <v>0.906694</v>
+        <v>0.922313</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02111</v>
+        <v>1.01142</v>
       </c>
       <c r="C80" t="n">
-        <v>0.802746</v>
+        <v>0.814259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.958308</v>
+        <v>0.923897</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.04412</v>
+        <v>1.06473</v>
       </c>
       <c r="C81" t="n">
-        <v>0.813267</v>
+        <v>0.80123</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9954539999999999</v>
+        <v>1.00253</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07502</v>
+        <v>1.08756</v>
       </c>
       <c r="C82" t="n">
-        <v>0.838356</v>
+        <v>0.870871</v>
       </c>
       <c r="D82" t="n">
-        <v>1.00904</v>
+        <v>1.0099</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.13597</v>
+        <v>1.10793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.86128</v>
+        <v>0.878576</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04379</v>
+        <v>1.04837</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885038</v>
+        <v>0.895923</v>
       </c>
       <c r="C84" t="n">
-        <v>0.900946</v>
+        <v>0.931538</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07156</v>
+        <v>1.09739</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.91823</v>
+        <v>0.900228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.935751</v>
+        <v>0.943181</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12373</v>
+        <v>1.13187</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.93194</v>
+        <v>0.943285</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9948669999999999</v>
+        <v>0.989633</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15887</v>
+        <v>1.17918</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.938508</v>
+        <v>0.956996</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01181</v>
+        <v>0.9965309999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.20243</v>
+        <v>1.20315</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.98209</v>
+        <v>0.980092</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05253</v>
+        <v>1.04933</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21683</v>
+        <v>1.27247</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0122</v>
+        <v>1.00423</v>
       </c>
       <c r="C89" t="n">
-        <v>1.07</v>
+        <v>1.07649</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26703</v>
+        <v>1.30167</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.04657</v>
+        <v>1.02944</v>
       </c>
       <c r="C90" t="n">
-        <v>1.10921</v>
+        <v>1.11124</v>
       </c>
       <c r="D90" t="n">
-        <v>1.35052</v>
+        <v>1.35373</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05408</v>
+        <v>1.06242</v>
       </c>
       <c r="C91" t="n">
-        <v>1.16479</v>
+        <v>1.15026</v>
       </c>
       <c r="D91" t="n">
-        <v>1.3688</v>
+        <v>1.35206</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1088</v>
+        <v>1.11616</v>
       </c>
       <c r="C92" t="n">
-        <v>0.925634</v>
+        <v>0.896458</v>
       </c>
       <c r="D92" t="n">
-        <v>1.08418</v>
+        <v>1.10011</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11499</v>
+        <v>1.13478</v>
       </c>
       <c r="C93" t="n">
-        <v>0.911147</v>
+        <v>0.897618</v>
       </c>
       <c r="D93" t="n">
-        <v>1.15186</v>
+        <v>1.15157</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.17695</v>
+        <v>1.16086</v>
       </c>
       <c r="C94" t="n">
-        <v>0.93264</v>
+        <v>0.940071</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17483</v>
+        <v>1.17355</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.189</v>
+        <v>1.18843</v>
       </c>
       <c r="C95" t="n">
-        <v>0.95235</v>
+        <v>0.956949</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20093</v>
+        <v>1.21424</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19099</v>
+        <v>1.2342</v>
       </c>
       <c r="C96" t="n">
-        <v>0.989499</v>
+        <v>0.992496</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22457</v>
+        <v>1.25458</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.23345</v>
+        <v>1.22564</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00741</v>
+        <v>1.03498</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25434</v>
+        <v>1.29826</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.998986</v>
+        <v>1.00203</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04024</v>
+        <v>1.05396</v>
       </c>
       <c r="D98" t="n">
-        <v>1.31481</v>
+        <v>1.33181</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0002</v>
+        <v>1.02427</v>
       </c>
       <c r="C99" t="n">
-        <v>1.07444</v>
+        <v>1.07467</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35985</v>
+        <v>1.3526</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03859</v>
+        <v>1.06665</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11274</v>
+        <v>1.09403</v>
       </c>
       <c r="D100" t="n">
-        <v>1.39617</v>
+        <v>1.38955</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05566</v>
+        <v>1.08795</v>
       </c>
       <c r="C101" t="n">
-        <v>1.15707</v>
+        <v>1.14832</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44665</v>
+        <v>1.42731</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09216</v>
+        <v>1.11693</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17781</v>
+        <v>1.16965</v>
       </c>
       <c r="D102" t="n">
-        <v>1.48062</v>
+        <v>1.49726</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.1078</v>
+        <v>1.1343</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20732</v>
+        <v>1.21141</v>
       </c>
       <c r="D103" t="n">
-        <v>1.54515</v>
+        <v>1.5504</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.14959</v>
+        <v>1.16276</v>
       </c>
       <c r="C104" t="n">
-        <v>1.26202</v>
+        <v>1.25983</v>
       </c>
       <c r="D104" t="n">
-        <v>1.58911</v>
+        <v>1.58208</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.17302</v>
+        <v>1.17876</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27317</v>
+        <v>1.25574</v>
       </c>
       <c r="D105" t="n">
-        <v>1.63557</v>
+        <v>1.62826</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.18445</v>
+        <v>1.22313</v>
       </c>
       <c r="C106" t="n">
-        <v>1.33732</v>
+        <v>1.30317</v>
       </c>
       <c r="D106" t="n">
-        <v>1.66216</v>
+        <v>1.64347</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.23991</v>
+        <v>1.26617</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00131</v>
+        <v>1.03229</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25566</v>
+        <v>1.28672</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.25506</v>
+        <v>1.27378</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01505</v>
+        <v>1.07343</v>
       </c>
       <c r="D108" t="n">
-        <v>1.33359</v>
+        <v>1.31535</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.29855</v>
+        <v>1.31299</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09135</v>
+        <v>1.06664</v>
       </c>
       <c r="D109" t="n">
-        <v>1.36729</v>
+        <v>1.37185</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3139</v>
+        <v>1.33238</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09925</v>
+        <v>1.08664</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39191</v>
+        <v>1.44164</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.35172</v>
+        <v>1.40808</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10108</v>
+        <v>1.12285</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42626</v>
+        <v>1.44413</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07584</v>
+        <v>1.09025</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12106</v>
+        <v>1.18223</v>
       </c>
       <c r="D112" t="n">
-        <v>1.4659</v>
+        <v>1.45551</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.07977</v>
+        <v>1.09347</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16539</v>
+        <v>1.16233</v>
       </c>
       <c r="D113" t="n">
-        <v>1.52452</v>
+        <v>1.55001</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.09798</v>
+        <v>1.07808</v>
       </c>
       <c r="C114" t="n">
-        <v>1.20931</v>
+        <v>1.21714</v>
       </c>
       <c r="D114" t="n">
-        <v>1.53082</v>
+        <v>1.54974</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17567</v>
+        <v>1.11764</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23085</v>
+        <v>1.25885</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59893</v>
+        <v>1.60524</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.19072</v>
+        <v>1.15059</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2857</v>
+        <v>1.29598</v>
       </c>
       <c r="D116" t="n">
-        <v>1.64383</v>
+        <v>1.64351</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16616</v>
+        <v>1.19889</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29589</v>
+        <v>1.32212</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66855</v>
+        <v>1.69376</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.23988</v>
+        <v>1.22233</v>
       </c>
       <c r="C118" t="n">
-        <v>1.34436</v>
+        <v>1.36644</v>
       </c>
       <c r="D118" t="n">
-        <v>1.77314</v>
+        <v>1.7322</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25387</v>
+        <v>1.26829</v>
       </c>
       <c r="C119" t="n">
-        <v>1.38711</v>
+        <v>1.42049</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82475</v>
+        <v>1.78541</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189576</v>
+        <v>0.188488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195728</v>
+        <v>0.208496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.148573</v>
+        <v>0.151602</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.186273</v>
+        <v>0.192913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205705</v>
+        <v>0.200941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.148754</v>
+        <v>0.150178</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.205036</v>
+        <v>0.214976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.209677</v>
+        <v>0.211026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.151017</v>
+        <v>0.148548</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20528</v>
+        <v>0.20152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.218513</v>
+        <v>0.222721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.158524</v>
+        <v>0.158079</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.208601</v>
+        <v>0.226538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.221229</v>
+        <v>0.233901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157203</v>
+        <v>0.159535</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.210613</v>
+        <v>0.212728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176785</v>
+        <v>0.171265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.142033</v>
+        <v>0.143871</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216589</v>
+        <v>0.217792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.176036</v>
+        <v>0.175167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145773</v>
+        <v>0.146435</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220441</v>
+        <v>0.226564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.185719</v>
+        <v>0.180922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149035</v>
+        <v>0.148299</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236753</v>
+        <v>0.232156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184601</v>
+        <v>0.203078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154361</v>
+        <v>0.165608</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235271</v>
+        <v>0.23715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18793</v>
+        <v>0.190194</v>
       </c>
       <c r="D11" t="n">
-        <v>0.155684</v>
+        <v>0.153936</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242688</v>
+        <v>0.244231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.194163</v>
+        <v>0.196076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157366</v>
+        <v>0.169051</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.201112</v>
+        <v>0.196401</v>
       </c>
       <c r="C13" t="n">
-        <v>0.209114</v>
+        <v>0.202902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158373</v>
+        <v>0.158085</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.199694</v>
+        <v>0.203308</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20654</v>
+        <v>0.218308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162262</v>
+        <v>0.160062</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206964</v>
+        <v>0.205498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219611</v>
+        <v>0.212674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.168669</v>
+        <v>0.164393</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205265</v>
+        <v>0.208385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220912</v>
+        <v>0.245847</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169428</v>
+        <v>0.180704</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.21198</v>
+        <v>0.228119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225567</v>
+        <v>0.226831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172026</v>
+        <v>0.171897</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.212549</v>
+        <v>0.227292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238514</v>
+        <v>0.231245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175174</v>
+        <v>0.174105</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.216296</v>
+        <v>0.237012</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239078</v>
+        <v>0.246391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179645</v>
+        <v>0.178697</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.237022</v>
+        <v>0.236752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2548</v>
+        <v>0.259851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.185482</v>
+        <v>0.18348</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22489</v>
+        <v>0.24046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193611</v>
+        <v>0.191662</v>
       </c>
       <c r="D21" t="n">
-        <v>0.162405</v>
+        <v>0.162765</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232294</v>
+        <v>0.243581</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198962</v>
+        <v>0.192289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162614</v>
+        <v>0.160118</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248836</v>
+        <v>0.246704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198854</v>
+        <v>0.206083</v>
       </c>
       <c r="D23" t="n">
-        <v>0.168347</v>
+        <v>0.166346</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2573</v>
+        <v>0.267131</v>
       </c>
       <c r="C24" t="n">
-        <v>0.206777</v>
+        <v>0.212887</v>
       </c>
       <c r="D24" t="n">
-        <v>0.170193</v>
+        <v>0.175958</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.263365</v>
+        <v>0.273026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216874</v>
+        <v>0.209107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16755</v>
+        <v>0.171772</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.275404</v>
+        <v>0.264881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.232818</v>
+        <v>0.219713</v>
       </c>
       <c r="D26" t="n">
-        <v>0.173373</v>
+        <v>0.177084</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222707</v>
+        <v>0.218759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227919</v>
+        <v>0.233135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179221</v>
+        <v>0.18518</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.234511</v>
+        <v>0.24901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.230822</v>
+        <v>0.236731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18088</v>
+        <v>0.183343</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.250647</v>
+        <v>0.235753</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231977</v>
+        <v>0.240952</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190586</v>
+        <v>0.188317</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.25428</v>
+        <v>0.24394</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251497</v>
+        <v>0.252842</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195642</v>
+        <v>0.192958</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.264754</v>
+        <v>0.25078</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263154</v>
+        <v>0.266167</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197976</v>
+        <v>0.196382</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27459</v>
+        <v>0.270714</v>
       </c>
       <c r="C32" t="n">
-        <v>0.269761</v>
+        <v>0.271333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205727</v>
+        <v>0.198705</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276699</v>
+        <v>0.26734</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290011</v>
+        <v>0.285993</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213576</v>
+        <v>0.205729</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287957</v>
+        <v>0.283031</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300372</v>
+        <v>0.298759</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220315</v>
+        <v>0.216681</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.299346</v>
+        <v>0.289935</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235873</v>
+        <v>0.231569</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196347</v>
+        <v>0.18857</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.317633</v>
+        <v>0.31414</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247459</v>
+        <v>0.238547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.195991</v>
+        <v>0.190488</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.316735</v>
+        <v>0.317586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249512</v>
+        <v>0.254286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.209857</v>
+        <v>0.199406</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32743</v>
+        <v>0.322655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268265</v>
+        <v>0.260034</v>
       </c>
       <c r="D38" t="n">
-        <v>0.206675</v>
+        <v>0.201719</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.348534</v>
+        <v>0.344624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273295</v>
+        <v>0.263734</v>
       </c>
       <c r="D39" t="n">
-        <v>0.223231</v>
+        <v>0.20622</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.350253</v>
+        <v>0.368689</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278978</v>
+        <v>0.28311</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213596</v>
+        <v>0.214441</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.321877</v>
+        <v>0.376032</v>
       </c>
       <c r="C41" t="n">
-        <v>0.30393</v>
+        <v>0.293573</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235839</v>
+        <v>0.215566</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.316341</v>
+        <v>0.431263</v>
       </c>
       <c r="C42" t="n">
-        <v>0.31461</v>
+        <v>0.307136</v>
       </c>
       <c r="D42" t="n">
-        <v>0.233492</v>
+        <v>0.223331</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.32676</v>
+        <v>0.356008</v>
       </c>
       <c r="C43" t="n">
-        <v>0.323282</v>
+        <v>0.321351</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238208</v>
+        <v>0.234206</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.350024</v>
+        <v>0.386223</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338375</v>
+        <v>0.339236</v>
       </c>
       <c r="D44" t="n">
-        <v>0.241754</v>
+        <v>0.240691</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.36304</v>
+        <v>0.396607</v>
       </c>
       <c r="C45" t="n">
-        <v>0.351794</v>
+        <v>0.362586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246551</v>
+        <v>0.253649</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.388385</v>
+        <v>0.433231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.381091</v>
+        <v>0.380889</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248353</v>
+        <v>0.273386</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.396211</v>
+        <v>0.443269</v>
       </c>
       <c r="C47" t="n">
-        <v>0.375761</v>
+        <v>0.398457</v>
       </c>
       <c r="D47" t="n">
-        <v>0.271031</v>
+        <v>0.31502</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.397815</v>
+        <v>0.524053</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40248</v>
+        <v>0.414286</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272227</v>
+        <v>0.283412</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.413171</v>
+        <v>0.500593</v>
       </c>
       <c r="C49" t="n">
-        <v>0.427783</v>
+        <v>0.442751</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289662</v>
+        <v>0.299942</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.439025</v>
+        <v>0.5754899999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.35077</v>
+        <v>0.404629</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246582</v>
+        <v>0.25203</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.473375</v>
+        <v>0.570509</v>
       </c>
       <c r="C51" t="n">
-        <v>0.349993</v>
+        <v>0.390475</v>
       </c>
       <c r="D51" t="n">
-        <v>0.245615</v>
+        <v>0.270727</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.488311</v>
+        <v>0.638101</v>
       </c>
       <c r="C52" t="n">
-        <v>0.360024</v>
+        <v>0.408929</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266179</v>
+        <v>0.279656</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.526242</v>
+        <v>0.640919</v>
       </c>
       <c r="C53" t="n">
-        <v>0.385949</v>
+        <v>0.442658</v>
       </c>
       <c r="D53" t="n">
-        <v>0.272555</v>
+        <v>0.293792</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.54678</v>
+        <v>0.61112</v>
       </c>
       <c r="C54" t="n">
-        <v>0.400315</v>
+        <v>0.434201</v>
       </c>
       <c r="D54" t="n">
-        <v>0.27488</v>
+        <v>0.305818</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.589512</v>
+        <v>0.731353</v>
       </c>
       <c r="C55" t="n">
-        <v>0.433507</v>
+        <v>0.45994</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293148</v>
+        <v>0.315233</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.538984</v>
+        <v>0.699621</v>
       </c>
       <c r="C56" t="n">
-        <v>0.431578</v>
+        <v>0.53215</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306126</v>
+        <v>0.326868</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.550076</v>
+        <v>0.586245</v>
       </c>
       <c r="C57" t="n">
-        <v>0.479751</v>
+        <v>0.5594710000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311447</v>
+        <v>0.355197</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.590845</v>
+        <v>0.718073</v>
       </c>
       <c r="C58" t="n">
-        <v>0.495949</v>
+        <v>0.565364</v>
       </c>
       <c r="D58" t="n">
-        <v>0.321244</v>
+        <v>0.349128</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.613626</v>
+        <v>0.764958</v>
       </c>
       <c r="C59" t="n">
-        <v>0.515432</v>
+        <v>0.596566</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333841</v>
+        <v>0.400111</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.639907</v>
+        <v>0.799563</v>
       </c>
       <c r="C60" t="n">
-        <v>0.555507</v>
+        <v>0.635104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.341662</v>
+        <v>0.394693</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.681634</v>
+        <v>0.7362300000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.599794</v>
+        <v>0.71573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.368723</v>
+        <v>0.406807</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709266</v>
+        <v>0.850038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.628324</v>
+        <v>0.698169</v>
       </c>
       <c r="D62" t="n">
-        <v>0.377842</v>
+        <v>0.424648</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.742018</v>
+        <v>0.831838</v>
       </c>
       <c r="C63" t="n">
-        <v>0.688103</v>
+        <v>0.718224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.395532</v>
+        <v>0.467539</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.805235</v>
+        <v>0.826879</v>
       </c>
       <c r="C64" t="n">
-        <v>0.567325</v>
+        <v>0.6221719999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.379789</v>
+        <v>0.425854</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.832126</v>
+        <v>0.97387</v>
       </c>
       <c r="C65" t="n">
-        <v>0.586084</v>
+        <v>0.634422</v>
       </c>
       <c r="D65" t="n">
-        <v>0.392857</v>
+        <v>0.487037</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.813462</v>
+        <v>0.973397</v>
       </c>
       <c r="C66" t="n">
-        <v>0.627984</v>
+        <v>0.674288</v>
       </c>
       <c r="D66" t="n">
-        <v>0.404388</v>
+        <v>0.475889</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.872348</v>
+        <v>0.963796</v>
       </c>
       <c r="C67" t="n">
-        <v>0.636566</v>
+        <v>0.705335</v>
       </c>
       <c r="D67" t="n">
-        <v>0.437777</v>
+        <v>0.467364</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.948723</v>
+        <v>1.0603</v>
       </c>
       <c r="C68" t="n">
-        <v>0.688992</v>
+        <v>0.7519400000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455014</v>
+        <v>0.504574</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.998185</v>
+        <v>1.08768</v>
       </c>
       <c r="C69" t="n">
-        <v>0.775323</v>
+        <v>0.793609</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471364</v>
+        <v>0.5577299999999999</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.811845</v>
+        <v>0.88268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.759504</v>
+        <v>0.889113</v>
       </c>
       <c r="D70" t="n">
-        <v>0.480159</v>
+        <v>0.592813</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8822719999999999</v>
+        <v>0.941764</v>
       </c>
       <c r="C71" t="n">
-        <v>0.799705</v>
+        <v>0.942806</v>
       </c>
       <c r="D71" t="n">
-        <v>0.510526</v>
+        <v>0.584813</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.907186</v>
+        <v>0.9533740000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.861449</v>
+        <v>0.980755</v>
       </c>
       <c r="D72" t="n">
-        <v>0.539278</v>
+        <v>0.582654</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.920552</v>
+        <v>0.982607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.915478</v>
+        <v>1.02217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.572531</v>
+        <v>0.6299090000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.943176</v>
+        <v>1.02473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.946132</v>
+        <v>1.06091</v>
       </c>
       <c r="D74" t="n">
-        <v>0.613975</v>
+        <v>0.675048</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.968722</v>
+        <v>1.02284</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9993379999999999</v>
+        <v>1.07913</v>
       </c>
       <c r="D75" t="n">
-        <v>0.605847</v>
+        <v>0.7631289999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.989897</v>
+        <v>1.03517</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03708</v>
+        <v>1.10829</v>
       </c>
       <c r="D76" t="n">
-        <v>0.647051</v>
+        <v>0.768058</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04409</v>
+        <v>1.07903</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09066</v>
+        <v>1.18616</v>
       </c>
       <c r="D77" t="n">
-        <v>0.661095</v>
+        <v>0.7503339999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.07683</v>
+        <v>1.1186</v>
       </c>
       <c r="C78" t="n">
-        <v>0.854491</v>
+        <v>0.941061</v>
       </c>
       <c r="D78" t="n">
-        <v>0.622495</v>
+        <v>0.720855</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.12175</v>
+        <v>1.16757</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8584310000000001</v>
+        <v>0.962901</v>
       </c>
       <c r="D79" t="n">
-        <v>0.648713</v>
+        <v>0.732335</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1847</v>
+        <v>1.19528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.926289</v>
+        <v>0.978611</v>
       </c>
       <c r="D80" t="n">
-        <v>0.638175</v>
+        <v>0.728804</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18526</v>
+        <v>1.24379</v>
       </c>
       <c r="C81" t="n">
-        <v>0.949485</v>
+        <v>0.987793</v>
       </c>
       <c r="D81" t="n">
-        <v>0.700654</v>
+        <v>0.7646309999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.23262</v>
+        <v>1.29587</v>
       </c>
       <c r="C82" t="n">
-        <v>0.990644</v>
+        <v>1.01399</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7042580000000001</v>
+        <v>0.779468</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.27325</v>
+        <v>1.3582</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02</v>
+        <v>1.03316</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7117250000000001</v>
+        <v>0.763449</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.976401</v>
+        <v>1.01776</v>
       </c>
       <c r="C84" t="n">
-        <v>1.04182</v>
+        <v>1.0923</v>
       </c>
       <c r="D84" t="n">
-        <v>0.738802</v>
+        <v>0.826507</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00804</v>
+        <v>1.0401</v>
       </c>
       <c r="C85" t="n">
-        <v>1.08953</v>
+        <v>1.13431</v>
       </c>
       <c r="D85" t="n">
-        <v>0.760879</v>
+        <v>0.853039</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00378</v>
+        <v>1.04536</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13879</v>
+        <v>1.1642</v>
       </c>
       <c r="D86" t="n">
-        <v>0.802772</v>
+        <v>0.874185</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.07754</v>
+        <v>1.0882</v>
       </c>
       <c r="C87" t="n">
-        <v>1.1726</v>
+        <v>1.21266</v>
       </c>
       <c r="D87" t="n">
-        <v>0.829932</v>
+        <v>0.874449</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05865</v>
+        <v>1.12426</v>
       </c>
       <c r="C88" t="n">
-        <v>1.23008</v>
+        <v>1.25687</v>
       </c>
       <c r="D88" t="n">
-        <v>0.837147</v>
+        <v>0.913405</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12525</v>
+        <v>1.14873</v>
       </c>
       <c r="C89" t="n">
-        <v>1.26698</v>
+        <v>1.29337</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8747239999999999</v>
+        <v>0.975144</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16677</v>
+        <v>1.17592</v>
       </c>
       <c r="C90" t="n">
-        <v>1.32449</v>
+        <v>1.34694</v>
       </c>
       <c r="D90" t="n">
-        <v>0.937998</v>
+        <v>0.995215</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.18701</v>
+        <v>1.19785</v>
       </c>
       <c r="C91" t="n">
-        <v>1.39844</v>
+        <v>1.40626</v>
       </c>
       <c r="D91" t="n">
-        <v>0.917463</v>
+        <v>1.05239</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.23065</v>
+        <v>1.27234</v>
       </c>
       <c r="C92" t="n">
-        <v>0.987722</v>
+        <v>1.03048</v>
       </c>
       <c r="D92" t="n">
-        <v>0.811019</v>
+        <v>0.871848</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.24287</v>
+        <v>1.28835</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04046</v>
+        <v>1.04967</v>
       </c>
       <c r="D93" t="n">
-        <v>0.82075</v>
+        <v>0.863836</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29102</v>
+        <v>1.35812</v>
       </c>
       <c r="C94" t="n">
-        <v>1.06832</v>
+        <v>1.08213</v>
       </c>
       <c r="D94" t="n">
-        <v>0.845568</v>
+        <v>0.916477</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.32569</v>
+        <v>1.34707</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08434</v>
+        <v>1.17455</v>
       </c>
       <c r="D95" t="n">
-        <v>0.870614</v>
+        <v>0.923818</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.37405</v>
+        <v>1.40446</v>
       </c>
       <c r="C96" t="n">
-        <v>1.12097</v>
+        <v>1.15777</v>
       </c>
       <c r="D96" t="n">
-        <v>0.88932</v>
+        <v>0.979835</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.42201</v>
+        <v>1.46536</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14672</v>
+        <v>1.18897</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9044140000000001</v>
+        <v>0.965654</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06001</v>
+        <v>1.17197</v>
       </c>
       <c r="C98" t="n">
-        <v>1.20079</v>
+        <v>1.25743</v>
       </c>
       <c r="D98" t="n">
-        <v>0.927778</v>
+        <v>0.977596</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.09522</v>
+        <v>1.11133</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25167</v>
+        <v>1.26574</v>
       </c>
       <c r="D99" t="n">
-        <v>0.933681</v>
+        <v>1.01061</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12326</v>
+        <v>1.13066</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25594</v>
+        <v>1.4198</v>
       </c>
       <c r="D100" t="n">
-        <v>0.970302</v>
+        <v>1.06459</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.17435</v>
+        <v>1.18252</v>
       </c>
       <c r="C101" t="n">
-        <v>1.31159</v>
+        <v>1.35651</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00819</v>
+        <v>1.06173</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18069</v>
+        <v>1.24049</v>
       </c>
       <c r="C102" t="n">
-        <v>1.3766</v>
+        <v>1.4266</v>
       </c>
       <c r="D102" t="n">
-        <v>1.04214</v>
+        <v>1.09881</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23029</v>
+        <v>1.24312</v>
       </c>
       <c r="C103" t="n">
-        <v>1.40702</v>
+        <v>1.44386</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06611</v>
+        <v>1.13159</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.25371</v>
+        <v>1.30332</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43906</v>
+        <v>1.48954</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08911</v>
+        <v>1.19385</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.29822</v>
+        <v>1.32399</v>
       </c>
       <c r="C105" t="n">
-        <v>1.52777</v>
+        <v>1.52164</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12586</v>
+        <v>1.18974</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.31</v>
+        <v>1.39217</v>
       </c>
       <c r="C106" t="n">
-        <v>1.56079</v>
+        <v>1.76296</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18324</v>
+        <v>1.2109</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35389</v>
+        <v>1.36387</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13141</v>
+        <v>1.12696</v>
       </c>
       <c r="D107" t="n">
-        <v>0.940729</v>
+        <v>0.961693</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.40682</v>
+        <v>1.55899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17715</v>
+        <v>1.31598</v>
       </c>
       <c r="D108" t="n">
-        <v>0.962933</v>
+        <v>1.11384</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.4711</v>
+        <v>1.44861</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20053</v>
+        <v>1.1979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9915</v>
+        <v>1.00676</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.50826</v>
+        <v>1.49395</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24069</v>
+        <v>1.2355</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01437</v>
+        <v>1.07762</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.56951</v>
+        <v>1.55405</v>
       </c>
       <c r="C111" t="n">
-        <v>1.28488</v>
+        <v>1.27631</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04365</v>
+        <v>1.09531</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1981</v>
+        <v>1.16238</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3198</v>
+        <v>1.4093</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09283</v>
+        <v>1.12426</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21638</v>
+        <v>1.20747</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34178</v>
+        <v>1.45342</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09832</v>
+        <v>1.15478</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21475</v>
+        <v>1.27336</v>
       </c>
       <c r="C114" t="n">
-        <v>1.38568</v>
+        <v>1.52516</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10006</v>
+        <v>1.22569</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.28055</v>
+        <v>1.24513</v>
       </c>
       <c r="C115" t="n">
-        <v>1.49804</v>
+        <v>1.41739</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17273</v>
+        <v>1.19424</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2609</v>
+        <v>1.29675</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48781</v>
+        <v>1.47227</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18767</v>
+        <v>1.21477</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27121</v>
+        <v>1.34467</v>
       </c>
       <c r="C117" t="n">
-        <v>1.50503</v>
+        <v>1.54276</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19643</v>
+        <v>1.22505</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.34433</v>
+        <v>1.38024</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56695</v>
+        <v>1.59612</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25577</v>
+        <v>1.23692</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.39736</v>
+        <v>1.46704</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59146</v>
+        <v>1.66533</v>
       </c>
       <c r="D119" t="n">
-        <v>1.21598</v>
+        <v>1.28249</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5830880000000001</v>
+        <v>0.564041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.475149</v>
+        <v>0.473256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256198</v>
+        <v>0.238721</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368513</v>
+        <v>0.365876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.498562</v>
+        <v>0.495919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248153</v>
+        <v>0.246757</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.399861</v>
+        <v>0.392958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.535148</v>
+        <v>0.536113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25781</v>
+        <v>0.255272</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.402853</v>
+        <v>0.401936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.540875</v>
+        <v>0.551326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269664</v>
+        <v>0.267789</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.429798</v>
+        <v>0.438869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.57061</v>
+        <v>0.569418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.274062</v>
+        <v>0.283442</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449578</v>
+        <v>0.452674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.619455</v>
+        <v>0.611182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291974</v>
+        <v>0.287453</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4718</v>
+        <v>0.467162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.639655</v>
+        <v>0.653906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29317</v>
+        <v>0.295822</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.490062</v>
+        <v>0.497521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6876100000000001</v>
+        <v>0.661835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.301035</v>
+        <v>0.313695</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.519721</v>
+        <v>0.5252599999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.685735</v>
+        <v>0.7149759999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322632</v>
+        <v>0.332227</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.543535</v>
+        <v>0.556682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.438941</v>
+        <v>0.441775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238821</v>
+        <v>0.238193</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.582879</v>
+        <v>0.582348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.457711</v>
+        <v>0.461346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24599</v>
+        <v>0.255935</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.599907</v>
+        <v>0.6130910000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.489791</v>
+        <v>0.474808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.262196</v>
+        <v>0.260664</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.62471</v>
+        <v>0.63495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.509227</v>
+        <v>0.501131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260729</v>
+        <v>0.268547</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.664498</v>
+        <v>0.680171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.529712</v>
+        <v>0.540636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274318</v>
+        <v>0.271443</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.696068</v>
+        <v>0.709719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.557331</v>
+        <v>0.540633</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283845</v>
+        <v>0.286763</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.435003</v>
+        <v>0.443955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.575423</v>
+        <v>0.573074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294066</v>
+        <v>0.289719</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445479</v>
+        <v>0.448694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.604934</v>
+        <v>0.619232</v>
       </c>
       <c r="D18" t="n">
-        <v>0.310099</v>
+        <v>0.309401</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.485584</v>
+        <v>0.470684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.635495</v>
+        <v>0.642825</v>
       </c>
       <c r="D19" t="n">
-        <v>0.318189</v>
+        <v>0.316801</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.489124</v>
+        <v>0.517529</v>
       </c>
       <c r="C20" t="n">
-        <v>0.675204</v>
+        <v>0.670984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.328585</v>
+        <v>0.329553</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.514996</v>
+        <v>0.510682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6959920000000001</v>
+        <v>0.688777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.345856</v>
+        <v>0.345349</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.566674</v>
+        <v>0.53888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7539130000000001</v>
+        <v>0.737139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353305</v>
+        <v>0.349956</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.564354</v>
+        <v>0.5640500000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.749292</v>
+        <v>0.775281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.355363</v>
+        <v>0.35991</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.605033</v>
+        <v>0.590272</v>
       </c>
       <c r="C24" t="n">
-        <v>0.800098</v>
+        <v>0.825657</v>
       </c>
       <c r="D24" t="n">
-        <v>0.371194</v>
+        <v>0.374966</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.634446</v>
+        <v>0.621109</v>
       </c>
       <c r="C25" t="n">
-        <v>0.831906</v>
+        <v>0.81612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.391916</v>
+        <v>0.401111</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673538</v>
+        <v>0.655566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.51771</v>
+        <v>0.506718</v>
       </c>
       <c r="D26" t="n">
-        <v>0.289546</v>
+        <v>0.274175</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.711991</v>
+        <v>0.66947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.558605</v>
+        <v>0.527316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.296875</v>
+        <v>0.286722</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.73894</v>
+        <v>0.729498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.571092</v>
+        <v>0.581765</v>
       </c>
       <c r="D28" t="n">
-        <v>0.308599</v>
+        <v>0.302166</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.824435</v>
+        <v>0.7937</v>
       </c>
       <c r="C29" t="n">
-        <v>0.654625</v>
+        <v>0.600012</v>
       </c>
       <c r="D29" t="n">
-        <v>0.334907</v>
+        <v>0.327133</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8283779999999999</v>
+        <v>0.813602</v>
       </c>
       <c r="C30" t="n">
-        <v>0.630768</v>
+        <v>0.61417</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326547</v>
+        <v>0.331342</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.858195</v>
+        <v>0.878397</v>
       </c>
       <c r="C31" t="n">
-        <v>0.667312</v>
+        <v>0.643966</v>
       </c>
       <c r="D31" t="n">
-        <v>0.340749</v>
+        <v>0.350367</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.518589</v>
+        <v>0.5226229999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.684484</v>
+        <v>0.7001230000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.347677</v>
+        <v>0.369752</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.548285</v>
+        <v>0.578779</v>
       </c>
       <c r="C33" t="n">
-        <v>0.702269</v>
+        <v>0.794403</v>
       </c>
       <c r="D33" t="n">
-        <v>0.372737</v>
+        <v>0.383929</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.590125</v>
+        <v>0.597734</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7764259999999999</v>
+        <v>0.797708</v>
       </c>
       <c r="D34" t="n">
-        <v>0.383344</v>
+        <v>0.383049</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.571987</v>
+        <v>0.619926</v>
       </c>
       <c r="C35" t="n">
-        <v>0.806299</v>
+        <v>0.840969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.395364</v>
+        <v>0.395317</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.654022</v>
+        <v>0.632945</v>
       </c>
       <c r="C36" t="n">
-        <v>0.859777</v>
+        <v>0.86773</v>
       </c>
       <c r="D36" t="n">
-        <v>0.431972</v>
+        <v>0.421692</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.674953</v>
+        <v>0.69059</v>
       </c>
       <c r="C37" t="n">
-        <v>0.910704</v>
+        <v>0.940743</v>
       </c>
       <c r="D37" t="n">
-        <v>0.430425</v>
+        <v>0.471327</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.726788</v>
+        <v>0.712066</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00089</v>
+        <v>1.00376</v>
       </c>
       <c r="D38" t="n">
-        <v>0.464801</v>
+        <v>0.471971</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.775235</v>
+        <v>0.773054</v>
       </c>
       <c r="C39" t="n">
-        <v>1.05844</v>
+        <v>1.00601</v>
       </c>
       <c r="D39" t="n">
-        <v>0.490551</v>
+        <v>0.475669</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.814623</v>
+        <v>0.810412</v>
       </c>
       <c r="C40" t="n">
-        <v>0.650143</v>
+        <v>0.650833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.348447</v>
+        <v>0.358976</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8995300000000001</v>
+        <v>0.898761</v>
       </c>
       <c r="C41" t="n">
-        <v>0.688059</v>
+        <v>0.693453</v>
       </c>
       <c r="D41" t="n">
-        <v>0.377787</v>
+        <v>0.372234</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.985254</v>
+        <v>0.9185990000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.705109</v>
+        <v>0.705993</v>
       </c>
       <c r="D42" t="n">
-        <v>0.375368</v>
+        <v>0.39253</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0093</v>
+        <v>1.00777</v>
       </c>
       <c r="C43" t="n">
-        <v>0.745018</v>
+        <v>0.75706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.404366</v>
+        <v>0.395844</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.04488</v>
+        <v>1.03961</v>
       </c>
       <c r="C44" t="n">
-        <v>0.780045</v>
+        <v>0.81273</v>
       </c>
       <c r="D44" t="n">
-        <v>0.415194</v>
+        <v>0.435978</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.10299</v>
+        <v>1.14551</v>
       </c>
       <c r="C45" t="n">
-        <v>0.863226</v>
+        <v>0.881062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.451788</v>
+        <v>0.469745</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7130379999999999</v>
+        <v>0.712214</v>
       </c>
       <c r="C46" t="n">
-        <v>0.91969</v>
+        <v>0.970091</v>
       </c>
       <c r="D46" t="n">
-        <v>0.47927</v>
+        <v>0.459215</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.747343</v>
+        <v>0.773437</v>
       </c>
       <c r="C47" t="n">
-        <v>1.00054</v>
+        <v>1.02185</v>
       </c>
       <c r="D47" t="n">
-        <v>0.490025</v>
+        <v>0.518471</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.783961</v>
+        <v>0.804532</v>
       </c>
       <c r="C48" t="n">
-        <v>1.06478</v>
+        <v>1.08579</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53732</v>
+        <v>0.535157</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.848998</v>
+        <v>0.874995</v>
       </c>
       <c r="C49" t="n">
-        <v>1.13069</v>
+        <v>1.1284</v>
       </c>
       <c r="D49" t="n">
-        <v>0.533949</v>
+        <v>0.57551</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.880633</v>
+        <v>0.907673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.17507</v>
+        <v>1.21266</v>
       </c>
       <c r="D50" t="n">
-        <v>0.572667</v>
+        <v>0.6002690000000001</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.981637</v>
+        <v>0.974898</v>
       </c>
       <c r="C51" t="n">
-        <v>1.29463</v>
+        <v>1.31933</v>
       </c>
       <c r="D51" t="n">
-        <v>0.631302</v>
+        <v>0.650276</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.02391</v>
+        <v>1.13228</v>
       </c>
       <c r="C52" t="n">
-        <v>1.3786</v>
+        <v>1.37296</v>
       </c>
       <c r="D52" t="n">
-        <v>0.685832</v>
+        <v>0.681759</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.10706</v>
+        <v>1.11327</v>
       </c>
       <c r="C53" t="n">
-        <v>1.47306</v>
+        <v>1.49394</v>
       </c>
       <c r="D53" t="n">
-        <v>0.719669</v>
+        <v>0.708502</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.19399</v>
+        <v>1.20243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9091939999999999</v>
+        <v>0.955081</v>
       </c>
       <c r="D54" t="n">
-        <v>0.49041</v>
+        <v>0.50305</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.24886</v>
+        <v>1.30411</v>
       </c>
       <c r="C55" t="n">
-        <v>0.938869</v>
+        <v>0.973956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.51738</v>
+        <v>0.554678</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.34724</v>
+        <v>1.41134</v>
       </c>
       <c r="C56" t="n">
-        <v>1.04689</v>
+        <v>1.06427</v>
       </c>
       <c r="D56" t="n">
-        <v>0.541057</v>
+        <v>0.593218</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.47002</v>
+        <v>1.46206</v>
       </c>
       <c r="C57" t="n">
-        <v>1.08378</v>
+        <v>1.11832</v>
       </c>
       <c r="D57" t="n">
-        <v>0.575827</v>
+        <v>0.5770729999999999</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.54488</v>
+        <v>1.60312</v>
       </c>
       <c r="C58" t="n">
-        <v>1.17934</v>
+        <v>1.20887</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6106510000000001</v>
+        <v>0.629103</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.68851</v>
+        <v>1.69475</v>
       </c>
       <c r="C59" t="n">
-        <v>1.24438</v>
+        <v>1.29496</v>
       </c>
       <c r="D59" t="n">
-        <v>0.645302</v>
+        <v>0.657169</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11382</v>
+        <v>1.17414</v>
       </c>
       <c r="C60" t="n">
-        <v>1.34608</v>
+        <v>1.42363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.681751</v>
+        <v>0.703599</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.22012</v>
+        <v>1.19987</v>
       </c>
       <c r="C61" t="n">
-        <v>1.50718</v>
+        <v>1.51797</v>
       </c>
       <c r="D61" t="n">
-        <v>0.755893</v>
+        <v>0.724028</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.31615</v>
+        <v>1.25749</v>
       </c>
       <c r="C62" t="n">
-        <v>1.61717</v>
+        <v>1.64105</v>
       </c>
       <c r="D62" t="n">
-        <v>0.765282</v>
+        <v>0.785539</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.41776</v>
+        <v>1.41431</v>
       </c>
       <c r="C63" t="n">
-        <v>1.78103</v>
+        <v>1.78943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.826166</v>
+        <v>0.825491</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.53661</v>
+        <v>1.50581</v>
       </c>
       <c r="C64" t="n">
-        <v>1.86277</v>
+        <v>1.92694</v>
       </c>
       <c r="D64" t="n">
-        <v>0.855846</v>
+        <v>0.880301</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.66228</v>
+        <v>1.74753</v>
       </c>
       <c r="C65" t="n">
-        <v>2.08454</v>
+        <v>2.09431</v>
       </c>
       <c r="D65" t="n">
-        <v>0.928583</v>
+        <v>0.908597</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.80443</v>
+        <v>1.7873</v>
       </c>
       <c r="C66" t="n">
-        <v>2.27872</v>
+        <v>2.30978</v>
       </c>
       <c r="D66" t="n">
-        <v>0.98721</v>
+        <v>0.992225</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.00204</v>
+        <v>1.96528</v>
       </c>
       <c r="C67" t="n">
-        <v>2.48445</v>
+        <v>2.45877</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05397</v>
+        <v>1.05128</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.14062</v>
+        <v>2.14745</v>
       </c>
       <c r="C68" t="n">
-        <v>1.56918</v>
+        <v>1.55025</v>
       </c>
       <c r="D68" t="n">
-        <v>0.746051</v>
+        <v>0.741715</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.39371</v>
+        <v>2.3543</v>
       </c>
       <c r="C69" t="n">
-        <v>1.6896</v>
+        <v>1.67783</v>
       </c>
       <c r="D69" t="n">
-        <v>0.777809</v>
+        <v>0.79482</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.55502</v>
+        <v>2.60748</v>
       </c>
       <c r="C70" t="n">
-        <v>1.82212</v>
+        <v>1.86128</v>
       </c>
       <c r="D70" t="n">
-        <v>0.864662</v>
+        <v>0.83167</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.73349</v>
+        <v>2.65373</v>
       </c>
       <c r="C71" t="n">
-        <v>1.96915</v>
+        <v>1.97597</v>
       </c>
       <c r="D71" t="n">
-        <v>0.970652</v>
+        <v>0.901081</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.93417</v>
+        <v>2.90726</v>
       </c>
       <c r="C72" t="n">
-        <v>2.11978</v>
+        <v>2.17878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.961131</v>
+        <v>0.9893189999999999</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.24896</v>
+        <v>3.24711</v>
       </c>
       <c r="C73" t="n">
-        <v>2.3563</v>
+        <v>2.31343</v>
       </c>
       <c r="D73" t="n">
-        <v>1.01798</v>
+        <v>0.999692</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.99261</v>
+        <v>2.01386</v>
       </c>
       <c r="C74" t="n">
-        <v>2.46549</v>
+        <v>2.44979</v>
       </c>
       <c r="D74" t="n">
-        <v>1.10379</v>
+        <v>1.09092</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.13137</v>
+        <v>2.12847</v>
       </c>
       <c r="C75" t="n">
-        <v>2.76104</v>
+        <v>2.6703</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1785</v>
+        <v>1.16766</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.31288</v>
+        <v>2.25242</v>
       </c>
       <c r="C76" t="n">
-        <v>2.86734</v>
+        <v>2.93839</v>
       </c>
       <c r="D76" t="n">
-        <v>1.25176</v>
+        <v>1.22544</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.4327</v>
+        <v>2.4552</v>
       </c>
       <c r="C77" t="n">
-        <v>3.0526</v>
+        <v>3.18925</v>
       </c>
       <c r="D77" t="n">
-        <v>1.3415</v>
+        <v>1.31267</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.46173</v>
+        <v>2.55947</v>
       </c>
       <c r="C78" t="n">
-        <v>3.26615</v>
+        <v>3.32581</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41096</v>
+        <v>1.39143</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.66558</v>
+        <v>2.73298</v>
       </c>
       <c r="C79" t="n">
-        <v>3.47903</v>
+        <v>3.56533</v>
       </c>
       <c r="D79" t="n">
-        <v>1.46553</v>
+        <v>1.52643</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.81345</v>
+        <v>2.82814</v>
       </c>
       <c r="C80" t="n">
-        <v>3.74595</v>
+        <v>3.81273</v>
       </c>
       <c r="D80" t="n">
-        <v>1.54137</v>
+        <v>1.61746</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.02391</v>
+        <v>3.13996</v>
       </c>
       <c r="C81" t="n">
-        <v>3.99239</v>
+        <v>4.12311</v>
       </c>
       <c r="D81" t="n">
-        <v>1.64906</v>
+        <v>1.70096</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.16516</v>
+        <v>3.28086</v>
       </c>
       <c r="C82" t="n">
-        <v>4.22161</v>
+        <v>4.296</v>
       </c>
       <c r="D82" t="n">
-        <v>1.81119</v>
+        <v>1.77362</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.39249</v>
+        <v>3.3914</v>
       </c>
       <c r="C83" t="n">
-        <v>2.45809</v>
+        <v>2.47806</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2264</v>
+        <v>1.21083</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.50792</v>
+        <v>3.63457</v>
       </c>
       <c r="C84" t="n">
-        <v>2.55738</v>
+        <v>2.62487</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27239</v>
+        <v>1.26495</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.7177</v>
+        <v>3.77765</v>
       </c>
       <c r="C85" t="n">
-        <v>2.7333</v>
+        <v>2.80879</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35108</v>
+        <v>1.38712</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.9773</v>
+        <v>4.07614</v>
       </c>
       <c r="C86" t="n">
-        <v>2.85963</v>
+        <v>2.96629</v>
       </c>
       <c r="D86" t="n">
-        <v>1.46739</v>
+        <v>1.42279</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.17692</v>
+        <v>4.33415</v>
       </c>
       <c r="C87" t="n">
-        <v>3.09634</v>
+        <v>3.13758</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49059</v>
+        <v>1.54271</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.36972</v>
+        <v>4.57646</v>
       </c>
       <c r="C88" t="n">
-        <v>3.25359</v>
+        <v>3.33652</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56384</v>
+        <v>1.57557</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.60553</v>
+        <v>2.70946</v>
       </c>
       <c r="C89" t="n">
-        <v>3.44187</v>
+        <v>3.52417</v>
       </c>
       <c r="D89" t="n">
-        <v>1.65839</v>
+        <v>1.67985</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.73802</v>
+        <v>2.8627</v>
       </c>
       <c r="C90" t="n">
-        <v>3.60117</v>
+        <v>3.70129</v>
       </c>
       <c r="D90" t="n">
-        <v>1.75658</v>
+        <v>1.77084</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.85959</v>
+        <v>3.03396</v>
       </c>
       <c r="C91" t="n">
-        <v>3.9324</v>
+        <v>4.03564</v>
       </c>
       <c r="D91" t="n">
-        <v>1.87537</v>
+        <v>1.81745</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.01663</v>
+        <v>3.07355</v>
       </c>
       <c r="C92" t="n">
-        <v>4.03482</v>
+        <v>4.19143</v>
       </c>
       <c r="D92" t="n">
-        <v>1.91627</v>
+        <v>1.88668</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.18763</v>
+        <v>3.29593</v>
       </c>
       <c r="C93" t="n">
-        <v>4.41838</v>
+        <v>4.57464</v>
       </c>
       <c r="D93" t="n">
-        <v>2.00187</v>
+        <v>2.04805</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.38887</v>
+        <v>3.43953</v>
       </c>
       <c r="C94" t="n">
-        <v>4.61115</v>
+        <v>4.63964</v>
       </c>
       <c r="D94" t="n">
-        <v>2.12025</v>
+        <v>2.0735</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.51956</v>
+        <v>3.60423</v>
       </c>
       <c r="C95" t="n">
-        <v>4.82693</v>
+        <v>4.94061</v>
       </c>
       <c r="D95" t="n">
-        <v>2.19486</v>
+        <v>2.20466</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.72933</v>
+        <v>3.82559</v>
       </c>
       <c r="C96" t="n">
-        <v>5.11088</v>
+        <v>5.21</v>
       </c>
       <c r="D96" t="n">
-        <v>2.32564</v>
+        <v>2.23529</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.92137</v>
+        <v>4.0769</v>
       </c>
       <c r="C97" t="n">
-        <v>2.92579</v>
+        <v>2.9018</v>
       </c>
       <c r="D97" t="n">
-        <v>1.60086</v>
+        <v>1.55922</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.13937</v>
+        <v>4.22093</v>
       </c>
       <c r="C98" t="n">
-        <v>3.11444</v>
+        <v>3.08847</v>
       </c>
       <c r="D98" t="n">
-        <v>1.67546</v>
+        <v>1.61838</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.34889</v>
+        <v>4.42563</v>
       </c>
       <c r="C99" t="n">
-        <v>3.28041</v>
+        <v>3.27442</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74544</v>
+        <v>1.70555</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.59017</v>
+        <v>4.75937</v>
       </c>
       <c r="C100" t="n">
-        <v>3.48028</v>
+        <v>3.43548</v>
       </c>
       <c r="D100" t="n">
-        <v>1.84801</v>
+        <v>1.78548</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.84154</v>
+        <v>4.86966</v>
       </c>
       <c r="C101" t="n">
-        <v>3.57474</v>
+        <v>3.66219</v>
       </c>
       <c r="D101" t="n">
-        <v>1.95294</v>
+        <v>1.86399</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.05974</v>
+        <v>5.1543</v>
       </c>
       <c r="C102" t="n">
-        <v>3.78437</v>
+        <v>3.78441</v>
       </c>
       <c r="D102" t="n">
-        <v>2.03543</v>
+        <v>1.94171</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.89923</v>
+        <v>2.91035</v>
       </c>
       <c r="C103" t="n">
-        <v>4.05505</v>
+        <v>4.04847</v>
       </c>
       <c r="D103" t="n">
-        <v>2.10941</v>
+        <v>2.07686</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.07039</v>
+        <v>3.07611</v>
       </c>
       <c r="C104" t="n">
-        <v>4.24831</v>
+        <v>4.27514</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16626</v>
+        <v>2.11045</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.19693</v>
+        <v>3.26221</v>
       </c>
       <c r="C105" t="n">
-        <v>4.44419</v>
+        <v>4.48206</v>
       </c>
       <c r="D105" t="n">
-        <v>2.21576</v>
+        <v>2.20793</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.35162</v>
+        <v>3.36461</v>
       </c>
       <c r="C106" t="n">
-        <v>4.67825</v>
+        <v>4.76526</v>
       </c>
       <c r="D106" t="n">
-        <v>2.41602</v>
+        <v>2.3295</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.51826</v>
+        <v>3.55775</v>
       </c>
       <c r="C107" t="n">
-        <v>4.91903</v>
+        <v>4.9923</v>
       </c>
       <c r="D107" t="n">
-        <v>2.47314</v>
+        <v>2.41926</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.72421</v>
+        <v>3.71964</v>
       </c>
       <c r="C108" t="n">
-        <v>5.24664</v>
+        <v>5.20667</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49907</v>
+        <v>2.51728</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.87898</v>
+        <v>3.90405</v>
       </c>
       <c r="C109" t="n">
-        <v>5.54828</v>
+        <v>5.47911</v>
       </c>
       <c r="D109" t="n">
-        <v>2.67118</v>
+        <v>2.595</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.15262</v>
+        <v>4.07459</v>
       </c>
       <c r="C110" t="n">
-        <v>5.83417</v>
+        <v>5.73885</v>
       </c>
       <c r="D110" t="n">
-        <v>2.71625</v>
+        <v>2.79233</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.30374</v>
+        <v>4.3009</v>
       </c>
       <c r="C111" t="n">
-        <v>3.25209</v>
+        <v>3.20517</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91524</v>
+        <v>1.92605</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.53883</v>
+        <v>4.54409</v>
       </c>
       <c r="C112" t="n">
-        <v>3.42037</v>
+        <v>3.38882</v>
       </c>
       <c r="D112" t="n">
-        <v>2.00789</v>
+        <v>1.95348</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.72384</v>
+        <v>4.71056</v>
       </c>
       <c r="C113" t="n">
-        <v>3.66063</v>
+        <v>3.54935</v>
       </c>
       <c r="D113" t="n">
-        <v>2.08213</v>
+        <v>2.04291</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.96005</v>
+        <v>4.94391</v>
       </c>
       <c r="C114" t="n">
-        <v>3.83327</v>
+        <v>3.70487</v>
       </c>
       <c r="D114" t="n">
-        <v>2.13449</v>
+        <v>2.11244</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.25299</v>
+        <v>5.26742</v>
       </c>
       <c r="C115" t="n">
-        <v>4.00593</v>
+        <v>3.9498</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25679</v>
+        <v>2.15696</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.45189</v>
+        <v>5.51512</v>
       </c>
       <c r="C116" t="n">
-        <v>4.25751</v>
+        <v>4.10846</v>
       </c>
       <c r="D116" t="n">
-        <v>2.30984</v>
+        <v>2.29649</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.18864</v>
+        <v>3.12276</v>
       </c>
       <c r="C117" t="n">
-        <v>4.51242</v>
+        <v>4.31855</v>
       </c>
       <c r="D117" t="n">
-        <v>2.46252</v>
+        <v>2.36033</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.35195</v>
+        <v>3.29056</v>
       </c>
       <c r="C118" t="n">
-        <v>4.74038</v>
+        <v>4.55852</v>
       </c>
       <c r="D118" t="n">
-        <v>2.57292</v>
+        <v>2.50631</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.53336</v>
+        <v>3.44845</v>
       </c>
       <c r="C119" t="n">
-        <v>5.01114</v>
+        <v>4.81384</v>
       </c>
       <c r="D119" t="n">
-        <v>2.66738</v>
+        <v>2.5919</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222832</v>
+        <v>0.228599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205377</v>
+        <v>0.209486</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238882</v>
+        <v>0.232952</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.226164</v>
+        <v>0.228432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227665</v>
+        <v>0.21496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236488</v>
+        <v>0.242723</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230732</v>
+        <v>0.23136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214271</v>
+        <v>0.214369</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239713</v>
+        <v>0.247477</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236765</v>
+        <v>0.238166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217196</v>
+        <v>0.224449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245911</v>
+        <v>0.249506</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241383</v>
+        <v>0.246161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229364</v>
+        <v>0.235276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253077</v>
+        <v>0.253945</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240951</v>
+        <v>0.242733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182382</v>
+        <v>0.190834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210809</v>
+        <v>0.210386</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245676</v>
+        <v>0.250598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185397</v>
+        <v>0.192927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213822</v>
+        <v>0.223284</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257452</v>
+        <v>0.258775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191283</v>
+        <v>0.196336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221769</v>
+        <v>0.224058</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253852</v>
+        <v>0.256449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202132</v>
+        <v>0.204624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229485</v>
+        <v>0.234893</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255926</v>
+        <v>0.259979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200949</v>
+        <v>0.205804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235007</v>
+        <v>0.246658</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261943</v>
+        <v>0.269348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20773</v>
+        <v>0.212842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241774</v>
+        <v>0.242721</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219775</v>
+        <v>0.217918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21529</v>
+        <v>0.216393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249445</v>
+        <v>0.254306</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.224375</v>
+        <v>0.233743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219335</v>
+        <v>0.235123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253264</v>
+        <v>0.266755</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22638</v>
+        <v>0.235636</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225473</v>
+        <v>0.231252</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259655</v>
+        <v>0.27378</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230397</v>
+        <v>0.240593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233446</v>
+        <v>0.234611</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267625</v>
+        <v>0.274866</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.236793</v>
+        <v>0.242004</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235287</v>
+        <v>0.233664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.275745</v>
+        <v>0.273393</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23968</v>
+        <v>0.245546</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23383</v>
+        <v>0.24678</v>
       </c>
       <c r="D18" t="n">
-        <v>0.276326</v>
+        <v>0.286379</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277518</v>
+        <v>0.253879</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287465</v>
+        <v>0.250568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285483</v>
+        <v>0.298469</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249602</v>
+        <v>0.253998</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245982</v>
+        <v>0.249939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292185</v>
+        <v>0.296492</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256559</v>
+        <v>0.257113</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193027</v>
+        <v>0.200548</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228943</v>
+        <v>0.238556</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260204</v>
+        <v>0.271308</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197705</v>
+        <v>0.205338</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236748</v>
+        <v>0.243364</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289492</v>
+        <v>0.264167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210824</v>
+        <v>0.212349</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2444</v>
+        <v>0.24859</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.267791</v>
+        <v>0.290464</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211</v>
+        <v>0.211714</v>
       </c>
       <c r="D24" t="n">
-        <v>0.249116</v>
+        <v>0.260433</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268655</v>
+        <v>0.28017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216396</v>
+        <v>0.222446</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251778</v>
+        <v>0.258965</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.278072</v>
+        <v>0.292583</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224094</v>
+        <v>0.237724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262346</v>
+        <v>0.273872</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231926</v>
+        <v>0.246092</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228853</v>
+        <v>0.23819</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268357</v>
+        <v>0.280697</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.239062</v>
+        <v>0.25475</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233976</v>
+        <v>0.238876</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278079</v>
+        <v>0.287581</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273477</v>
+        <v>0.25137</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242475</v>
+        <v>0.256029</v>
       </c>
       <c r="D29" t="n">
-        <v>0.287733</v>
+        <v>0.297225</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251409</v>
+        <v>0.267089</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249237</v>
+        <v>0.258658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31307</v>
+        <v>0.310817</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258798</v>
+        <v>0.272907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256382</v>
+        <v>0.259099</v>
       </c>
       <c r="D31" t="n">
-        <v>0.306625</v>
+        <v>0.314665</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273531</v>
+        <v>0.28488</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261691</v>
+        <v>0.272418</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317312</v>
+        <v>0.324673</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272141</v>
+        <v>0.29451</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267908</v>
+        <v>0.280515</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325875</v>
+        <v>0.347383</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.282164</v>
+        <v>0.290918</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273483</v>
+        <v>0.28306</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335241</v>
+        <v>0.34506</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291364</v>
+        <v>0.301304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212997</v>
+        <v>0.226152</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25506</v>
+        <v>0.272275</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299727</v>
+        <v>0.324528</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220454</v>
+        <v>0.236428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.267125</v>
+        <v>0.277512</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313058</v>
+        <v>0.325967</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230423</v>
+        <v>0.243683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.276584</v>
+        <v>0.285434</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321782</v>
+        <v>0.34781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239885</v>
+        <v>0.253967</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290058</v>
+        <v>0.302621</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329539</v>
+        <v>0.344437</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248403</v>
+        <v>0.262367</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298308</v>
+        <v>0.314855</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345575</v>
+        <v>0.364065</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256322</v>
+        <v>0.278828</v>
       </c>
       <c r="D40" t="n">
-        <v>0.310255</v>
+        <v>0.317475</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308329</v>
+        <v>0.324477</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264204</v>
+        <v>0.278609</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316781</v>
+        <v>0.331005</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.312559</v>
+        <v>0.334252</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274302</v>
+        <v>0.282808</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328689</v>
+        <v>0.34318</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318941</v>
+        <v>0.343909</v>
       </c>
       <c r="C43" t="n">
-        <v>0.284696</v>
+        <v>0.31339</v>
       </c>
       <c r="D43" t="n">
-        <v>0.348146</v>
+        <v>0.367202</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339543</v>
+        <v>0.365328</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296215</v>
+        <v>0.317123</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357187</v>
+        <v>0.39055</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350744</v>
+        <v>0.375699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305612</v>
+        <v>0.327272</v>
       </c>
       <c r="D45" t="n">
-        <v>0.371512</v>
+        <v>0.397223</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.364539</v>
+        <v>0.400976</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320242</v>
+        <v>0.344646</v>
       </c>
       <c r="D46" t="n">
-        <v>0.38419</v>
+        <v>0.41972</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.379912</v>
+        <v>0.405798</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331352</v>
+        <v>0.354821</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418661</v>
+        <v>0.43492</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.406747</v>
+        <v>0.412868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.349567</v>
+        <v>0.371264</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428115</v>
+        <v>0.449576</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.414459</v>
+        <v>0.43456</v>
       </c>
       <c r="C49" t="n">
-        <v>0.358213</v>
+        <v>0.386323</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446839</v>
+        <v>0.490804</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.431117</v>
+        <v>0.466696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295772</v>
+        <v>0.319155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.353705</v>
+        <v>0.384668</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.448281</v>
+        <v>0.465938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.304374</v>
+        <v>0.329841</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370357</v>
+        <v>0.38254</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465704</v>
+        <v>0.493628</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329725</v>
+        <v>0.342949</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414164</v>
+        <v>0.400444</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.548864</v>
+        <v>0.515845</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396971</v>
+        <v>0.365725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.398186</v>
+        <v>0.44208</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.520927</v>
+        <v>0.550166</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359842</v>
+        <v>0.37753</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435445</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548441</v>
+        <v>0.574038</v>
       </c>
       <c r="C55" t="n">
-        <v>0.380913</v>
+        <v>0.402276</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461035</v>
+        <v>0.472727</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489629</v>
+        <v>0.5232</v>
       </c>
       <c r="C56" t="n">
-        <v>0.396603</v>
+        <v>0.417828</v>
       </c>
       <c r="D56" t="n">
-        <v>0.489627</v>
+        <v>0.500884</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.537918</v>
+        <v>0.515097</v>
       </c>
       <c r="C57" t="n">
-        <v>0.426245</v>
+        <v>0.441094</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5170670000000001</v>
+        <v>0.520044</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.553449</v>
+        <v>0.554847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441182</v>
+        <v>0.464681</v>
       </c>
       <c r="D58" t="n">
-        <v>0.51913</v>
+        <v>0.539704</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.58671</v>
+        <v>0.59404</v>
       </c>
       <c r="C59" t="n">
-        <v>0.466276</v>
+        <v>0.474424</v>
       </c>
       <c r="D59" t="n">
-        <v>0.605183</v>
+        <v>0.577922</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.571514</v>
+        <v>0.636117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.478118</v>
+        <v>0.5012799999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55744</v>
+        <v>0.61625</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.588156</v>
+        <v>0.6206199999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.503188</v>
+        <v>0.54357</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655969</v>
+        <v>0.642578</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.70245</v>
+        <v>0.65681</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556569</v>
+        <v>0.588181</v>
       </c>
       <c r="D62" t="n">
-        <v>0.659027</v>
+        <v>0.680063</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645122</v>
+        <v>0.665558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.591614</v>
+        <v>0.584856</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701566</v>
+        <v>0.714044</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.701191</v>
+        <v>0.708189</v>
       </c>
       <c r="C64" t="n">
-        <v>0.484607</v>
+        <v>0.498956</v>
       </c>
       <c r="D64" t="n">
-        <v>0.586464</v>
+        <v>0.602783</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.74104</v>
+        <v>0.741891</v>
       </c>
       <c r="C65" t="n">
-        <v>0.50552</v>
+        <v>0.519282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623486</v>
+        <v>0.628911</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.788623</v>
+        <v>0.77183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548578</v>
+        <v>0.560246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660301</v>
+        <v>0.6609390000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814538</v>
+        <v>0.803377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.558815</v>
+        <v>0.566619</v>
       </c>
       <c r="D67" t="n">
-        <v>0.669817</v>
+        <v>0.674009</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.835411</v>
+        <v>0.837144</v>
       </c>
       <c r="C68" t="n">
-        <v>0.585522</v>
+        <v>0.609778</v>
       </c>
       <c r="D68" t="n">
-        <v>0.693605</v>
+        <v>0.713358</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.833492</v>
+        <v>0.8740019999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.594307</v>
+        <v>0.631331</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715881</v>
+        <v>0.762696</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.699483</v>
+        <v>0.761599</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6220830000000001</v>
+        <v>0.6768690000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.75726</v>
+        <v>0.800684</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.794046</v>
+        <v>0.780085</v>
       </c>
       <c r="C71" t="n">
-        <v>0.757667</v>
+        <v>0.68233</v>
       </c>
       <c r="D71" t="n">
-        <v>0.933043</v>
+        <v>0.813818</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.783936</v>
+        <v>0.803175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757119</v>
+        <v>0.7236900000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.878933</v>
+        <v>0.843476</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.849457</v>
+        <v>0.821701</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739069</v>
+        <v>0.74124</v>
       </c>
       <c r="D73" t="n">
-        <v>0.882333</v>
+        <v>0.886228</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.825288</v>
+        <v>0.831583</v>
       </c>
       <c r="C74" t="n">
-        <v>0.777308</v>
+        <v>0.795749</v>
       </c>
       <c r="D74" t="n">
-        <v>0.91804</v>
+        <v>0.947164</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.857222</v>
+        <v>0.855412</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823609</v>
+        <v>0.825273</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9835159999999999</v>
+        <v>0.98351</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.914462</v>
+        <v>0.88523</v>
       </c>
       <c r="C76" t="n">
-        <v>0.86129</v>
+        <v>0.891062</v>
       </c>
       <c r="D76" t="n">
-        <v>0.965619</v>
+        <v>1.04662</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.874785</v>
+        <v>0.938601</v>
       </c>
       <c r="C77" t="n">
-        <v>0.894662</v>
+        <v>0.908216</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00915</v>
+        <v>1.07688</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.916507</v>
+        <v>0.956848</v>
       </c>
       <c r="C78" t="n">
-        <v>0.678011</v>
+        <v>0.731843</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8430879999999999</v>
+        <v>0.878466</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.97404</v>
+        <v>0.960913</v>
       </c>
       <c r="C79" t="n">
-        <v>0.711514</v>
+        <v>0.765566</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9104680000000001</v>
+        <v>0.9018699999999999</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0325</v>
+        <v>1.02385</v>
       </c>
       <c r="C80" t="n">
-        <v>0.787879</v>
+        <v>0.740758</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9415750000000001</v>
+        <v>0.953246</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02589</v>
+        <v>1.08834</v>
       </c>
       <c r="C81" t="n">
-        <v>0.755109</v>
+        <v>0.806539</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9757169999999999</v>
+        <v>0.980913</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05966</v>
+        <v>1.10081</v>
       </c>
       <c r="C82" t="n">
-        <v>0.824399</v>
+        <v>0.851372</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0225</v>
+        <v>1.00145</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0897</v>
+        <v>1.11785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845307</v>
+        <v>0.851464</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06065</v>
+        <v>1.04374</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.896701</v>
+        <v>0.9145450000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.879775</v>
+        <v>0.881059</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09838</v>
+        <v>1.12767</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.900745</v>
+        <v>0.934906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903386</v>
+        <v>0.932787</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0899</v>
+        <v>1.15278</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.91198</v>
+        <v>0.939896</v>
       </c>
       <c r="C86" t="n">
-        <v>0.91574</v>
+        <v>0.9556480000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11731</v>
+        <v>1.18052</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920902</v>
+        <v>0.99131</v>
       </c>
       <c r="C87" t="n">
-        <v>0.92333</v>
+        <v>0.982788</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15098</v>
+        <v>1.1941</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.943978</v>
+        <v>1.01553</v>
       </c>
       <c r="C88" t="n">
-        <v>0.977023</v>
+        <v>1.02274</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27176</v>
+        <v>1.26133</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.998364</v>
+        <v>1.01741</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03284</v>
+        <v>1.03571</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26271</v>
+        <v>1.26919</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01617</v>
+        <v>1.03651</v>
       </c>
       <c r="C90" t="n">
-        <v>1.06304</v>
+        <v>1.09554</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33043</v>
+        <v>1.33689</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04528</v>
+        <v>1.08481</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09174</v>
+        <v>1.10908</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36328</v>
+        <v>1.40178</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06741</v>
+        <v>1.0998</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859309</v>
+        <v>0.885682</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1107</v>
+        <v>1.12096</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.09599</v>
+        <v>1.11551</v>
       </c>
       <c r="C93" t="n">
-        <v>0.877152</v>
+        <v>0.872533</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1028</v>
+        <v>1.16559</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.10522</v>
+        <v>1.16839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.963384</v>
+        <v>0.9234059999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14903</v>
+        <v>1.19698</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.15758</v>
+        <v>1.20285</v>
       </c>
       <c r="C95" t="n">
-        <v>0.922351</v>
+        <v>0.941661</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1833</v>
+        <v>1.2137</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17268</v>
+        <v>1.2008</v>
       </c>
       <c r="C96" t="n">
-        <v>0.933671</v>
+        <v>0.96791</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23372</v>
+        <v>1.27191</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20453</v>
+        <v>1.26055</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956013</v>
+        <v>1.02274</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21494</v>
+        <v>1.30658</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.945516</v>
+        <v>0.986053</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984067</v>
+        <v>1.04119</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27959</v>
+        <v>1.34785</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96415</v>
+        <v>0.995611</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01065</v>
+        <v>1.06977</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3157</v>
+        <v>1.39839</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.991716</v>
+        <v>1.03764</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03841</v>
+        <v>1.0986</v>
       </c>
       <c r="D100" t="n">
-        <v>1.35837</v>
+        <v>1.40379</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01555</v>
+        <v>1.04598</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06033</v>
+        <v>1.14018</v>
       </c>
       <c r="D101" t="n">
-        <v>1.36681</v>
+        <v>1.43966</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04</v>
+        <v>1.09122</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08108</v>
+        <v>1.15061</v>
       </c>
       <c r="D102" t="n">
-        <v>1.4079</v>
+        <v>1.48927</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05969</v>
+        <v>1.0836</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11202</v>
+        <v>1.17942</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44628</v>
+        <v>1.50197</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09347</v>
+        <v>1.16337</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14366</v>
+        <v>1.21741</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4821</v>
+        <v>1.58461</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11419</v>
+        <v>1.16689</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19162</v>
+        <v>1.28093</v>
       </c>
       <c r="D105" t="n">
-        <v>1.54217</v>
+        <v>1.61535</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15552</v>
+        <v>1.19101</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23344</v>
+        <v>1.28881</v>
       </c>
       <c r="D106" t="n">
-        <v>1.63911</v>
+        <v>1.67031</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22848</v>
+        <v>1.24846</v>
       </c>
       <c r="C107" t="n">
-        <v>0.971469</v>
+        <v>1.01749</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23209</v>
+        <v>1.28679</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22538</v>
+        <v>1.24904</v>
       </c>
       <c r="C108" t="n">
-        <v>0.955221</v>
+        <v>0.995788</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25486</v>
+        <v>1.31262</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.24757</v>
+        <v>1.28521</v>
       </c>
       <c r="C109" t="n">
-        <v>0.983036</v>
+        <v>1.02568</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30783</v>
+        <v>1.3554</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.27284</v>
+        <v>1.29185</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00653</v>
+        <v>1.07894</v>
       </c>
       <c r="D110" t="n">
-        <v>1.32684</v>
+        <v>1.39309</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32097</v>
+        <v>1.37491</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0948</v>
+        <v>1.07905</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7517</v>
+        <v>1.42493</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0326</v>
+        <v>1.09179</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12824</v>
+        <v>1.0983</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45242</v>
+        <v>1.44109</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06305</v>
+        <v>1.1532</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09822</v>
+        <v>1.14557</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47322</v>
+        <v>1.50552</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32199</v>
+        <v>1.181</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13245</v>
+        <v>1.1752</v>
       </c>
       <c r="D114" t="n">
-        <v>1.50309</v>
+        <v>1.55513</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16585</v>
+        <v>1.20321</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17689</v>
+        <v>1.19497</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57927</v>
+        <v>1.64254</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12933</v>
+        <v>1.23351</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20371</v>
+        <v>1.2315</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59271</v>
+        <v>1.65131</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15131</v>
+        <v>1.25361</v>
       </c>
       <c r="C117" t="n">
-        <v>1.244</v>
+        <v>1.33594</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66646</v>
+        <v>1.7737</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14902</v>
+        <v>1.27422</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25684</v>
+        <v>1.29734</v>
       </c>
       <c r="D118" t="n">
-        <v>1.68556</v>
+        <v>1.75651</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25696</v>
+        <v>1.32901</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37237</v>
+        <v>1.37073</v>
       </c>
       <c r="D119" t="n">
-        <v>1.72246</v>
+        <v>1.81102</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201291</v>
+        <v>0.187024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184652</v>
+        <v>0.194319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139115</v>
+        <v>0.143497</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187026</v>
+        <v>0.193571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200179</v>
+        <v>0.189603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145146</v>
+        <v>0.142907</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190818</v>
+        <v>0.197622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18809</v>
+        <v>0.193134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145487</v>
+        <v>0.150774</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204078</v>
+        <v>0.203467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205951</v>
+        <v>0.209636</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156447</v>
+        <v>0.154959</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225626</v>
+        <v>0.216512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205661</v>
+        <v>0.209406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149699</v>
+        <v>0.157632</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205814</v>
+        <v>0.212476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.157319</v>
+        <v>0.168417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147003</v>
+        <v>0.144162</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212204</v>
+        <v>0.212801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160873</v>
+        <v>0.165988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150909</v>
+        <v>0.143603</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218821</v>
+        <v>0.225639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166582</v>
+        <v>0.173569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14296</v>
+        <v>0.14586</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222714</v>
+        <v>0.235743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168848</v>
+        <v>0.176789</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153888</v>
+        <v>0.15119</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247907</v>
+        <v>0.233168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182893</v>
+        <v>0.175348</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148731</v>
+        <v>0.151849</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242115</v>
+        <v>0.249797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180172</v>
+        <v>0.179343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>0.149238</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188184</v>
+        <v>0.195336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184881</v>
+        <v>0.198265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159659</v>
+        <v>0.155241</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2098</v>
+        <v>0.192112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.193698</v>
+        <v>0.19361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.155613</v>
+        <v>0.159763</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205296</v>
+        <v>0.196914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194696</v>
+        <v>0.20373</v>
       </c>
       <c r="D15" t="n">
-        <v>0.160008</v>
+        <v>0.163673</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203789</v>
+        <v>0.203822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201628</v>
+        <v>0.207481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161298</v>
+        <v>0.171639</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206316</v>
+        <v>0.212795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209896</v>
+        <v>0.215591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168663</v>
+        <v>0.173322</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.206305</v>
+        <v>0.218354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221762</v>
+        <v>0.225709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184855</v>
+        <v>0.169867</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208635</v>
+        <v>0.212682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227843</v>
+        <v>0.221231</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179898</v>
+        <v>0.175493</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218341</v>
+        <v>0.221674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227968</v>
+        <v>0.238006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.175353</v>
+        <v>0.179452</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220866</v>
+        <v>0.221368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187502</v>
+        <v>0.179535</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157027</v>
+        <v>0.157513</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234529</v>
+        <v>0.227652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183294</v>
+        <v>0.179527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.159043</v>
+        <v>0.161659</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244032</v>
+        <v>0.240362</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188463</v>
+        <v>0.196786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166285</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248439</v>
+        <v>0.240675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.191788</v>
+        <v>0.1998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174375</v>
+        <v>0.165794</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25571</v>
+        <v>0.24331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.201213</v>
+        <v>0.199802</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166709</v>
+        <v>0.165911</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.256646</v>
+        <v>0.263235</v>
       </c>
       <c r="C26" t="n">
-        <v>0.209252</v>
+        <v>0.216369</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179065</v>
+        <v>0.170895</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.210121</v>
+        <v>0.221441</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207006</v>
+        <v>0.211919</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171669</v>
+        <v>0.173436</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225136</v>
+        <v>0.227144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217587</v>
+        <v>0.224853</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18007</v>
+        <v>0.180488</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230622</v>
+        <v>0.23631</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22071</v>
+        <v>0.22095</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181919</v>
+        <v>0.184489</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.232049</v>
+        <v>0.239048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233068</v>
+        <v>0.233839</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187343</v>
+        <v>0.19025</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.238123</v>
+        <v>0.248563</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240886</v>
+        <v>0.237353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204228</v>
+        <v>0.19413</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251529</v>
+        <v>0.26362</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244196</v>
+        <v>0.245091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.198889</v>
+        <v>0.199716</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256973</v>
+        <v>0.276424</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267702</v>
+        <v>0.256382</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199384</v>
+        <v>0.194199</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260664</v>
+        <v>0.280868</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278999</v>
+        <v>0.261271</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204026</v>
+        <v>0.208056</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277312</v>
+        <v>0.291582</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208681</v>
+        <v>0.215562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181516</v>
+        <v>0.184171</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.279216</v>
+        <v>0.306151</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216505</v>
+        <v>0.230599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183273</v>
+        <v>0.191987</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282498</v>
+        <v>0.319922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219189</v>
+        <v>0.234991</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181545</v>
+        <v>0.202988</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301421</v>
+        <v>0.330389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229608</v>
+        <v>0.255945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187736</v>
+        <v>0.195243</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302599</v>
+        <v>0.343471</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239208</v>
+        <v>0.257811</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197318</v>
+        <v>0.218506</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.328956</v>
+        <v>0.355951</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249512</v>
+        <v>0.266667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205094</v>
+        <v>0.213773</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284106</v>
+        <v>0.317465</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273778</v>
+        <v>0.271453</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21324</v>
+        <v>0.22592</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288623</v>
+        <v>0.332867</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27211</v>
+        <v>0.294596</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208669</v>
+        <v>0.219188</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321261</v>
+        <v>0.332199</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278382</v>
+        <v>0.306605</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214281</v>
+        <v>0.228356</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.335659</v>
+        <v>0.348139</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307149</v>
+        <v>0.313781</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226206</v>
+        <v>0.235245</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324564</v>
+        <v>0.360299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3112</v>
+        <v>0.329866</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229269</v>
+        <v>0.25208</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.342113</v>
+        <v>0.372637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32265</v>
+        <v>0.347888</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23966</v>
+        <v>0.256745</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.345924</v>
+        <v>0.397383</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343577</v>
+        <v>0.363008</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25057</v>
+        <v>0.262001</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.372439</v>
+        <v>0.409695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345756</v>
+        <v>0.385055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250395</v>
+        <v>0.268497</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.374323</v>
+        <v>0.437454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370708</v>
+        <v>0.406887</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263103</v>
+        <v>0.288917</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393545</v>
+        <v>0.464268</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2876</v>
+        <v>0.312833</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221608</v>
+        <v>0.241102</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440307</v>
+        <v>0.462152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292449</v>
+        <v>0.335874</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243507</v>
+        <v>0.252197</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437023</v>
+        <v>0.485844</v>
       </c>
       <c r="C52" t="n">
-        <v>0.305093</v>
+        <v>0.356639</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240174</v>
+        <v>0.268077</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.437855</v>
+        <v>0.514173</v>
       </c>
       <c r="C53" t="n">
-        <v>0.322148</v>
+        <v>0.369758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238001</v>
+        <v>0.279287</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.489588</v>
+        <v>0.537381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.336706</v>
+        <v>0.393685</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24933</v>
+        <v>0.275881</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521616</v>
+        <v>0.580949</v>
       </c>
       <c r="C55" t="n">
-        <v>0.360294</v>
+        <v>0.39281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253794</v>
+        <v>0.285191</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.436843</v>
+        <v>0.511555</v>
       </c>
       <c r="C56" t="n">
-        <v>0.387913</v>
+        <v>0.420097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278283</v>
+        <v>0.289721</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512665</v>
+        <v>0.54303</v>
       </c>
       <c r="C57" t="n">
-        <v>0.395604</v>
+        <v>0.453499</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274365</v>
+        <v>0.317018</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.503586</v>
+        <v>0.570246</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424093</v>
+        <v>0.47282</v>
       </c>
       <c r="D58" t="n">
-        <v>0.284283</v>
+        <v>0.323261</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.520535</v>
+        <v>0.596271</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473964</v>
+        <v>0.510043</v>
       </c>
       <c r="D59" t="n">
-        <v>0.307979</v>
+        <v>0.339826</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5615329999999999</v>
+        <v>0.633484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531571</v>
+        <v>0.540122</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331079</v>
+        <v>0.347657</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.56828</v>
+        <v>0.659952</v>
       </c>
       <c r="C61" t="n">
-        <v>0.501206</v>
+        <v>0.56878</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337122</v>
+        <v>0.368603</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.652706</v>
+        <v>0.688509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575797</v>
+        <v>0.6207009999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.378598</v>
+        <v>0.383695</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.670606</v>
+        <v>0.7134200000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.572919</v>
+        <v>0.657035</v>
       </c>
       <c r="D63" t="n">
-        <v>0.371012</v>
+        <v>0.397244</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.664498</v>
+        <v>0.755772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.493989</v>
+        <v>0.532853</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377207</v>
+        <v>0.383506</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.757343</v>
+        <v>0.802608</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502978</v>
+        <v>0.56302</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351822</v>
+        <v>0.387476</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77432</v>
+        <v>0.831971</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533881</v>
+        <v>0.577572</v>
       </c>
       <c r="D66" t="n">
-        <v>0.366374</v>
+        <v>0.408554</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8064519999999999</v>
+        <v>0.868391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576114</v>
+        <v>0.614814</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387399</v>
+        <v>0.435149</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792505</v>
+        <v>0.926467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549936</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374173</v>
+        <v>0.454401</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.898365</v>
+        <v>0.965835</v>
       </c>
       <c r="C69" t="n">
-        <v>0.602183</v>
+        <v>0.692762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.42519</v>
+        <v>0.467123</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761399</v>
+        <v>0.78522</v>
       </c>
       <c r="C70" t="n">
-        <v>0.644993</v>
+        <v>0.7196</v>
       </c>
       <c r="D70" t="n">
-        <v>0.407246</v>
+        <v>0.50507</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753428</v>
+        <v>0.834898</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6645219999999999</v>
+        <v>0.774182</v>
       </c>
       <c r="D71" t="n">
-        <v>0.429082</v>
+        <v>0.5169</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.746115</v>
+        <v>0.839909</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699055</v>
+        <v>0.7831320000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.456475</v>
+        <v>0.524042</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.797884</v>
+        <v>0.865274</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75322</v>
+        <v>0.858062</v>
       </c>
       <c r="D73" t="n">
-        <v>0.495253</v>
+        <v>0.569204</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.823943</v>
+        <v>0.9376910000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.802053</v>
+        <v>0.8904300000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.499714</v>
+        <v>0.5878370000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.844452</v>
+        <v>0.975234</v>
       </c>
       <c r="C75" t="n">
-        <v>0.804354</v>
+        <v>0.933756</v>
       </c>
       <c r="D75" t="n">
-        <v>0.511042</v>
+        <v>0.620576</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.891305</v>
+        <v>0.9660840000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.929982</v>
+        <v>0.977371</v>
       </c>
       <c r="D76" t="n">
-        <v>0.583545</v>
+        <v>0.6286350000000001</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.969122</v>
+        <v>1.03175</v>
       </c>
       <c r="C77" t="n">
-        <v>0.922084</v>
+        <v>1.04325</v>
       </c>
       <c r="D77" t="n">
-        <v>0.580891</v>
+        <v>0.680775</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.977667</v>
+        <v>1.07936</v>
       </c>
       <c r="C78" t="n">
-        <v>0.75673</v>
+        <v>0.829026</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55338</v>
+        <v>0.642469</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02808</v>
+        <v>1.10935</v>
       </c>
       <c r="C79" t="n">
-        <v>0.721267</v>
+        <v>0.856921</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552809</v>
+        <v>0.670544</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03923</v>
+        <v>1.15283</v>
       </c>
       <c r="C80" t="n">
-        <v>0.785852</v>
+        <v>0.865036</v>
       </c>
       <c r="D80" t="n">
-        <v>0.585678</v>
+        <v>0.658397</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08246</v>
+        <v>1.19435</v>
       </c>
       <c r="C81" t="n">
-        <v>0.795195</v>
+        <v>0.89456</v>
       </c>
       <c r="D81" t="n">
-        <v>0.592261</v>
+        <v>0.673053</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11964</v>
+        <v>1.26186</v>
       </c>
       <c r="C82" t="n">
-        <v>0.878088</v>
+        <v>0.927073</v>
       </c>
       <c r="D82" t="n">
-        <v>0.63408</v>
+        <v>0.710009</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17506</v>
+        <v>1.27095</v>
       </c>
       <c r="C83" t="n">
-        <v>0.870207</v>
+        <v>0.9537679999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.64083</v>
+        <v>0.7295</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.922261</v>
+        <v>0.994819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.905906</v>
+        <v>1.00341</v>
       </c>
       <c r="D84" t="n">
-        <v>0.698846</v>
+        <v>0.7468399999999999</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.922199</v>
+        <v>0.996609</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937737</v>
+        <v>1.01977</v>
       </c>
       <c r="D85" t="n">
-        <v>0.696345</v>
+        <v>0.792598</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939649</v>
+        <v>1.02677</v>
       </c>
       <c r="C86" t="n">
-        <v>0.976923</v>
+        <v>1.05142</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711355</v>
+        <v>0.78017</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01513</v>
+        <v>1.06548</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0482</v>
+        <v>1.10662</v>
       </c>
       <c r="D87" t="n">
-        <v>0.744854</v>
+        <v>0.822109</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0041</v>
+        <v>1.1039</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09761</v>
+        <v>1.17169</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7783330000000001</v>
+        <v>0.829836</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04053</v>
+        <v>1.11778</v>
       </c>
       <c r="C89" t="n">
-        <v>1.153</v>
+        <v>1.21604</v>
       </c>
       <c r="D89" t="n">
-        <v>0.814397</v>
+        <v>0.857106</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05864</v>
+        <v>1.15306</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13039</v>
+        <v>1.24974</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.916307</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09081</v>
+        <v>1.1932</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1693</v>
+        <v>1.30649</v>
       </c>
       <c r="D91" t="n">
-        <v>0.844513</v>
+        <v>0.938338</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.13376</v>
+        <v>1.23301</v>
       </c>
       <c r="C92" t="n">
-        <v>0.916815</v>
+        <v>0.962927</v>
       </c>
       <c r="D92" t="n">
-        <v>0.72155</v>
+        <v>0.7958</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15268</v>
+        <v>1.30434</v>
       </c>
       <c r="C93" t="n">
-        <v>0.885419</v>
+        <v>1.01472</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762004</v>
+        <v>0.825777</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.18941</v>
+        <v>1.30943</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9401080000000001</v>
+        <v>1.02303</v>
       </c>
       <c r="D94" t="n">
-        <v>0.76444</v>
+        <v>0.835942</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23908</v>
+        <v>1.33084</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0119</v>
+        <v>1.05971</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780384</v>
+        <v>0.892056</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2724</v>
+        <v>1.3959</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0137</v>
+        <v>1.0661</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8067299999999999</v>
+        <v>0.879912</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31565</v>
+        <v>1.43149</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03037</v>
+        <v>1.13068</v>
       </c>
       <c r="D97" t="n">
-        <v>0.814267</v>
+        <v>0.926357</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.968085</v>
+        <v>1.05921</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09008</v>
+        <v>1.14567</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836873</v>
+        <v>0.941065</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00445</v>
+        <v>1.09484</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09438</v>
+        <v>1.18388</v>
       </c>
       <c r="D99" t="n">
-        <v>0.876285</v>
+        <v>0.968898</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.07229</v>
+        <v>1.14385</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13766</v>
+        <v>1.2122</v>
       </c>
       <c r="D100" t="n">
-        <v>0.901504</v>
+        <v>0.977165</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05312</v>
+        <v>1.16065</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1779</v>
+        <v>1.26316</v>
       </c>
       <c r="D101" t="n">
-        <v>0.942499</v>
+        <v>1.01118</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07943</v>
+        <v>1.16776</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20217</v>
+        <v>1.302</v>
       </c>
       <c r="D102" t="n">
-        <v>0.950775</v>
+        <v>1.03033</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12291</v>
+        <v>1.20357</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25345</v>
+        <v>1.31663</v>
       </c>
       <c r="D103" t="n">
-        <v>0.958603</v>
+        <v>1.05488</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15759</v>
+        <v>1.22996</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28387</v>
+        <v>1.39612</v>
       </c>
       <c r="D104" t="n">
-        <v>0.994042</v>
+        <v>1.07222</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18609</v>
+        <v>1.27464</v>
       </c>
       <c r="C105" t="n">
-        <v>1.31879</v>
+        <v>1.46312</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00669</v>
+        <v>1.12233</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21036</v>
+        <v>1.3223</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39794</v>
+        <v>1.49701</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06163</v>
+        <v>1.16151</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24561</v>
+        <v>1.36125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.997814</v>
+        <v>1.09429</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8557709999999999</v>
+        <v>0.943626</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.27885</v>
+        <v>1.38697</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02754</v>
+        <v>1.14691</v>
       </c>
       <c r="D108" t="n">
-        <v>0.847917</v>
+        <v>0.96833</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30159</v>
+        <v>1.43444</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07351</v>
+        <v>1.12978</v>
       </c>
       <c r="D109" t="n">
-        <v>0.865129</v>
+        <v>0.996163</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3411</v>
+        <v>1.4861</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05373</v>
+        <v>1.20412</v>
       </c>
       <c r="D110" t="n">
-        <v>0.896658</v>
+        <v>1.00881</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40281</v>
+        <v>1.52202</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09809</v>
+        <v>1.20167</v>
       </c>
       <c r="D111" t="n">
-        <v>0.933692</v>
+        <v>1.0096</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05027</v>
+        <v>1.12333</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1466</v>
+        <v>1.22509</v>
       </c>
       <c r="D112" t="n">
-        <v>0.98067</v>
+        <v>1.05842</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04449</v>
+        <v>1.17151</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15329</v>
+        <v>1.28475</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970261</v>
+        <v>1.08872</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.07215</v>
+        <v>1.21289</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21306</v>
+        <v>1.29773</v>
       </c>
       <c r="D114" t="n">
-        <v>0.98202</v>
+        <v>1.09245</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11103</v>
+        <v>1.22476</v>
       </c>
       <c r="C115" t="n">
-        <v>1.259</v>
+        <v>1.35715</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02382</v>
+        <v>1.09989</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14307</v>
+        <v>1.265</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3061</v>
+        <v>1.42926</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05668</v>
+        <v>1.16828</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17618</v>
+        <v>1.30611</v>
       </c>
       <c r="C117" t="n">
-        <v>1.37682</v>
+        <v>1.4309</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07814</v>
+        <v>1.19544</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21099</v>
+        <v>1.36383</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43033</v>
+        <v>1.51916</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09975</v>
+        <v>1.22198</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25813</v>
+        <v>1.38774</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42094</v>
+        <v>1.55593</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17861</v>
+        <v>1.26044</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.585109</v>
+        <v>0.5740730000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417952</v>
+        <v>0.449521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236828</v>
+        <v>0.245773</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.358824</v>
+        <v>0.366855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437949</v>
+        <v>0.459466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248877</v>
+        <v>0.246763</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375673</v>
+        <v>0.381308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.468355</v>
+        <v>0.479864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250561</v>
+        <v>0.264327</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392205</v>
+        <v>0.407572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.485982</v>
+        <v>0.518253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262321</v>
+        <v>0.274539</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414505</v>
+        <v>0.435661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517972</v>
+        <v>0.515841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271283</v>
+        <v>0.297002</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.445361</v>
+        <v>0.446086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.534141</v>
+        <v>0.549464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275748</v>
+        <v>0.277244</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450179</v>
+        <v>0.457341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595271</v>
+        <v>0.5653319999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283799</v>
+        <v>0.295002</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474031</v>
+        <v>0.506875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.599396</v>
+        <v>0.5955510000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302422</v>
+        <v>0.31074</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.518297</v>
+        <v>0.508251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603345</v>
+        <v>0.627231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.308425</v>
+        <v>0.320092</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.528811</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394783</v>
+        <v>0.403975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231413</v>
+        <v>0.243738</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.568513</v>
+        <v>0.57047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417771</v>
+        <v>0.414313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250406</v>
+        <v>0.254745</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.591203</v>
+        <v>0.623829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.421725</v>
+        <v>0.442844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249543</v>
+        <v>0.255155</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.613888</v>
+        <v>0.628713</v>
       </c>
       <c r="C14" t="n">
-        <v>0.458554</v>
+        <v>0.462288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263546</v>
+        <v>0.260863</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.650261</v>
+        <v>0.64727</v>
       </c>
       <c r="C15" t="n">
-        <v>0.490056</v>
+        <v>0.486094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266494</v>
+        <v>0.292249</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.67471</v>
+        <v>0.6825599999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.491968</v>
+        <v>0.55748</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276567</v>
+        <v>0.292731</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428854</v>
+        <v>0.426244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.539068</v>
+        <v>0.53851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285395</v>
+        <v>0.299784</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.450655</v>
+        <v>0.449973</v>
       </c>
       <c r="C18" t="n">
-        <v>0.556756</v>
+        <v>0.575304</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29511</v>
+        <v>0.310758</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452463</v>
+        <v>0.482374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.567706</v>
+        <v>0.591166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308355</v>
+        <v>0.317435</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.485494</v>
+        <v>0.494876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.588522</v>
+        <v>0.598309</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31648</v>
+        <v>0.32974</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.499136</v>
+        <v>0.515222</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618025</v>
+        <v>0.670727</v>
       </c>
       <c r="D21" t="n">
-        <v>0.330688</v>
+        <v>0.341401</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.532742</v>
+        <v>0.530573</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6571939999999999</v>
+        <v>0.663388</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353737</v>
+        <v>0.355643</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560374</v>
+        <v>0.572983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.674547</v>
+        <v>0.702664</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356169</v>
+        <v>0.359484</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.590409</v>
+        <v>0.590642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.711667</v>
+        <v>0.7271069999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364533</v>
+        <v>0.377339</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.598185</v>
+        <v>0.631056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.729362</v>
+        <v>0.752809</v>
       </c>
       <c r="D25" t="n">
-        <v>0.379342</v>
+        <v>0.397113</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.618077</v>
+        <v>0.643335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460517</v>
+        <v>0.468614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279375</v>
+        <v>0.277231</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.678897</v>
+        <v>0.678408</v>
       </c>
       <c r="C27" t="n">
-        <v>0.486552</v>
+        <v>0.511232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288024</v>
+        <v>0.293502</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6999030000000001</v>
+        <v>0.691003</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520911</v>
+        <v>0.5144</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312452</v>
+        <v>0.304123</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7347129999999999</v>
+        <v>0.730972</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547197</v>
+        <v>0.533293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.318777</v>
+        <v>0.315478</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.757125</v>
+        <v>0.739147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.562867</v>
+        <v>0.560869</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317817</v>
+        <v>0.327038</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.824464</v>
+        <v>0.774976</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585286</v>
+        <v>0.6293840000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347849</v>
+        <v>0.331303</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482847</v>
+        <v>0.488778</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606827</v>
+        <v>0.614708</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340922</v>
+        <v>0.348508</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519492</v>
+        <v>0.521377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6378200000000001</v>
+        <v>0.661771</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354497</v>
+        <v>0.36441</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535859</v>
+        <v>0.536423</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669286</v>
+        <v>0.720251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.370979</v>
+        <v>0.390841</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56515</v>
+        <v>0.592579</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680559</v>
+        <v>0.777044</v>
       </c>
       <c r="D35" t="n">
-        <v>0.375878</v>
+        <v>0.404703</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.616514</v>
+        <v>0.608849</v>
       </c>
       <c r="C36" t="n">
-        <v>0.737328</v>
+        <v>0.777367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393987</v>
+        <v>0.414712</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.634987</v>
+        <v>0.673475</v>
       </c>
       <c r="C37" t="n">
-        <v>0.775052</v>
+        <v>0.841288</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402222</v>
+        <v>0.421606</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.667988</v>
+        <v>0.692114</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834015</v>
+        <v>0.88868</v>
       </c>
       <c r="D38" t="n">
-        <v>0.421243</v>
+        <v>0.452801</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.7427859999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875016</v>
+        <v>0.930884</v>
       </c>
       <c r="D39" t="n">
-        <v>0.450219</v>
+        <v>0.4748</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.759186</v>
+        <v>0.831394</v>
       </c>
       <c r="C40" t="n">
-        <v>0.535562</v>
+        <v>0.589466</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323776</v>
+        <v>0.35624</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.769776</v>
+        <v>0.879412</v>
       </c>
       <c r="C41" t="n">
-        <v>0.562916</v>
+        <v>0.620111</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348969</v>
+        <v>0.369147</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.832212</v>
+        <v>0.9180430000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62398</v>
+        <v>0.649237</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364714</v>
+        <v>0.381615</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9060009999999999</v>
+        <v>0.966347</v>
       </c>
       <c r="C43" t="n">
-        <v>0.636503</v>
+        <v>0.69425</v>
       </c>
       <c r="D43" t="n">
-        <v>0.394129</v>
+        <v>0.40468</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.994217</v>
+        <v>0.997238</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675505</v>
+        <v>0.752851</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399422</v>
+        <v>0.433553</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02056</v>
+        <v>1.09418</v>
       </c>
       <c r="C45" t="n">
-        <v>0.726999</v>
+        <v>0.796573</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409609</v>
+        <v>0.464396</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639335</v>
+        <v>0.706796</v>
       </c>
       <c r="C46" t="n">
-        <v>0.76463</v>
+        <v>0.8395629999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433438</v>
+        <v>0.464781</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.668102</v>
+        <v>0.746126</v>
       </c>
       <c r="C47" t="n">
-        <v>0.806752</v>
+        <v>0.887801</v>
       </c>
       <c r="D47" t="n">
-        <v>0.465498</v>
+        <v>0.506422</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.71397</v>
+        <v>0.818417</v>
       </c>
       <c r="C48" t="n">
-        <v>0.857698</v>
+        <v>0.96092</v>
       </c>
       <c r="D48" t="n">
-        <v>0.488614</v>
+        <v>0.53088</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.766282</v>
+        <v>0.842894</v>
       </c>
       <c r="C49" t="n">
-        <v>0.920722</v>
+        <v>1.05284</v>
       </c>
       <c r="D49" t="n">
-        <v>0.506841</v>
+        <v>0.569033</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.803287</v>
+        <v>0.882004</v>
       </c>
       <c r="C50" t="n">
-        <v>0.982746</v>
+        <v>1.13157</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539618</v>
+        <v>0.585688</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.847398</v>
+        <v>0.961614</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03211</v>
+        <v>1.13147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.556355</v>
+        <v>0.63897</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9162439999999999</v>
+        <v>1.05138</v>
       </c>
       <c r="C52" t="n">
-        <v>1.09887</v>
+        <v>1.27458</v>
       </c>
       <c r="D52" t="n">
-        <v>0.590772</v>
+        <v>0.671358</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.958844</v>
+        <v>1.09358</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22543</v>
+        <v>1.37787</v>
       </c>
       <c r="D53" t="n">
-        <v>0.618976</v>
+        <v>0.72293</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02333</v>
+        <v>1.15208</v>
       </c>
       <c r="C54" t="n">
-        <v>0.744407</v>
+        <v>0.851356</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439913</v>
+        <v>0.491991</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.086</v>
+        <v>1.26415</v>
       </c>
       <c r="C55" t="n">
-        <v>0.777078</v>
+        <v>0.884989</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461072</v>
+        <v>0.513837</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.22239</v>
+        <v>1.33234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.842816</v>
+        <v>0.9497679999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.494326</v>
+        <v>0.536474</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27599</v>
+        <v>1.4385</v>
       </c>
       <c r="C57" t="n">
-        <v>0.888884</v>
+        <v>1.01055</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5046580000000001</v>
+        <v>0.571043</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.3337</v>
+        <v>1.5614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.980557</v>
+        <v>1.11944</v>
       </c>
       <c r="D58" t="n">
-        <v>0.535542</v>
+        <v>0.622331</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.47904</v>
+        <v>1.67244</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0292</v>
+        <v>1.21975</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565805</v>
+        <v>0.646683</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.941573</v>
+        <v>1.11454</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13685</v>
+        <v>1.30079</v>
       </c>
       <c r="D60" t="n">
-        <v>0.601402</v>
+        <v>0.684043</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01414</v>
+        <v>1.22179</v>
       </c>
       <c r="C61" t="n">
-        <v>1.21079</v>
+        <v>1.43033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649062</v>
+        <v>0.73232</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08955</v>
+        <v>1.27635</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31723</v>
+        <v>1.55947</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711046</v>
+        <v>0.766306</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15536</v>
+        <v>1.40361</v>
       </c>
       <c r="C63" t="n">
-        <v>1.46288</v>
+        <v>1.67784</v>
       </c>
       <c r="D63" t="n">
-        <v>0.746982</v>
+        <v>0.828078</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.22552</v>
+        <v>1.52224</v>
       </c>
       <c r="C64" t="n">
-        <v>1.49668</v>
+        <v>1.82056</v>
       </c>
       <c r="D64" t="n">
-        <v>0.782556</v>
+        <v>0.8726660000000001</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42989</v>
+        <v>1.62777</v>
       </c>
       <c r="C65" t="n">
-        <v>1.6959</v>
+        <v>1.9723</v>
       </c>
       <c r="D65" t="n">
-        <v>0.793169</v>
+        <v>0.950919</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.51764</v>
+        <v>1.7965</v>
       </c>
       <c r="C66" t="n">
-        <v>1.94816</v>
+        <v>2.18795</v>
       </c>
       <c r="D66" t="n">
-        <v>0.857343</v>
+        <v>1.00569</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.602</v>
+        <v>2.00055</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03625</v>
+        <v>2.42985</v>
       </c>
       <c r="D67" t="n">
-        <v>0.931084</v>
+        <v>1.03984</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.76608</v>
+        <v>2.08093</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18174</v>
+        <v>1.43277</v>
       </c>
       <c r="D68" t="n">
-        <v>0.618086</v>
+        <v>0.734722</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.91232</v>
+        <v>2.28261</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30625</v>
+        <v>1.55145</v>
       </c>
       <c r="D69" t="n">
-        <v>0.676113</v>
+        <v>0.781439</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.17039</v>
+        <v>2.47979</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47522</v>
+        <v>1.73314</v>
       </c>
       <c r="D70" t="n">
-        <v>0.734087</v>
+        <v>0.83993</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.34159</v>
+        <v>2.65324</v>
       </c>
       <c r="C71" t="n">
-        <v>1.63552</v>
+        <v>1.85921</v>
       </c>
       <c r="D71" t="n">
-        <v>0.745204</v>
+        <v>0.899742</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.52827</v>
+        <v>2.92308</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69381</v>
+        <v>2.03222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.823887</v>
+        <v>0.972388</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.68883</v>
+        <v>3.18573</v>
       </c>
       <c r="C73" t="n">
-        <v>1.86677</v>
+        <v>2.18824</v>
       </c>
       <c r="D73" t="n">
-        <v>0.854367</v>
+        <v>1.04385</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.69573</v>
+        <v>1.90596</v>
       </c>
       <c r="C74" t="n">
-        <v>1.98836</v>
+        <v>2.31775</v>
       </c>
       <c r="D74" t="n">
-        <v>0.930492</v>
+        <v>1.08614</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.78823</v>
+        <v>2.02584</v>
       </c>
       <c r="C75" t="n">
-        <v>2.20096</v>
+        <v>2.58716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.996291</v>
+        <v>1.1636</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.90402</v>
+        <v>2.16332</v>
       </c>
       <c r="C76" t="n">
-        <v>2.31558</v>
+        <v>2.79496</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05917</v>
+        <v>1.32912</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.04891</v>
+        <v>2.34177</v>
       </c>
       <c r="C77" t="n">
-        <v>2.61927</v>
+        <v>2.84485</v>
       </c>
       <c r="D77" t="n">
-        <v>1.11339</v>
+        <v>1.34306</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19299</v>
+        <v>2.52183</v>
       </c>
       <c r="C78" t="n">
-        <v>2.78433</v>
+        <v>3.12051</v>
       </c>
       <c r="D78" t="n">
-        <v>1.28549</v>
+        <v>1.39344</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.39722</v>
+        <v>2.63127</v>
       </c>
       <c r="C79" t="n">
-        <v>3.08845</v>
+        <v>3.31386</v>
       </c>
       <c r="D79" t="n">
-        <v>1.27553</v>
+        <v>1.51357</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49002</v>
+        <v>2.71809</v>
       </c>
       <c r="C80" t="n">
-        <v>3.17774</v>
+        <v>3.52061</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35216</v>
+        <v>1.60441</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.67882</v>
+        <v>2.93277</v>
       </c>
       <c r="C81" t="n">
-        <v>3.37498</v>
+        <v>3.7049</v>
       </c>
       <c r="D81" t="n">
-        <v>1.46055</v>
+        <v>1.6827</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.81273</v>
+        <v>3.10613</v>
       </c>
       <c r="C82" t="n">
-        <v>3.60678</v>
+        <v>4.00762</v>
       </c>
       <c r="D82" t="n">
-        <v>1.54925</v>
+        <v>1.83496</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.04182</v>
+        <v>3.34931</v>
       </c>
       <c r="C83" t="n">
-        <v>2.03976</v>
+        <v>2.37574</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0276</v>
+        <v>1.22387</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.23461</v>
+        <v>3.50696</v>
       </c>
       <c r="C84" t="n">
-        <v>2.22939</v>
+        <v>2.49534</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10534</v>
+        <v>1.29922</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.44102</v>
+        <v>3.73627</v>
       </c>
       <c r="C85" t="n">
-        <v>2.34109</v>
+        <v>2.61078</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15154</v>
+        <v>1.36926</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.57035</v>
+        <v>3.94453</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55915</v>
+        <v>2.87229</v>
       </c>
       <c r="D86" t="n">
-        <v>1.28292</v>
+        <v>1.4482</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.96258</v>
+        <v>4.19255</v>
       </c>
       <c r="C87" t="n">
-        <v>2.79515</v>
+        <v>2.89051</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32247</v>
+        <v>1.48817</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.17141</v>
+        <v>4.31109</v>
       </c>
       <c r="C88" t="n">
-        <v>2.90208</v>
+        <v>3.13556</v>
       </c>
       <c r="D88" t="n">
-        <v>1.4163</v>
+        <v>1.6033</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39853</v>
+        <v>2.63425</v>
       </c>
       <c r="C89" t="n">
-        <v>2.97176</v>
+        <v>3.34902</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52763</v>
+        <v>1.66195</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.55852</v>
+        <v>2.75816</v>
       </c>
       <c r="C90" t="n">
-        <v>3.1702</v>
+        <v>3.48284</v>
       </c>
       <c r="D90" t="n">
-        <v>1.52608</v>
+        <v>1.81597</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.68853</v>
+        <v>2.9352</v>
       </c>
       <c r="C91" t="n">
-        <v>3.43402</v>
+        <v>3.80273</v>
       </c>
       <c r="D91" t="n">
-        <v>1.65506</v>
+        <v>1.87286</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88845</v>
+        <v>3.0276</v>
       </c>
       <c r="C92" t="n">
-        <v>3.56091</v>
+        <v>4.14049</v>
       </c>
       <c r="D92" t="n">
-        <v>1.70852</v>
+        <v>1.94327</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96011</v>
+        <v>3.2511</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74431</v>
+        <v>4.25706</v>
       </c>
       <c r="D93" t="n">
-        <v>1.79318</v>
+        <v>2.05107</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.04028</v>
+        <v>3.44428</v>
       </c>
       <c r="C94" t="n">
-        <v>3.93317</v>
+        <v>4.55067</v>
       </c>
       <c r="D94" t="n">
-        <v>1.89046</v>
+        <v>2.12758</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.29353</v>
+        <v>3.63648</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1394</v>
+        <v>4.75415</v>
       </c>
       <c r="D95" t="n">
-        <v>2.08546</v>
+        <v>2.19606</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.43376</v>
+        <v>3.81303</v>
       </c>
       <c r="C96" t="n">
-        <v>4.47995</v>
+        <v>5.02541</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07583</v>
+        <v>2.31052</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.71194</v>
+        <v>4.00256</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6622</v>
+        <v>2.8513</v>
       </c>
       <c r="D97" t="n">
-        <v>1.39332</v>
+        <v>1.61558</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.84538</v>
+        <v>4.10361</v>
       </c>
       <c r="C98" t="n">
-        <v>2.68429</v>
+        <v>2.98523</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47171</v>
+        <v>1.6518</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.07515</v>
+        <v>4.39669</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82369</v>
+        <v>3.16587</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53207</v>
+        <v>1.70464</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.19371</v>
+        <v>4.61911</v>
       </c>
       <c r="C100" t="n">
-        <v>3.08247</v>
+        <v>3.26799</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59933</v>
+        <v>1.80196</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.4361</v>
+        <v>4.82302</v>
       </c>
       <c r="C101" t="n">
-        <v>3.12517</v>
+        <v>3.49294</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72207</v>
+        <v>1.90631</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.58946</v>
+        <v>5.09733</v>
       </c>
       <c r="C102" t="n">
-        <v>3.34529</v>
+        <v>3.66485</v>
       </c>
       <c r="D102" t="n">
-        <v>1.853</v>
+        <v>1.9604</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6954</v>
+        <v>2.97741</v>
       </c>
       <c r="C103" t="n">
-        <v>3.49827</v>
+        <v>3.86217</v>
       </c>
       <c r="D103" t="n">
-        <v>1.87112</v>
+        <v>2.06292</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.78388</v>
+        <v>3.08574</v>
       </c>
       <c r="C104" t="n">
-        <v>3.69803</v>
+        <v>4.0426</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87312</v>
+        <v>2.12691</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.97561</v>
+        <v>3.23278</v>
       </c>
       <c r="C105" t="n">
-        <v>3.91054</v>
+        <v>4.23188</v>
       </c>
       <c r="D105" t="n">
-        <v>1.97085</v>
+        <v>2.21698</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.11476</v>
+        <v>3.4436</v>
       </c>
       <c r="C106" t="n">
-        <v>4.14174</v>
+        <v>4.51913</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07464</v>
+        <v>2.28125</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.21488</v>
+        <v>3.6046</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28737</v>
+        <v>4.68291</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18026</v>
+        <v>2.39599</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.39084</v>
+        <v>3.71728</v>
       </c>
       <c r="C108" t="n">
-        <v>4.4881</v>
+        <v>4.95135</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31164</v>
+        <v>2.50487</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.55835</v>
+        <v>3.90355</v>
       </c>
       <c r="C109" t="n">
-        <v>4.7414</v>
+        <v>5.19258</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36753</v>
+        <v>2.60247</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74474</v>
+        <v>4.09349</v>
       </c>
       <c r="C110" t="n">
-        <v>5.00491</v>
+        <v>5.52274</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53856</v>
+        <v>2.7746</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.92201</v>
+        <v>4.2754</v>
       </c>
       <c r="C111" t="n">
-        <v>2.76308</v>
+        <v>3.07404</v>
       </c>
       <c r="D111" t="n">
-        <v>1.70228</v>
+        <v>1.89035</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.18216</v>
+        <v>4.5178</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9375</v>
+        <v>3.24933</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74034</v>
+        <v>1.95694</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3247</v>
+        <v>4.66725</v>
       </c>
       <c r="C113" t="n">
-        <v>3.09485</v>
+        <v>3.32927</v>
       </c>
       <c r="D113" t="n">
-        <v>1.87585</v>
+        <v>2.07414</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58923</v>
+        <v>4.95967</v>
       </c>
       <c r="C114" t="n">
-        <v>3.22041</v>
+        <v>3.52025</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87309</v>
+        <v>2.11497</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.73827</v>
+        <v>5.20661</v>
       </c>
       <c r="C115" t="n">
-        <v>3.39126</v>
+        <v>3.74281</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96058</v>
+        <v>2.14564</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97852</v>
+        <v>5.35971</v>
       </c>
       <c r="C116" t="n">
-        <v>3.53817</v>
+        <v>3.90649</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12333</v>
+        <v>2.28945</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.88457</v>
+        <v>3.11004</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75135</v>
+        <v>4.10777</v>
       </c>
       <c r="D117" t="n">
-        <v>2.09144</v>
+        <v>2.37822</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.01571</v>
+        <v>3.28296</v>
       </c>
       <c r="C118" t="n">
-        <v>3.99949</v>
+        <v>4.31575</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26063</v>
+        <v>2.4893</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.13576</v>
+        <v>3.42541</v>
       </c>
       <c r="C119" t="n">
-        <v>4.11765</v>
+        <v>4.52611</v>
       </c>
       <c r="D119" t="n">
-        <v>2.28993</v>
+        <v>2.55843</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.228599</v>
+        <v>0.223725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209486</v>
+        <v>0.216165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.232952</v>
+        <v>0.237301</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228432</v>
+        <v>0.228671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21496</v>
+        <v>0.210778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242723</v>
+        <v>0.241829</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23136</v>
+        <v>0.239672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214369</v>
+        <v>0.226491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247477</v>
+        <v>0.249646</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.238166</v>
+        <v>0.243236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224449</v>
+        <v>0.232124</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249506</v>
+        <v>0.257818</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246161</v>
+        <v>0.247776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235276</v>
+        <v>0.224647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253945</v>
+        <v>0.26304</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242733</v>
+        <v>0.248339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.190834</v>
+        <v>0.190151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210386</v>
+        <v>0.220347</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250598</v>
+        <v>0.255142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192927</v>
+        <v>0.189665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223284</v>
+        <v>0.236611</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258775</v>
+        <v>0.260022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196336</v>
+        <v>0.196959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224058</v>
+        <v>0.228546</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256449</v>
+        <v>0.26396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.204624</v>
+        <v>0.201008</v>
       </c>
       <c r="D10" t="n">
-        <v>0.234893</v>
+        <v>0.245314</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.259979</v>
+        <v>0.272138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.205804</v>
+        <v>0.202832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246658</v>
+        <v>0.249378</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.269348</v>
+        <v>0.269212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212842</v>
+        <v>0.223233</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242721</v>
+        <v>0.255224</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217918</v>
+        <v>0.227455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216393</v>
+        <v>0.219358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254306</v>
+        <v>0.252108</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.233743</v>
+        <v>0.229782</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235123</v>
+        <v>0.225867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266755</v>
+        <v>0.261948</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.235636</v>
+        <v>0.239257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231252</v>
+        <v>0.227938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27378</v>
+        <v>0.276358</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240593</v>
+        <v>0.239547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234611</v>
+        <v>0.243527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274866</v>
+        <v>0.279721</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.242004</v>
+        <v>0.257005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233664</v>
+        <v>0.242193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.273393</v>
+        <v>0.294785</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245546</v>
+        <v>0.246313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24678</v>
+        <v>0.256427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.286379</v>
+        <v>0.289217</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253879</v>
+        <v>0.255662</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250568</v>
+        <v>0.249537</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298469</v>
+        <v>0.298084</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253998</v>
+        <v>0.251429</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249939</v>
+        <v>0.252903</v>
       </c>
       <c r="D20" t="n">
-        <v>0.296492</v>
+        <v>0.307515</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257113</v>
+        <v>0.263123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200548</v>
+        <v>0.202277</v>
       </c>
       <c r="D21" t="n">
-        <v>0.238556</v>
+        <v>0.239242</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.271308</v>
+        <v>0.268665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205338</v>
+        <v>0.208313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243364</v>
+        <v>0.242177</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264167</v>
+        <v>0.271031</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212349</v>
+        <v>0.209546</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24859</v>
+        <v>0.249142</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.290464</v>
+        <v>0.276091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211714</v>
+        <v>0.217312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260433</v>
+        <v>0.24881</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.28017</v>
+        <v>0.275995</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222446</v>
+        <v>0.227827</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258965</v>
+        <v>0.269879</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292583</v>
+        <v>0.28872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.237724</v>
+        <v>0.224987</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273872</v>
+        <v>0.265659</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.246092</v>
+        <v>0.251135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23819</v>
+        <v>0.237455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280697</v>
+        <v>0.274964</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.25475</v>
+        <v>0.245834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238876</v>
+        <v>0.235961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.287581</v>
+        <v>0.278754</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.25137</v>
+        <v>0.260481</v>
       </c>
       <c r="C29" t="n">
-        <v>0.256029</v>
+        <v>0.24406</v>
       </c>
       <c r="D29" t="n">
-        <v>0.297225</v>
+        <v>0.291531</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.267089</v>
+        <v>0.269409</v>
       </c>
       <c r="C30" t="n">
-        <v>0.258658</v>
+        <v>0.250572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.310817</v>
+        <v>0.315527</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272907</v>
+        <v>0.271565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.259099</v>
+        <v>0.260239</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314665</v>
+        <v>0.300483</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28488</v>
+        <v>0.285041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272418</v>
+        <v>0.261233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.324673</v>
+        <v>0.321643</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.29451</v>
+        <v>0.288366</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280515</v>
+        <v>0.278548</v>
       </c>
       <c r="D33" t="n">
-        <v>0.347383</v>
+        <v>0.330679</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.290918</v>
+        <v>0.307426</v>
       </c>
       <c r="C34" t="n">
-        <v>0.28306</v>
+        <v>0.287211</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34506</v>
+        <v>0.33496</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.301304</v>
+        <v>0.315182</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226152</v>
+        <v>0.225648</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272275</v>
+        <v>0.267032</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.324528</v>
+        <v>0.316111</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236428</v>
+        <v>0.232796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.277512</v>
+        <v>0.283236</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.325967</v>
+        <v>0.33382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243683</v>
+        <v>0.240914</v>
       </c>
       <c r="D37" t="n">
-        <v>0.285434</v>
+        <v>0.293446</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34781</v>
+        <v>0.34207</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253967</v>
+        <v>0.250329</v>
       </c>
       <c r="D38" t="n">
-        <v>0.302621</v>
+        <v>0.304998</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344437</v>
+        <v>0.351291</v>
       </c>
       <c r="C39" t="n">
-        <v>0.262367</v>
+        <v>0.257229</v>
       </c>
       <c r="D39" t="n">
-        <v>0.314855</v>
+        <v>0.307471</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364065</v>
+        <v>0.358664</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278828</v>
+        <v>0.26611</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317475</v>
+        <v>0.323952</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.324477</v>
+        <v>0.335101</v>
       </c>
       <c r="C41" t="n">
-        <v>0.278609</v>
+        <v>0.275535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.331005</v>
+        <v>0.330366</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.334252</v>
+        <v>0.335079</v>
       </c>
       <c r="C42" t="n">
-        <v>0.282808</v>
+        <v>0.292369</v>
       </c>
       <c r="D42" t="n">
-        <v>0.34318</v>
+        <v>0.35505</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.343909</v>
+        <v>0.352564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31339</v>
+        <v>0.311493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.367202</v>
+        <v>0.366732</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.365328</v>
+        <v>0.359485</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317123</v>
+        <v>0.312616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.39055</v>
+        <v>0.389506</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.375699</v>
+        <v>0.371123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.327272</v>
+        <v>0.323552</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397223</v>
+        <v>0.395388</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.400976</v>
+        <v>0.389916</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344646</v>
+        <v>0.350828</v>
       </c>
       <c r="D46" t="n">
-        <v>0.41972</v>
+        <v>0.423706</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.405798</v>
+        <v>0.408167</v>
       </c>
       <c r="C47" t="n">
-        <v>0.354821</v>
+        <v>0.351917</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43492</v>
+        <v>0.432663</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.412868</v>
+        <v>0.424795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.371264</v>
+        <v>0.367436</v>
       </c>
       <c r="D48" t="n">
-        <v>0.449576</v>
+        <v>0.443956</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.43456</v>
+        <v>0.439587</v>
       </c>
       <c r="C49" t="n">
-        <v>0.386323</v>
+        <v>0.388653</v>
       </c>
       <c r="D49" t="n">
-        <v>0.490804</v>
+        <v>0.461804</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.466696</v>
+        <v>0.466427</v>
       </c>
       <c r="C50" t="n">
-        <v>0.319155</v>
+        <v>0.306877</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384668</v>
+        <v>0.372321</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465938</v>
+        <v>0.474774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329841</v>
+        <v>0.31928</v>
       </c>
       <c r="D51" t="n">
-        <v>0.38254</v>
+        <v>0.384855</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.493628</v>
+        <v>0.497093</v>
       </c>
       <c r="C52" t="n">
-        <v>0.342949</v>
+        <v>0.341437</v>
       </c>
       <c r="D52" t="n">
-        <v>0.400444</v>
+        <v>0.406767</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.515845</v>
+        <v>0.520243</v>
       </c>
       <c r="C53" t="n">
-        <v>0.365725</v>
+        <v>0.351726</v>
       </c>
       <c r="D53" t="n">
-        <v>0.44208</v>
+        <v>0.443356</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.550166</v>
+        <v>0.540864</v>
       </c>
       <c r="C54" t="n">
-        <v>0.37753</v>
+        <v>0.375582</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455</v>
+        <v>0.440789</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.574038</v>
+        <v>0.542136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.402276</v>
+        <v>0.394547</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472727</v>
+        <v>0.453904</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5232</v>
+        <v>0.503706</v>
       </c>
       <c r="C56" t="n">
-        <v>0.417828</v>
+        <v>0.4107</v>
       </c>
       <c r="D56" t="n">
-        <v>0.500884</v>
+        <v>0.498259</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.515097</v>
+        <v>0.532015</v>
       </c>
       <c r="C57" t="n">
-        <v>0.441094</v>
+        <v>0.441107</v>
       </c>
       <c r="D57" t="n">
-        <v>0.520044</v>
+        <v>0.538615</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.554847</v>
+        <v>0.563612</v>
       </c>
       <c r="C58" t="n">
-        <v>0.464681</v>
+        <v>0.461044</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539704</v>
+        <v>0.558245</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.59404</v>
+        <v>0.626131</v>
       </c>
       <c r="C59" t="n">
-        <v>0.474424</v>
+        <v>0.497025</v>
       </c>
       <c r="D59" t="n">
-        <v>0.577922</v>
+        <v>0.591839</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.636117</v>
+        <v>0.59484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5012799999999999</v>
+        <v>0.515907</v>
       </c>
       <c r="D60" t="n">
-        <v>0.61625</v>
+        <v>0.6099599999999999</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6206199999999999</v>
+        <v>0.640587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.54357</v>
+        <v>0.534326</v>
       </c>
       <c r="D61" t="n">
-        <v>0.642578</v>
+        <v>0.669874</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.65681</v>
+        <v>0.689611</v>
       </c>
       <c r="C62" t="n">
-        <v>0.588181</v>
+        <v>0.583806</v>
       </c>
       <c r="D62" t="n">
-        <v>0.680063</v>
+        <v>0.698861</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.665558</v>
+        <v>0.687945</v>
       </c>
       <c r="C63" t="n">
-        <v>0.584856</v>
+        <v>0.593905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.714044</v>
+        <v>0.706943</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.708189</v>
+        <v>0.718867</v>
       </c>
       <c r="C64" t="n">
-        <v>0.498956</v>
+        <v>0.508965</v>
       </c>
       <c r="D64" t="n">
-        <v>0.602783</v>
+        <v>0.609914</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.741891</v>
+        <v>0.751762</v>
       </c>
       <c r="C65" t="n">
-        <v>0.519282</v>
+        <v>0.532721</v>
       </c>
       <c r="D65" t="n">
-        <v>0.628911</v>
+        <v>0.620138</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77183</v>
+        <v>0.823199</v>
       </c>
       <c r="C66" t="n">
-        <v>0.560246</v>
+        <v>0.556572</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6609390000000001</v>
+        <v>0.652729</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.803377</v>
+        <v>0.798834</v>
       </c>
       <c r="C67" t="n">
-        <v>0.566619</v>
+        <v>0.573761</v>
       </c>
       <c r="D67" t="n">
-        <v>0.674009</v>
+        <v>0.686963</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.837144</v>
+        <v>0.858451</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609778</v>
+        <v>0.582747</v>
       </c>
       <c r="D68" t="n">
-        <v>0.713358</v>
+        <v>0.71543</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8740019999999999</v>
+        <v>0.849252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.631331</v>
+        <v>0.621703</v>
       </c>
       <c r="D69" t="n">
-        <v>0.762696</v>
+        <v>0.738468</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761599</v>
+        <v>0.733677</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6768690000000001</v>
+        <v>0.661418</v>
       </c>
       <c r="D70" t="n">
-        <v>0.800684</v>
+        <v>0.7720399999999999</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.780085</v>
+        <v>0.784173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.68233</v>
+        <v>0.687595</v>
       </c>
       <c r="D71" t="n">
-        <v>0.813818</v>
+        <v>0.8224089999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.803175</v>
+        <v>0.791022</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7236900000000001</v>
+        <v>0.744341</v>
       </c>
       <c r="D72" t="n">
-        <v>0.843476</v>
+        <v>0.847096</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.821701</v>
+        <v>0.807364</v>
       </c>
       <c r="C73" t="n">
-        <v>0.74124</v>
+        <v>0.737159</v>
       </c>
       <c r="D73" t="n">
-        <v>0.886228</v>
+        <v>0.882746</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.831583</v>
+        <v>0.8418369999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.795749</v>
+        <v>0.79615</v>
       </c>
       <c r="D74" t="n">
-        <v>0.947164</v>
+        <v>0.946997</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.855412</v>
+        <v>0.884155</v>
       </c>
       <c r="C75" t="n">
-        <v>0.825273</v>
+        <v>0.846973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.98351</v>
+        <v>0.991209</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.88523</v>
+        <v>0.886255</v>
       </c>
       <c r="C76" t="n">
-        <v>0.891062</v>
+        <v>0.866341</v>
       </c>
       <c r="D76" t="n">
-        <v>1.04662</v>
+        <v>1.00629</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.938601</v>
+        <v>0.958656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.908216</v>
+        <v>0.912592</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07688</v>
+        <v>1.04197</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.956848</v>
+        <v>0.96689</v>
       </c>
       <c r="C78" t="n">
-        <v>0.731843</v>
+        <v>0.730311</v>
       </c>
       <c r="D78" t="n">
-        <v>0.878466</v>
+        <v>0.875396</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.960913</v>
+        <v>0.973434</v>
       </c>
       <c r="C79" t="n">
-        <v>0.765566</v>
+        <v>0.75115</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9018699999999999</v>
+        <v>0.900826</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02385</v>
+        <v>1.0119</v>
       </c>
       <c r="C80" t="n">
-        <v>0.740758</v>
+        <v>0.776887</v>
       </c>
       <c r="D80" t="n">
-        <v>0.953246</v>
+        <v>0.95473</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08834</v>
+        <v>1.05447</v>
       </c>
       <c r="C81" t="n">
-        <v>0.806539</v>
+        <v>0.796635</v>
       </c>
       <c r="D81" t="n">
-        <v>0.980913</v>
+        <v>0.997441</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10081</v>
+        <v>1.09767</v>
       </c>
       <c r="C82" t="n">
-        <v>0.851372</v>
+        <v>0.811156</v>
       </c>
       <c r="D82" t="n">
-        <v>1.00145</v>
+        <v>1.02299</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11785</v>
+        <v>1.10225</v>
       </c>
       <c r="C83" t="n">
-        <v>0.851464</v>
+        <v>0.861591</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04374</v>
+        <v>1.03385</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9145450000000001</v>
+        <v>0.905301</v>
       </c>
       <c r="C84" t="n">
-        <v>0.881059</v>
+        <v>0.892269</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12767</v>
+        <v>1.07227</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.934906</v>
+        <v>0.939401</v>
       </c>
       <c r="C85" t="n">
-        <v>0.932787</v>
+        <v>0.919864</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15278</v>
+        <v>1.13888</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939896</v>
+        <v>0.950126</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9556480000000001</v>
+        <v>0.960588</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18052</v>
+        <v>1.1813</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.99131</v>
+        <v>0.97702</v>
       </c>
       <c r="C87" t="n">
-        <v>0.982788</v>
+        <v>1.01489</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1941</v>
+        <v>1.19723</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01553</v>
+        <v>1.01288</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02274</v>
+        <v>1.0092</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26133</v>
+        <v>1.27851</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01741</v>
+        <v>1.01338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03571</v>
+        <v>1.04734</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26919</v>
+        <v>1.29743</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.03651</v>
+        <v>1.06158</v>
       </c>
       <c r="C90" t="n">
-        <v>1.09554</v>
+        <v>1.07024</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33689</v>
+        <v>1.34919</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.08481</v>
+        <v>1.07721</v>
       </c>
       <c r="C91" t="n">
-        <v>1.10908</v>
+        <v>1.11902</v>
       </c>
       <c r="D91" t="n">
-        <v>1.40178</v>
+        <v>1.34587</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0998</v>
+        <v>1.10901</v>
       </c>
       <c r="C92" t="n">
-        <v>0.885682</v>
+        <v>0.867745</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12096</v>
+        <v>1.11417</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11551</v>
+        <v>1.12898</v>
       </c>
       <c r="C93" t="n">
-        <v>0.872533</v>
+        <v>0.897359</v>
       </c>
       <c r="D93" t="n">
-        <v>1.16559</v>
+        <v>1.14774</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16839</v>
+        <v>1.20702</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9234059999999999</v>
+        <v>0.891258</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19698</v>
+        <v>1.20831</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20285</v>
+        <v>1.16742</v>
       </c>
       <c r="C95" t="n">
-        <v>0.941661</v>
+        <v>0.944357</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2137</v>
+        <v>1.22051</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2008</v>
+        <v>1.20758</v>
       </c>
       <c r="C96" t="n">
-        <v>0.96791</v>
+        <v>0.975915</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27191</v>
+        <v>1.25377</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26055</v>
+        <v>1.26404</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02274</v>
+        <v>1.0168</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30658</v>
+        <v>1.30221</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.986053</v>
+        <v>0.972228</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04119</v>
+        <v>1.04468</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34785</v>
+        <v>1.34244</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995611</v>
+        <v>1.00013</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06977</v>
+        <v>1.03536</v>
       </c>
       <c r="D99" t="n">
-        <v>1.39839</v>
+        <v>1.40849</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03764</v>
+        <v>1.03922</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0986</v>
+        <v>1.10006</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40379</v>
+        <v>1.43147</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.04598</v>
+        <v>1.07053</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14018</v>
+        <v>1.1156</v>
       </c>
       <c r="D101" t="n">
-        <v>1.43966</v>
+        <v>1.43673</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09122</v>
+        <v>1.0892</v>
       </c>
       <c r="C102" t="n">
-        <v>1.15061</v>
+        <v>1.13519</v>
       </c>
       <c r="D102" t="n">
-        <v>1.48927</v>
+        <v>1.5043</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0836</v>
+        <v>1.11859</v>
       </c>
       <c r="C103" t="n">
-        <v>1.17942</v>
+        <v>1.18856</v>
       </c>
       <c r="D103" t="n">
-        <v>1.50197</v>
+        <v>1.5661</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.16337</v>
+        <v>1.12206</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21741</v>
+        <v>1.21519</v>
       </c>
       <c r="D104" t="n">
-        <v>1.58461</v>
+        <v>1.56009</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.16689</v>
+        <v>1.18874</v>
       </c>
       <c r="C105" t="n">
-        <v>1.28093</v>
+        <v>1.23394</v>
       </c>
       <c r="D105" t="n">
-        <v>1.61535</v>
+        <v>1.6086</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.19101</v>
+        <v>1.21497</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28881</v>
+        <v>1.28707</v>
       </c>
       <c r="D106" t="n">
-        <v>1.67031</v>
+        <v>1.70607</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24846</v>
+        <v>1.22127</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01749</v>
+        <v>1.0034</v>
       </c>
       <c r="D107" t="n">
-        <v>1.28679</v>
+        <v>1.3238</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.24904</v>
+        <v>1.2686</v>
       </c>
       <c r="C108" t="n">
-        <v>0.995788</v>
+        <v>1.0021</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31262</v>
+        <v>1.31265</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.28521</v>
+        <v>1.31101</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02568</v>
+        <v>1.04614</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3554</v>
+        <v>1.32813</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.29185</v>
+        <v>1.32559</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07894</v>
+        <v>1.05121</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39309</v>
+        <v>1.41049</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37491</v>
+        <v>1.36008</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07905</v>
+        <v>1.09297</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42493</v>
+        <v>1.4316</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.09179</v>
+        <v>1.04038</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0983</v>
+        <v>1.17321</v>
       </c>
       <c r="D112" t="n">
-        <v>1.44109</v>
+        <v>1.54853</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1532</v>
+        <v>1.09513</v>
       </c>
       <c r="C113" t="n">
-        <v>1.14557</v>
+        <v>1.16228</v>
       </c>
       <c r="D113" t="n">
-        <v>1.50552</v>
+        <v>1.52969</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.181</v>
+        <v>1.12587</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1752</v>
+        <v>1.22625</v>
       </c>
       <c r="D114" t="n">
-        <v>1.55513</v>
+        <v>1.62691</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.20321</v>
+        <v>1.1361</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19497</v>
+        <v>1.23551</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64254</v>
+        <v>1.61135</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.23351</v>
+        <v>1.17646</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2315</v>
+        <v>1.34253</v>
       </c>
       <c r="D116" t="n">
-        <v>1.65131</v>
+        <v>1.72076</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.25361</v>
+        <v>1.19677</v>
       </c>
       <c r="C117" t="n">
-        <v>1.33594</v>
+        <v>1.29137</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7737</v>
+        <v>1.68208</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.27422</v>
+        <v>1.22042</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29734</v>
+        <v>1.32629</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75651</v>
+        <v>1.74014</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32901</v>
+        <v>1.27282</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37073</v>
+        <v>1.3502</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81102</v>
+        <v>1.93594</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187024</v>
+        <v>0.186225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194319</v>
+        <v>0.190259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143497</v>
+        <v>0.14393</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193571</v>
+        <v>0.190152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189603</v>
+        <v>0.183495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142907</v>
+        <v>0.14928</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197622</v>
+        <v>0.193534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193134</v>
+        <v>0.195125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.150774</v>
+        <v>0.154488</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.203467</v>
+        <v>0.203494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209636</v>
+        <v>0.202865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154959</v>
+        <v>0.15333</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216512</v>
+        <v>0.212841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209406</v>
+        <v>0.207011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157632</v>
+        <v>0.155484</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.212476</v>
+        <v>0.221051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168417</v>
+        <v>0.166787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144162</v>
+        <v>0.139796</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212801</v>
+        <v>0.212342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.165988</v>
+        <v>0.166834</v>
       </c>
       <c r="D8" t="n">
-        <v>0.143603</v>
+        <v>0.145702</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225639</v>
+        <v>0.223703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173569</v>
+        <v>0.171753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14586</v>
+        <v>0.154562</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235743</v>
+        <v>0.226772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176789</v>
+        <v>0.173371</v>
       </c>
       <c r="D10" t="n">
-        <v>0.15119</v>
+        <v>0.14779</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233168</v>
+        <v>0.230942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175348</v>
+        <v>0.180511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.151849</v>
+        <v>0.150018</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.249797</v>
+        <v>0.247052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.179343</v>
+        <v>0.189594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149238</v>
+        <v>0.165749</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.195336</v>
+        <v>0.201548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.198265</v>
+        <v>0.19279</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155241</v>
+        <v>0.168375</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.192112</v>
+        <v>0.194102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19361</v>
+        <v>0.196793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159763</v>
+        <v>0.158867</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.196914</v>
+        <v>0.200213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20373</v>
+        <v>0.202604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163673</v>
+        <v>0.169853</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203822</v>
+        <v>0.205055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.207481</v>
+        <v>0.213469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171639</v>
+        <v>0.169804</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.212795</v>
+        <v>0.209275</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215591</v>
+        <v>0.211791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173322</v>
+        <v>0.174319</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.218354</v>
+        <v>0.212689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225709</v>
+        <v>0.218166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.169867</v>
+        <v>0.178322</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.212682</v>
+        <v>0.220636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221231</v>
+        <v>0.230196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.175493</v>
+        <v>0.179176</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.221674</v>
+        <v>0.229592</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238006</v>
+        <v>0.239676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.179452</v>
+        <v>0.186075</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.221368</v>
+        <v>0.230634</v>
       </c>
       <c r="C21" t="n">
-        <v>0.179535</v>
+        <v>0.183159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157513</v>
+        <v>0.156366</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227652</v>
+        <v>0.234307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.179527</v>
+        <v>0.185873</v>
       </c>
       <c r="D22" t="n">
-        <v>0.161659</v>
+        <v>0.166625</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.240362</v>
+        <v>0.245769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196786</v>
+        <v>0.188836</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1672</v>
+        <v>0.161112</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240675</v>
+        <v>0.255649</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1998</v>
+        <v>0.195569</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165794</v>
+        <v>0.166152</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.24331</v>
+        <v>0.256821</v>
       </c>
       <c r="C25" t="n">
-        <v>0.199802</v>
+        <v>0.204285</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165911</v>
+        <v>0.171507</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.263235</v>
+        <v>0.257771</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216369</v>
+        <v>0.208387</v>
       </c>
       <c r="D26" t="n">
-        <v>0.170895</v>
+        <v>0.172256</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221441</v>
+        <v>0.221922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.211919</v>
+        <v>0.214367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.173436</v>
+        <v>0.176378</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227144</v>
+        <v>0.23365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224853</v>
+        <v>0.217374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180488</v>
+        <v>0.179866</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.23631</v>
+        <v>0.246107</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22095</v>
+        <v>0.222885</v>
       </c>
       <c r="D29" t="n">
-        <v>0.184489</v>
+        <v>0.181874</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.239048</v>
+        <v>0.242965</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233839</v>
+        <v>0.230405</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19025</v>
+        <v>0.18881</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.248563</v>
+        <v>0.25589</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237353</v>
+        <v>0.240213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19413</v>
+        <v>0.199839</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26362</v>
+        <v>0.286149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.245091</v>
+        <v>0.260107</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199716</v>
+        <v>0.20908</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276424</v>
+        <v>0.278449</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256382</v>
+        <v>0.281835</v>
       </c>
       <c r="D33" t="n">
-        <v>0.194199</v>
+        <v>0.20634</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.280868</v>
+        <v>0.280369</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261271</v>
+        <v>0.286296</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208056</v>
+        <v>0.221411</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291582</v>
+        <v>0.28812</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215562</v>
+        <v>0.224697</v>
       </c>
       <c r="D35" t="n">
-        <v>0.184171</v>
+        <v>0.195885</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.306151</v>
+        <v>0.302486</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230599</v>
+        <v>0.231953</v>
       </c>
       <c r="D36" t="n">
-        <v>0.191987</v>
+        <v>0.198411</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.319922</v>
+        <v>0.312608</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234991</v>
+        <v>0.236604</v>
       </c>
       <c r="D37" t="n">
-        <v>0.202988</v>
+        <v>0.207449</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330389</v>
+        <v>0.322307</v>
       </c>
       <c r="C38" t="n">
-        <v>0.255945</v>
+        <v>0.26053</v>
       </c>
       <c r="D38" t="n">
-        <v>0.195243</v>
+        <v>0.210432</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.343471</v>
+        <v>0.342783</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257811</v>
+        <v>0.264717</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218506</v>
+        <v>0.215579</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.355951</v>
+        <v>0.360107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.266667</v>
+        <v>0.276607</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213773</v>
+        <v>0.22663</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317465</v>
+        <v>0.325407</v>
       </c>
       <c r="C41" t="n">
-        <v>0.271453</v>
+        <v>0.280451</v>
       </c>
       <c r="D41" t="n">
-        <v>0.22592</v>
+        <v>0.223626</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332867</v>
+        <v>0.329944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294596</v>
+        <v>0.298029</v>
       </c>
       <c r="D42" t="n">
-        <v>0.219188</v>
+        <v>0.226927</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.332199</v>
+        <v>0.338109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306605</v>
+        <v>0.312448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228356</v>
+        <v>0.228422</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.348139</v>
+        <v>0.344093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313781</v>
+        <v>0.317887</v>
       </c>
       <c r="D44" t="n">
-        <v>0.235245</v>
+        <v>0.234281</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.360299</v>
+        <v>0.356907</v>
       </c>
       <c r="C45" t="n">
-        <v>0.329866</v>
+        <v>0.322252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25208</v>
+        <v>0.242546</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.372637</v>
+        <v>0.380716</v>
       </c>
       <c r="C46" t="n">
-        <v>0.347888</v>
+        <v>0.340899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256745</v>
+        <v>0.253532</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.397383</v>
+        <v>0.381944</v>
       </c>
       <c r="C47" t="n">
-        <v>0.363008</v>
+        <v>0.364986</v>
       </c>
       <c r="D47" t="n">
-        <v>0.262001</v>
+        <v>0.257075</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.409695</v>
+        <v>0.399654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.385055</v>
+        <v>0.377788</v>
       </c>
       <c r="D48" t="n">
-        <v>0.268497</v>
+        <v>0.277641</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437454</v>
+        <v>0.42202</v>
       </c>
       <c r="C49" t="n">
-        <v>0.406887</v>
+        <v>0.39693</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288917</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.464268</v>
+        <v>0.440267</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312833</v>
+        <v>0.312536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241102</v>
+        <v>0.246803</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.462152</v>
+        <v>0.462988</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335874</v>
+        <v>0.321227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.252197</v>
+        <v>0.252015</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.485844</v>
+        <v>0.479096</v>
       </c>
       <c r="C52" t="n">
-        <v>0.356639</v>
+        <v>0.336172</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268077</v>
+        <v>0.260799</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514173</v>
+        <v>0.507266</v>
       </c>
       <c r="C53" t="n">
-        <v>0.369758</v>
+        <v>0.36053</v>
       </c>
       <c r="D53" t="n">
-        <v>0.279287</v>
+        <v>0.266309</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.537381</v>
+        <v>0.547816</v>
       </c>
       <c r="C54" t="n">
-        <v>0.393685</v>
+        <v>0.389019</v>
       </c>
       <c r="D54" t="n">
-        <v>0.275881</v>
+        <v>0.285613</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.580949</v>
+        <v>0.581741</v>
       </c>
       <c r="C55" t="n">
-        <v>0.39281</v>
+        <v>0.406894</v>
       </c>
       <c r="D55" t="n">
-        <v>0.285191</v>
+        <v>0.297506</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.511555</v>
+        <v>0.554122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.420097</v>
+        <v>0.411511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.289721</v>
+        <v>0.294264</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.54303</v>
+        <v>0.575047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.453499</v>
+        <v>0.448223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317018</v>
+        <v>0.315468</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.570246</v>
+        <v>0.583978</v>
       </c>
       <c r="C58" t="n">
-        <v>0.47282</v>
+        <v>0.463396</v>
       </c>
       <c r="D58" t="n">
-        <v>0.323261</v>
+        <v>0.318773</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.596271</v>
+        <v>0.633544</v>
       </c>
       <c r="C59" t="n">
-        <v>0.510043</v>
+        <v>0.505602</v>
       </c>
       <c r="D59" t="n">
-        <v>0.339826</v>
+        <v>0.346217</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.633484</v>
+        <v>0.660408</v>
       </c>
       <c r="C60" t="n">
-        <v>0.540122</v>
+        <v>0.549455</v>
       </c>
       <c r="D60" t="n">
-        <v>0.347657</v>
+        <v>0.362693</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.659952</v>
+        <v>0.706685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.56878</v>
+        <v>0.580377</v>
       </c>
       <c r="D61" t="n">
-        <v>0.368603</v>
+        <v>0.374694</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.688509</v>
+        <v>0.726919</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6207009999999999</v>
+        <v>0.618796</v>
       </c>
       <c r="D62" t="n">
-        <v>0.383695</v>
+        <v>0.385722</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7134200000000001</v>
+        <v>0.74683</v>
       </c>
       <c r="C63" t="n">
-        <v>0.657035</v>
+        <v>0.653301</v>
       </c>
       <c r="D63" t="n">
-        <v>0.397244</v>
+        <v>0.406303</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.755772</v>
+        <v>0.776986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.532853</v>
+        <v>0.534973</v>
       </c>
       <c r="D64" t="n">
-        <v>0.383506</v>
+        <v>0.386086</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.802608</v>
+        <v>0.801922</v>
       </c>
       <c r="C65" t="n">
-        <v>0.56302</v>
+        <v>0.565824</v>
       </c>
       <c r="D65" t="n">
-        <v>0.387476</v>
+        <v>0.398294</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.831971</v>
+        <v>0.84253</v>
       </c>
       <c r="C66" t="n">
-        <v>0.577572</v>
+        <v>0.602455</v>
       </c>
       <c r="D66" t="n">
-        <v>0.408554</v>
+        <v>0.409695</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.868391</v>
+        <v>0.8847660000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.614814</v>
+        <v>0.646577</v>
       </c>
       <c r="D67" t="n">
-        <v>0.435149</v>
+        <v>0.433215</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.926467</v>
+        <v>0.921929</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6346000000000001</v>
+        <v>0.665288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.454401</v>
+        <v>0.454374</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.965835</v>
+        <v>1.01584</v>
       </c>
       <c r="C69" t="n">
-        <v>0.692762</v>
+        <v>0.723239</v>
       </c>
       <c r="D69" t="n">
-        <v>0.467123</v>
+        <v>0.473974</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.78522</v>
+        <v>0.7940199999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7196</v>
+        <v>0.764883</v>
       </c>
       <c r="D70" t="n">
-        <v>0.50507</v>
+        <v>0.490362</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.834898</v>
+        <v>0.831885</v>
       </c>
       <c r="C71" t="n">
-        <v>0.774182</v>
+        <v>0.777497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5169</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.839909</v>
+        <v>0.835745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7831320000000001</v>
+        <v>0.824639</v>
       </c>
       <c r="D72" t="n">
-        <v>0.524042</v>
+        <v>0.553165</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.865274</v>
+        <v>0.928359</v>
       </c>
       <c r="C73" t="n">
-        <v>0.858062</v>
+        <v>0.8752220000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.569204</v>
+        <v>0.588023</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9376910000000001</v>
+        <v>0.930988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8904300000000001</v>
+        <v>0.872839</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5878370000000001</v>
+        <v>0.582722</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.975234</v>
+        <v>0.938411</v>
       </c>
       <c r="C75" t="n">
-        <v>0.933756</v>
+        <v>0.944719</v>
       </c>
       <c r="D75" t="n">
-        <v>0.620576</v>
+        <v>0.61525</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9660840000000001</v>
+        <v>0.986087</v>
       </c>
       <c r="C76" t="n">
-        <v>0.977371</v>
+        <v>0.999655</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6286350000000001</v>
+        <v>0.653183</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.03175</v>
+        <v>1.04851</v>
       </c>
       <c r="C77" t="n">
-        <v>1.04325</v>
+        <v>1.03384</v>
       </c>
       <c r="D77" t="n">
-        <v>0.680775</v>
+        <v>0.662739</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.07936</v>
+        <v>1.05402</v>
       </c>
       <c r="C78" t="n">
-        <v>0.829026</v>
+        <v>0.8447480000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.642469</v>
+        <v>0.65471</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.10935</v>
+        <v>1.10156</v>
       </c>
       <c r="C79" t="n">
-        <v>0.856921</v>
+        <v>0.84992</v>
       </c>
       <c r="D79" t="n">
-        <v>0.670544</v>
+        <v>0.615147</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15283</v>
+        <v>1.15213</v>
       </c>
       <c r="C80" t="n">
-        <v>0.865036</v>
+        <v>0.884166</v>
       </c>
       <c r="D80" t="n">
-        <v>0.658397</v>
+        <v>0.67523</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19435</v>
+        <v>1.17111</v>
       </c>
       <c r="C81" t="n">
-        <v>0.89456</v>
+        <v>0.937931</v>
       </c>
       <c r="D81" t="n">
-        <v>0.673053</v>
+        <v>0.678836</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26186</v>
+        <v>1.22212</v>
       </c>
       <c r="C82" t="n">
-        <v>0.927073</v>
+        <v>0.947271</v>
       </c>
       <c r="D82" t="n">
-        <v>0.710009</v>
+        <v>0.697777</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.27095</v>
+        <v>1.24529</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9537679999999999</v>
+        <v>0.971816</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7295</v>
+        <v>0.72866</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.994819</v>
+        <v>0.98267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00341</v>
+        <v>0.969415</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7468399999999999</v>
+        <v>0.74013</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.996609</v>
+        <v>0.987872</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01977</v>
+        <v>1.02963</v>
       </c>
       <c r="D85" t="n">
-        <v>0.792598</v>
+        <v>0.760302</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02677</v>
+        <v>1.02992</v>
       </c>
       <c r="C86" t="n">
-        <v>1.05142</v>
+        <v>1.07797</v>
       </c>
       <c r="D86" t="n">
-        <v>0.78017</v>
+        <v>0.784853</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.06548</v>
+        <v>1.05991</v>
       </c>
       <c r="C87" t="n">
-        <v>1.10662</v>
+        <v>1.14594</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822109</v>
+        <v>0.81873</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.1039</v>
+        <v>1.08411</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17169</v>
+        <v>1.18253</v>
       </c>
       <c r="D88" t="n">
-        <v>0.829836</v>
+        <v>0.823524</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.11778</v>
+        <v>1.13284</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21604</v>
+        <v>1.21348</v>
       </c>
       <c r="D89" t="n">
-        <v>0.857106</v>
+        <v>0.866507</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15306</v>
+        <v>1.15599</v>
       </c>
       <c r="C90" t="n">
-        <v>1.24974</v>
+        <v>1.25417</v>
       </c>
       <c r="D90" t="n">
-        <v>0.916307</v>
+        <v>0.909058</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1932</v>
+        <v>1.18778</v>
       </c>
       <c r="C91" t="n">
-        <v>1.30649</v>
+        <v>1.29157</v>
       </c>
       <c r="D91" t="n">
-        <v>0.938338</v>
+        <v>0.938442</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.23301</v>
+        <v>1.22486</v>
       </c>
       <c r="C92" t="n">
-        <v>0.962927</v>
+        <v>0.965471</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7958</v>
+        <v>0.790097</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.30434</v>
+        <v>1.24474</v>
       </c>
       <c r="C93" t="n">
-        <v>1.01472</v>
+        <v>1.0033</v>
       </c>
       <c r="D93" t="n">
-        <v>0.825777</v>
+        <v>0.8391690000000001</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.30943</v>
+        <v>1.33196</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02303</v>
+        <v>1.02548</v>
       </c>
       <c r="D94" t="n">
-        <v>0.835942</v>
+        <v>0.847172</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33084</v>
+        <v>1.35323</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05971</v>
+        <v>1.04223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.892056</v>
+        <v>0.85379</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.3959</v>
+        <v>1.37526</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0661</v>
+        <v>1.08389</v>
       </c>
       <c r="D96" t="n">
-        <v>0.879912</v>
+        <v>0.869831</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.43149</v>
+        <v>1.44669</v>
       </c>
       <c r="C97" t="n">
-        <v>1.13068</v>
+        <v>1.09006</v>
       </c>
       <c r="D97" t="n">
-        <v>0.926357</v>
+        <v>0.91116</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05921</v>
+        <v>1.06101</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.13905</v>
       </c>
       <c r="D98" t="n">
-        <v>0.941065</v>
+        <v>0.936337</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.09484</v>
+        <v>1.09318</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18388</v>
+        <v>1.20755</v>
       </c>
       <c r="D99" t="n">
-        <v>0.968898</v>
+        <v>0.96802</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14385</v>
+        <v>1.13357</v>
       </c>
       <c r="C100" t="n">
-        <v>1.2122</v>
+        <v>1.24721</v>
       </c>
       <c r="D100" t="n">
-        <v>0.977165</v>
+        <v>0.993309</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16065</v>
+        <v>1.16623</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26316</v>
+        <v>1.26728</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01118</v>
+        <v>1.00774</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.16776</v>
+        <v>1.18166</v>
       </c>
       <c r="C102" t="n">
-        <v>1.302</v>
+        <v>1.29792</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03033</v>
+        <v>1.02405</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.20357</v>
+        <v>1.2051</v>
       </c>
       <c r="C103" t="n">
-        <v>1.31663</v>
+        <v>1.37168</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05488</v>
+        <v>1.05724</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.22996</v>
+        <v>1.22736</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39612</v>
+        <v>1.3721</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07222</v>
+        <v>1.09469</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.27464</v>
+        <v>1.26758</v>
       </c>
       <c r="C105" t="n">
-        <v>1.46312</v>
+        <v>1.48562</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12233</v>
+        <v>1.10558</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.3223</v>
+        <v>1.29421</v>
       </c>
       <c r="C106" t="n">
-        <v>1.49701</v>
+        <v>1.5044</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16151</v>
+        <v>1.16803</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36125</v>
+        <v>1.40822</v>
       </c>
       <c r="C107" t="n">
-        <v>1.09429</v>
+        <v>1.08957</v>
       </c>
       <c r="D107" t="n">
-        <v>0.943626</v>
+        <v>0.930801</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38697</v>
+        <v>1.37522</v>
       </c>
       <c r="C108" t="n">
-        <v>1.14691</v>
+        <v>1.1042</v>
       </c>
       <c r="D108" t="n">
-        <v>0.96833</v>
+        <v>0.966198</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43444</v>
+        <v>1.46114</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12978</v>
+        <v>1.13925</v>
       </c>
       <c r="D109" t="n">
-        <v>0.996163</v>
+        <v>0.96336</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.4861</v>
+        <v>1.49168</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20412</v>
+        <v>1.15732</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00881</v>
+        <v>1.01901</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.52202</v>
+        <v>1.57475</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20167</v>
+        <v>1.2111</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0096</v>
+        <v>1.02401</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12333</v>
+        <v>1.14558</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22509</v>
+        <v>1.24121</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05842</v>
+        <v>1.06307</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17151</v>
+        <v>1.17688</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28475</v>
+        <v>1.27783</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08872</v>
+        <v>1.05901</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21289</v>
+        <v>1.17023</v>
       </c>
       <c r="C114" t="n">
-        <v>1.29773</v>
+        <v>1.33219</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09245</v>
+        <v>1.10545</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.22476</v>
+        <v>1.21896</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35715</v>
+        <v>1.35358</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09989</v>
+        <v>1.11113</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.265</v>
+        <v>1.26412</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42926</v>
+        <v>1.42717</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16828</v>
+        <v>1.14157</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30611</v>
+        <v>1.29231</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4309</v>
+        <v>1.5019</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19544</v>
+        <v>1.1835</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.36383</v>
+        <v>1.34261</v>
       </c>
       <c r="C118" t="n">
-        <v>1.51916</v>
+        <v>1.50418</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22198</v>
+        <v>1.20649</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.38774</v>
+        <v>1.38569</v>
       </c>
       <c r="C119" t="n">
-        <v>1.55593</v>
+        <v>1.58074</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26044</v>
+        <v>1.2406</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5740730000000001</v>
+        <v>0.556276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.449521</v>
+        <v>0.423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245773</v>
+        <v>0.238652</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.366855</v>
+        <v>0.372821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.459466</v>
+        <v>0.4592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246763</v>
+        <v>0.251885</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.381308</v>
+        <v>0.387915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.479864</v>
+        <v>0.496955</v>
       </c>
       <c r="D4" t="n">
-        <v>0.264327</v>
+        <v>0.264383</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.407572</v>
+        <v>0.397923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.518253</v>
+        <v>0.496624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274539</v>
+        <v>0.283753</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.435661</v>
+        <v>0.424243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.515841</v>
+        <v>0.530914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.297002</v>
+        <v>0.282233</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.446086</v>
+        <v>0.442722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.549464</v>
+        <v>0.569567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.277244</v>
+        <v>0.288487</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.457341</v>
+        <v>0.458996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5653319999999999</v>
+        <v>0.556766</v>
       </c>
       <c r="D8" t="n">
-        <v>0.295002</v>
+        <v>0.284785</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.506875</v>
+        <v>0.495269</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5955510000000001</v>
+        <v>0.617803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31074</v>
+        <v>0.312266</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508251</v>
+        <v>0.509873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.627231</v>
+        <v>0.644935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.320092</v>
+        <v>0.317459</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.560024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.403975</v>
+        <v>0.402632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243738</v>
+        <v>0.239754</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.57047</v>
+        <v>0.580297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.414313</v>
+        <v>0.427118</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254745</v>
+        <v>0.245861</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.623829</v>
+        <v>0.607927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.442844</v>
+        <v>0.453847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255155</v>
+        <v>0.255302</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.628713</v>
+        <v>0.637294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.462288</v>
+        <v>0.455676</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260863</v>
+        <v>0.260802</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.64727</v>
+        <v>0.661711</v>
       </c>
       <c r="C15" t="n">
-        <v>0.486094</v>
+        <v>0.487967</v>
       </c>
       <c r="D15" t="n">
-        <v>0.292249</v>
+        <v>0.273512</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6825599999999999</v>
+        <v>0.7046289999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.55748</v>
+        <v>0.515885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.292731</v>
+        <v>0.284539</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.426244</v>
+        <v>0.430715</v>
       </c>
       <c r="C17" t="n">
-        <v>0.53851</v>
+        <v>0.530276</v>
       </c>
       <c r="D17" t="n">
-        <v>0.299784</v>
+        <v>0.299456</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.449973</v>
+        <v>0.473982</v>
       </c>
       <c r="C18" t="n">
-        <v>0.575304</v>
+        <v>0.563376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.310758</v>
+        <v>0.31275</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.482374</v>
+        <v>0.477563</v>
       </c>
       <c r="C19" t="n">
-        <v>0.591166</v>
+        <v>0.592266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.317435</v>
+        <v>0.313777</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.494876</v>
+        <v>0.498317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.598309</v>
+        <v>0.624988</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32974</v>
+        <v>0.342971</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.515222</v>
+        <v>0.515536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.670727</v>
+        <v>0.644952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341401</v>
+        <v>0.339814</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.530573</v>
+        <v>0.559839</v>
       </c>
       <c r="C22" t="n">
-        <v>0.663388</v>
+        <v>0.689046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.355643</v>
+        <v>0.374397</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.572983</v>
+        <v>0.566831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.702664</v>
+        <v>0.711249</v>
       </c>
       <c r="D23" t="n">
-        <v>0.359484</v>
+        <v>0.367915</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.590642</v>
+        <v>0.601731</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7271069999999999</v>
+        <v>0.74373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.377339</v>
+        <v>0.385498</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631056</v>
+        <v>0.6297739999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.752809</v>
+        <v>0.792472</v>
       </c>
       <c r="D25" t="n">
-        <v>0.397113</v>
+        <v>0.401413</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.643335</v>
+        <v>0.676118</v>
       </c>
       <c r="C26" t="n">
-        <v>0.468614</v>
+        <v>0.485318</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277231</v>
+        <v>0.285518</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.678408</v>
+        <v>0.684806</v>
       </c>
       <c r="C27" t="n">
-        <v>0.511232</v>
+        <v>0.53235</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293502</v>
+        <v>0.291981</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.691003</v>
+        <v>0.738036</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5144</v>
+        <v>0.516034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.304123</v>
+        <v>0.306487</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730972</v>
+        <v>0.758203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.533293</v>
+        <v>0.5540079999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.315478</v>
+        <v>0.321307</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.739147</v>
+        <v>0.794457</v>
       </c>
       <c r="C30" t="n">
-        <v>0.560869</v>
+        <v>0.582126</v>
       </c>
       <c r="D30" t="n">
-        <v>0.327038</v>
+        <v>0.338925</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.774976</v>
+        <v>0.897442</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6293840000000001</v>
+        <v>0.620151</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331303</v>
+        <v>0.345085</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.488778</v>
+        <v>0.536315</v>
       </c>
       <c r="C32" t="n">
-        <v>0.614708</v>
+        <v>0.688262</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348508</v>
+        <v>0.351844</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.521377</v>
+        <v>0.550832</v>
       </c>
       <c r="C33" t="n">
-        <v>0.661771</v>
+        <v>0.682957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.36441</v>
+        <v>0.375604</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.536423</v>
+        <v>0.603615</v>
       </c>
       <c r="C34" t="n">
-        <v>0.720251</v>
+        <v>0.71829</v>
       </c>
       <c r="D34" t="n">
-        <v>0.390841</v>
+        <v>0.397344</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.592579</v>
+        <v>0.627048</v>
       </c>
       <c r="C35" t="n">
-        <v>0.777044</v>
+        <v>0.753261</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404703</v>
+        <v>0.38546</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.608849</v>
+        <v>0.645599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.777367</v>
+        <v>0.810456</v>
       </c>
       <c r="D36" t="n">
-        <v>0.414712</v>
+        <v>0.430436</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.673475</v>
+        <v>0.705159</v>
       </c>
       <c r="C37" t="n">
-        <v>0.841288</v>
+        <v>0.867986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.421606</v>
+        <v>0.45527</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.692114</v>
+        <v>0.75627</v>
       </c>
       <c r="C38" t="n">
-        <v>0.88868</v>
+        <v>0.940686</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452801</v>
+        <v>0.472315</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7427859999999999</v>
+        <v>0.787972</v>
       </c>
       <c r="C39" t="n">
-        <v>0.930884</v>
+        <v>0.988818</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4748</v>
+        <v>0.49916</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.831394</v>
+        <v>0.8865690000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.589466</v>
+        <v>0.599532</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35624</v>
+        <v>0.373423</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.879412</v>
+        <v>0.885601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.620111</v>
+        <v>0.647342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.369147</v>
+        <v>0.38619</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9180430000000001</v>
+        <v>0.962731</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649237</v>
+        <v>0.669811</v>
       </c>
       <c r="D42" t="n">
-        <v>0.381615</v>
+        <v>0.40686</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.966347</v>
+        <v>1.05012</v>
       </c>
       <c r="C43" t="n">
-        <v>0.69425</v>
+        <v>0.718599</v>
       </c>
       <c r="D43" t="n">
-        <v>0.40468</v>
+        <v>0.450793</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.997238</v>
+        <v>1.0701</v>
       </c>
       <c r="C44" t="n">
-        <v>0.752851</v>
+        <v>0.7399289999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.433553</v>
+        <v>0.458316</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.09418</v>
+        <v>1.14058</v>
       </c>
       <c r="C45" t="n">
-        <v>0.796573</v>
+        <v>0.801607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.464396</v>
+        <v>0.47674</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.706796</v>
+        <v>0.705013</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8395629999999999</v>
+        <v>0.837203</v>
       </c>
       <c r="D46" t="n">
-        <v>0.464781</v>
+        <v>0.477123</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.746126</v>
+        <v>0.7889</v>
       </c>
       <c r="C47" t="n">
-        <v>0.887801</v>
+        <v>0.9011400000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.506422</v>
+        <v>0.5096079999999999</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.818417</v>
+        <v>0.816539</v>
       </c>
       <c r="C48" t="n">
-        <v>0.96092</v>
+        <v>0.979927</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53088</v>
+        <v>0.5326650000000001</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.842894</v>
+        <v>0.863272</v>
       </c>
       <c r="C49" t="n">
-        <v>1.05284</v>
+        <v>1.02952</v>
       </c>
       <c r="D49" t="n">
-        <v>0.569033</v>
+        <v>0.583974</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.882004</v>
+        <v>0.906439</v>
       </c>
       <c r="C50" t="n">
-        <v>1.13157</v>
+        <v>1.11512</v>
       </c>
       <c r="D50" t="n">
-        <v>0.585688</v>
+        <v>0.599294</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.961614</v>
+        <v>0.98264</v>
       </c>
       <c r="C51" t="n">
-        <v>1.13147</v>
+        <v>1.20713</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63897</v>
+        <v>0.648683</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.05138</v>
+        <v>1.05318</v>
       </c>
       <c r="C52" t="n">
-        <v>1.27458</v>
+        <v>1.28525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.671358</v>
+        <v>0.687971</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.09358</v>
+        <v>1.0998</v>
       </c>
       <c r="C53" t="n">
-        <v>1.37787</v>
+        <v>1.38871</v>
       </c>
       <c r="D53" t="n">
-        <v>0.72293</v>
+        <v>0.718228</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15208</v>
+        <v>1.21815</v>
       </c>
       <c r="C54" t="n">
-        <v>0.851356</v>
+        <v>0.867362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.491991</v>
+        <v>0.5019940000000001</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26415</v>
+        <v>1.31056</v>
       </c>
       <c r="C55" t="n">
-        <v>0.884989</v>
+        <v>0.904762</v>
       </c>
       <c r="D55" t="n">
-        <v>0.513837</v>
+        <v>0.519284</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.33234</v>
+        <v>1.38412</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9497679999999999</v>
+        <v>0.957798</v>
       </c>
       <c r="D56" t="n">
-        <v>0.536474</v>
+        <v>0.55123</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4385</v>
+        <v>1.50439</v>
       </c>
       <c r="C57" t="n">
-        <v>1.01055</v>
+        <v>1.0471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.571043</v>
+        <v>0.580756</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.5614</v>
+        <v>1.60832</v>
       </c>
       <c r="C58" t="n">
-        <v>1.11944</v>
+        <v>1.13826</v>
       </c>
       <c r="D58" t="n">
-        <v>0.622331</v>
+        <v>0.629242</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.67244</v>
+        <v>1.70538</v>
       </c>
       <c r="C59" t="n">
-        <v>1.21975</v>
+        <v>1.20593</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646683</v>
+        <v>0.686686</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11454</v>
+        <v>1.10862</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30079</v>
+        <v>1.29539</v>
       </c>
       <c r="D60" t="n">
-        <v>0.684043</v>
+        <v>0.68394</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.22179</v>
+        <v>1.15647</v>
       </c>
       <c r="C61" t="n">
-        <v>1.43033</v>
+        <v>1.45952</v>
       </c>
       <c r="D61" t="n">
-        <v>0.73232</v>
+        <v>0.726704</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.27635</v>
+        <v>1.30155</v>
       </c>
       <c r="C62" t="n">
-        <v>1.55947</v>
+        <v>1.58742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.766306</v>
+        <v>0.80245</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.40361</v>
+        <v>1.46013</v>
       </c>
       <c r="C63" t="n">
-        <v>1.67784</v>
+        <v>1.72182</v>
       </c>
       <c r="D63" t="n">
-        <v>0.828078</v>
+        <v>0.830956</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.52224</v>
+        <v>1.47997</v>
       </c>
       <c r="C64" t="n">
-        <v>1.82056</v>
+        <v>1.82911</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8726660000000001</v>
+        <v>0.926119</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.62777</v>
+        <v>1.63103</v>
       </c>
       <c r="C65" t="n">
-        <v>1.9723</v>
+        <v>2.09942</v>
       </c>
       <c r="D65" t="n">
-        <v>0.950919</v>
+        <v>0.950875</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.7965</v>
+        <v>1.78255</v>
       </c>
       <c r="C66" t="n">
-        <v>2.18795</v>
+        <v>2.29482</v>
       </c>
       <c r="D66" t="n">
-        <v>1.00569</v>
+        <v>1.04851</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.00055</v>
+        <v>1.95609</v>
       </c>
       <c r="C67" t="n">
-        <v>2.42985</v>
+        <v>2.50458</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03984</v>
+        <v>1.13101</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.08093</v>
+        <v>2.13462</v>
       </c>
       <c r="C68" t="n">
-        <v>1.43277</v>
+        <v>1.53017</v>
       </c>
       <c r="D68" t="n">
-        <v>0.734722</v>
+        <v>0.740496</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.28261</v>
+        <v>2.36398</v>
       </c>
       <c r="C69" t="n">
-        <v>1.55145</v>
+        <v>1.64572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.781439</v>
+        <v>0.818402</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.47979</v>
+        <v>2.45673</v>
       </c>
       <c r="C70" t="n">
-        <v>1.73314</v>
+        <v>1.75388</v>
       </c>
       <c r="D70" t="n">
-        <v>0.83993</v>
+        <v>0.852086</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.65324</v>
+        <v>2.66223</v>
       </c>
       <c r="C71" t="n">
-        <v>1.85921</v>
+        <v>1.92719</v>
       </c>
       <c r="D71" t="n">
-        <v>0.899742</v>
+        <v>0.936426</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.92308</v>
+        <v>2.89165</v>
       </c>
       <c r="C72" t="n">
-        <v>2.03222</v>
+        <v>2.10492</v>
       </c>
       <c r="D72" t="n">
-        <v>0.972388</v>
+        <v>0.999992</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.18573</v>
+        <v>3.10301</v>
       </c>
       <c r="C73" t="n">
-        <v>2.18824</v>
+        <v>2.26517</v>
       </c>
       <c r="D73" t="n">
-        <v>1.04385</v>
+        <v>1.04736</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.90596</v>
+        <v>2.05315</v>
       </c>
       <c r="C74" t="n">
-        <v>2.31775</v>
+        <v>2.40994</v>
       </c>
       <c r="D74" t="n">
-        <v>1.08614</v>
+        <v>1.1198</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.02584</v>
+        <v>2.12057</v>
       </c>
       <c r="C75" t="n">
-        <v>2.58716</v>
+        <v>2.66572</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1636</v>
+        <v>1.2221</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.16332</v>
+        <v>2.26117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.79496</v>
+        <v>2.83687</v>
       </c>
       <c r="D76" t="n">
-        <v>1.32912</v>
+        <v>1.27927</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.34177</v>
+        <v>2.36259</v>
       </c>
       <c r="C77" t="n">
-        <v>2.84485</v>
+        <v>3.01164</v>
       </c>
       <c r="D77" t="n">
-        <v>1.34306</v>
+        <v>1.33543</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.52183</v>
+        <v>2.53439</v>
       </c>
       <c r="C78" t="n">
-        <v>3.12051</v>
+        <v>3.23858</v>
       </c>
       <c r="D78" t="n">
-        <v>1.39344</v>
+        <v>1.44202</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.63127</v>
+        <v>2.78402</v>
       </c>
       <c r="C79" t="n">
-        <v>3.31386</v>
+        <v>3.47346</v>
       </c>
       <c r="D79" t="n">
-        <v>1.51357</v>
+        <v>1.5251</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.71809</v>
+        <v>3.00098</v>
       </c>
       <c r="C80" t="n">
-        <v>3.52061</v>
+        <v>3.73443</v>
       </c>
       <c r="D80" t="n">
-        <v>1.60441</v>
+        <v>1.64181</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.93277</v>
+        <v>2.99459</v>
       </c>
       <c r="C81" t="n">
-        <v>3.7049</v>
+        <v>3.81194</v>
       </c>
       <c r="D81" t="n">
-        <v>1.6827</v>
+        <v>1.68016</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.10613</v>
+        <v>3.14012</v>
       </c>
       <c r="C82" t="n">
-        <v>4.00762</v>
+        <v>4.0095</v>
       </c>
       <c r="D82" t="n">
-        <v>1.83496</v>
+        <v>1.80244</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.34931</v>
+        <v>3.39897</v>
       </c>
       <c r="C83" t="n">
-        <v>2.37574</v>
+        <v>2.36027</v>
       </c>
       <c r="D83" t="n">
-        <v>1.22387</v>
+        <v>1.26837</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.50696</v>
+        <v>3.63728</v>
       </c>
       <c r="C84" t="n">
-        <v>2.49534</v>
+        <v>2.56166</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29922</v>
+        <v>1.28136</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.73627</v>
+        <v>3.82593</v>
       </c>
       <c r="C85" t="n">
-        <v>2.61078</v>
+        <v>2.62334</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36926</v>
+        <v>1.35468</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.94453</v>
+        <v>4.04716</v>
       </c>
       <c r="C86" t="n">
-        <v>2.87229</v>
+        <v>2.90251</v>
       </c>
       <c r="D86" t="n">
-        <v>1.4482</v>
+        <v>1.42698</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.19255</v>
+        <v>4.14601</v>
       </c>
       <c r="C87" t="n">
-        <v>2.89051</v>
+        <v>2.94231</v>
       </c>
       <c r="D87" t="n">
-        <v>1.48817</v>
+        <v>1.48602</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.31109</v>
+        <v>4.39091</v>
       </c>
       <c r="C88" t="n">
-        <v>3.13556</v>
+        <v>3.27926</v>
       </c>
       <c r="D88" t="n">
-        <v>1.6033</v>
+        <v>1.58951</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.63425</v>
+        <v>2.60839</v>
       </c>
       <c r="C89" t="n">
-        <v>3.34902</v>
+        <v>3.28411</v>
       </c>
       <c r="D89" t="n">
-        <v>1.66195</v>
+        <v>1.64822</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.75816</v>
+        <v>2.7447</v>
       </c>
       <c r="C90" t="n">
-        <v>3.48284</v>
+        <v>3.52218</v>
       </c>
       <c r="D90" t="n">
-        <v>1.81597</v>
+        <v>1.74539</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.9352</v>
+        <v>2.84</v>
       </c>
       <c r="C91" t="n">
-        <v>3.80273</v>
+        <v>3.66833</v>
       </c>
       <c r="D91" t="n">
-        <v>1.87286</v>
+        <v>1.81987</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.0276</v>
+        <v>2.9863</v>
       </c>
       <c r="C92" t="n">
-        <v>4.14049</v>
+        <v>3.95258</v>
       </c>
       <c r="D92" t="n">
-        <v>1.94327</v>
+        <v>1.95122</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.2511</v>
+        <v>3.20378</v>
       </c>
       <c r="C93" t="n">
-        <v>4.25706</v>
+        <v>4.15536</v>
       </c>
       <c r="D93" t="n">
-        <v>2.05107</v>
+        <v>2.06886</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.44428</v>
+        <v>3.34025</v>
       </c>
       <c r="C94" t="n">
-        <v>4.55067</v>
+        <v>4.44298</v>
       </c>
       <c r="D94" t="n">
-        <v>2.12758</v>
+        <v>2.17707</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.63648</v>
+        <v>3.53091</v>
       </c>
       <c r="C95" t="n">
-        <v>4.75415</v>
+        <v>4.64083</v>
       </c>
       <c r="D95" t="n">
-        <v>2.19606</v>
+        <v>2.26434</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.81303</v>
+        <v>3.77254</v>
       </c>
       <c r="C96" t="n">
-        <v>5.02541</v>
+        <v>4.90948</v>
       </c>
       <c r="D96" t="n">
-        <v>2.31052</v>
+        <v>2.30941</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.00256</v>
+        <v>3.91412</v>
       </c>
       <c r="C97" t="n">
-        <v>2.8513</v>
+        <v>2.79257</v>
       </c>
       <c r="D97" t="n">
-        <v>1.61558</v>
+        <v>1.62392</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.10361</v>
+        <v>4.19704</v>
       </c>
       <c r="C98" t="n">
-        <v>2.98523</v>
+        <v>2.9586</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6518</v>
+        <v>1.66603</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.39669</v>
+        <v>4.37874</v>
       </c>
       <c r="C99" t="n">
-        <v>3.16587</v>
+        <v>3.19996</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70464</v>
+        <v>1.76418</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.61911</v>
+        <v>4.52312</v>
       </c>
       <c r="C100" t="n">
-        <v>3.26799</v>
+        <v>3.22307</v>
       </c>
       <c r="D100" t="n">
-        <v>1.80196</v>
+        <v>1.78975</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82302</v>
+        <v>4.74249</v>
       </c>
       <c r="C101" t="n">
-        <v>3.49294</v>
+        <v>3.36577</v>
       </c>
       <c r="D101" t="n">
-        <v>1.90631</v>
+        <v>1.88571</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.09733</v>
+        <v>5.03023</v>
       </c>
       <c r="C102" t="n">
-        <v>3.66485</v>
+        <v>3.63868</v>
       </c>
       <c r="D102" t="n">
-        <v>1.9604</v>
+        <v>1.99293</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.97741</v>
+        <v>2.90531</v>
       </c>
       <c r="C103" t="n">
-        <v>3.86217</v>
+        <v>3.80662</v>
       </c>
       <c r="D103" t="n">
-        <v>2.06292</v>
+        <v>2.0571</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.08574</v>
+        <v>3.04816</v>
       </c>
       <c r="C104" t="n">
-        <v>4.0426</v>
+        <v>4.02053</v>
       </c>
       <c r="D104" t="n">
-        <v>2.12691</v>
+        <v>2.12447</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.23278</v>
+        <v>3.21483</v>
       </c>
       <c r="C105" t="n">
-        <v>4.23188</v>
+        <v>4.21847</v>
       </c>
       <c r="D105" t="n">
-        <v>2.21698</v>
+        <v>2.22399</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.4436</v>
+        <v>3.37015</v>
       </c>
       <c r="C106" t="n">
-        <v>4.51913</v>
+        <v>4.47479</v>
       </c>
       <c r="D106" t="n">
-        <v>2.28125</v>
+        <v>2.34235</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.6046</v>
+        <v>3.55424</v>
       </c>
       <c r="C107" t="n">
-        <v>4.68291</v>
+        <v>4.73203</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39599</v>
+        <v>2.4432</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.71728</v>
+        <v>3.67778</v>
       </c>
       <c r="C108" t="n">
-        <v>4.95135</v>
+        <v>4.89771</v>
       </c>
       <c r="D108" t="n">
-        <v>2.50487</v>
+        <v>2.52253</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.90355</v>
+        <v>3.90615</v>
       </c>
       <c r="C109" t="n">
-        <v>5.19258</v>
+        <v>5.2156</v>
       </c>
       <c r="D109" t="n">
-        <v>2.60247</v>
+        <v>2.62635</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.09349</v>
+        <v>4.0653</v>
       </c>
       <c r="C110" t="n">
-        <v>5.52274</v>
+        <v>5.4132</v>
       </c>
       <c r="D110" t="n">
-        <v>2.7746</v>
+        <v>2.71398</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.2754</v>
+        <v>4.314</v>
       </c>
       <c r="C111" t="n">
-        <v>3.07404</v>
+        <v>3.04366</v>
       </c>
       <c r="D111" t="n">
-        <v>1.89035</v>
+        <v>1.87734</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.5178</v>
+        <v>4.48923</v>
       </c>
       <c r="C112" t="n">
-        <v>3.24933</v>
+        <v>3.21467</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95694</v>
+        <v>1.92548</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.66725</v>
+        <v>4.66937</v>
       </c>
       <c r="C113" t="n">
-        <v>3.32927</v>
+        <v>3.37287</v>
       </c>
       <c r="D113" t="n">
-        <v>2.07414</v>
+        <v>2.0877</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.95967</v>
+        <v>4.88186</v>
       </c>
       <c r="C114" t="n">
-        <v>3.52025</v>
+        <v>3.51968</v>
       </c>
       <c r="D114" t="n">
-        <v>2.11497</v>
+        <v>2.04897</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.20661</v>
+        <v>5.23245</v>
       </c>
       <c r="C115" t="n">
-        <v>3.74281</v>
+        <v>3.6812</v>
       </c>
       <c r="D115" t="n">
-        <v>2.14564</v>
+        <v>2.22468</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.35971</v>
+        <v>5.37523</v>
       </c>
       <c r="C116" t="n">
-        <v>3.90649</v>
+        <v>3.89986</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28945</v>
+        <v>2.24895</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.11004</v>
+        <v>3.10172</v>
       </c>
       <c r="C117" t="n">
-        <v>4.10777</v>
+        <v>4.13695</v>
       </c>
       <c r="D117" t="n">
-        <v>2.37822</v>
+        <v>2.36952</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.28296</v>
+        <v>3.24629</v>
       </c>
       <c r="C118" t="n">
-        <v>4.31575</v>
+        <v>4.33437</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4893</v>
+        <v>2.52143</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.42541</v>
+        <v>3.42496</v>
       </c>
       <c r="C119" t="n">
-        <v>4.52611</v>
+        <v>4.53326</v>
       </c>
       <c r="D119" t="n">
-        <v>2.55843</v>
+        <v>2.58584</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.223725</v>
+        <v>0.22988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216165</v>
+        <v>0.213157</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237301</v>
+        <v>0.234616</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228671</v>
+        <v>0.234023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210778</v>
+        <v>0.21021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241829</v>
+        <v>0.234296</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239672</v>
+        <v>0.229759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226491</v>
+        <v>0.215924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249646</v>
+        <v>0.240173</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243236</v>
+        <v>0.240317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232124</v>
+        <v>0.226872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257818</v>
+        <v>0.247469</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.247776</v>
+        <v>0.244273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224647</v>
+        <v>0.224408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26304</v>
+        <v>0.257493</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248339</v>
+        <v>0.248227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.190151</v>
+        <v>0.184757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220347</v>
+        <v>0.222017</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.255142</v>
+        <v>0.255666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.189665</v>
+        <v>0.199975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236611</v>
+        <v>0.215728</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260022</v>
+        <v>0.255072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196959</v>
+        <v>0.198597</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228546</v>
+        <v>0.232192</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.26396</v>
+        <v>0.255835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201008</v>
+        <v>0.201901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245314</v>
+        <v>0.239148</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272138</v>
+        <v>0.261706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.202832</v>
+        <v>0.217254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249378</v>
+        <v>0.246258</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.269212</v>
+        <v>0.2702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223233</v>
+        <v>0.218368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255224</v>
+        <v>0.254073</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227455</v>
+        <v>0.226276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219358</v>
+        <v>0.22144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252108</v>
+        <v>0.263207</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.229782</v>
+        <v>0.223671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225867</v>
+        <v>0.223126</v>
       </c>
       <c r="D14" t="n">
-        <v>0.261948</v>
+        <v>0.254358</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.239257</v>
+        <v>0.234371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227938</v>
+        <v>0.225614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276358</v>
+        <v>0.274923</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239547</v>
+        <v>0.238621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243527</v>
+        <v>0.230757</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279721</v>
+        <v>0.273065</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257005</v>
+        <v>0.256423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242193</v>
+        <v>0.239944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294785</v>
+        <v>0.287506</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.246313</v>
+        <v>0.250615</v>
       </c>
       <c r="C18" t="n">
-        <v>0.256427</v>
+        <v>0.240583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289217</v>
+        <v>0.292766</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255662</v>
+        <v>0.267752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249537</v>
+        <v>0.24379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298084</v>
+        <v>0.307125</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.251429</v>
+        <v>0.252222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252903</v>
+        <v>0.250175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307515</v>
+        <v>0.297005</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263123</v>
+        <v>0.263445</v>
       </c>
       <c r="C21" t="n">
-        <v>0.202277</v>
+        <v>0.197794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239242</v>
+        <v>0.235195</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.268665</v>
+        <v>0.269664</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208313</v>
+        <v>0.202972</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242177</v>
+        <v>0.239706</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.271031</v>
+        <v>0.262992</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209546</v>
+        <v>0.214121</v>
       </c>
       <c r="D23" t="n">
-        <v>0.249142</v>
+        <v>0.251677</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276091</v>
+        <v>0.280525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217312</v>
+        <v>0.213006</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24881</v>
+        <v>0.252458</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.275995</v>
+        <v>0.297595</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227827</v>
+        <v>0.230339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.269879</v>
+        <v>0.266993</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28872</v>
+        <v>0.289409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224987</v>
+        <v>0.229315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265659</v>
+        <v>0.265257</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.251135</v>
+        <v>0.235856</v>
       </c>
       <c r="C27" t="n">
-        <v>0.237455</v>
+        <v>0.231933</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274964</v>
+        <v>0.276211</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.245834</v>
+        <v>0.245394</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235961</v>
+        <v>0.234207</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278754</v>
+        <v>0.291947</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.260481</v>
+        <v>0.263498</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24406</v>
+        <v>0.253177</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291531</v>
+        <v>0.29972</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269409</v>
+        <v>0.259564</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250572</v>
+        <v>0.251001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.315527</v>
+        <v>0.295711</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271565</v>
+        <v>0.267823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.260239</v>
+        <v>0.262089</v>
       </c>
       <c r="D31" t="n">
-        <v>0.300483</v>
+        <v>0.308775</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285041</v>
+        <v>0.298574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261233</v>
+        <v>0.266801</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321643</v>
+        <v>0.310479</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288366</v>
+        <v>0.291888</v>
       </c>
       <c r="C33" t="n">
-        <v>0.278548</v>
+        <v>0.272414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.330679</v>
+        <v>0.332068</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307426</v>
+        <v>0.290483</v>
       </c>
       <c r="C34" t="n">
-        <v>0.287211</v>
+        <v>0.271752</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33496</v>
+        <v>0.336804</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.315182</v>
+        <v>0.30608</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225648</v>
+        <v>0.226559</v>
       </c>
       <c r="D35" t="n">
-        <v>0.267032</v>
+        <v>0.265516</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316111</v>
+        <v>0.311341</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232796</v>
+        <v>0.228496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283236</v>
+        <v>0.286109</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.33382</v>
+        <v>0.317484</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240914</v>
+        <v>0.236562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.293446</v>
+        <v>0.280593</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34207</v>
+        <v>0.33216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.250329</v>
+        <v>0.252486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.304998</v>
+        <v>0.302897</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.351291</v>
+        <v>0.354761</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257229</v>
+        <v>0.262897</v>
       </c>
       <c r="D39" t="n">
-        <v>0.307471</v>
+        <v>0.305912</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.358664</v>
+        <v>0.351425</v>
       </c>
       <c r="C40" t="n">
-        <v>0.26611</v>
+        <v>0.263939</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323952</v>
+        <v>0.318497</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.335101</v>
+        <v>0.31567</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275535</v>
+        <v>0.27582</v>
       </c>
       <c r="D41" t="n">
-        <v>0.330366</v>
+        <v>0.343892</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.335079</v>
+        <v>0.336028</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292369</v>
+        <v>0.29282</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35505</v>
+        <v>0.339891</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.352564</v>
+        <v>0.354482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311493</v>
+        <v>0.302628</v>
       </c>
       <c r="D43" t="n">
-        <v>0.366732</v>
+        <v>0.360653</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.359485</v>
+        <v>0.355782</v>
       </c>
       <c r="C44" t="n">
-        <v>0.312616</v>
+        <v>0.313682</v>
       </c>
       <c r="D44" t="n">
-        <v>0.389506</v>
+        <v>0.394999</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.371123</v>
+        <v>0.372879</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323552</v>
+        <v>0.321371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.395388</v>
+        <v>0.387319</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.389916</v>
+        <v>0.395036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.350828</v>
+        <v>0.334178</v>
       </c>
       <c r="D46" t="n">
-        <v>0.423706</v>
+        <v>0.408163</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408167</v>
+        <v>0.396894</v>
       </c>
       <c r="C47" t="n">
-        <v>0.351917</v>
+        <v>0.351325</v>
       </c>
       <c r="D47" t="n">
-        <v>0.432663</v>
+        <v>0.421813</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424795</v>
+        <v>0.415297</v>
       </c>
       <c r="C48" t="n">
-        <v>0.367436</v>
+        <v>0.371666</v>
       </c>
       <c r="D48" t="n">
-        <v>0.443956</v>
+        <v>0.436186</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.439587</v>
+        <v>0.433716</v>
       </c>
       <c r="C49" t="n">
-        <v>0.388653</v>
+        <v>0.377155</v>
       </c>
       <c r="D49" t="n">
-        <v>0.461804</v>
+        <v>0.457547</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.466427</v>
+        <v>0.441223</v>
       </c>
       <c r="C50" t="n">
-        <v>0.306877</v>
+        <v>0.320021</v>
       </c>
       <c r="D50" t="n">
-        <v>0.372321</v>
+        <v>0.369629</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.474774</v>
+        <v>0.46819</v>
       </c>
       <c r="C51" t="n">
-        <v>0.31928</v>
+        <v>0.327312</v>
       </c>
       <c r="D51" t="n">
-        <v>0.384855</v>
+        <v>0.401085</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.497093</v>
+        <v>0.519286</v>
       </c>
       <c r="C52" t="n">
-        <v>0.341437</v>
+        <v>0.342835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.406767</v>
+        <v>0.39909</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.520243</v>
+        <v>0.507145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351726</v>
+        <v>0.348755</v>
       </c>
       <c r="D53" t="n">
-        <v>0.443356</v>
+        <v>0.417064</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.540864</v>
+        <v>0.523509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.375582</v>
+        <v>0.367162</v>
       </c>
       <c r="D54" t="n">
-        <v>0.440789</v>
+        <v>0.4425</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.542136</v>
+        <v>0.575665</v>
       </c>
       <c r="C55" t="n">
-        <v>0.394547</v>
+        <v>0.375023</v>
       </c>
       <c r="D55" t="n">
-        <v>0.453904</v>
+        <v>0.470741</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.503706</v>
+        <v>0.518126</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4107</v>
+        <v>0.401787</v>
       </c>
       <c r="D56" t="n">
-        <v>0.498259</v>
+        <v>0.475857</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532015</v>
+        <v>0.53135</v>
       </c>
       <c r="C57" t="n">
-        <v>0.441107</v>
+        <v>0.443033</v>
       </c>
       <c r="D57" t="n">
-        <v>0.538615</v>
+        <v>0.523443</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.563612</v>
+        <v>0.5747100000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.461044</v>
+        <v>0.45547</v>
       </c>
       <c r="D58" t="n">
-        <v>0.558245</v>
+        <v>0.525685</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.626131</v>
+        <v>0.570281</v>
       </c>
       <c r="C59" t="n">
-        <v>0.497025</v>
+        <v>0.4819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.591839</v>
+        <v>0.569233</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.59484</v>
+        <v>0.592753</v>
       </c>
       <c r="C60" t="n">
-        <v>0.515907</v>
+        <v>0.497116</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6099599999999999</v>
+        <v>0.589284</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.640587</v>
+        <v>0.612837</v>
       </c>
       <c r="C61" t="n">
-        <v>0.534326</v>
+        <v>0.520003</v>
       </c>
       <c r="D61" t="n">
-        <v>0.669874</v>
+        <v>0.605204</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.689611</v>
+        <v>0.650849</v>
       </c>
       <c r="C62" t="n">
-        <v>0.583806</v>
+        <v>0.55533</v>
       </c>
       <c r="D62" t="n">
-        <v>0.698861</v>
+        <v>0.668757</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.687945</v>
+        <v>0.68838</v>
       </c>
       <c r="C63" t="n">
-        <v>0.593905</v>
+        <v>0.575036</v>
       </c>
       <c r="D63" t="n">
-        <v>0.706943</v>
+        <v>0.688547</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.718867</v>
+        <v>0.704838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.508965</v>
+        <v>0.501207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.609914</v>
+        <v>0.60833</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.751762</v>
+        <v>0.731116</v>
       </c>
       <c r="C65" t="n">
-        <v>0.532721</v>
+        <v>0.518614</v>
       </c>
       <c r="D65" t="n">
-        <v>0.620138</v>
+        <v>0.6288319999999999</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.823199</v>
+        <v>0.769252</v>
       </c>
       <c r="C66" t="n">
-        <v>0.556572</v>
+        <v>0.543916</v>
       </c>
       <c r="D66" t="n">
-        <v>0.652729</v>
+        <v>0.632466</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.798834</v>
+        <v>0.7911049999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.573761</v>
+        <v>0.579786</v>
       </c>
       <c r="D67" t="n">
-        <v>0.686963</v>
+        <v>0.684935</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.858451</v>
+        <v>0.836625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.582747</v>
+        <v>0.589491</v>
       </c>
       <c r="D68" t="n">
-        <v>0.71543</v>
+        <v>0.720486</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.849252</v>
+        <v>0.889553</v>
       </c>
       <c r="C69" t="n">
-        <v>0.621703</v>
+        <v>0.608649</v>
       </c>
       <c r="D69" t="n">
-        <v>0.738468</v>
+        <v>0.75243</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.733677</v>
+        <v>0.719804</v>
       </c>
       <c r="C70" t="n">
-        <v>0.661418</v>
+        <v>0.6736839999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7720399999999999</v>
+        <v>0.7889659999999999</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.784173</v>
+        <v>0.755565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.687595</v>
+        <v>0.721397</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8224089999999999</v>
+        <v>0.8330149999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.791022</v>
+        <v>0.790525</v>
       </c>
       <c r="C72" t="n">
-        <v>0.744341</v>
+        <v>0.745526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.847096</v>
+        <v>0.897024</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.807364</v>
+        <v>0.821678</v>
       </c>
       <c r="C73" t="n">
-        <v>0.737159</v>
+        <v>0.78432</v>
       </c>
       <c r="D73" t="n">
-        <v>0.882746</v>
+        <v>0.900085</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8418369999999999</v>
+        <v>0.8633690000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.79615</v>
+        <v>0.81813</v>
       </c>
       <c r="D74" t="n">
-        <v>0.946997</v>
+        <v>0.956499</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.884155</v>
+        <v>0.900282</v>
       </c>
       <c r="C75" t="n">
-        <v>0.846973</v>
+        <v>0.831496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.991209</v>
+        <v>1.00699</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.886255</v>
+        <v>0.889053</v>
       </c>
       <c r="C76" t="n">
-        <v>0.866341</v>
+        <v>0.862378</v>
       </c>
       <c r="D76" t="n">
-        <v>1.00629</v>
+        <v>1.04656</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.958656</v>
+        <v>0.958026</v>
       </c>
       <c r="C77" t="n">
-        <v>0.912592</v>
+        <v>0.905068</v>
       </c>
       <c r="D77" t="n">
-        <v>1.04197</v>
+        <v>1.07693</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.96689</v>
+        <v>0.982202</v>
       </c>
       <c r="C78" t="n">
-        <v>0.730311</v>
+        <v>0.700633</v>
       </c>
       <c r="D78" t="n">
-        <v>0.875396</v>
+        <v>0.871435</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.973434</v>
+        <v>0.996108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.75115</v>
+        <v>0.745874</v>
       </c>
       <c r="D79" t="n">
-        <v>0.900826</v>
+        <v>0.919625</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0119</v>
+        <v>1.0318</v>
       </c>
       <c r="C80" t="n">
-        <v>0.776887</v>
+        <v>0.786369</v>
       </c>
       <c r="D80" t="n">
-        <v>0.95473</v>
+        <v>0.976065</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.05447</v>
+        <v>1.06072</v>
       </c>
       <c r="C81" t="n">
-        <v>0.796635</v>
+        <v>0.808441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.997441</v>
+        <v>0.982887</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09767</v>
+        <v>1.08394</v>
       </c>
       <c r="C82" t="n">
-        <v>0.811156</v>
+        <v>0.84631</v>
       </c>
       <c r="D82" t="n">
-        <v>1.02299</v>
+        <v>1.02472</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10225</v>
+        <v>1.12742</v>
       </c>
       <c r="C83" t="n">
-        <v>0.861591</v>
+        <v>0.855016</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03385</v>
+        <v>1.05723</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.905301</v>
+        <v>0.897574</v>
       </c>
       <c r="C84" t="n">
-        <v>0.892269</v>
+        <v>0.888252</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07227</v>
+        <v>1.09756</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.939401</v>
+        <v>0.92903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919864</v>
+        <v>0.929759</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13888</v>
+        <v>1.15847</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950126</v>
+        <v>0.94867</v>
       </c>
       <c r="C86" t="n">
-        <v>0.960588</v>
+        <v>0.951447</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1813</v>
+        <v>1.19042</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.97702</v>
+        <v>0.972125</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01489</v>
+        <v>0.961827</v>
       </c>
       <c r="D87" t="n">
-        <v>1.19723</v>
+        <v>1.26147</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01288</v>
+        <v>0.986228</v>
       </c>
       <c r="C88" t="n">
-        <v>1.0092</v>
+        <v>1.01992</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27851</v>
+        <v>1.25886</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01338</v>
+        <v>1.01658</v>
       </c>
       <c r="C89" t="n">
-        <v>1.04734</v>
+        <v>1.05516</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29743</v>
+        <v>1.32518</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06158</v>
+        <v>1.04383</v>
       </c>
       <c r="C90" t="n">
-        <v>1.07024</v>
+        <v>1.09397</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34919</v>
+        <v>1.34091</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.07721</v>
+        <v>1.06697</v>
       </c>
       <c r="C91" t="n">
-        <v>1.11902</v>
+        <v>1.10652</v>
       </c>
       <c r="D91" t="n">
-        <v>1.34587</v>
+        <v>1.36081</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.10901</v>
+        <v>1.12495</v>
       </c>
       <c r="C92" t="n">
-        <v>0.867745</v>
+        <v>0.8763030000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>1.11417</v>
+        <v>1.12533</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.12898</v>
+        <v>1.13395</v>
       </c>
       <c r="C93" t="n">
-        <v>0.897359</v>
+        <v>0.891838</v>
       </c>
       <c r="D93" t="n">
-        <v>1.14774</v>
+        <v>1.14663</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.20702</v>
+        <v>1.14466</v>
       </c>
       <c r="C94" t="n">
-        <v>0.891258</v>
+        <v>0.923392</v>
       </c>
       <c r="D94" t="n">
-        <v>1.20831</v>
+        <v>1.21745</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.16742</v>
+        <v>1.20014</v>
       </c>
       <c r="C95" t="n">
-        <v>0.944357</v>
+        <v>0.936898</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22051</v>
+        <v>1.21408</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20758</v>
+        <v>1.19631</v>
       </c>
       <c r="C96" t="n">
-        <v>0.975915</v>
+        <v>0.945993</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25377</v>
+        <v>1.23933</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26404</v>
+        <v>1.26133</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0168</v>
+        <v>1.01325</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30221</v>
+        <v>1.26813</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.972228</v>
+        <v>0.990164</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04468</v>
+        <v>1.01685</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34244</v>
+        <v>1.31823</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00013</v>
+        <v>1.00194</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03536</v>
+        <v>1.03564</v>
       </c>
       <c r="D99" t="n">
-        <v>1.40849</v>
+        <v>1.35898</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03922</v>
+        <v>1.01899</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10006</v>
+        <v>1.07176</v>
       </c>
       <c r="D100" t="n">
-        <v>1.43147</v>
+        <v>1.40714</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07053</v>
+        <v>1.03864</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1156</v>
+        <v>1.1196</v>
       </c>
       <c r="D101" t="n">
-        <v>1.43673</v>
+        <v>1.42978</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.0892</v>
+        <v>1.07265</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13519</v>
+        <v>1.14165</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5043</v>
+        <v>1.55371</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11859</v>
+        <v>1.11094</v>
       </c>
       <c r="C103" t="n">
-        <v>1.18856</v>
+        <v>1.16796</v>
       </c>
       <c r="D103" t="n">
-        <v>1.5661</v>
+        <v>1.53219</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12206</v>
+        <v>1.13946</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21519</v>
+        <v>1.22098</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56009</v>
+        <v>1.61018</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18874</v>
+        <v>1.18335</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23394</v>
+        <v>1.25944</v>
       </c>
       <c r="D105" t="n">
-        <v>1.6086</v>
+        <v>1.57014</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21497</v>
+        <v>1.19857</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28707</v>
+        <v>1.29247</v>
       </c>
       <c r="D106" t="n">
-        <v>1.70607</v>
+        <v>1.70689</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22127</v>
+        <v>1.21986</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0034</v>
+        <v>0.969819</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3238</v>
+        <v>1.25759</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.2686</v>
+        <v>1.28144</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0021</v>
+        <v>1.04149</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31265</v>
+        <v>1.34228</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.31101</v>
+        <v>1.29047</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04614</v>
+        <v>1.04763</v>
       </c>
       <c r="D109" t="n">
-        <v>1.32813</v>
+        <v>1.34517</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32559</v>
+        <v>1.28112</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05121</v>
+        <v>1.08199</v>
       </c>
       <c r="D110" t="n">
-        <v>1.41049</v>
+        <v>1.39607</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.36008</v>
+        <v>1.40248</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09297</v>
+        <v>1.088</v>
       </c>
       <c r="D111" t="n">
-        <v>1.4316</v>
+        <v>1.39751</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04038</v>
+        <v>1.11447</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17321</v>
+        <v>1.18046</v>
       </c>
       <c r="D112" t="n">
-        <v>1.54853</v>
+        <v>1.50961</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.09513</v>
+        <v>1.10614</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16228</v>
+        <v>1.14208</v>
       </c>
       <c r="D113" t="n">
-        <v>1.52969</v>
+        <v>1.49775</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12587</v>
+        <v>1.11245</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22625</v>
+        <v>1.15993</v>
       </c>
       <c r="D114" t="n">
-        <v>1.62691</v>
+        <v>1.51777</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1361</v>
+        <v>1.11846</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23551</v>
+        <v>1.23656</v>
       </c>
       <c r="D115" t="n">
-        <v>1.61135</v>
+        <v>1.68092</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17646</v>
+        <v>1.16197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.34253</v>
+        <v>1.23359</v>
       </c>
       <c r="D116" t="n">
-        <v>1.72076</v>
+        <v>1.64856</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.19677</v>
+        <v>1.26232</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29137</v>
+        <v>1.26191</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68208</v>
+        <v>1.66269</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22042</v>
+        <v>1.22609</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32629</v>
+        <v>1.30419</v>
       </c>
       <c r="D118" t="n">
-        <v>1.74014</v>
+        <v>1.75653</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.27282</v>
+        <v>1.24226</v>
       </c>
       <c r="C119" t="n">
-        <v>1.3502</v>
+        <v>1.36854</v>
       </c>
       <c r="D119" t="n">
-        <v>1.93594</v>
+        <v>1.78692</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.186225</v>
+        <v>0.191051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190259</v>
+        <v>0.180462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14393</v>
+        <v>0.143624</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190152</v>
+        <v>0.191481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.183495</v>
+        <v>0.18495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14928</v>
+        <v>0.146982</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193534</v>
+        <v>0.198918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195125</v>
+        <v>0.19473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.154488</v>
+        <v>0.151411</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.203494</v>
+        <v>0.210237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202865</v>
+        <v>0.202991</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15333</v>
+        <v>0.152145</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212841</v>
+        <v>0.206303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207011</v>
+        <v>0.203962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155484</v>
+        <v>0.153482</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221051</v>
+        <v>0.216973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.166787</v>
+        <v>0.171453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139796</v>
+        <v>0.150222</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212342</v>
+        <v>0.222881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166834</v>
+        <v>0.172706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145702</v>
+        <v>0.152493</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223703</v>
+        <v>0.221871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171753</v>
+        <v>0.17289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154562</v>
+        <v>0.147077</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226772</v>
+        <v>0.236096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173371</v>
+        <v>0.1795</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14779</v>
+        <v>0.153032</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230942</v>
+        <v>0.236485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180511</v>
+        <v>0.186152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150018</v>
+        <v>0.155394</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.247052</v>
+        <v>0.246517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189594</v>
+        <v>0.190979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.165749</v>
+        <v>0.15679</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.201548</v>
+        <v>0.197165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19279</v>
+        <v>0.193198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.168375</v>
+        <v>0.159479</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.194102</v>
+        <v>0.193814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196793</v>
+        <v>0.197311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158867</v>
+        <v>0.15972</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.200213</v>
+        <v>0.199616</v>
       </c>
       <c r="C15" t="n">
-        <v>0.202604</v>
+        <v>0.204662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169853</v>
+        <v>0.162734</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205055</v>
+        <v>0.209011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213469</v>
+        <v>0.216741</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169804</v>
+        <v>0.16722</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.209275</v>
+        <v>0.213399</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211791</v>
+        <v>0.209939</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174319</v>
+        <v>0.172832</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.212689</v>
+        <v>0.218085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218166</v>
+        <v>0.21524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.178322</v>
+        <v>0.180208</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.220636</v>
+        <v>0.220531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230196</v>
+        <v>0.224153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179176</v>
+        <v>0.181734</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.229592</v>
+        <v>0.218818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239676</v>
+        <v>0.236773</v>
       </c>
       <c r="D20" t="n">
-        <v>0.186075</v>
+        <v>0.184425</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230634</v>
+        <v>0.242688</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183159</v>
+        <v>0.181692</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156366</v>
+        <v>0.157846</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234307</v>
+        <v>0.233858</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185873</v>
+        <v>0.186785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166625</v>
+        <v>0.158652</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245769</v>
+        <v>0.247796</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188836</v>
+        <v>0.202326</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161112</v>
+        <v>0.164661</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.255649</v>
+        <v>0.254933</v>
       </c>
       <c r="C24" t="n">
-        <v>0.195569</v>
+        <v>0.196383</v>
       </c>
       <c r="D24" t="n">
-        <v>0.166152</v>
+        <v>0.16587</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.256821</v>
+        <v>0.258469</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204285</v>
+        <v>0.207653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171507</v>
+        <v>0.171011</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.257771</v>
+        <v>0.274269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208387</v>
+        <v>0.21425</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172256</v>
+        <v>0.177403</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221922</v>
+        <v>0.225008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214367</v>
+        <v>0.226913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176378</v>
+        <v>0.178293</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.23365</v>
+        <v>0.236408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217374</v>
+        <v>0.223426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179866</v>
+        <v>0.186356</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.246107</v>
+        <v>0.238058</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222885</v>
+        <v>0.227495</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181874</v>
+        <v>0.19683</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242965</v>
+        <v>0.243575</v>
       </c>
       <c r="C30" t="n">
-        <v>0.230405</v>
+        <v>0.239401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.18881</v>
+        <v>0.187007</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25589</v>
+        <v>0.253532</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240213</v>
+        <v>0.244044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199839</v>
+        <v>0.194448</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.286149</v>
+        <v>0.267724</v>
       </c>
       <c r="C32" t="n">
-        <v>0.260107</v>
+        <v>0.24634</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20908</v>
+        <v>0.19941</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278449</v>
+        <v>0.266833</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281835</v>
+        <v>0.275474</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20634</v>
+        <v>0.20527</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.280369</v>
+        <v>0.284306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286296</v>
+        <v>0.27548</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221411</v>
+        <v>0.208673</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.28812</v>
+        <v>0.294422</v>
       </c>
       <c r="C35" t="n">
-        <v>0.224697</v>
+        <v>0.227789</v>
       </c>
       <c r="D35" t="n">
-        <v>0.195885</v>
+        <v>0.18682</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.302486</v>
+        <v>0.302143</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231953</v>
+        <v>0.226872</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198411</v>
+        <v>0.187004</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.312608</v>
+        <v>0.312886</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236604</v>
+        <v>0.244774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.207449</v>
+        <v>0.198048</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.322307</v>
+        <v>0.34323</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26053</v>
+        <v>0.246746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.210432</v>
+        <v>0.197579</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342783</v>
+        <v>0.332662</v>
       </c>
       <c r="C39" t="n">
-        <v>0.264717</v>
+        <v>0.249647</v>
       </c>
       <c r="D39" t="n">
-        <v>0.215579</v>
+        <v>0.208002</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.360107</v>
+        <v>0.355484</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276607</v>
+        <v>0.263237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22663</v>
+        <v>0.212339</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.325407</v>
+        <v>0.318737</v>
       </c>
       <c r="C41" t="n">
-        <v>0.280451</v>
+        <v>0.277435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223626</v>
+        <v>0.219355</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329944</v>
+        <v>0.32798</v>
       </c>
       <c r="C42" t="n">
-        <v>0.298029</v>
+        <v>0.29532</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226927</v>
+        <v>0.219902</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.338109</v>
+        <v>0.341471</v>
       </c>
       <c r="C43" t="n">
-        <v>0.312448</v>
+        <v>0.306617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228422</v>
+        <v>0.228284</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344093</v>
+        <v>0.364558</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317887</v>
+        <v>0.307198</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234281</v>
+        <v>0.238181</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.356907</v>
+        <v>0.355538</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322252</v>
+        <v>0.330817</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242546</v>
+        <v>0.242916</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.380716</v>
+        <v>0.378284</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340899</v>
+        <v>0.34618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253532</v>
+        <v>0.254345</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.381944</v>
+        <v>0.39422</v>
       </c>
       <c r="C47" t="n">
-        <v>0.364986</v>
+        <v>0.358088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257075</v>
+        <v>0.264357</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.399654</v>
+        <v>0.408605</v>
       </c>
       <c r="C48" t="n">
-        <v>0.377788</v>
+        <v>0.3745</v>
       </c>
       <c r="D48" t="n">
-        <v>0.277641</v>
+        <v>0.279567</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.42202</v>
+        <v>0.421689</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39693</v>
+        <v>0.391951</v>
       </c>
       <c r="D49" t="n">
-        <v>0.28125</v>
+        <v>0.277939</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.440267</v>
+        <v>0.432073</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312536</v>
+        <v>0.321302</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246803</v>
+        <v>0.246572</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.462988</v>
+        <v>0.466098</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321227</v>
+        <v>0.334791</v>
       </c>
       <c r="D51" t="n">
-        <v>0.252015</v>
+        <v>0.253586</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.479096</v>
+        <v>0.48631</v>
       </c>
       <c r="C52" t="n">
-        <v>0.336172</v>
+        <v>0.3553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260799</v>
+        <v>0.271622</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.507266</v>
+        <v>0.528143</v>
       </c>
       <c r="C53" t="n">
-        <v>0.36053</v>
+        <v>0.373765</v>
       </c>
       <c r="D53" t="n">
-        <v>0.266309</v>
+        <v>0.268934</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.547816</v>
+        <v>0.5786790000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.389019</v>
+        <v>0.374473</v>
       </c>
       <c r="D54" t="n">
-        <v>0.285613</v>
+        <v>0.273361</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.581741</v>
+        <v>0.563875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.406894</v>
+        <v>0.394573</v>
       </c>
       <c r="D55" t="n">
-        <v>0.297506</v>
+        <v>0.294516</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.554122</v>
+        <v>0.5273060000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.411511</v>
+        <v>0.415108</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294264</v>
+        <v>0.297799</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.575047</v>
+        <v>0.552381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.448223</v>
+        <v>0.435303</v>
       </c>
       <c r="D57" t="n">
-        <v>0.315468</v>
+        <v>0.308308</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.583978</v>
+        <v>0.579581</v>
       </c>
       <c r="C58" t="n">
-        <v>0.463396</v>
+        <v>0.483024</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318773</v>
+        <v>0.321685</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.633544</v>
+        <v>0.6358279999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.505602</v>
+        <v>0.505836</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346217</v>
+        <v>0.344938</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.660408</v>
+        <v>0.656485</v>
       </c>
       <c r="C60" t="n">
-        <v>0.549455</v>
+        <v>0.536043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.362693</v>
+        <v>0.352565</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.706685</v>
+        <v>0.683954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.580377</v>
+        <v>0.562281</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374694</v>
+        <v>0.379002</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.726919</v>
+        <v>0.718473</v>
       </c>
       <c r="C62" t="n">
-        <v>0.618796</v>
+        <v>0.620391</v>
       </c>
       <c r="D62" t="n">
-        <v>0.385722</v>
+        <v>0.381516</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.74683</v>
+        <v>0.742854</v>
       </c>
       <c r="C63" t="n">
-        <v>0.653301</v>
+        <v>0.679942</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406303</v>
+        <v>0.400065</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.776986</v>
+        <v>0.79592</v>
       </c>
       <c r="C64" t="n">
-        <v>0.534973</v>
+        <v>0.539903</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386086</v>
+        <v>0.385623</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.801922</v>
+        <v>0.853298</v>
       </c>
       <c r="C65" t="n">
-        <v>0.565824</v>
+        <v>0.581533</v>
       </c>
       <c r="D65" t="n">
-        <v>0.398294</v>
+        <v>0.403147</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.84253</v>
+        <v>0.865206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.602455</v>
+        <v>0.6403759999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.409695</v>
+        <v>0.411149</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8847660000000001</v>
+        <v>0.89254</v>
       </c>
       <c r="C67" t="n">
-        <v>0.646577</v>
+        <v>0.653619</v>
       </c>
       <c r="D67" t="n">
-        <v>0.433215</v>
+        <v>0.444578</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.921929</v>
+        <v>0.95948</v>
       </c>
       <c r="C68" t="n">
-        <v>0.665288</v>
+        <v>0.689553</v>
       </c>
       <c r="D68" t="n">
-        <v>0.454374</v>
+        <v>0.456657</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01584</v>
+        <v>0.998179</v>
       </c>
       <c r="C69" t="n">
-        <v>0.723239</v>
+        <v>0.709403</v>
       </c>
       <c r="D69" t="n">
-        <v>0.473974</v>
+        <v>0.473218</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7940199999999999</v>
+        <v>0.809545</v>
       </c>
       <c r="C70" t="n">
-        <v>0.764883</v>
+        <v>0.735833</v>
       </c>
       <c r="D70" t="n">
-        <v>0.490362</v>
+        <v>0.5069360000000001</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.831885</v>
+        <v>0.84172</v>
       </c>
       <c r="C71" t="n">
-        <v>0.777497</v>
+        <v>0.805</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5111</v>
+        <v>0.523101</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.835745</v>
+        <v>0.873397</v>
       </c>
       <c r="C72" t="n">
-        <v>0.824639</v>
+        <v>0.835172</v>
       </c>
       <c r="D72" t="n">
-        <v>0.553165</v>
+        <v>0.552898</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.928359</v>
+        <v>0.892046</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8752220000000001</v>
+        <v>0.849346</v>
       </c>
       <c r="D73" t="n">
-        <v>0.588023</v>
+        <v>0.5639420000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.930988</v>
+        <v>0.919494</v>
       </c>
       <c r="C74" t="n">
-        <v>0.872839</v>
+        <v>0.894752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.582722</v>
+        <v>0.6182800000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.938411</v>
+        <v>0.950056</v>
       </c>
       <c r="C75" t="n">
-        <v>0.944719</v>
+        <v>0.953414</v>
       </c>
       <c r="D75" t="n">
-        <v>0.61525</v>
+        <v>0.601725</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.986087</v>
+        <v>0.969063</v>
       </c>
       <c r="C76" t="n">
-        <v>0.999655</v>
+        <v>1.00676</v>
       </c>
       <c r="D76" t="n">
-        <v>0.653183</v>
+        <v>0.642771</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04851</v>
+        <v>1.0266</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03384</v>
+        <v>1.05947</v>
       </c>
       <c r="D77" t="n">
-        <v>0.662739</v>
+        <v>0.686882</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.05402</v>
+        <v>1.08408</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8447480000000001</v>
+        <v>0.845679</v>
       </c>
       <c r="D78" t="n">
-        <v>0.65471</v>
+        <v>0.62336</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.10156</v>
+        <v>1.09359</v>
       </c>
       <c r="C79" t="n">
-        <v>0.84992</v>
+        <v>0.827423</v>
       </c>
       <c r="D79" t="n">
-        <v>0.615147</v>
+        <v>0.646154</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15213</v>
+        <v>1.12499</v>
       </c>
       <c r="C80" t="n">
-        <v>0.884166</v>
+        <v>0.880715</v>
       </c>
       <c r="D80" t="n">
-        <v>0.67523</v>
+        <v>0.655245</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.17111</v>
+        <v>1.16914</v>
       </c>
       <c r="C81" t="n">
-        <v>0.937931</v>
+        <v>0.895317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.678836</v>
+        <v>0.71141</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.22212</v>
+        <v>1.22886</v>
       </c>
       <c r="C82" t="n">
-        <v>0.947271</v>
+        <v>0.92091</v>
       </c>
       <c r="D82" t="n">
-        <v>0.697777</v>
+        <v>0.693591</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.24529</v>
+        <v>1.23607</v>
       </c>
       <c r="C83" t="n">
-        <v>0.971816</v>
+        <v>0.9411890000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.72866</v>
+        <v>0.7170069999999999</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.98267</v>
+        <v>0.969245</v>
       </c>
       <c r="C84" t="n">
-        <v>0.969415</v>
+        <v>0.980352</v>
       </c>
       <c r="D84" t="n">
-        <v>0.74013</v>
+        <v>0.74012</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.987872</v>
+        <v>0.991269</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02963</v>
+        <v>1.05764</v>
       </c>
       <c r="D85" t="n">
-        <v>0.760302</v>
+        <v>0.768102</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02992</v>
+        <v>1.03056</v>
       </c>
       <c r="C86" t="n">
-        <v>1.07797</v>
+        <v>1.07032</v>
       </c>
       <c r="D86" t="n">
-        <v>0.784853</v>
+        <v>0.80165</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05991</v>
+        <v>1.06145</v>
       </c>
       <c r="C87" t="n">
-        <v>1.14594</v>
+        <v>1.1263</v>
       </c>
       <c r="D87" t="n">
-        <v>0.81873</v>
+        <v>0.821978</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08411</v>
+        <v>1.10664</v>
       </c>
       <c r="C88" t="n">
-        <v>1.18253</v>
+        <v>1.16034</v>
       </c>
       <c r="D88" t="n">
-        <v>0.823524</v>
+        <v>0.826345</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.13284</v>
+        <v>1.10509</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21348</v>
+        <v>1.20142</v>
       </c>
       <c r="D89" t="n">
-        <v>0.866507</v>
+        <v>0.883871</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15599</v>
+        <v>1.16006</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25417</v>
+        <v>1.24444</v>
       </c>
       <c r="D90" t="n">
-        <v>0.909058</v>
+        <v>0.886756</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.18778</v>
+        <v>1.1715</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29157</v>
+        <v>1.31382</v>
       </c>
       <c r="D91" t="n">
-        <v>0.938442</v>
+        <v>0.92637</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.22486</v>
+        <v>1.25977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.965471</v>
+        <v>0.9515479999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.790097</v>
+        <v>0.805086</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.24474</v>
+        <v>1.23133</v>
       </c>
       <c r="C93" t="n">
-        <v>1.0033</v>
+        <v>0.970351</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8391690000000001</v>
+        <v>0.822672</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.33196</v>
+        <v>1.31146</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02548</v>
+        <v>1.0419</v>
       </c>
       <c r="D94" t="n">
-        <v>0.847172</v>
+        <v>0.833521</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.35323</v>
+        <v>1.35515</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04223</v>
+        <v>1.05889</v>
       </c>
       <c r="D95" t="n">
-        <v>0.85379</v>
+        <v>0.877791</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.37526</v>
+        <v>1.4123</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08389</v>
+        <v>1.06291</v>
       </c>
       <c r="D96" t="n">
-        <v>0.869831</v>
+        <v>0.8729749999999999</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.44669</v>
+        <v>1.41156</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09006</v>
+        <v>1.10404</v>
       </c>
       <c r="D97" t="n">
-        <v>0.91116</v>
+        <v>0.922384</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06101</v>
+        <v>1.07367</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13905</v>
+        <v>1.15935</v>
       </c>
       <c r="D98" t="n">
-        <v>0.936337</v>
+        <v>0.948824</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.09318</v>
+        <v>1.08543</v>
       </c>
       <c r="C99" t="n">
-        <v>1.20755</v>
+        <v>1.17958</v>
       </c>
       <c r="D99" t="n">
-        <v>0.96802</v>
+        <v>0.946587</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13357</v>
+        <v>1.11785</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24721</v>
+        <v>1.21522</v>
       </c>
       <c r="D100" t="n">
-        <v>0.993309</v>
+        <v>0.9875620000000001</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16623</v>
+        <v>1.14291</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26728</v>
+        <v>1.26245</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00774</v>
+        <v>0.995277</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18166</v>
+        <v>1.18563</v>
       </c>
       <c r="C102" t="n">
-        <v>1.29792</v>
+        <v>1.29147</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02405</v>
+        <v>1.00811</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.2051</v>
+        <v>1.22202</v>
       </c>
       <c r="C103" t="n">
-        <v>1.37168</v>
+        <v>1.34113</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05724</v>
+        <v>1.03583</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.22736</v>
+        <v>1.23031</v>
       </c>
       <c r="C104" t="n">
-        <v>1.3721</v>
+        <v>1.3804</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09469</v>
+        <v>1.11667</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.26758</v>
+        <v>1.27943</v>
       </c>
       <c r="C105" t="n">
-        <v>1.48562</v>
+        <v>1.41669</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10558</v>
+        <v>1.11737</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.29421</v>
+        <v>1.34019</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5044</v>
+        <v>1.44707</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16803</v>
+        <v>1.14611</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.40822</v>
+        <v>1.36111</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08957</v>
+        <v>1.10558</v>
       </c>
       <c r="D107" t="n">
-        <v>0.930801</v>
+        <v>0.919045</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.37522</v>
+        <v>1.40395</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1042</v>
+        <v>1.12464</v>
       </c>
       <c r="D108" t="n">
-        <v>0.966198</v>
+        <v>0.949474</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46114</v>
+        <v>1.45018</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13925</v>
+        <v>1.15495</v>
       </c>
       <c r="D109" t="n">
-        <v>0.96336</v>
+        <v>0.973725</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49168</v>
+        <v>1.48345</v>
       </c>
       <c r="C110" t="n">
-        <v>1.15732</v>
+        <v>1.17233</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01901</v>
+        <v>0.99138</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.57475</v>
+        <v>1.53956</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2111</v>
+        <v>1.2196</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02401</v>
+        <v>1.02672</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14558</v>
+        <v>1.13664</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24121</v>
+        <v>1.25351</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06307</v>
+        <v>1.04232</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17688</v>
+        <v>1.19228</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27783</v>
+        <v>1.26711</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05901</v>
+        <v>1.09474</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17023</v>
+        <v>1.19669</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33219</v>
+        <v>1.33401</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10545</v>
+        <v>1.08368</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.21896</v>
+        <v>1.25053</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35358</v>
+        <v>1.35308</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11113</v>
+        <v>1.1306</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.26412</v>
+        <v>1.28195</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42717</v>
+        <v>1.39638</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14157</v>
+        <v>1.15261</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29231</v>
+        <v>1.30255</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5019</v>
+        <v>1.48572</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1835</v>
+        <v>1.22783</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.34261</v>
+        <v>1.36898</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50418</v>
+        <v>1.50531</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20649</v>
+        <v>1.1906</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.38569</v>
+        <v>1.35982</v>
       </c>
       <c r="C119" t="n">
-        <v>1.58074</v>
+        <v>1.62506</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2406</v>
+        <v>1.23309</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556276</v>
+        <v>0.555536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.423</v>
+        <v>0.430835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238652</v>
+        <v>0.242461</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.372821</v>
+        <v>0.363361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4592</v>
+        <v>0.457623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251885</v>
+        <v>0.256853</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.387915</v>
+        <v>0.387085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496955</v>
+        <v>0.492847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.264383</v>
+        <v>0.252713</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397923</v>
+        <v>0.411633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.496624</v>
+        <v>0.520322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283753</v>
+        <v>0.270908</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.424243</v>
+        <v>0.426089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.530914</v>
+        <v>0.513826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.282233</v>
+        <v>0.274672</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.442722</v>
+        <v>0.454182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.569567</v>
+        <v>0.589217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.288487</v>
+        <v>0.28398</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.458996</v>
+        <v>0.461514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.556766</v>
+        <v>0.580943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.284785</v>
+        <v>0.295697</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.495269</v>
+        <v>0.489761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.617803</v>
+        <v>0.608955</v>
       </c>
       <c r="D9" t="n">
-        <v>0.312266</v>
+        <v>0.310199</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.509873</v>
+        <v>0.534748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.644935</v>
+        <v>0.642568</v>
       </c>
       <c r="D10" t="n">
-        <v>0.317459</v>
+        <v>0.327747</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560024</v>
+        <v>0.554375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.402632</v>
+        <v>0.409174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.239754</v>
+        <v>0.242728</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.580297</v>
+        <v>0.571812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.427118</v>
+        <v>0.42928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245861</v>
+        <v>0.259382</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.607927</v>
+        <v>0.605413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.453847</v>
+        <v>0.438155</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255302</v>
+        <v>0.256981</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637294</v>
+        <v>0.6474299999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.455676</v>
+        <v>0.464814</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260802</v>
+        <v>0.269787</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.661711</v>
+        <v>0.6727880000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.487967</v>
+        <v>0.495667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273512</v>
+        <v>0.279227</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7046289999999999</v>
+        <v>0.699065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.515885</v>
+        <v>0.510812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284539</v>
+        <v>0.284208</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.430715</v>
+        <v>0.420648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.530276</v>
+        <v>0.5398579999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.299456</v>
+        <v>0.296508</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473982</v>
+        <v>0.438532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.563376</v>
+        <v>0.563306</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31275</v>
+        <v>0.303483</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.477563</v>
+        <v>0.471828</v>
       </c>
       <c r="C19" t="n">
-        <v>0.592266</v>
+        <v>0.565499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.313777</v>
+        <v>0.315885</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.498317</v>
+        <v>0.500887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.624988</v>
+        <v>0.6084850000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.342971</v>
+        <v>0.328632</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.515536</v>
+        <v>0.5225070000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.644952</v>
+        <v>0.647917</v>
       </c>
       <c r="D21" t="n">
-        <v>0.339814</v>
+        <v>0.344209</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.559839</v>
+        <v>0.539269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.689046</v>
+        <v>0.668682</v>
       </c>
       <c r="D22" t="n">
-        <v>0.374397</v>
+        <v>0.343304</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.566831</v>
+        <v>0.558272</v>
       </c>
       <c r="C23" t="n">
-        <v>0.711249</v>
+        <v>0.692968</v>
       </c>
       <c r="D23" t="n">
-        <v>0.367915</v>
+        <v>0.356361</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.601731</v>
+        <v>0.585921</v>
       </c>
       <c r="C24" t="n">
-        <v>0.74373</v>
+        <v>0.718102</v>
       </c>
       <c r="D24" t="n">
-        <v>0.385498</v>
+        <v>0.380867</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6297739999999999</v>
+        <v>0.60738</v>
       </c>
       <c r="C25" t="n">
-        <v>0.792472</v>
+        <v>0.754234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401413</v>
+        <v>0.397941</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.676118</v>
+        <v>0.642379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485318</v>
+        <v>0.460742</v>
       </c>
       <c r="D26" t="n">
-        <v>0.285518</v>
+        <v>0.274641</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.684806</v>
+        <v>0.657523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.53235</v>
+        <v>0.493365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.291981</v>
+        <v>0.288234</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.738036</v>
+        <v>0.693318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.516034</v>
+        <v>0.501637</v>
       </c>
       <c r="D28" t="n">
-        <v>0.306487</v>
+        <v>0.304171</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.758203</v>
+        <v>0.733957</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5540079999999999</v>
+        <v>0.523661</v>
       </c>
       <c r="D29" t="n">
-        <v>0.321307</v>
+        <v>0.312584</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.794457</v>
+        <v>0.746374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.582126</v>
+        <v>0.555889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.338925</v>
+        <v>0.310285</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.897442</v>
+        <v>0.812724</v>
       </c>
       <c r="C31" t="n">
-        <v>0.620151</v>
+        <v>0.581676</v>
       </c>
       <c r="D31" t="n">
-        <v>0.345085</v>
+        <v>0.342758</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.536315</v>
+        <v>0.508447</v>
       </c>
       <c r="C32" t="n">
-        <v>0.688262</v>
+        <v>0.610905</v>
       </c>
       <c r="D32" t="n">
-        <v>0.351844</v>
+        <v>0.335131</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.550832</v>
+        <v>0.552</v>
       </c>
       <c r="C33" t="n">
-        <v>0.682957</v>
+        <v>0.62623</v>
       </c>
       <c r="D33" t="n">
-        <v>0.375604</v>
+        <v>0.353976</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.603615</v>
+        <v>0.544597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.71829</v>
+        <v>0.706484</v>
       </c>
       <c r="D34" t="n">
-        <v>0.397344</v>
+        <v>0.392404</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.627048</v>
+        <v>0.579085</v>
       </c>
       <c r="C35" t="n">
-        <v>0.753261</v>
+        <v>0.743017</v>
       </c>
       <c r="D35" t="n">
-        <v>0.38546</v>
+        <v>0.400916</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.645599</v>
+        <v>0.624626</v>
       </c>
       <c r="C36" t="n">
-        <v>0.810456</v>
+        <v>0.7814680000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.430436</v>
+        <v>0.423146</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.705159</v>
+        <v>0.658934</v>
       </c>
       <c r="C37" t="n">
-        <v>0.867986</v>
+        <v>0.830618</v>
       </c>
       <c r="D37" t="n">
-        <v>0.45527</v>
+        <v>0.415514</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75627</v>
+        <v>0.677133</v>
       </c>
       <c r="C38" t="n">
-        <v>0.940686</v>
+        <v>0.863864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.472315</v>
+        <v>0.444144</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.787972</v>
+        <v>0.78191</v>
       </c>
       <c r="C39" t="n">
-        <v>0.988818</v>
+        <v>0.898127</v>
       </c>
       <c r="D39" t="n">
-        <v>0.49916</v>
+        <v>0.462707</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8865690000000001</v>
+        <v>0.774926</v>
       </c>
       <c r="C40" t="n">
-        <v>0.599532</v>
+        <v>0.55894</v>
       </c>
       <c r="D40" t="n">
-        <v>0.373423</v>
+        <v>0.352228</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885601</v>
+        <v>0.838233</v>
       </c>
       <c r="C41" t="n">
-        <v>0.647342</v>
+        <v>0.632756</v>
       </c>
       <c r="D41" t="n">
-        <v>0.38619</v>
+        <v>0.379714</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.962731</v>
+        <v>0.931151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669811</v>
+        <v>0.665604</v>
       </c>
       <c r="D42" t="n">
-        <v>0.40686</v>
+        <v>0.384532</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.05012</v>
+        <v>0.9889019999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.718599</v>
+        <v>0.677557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.450793</v>
+        <v>0.39966</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0701</v>
+        <v>1.06955</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7399289999999999</v>
+        <v>0.731383</v>
       </c>
       <c r="D44" t="n">
-        <v>0.458316</v>
+        <v>0.431513</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.14058</v>
+        <v>1.11134</v>
       </c>
       <c r="C45" t="n">
-        <v>0.801607</v>
+        <v>0.8063399999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.47674</v>
+        <v>0.456896</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.705013</v>
+        <v>0.743484</v>
       </c>
       <c r="C46" t="n">
-        <v>0.837203</v>
+        <v>0.857697</v>
       </c>
       <c r="D46" t="n">
-        <v>0.477123</v>
+        <v>0.472429</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7889</v>
+        <v>0.787297</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9011400000000001</v>
+        <v>0.912156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5096079999999999</v>
+        <v>0.5175920000000001</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.816539</v>
+        <v>0.838336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.979927</v>
+        <v>0.999133</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5326650000000001</v>
+        <v>0.540305</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.863272</v>
+        <v>0.883394</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02952</v>
+        <v>1.03629</v>
       </c>
       <c r="D49" t="n">
-        <v>0.583974</v>
+        <v>0.572679</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.906439</v>
+        <v>0.989393</v>
       </c>
       <c r="C50" t="n">
-        <v>1.11512</v>
+        <v>1.12874</v>
       </c>
       <c r="D50" t="n">
-        <v>0.599294</v>
+        <v>0.602565</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.98264</v>
+        <v>0.972604</v>
       </c>
       <c r="C51" t="n">
-        <v>1.20713</v>
+        <v>1.19309</v>
       </c>
       <c r="D51" t="n">
-        <v>0.648683</v>
+        <v>0.632657</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.05318</v>
+        <v>1.04768</v>
       </c>
       <c r="C52" t="n">
-        <v>1.28525</v>
+        <v>1.27121</v>
       </c>
       <c r="D52" t="n">
-        <v>0.687971</v>
+        <v>0.66127</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0998</v>
+        <v>1.13475</v>
       </c>
       <c r="C53" t="n">
-        <v>1.38871</v>
+        <v>1.39803</v>
       </c>
       <c r="D53" t="n">
-        <v>0.718228</v>
+        <v>0.745129</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.21815</v>
+        <v>1.20277</v>
       </c>
       <c r="C54" t="n">
-        <v>0.867362</v>
+        <v>0.846931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5019940000000001</v>
+        <v>0.497287</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31056</v>
+        <v>1.2944</v>
       </c>
       <c r="C55" t="n">
-        <v>0.904762</v>
+        <v>0.910981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.519284</v>
+        <v>0.527976</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.38412</v>
+        <v>1.35687</v>
       </c>
       <c r="C56" t="n">
-        <v>0.957798</v>
+        <v>0.9863150000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.55123</v>
+        <v>0.5470159999999999</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.50439</v>
+        <v>1.49875</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0471</v>
+        <v>1.05988</v>
       </c>
       <c r="D57" t="n">
-        <v>0.580756</v>
+        <v>0.604705</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60832</v>
+        <v>1.60687</v>
       </c>
       <c r="C58" t="n">
-        <v>1.13826</v>
+        <v>1.08829</v>
       </c>
       <c r="D58" t="n">
-        <v>0.629242</v>
+        <v>0.640138</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.70538</v>
+        <v>1.76604</v>
       </c>
       <c r="C59" t="n">
-        <v>1.20593</v>
+        <v>1.29043</v>
       </c>
       <c r="D59" t="n">
-        <v>0.686686</v>
+        <v>0.655188</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.10862</v>
+        <v>1.09845</v>
       </c>
       <c r="C60" t="n">
-        <v>1.29539</v>
+        <v>1.30862</v>
       </c>
       <c r="D60" t="n">
-        <v>0.68394</v>
+        <v>0.7001810000000001</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.15647</v>
+        <v>1.16934</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45952</v>
+        <v>1.47165</v>
       </c>
       <c r="D61" t="n">
-        <v>0.726704</v>
+        <v>0.731802</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.30155</v>
+        <v>1.33887</v>
       </c>
       <c r="C62" t="n">
-        <v>1.58742</v>
+        <v>1.60817</v>
       </c>
       <c r="D62" t="n">
-        <v>0.80245</v>
+        <v>0.824135</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.46013</v>
+        <v>1.37957</v>
       </c>
       <c r="C63" t="n">
-        <v>1.72182</v>
+        <v>1.75672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.830956</v>
+        <v>0.829058</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.47997</v>
+        <v>1.54787</v>
       </c>
       <c r="C64" t="n">
-        <v>1.82911</v>
+        <v>1.89966</v>
       </c>
       <c r="D64" t="n">
-        <v>0.926119</v>
+        <v>0.862907</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.63103</v>
+        <v>1.69854</v>
       </c>
       <c r="C65" t="n">
-        <v>2.09942</v>
+        <v>2.03312</v>
       </c>
       <c r="D65" t="n">
-        <v>0.950875</v>
+        <v>0.968133</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78255</v>
+        <v>1.88711</v>
       </c>
       <c r="C66" t="n">
-        <v>2.29482</v>
+        <v>2.25096</v>
       </c>
       <c r="D66" t="n">
-        <v>1.04851</v>
+        <v>0.997491</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.95609</v>
+        <v>1.9792</v>
       </c>
       <c r="C67" t="n">
-        <v>2.50458</v>
+        <v>2.48616</v>
       </c>
       <c r="D67" t="n">
-        <v>1.13101</v>
+        <v>1.06116</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.13462</v>
+        <v>2.08794</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53017</v>
+        <v>1.42122</v>
       </c>
       <c r="D68" t="n">
-        <v>0.740496</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.36398</v>
+        <v>2.2652</v>
       </c>
       <c r="C69" t="n">
-        <v>1.64572</v>
+        <v>1.63585</v>
       </c>
       <c r="D69" t="n">
-        <v>0.818402</v>
+        <v>0.792151</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.45673</v>
+        <v>2.43602</v>
       </c>
       <c r="C70" t="n">
-        <v>1.75388</v>
+        <v>1.74926</v>
       </c>
       <c r="D70" t="n">
-        <v>0.852086</v>
+        <v>0.858151</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.66223</v>
+        <v>2.60591</v>
       </c>
       <c r="C71" t="n">
-        <v>1.92719</v>
+        <v>1.90252</v>
       </c>
       <c r="D71" t="n">
-        <v>0.936426</v>
+        <v>0.9016189999999999</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.89165</v>
+        <v>2.87512</v>
       </c>
       <c r="C72" t="n">
-        <v>2.10492</v>
+        <v>2.03025</v>
       </c>
       <c r="D72" t="n">
-        <v>0.999992</v>
+        <v>0.960086</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.10301</v>
+        <v>3.15535</v>
       </c>
       <c r="C73" t="n">
-        <v>2.26517</v>
+        <v>2.26959</v>
       </c>
       <c r="D73" t="n">
-        <v>1.04736</v>
+        <v>1.02654</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.05315</v>
+        <v>1.90432</v>
       </c>
       <c r="C74" t="n">
-        <v>2.40994</v>
+        <v>2.39622</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1198</v>
+        <v>1.10642</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.12057</v>
+        <v>2.08974</v>
       </c>
       <c r="C75" t="n">
-        <v>2.66572</v>
+        <v>2.50838</v>
       </c>
       <c r="D75" t="n">
-        <v>1.2221</v>
+        <v>1.16168</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.26117</v>
+        <v>2.2188</v>
       </c>
       <c r="C76" t="n">
-        <v>2.83687</v>
+        <v>2.78089</v>
       </c>
       <c r="D76" t="n">
-        <v>1.27927</v>
+        <v>1.24819</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.36259</v>
+        <v>2.31718</v>
       </c>
       <c r="C77" t="n">
-        <v>3.01164</v>
+        <v>2.99727</v>
       </c>
       <c r="D77" t="n">
-        <v>1.33543</v>
+        <v>1.32832</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.53439</v>
+        <v>2.50887</v>
       </c>
       <c r="C78" t="n">
-        <v>3.23858</v>
+        <v>3.22344</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44202</v>
+        <v>1.44396</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.78402</v>
+        <v>2.56722</v>
       </c>
       <c r="C79" t="n">
-        <v>3.47346</v>
+        <v>3.46334</v>
       </c>
       <c r="D79" t="n">
-        <v>1.5251</v>
+        <v>1.51069</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.00098</v>
+        <v>2.77834</v>
       </c>
       <c r="C80" t="n">
-        <v>3.73443</v>
+        <v>3.56844</v>
       </c>
       <c r="D80" t="n">
-        <v>1.64181</v>
+        <v>1.63025</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.99459</v>
+        <v>3.02863</v>
       </c>
       <c r="C81" t="n">
-        <v>3.81194</v>
+        <v>3.77868</v>
       </c>
       <c r="D81" t="n">
-        <v>1.68016</v>
+        <v>1.74297</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.14012</v>
+        <v>3.21605</v>
       </c>
       <c r="C82" t="n">
-        <v>4.0095</v>
+        <v>4.07833</v>
       </c>
       <c r="D82" t="n">
-        <v>1.80244</v>
+        <v>1.81016</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.39897</v>
+        <v>3.32124</v>
       </c>
       <c r="C83" t="n">
-        <v>2.36027</v>
+        <v>2.39335</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26837</v>
+        <v>1.23603</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.63728</v>
+        <v>3.61657</v>
       </c>
       <c r="C84" t="n">
-        <v>2.56166</v>
+        <v>2.50736</v>
       </c>
       <c r="D84" t="n">
-        <v>1.28136</v>
+        <v>1.2672</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.82593</v>
+        <v>3.72566</v>
       </c>
       <c r="C85" t="n">
-        <v>2.62334</v>
+        <v>2.63864</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35468</v>
+        <v>1.38946</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.04716</v>
+        <v>3.96025</v>
       </c>
       <c r="C86" t="n">
-        <v>2.90251</v>
+        <v>2.78391</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42698</v>
+        <v>1.41945</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.14601</v>
+        <v>4.18416</v>
       </c>
       <c r="C87" t="n">
-        <v>2.94231</v>
+        <v>2.95913</v>
       </c>
       <c r="D87" t="n">
-        <v>1.48602</v>
+        <v>1.51835</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.39091</v>
+        <v>4.49143</v>
       </c>
       <c r="C88" t="n">
-        <v>3.27926</v>
+        <v>3.15945</v>
       </c>
       <c r="D88" t="n">
-        <v>1.58951</v>
+        <v>1.62454</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.60839</v>
+        <v>2.63774</v>
       </c>
       <c r="C89" t="n">
-        <v>3.28411</v>
+        <v>3.26645</v>
       </c>
       <c r="D89" t="n">
-        <v>1.64822</v>
+        <v>1.6858</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7447</v>
+        <v>2.76337</v>
       </c>
       <c r="C90" t="n">
-        <v>3.52218</v>
+        <v>3.49759</v>
       </c>
       <c r="D90" t="n">
-        <v>1.74539</v>
+        <v>1.82559</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.84</v>
+        <v>2.88259</v>
       </c>
       <c r="C91" t="n">
-        <v>3.66833</v>
+        <v>3.70655</v>
       </c>
       <c r="D91" t="n">
-        <v>1.81987</v>
+        <v>1.85331</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.9863</v>
+        <v>3.0926</v>
       </c>
       <c r="C92" t="n">
-        <v>3.95258</v>
+        <v>3.98249</v>
       </c>
       <c r="D92" t="n">
-        <v>1.95122</v>
+        <v>1.97522</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.20378</v>
+        <v>3.19254</v>
       </c>
       <c r="C93" t="n">
-        <v>4.15536</v>
+        <v>4.14437</v>
       </c>
       <c r="D93" t="n">
-        <v>2.06886</v>
+        <v>2.09332</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.34025</v>
+        <v>3.39416</v>
       </c>
       <c r="C94" t="n">
-        <v>4.44298</v>
+        <v>4.48367</v>
       </c>
       <c r="D94" t="n">
-        <v>2.17707</v>
+        <v>2.14392</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.53091</v>
+        <v>3.50972</v>
       </c>
       <c r="C95" t="n">
-        <v>4.64083</v>
+        <v>4.69097</v>
       </c>
       <c r="D95" t="n">
-        <v>2.26434</v>
+        <v>2.25574</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.77254</v>
+        <v>3.78541</v>
       </c>
       <c r="C96" t="n">
-        <v>4.90948</v>
+        <v>5.06621</v>
       </c>
       <c r="D96" t="n">
-        <v>2.30941</v>
+        <v>2.40265</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.91412</v>
+        <v>3.94009</v>
       </c>
       <c r="C97" t="n">
-        <v>2.79257</v>
+        <v>2.78127</v>
       </c>
       <c r="D97" t="n">
-        <v>1.62392</v>
+        <v>1.61498</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.19704</v>
+        <v>4.11205</v>
       </c>
       <c r="C98" t="n">
-        <v>2.9586</v>
+        <v>3.03223</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66603</v>
+        <v>1.68317</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.37874</v>
+        <v>4.26346</v>
       </c>
       <c r="C99" t="n">
-        <v>3.19996</v>
+        <v>3.0842</v>
       </c>
       <c r="D99" t="n">
-        <v>1.76418</v>
+        <v>1.69549</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.52312</v>
+        <v>4.54102</v>
       </c>
       <c r="C100" t="n">
-        <v>3.22307</v>
+        <v>3.28089</v>
       </c>
       <c r="D100" t="n">
-        <v>1.78975</v>
+        <v>1.83288</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.74249</v>
+        <v>4.78508</v>
       </c>
       <c r="C101" t="n">
-        <v>3.36577</v>
+        <v>3.4508</v>
       </c>
       <c r="D101" t="n">
-        <v>1.88571</v>
+        <v>1.92086</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.03023</v>
+        <v>4.98854</v>
       </c>
       <c r="C102" t="n">
-        <v>3.63868</v>
+        <v>3.56044</v>
       </c>
       <c r="D102" t="n">
-        <v>1.99293</v>
+        <v>1.94816</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.90531</v>
+        <v>2.93349</v>
       </c>
       <c r="C103" t="n">
-        <v>3.80662</v>
+        <v>3.80387</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0571</v>
+        <v>2.03815</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.04816</v>
+        <v>3.00603</v>
       </c>
       <c r="C104" t="n">
-        <v>4.02053</v>
+        <v>3.97255</v>
       </c>
       <c r="D104" t="n">
-        <v>2.12447</v>
+        <v>2.18353</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.21483</v>
+        <v>3.23029</v>
       </c>
       <c r="C105" t="n">
-        <v>4.21847</v>
+        <v>4.21478</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22399</v>
+        <v>2.26116</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.37015</v>
+        <v>3.38462</v>
       </c>
       <c r="C106" t="n">
-        <v>4.47479</v>
+        <v>4.45461</v>
       </c>
       <c r="D106" t="n">
-        <v>2.34235</v>
+        <v>2.31413</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.55424</v>
+        <v>3.52168</v>
       </c>
       <c r="C107" t="n">
-        <v>4.73203</v>
+        <v>4.63128</v>
       </c>
       <c r="D107" t="n">
-        <v>2.4432</v>
+        <v>2.37653</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.67778</v>
+        <v>3.69545</v>
       </c>
       <c r="C108" t="n">
-        <v>4.89771</v>
+        <v>4.90548</v>
       </c>
       <c r="D108" t="n">
-        <v>2.52253</v>
+        <v>2.5117</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.90615</v>
+        <v>3.8679</v>
       </c>
       <c r="C109" t="n">
-        <v>5.2156</v>
+        <v>5.16082</v>
       </c>
       <c r="D109" t="n">
-        <v>2.62635</v>
+        <v>2.68149</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.0653</v>
+        <v>4.10639</v>
       </c>
       <c r="C110" t="n">
-        <v>5.4132</v>
+        <v>5.44974</v>
       </c>
       <c r="D110" t="n">
-        <v>2.71398</v>
+        <v>2.8015</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.314</v>
+        <v>4.26436</v>
       </c>
       <c r="C111" t="n">
-        <v>3.04366</v>
+        <v>3.04295</v>
       </c>
       <c r="D111" t="n">
-        <v>1.87734</v>
+        <v>1.93838</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.48923</v>
+        <v>4.4215</v>
       </c>
       <c r="C112" t="n">
-        <v>3.21467</v>
+        <v>3.15524</v>
       </c>
       <c r="D112" t="n">
-        <v>1.92548</v>
+        <v>1.98988</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.66937</v>
+        <v>4.7534</v>
       </c>
       <c r="C113" t="n">
-        <v>3.37287</v>
+        <v>3.33114</v>
       </c>
       <c r="D113" t="n">
-        <v>2.0877</v>
+        <v>2.0677</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.88186</v>
+        <v>4.94589</v>
       </c>
       <c r="C114" t="n">
-        <v>3.51968</v>
+        <v>3.51094</v>
       </c>
       <c r="D114" t="n">
-        <v>2.04897</v>
+        <v>2.15009</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.23245</v>
+        <v>5.15781</v>
       </c>
       <c r="C115" t="n">
-        <v>3.6812</v>
+        <v>3.66423</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22468</v>
+        <v>2.24231</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.37523</v>
+        <v>5.41575</v>
       </c>
       <c r="C116" t="n">
-        <v>3.89986</v>
+        <v>3.89465</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24895</v>
+        <v>2.32317</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.10172</v>
+        <v>3.13099</v>
       </c>
       <c r="C117" t="n">
-        <v>4.13695</v>
+        <v>4.08762</v>
       </c>
       <c r="D117" t="n">
-        <v>2.36952</v>
+        <v>2.37298</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.24629</v>
+        <v>3.35488</v>
       </c>
       <c r="C118" t="n">
-        <v>4.33437</v>
+        <v>4.33525</v>
       </c>
       <c r="D118" t="n">
-        <v>2.52143</v>
+        <v>2.46843</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.42496</v>
+        <v>3.51906</v>
       </c>
       <c r="C119" t="n">
-        <v>4.53326</v>
+        <v>4.55693</v>
       </c>
       <c r="D119" t="n">
-        <v>2.58584</v>
+        <v>2.53026</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22988</v>
+        <v>0.225435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.213157</v>
+        <v>0.209245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234616</v>
+        <v>0.240007</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.234023</v>
+        <v>0.229746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21021</v>
+        <v>0.21238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234296</v>
+        <v>0.243694</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.229759</v>
+        <v>0.234665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215924</v>
+        <v>0.220938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240173</v>
+        <v>0.246657</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240317</v>
+        <v>0.238365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226872</v>
+        <v>0.226517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247469</v>
+        <v>0.248504</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244273</v>
+        <v>0.246843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224408</v>
+        <v>0.231526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.257493</v>
+        <v>0.263885</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248227</v>
+        <v>0.24457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.184757</v>
+        <v>0.186719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222017</v>
+        <v>0.213291</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.255666</v>
+        <v>0.248868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199975</v>
+        <v>0.190666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215728</v>
+        <v>0.226258</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.255072</v>
+        <v>0.256682</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198597</v>
+        <v>0.195143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232192</v>
+        <v>0.226716</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.255835</v>
+        <v>0.25939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201901</v>
+        <v>0.205383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239148</v>
+        <v>0.234094</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.261706</v>
+        <v>0.263322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217254</v>
+        <v>0.203296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246258</v>
+        <v>0.235885</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2702</v>
+        <v>0.266966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218368</v>
+        <v>0.211634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254073</v>
+        <v>0.248513</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226276</v>
+        <v>0.220534</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22144</v>
+        <v>0.215296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263207</v>
+        <v>0.250564</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.223671</v>
+        <v>0.226792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223126</v>
+        <v>0.229798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254358</v>
+        <v>0.255978</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.234371</v>
+        <v>0.233429</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225614</v>
+        <v>0.231179</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274923</v>
+        <v>0.271027</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.238621</v>
+        <v>0.246055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230757</v>
+        <v>0.23825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.273065</v>
+        <v>0.273892</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256423</v>
+        <v>0.248122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239944</v>
+        <v>0.243877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287506</v>
+        <v>0.276799</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250615</v>
+        <v>0.254104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240583</v>
+        <v>0.237845</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292766</v>
+        <v>0.28429</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267752</v>
+        <v>0.257677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24379</v>
+        <v>0.247074</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307125</v>
+        <v>0.299221</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252222</v>
+        <v>0.253918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250175</v>
+        <v>0.251104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.297005</v>
+        <v>0.304593</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263445</v>
+        <v>0.256653</v>
       </c>
       <c r="C21" t="n">
-        <v>0.197794</v>
+        <v>0.199886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235195</v>
+        <v>0.231897</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.269664</v>
+        <v>0.272701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202972</v>
+        <v>0.204689</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239706</v>
+        <v>0.237817</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262992</v>
+        <v>0.275755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214121</v>
+        <v>0.210867</v>
       </c>
       <c r="D23" t="n">
-        <v>0.251677</v>
+        <v>0.248244</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280525</v>
+        <v>0.285774</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213006</v>
+        <v>0.216174</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252458</v>
+        <v>0.255175</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297595</v>
+        <v>0.277532</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230339</v>
+        <v>0.218636</v>
       </c>
       <c r="D25" t="n">
-        <v>0.266993</v>
+        <v>0.262256</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289409</v>
+        <v>0.28459</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229315</v>
+        <v>0.229337</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265257</v>
+        <v>0.271134</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235856</v>
+        <v>0.240155</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231933</v>
+        <v>0.236822</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276211</v>
+        <v>0.283925</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.245394</v>
+        <v>0.244829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234207</v>
+        <v>0.247541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291947</v>
+        <v>0.291972</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263498</v>
+        <v>0.259137</v>
       </c>
       <c r="C29" t="n">
-        <v>0.253177</v>
+        <v>0.247169</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29972</v>
+        <v>0.298712</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.259564</v>
+        <v>0.268769</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251001</v>
+        <v>0.251613</v>
       </c>
       <c r="D30" t="n">
-        <v>0.295711</v>
+        <v>0.302995</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267823</v>
+        <v>0.273361</v>
       </c>
       <c r="C31" t="n">
-        <v>0.262089</v>
+        <v>0.257235</v>
       </c>
       <c r="D31" t="n">
-        <v>0.308775</v>
+        <v>0.318518</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298574</v>
+        <v>0.291289</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266801</v>
+        <v>0.273357</v>
       </c>
       <c r="D32" t="n">
-        <v>0.310479</v>
+        <v>0.32848</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.291888</v>
+        <v>0.285836</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272414</v>
+        <v>0.280194</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332068</v>
+        <v>0.338967</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.290483</v>
+        <v>0.299756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.271752</v>
+        <v>0.295783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.336804</v>
+        <v>0.350425</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.30608</v>
+        <v>0.303147</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226559</v>
+        <v>0.224212</v>
       </c>
       <c r="D35" t="n">
-        <v>0.265516</v>
+        <v>0.273242</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.311341</v>
+        <v>0.312876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228496</v>
+        <v>0.237319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286109</v>
+        <v>0.276308</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.317484</v>
+        <v>0.333787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236562</v>
+        <v>0.2393</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280593</v>
+        <v>0.286713</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.33216</v>
+        <v>0.342447</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252486</v>
+        <v>0.250388</v>
       </c>
       <c r="D38" t="n">
-        <v>0.302897</v>
+        <v>0.301144</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.354761</v>
+        <v>0.353979</v>
       </c>
       <c r="C39" t="n">
-        <v>0.262897</v>
+        <v>0.261026</v>
       </c>
       <c r="D39" t="n">
-        <v>0.305912</v>
+        <v>0.318072</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.351425</v>
+        <v>0.352067</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263939</v>
+        <v>0.271268</v>
       </c>
       <c r="D40" t="n">
-        <v>0.318497</v>
+        <v>0.328777</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.31567</v>
+        <v>0.321358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.27582</v>
+        <v>0.283322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.343892</v>
+        <v>0.339744</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.336028</v>
+        <v>0.332706</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29282</v>
+        <v>0.284541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.339891</v>
+        <v>0.35781</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.354482</v>
+        <v>0.354781</v>
       </c>
       <c r="C43" t="n">
-        <v>0.302628</v>
+        <v>0.302008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.360653</v>
+        <v>0.364423</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.355782</v>
+        <v>0.352955</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313682</v>
+        <v>0.322611</v>
       </c>
       <c r="D44" t="n">
-        <v>0.394999</v>
+        <v>0.38963</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.372879</v>
+        <v>0.379951</v>
       </c>
       <c r="C45" t="n">
-        <v>0.321371</v>
+        <v>0.332532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.387319</v>
+        <v>0.396206</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.395036</v>
+        <v>0.389007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.334178</v>
+        <v>0.339493</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408163</v>
+        <v>0.412571</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.396894</v>
+        <v>0.401659</v>
       </c>
       <c r="C47" t="n">
-        <v>0.351325</v>
+        <v>0.356803</v>
       </c>
       <c r="D47" t="n">
-        <v>0.421813</v>
+        <v>0.421298</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.415297</v>
+        <v>0.416809</v>
       </c>
       <c r="C48" t="n">
-        <v>0.371666</v>
+        <v>0.376932</v>
       </c>
       <c r="D48" t="n">
-        <v>0.436186</v>
+        <v>0.455031</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.433716</v>
+        <v>0.456161</v>
       </c>
       <c r="C49" t="n">
-        <v>0.377155</v>
+        <v>0.393007</v>
       </c>
       <c r="D49" t="n">
-        <v>0.457547</v>
+        <v>0.467069</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.441223</v>
+        <v>0.444758</v>
       </c>
       <c r="C50" t="n">
-        <v>0.320021</v>
+        <v>0.312138</v>
       </c>
       <c r="D50" t="n">
-        <v>0.369629</v>
+        <v>0.370163</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.46819</v>
+        <v>0.490612</v>
       </c>
       <c r="C51" t="n">
-        <v>0.327312</v>
+        <v>0.32264</v>
       </c>
       <c r="D51" t="n">
-        <v>0.401085</v>
+        <v>0.393392</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.519286</v>
+        <v>0.494135</v>
       </c>
       <c r="C52" t="n">
-        <v>0.342835</v>
+        <v>0.347306</v>
       </c>
       <c r="D52" t="n">
-        <v>0.39909</v>
+        <v>0.415292</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.507145</v>
+        <v>0.524397</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348755</v>
+        <v>0.358743</v>
       </c>
       <c r="D53" t="n">
-        <v>0.417064</v>
+        <v>0.434091</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.523509</v>
+        <v>0.535498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.367162</v>
+        <v>0.372475</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4425</v>
+        <v>0.449058</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.575665</v>
+        <v>0.5580270000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.375023</v>
+        <v>0.392471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.470741</v>
+        <v>0.490332</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.518126</v>
+        <v>0.506417</v>
       </c>
       <c r="C56" t="n">
-        <v>0.401787</v>
+        <v>0.408589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.475857</v>
+        <v>0.497175</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.53135</v>
+        <v>0.550332</v>
       </c>
       <c r="C57" t="n">
-        <v>0.443033</v>
+        <v>0.433731</v>
       </c>
       <c r="D57" t="n">
-        <v>0.523443</v>
+        <v>0.519188</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5747100000000001</v>
+        <v>0.551961</v>
       </c>
       <c r="C58" t="n">
-        <v>0.45547</v>
+        <v>0.470049</v>
       </c>
       <c r="D58" t="n">
-        <v>0.525685</v>
+        <v>0.55093</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.570281</v>
+        <v>0.5974120000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4819</v>
+        <v>0.494166</v>
       </c>
       <c r="D59" t="n">
-        <v>0.569233</v>
+        <v>0.565464</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.592753</v>
+        <v>0.596263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.497116</v>
+        <v>0.495392</v>
       </c>
       <c r="D60" t="n">
-        <v>0.589284</v>
+        <v>0.601539</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.612837</v>
+        <v>0.64936</v>
       </c>
       <c r="C61" t="n">
-        <v>0.520003</v>
+        <v>0.508015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.605204</v>
+        <v>0.626271</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.650849</v>
+        <v>0.680295</v>
       </c>
       <c r="C62" t="n">
-        <v>0.55533</v>
+        <v>0.562014</v>
       </c>
       <c r="D62" t="n">
-        <v>0.668757</v>
+        <v>0.658142</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.68838</v>
+        <v>0.71171</v>
       </c>
       <c r="C63" t="n">
-        <v>0.575036</v>
+        <v>0.612339</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688547</v>
+        <v>0.731594</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.704838</v>
+        <v>0.714198</v>
       </c>
       <c r="C64" t="n">
-        <v>0.501207</v>
+        <v>0.499184</v>
       </c>
       <c r="D64" t="n">
-        <v>0.60833</v>
+        <v>0.601536</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.731116</v>
+        <v>0.783805</v>
       </c>
       <c r="C65" t="n">
-        <v>0.518614</v>
+        <v>0.533352</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6288319999999999</v>
+        <v>0.647015</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.769252</v>
+        <v>0.796446</v>
       </c>
       <c r="C66" t="n">
-        <v>0.543916</v>
+        <v>0.573379</v>
       </c>
       <c r="D66" t="n">
-        <v>0.632466</v>
+        <v>0.672369</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7911049999999999</v>
+        <v>0.825059</v>
       </c>
       <c r="C67" t="n">
-        <v>0.579786</v>
+        <v>0.592578</v>
       </c>
       <c r="D67" t="n">
-        <v>0.684935</v>
+        <v>0.68343</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.836625</v>
+        <v>0.848195</v>
       </c>
       <c r="C68" t="n">
-        <v>0.589491</v>
+        <v>0.609089</v>
       </c>
       <c r="D68" t="n">
-        <v>0.720486</v>
+        <v>0.709561</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.889553</v>
+        <v>0.922023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.608649</v>
+        <v>0.630327</v>
       </c>
       <c r="D69" t="n">
-        <v>0.75243</v>
+        <v>0.7836610000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.719804</v>
+        <v>0.759929</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6736839999999999</v>
+        <v>0.677494</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7889659999999999</v>
+        <v>0.7963249999999999</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.755565</v>
+        <v>0.800974</v>
       </c>
       <c r="C71" t="n">
-        <v>0.721397</v>
+        <v>0.699128</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8330149999999999</v>
+        <v>0.8283700000000001</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790525</v>
+        <v>0.8061160000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.745526</v>
+        <v>0.74603</v>
       </c>
       <c r="D72" t="n">
-        <v>0.897024</v>
+        <v>0.849396</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.821678</v>
+        <v>0.824385</v>
       </c>
       <c r="C73" t="n">
-        <v>0.78432</v>
+        <v>0.778953</v>
       </c>
       <c r="D73" t="n">
-        <v>0.900085</v>
+        <v>0.873314</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8633690000000001</v>
+        <v>0.874054</v>
       </c>
       <c r="C74" t="n">
-        <v>0.81813</v>
+        <v>0.795984</v>
       </c>
       <c r="D74" t="n">
-        <v>0.956499</v>
+        <v>0.9267570000000001</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.900282</v>
+        <v>0.885148</v>
       </c>
       <c r="C75" t="n">
-        <v>0.831496</v>
+        <v>0.825638</v>
       </c>
       <c r="D75" t="n">
-        <v>1.00699</v>
+        <v>0.982572</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.889053</v>
+        <v>0.936648</v>
       </c>
       <c r="C76" t="n">
-        <v>0.862378</v>
+        <v>0.873481</v>
       </c>
       <c r="D76" t="n">
-        <v>1.04656</v>
+        <v>1.05437</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.958026</v>
+        <v>0.9505670000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.905068</v>
+        <v>0.918125</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07693</v>
+        <v>1.07473</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.982202</v>
+        <v>0.944653</v>
       </c>
       <c r="C78" t="n">
-        <v>0.700633</v>
+        <v>0.736751</v>
       </c>
       <c r="D78" t="n">
-        <v>0.871435</v>
+        <v>0.898847</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.996108</v>
+        <v>0.994691</v>
       </c>
       <c r="C79" t="n">
-        <v>0.745874</v>
+        <v>0.733531</v>
       </c>
       <c r="D79" t="n">
-        <v>0.919625</v>
+        <v>0.885301</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.0318</v>
+        <v>1.02847</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786369</v>
+        <v>0.7934330000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.976065</v>
+        <v>0.9567</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06072</v>
+        <v>1.06119</v>
       </c>
       <c r="C81" t="n">
-        <v>0.808441</v>
+        <v>0.789254</v>
       </c>
       <c r="D81" t="n">
-        <v>0.982887</v>
+        <v>0.982577</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08394</v>
+        <v>1.08135</v>
       </c>
       <c r="C82" t="n">
-        <v>0.84631</v>
+        <v>0.83732</v>
       </c>
       <c r="D82" t="n">
-        <v>1.02472</v>
+        <v>1.05243</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12742</v>
+        <v>1.11585</v>
       </c>
       <c r="C83" t="n">
-        <v>0.855016</v>
+        <v>0.871731</v>
       </c>
       <c r="D83" t="n">
-        <v>1.05723</v>
+        <v>1.07344</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.897574</v>
+        <v>0.883478</v>
       </c>
       <c r="C84" t="n">
-        <v>0.888252</v>
+        <v>0.874853</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09756</v>
+        <v>1.09762</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.92903</v>
+        <v>0.898989</v>
       </c>
       <c r="C85" t="n">
-        <v>0.929759</v>
+        <v>0.908985</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15847</v>
+        <v>1.17301</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.94867</v>
+        <v>0.932734</v>
       </c>
       <c r="C86" t="n">
-        <v>0.951447</v>
+        <v>0.944488</v>
       </c>
       <c r="D86" t="n">
-        <v>1.19042</v>
+        <v>1.16241</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.972125</v>
+        <v>0.967112</v>
       </c>
       <c r="C87" t="n">
-        <v>0.961827</v>
+        <v>0.961936</v>
       </c>
       <c r="D87" t="n">
-        <v>1.26147</v>
+        <v>1.19429</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.986228</v>
+        <v>1.01094</v>
       </c>
       <c r="C88" t="n">
-        <v>1.01992</v>
+        <v>1.00233</v>
       </c>
       <c r="D88" t="n">
-        <v>1.25886</v>
+        <v>1.24406</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01658</v>
+        <v>1.0117</v>
       </c>
       <c r="C89" t="n">
-        <v>1.05516</v>
+        <v>1.03452</v>
       </c>
       <c r="D89" t="n">
-        <v>1.32518</v>
+        <v>1.27611</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.04383</v>
+        <v>1.05812</v>
       </c>
       <c r="C90" t="n">
-        <v>1.09397</v>
+        <v>1.08115</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34091</v>
+        <v>1.29468</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06697</v>
+        <v>1.06122</v>
       </c>
       <c r="C91" t="n">
-        <v>1.10652</v>
+        <v>1.09393</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36081</v>
+        <v>1.36922</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.12495</v>
+        <v>1.08404</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8763030000000001</v>
+        <v>0.86469</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12533</v>
+        <v>1.1352</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13395</v>
+        <v>1.12976</v>
       </c>
       <c r="C93" t="n">
-        <v>0.891838</v>
+        <v>0.903976</v>
       </c>
       <c r="D93" t="n">
-        <v>1.14663</v>
+        <v>1.15028</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14466</v>
+        <v>1.16351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.923392</v>
+        <v>0.893872</v>
       </c>
       <c r="D94" t="n">
-        <v>1.21745</v>
+        <v>1.19234</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20014</v>
+        <v>1.18601</v>
       </c>
       <c r="C95" t="n">
-        <v>0.936898</v>
+        <v>0.934967</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21408</v>
+        <v>1.23023</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19631</v>
+        <v>1.21525</v>
       </c>
       <c r="C96" t="n">
-        <v>0.945993</v>
+        <v>0.983487</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23933</v>
+        <v>1.23196</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26133</v>
+        <v>1.26185</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01325</v>
+        <v>0.9980019999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1.26813</v>
+        <v>1.2792</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.990164</v>
+        <v>0.970334</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01685</v>
+        <v>1.00974</v>
       </c>
       <c r="D98" t="n">
-        <v>1.31823</v>
+        <v>1.33824</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00194</v>
+        <v>0.995322</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03564</v>
+        <v>1.06084</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35898</v>
+        <v>1.4046</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01899</v>
+        <v>1.02967</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07176</v>
+        <v>1.08295</v>
       </c>
       <c r="D100" t="n">
-        <v>1.40714</v>
+        <v>1.41752</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.03864</v>
+        <v>1.03238</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1196</v>
+        <v>1.10293</v>
       </c>
       <c r="D101" t="n">
-        <v>1.42978</v>
+        <v>1.44657</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07265</v>
+        <v>1.08455</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14165</v>
+        <v>1.13831</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55371</v>
+        <v>1.46632</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11094</v>
+        <v>1.11178</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16796</v>
+        <v>1.19608</v>
       </c>
       <c r="D103" t="n">
-        <v>1.53219</v>
+        <v>1.49233</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.13946</v>
+        <v>1.13875</v>
       </c>
       <c r="C104" t="n">
-        <v>1.22098</v>
+        <v>1.20277</v>
       </c>
       <c r="D104" t="n">
-        <v>1.61018</v>
+        <v>1.52791</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18335</v>
+        <v>1.1461</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25944</v>
+        <v>1.21406</v>
       </c>
       <c r="D105" t="n">
-        <v>1.57014</v>
+        <v>1.60694</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.19857</v>
+        <v>1.19627</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29247</v>
+        <v>1.28071</v>
       </c>
       <c r="D106" t="n">
-        <v>1.70689</v>
+        <v>1.6588</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.21986</v>
+        <v>1.24539</v>
       </c>
       <c r="C107" t="n">
-        <v>0.969819</v>
+        <v>0.998039</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25759</v>
+        <v>1.26176</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.28144</v>
+        <v>1.25361</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04149</v>
+        <v>1.00918</v>
       </c>
       <c r="D108" t="n">
-        <v>1.34228</v>
+        <v>1.30163</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.29047</v>
+        <v>1.26281</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04763</v>
+        <v>1.0313</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34517</v>
+        <v>1.33265</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.28112</v>
+        <v>1.29571</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08199</v>
+        <v>1.07284</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39607</v>
+        <v>1.35937</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40248</v>
+        <v>1.35997</v>
       </c>
       <c r="C111" t="n">
-        <v>1.088</v>
+        <v>1.07948</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39751</v>
+        <v>1.41118</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11447</v>
+        <v>1.08209</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18046</v>
+        <v>1.09923</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50961</v>
+        <v>1.47893</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10614</v>
+        <v>1.07552</v>
       </c>
       <c r="C113" t="n">
-        <v>1.14208</v>
+        <v>1.13742</v>
       </c>
       <c r="D113" t="n">
-        <v>1.49775</v>
+        <v>1.49813</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.11245</v>
+        <v>1.1187</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15993</v>
+        <v>1.14344</v>
       </c>
       <c r="D114" t="n">
-        <v>1.51777</v>
+        <v>1.54715</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11846</v>
+        <v>1.11688</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23656</v>
+        <v>1.17853</v>
       </c>
       <c r="D115" t="n">
-        <v>1.68092</v>
+        <v>1.60088</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16197</v>
+        <v>1.17406</v>
       </c>
       <c r="C116" t="n">
-        <v>1.23359</v>
+        <v>1.2371</v>
       </c>
       <c r="D116" t="n">
-        <v>1.64856</v>
+        <v>1.63786</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.26232</v>
+        <v>1.18898</v>
       </c>
       <c r="C117" t="n">
-        <v>1.26191</v>
+        <v>1.28694</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66269</v>
+        <v>1.67015</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22609</v>
+        <v>1.22752</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30419</v>
+        <v>1.32702</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75653</v>
+        <v>1.73289</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.24226</v>
+        <v>1.26112</v>
       </c>
       <c r="C119" t="n">
-        <v>1.36854</v>
+        <v>1.34903</v>
       </c>
       <c r="D119" t="n">
-        <v>1.78692</v>
+        <v>1.83698</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191051</v>
+        <v>0.189437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180462</v>
+        <v>0.184763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143624</v>
+        <v>0.146424</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191481</v>
+        <v>0.192849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18495</v>
+        <v>0.185905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.146982</v>
+        <v>0.142307</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198918</v>
+        <v>0.198054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19473</v>
+        <v>0.201378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.151411</v>
+        <v>0.157935</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210237</v>
+        <v>0.210887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202991</v>
+        <v>0.203007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.152145</v>
+        <v>0.155648</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.206303</v>
+        <v>0.205545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.203962</v>
+        <v>0.202783</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153482</v>
+        <v>0.149824</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216973</v>
+        <v>0.210074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.171453</v>
+        <v>0.168334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.150222</v>
+        <v>0.146486</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222881</v>
+        <v>0.229618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172706</v>
+        <v>0.165453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.152493</v>
+        <v>0.146775</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.221871</v>
+        <v>0.223907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17289</v>
+        <v>0.173383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.147077</v>
+        <v>0.15504</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236096</v>
+        <v>0.22413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1795</v>
+        <v>0.17562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.153032</v>
+        <v>0.150474</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.236485</v>
+        <v>0.233253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186152</v>
+        <v>0.180142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.155394</v>
+        <v>0.160649</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246517</v>
+        <v>0.242876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190979</v>
+        <v>0.186256</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15679</v>
+        <v>0.156726</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.197165</v>
+        <v>0.191257</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193198</v>
+        <v>0.187844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159479</v>
+        <v>0.159128</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.193814</v>
+        <v>0.199949</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197311</v>
+        <v>0.196425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15972</v>
+        <v>0.157396</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.199616</v>
+        <v>0.2022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204662</v>
+        <v>0.201392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.162734</v>
+        <v>0.163515</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209011</v>
+        <v>0.202888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216741</v>
+        <v>0.206783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16722</v>
+        <v>0.162869</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.213399</v>
+        <v>0.216077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209939</v>
+        <v>0.212775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172832</v>
+        <v>0.171519</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.218085</v>
+        <v>0.212347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21524</v>
+        <v>0.215851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180208</v>
+        <v>0.171547</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.220531</v>
+        <v>0.220162</v>
       </c>
       <c r="C19" t="n">
-        <v>0.224153</v>
+        <v>0.230696</v>
       </c>
       <c r="D19" t="n">
-        <v>0.181734</v>
+        <v>0.182628</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218818</v>
+        <v>0.228338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236773</v>
+        <v>0.240928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184425</v>
+        <v>0.18397</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242688</v>
+        <v>0.236881</v>
       </c>
       <c r="C21" t="n">
-        <v>0.181692</v>
+        <v>0.183066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157846</v>
+        <v>0.160879</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233858</v>
+        <v>0.234814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186785</v>
+        <v>0.187168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158652</v>
+        <v>0.165991</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.247796</v>
+        <v>0.249517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202326</v>
+        <v>0.194678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164661</v>
+        <v>0.168574</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.254933</v>
+        <v>0.247847</v>
       </c>
       <c r="C24" t="n">
-        <v>0.196383</v>
+        <v>0.202628</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16587</v>
+        <v>0.169099</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.258469</v>
+        <v>0.255255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207653</v>
+        <v>0.2104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171011</v>
+        <v>0.173928</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274269</v>
+        <v>0.252942</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21425</v>
+        <v>0.206429</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177403</v>
+        <v>0.176612</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225008</v>
+        <v>0.23082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.226913</v>
+        <v>0.217651</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178293</v>
+        <v>0.173583</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.236408</v>
+        <v>0.225892</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223426</v>
+        <v>0.215226</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186356</v>
+        <v>0.184505</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.238058</v>
+        <v>0.235126</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227495</v>
+        <v>0.231465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.19683</v>
+        <v>0.183254</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.243575</v>
+        <v>0.253128</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239401</v>
+        <v>0.237206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187007</v>
+        <v>0.191992</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253532</v>
+        <v>0.25756</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244044</v>
+        <v>0.239811</v>
       </c>
       <c r="D31" t="n">
-        <v>0.194448</v>
+        <v>0.192312</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267724</v>
+        <v>0.267517</v>
       </c>
       <c r="C32" t="n">
-        <v>0.24634</v>
+        <v>0.258813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19941</v>
+        <v>0.207675</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266833</v>
+        <v>0.274842</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275474</v>
+        <v>0.276672</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20527</v>
+        <v>0.204243</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.284306</v>
+        <v>0.272432</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27548</v>
+        <v>0.272816</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208673</v>
+        <v>0.21137</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.294422</v>
+        <v>0.285912</v>
       </c>
       <c r="C35" t="n">
-        <v>0.227789</v>
+        <v>0.220679</v>
       </c>
       <c r="D35" t="n">
-        <v>0.18682</v>
+        <v>0.186243</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.302143</v>
+        <v>0.295893</v>
       </c>
       <c r="C36" t="n">
-        <v>0.226872</v>
+        <v>0.221395</v>
       </c>
       <c r="D36" t="n">
-        <v>0.187004</v>
+        <v>0.192844</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.312886</v>
+        <v>0.311895</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244774</v>
+        <v>0.24053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.198048</v>
+        <v>0.190888</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34323</v>
+        <v>0.328704</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246746</v>
+        <v>0.239969</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197579</v>
+        <v>0.193792</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.332662</v>
+        <v>0.33271</v>
       </c>
       <c r="C39" t="n">
-        <v>0.249647</v>
+        <v>0.257703</v>
       </c>
       <c r="D39" t="n">
-        <v>0.208002</v>
+        <v>0.209236</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.355484</v>
+        <v>0.359443</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263237</v>
+        <v>0.270273</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212339</v>
+        <v>0.213305</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.318737</v>
+        <v>0.317854</v>
       </c>
       <c r="C41" t="n">
-        <v>0.277435</v>
+        <v>0.276011</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219355</v>
+        <v>0.217667</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32798</v>
+        <v>0.329516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29532</v>
+        <v>0.286924</v>
       </c>
       <c r="D42" t="n">
-        <v>0.219902</v>
+        <v>0.228057</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.341471</v>
+        <v>0.337101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306617</v>
+        <v>0.303647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228284</v>
+        <v>0.231414</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.364558</v>
+        <v>0.344394</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307198</v>
+        <v>0.31948</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238181</v>
+        <v>0.23498</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355538</v>
+        <v>0.360365</v>
       </c>
       <c r="C45" t="n">
-        <v>0.330817</v>
+        <v>0.323691</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242916</v>
+        <v>0.247437</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.378284</v>
+        <v>0.372859</v>
       </c>
       <c r="C46" t="n">
-        <v>0.34618</v>
+        <v>0.346607</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254345</v>
+        <v>0.266766</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.39422</v>
+        <v>0.389626</v>
       </c>
       <c r="C47" t="n">
-        <v>0.358088</v>
+        <v>0.366384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.264357</v>
+        <v>0.278306</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.408605</v>
+        <v>0.406419</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3745</v>
+        <v>0.395165</v>
       </c>
       <c r="D48" t="n">
-        <v>0.279567</v>
+        <v>0.281081</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.421689</v>
+        <v>0.429095</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391951</v>
+        <v>0.405878</v>
       </c>
       <c r="D49" t="n">
-        <v>0.277939</v>
+        <v>0.288196</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.432073</v>
+        <v>0.442574</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321302</v>
+        <v>0.310077</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246572</v>
+        <v>0.243847</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466098</v>
+        <v>0.455424</v>
       </c>
       <c r="C51" t="n">
-        <v>0.334791</v>
+        <v>0.328804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253586</v>
+        <v>0.253926</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48631</v>
+        <v>0.483717</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3553</v>
+        <v>0.334958</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271622</v>
+        <v>0.259183</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.528143</v>
+        <v>0.499467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.373765</v>
+        <v>0.361511</v>
       </c>
       <c r="D53" t="n">
-        <v>0.268934</v>
+        <v>0.268525</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5786790000000001</v>
+        <v>0.551934</v>
       </c>
       <c r="C54" t="n">
-        <v>0.374473</v>
+        <v>0.388439</v>
       </c>
       <c r="D54" t="n">
-        <v>0.273361</v>
+        <v>0.279467</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.563875</v>
+        <v>0.567287</v>
       </c>
       <c r="C55" t="n">
-        <v>0.394573</v>
+        <v>0.396746</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294516</v>
+        <v>0.287344</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5273060000000001</v>
+        <v>0.510692</v>
       </c>
       <c r="C56" t="n">
-        <v>0.415108</v>
+        <v>0.416145</v>
       </c>
       <c r="D56" t="n">
-        <v>0.297799</v>
+        <v>0.298033</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.552381</v>
+        <v>0.551773</v>
       </c>
       <c r="C57" t="n">
-        <v>0.435303</v>
+        <v>0.4421</v>
       </c>
       <c r="D57" t="n">
-        <v>0.308308</v>
+        <v>0.309106</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.579581</v>
+        <v>0.56541</v>
       </c>
       <c r="C58" t="n">
-        <v>0.483024</v>
+        <v>0.475542</v>
       </c>
       <c r="D58" t="n">
-        <v>0.321685</v>
+        <v>0.324267</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6358279999999999</v>
+        <v>0.599057</v>
       </c>
       <c r="C59" t="n">
-        <v>0.505836</v>
+        <v>0.504777</v>
       </c>
       <c r="D59" t="n">
-        <v>0.344938</v>
+        <v>0.346046</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.656485</v>
+        <v>0.630333</v>
       </c>
       <c r="C60" t="n">
-        <v>0.536043</v>
+        <v>0.531341</v>
       </c>
       <c r="D60" t="n">
-        <v>0.352565</v>
+        <v>0.351475</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.683954</v>
+        <v>0.661528</v>
       </c>
       <c r="C61" t="n">
-        <v>0.562281</v>
+        <v>0.575309</v>
       </c>
       <c r="D61" t="n">
-        <v>0.379002</v>
+        <v>0.373814</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.718473</v>
+        <v>0.691785</v>
       </c>
       <c r="C62" t="n">
-        <v>0.620391</v>
+        <v>0.615911</v>
       </c>
       <c r="D62" t="n">
-        <v>0.381516</v>
+        <v>0.402271</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.742854</v>
+        <v>0.73266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.679942</v>
+        <v>0.639172</v>
       </c>
       <c r="D63" t="n">
-        <v>0.400065</v>
+        <v>0.404603</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.79592</v>
+        <v>0.764398</v>
       </c>
       <c r="C64" t="n">
-        <v>0.539903</v>
+        <v>0.536025</v>
       </c>
       <c r="D64" t="n">
-        <v>0.385623</v>
+        <v>0.379356</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.853298</v>
+        <v>0.814218</v>
       </c>
       <c r="C65" t="n">
-        <v>0.581533</v>
+        <v>0.542179</v>
       </c>
       <c r="D65" t="n">
-        <v>0.403147</v>
+        <v>0.400688</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.865206</v>
+        <v>0.80957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6403759999999999</v>
+        <v>0.574996</v>
       </c>
       <c r="D66" t="n">
-        <v>0.411149</v>
+        <v>0.405793</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.89254</v>
+        <v>0.888114</v>
       </c>
       <c r="C67" t="n">
-        <v>0.653619</v>
+        <v>0.609025</v>
       </c>
       <c r="D67" t="n">
-        <v>0.444578</v>
+        <v>0.439879</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.95948</v>
+        <v>0.93228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.689553</v>
+        <v>0.624896</v>
       </c>
       <c r="D68" t="n">
-        <v>0.456657</v>
+        <v>0.440854</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.998179</v>
+        <v>0.97832</v>
       </c>
       <c r="C69" t="n">
-        <v>0.709403</v>
+        <v>0.6941000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.473218</v>
+        <v>0.473742</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.809545</v>
+        <v>0.7930199999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.735833</v>
+        <v>0.723251</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5069360000000001</v>
+        <v>0.475728</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.84172</v>
+        <v>0.831072</v>
       </c>
       <c r="C71" t="n">
-        <v>0.805</v>
+        <v>0.763404</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523101</v>
+        <v>0.51922</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.873397</v>
+        <v>0.858591</v>
       </c>
       <c r="C72" t="n">
-        <v>0.835172</v>
+        <v>0.799547</v>
       </c>
       <c r="D72" t="n">
-        <v>0.552898</v>
+        <v>0.543096</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.892046</v>
+        <v>0.874767</v>
       </c>
       <c r="C73" t="n">
-        <v>0.849346</v>
+        <v>0.853513</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5639420000000001</v>
+        <v>0.547457</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.919494</v>
+        <v>0.907697</v>
       </c>
       <c r="C74" t="n">
-        <v>0.894752</v>
+        <v>0.878589</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6182800000000001</v>
+        <v>0.575318</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.950056</v>
+        <v>0.934554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.953414</v>
+        <v>0.936607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.601725</v>
+        <v>0.604299</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.969063</v>
+        <v>0.968471</v>
       </c>
       <c r="C76" t="n">
-        <v>1.00676</v>
+        <v>0.983892</v>
       </c>
       <c r="D76" t="n">
-        <v>0.642771</v>
+        <v>0.61747</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0266</v>
+        <v>1.02632</v>
       </c>
       <c r="C77" t="n">
-        <v>1.05947</v>
+        <v>1.03141</v>
       </c>
       <c r="D77" t="n">
-        <v>0.686882</v>
+        <v>0.654419</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.08408</v>
+        <v>1.05793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.845679</v>
+        <v>0.8040890000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.62336</v>
+        <v>0.5994080000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09359</v>
+        <v>1.10544</v>
       </c>
       <c r="C79" t="n">
-        <v>0.827423</v>
+        <v>0.851888</v>
       </c>
       <c r="D79" t="n">
-        <v>0.646154</v>
+        <v>0.626491</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.12499</v>
+        <v>1.13616</v>
       </c>
       <c r="C80" t="n">
-        <v>0.880715</v>
+        <v>0.856174</v>
       </c>
       <c r="D80" t="n">
-        <v>0.655245</v>
+        <v>0.664471</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.16914</v>
+        <v>1.17688</v>
       </c>
       <c r="C81" t="n">
-        <v>0.895317</v>
+        <v>0.892533</v>
       </c>
       <c r="D81" t="n">
-        <v>0.71141</v>
+        <v>0.6672400000000001</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.22886</v>
+        <v>1.25331</v>
       </c>
       <c r="C82" t="n">
-        <v>0.92091</v>
+        <v>0.944635</v>
       </c>
       <c r="D82" t="n">
-        <v>0.693591</v>
+        <v>0.7316510000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.23607</v>
+        <v>1.2856</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9411890000000001</v>
+        <v>0.9529029999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7170069999999999</v>
+        <v>0.732925</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.969245</v>
+        <v>0.972518</v>
       </c>
       <c r="C84" t="n">
-        <v>0.980352</v>
+        <v>0.980514</v>
       </c>
       <c r="D84" t="n">
-        <v>0.74012</v>
+        <v>0.78809</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.991269</v>
+        <v>1.00154</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05764</v>
+        <v>1.03332</v>
       </c>
       <c r="D85" t="n">
-        <v>0.768102</v>
+        <v>0.809429</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03056</v>
+        <v>1.04244</v>
       </c>
       <c r="C86" t="n">
-        <v>1.07032</v>
+        <v>1.05578</v>
       </c>
       <c r="D86" t="n">
-        <v>0.80165</v>
+        <v>0.7994059999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.06145</v>
+        <v>1.05926</v>
       </c>
       <c r="C87" t="n">
-        <v>1.1263</v>
+        <v>1.12439</v>
       </c>
       <c r="D87" t="n">
-        <v>0.821978</v>
+        <v>0.822163</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10664</v>
+        <v>1.0943</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16034</v>
+        <v>1.15774</v>
       </c>
       <c r="D88" t="n">
-        <v>0.826345</v>
+        <v>0.828107</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.10509</v>
+        <v>1.1115</v>
       </c>
       <c r="C89" t="n">
-        <v>1.20142</v>
+        <v>1.21999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.883871</v>
+        <v>0.864357</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16006</v>
+        <v>1.1857</v>
       </c>
       <c r="C90" t="n">
-        <v>1.24444</v>
+        <v>1.25218</v>
       </c>
       <c r="D90" t="n">
-        <v>0.886756</v>
+        <v>0.9022520000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1715</v>
+        <v>1.21757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31382</v>
+        <v>1.30494</v>
       </c>
       <c r="D91" t="n">
-        <v>0.92637</v>
+        <v>0.9143520000000001</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.25977</v>
+        <v>1.21268</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9515479999999999</v>
+        <v>0.961771</v>
       </c>
       <c r="D92" t="n">
-        <v>0.805086</v>
+        <v>0.789216</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.23133</v>
+        <v>1.26035</v>
       </c>
       <c r="C93" t="n">
-        <v>0.970351</v>
+        <v>1.00687</v>
       </c>
       <c r="D93" t="n">
-        <v>0.822672</v>
+        <v>0.8231579999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.31146</v>
+        <v>1.35469</v>
       </c>
       <c r="C94" t="n">
-        <v>1.0419</v>
+        <v>1.02021</v>
       </c>
       <c r="D94" t="n">
-        <v>0.833521</v>
+        <v>0.891115</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.35515</v>
+        <v>1.36947</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05889</v>
+        <v>1.06985</v>
       </c>
       <c r="D95" t="n">
-        <v>0.877791</v>
+        <v>0.85839</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.4123</v>
+        <v>1.43248</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06291</v>
+        <v>1.08647</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8729749999999999</v>
+        <v>0.877542</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.41156</v>
+        <v>1.46876</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10404</v>
+        <v>1.09912</v>
       </c>
       <c r="D97" t="n">
-        <v>0.922384</v>
+        <v>0.910851</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07367</v>
+        <v>1.04248</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15935</v>
+        <v>1.14735</v>
       </c>
       <c r="D98" t="n">
-        <v>0.948824</v>
+        <v>0.9528489999999999</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.08543</v>
+        <v>1.10682</v>
       </c>
       <c r="C99" t="n">
-        <v>1.17958</v>
+        <v>1.18043</v>
       </c>
       <c r="D99" t="n">
-        <v>0.946587</v>
+        <v>0.9824580000000001</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11785</v>
+        <v>1.13273</v>
       </c>
       <c r="C100" t="n">
-        <v>1.21522</v>
+        <v>1.22582</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9875620000000001</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.14291</v>
+        <v>1.17324</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26245</v>
+        <v>1.2628</v>
       </c>
       <c r="D101" t="n">
-        <v>0.995277</v>
+        <v>0.991887</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18563</v>
+        <v>1.18867</v>
       </c>
       <c r="C102" t="n">
-        <v>1.29147</v>
+        <v>1.35743</v>
       </c>
       <c r="D102" t="n">
-        <v>1.00811</v>
+        <v>1.04594</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.22202</v>
+        <v>1.2186</v>
       </c>
       <c r="C103" t="n">
-        <v>1.34113</v>
+        <v>1.35329</v>
       </c>
       <c r="D103" t="n">
-        <v>1.03583</v>
+        <v>1.09511</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.23031</v>
+        <v>1.23474</v>
       </c>
       <c r="C104" t="n">
-        <v>1.3804</v>
+        <v>1.39984</v>
       </c>
       <c r="D104" t="n">
-        <v>1.11667</v>
+        <v>1.08548</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.27943</v>
+        <v>1.33237</v>
       </c>
       <c r="C105" t="n">
-        <v>1.41669</v>
+        <v>1.45977</v>
       </c>
       <c r="D105" t="n">
-        <v>1.11737</v>
+        <v>1.16131</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34019</v>
+        <v>1.33411</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44707</v>
+        <v>1.4928</v>
       </c>
       <c r="D106" t="n">
-        <v>1.14611</v>
+        <v>1.17385</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36111</v>
+        <v>1.3798</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10558</v>
+        <v>1.09225</v>
       </c>
       <c r="D107" t="n">
-        <v>0.919045</v>
+        <v>0.932132</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.40395</v>
+        <v>1.42673</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12464</v>
+        <v>1.11639</v>
       </c>
       <c r="D108" t="n">
-        <v>0.949474</v>
+        <v>0.9550149999999999</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.45018</v>
+        <v>1.43555</v>
       </c>
       <c r="C109" t="n">
-        <v>1.15495</v>
+        <v>1.16323</v>
       </c>
       <c r="D109" t="n">
-        <v>0.973725</v>
+        <v>0.981652</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48345</v>
+        <v>1.48063</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17233</v>
+        <v>1.19406</v>
       </c>
       <c r="D110" t="n">
-        <v>0.99138</v>
+        <v>0.9900640000000001</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.53956</v>
+        <v>1.55947</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2196</v>
+        <v>1.20856</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02672</v>
+        <v>1.02668</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.13664</v>
+        <v>1.14414</v>
       </c>
       <c r="C112" t="n">
-        <v>1.25351</v>
+        <v>1.24379</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04232</v>
+        <v>1.05796</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19228</v>
+        <v>1.13693</v>
       </c>
       <c r="C113" t="n">
-        <v>1.26711</v>
+        <v>1.25868</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09474</v>
+        <v>1.04897</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.19669</v>
+        <v>1.19</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33401</v>
+        <v>1.30421</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08368</v>
+        <v>1.10661</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.25053</v>
+        <v>1.24815</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35308</v>
+        <v>1.35531</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1306</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28195</v>
+        <v>1.2778</v>
       </c>
       <c r="C116" t="n">
-        <v>1.39638</v>
+        <v>1.38345</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15261</v>
+        <v>1.15772</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30255</v>
+        <v>1.32001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48572</v>
+        <v>1.44809</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22783</v>
+        <v>1.18298</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.36898</v>
+        <v>1.36313</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50531</v>
+        <v>1.51266</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1906</v>
+        <v>1.23806</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.35982</v>
+        <v>1.38899</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62506</v>
+        <v>1.58454</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23309</v>
+        <v>1.27182</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.555536</v>
+        <v>0.572006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.430835</v>
+        <v>0.440208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242461</v>
+        <v>0.244075</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.363361</v>
+        <v>0.365484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.457623</v>
+        <v>0.451968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256853</v>
+        <v>0.24996</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.387085</v>
+        <v>0.388275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492847</v>
+        <v>0.471363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252713</v>
+        <v>0.254835</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411633</v>
+        <v>0.406736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.520322</v>
+        <v>0.492194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.270908</v>
+        <v>0.263461</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426089</v>
+        <v>0.419545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.513826</v>
+        <v>0.518301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.274672</v>
+        <v>0.272581</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454182</v>
+        <v>0.450243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.589217</v>
+        <v>0.565427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28398</v>
+        <v>0.28119</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.461514</v>
+        <v>0.48652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.580943</v>
+        <v>0.583046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.295697</v>
+        <v>0.313356</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.489761</v>
+        <v>0.495181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.608955</v>
+        <v>0.595491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310199</v>
+        <v>0.31235</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.534748</v>
+        <v>0.529236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.642568</v>
+        <v>0.649634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.327747</v>
+        <v>0.317883</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.554375</v>
+        <v>0.562762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.409174</v>
+        <v>0.411344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242728</v>
+        <v>0.241264</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.571812</v>
+        <v>0.57858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.42928</v>
+        <v>0.422401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259382</v>
+        <v>0.255194</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605413</v>
+        <v>0.615255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.438155</v>
+        <v>0.445016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256981</v>
+        <v>0.257789</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6474299999999999</v>
+        <v>0.6205039999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.464814</v>
+        <v>0.460119</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269787</v>
+        <v>0.26464</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6727880000000001</v>
+        <v>0.650775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.495667</v>
+        <v>0.485105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279227</v>
+        <v>0.273083</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.699065</v>
+        <v>0.693064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.510812</v>
+        <v>0.507923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284208</v>
+        <v>0.298661</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.420648</v>
+        <v>0.444487</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5398579999999999</v>
+        <v>0.5509810000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.296508</v>
+        <v>0.297199</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.438532</v>
+        <v>0.463506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.563306</v>
+        <v>0.5478420000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.303483</v>
+        <v>0.305963</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.471828</v>
+        <v>0.467377</v>
       </c>
       <c r="C19" t="n">
-        <v>0.565499</v>
+        <v>0.56992</v>
       </c>
       <c r="D19" t="n">
-        <v>0.315885</v>
+        <v>0.313216</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.500887</v>
+        <v>0.49441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6084850000000001</v>
+        <v>0.605704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.328632</v>
+        <v>0.334761</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5225070000000001</v>
+        <v>0.5078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.647917</v>
+        <v>0.647663</v>
       </c>
       <c r="D21" t="n">
-        <v>0.344209</v>
+        <v>0.355442</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.539269</v>
+        <v>0.556689</v>
       </c>
       <c r="C22" t="n">
-        <v>0.668682</v>
+        <v>0.659927</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343304</v>
+        <v>0.367663</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.558272</v>
+        <v>0.581377</v>
       </c>
       <c r="C23" t="n">
-        <v>0.692968</v>
+        <v>0.719349</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356361</v>
+        <v>0.371341</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.585921</v>
+        <v>0.602306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.718102</v>
+        <v>0.743249</v>
       </c>
       <c r="D24" t="n">
-        <v>0.380867</v>
+        <v>0.381718</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.60738</v>
+        <v>0.6099059999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.754234</v>
+        <v>0.762606</v>
       </c>
       <c r="D25" t="n">
-        <v>0.397941</v>
+        <v>0.405986</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642379</v>
+        <v>0.64091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460742</v>
+        <v>0.452943</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274641</v>
+        <v>0.281237</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657523</v>
+        <v>0.673353</v>
       </c>
       <c r="C27" t="n">
-        <v>0.493365</v>
+        <v>0.513571</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288234</v>
+        <v>0.284203</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.693318</v>
+        <v>0.716406</v>
       </c>
       <c r="C28" t="n">
-        <v>0.501637</v>
+        <v>0.521325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.304171</v>
+        <v>0.309127</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.733957</v>
+        <v>0.8009770000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.523661</v>
+        <v>0.547156</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312584</v>
+        <v>0.320088</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.746374</v>
+        <v>0.811423</v>
       </c>
       <c r="C30" t="n">
-        <v>0.555889</v>
+        <v>0.570166</v>
       </c>
       <c r="D30" t="n">
-        <v>0.310285</v>
+        <v>0.33919</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.812724</v>
+        <v>0.8345399999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.581676</v>
+        <v>0.622463</v>
       </c>
       <c r="D31" t="n">
-        <v>0.342758</v>
+        <v>0.357499</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508447</v>
+        <v>0.5494289999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.610905</v>
+        <v>0.657385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.335131</v>
+        <v>0.352113</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.552</v>
+        <v>0.569402</v>
       </c>
       <c r="C33" t="n">
-        <v>0.62623</v>
+        <v>0.688254</v>
       </c>
       <c r="D33" t="n">
-        <v>0.353976</v>
+        <v>0.373049</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.544597</v>
+        <v>0.601735</v>
       </c>
       <c r="C34" t="n">
-        <v>0.706484</v>
+        <v>0.7161110000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.392404</v>
+        <v>0.412818</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.579085</v>
+        <v>0.644248</v>
       </c>
       <c r="C35" t="n">
-        <v>0.743017</v>
+        <v>0.775057</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400916</v>
+        <v>0.402449</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.624626</v>
+        <v>0.657701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7814680000000001</v>
+        <v>0.786558</v>
       </c>
       <c r="D36" t="n">
-        <v>0.423146</v>
+        <v>0.430039</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.658934</v>
+        <v>0.699144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.830618</v>
+        <v>0.830058</v>
       </c>
       <c r="D37" t="n">
-        <v>0.415514</v>
+        <v>0.446403</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.677133</v>
+        <v>0.768859</v>
       </c>
       <c r="C38" t="n">
-        <v>0.863864</v>
+        <v>0.884319</v>
       </c>
       <c r="D38" t="n">
-        <v>0.444144</v>
+        <v>0.470842</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.78191</v>
+        <v>0.778598</v>
       </c>
       <c r="C39" t="n">
-        <v>0.898127</v>
+        <v>0.934178</v>
       </c>
       <c r="D39" t="n">
-        <v>0.462707</v>
+        <v>0.463329</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.774926</v>
+        <v>0.825572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.55894</v>
+        <v>0.590411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.352228</v>
+        <v>0.355262</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.838233</v>
+        <v>0.91447</v>
       </c>
       <c r="C41" t="n">
-        <v>0.632756</v>
+        <v>0.613702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.379714</v>
+        <v>0.377436</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.931151</v>
+        <v>0.966014</v>
       </c>
       <c r="C42" t="n">
-        <v>0.665604</v>
+        <v>0.66105</v>
       </c>
       <c r="D42" t="n">
-        <v>0.384532</v>
+        <v>0.392618</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9889019999999999</v>
+        <v>1.00018</v>
       </c>
       <c r="C43" t="n">
-        <v>0.677557</v>
+        <v>0.7072580000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.39966</v>
+        <v>0.409127</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.06955</v>
+        <v>1.04639</v>
       </c>
       <c r="C44" t="n">
-        <v>0.731383</v>
+        <v>0.749298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431513</v>
+        <v>0.440923</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.11134</v>
+        <v>1.1374</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8063399999999999</v>
+        <v>0.7844410000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.456896</v>
+        <v>0.453923</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.743484</v>
+        <v>0.7005670000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857697</v>
+        <v>0.838468</v>
       </c>
       <c r="D46" t="n">
-        <v>0.472429</v>
+        <v>0.47475</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.787297</v>
+        <v>0.744001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.912156</v>
+        <v>0.9025339999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5175920000000001</v>
+        <v>0.50678</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.838336</v>
+        <v>0.795922</v>
       </c>
       <c r="C48" t="n">
-        <v>0.999133</v>
+        <v>0.946535</v>
       </c>
       <c r="D48" t="n">
-        <v>0.540305</v>
+        <v>0.540095</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.883394</v>
+        <v>0.860836</v>
       </c>
       <c r="C49" t="n">
-        <v>1.03629</v>
+        <v>1.00676</v>
       </c>
       <c r="D49" t="n">
-        <v>0.572679</v>
+        <v>0.5525330000000001</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.989393</v>
+        <v>0.896895</v>
       </c>
       <c r="C50" t="n">
-        <v>1.12874</v>
+        <v>1.11383</v>
       </c>
       <c r="D50" t="n">
-        <v>0.602565</v>
+        <v>0.596523</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.972604</v>
+        <v>0.944674</v>
       </c>
       <c r="C51" t="n">
-        <v>1.19309</v>
+        <v>1.15222</v>
       </c>
       <c r="D51" t="n">
-        <v>0.632657</v>
+        <v>0.634621</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.04768</v>
+        <v>1.02083</v>
       </c>
       <c r="C52" t="n">
-        <v>1.27121</v>
+        <v>1.24711</v>
       </c>
       <c r="D52" t="n">
-        <v>0.66127</v>
+        <v>0.662413</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.13475</v>
+        <v>1.11528</v>
       </c>
       <c r="C53" t="n">
-        <v>1.39803</v>
+        <v>1.37331</v>
       </c>
       <c r="D53" t="n">
-        <v>0.745129</v>
+        <v>0.709666</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.20277</v>
+        <v>1.27877</v>
       </c>
       <c r="C54" t="n">
-        <v>0.846931</v>
+        <v>0.856464</v>
       </c>
       <c r="D54" t="n">
-        <v>0.497287</v>
+        <v>0.498546</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2944</v>
+        <v>1.20981</v>
       </c>
       <c r="C55" t="n">
-        <v>0.910981</v>
+        <v>0.902122</v>
       </c>
       <c r="D55" t="n">
-        <v>0.527976</v>
+        <v>0.5296380000000001</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.35687</v>
+        <v>1.32837</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9863150000000001</v>
+        <v>0.959606</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5470159999999999</v>
+        <v>0.550393</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.49875</v>
+        <v>1.42182</v>
       </c>
       <c r="C57" t="n">
-        <v>1.05988</v>
+        <v>1.09698</v>
       </c>
       <c r="D57" t="n">
-        <v>0.604705</v>
+        <v>0.563503</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60687</v>
+        <v>1.54525</v>
       </c>
       <c r="C58" t="n">
-        <v>1.08829</v>
+        <v>1.11735</v>
       </c>
       <c r="D58" t="n">
-        <v>0.640138</v>
+        <v>0.6097089999999999</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.76604</v>
+        <v>1.66907</v>
       </c>
       <c r="C59" t="n">
-        <v>1.29043</v>
+        <v>1.18429</v>
       </c>
       <c r="D59" t="n">
-        <v>0.655188</v>
+        <v>0.638222</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.09845</v>
+        <v>1.15775</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30862</v>
+        <v>1.30766</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7001810000000001</v>
+        <v>0.683871</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.16934</v>
+        <v>1.23498</v>
       </c>
       <c r="C61" t="n">
-        <v>1.47165</v>
+        <v>1.46769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.731802</v>
+        <v>0.722512</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.33887</v>
+        <v>1.32312</v>
       </c>
       <c r="C62" t="n">
-        <v>1.60817</v>
+        <v>1.51809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.824135</v>
+        <v>0.779271</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.37957</v>
+        <v>1.40809</v>
       </c>
       <c r="C63" t="n">
-        <v>1.75672</v>
+        <v>1.70095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.829058</v>
+        <v>0.827481</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54787</v>
+        <v>1.52968</v>
       </c>
       <c r="C64" t="n">
-        <v>1.89966</v>
+        <v>1.85762</v>
       </c>
       <c r="D64" t="n">
-        <v>0.862907</v>
+        <v>0.852437</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.69854</v>
+        <v>1.60483</v>
       </c>
       <c r="C65" t="n">
-        <v>2.03312</v>
+        <v>2.00633</v>
       </c>
       <c r="D65" t="n">
-        <v>0.968133</v>
+        <v>0.934379</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.88711</v>
+        <v>1.88604</v>
       </c>
       <c r="C66" t="n">
-        <v>2.25096</v>
+        <v>2.31434</v>
       </c>
       <c r="D66" t="n">
-        <v>0.997491</v>
+        <v>1.01065</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.9792</v>
+        <v>1.97721</v>
       </c>
       <c r="C67" t="n">
-        <v>2.48616</v>
+        <v>2.47447</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06116</v>
+        <v>1.06016</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.08794</v>
+        <v>2.1009</v>
       </c>
       <c r="C68" t="n">
-        <v>1.42122</v>
+        <v>1.43227</v>
       </c>
       <c r="D68" t="n">
-        <v>0.73889</v>
+        <v>0.725441</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.2652</v>
+        <v>2.26292</v>
       </c>
       <c r="C69" t="n">
-        <v>1.63585</v>
+        <v>1.62301</v>
       </c>
       <c r="D69" t="n">
-        <v>0.792151</v>
+        <v>0.768255</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.43602</v>
+        <v>2.4268</v>
       </c>
       <c r="C70" t="n">
-        <v>1.74926</v>
+        <v>1.69515</v>
       </c>
       <c r="D70" t="n">
-        <v>0.858151</v>
+        <v>0.841434</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.60591</v>
+        <v>2.66923</v>
       </c>
       <c r="C71" t="n">
-        <v>1.90252</v>
+        <v>1.86071</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9016189999999999</v>
+        <v>0.901805</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.87512</v>
+        <v>2.84365</v>
       </c>
       <c r="C72" t="n">
-        <v>2.03025</v>
+        <v>2.02634</v>
       </c>
       <c r="D72" t="n">
-        <v>0.960086</v>
+        <v>0.987784</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.15535</v>
+        <v>3.18295</v>
       </c>
       <c r="C73" t="n">
-        <v>2.26959</v>
+        <v>2.11679</v>
       </c>
       <c r="D73" t="n">
-        <v>1.02654</v>
+        <v>1.01582</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.90432</v>
+        <v>1.94655</v>
       </c>
       <c r="C74" t="n">
-        <v>2.39622</v>
+        <v>2.28083</v>
       </c>
       <c r="D74" t="n">
-        <v>1.10642</v>
+        <v>1.07875</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.08974</v>
+        <v>2.09139</v>
       </c>
       <c r="C75" t="n">
-        <v>2.50838</v>
+        <v>2.50942</v>
       </c>
       <c r="D75" t="n">
-        <v>1.16168</v>
+        <v>1.16753</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.2188</v>
+        <v>2.21595</v>
       </c>
       <c r="C76" t="n">
-        <v>2.78089</v>
+        <v>2.74442</v>
       </c>
       <c r="D76" t="n">
-        <v>1.24819</v>
+        <v>1.21644</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.31718</v>
+        <v>2.40386</v>
       </c>
       <c r="C77" t="n">
-        <v>2.99727</v>
+        <v>2.86801</v>
       </c>
       <c r="D77" t="n">
-        <v>1.32832</v>
+        <v>1.31192</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.50887</v>
+        <v>2.4556</v>
       </c>
       <c r="C78" t="n">
-        <v>3.22344</v>
+        <v>3.10798</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44396</v>
+        <v>1.38679</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.56722</v>
+        <v>2.6163</v>
       </c>
       <c r="C79" t="n">
-        <v>3.46334</v>
+        <v>3.39749</v>
       </c>
       <c r="D79" t="n">
-        <v>1.51069</v>
+        <v>1.48582</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.77834</v>
+        <v>2.76228</v>
       </c>
       <c r="C80" t="n">
-        <v>3.56844</v>
+        <v>3.57785</v>
       </c>
       <c r="D80" t="n">
-        <v>1.63025</v>
+        <v>1.66164</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.02863</v>
+        <v>3.01335</v>
       </c>
       <c r="C81" t="n">
-        <v>3.77868</v>
+        <v>3.96328</v>
       </c>
       <c r="D81" t="n">
-        <v>1.74297</v>
+        <v>1.66183</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.21605</v>
+        <v>3.18931</v>
       </c>
       <c r="C82" t="n">
-        <v>4.07833</v>
+        <v>4.14488</v>
       </c>
       <c r="D82" t="n">
-        <v>1.81016</v>
+        <v>1.79171</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.32124</v>
+        <v>3.42989</v>
       </c>
       <c r="C83" t="n">
-        <v>2.39335</v>
+        <v>2.38253</v>
       </c>
       <c r="D83" t="n">
-        <v>1.23603</v>
+        <v>1.21688</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.61657</v>
+        <v>3.56032</v>
       </c>
       <c r="C84" t="n">
-        <v>2.50736</v>
+        <v>2.49763</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2672</v>
+        <v>1.27824</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.72566</v>
+        <v>3.65311</v>
       </c>
       <c r="C85" t="n">
-        <v>2.63864</v>
+        <v>2.61622</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38946</v>
+        <v>1.34118</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.96025</v>
+        <v>3.9526</v>
       </c>
       <c r="C86" t="n">
-        <v>2.78391</v>
+        <v>2.76608</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41945</v>
+        <v>1.41573</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.18416</v>
+        <v>4.17327</v>
       </c>
       <c r="C87" t="n">
-        <v>2.95913</v>
+        <v>2.92081</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51835</v>
+        <v>1.52124</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.49143</v>
+        <v>4.30253</v>
       </c>
       <c r="C88" t="n">
-        <v>3.15945</v>
+        <v>3.11998</v>
       </c>
       <c r="D88" t="n">
-        <v>1.62454</v>
+        <v>1.58317</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.63774</v>
+        <v>2.62417</v>
       </c>
       <c r="C89" t="n">
-        <v>3.26645</v>
+        <v>3.3583</v>
       </c>
       <c r="D89" t="n">
-        <v>1.6858</v>
+        <v>1.63662</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.76337</v>
+        <v>2.757</v>
       </c>
       <c r="C90" t="n">
-        <v>3.49759</v>
+        <v>3.44007</v>
       </c>
       <c r="D90" t="n">
-        <v>1.82559</v>
+        <v>1.69171</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.88259</v>
+        <v>2.86768</v>
       </c>
       <c r="C91" t="n">
-        <v>3.70655</v>
+        <v>3.7418</v>
       </c>
       <c r="D91" t="n">
-        <v>1.85331</v>
+        <v>1.82919</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.0926</v>
+        <v>3.0629</v>
       </c>
       <c r="C92" t="n">
-        <v>3.98249</v>
+        <v>3.87803</v>
       </c>
       <c r="D92" t="n">
-        <v>1.97522</v>
+        <v>1.94612</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.19254</v>
+        <v>3.16721</v>
       </c>
       <c r="C93" t="n">
-        <v>4.14437</v>
+        <v>4.09597</v>
       </c>
       <c r="D93" t="n">
-        <v>2.09332</v>
+        <v>1.99973</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.39416</v>
+        <v>3.38249</v>
       </c>
       <c r="C94" t="n">
-        <v>4.48367</v>
+        <v>4.33266</v>
       </c>
       <c r="D94" t="n">
-        <v>2.14392</v>
+        <v>2.10042</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.50972</v>
+        <v>3.48526</v>
       </c>
       <c r="C95" t="n">
-        <v>4.69097</v>
+        <v>4.55014</v>
       </c>
       <c r="D95" t="n">
-        <v>2.25574</v>
+        <v>2.23865</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.78541</v>
+        <v>3.61836</v>
       </c>
       <c r="C96" t="n">
-        <v>5.06621</v>
+        <v>4.87288</v>
       </c>
       <c r="D96" t="n">
-        <v>2.40265</v>
+        <v>2.34958</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.94009</v>
+        <v>3.86759</v>
       </c>
       <c r="C97" t="n">
-        <v>2.78127</v>
+        <v>2.78301</v>
       </c>
       <c r="D97" t="n">
-        <v>1.61498</v>
+        <v>1.56526</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.11205</v>
+        <v>4.12809</v>
       </c>
       <c r="C98" t="n">
-        <v>3.03223</v>
+        <v>2.93445</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68317</v>
+        <v>1.6254</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.26346</v>
+        <v>4.37</v>
       </c>
       <c r="C99" t="n">
-        <v>3.0842</v>
+        <v>3.12883</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69549</v>
+        <v>1.73271</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.54102</v>
+        <v>4.6576</v>
       </c>
       <c r="C100" t="n">
-        <v>3.28089</v>
+        <v>3.25225</v>
       </c>
       <c r="D100" t="n">
-        <v>1.83288</v>
+        <v>1.84025</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.78508</v>
+        <v>4.9367</v>
       </c>
       <c r="C101" t="n">
-        <v>3.4508</v>
+        <v>3.42906</v>
       </c>
       <c r="D101" t="n">
-        <v>1.92086</v>
+        <v>1.89428</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.98854</v>
+        <v>5.05177</v>
       </c>
       <c r="C102" t="n">
-        <v>3.56044</v>
+        <v>3.6139</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94816</v>
+        <v>1.96572</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.93349</v>
+        <v>2.93307</v>
       </c>
       <c r="C103" t="n">
-        <v>3.80387</v>
+        <v>3.80831</v>
       </c>
       <c r="D103" t="n">
-        <v>2.03815</v>
+        <v>2.0888</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.00603</v>
+        <v>3.07796</v>
       </c>
       <c r="C104" t="n">
-        <v>3.97255</v>
+        <v>4.06115</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18353</v>
+        <v>2.22196</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.23029</v>
+        <v>3.23213</v>
       </c>
       <c r="C105" t="n">
-        <v>4.21478</v>
+        <v>4.24264</v>
       </c>
       <c r="D105" t="n">
-        <v>2.26116</v>
+        <v>2.24951</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.38462</v>
+        <v>3.44681</v>
       </c>
       <c r="C106" t="n">
-        <v>4.45461</v>
+        <v>4.51924</v>
       </c>
       <c r="D106" t="n">
-        <v>2.31413</v>
+        <v>2.34938</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.52168</v>
+        <v>3.54151</v>
       </c>
       <c r="C107" t="n">
-        <v>4.63128</v>
+        <v>4.775</v>
       </c>
       <c r="D107" t="n">
-        <v>2.37653</v>
+        <v>2.44328</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.69545</v>
+        <v>3.7912</v>
       </c>
       <c r="C108" t="n">
-        <v>4.90548</v>
+        <v>4.98772</v>
       </c>
       <c r="D108" t="n">
-        <v>2.5117</v>
+        <v>2.57531</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.8679</v>
+        <v>3.92167</v>
       </c>
       <c r="C109" t="n">
-        <v>5.16082</v>
+        <v>5.22458</v>
       </c>
       <c r="D109" t="n">
-        <v>2.68149</v>
+        <v>2.66717</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.10639</v>
+        <v>4.1021</v>
       </c>
       <c r="C110" t="n">
-        <v>5.44974</v>
+        <v>5.50961</v>
       </c>
       <c r="D110" t="n">
-        <v>2.8015</v>
+        <v>2.87497</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.26436</v>
+        <v>4.35198</v>
       </c>
       <c r="C111" t="n">
-        <v>3.04295</v>
+        <v>3.06795</v>
       </c>
       <c r="D111" t="n">
-        <v>1.93838</v>
+        <v>1.92266</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.4215</v>
+        <v>4.54898</v>
       </c>
       <c r="C112" t="n">
-        <v>3.15524</v>
+        <v>3.23802</v>
       </c>
       <c r="D112" t="n">
-        <v>1.98988</v>
+        <v>1.97714</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.7534</v>
+        <v>4.75069</v>
       </c>
       <c r="C113" t="n">
-        <v>3.33114</v>
+        <v>3.38535</v>
       </c>
       <c r="D113" t="n">
-        <v>2.0677</v>
+        <v>2.08662</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.94589</v>
+        <v>4.95922</v>
       </c>
       <c r="C114" t="n">
-        <v>3.51094</v>
+        <v>3.56294</v>
       </c>
       <c r="D114" t="n">
-        <v>2.15009</v>
+        <v>2.14286</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.15781</v>
+        <v>5.24829</v>
       </c>
       <c r="C115" t="n">
-        <v>3.66423</v>
+        <v>3.72556</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24231</v>
+        <v>2.23143</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.41575</v>
+        <v>5.48063</v>
       </c>
       <c r="C116" t="n">
-        <v>3.89465</v>
+        <v>3.89501</v>
       </c>
       <c r="D116" t="n">
-        <v>2.32317</v>
+        <v>2.31002</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.13099</v>
+        <v>3.15886</v>
       </c>
       <c r="C117" t="n">
-        <v>4.08762</v>
+        <v>4.13657</v>
       </c>
       <c r="D117" t="n">
-        <v>2.37298</v>
+        <v>2.44186</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.35488</v>
+        <v>3.30874</v>
       </c>
       <c r="C118" t="n">
-        <v>4.33525</v>
+        <v>4.38953</v>
       </c>
       <c r="D118" t="n">
-        <v>2.46843</v>
+        <v>2.5843</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.51906</v>
+        <v>3.4911</v>
       </c>
       <c r="C119" t="n">
-        <v>4.55693</v>
+        <v>4.57708</v>
       </c>
       <c r="D119" t="n">
-        <v>2.53026</v>
+        <v>2.65222</v>
       </c>
     </row>
   </sheetData>
